--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -14190,7 +14190,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="X114" s="3" t="inlineStr"/>
+      <c r="X114" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Y114" s="3" t="inlineStr"/>
       <c r="Z114" s="3" t="inlineStr"/>
       <c r="AA114" s="2" t="inlineStr">
@@ -14200,7 +14204,11 @@
       </c>
       <c r="AB114" s="3" t="inlineStr"/>
       <c r="AC114" s="3" t="inlineStr"/>
-      <c r="AD114" s="3" t="inlineStr"/>
+      <c r="AD114" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE114" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -1140,7 +1140,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z6" s="3" t="inlineStr"/>
+      <c r="Z6" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA6" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -4740,7 +4744,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z38" s="3" t="inlineStr"/>
+      <c r="Z38" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA38" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -10484,7 +10492,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z84" s="3" t="inlineStr"/>
+      <c r="Z84" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA84" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -11426,7 +11438,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z93" s="3" t="inlineStr"/>
+      <c r="Z93" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA93" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -15202,7 +15218,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z123" s="3" t="inlineStr"/>
+      <c r="Z123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA123" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22814,7 +22834,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z185" s="3" t="inlineStr"/>
+      <c r="Z185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA185" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26974,7 +26998,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z223" s="3" t="inlineStr"/>
+      <c r="Z223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27476,7 +27504,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z228" s="3" t="inlineStr"/>
+      <c r="Z228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA228" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -1336,25 +1336,41 @@
         </is>
       </c>
       <c r="U8" s="3" t="inlineStr"/>
-      <c r="V8" s="3" t="inlineStr"/>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X8" s="3" t="inlineStr"/>
+      <c r="X8" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Y8" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Z8" s="3" t="inlineStr"/>
+      <c r="Z8" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA8" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB8" s="3" t="inlineStr"/>
+      <c r="AB8" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC8" s="3" t="inlineStr"/>
       <c r="AD8" s="2" t="inlineStr">
         <is>
@@ -2238,7 +2254,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr"/>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -2287,7 +2307,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q16" s="3" t="inlineStr"/>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -2298,7 +2322,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T16" s="3" t="inlineStr"/>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U16" s="3" t="inlineStr"/>
       <c r="V16" s="3" t="inlineStr"/>
       <c r="W16" s="3" t="inlineStr"/>
@@ -11816,7 +11844,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z96" s="3" t="inlineStr"/>
+      <c r="Z96" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA96" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25378,7 +25410,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z209" s="3" t="inlineStr"/>
+      <c r="Z209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA209" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -1852,7 +1852,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z12" s="3" t="inlineStr"/>
+      <c r="Z12" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA12" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -17306,13 +17310,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="V139" s="3" t="inlineStr"/>
+      <c r="V139" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W139" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X139" s="3" t="inlineStr"/>
+      <c r="X139" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Y139" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -17324,7 +17336,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AB139" s="3" t="inlineStr"/>
+      <c r="AB139" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC139" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -2252,7 +2252,11 @@
           <t>AWS CloudShell</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr"/>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -720,8 +720,16 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -761,7 +769,11 @@
         </is>
       </c>
       <c r="P3" s="3" t="inlineStr"/>
-      <c r="Q3" s="3" t="inlineStr"/>
+      <c r="Q3" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16900,7 +16912,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z136" s="3" t="inlineStr"/>
+      <c r="Z136" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA136" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18052,7 +18068,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z144" s="3" t="inlineStr"/>
+      <c r="Z144" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA144" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -11647,10 +11647,14 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Amazon Lightsail</t>
-        </is>
-      </c>
-      <c r="B95" s="3" t="inlineStr"/>
+          <t>Amazon Managed Streaming for Apache Kafka</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -11716,39 +11720,99 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P95" s="3" t="inlineStr"/>
-      <c r="Q95" s="3" t="inlineStr"/>
+      <c r="P95" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q95" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R95" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S95" s="3" t="inlineStr"/>
-      <c r="T95" s="3" t="inlineStr"/>
-      <c r="U95" s="3" t="inlineStr"/>
-      <c r="V95" s="3" t="inlineStr"/>
-      <c r="W95" s="3" t="inlineStr"/>
-      <c r="X95" s="3" t="inlineStr"/>
-      <c r="Y95" s="3" t="inlineStr"/>
-      <c r="Z95" s="3" t="inlineStr"/>
-      <c r="AA95" s="3" t="inlineStr"/>
-      <c r="AB95" s="3" t="inlineStr"/>
-      <c r="AC95" s="3" t="inlineStr"/>
-      <c r="AD95" s="3" t="inlineStr"/>
-      <c r="AE95" s="3" t="inlineStr"/>
-      <c r="AF95" s="3" t="inlineStr"/>
+      <c r="S95" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T95" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U95" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V95" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W95" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X95" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y95" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z95" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA95" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB95" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC95" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD95" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE95" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF95" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Amazon Managed Streaming for Apache Kafka</t>
-        </is>
-      </c>
-      <c r="B96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Managed Grafana</t>
+        </is>
+      </c>
+      <c r="B96" s="3" t="inlineStr"/>
       <c r="C96" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -11759,31 +11823,19 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E96" s="3" t="inlineStr"/>
       <c r="F96" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G96" s="3" t="inlineStr"/>
       <c r="H96" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I96" s="3" t="inlineStr"/>
       <c r="J96" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -11804,109 +11856,45 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N96" s="3" t="inlineStr"/>
       <c r="O96" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P96" s="3" t="inlineStr"/>
+      <c r="Q96" s="3" t="inlineStr"/>
       <c r="R96" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S96" s="3" t="inlineStr"/>
+      <c r="T96" s="3" t="inlineStr"/>
+      <c r="U96" s="3" t="inlineStr"/>
+      <c r="V96" s="3" t="inlineStr"/>
+      <c r="W96" s="3" t="inlineStr"/>
+      <c r="X96" s="3" t="inlineStr"/>
+      <c r="Y96" s="3" t="inlineStr"/>
+      <c r="Z96" s="3" t="inlineStr"/>
+      <c r="AA96" s="3" t="inlineStr"/>
+      <c r="AB96" s="3" t="inlineStr"/>
+      <c r="AC96" s="3" t="inlineStr"/>
+      <c r="AD96" s="3" t="inlineStr"/>
+      <c r="AE96" s="3" t="inlineStr"/>
+      <c r="AF96" s="3" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Amazon Managed Grafana</t>
-        </is>
-      </c>
-      <c r="B97" s="3" t="inlineStr"/>
+          <t>Amazon Virtual Private Cloud (VPC)</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -11917,19 +11905,31 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E97" s="3" t="inlineStr"/>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G97" s="3" t="inlineStr"/>
+      <c r="G97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I97" s="3" t="inlineStr"/>
+      <c r="I97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J97" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -11950,38 +11950,106 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N97" s="3" t="inlineStr"/>
+      <c r="N97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O97" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P97" s="3" t="inlineStr"/>
-      <c r="Q97" s="3" t="inlineStr"/>
+      <c r="P97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R97" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S97" s="3" t="inlineStr"/>
-      <c r="T97" s="3" t="inlineStr"/>
-      <c r="U97" s="3" t="inlineStr"/>
-      <c r="V97" s="3" t="inlineStr"/>
-      <c r="W97" s="3" t="inlineStr"/>
-      <c r="X97" s="3" t="inlineStr"/>
-      <c r="Y97" s="3" t="inlineStr"/>
-      <c r="Z97" s="3" t="inlineStr"/>
-      <c r="AA97" s="3" t="inlineStr"/>
-      <c r="AB97" s="3" t="inlineStr"/>
-      <c r="AC97" s="3" t="inlineStr"/>
-      <c r="AD97" s="3" t="inlineStr"/>
-      <c r="AE97" s="3" t="inlineStr"/>
-      <c r="AF97" s="3" t="inlineStr"/>
+      <c r="S97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Amazon Virtual Private Cloud (VPC)</t>
+          <t>AWS Resource Groups</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -12143,14 +12211,10 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>AWS Resource Groups</t>
-        </is>
-      </c>
-      <c r="B99" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Lightsail</t>
+        </is>
+      </c>
+      <c r="B99" s="3" t="inlineStr"/>
       <c r="C99" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -12216,103 +12280,35 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P99" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q99" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P99" s="3" t="inlineStr"/>
+      <c r="Q99" s="3" t="inlineStr"/>
       <c r="R99" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S99" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T99" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U99" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V99" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W99" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X99" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y99" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z99" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA99" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB99" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC99" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD99" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE99" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF99" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S99" s="3" t="inlineStr"/>
+      <c r="T99" s="3" t="inlineStr"/>
+      <c r="U99" s="3" t="inlineStr"/>
+      <c r="V99" s="3" t="inlineStr"/>
+      <c r="W99" s="3" t="inlineStr"/>
+      <c r="X99" s="3" t="inlineStr"/>
+      <c r="Y99" s="3" t="inlineStr"/>
+      <c r="Z99" s="3" t="inlineStr"/>
+      <c r="AA99" s="3" t="inlineStr"/>
+      <c r="AB99" s="3" t="inlineStr"/>
+      <c r="AC99" s="3" t="inlineStr"/>
+      <c r="AD99" s="3" t="inlineStr"/>
+      <c r="AE99" s="3" t="inlineStr"/>
+      <c r="AF99" s="3" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>AWS Signer</t>
-        </is>
-      </c>
-      <c r="B100" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS IoT SiteWise</t>
+        </is>
+      </c>
+      <c r="B100" s="3" t="inlineStr"/>
       <c r="C100" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -12338,16 +12334,8 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="H100" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I100" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="H100" s="3" t="inlineStr"/>
+      <c r="I100" s="3" t="inlineStr"/>
       <c r="J100" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -12368,32 +12356,24 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N100" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N100" s="3" t="inlineStr"/>
       <c r="O100" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P100" s="3" t="inlineStr"/>
-      <c r="Q100" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P100" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q100" s="3" t="inlineStr"/>
       <c r="R100" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S100" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S100" s="3" t="inlineStr"/>
       <c r="T100" s="3" t="inlineStr"/>
       <c r="U100" s="2" t="inlineStr">
         <is>
@@ -12401,40 +12381,28 @@
         </is>
       </c>
       <c r="V100" s="3" t="inlineStr"/>
-      <c r="W100" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W100" s="3" t="inlineStr"/>
       <c r="X100" s="3" t="inlineStr"/>
       <c r="Y100" s="3" t="inlineStr"/>
       <c r="Z100" s="3" t="inlineStr"/>
-      <c r="AA100" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA100" s="3" t="inlineStr"/>
       <c r="AB100" s="3" t="inlineStr"/>
-      <c r="AC100" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC100" s="3" t="inlineStr"/>
       <c r="AD100" s="3" t="inlineStr"/>
-      <c r="AE100" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE100" s="3" t="inlineStr"/>
       <c r="AF100" s="3" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>AWS IoT SiteWise</t>
-        </is>
-      </c>
-      <c r="B101" s="3" t="inlineStr"/>
+          <t>AWS Direct Connect</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -12460,8 +12428,16 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="H101" s="3" t="inlineStr"/>
-      <c r="I101" s="3" t="inlineStr"/>
+      <c r="H101" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I101" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J101" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -12482,7 +12458,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N101" s="3" t="inlineStr"/>
+      <c r="N101" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O101" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -12493,35 +12473,91 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q101" s="3" t="inlineStr"/>
+      <c r="Q101" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R101" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S101" s="3" t="inlineStr"/>
-      <c r="T101" s="3" t="inlineStr"/>
+      <c r="S101" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T101" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U101" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V101" s="3" t="inlineStr"/>
-      <c r="W101" s="3" t="inlineStr"/>
-      <c r="X101" s="3" t="inlineStr"/>
-      <c r="Y101" s="3" t="inlineStr"/>
-      <c r="Z101" s="3" t="inlineStr"/>
-      <c r="AA101" s="3" t="inlineStr"/>
-      <c r="AB101" s="3" t="inlineStr"/>
-      <c r="AC101" s="3" t="inlineStr"/>
-      <c r="AD101" s="3" t="inlineStr"/>
-      <c r="AE101" s="3" t="inlineStr"/>
-      <c r="AF101" s="3" t="inlineStr"/>
+      <c r="V101" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W101" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X101" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y101" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z101" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA101" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB101" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC101" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD101" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE101" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF101" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>AWS Direct Connect</t>
+          <t>AWS IoT Core</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -12614,51 +12650,19 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T102" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T102" s="3" t="inlineStr"/>
       <c r="U102" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V102" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W102" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X102" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y102" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z102" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA102" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB102" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V102" s="3" t="inlineStr"/>
+      <c r="W102" s="3" t="inlineStr"/>
+      <c r="X102" s="3" t="inlineStr"/>
+      <c r="Y102" s="3" t="inlineStr"/>
+      <c r="Z102" s="3" t="inlineStr"/>
+      <c r="AA102" s="3" t="inlineStr"/>
+      <c r="AB102" s="3" t="inlineStr"/>
       <c r="AC102" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -12683,7 +12687,7 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>AWS IoT Core</t>
+          <t>AWS IAM Identity Center</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
@@ -12776,29 +12780,33 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T103" s="3" t="inlineStr"/>
-      <c r="U103" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T103" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U103" s="3" t="inlineStr"/>
       <c r="V103" s="3" t="inlineStr"/>
-      <c r="W103" s="3" t="inlineStr"/>
+      <c r="W103" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X103" s="3" t="inlineStr"/>
-      <c r="Y103" s="3" t="inlineStr"/>
+      <c r="Y103" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z103" s="3" t="inlineStr"/>
-      <c r="AA103" s="3" t="inlineStr"/>
+      <c r="AA103" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB103" s="3" t="inlineStr"/>
-      <c r="AC103" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD103" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC103" s="3" t="inlineStr"/>
+      <c r="AD103" s="3" t="inlineStr"/>
       <c r="AE103" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -12813,7 +12821,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>AWS IAM Identity Center</t>
+          <t>AWS Trusted Advisor</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -12911,28 +12919,56 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U104" s="3" t="inlineStr"/>
-      <c r="V104" s="3" t="inlineStr"/>
+      <c r="U104" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V104" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W104" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X104" s="3" t="inlineStr"/>
+      <c r="X104" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Y104" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Z104" s="3" t="inlineStr"/>
+      <c r="Z104" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA104" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB104" s="3" t="inlineStr"/>
-      <c r="AC104" s="3" t="inlineStr"/>
-      <c r="AD104" s="3" t="inlineStr"/>
+      <c r="AB104" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC104" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD104" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE104" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -12947,7 +12983,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>AWS Trusted Advisor</t>
+          <t>AWS Signer</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
@@ -13020,11 +13056,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P105" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P105" s="3" t="inlineStr"/>
       <c r="Q105" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -13040,79 +13072,51 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T105" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T105" s="3" t="inlineStr"/>
       <c r="U105" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V105" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V105" s="3" t="inlineStr"/>
       <c r="W105" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X105" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y105" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z105" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X105" s="3" t="inlineStr"/>
+      <c r="Y105" s="3" t="inlineStr"/>
+      <c r="Z105" s="3" t="inlineStr"/>
       <c r="AA105" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB105" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB105" s="3" t="inlineStr"/>
       <c r="AC105" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD105" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD105" s="3" t="inlineStr"/>
       <c r="AE105" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AF105" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF105" s="3" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Amazon Chime</t>
-        </is>
-      </c>
-      <c r="B106" s="3" t="inlineStr"/>
+          <t>Amazon Aurora</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -13198,26 +13202,66 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T106" s="3" t="inlineStr"/>
-      <c r="U106" s="3" t="inlineStr"/>
-      <c r="V106" s="3" t="inlineStr"/>
+      <c r="T106" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U106" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V106" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W106" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X106" s="3" t="inlineStr"/>
-      <c r="Y106" s="3" t="inlineStr"/>
-      <c r="Z106" s="3" t="inlineStr"/>
+      <c r="X106" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y106" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z106" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA106" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB106" s="3" t="inlineStr"/>
-      <c r="AC106" s="3" t="inlineStr"/>
-      <c r="AD106" s="3" t="inlineStr"/>
-      <c r="AE106" s="3" t="inlineStr"/>
+      <c r="AB106" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC106" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD106" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE106" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF106" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -13227,7 +13271,7 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Amazon Aurora</t>
+          <t>CloudEndure Migration</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -13330,51 +13374,27 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="V107" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V107" s="3" t="inlineStr"/>
       <c r="W107" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X107" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y107" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z107" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X107" s="3" t="inlineStr"/>
+      <c r="Y107" s="3" t="inlineStr"/>
+      <c r="Z107" s="3" t="inlineStr"/>
       <c r="AA107" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB107" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB107" s="3" t="inlineStr"/>
       <c r="AC107" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD107" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD107" s="3" t="inlineStr"/>
       <c r="AE107" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -13389,7 +13409,7 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>CloudEndure Migration</t>
+          <t>AWS Resilience Hub</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -13462,11 +13482,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P108" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P108" s="3" t="inlineStr"/>
       <c r="Q108" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -13482,16 +13498,8 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T108" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U108" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T108" s="3" t="inlineStr"/>
+      <c r="U108" s="3" t="inlineStr"/>
       <c r="V108" s="3" t="inlineStr"/>
       <c r="W108" s="2" t="inlineStr">
         <is>
@@ -13507,34 +13515,22 @@
         </is>
       </c>
       <c r="AB108" s="3" t="inlineStr"/>
-      <c r="AC108" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC108" s="3" t="inlineStr"/>
       <c r="AD108" s="3" t="inlineStr"/>
       <c r="AE108" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AF108" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF108" s="3" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>AWS Resilience Hub</t>
-        </is>
-      </c>
-      <c r="B109" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Comprehend</t>
+        </is>
+      </c>
+      <c r="B109" s="3" t="inlineStr"/>
       <c r="C109" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -13565,11 +13561,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I109" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I109" s="3" t="inlineStr"/>
       <c r="J109" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -13590,65 +13582,49 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N109" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N109" s="3" t="inlineStr"/>
       <c r="O109" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P109" s="3" t="inlineStr"/>
-      <c r="Q109" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P109" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q109" s="3" t="inlineStr"/>
       <c r="R109" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S109" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S109" s="3" t="inlineStr"/>
       <c r="T109" s="3" t="inlineStr"/>
       <c r="U109" s="3" t="inlineStr"/>
       <c r="V109" s="3" t="inlineStr"/>
-      <c r="W109" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W109" s="3" t="inlineStr"/>
       <c r="X109" s="3" t="inlineStr"/>
       <c r="Y109" s="3" t="inlineStr"/>
       <c r="Z109" s="3" t="inlineStr"/>
-      <c r="AA109" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA109" s="3" t="inlineStr"/>
       <c r="AB109" s="3" t="inlineStr"/>
       <c r="AC109" s="3" t="inlineStr"/>
       <c r="AD109" s="3" t="inlineStr"/>
-      <c r="AE109" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE109" s="3" t="inlineStr"/>
       <c r="AF109" s="3" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Amazon Comprehend</t>
-        </is>
-      </c>
-      <c r="B110" s="3" t="inlineStr"/>
+          <t>Amazon Elastic Block Store (EBS)</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -13679,7 +13655,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I110" s="3" t="inlineStr"/>
+      <c r="I110" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J110" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -13700,7 +13680,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N110" s="3" t="inlineStr"/>
+      <c r="N110" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O110" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -13711,31 +13695,91 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q110" s="3" t="inlineStr"/>
+      <c r="Q110" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R110" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S110" s="3" t="inlineStr"/>
-      <c r="T110" s="3" t="inlineStr"/>
-      <c r="U110" s="3" t="inlineStr"/>
-      <c r="V110" s="3" t="inlineStr"/>
-      <c r="W110" s="3" t="inlineStr"/>
-      <c r="X110" s="3" t="inlineStr"/>
-      <c r="Y110" s="3" t="inlineStr"/>
-      <c r="Z110" s="3" t="inlineStr"/>
-      <c r="AA110" s="3" t="inlineStr"/>
-      <c r="AB110" s="3" t="inlineStr"/>
-      <c r="AC110" s="3" t="inlineStr"/>
-      <c r="AD110" s="3" t="inlineStr"/>
-      <c r="AE110" s="3" t="inlineStr"/>
-      <c r="AF110" s="3" t="inlineStr"/>
+      <c r="S110" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T110" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U110" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V110" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W110" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X110" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y110" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z110" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA110" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB110" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC110" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD110" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE110" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF110" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Amazon Elastic Block Store (EBS)</t>
+          <t>AWS Backup</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -13897,14 +13941,10 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>AWS Backup</t>
-        </is>
-      </c>
-      <c r="B112" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Chime</t>
+        </is>
+      </c>
+      <c r="B112" s="3" t="inlineStr"/>
       <c r="C112" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -13990,66 +14030,26 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T112" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U112" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V112" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T112" s="3" t="inlineStr"/>
+      <c r="U112" s="3" t="inlineStr"/>
+      <c r="V112" s="3" t="inlineStr"/>
       <c r="W112" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X112" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y112" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z112" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X112" s="3" t="inlineStr"/>
+      <c r="Y112" s="3" t="inlineStr"/>
+      <c r="Z112" s="3" t="inlineStr"/>
       <c r="AA112" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB112" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC112" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD112" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE112" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB112" s="3" t="inlineStr"/>
+      <c r="AC112" s="3" t="inlineStr"/>
+      <c r="AD112" s="3" t="inlineStr"/>
+      <c r="AE112" s="3" t="inlineStr"/>
       <c r="AF112" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14059,10 +14059,14 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaPackage</t>
-        </is>
-      </c>
-      <c r="B113" s="3" t="inlineStr"/>
+          <t>AWS Global Accelerator</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14083,7 +14087,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G113" s="3" t="inlineStr"/>
+      <c r="G113" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H113" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14140,24 +14148,48 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T113" s="3" t="inlineStr"/>
+      <c r="T113" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U113" s="3" t="inlineStr"/>
       <c r="V113" s="3" t="inlineStr"/>
-      <c r="W113" s="3" t="inlineStr"/>
-      <c r="X113" s="3" t="inlineStr"/>
+      <c r="W113" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X113" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Y113" s="3" t="inlineStr"/>
       <c r="Z113" s="3" t="inlineStr"/>
-      <c r="AA113" s="3" t="inlineStr"/>
+      <c r="AA113" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB113" s="3" t="inlineStr"/>
       <c r="AC113" s="3" t="inlineStr"/>
-      <c r="AD113" s="3" t="inlineStr"/>
-      <c r="AE113" s="3" t="inlineStr"/>
+      <c r="AD113" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE113" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF113" s="3" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>AWS Global Accelerator</t>
+          <t>AWS IQ</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -14258,11 +14290,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="X114" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X114" s="3" t="inlineStr"/>
       <c r="Y114" s="3" t="inlineStr"/>
       <c r="Z114" s="3" t="inlineStr"/>
       <c r="AA114" s="2" t="inlineStr">
@@ -14272,11 +14300,7 @@
       </c>
       <c r="AB114" s="3" t="inlineStr"/>
       <c r="AC114" s="3" t="inlineStr"/>
-      <c r="AD114" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD114" s="3" t="inlineStr"/>
       <c r="AE114" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14287,7 +14311,7 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>AWS IQ</t>
+          <t>AWS Fargate</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -14360,7 +14384,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P115" s="3" t="inlineStr"/>
+      <c r="P115" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q115" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14381,52 +14409,80 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U115" s="3" t="inlineStr"/>
-      <c r="V115" s="3" t="inlineStr"/>
+      <c r="U115" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V115" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W115" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X115" s="3" t="inlineStr"/>
-      <c r="Y115" s="3" t="inlineStr"/>
-      <c r="Z115" s="3" t="inlineStr"/>
+      <c r="X115" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y115" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z115" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA115" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB115" s="3" t="inlineStr"/>
-      <c r="AC115" s="3" t="inlineStr"/>
-      <c r="AD115" s="3" t="inlineStr"/>
+      <c r="AB115" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC115" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD115" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE115" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AF115" s="3" t="inlineStr"/>
+      <c r="AF115" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>AWS Fargate</t>
-        </is>
-      </c>
-      <c r="B116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Snowcone</t>
+        </is>
+      </c>
+      <c r="B116" s="3" t="inlineStr"/>
       <c r="C116" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D116" s="3" t="inlineStr"/>
       <c r="E116" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14472,21 +14528,13 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N116" s="3" t="inlineStr"/>
       <c r="O116" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P116" s="3" t="inlineStr"/>
       <c r="Q116" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14502,85 +14550,41 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T116" s="3" t="inlineStr"/>
+      <c r="U116" s="3" t="inlineStr"/>
+      <c r="V116" s="3" t="inlineStr"/>
+      <c r="W116" s="3" t="inlineStr"/>
+      <c r="X116" s="3" t="inlineStr"/>
+      <c r="Y116" s="3" t="inlineStr"/>
+      <c r="Z116" s="3" t="inlineStr"/>
+      <c r="AA116" s="3" t="inlineStr"/>
+      <c r="AB116" s="3" t="inlineStr"/>
+      <c r="AC116" s="3" t="inlineStr"/>
+      <c r="AD116" s="3" t="inlineStr"/>
+      <c r="AE116" s="3" t="inlineStr"/>
+      <c r="AF116" s="3" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>AWS Snowcone</t>
-        </is>
-      </c>
-      <c r="B117" s="3" t="inlineStr"/>
+          <t>AWS Elastic Disaster Recovery (DRS)</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D117" s="3" t="inlineStr"/>
+      <c r="D117" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14626,7 +14630,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N117" s="3" t="inlineStr"/>
+      <c r="N117" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O117" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14648,41 +14656,53 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T117" s="3" t="inlineStr"/>
+      <c r="T117" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U117" s="3" t="inlineStr"/>
       <c r="V117" s="3" t="inlineStr"/>
-      <c r="W117" s="3" t="inlineStr"/>
+      <c r="W117" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X117" s="3" t="inlineStr"/>
-      <c r="Y117" s="3" t="inlineStr"/>
+      <c r="Y117" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z117" s="3" t="inlineStr"/>
-      <c r="AA117" s="3" t="inlineStr"/>
+      <c r="AA117" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB117" s="3" t="inlineStr"/>
       <c r="AC117" s="3" t="inlineStr"/>
       <c r="AD117" s="3" t="inlineStr"/>
-      <c r="AE117" s="3" t="inlineStr"/>
+      <c r="AE117" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF117" s="3" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>AWS Elastic Disaster Recovery (DRS)</t>
-        </is>
-      </c>
-      <c r="B118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Kendra</t>
+        </is>
+      </c>
+      <c r="B118" s="3" t="inlineStr"/>
       <c r="C118" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D118" s="3" t="inlineStr"/>
       <c r="E118" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14698,16 +14718,8 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="H118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="H118" s="3" t="inlineStr"/>
+      <c r="I118" s="3" t="inlineStr"/>
       <c r="J118" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14723,75 +14735,43 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="M118" s="3" t="inlineStr"/>
+      <c r="N118" s="3" t="inlineStr"/>
       <c r="O118" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P118" s="3" t="inlineStr"/>
-      <c r="Q118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P118" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q118" s="3" t="inlineStr"/>
       <c r="R118" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S118" s="3" t="inlineStr"/>
+      <c r="T118" s="3" t="inlineStr"/>
       <c r="U118" s="3" t="inlineStr"/>
       <c r="V118" s="3" t="inlineStr"/>
-      <c r="W118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W118" s="3" t="inlineStr"/>
       <c r="X118" s="3" t="inlineStr"/>
-      <c r="Y118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Y118" s="3" t="inlineStr"/>
       <c r="Z118" s="3" t="inlineStr"/>
-      <c r="AA118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA118" s="3" t="inlineStr"/>
       <c r="AB118" s="3" t="inlineStr"/>
       <c r="AC118" s="3" t="inlineStr"/>
       <c r="AD118" s="3" t="inlineStr"/>
-      <c r="AE118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE118" s="3" t="inlineStr"/>
       <c r="AF118" s="3" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Amazon Kendra</t>
+          <t>AWS Elemental MediaPackage</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr"/>
@@ -14800,7 +14780,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="D119" s="3" t="inlineStr"/>
+      <c r="D119" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14811,13 +14795,17 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G119" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H119" s="3" t="inlineStr"/>
-      <c r="I119" s="3" t="inlineStr"/>
+      <c r="G119" s="3" t="inlineStr"/>
+      <c r="H119" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I119" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J119" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14833,25 +14821,37 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M119" s="3" t="inlineStr"/>
-      <c r="N119" s="3" t="inlineStr"/>
+      <c r="M119" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N119" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O119" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P119" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q119" s="3" t="inlineStr"/>
+      <c r="P119" s="3" t="inlineStr"/>
+      <c r="Q119" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R119" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S119" s="3" t="inlineStr"/>
+      <c r="S119" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T119" s="3" t="inlineStr"/>
       <c r="U119" s="3" t="inlineStr"/>
       <c r="V119" s="3" t="inlineStr"/>
@@ -14911,10 +14911,14 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Amazon Lex</t>
-        </is>
-      </c>
-      <c r="B121" s="3" t="inlineStr"/>
+          <t>Amazon FSx</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14925,7 +14929,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E121" s="3" t="inlineStr"/>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14941,13 +14949,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I121" s="3" t="inlineStr"/>
+      <c r="I121" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K121" s="3" t="inlineStr"/>
+      <c r="K121" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L121" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14958,42 +14974,106 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N121" s="3" t="inlineStr"/>
+      <c r="N121" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O121" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P121" s="3" t="inlineStr"/>
-      <c r="Q121" s="3" t="inlineStr"/>
+      <c r="P121" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q121" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R121" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S121" s="3" t="inlineStr"/>
-      <c r="T121" s="3" t="inlineStr"/>
-      <c r="U121" s="3" t="inlineStr"/>
-      <c r="V121" s="3" t="inlineStr"/>
+      <c r="S121" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T121" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U121" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V121" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W121" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X121" s="3" t="inlineStr"/>
-      <c r="Y121" s="3" t="inlineStr"/>
-      <c r="Z121" s="3" t="inlineStr"/>
-      <c r="AA121" s="3" t="inlineStr"/>
-      <c r="AB121" s="3" t="inlineStr"/>
-      <c r="AC121" s="3" t="inlineStr"/>
-      <c r="AD121" s="3" t="inlineStr"/>
-      <c r="AE121" s="3" t="inlineStr"/>
-      <c r="AF121" s="3" t="inlineStr"/>
+      <c r="X121" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y121" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z121" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA121" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB121" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC121" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD121" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE121" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF121" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>AWS Private Certificate Authority</t>
+          <t>AWS X-Ray</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
@@ -15091,7 +15171,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U122" s="3" t="inlineStr"/>
+      <c r="U122" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V122" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -15127,7 +15211,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AC122" s="3" t="inlineStr"/>
+      <c r="AC122" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD122" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -15147,19 +15235,11 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx</t>
-        </is>
-      </c>
-      <c r="B123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Textract</t>
+        </is>
+      </c>
+      <c r="B123" s="3" t="inlineStr"/>
+      <c r="C123" s="3" t="inlineStr"/>
       <c r="D123" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -15210,11 +15290,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N123" s="3" t="inlineStr"/>
       <c r="O123" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -15235,71 +15311,19 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S123" s="3" t="inlineStr"/>
+      <c r="T123" s="3" t="inlineStr"/>
+      <c r="U123" s="3" t="inlineStr"/>
+      <c r="V123" s="3" t="inlineStr"/>
+      <c r="W123" s="3" t="inlineStr"/>
+      <c r="X123" s="3" t="inlineStr"/>
+      <c r="Y123" s="3" t="inlineStr"/>
+      <c r="Z123" s="3" t="inlineStr"/>
+      <c r="AA123" s="3" t="inlineStr"/>
+      <c r="AB123" s="3" t="inlineStr"/>
+      <c r="AC123" s="3" t="inlineStr"/>
+      <c r="AD123" s="3" t="inlineStr"/>
+      <c r="AE123" s="3" t="inlineStr"/>
       <c r="AF123" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -15309,7 +15333,7 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>AWS X-Ray</t>
+          <t>Amazon EventBridge</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
@@ -15471,21 +15495,21 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Amazon Textract</t>
+          <t>Amazon Lex</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr"/>
-      <c r="C125" s="3" t="inlineStr"/>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E125" s="3" t="inlineStr"/>
       <c r="F125" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -15501,21 +15525,13 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I125" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I125" s="3" t="inlineStr"/>
       <c r="J125" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K125" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K125" s="3" t="inlineStr"/>
       <c r="L125" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -15532,16 +15548,8 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P125" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q125" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P125" s="3" t="inlineStr"/>
+      <c r="Q125" s="3" t="inlineStr"/>
       <c r="R125" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -15551,7 +15559,11 @@
       <c r="T125" s="3" t="inlineStr"/>
       <c r="U125" s="3" t="inlineStr"/>
       <c r="V125" s="3" t="inlineStr"/>
-      <c r="W125" s="3" t="inlineStr"/>
+      <c r="W125" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X125" s="3" t="inlineStr"/>
       <c r="Y125" s="3" t="inlineStr"/>
       <c r="Z125" s="3" t="inlineStr"/>
@@ -15560,16 +15572,12 @@
       <c r="AC125" s="3" t="inlineStr"/>
       <c r="AD125" s="3" t="inlineStr"/>
       <c r="AE125" s="3" t="inlineStr"/>
-      <c r="AF125" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF125" s="3" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Amazon EventBridge</t>
+          <t>Amazon Neptune</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
@@ -15662,61 +15670,29 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T126" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T126" s="3" t="inlineStr"/>
       <c r="U126" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V126" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V126" s="3" t="inlineStr"/>
       <c r="W126" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X126" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y126" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z126" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA126" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB126" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X126" s="3" t="inlineStr"/>
+      <c r="Y126" s="3" t="inlineStr"/>
+      <c r="Z126" s="3" t="inlineStr"/>
+      <c r="AA126" s="3" t="inlineStr"/>
+      <c r="AB126" s="3" t="inlineStr"/>
       <c r="AC126" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD126" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD126" s="3" t="inlineStr"/>
       <c r="AE126" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -15731,7 +15707,7 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Amazon Neptune</t>
+          <t>AWS Fault Injection Simulator</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
@@ -15825,11 +15801,7 @@
         </is>
       </c>
       <c r="T127" s="3" t="inlineStr"/>
-      <c r="U127" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U127" s="3" t="inlineStr"/>
       <c r="V127" s="3" t="inlineStr"/>
       <c r="W127" s="2" t="inlineStr">
         <is>
@@ -15839,13 +15811,13 @@
       <c r="X127" s="3" t="inlineStr"/>
       <c r="Y127" s="3" t="inlineStr"/>
       <c r="Z127" s="3" t="inlineStr"/>
-      <c r="AA127" s="3" t="inlineStr"/>
+      <c r="AA127" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB127" s="3" t="inlineStr"/>
-      <c r="AC127" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC127" s="3" t="inlineStr"/>
       <c r="AD127" s="3" t="inlineStr"/>
       <c r="AE127" s="2" t="inlineStr">
         <is>
@@ -15861,7 +15833,7 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>AWS Fault Injection Simulator</t>
+          <t>AWS Private Certificate Authority</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
@@ -15954,25 +15926,53 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T128" s="3" t="inlineStr"/>
+      <c r="T128" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U128" s="3" t="inlineStr"/>
-      <c r="V128" s="3" t="inlineStr"/>
+      <c r="V128" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W128" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X128" s="3" t="inlineStr"/>
-      <c r="Y128" s="3" t="inlineStr"/>
-      <c r="Z128" s="3" t="inlineStr"/>
+      <c r="X128" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y128" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z128" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA128" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB128" s="3" t="inlineStr"/>
+      <c r="AB128" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC128" s="3" t="inlineStr"/>
-      <c r="AD128" s="3" t="inlineStr"/>
+      <c r="AD128" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE128" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16317,69 +16317,169 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Amazon WorkDocs</t>
-        </is>
-      </c>
-      <c r="B132" s="3" t="inlineStr"/>
+          <t>AWS Secrets Manager</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D132" s="3" t="inlineStr"/>
-      <c r="E132" s="3" t="inlineStr"/>
+      <c r="D132" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G132" s="3" t="inlineStr"/>
-      <c r="H132" s="3" t="inlineStr"/>
-      <c r="I132" s="3" t="inlineStr"/>
+      <c r="G132" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J132" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K132" s="3" t="inlineStr"/>
+      <c r="K132" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L132" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="M132" s="3" t="inlineStr"/>
-      <c r="N132" s="3" t="inlineStr"/>
+      <c r="M132" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N132" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O132" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P132" s="3" t="inlineStr"/>
-      <c r="Q132" s="3" t="inlineStr"/>
+      <c r="P132" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q132" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R132" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S132" s="3" t="inlineStr"/>
-      <c r="T132" s="3" t="inlineStr"/>
-      <c r="U132" s="3" t="inlineStr"/>
-      <c r="V132" s="3" t="inlineStr"/>
-      <c r="W132" s="3" t="inlineStr"/>
-      <c r="X132" s="3" t="inlineStr"/>
-      <c r="Y132" s="3" t="inlineStr"/>
-      <c r="Z132" s="3" t="inlineStr"/>
-      <c r="AA132" s="3" t="inlineStr"/>
-      <c r="AB132" s="3" t="inlineStr"/>
-      <c r="AC132" s="3" t="inlineStr"/>
-      <c r="AD132" s="3" t="inlineStr"/>
-      <c r="AE132" s="3" t="inlineStr"/>
-      <c r="AF132" s="3" t="inlineStr"/>
+      <c r="S132" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T132" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U132" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V132" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W132" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X132" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y132" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z132" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA132" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB132" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC132" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD132" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE132" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF132" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>AWS Secrets Manager</t>
+          <t>Amazon Simple Workflow Service (SWF)</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
@@ -16541,14 +16641,10 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Amazon Simple Workflow Service (SWF)</t>
-        </is>
-      </c>
-      <c r="B134" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Augmented AI (A2I)</t>
+        </is>
+      </c>
+      <c r="B134" s="3" t="inlineStr"/>
       <c r="C134" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16579,11 +16675,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I134" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I134" s="3" t="inlineStr"/>
       <c r="J134" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16604,109 +16696,45 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N134" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N134" s="3" t="inlineStr"/>
       <c r="O134" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P134" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q134" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P134" s="3" t="inlineStr"/>
+      <c r="Q134" s="3" t="inlineStr"/>
       <c r="R134" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S134" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T134" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U134" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V134" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W134" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X134" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y134" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z134" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA134" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB134" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC134" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD134" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE134" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF134" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S134" s="3" t="inlineStr"/>
+      <c r="T134" s="3" t="inlineStr"/>
+      <c r="U134" s="3" t="inlineStr"/>
+      <c r="V134" s="3" t="inlineStr"/>
+      <c r="W134" s="3" t="inlineStr"/>
+      <c r="X134" s="3" t="inlineStr"/>
+      <c r="Y134" s="3" t="inlineStr"/>
+      <c r="Z134" s="3" t="inlineStr"/>
+      <c r="AA134" s="3" t="inlineStr"/>
+      <c r="AB134" s="3" t="inlineStr"/>
+      <c r="AC134" s="3" t="inlineStr"/>
+      <c r="AD134" s="3" t="inlineStr"/>
+      <c r="AE134" s="3" t="inlineStr"/>
+      <c r="AF134" s="3" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Amazon Augmented AI (A2I)</t>
-        </is>
-      </c>
-      <c r="B135" s="3" t="inlineStr"/>
+          <t>AWS Batch</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16737,7 +16765,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I135" s="3" t="inlineStr"/>
+      <c r="I135" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J135" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16758,38 +16790,106 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N135" s="3" t="inlineStr"/>
+      <c r="N135" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O135" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P135" s="3" t="inlineStr"/>
-      <c r="Q135" s="3" t="inlineStr"/>
+      <c r="P135" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q135" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R135" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S135" s="3" t="inlineStr"/>
-      <c r="T135" s="3" t="inlineStr"/>
-      <c r="U135" s="3" t="inlineStr"/>
-      <c r="V135" s="3" t="inlineStr"/>
-      <c r="W135" s="3" t="inlineStr"/>
-      <c r="X135" s="3" t="inlineStr"/>
-      <c r="Y135" s="3" t="inlineStr"/>
-      <c r="Z135" s="3" t="inlineStr"/>
-      <c r="AA135" s="3" t="inlineStr"/>
-      <c r="AB135" s="3" t="inlineStr"/>
-      <c r="AC135" s="3" t="inlineStr"/>
-      <c r="AD135" s="3" t="inlineStr"/>
-      <c r="AE135" s="3" t="inlineStr"/>
-      <c r="AF135" s="3" t="inlineStr"/>
+      <c r="S135" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T135" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U135" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V135" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W135" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X135" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y135" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z135" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA135" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB135" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC135" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD135" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE135" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF135" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>AWS Batch</t>
+          <t>AWS Amplify</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
@@ -16862,11 +16962,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P136" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P136" s="3" t="inlineStr"/>
       <c r="Q136" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16882,76 +16978,32 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T136" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U136" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V136" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W136" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X136" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y136" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z136" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T136" s="3" t="inlineStr"/>
+      <c r="U136" s="3" t="inlineStr"/>
+      <c r="V136" s="3" t="inlineStr"/>
+      <c r="W136" s="3" t="inlineStr"/>
+      <c r="X136" s="3" t="inlineStr"/>
+      <c r="Y136" s="3" t="inlineStr"/>
+      <c r="Z136" s="3" t="inlineStr"/>
       <c r="AA136" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB136" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC136" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD136" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB136" s="3" t="inlineStr"/>
+      <c r="AC136" s="3" t="inlineStr"/>
+      <c r="AD136" s="3" t="inlineStr"/>
       <c r="AE136" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AF136" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF136" s="3" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>AWS Amplify</t>
+          <t>Amazon Elastic MapReduce (EMR)</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
@@ -17024,7 +17076,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P137" s="3" t="inlineStr"/>
+      <c r="P137" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q137" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -17040,32 +17096,76 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T137" s="3" t="inlineStr"/>
-      <c r="U137" s="3" t="inlineStr"/>
-      <c r="V137" s="3" t="inlineStr"/>
-      <c r="W137" s="3" t="inlineStr"/>
-      <c r="X137" s="3" t="inlineStr"/>
-      <c r="Y137" s="3" t="inlineStr"/>
-      <c r="Z137" s="3" t="inlineStr"/>
+      <c r="T137" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U137" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V137" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W137" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X137" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y137" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z137" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA137" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB137" s="3" t="inlineStr"/>
-      <c r="AC137" s="3" t="inlineStr"/>
-      <c r="AD137" s="3" t="inlineStr"/>
+      <c r="AB137" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC137" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD137" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE137" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AF137" s="3" t="inlineStr"/>
+      <c r="AF137" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Amazon Elastic MapReduce (EMR)</t>
+          <t>AWS Transfer Family</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
@@ -17188,11 +17288,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z138" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Z138" s="3" t="inlineStr"/>
       <c r="AA138" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -17227,160 +17323,64 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>AWS Transfer Family</t>
-        </is>
-      </c>
-      <c r="B139" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon WorkDocs</t>
+        </is>
+      </c>
+      <c r="B139" s="3" t="inlineStr"/>
       <c r="C139" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D139" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E139" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D139" s="3" t="inlineStr"/>
+      <c r="E139" s="3" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G139" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H139" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I139" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G139" s="3" t="inlineStr"/>
+      <c r="H139" s="3" t="inlineStr"/>
+      <c r="I139" s="3" t="inlineStr"/>
       <c r="J139" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K139" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K139" s="3" t="inlineStr"/>
       <c r="L139" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="M139" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N139" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="M139" s="3" t="inlineStr"/>
+      <c r="N139" s="3" t="inlineStr"/>
       <c r="O139" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P139" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q139" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P139" s="3" t="inlineStr"/>
+      <c r="Q139" s="3" t="inlineStr"/>
       <c r="R139" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S139" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T139" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U139" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V139" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W139" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X139" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y139" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S139" s="3" t="inlineStr"/>
+      <c r="T139" s="3" t="inlineStr"/>
+      <c r="U139" s="3" t="inlineStr"/>
+      <c r="V139" s="3" t="inlineStr"/>
+      <c r="W139" s="3" t="inlineStr"/>
+      <c r="X139" s="3" t="inlineStr"/>
+      <c r="Y139" s="3" t="inlineStr"/>
       <c r="Z139" s="3" t="inlineStr"/>
-      <c r="AA139" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB139" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC139" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD139" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE139" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF139" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA139" s="3" t="inlineStr"/>
+      <c r="AB139" s="3" t="inlineStr"/>
+      <c r="AC139" s="3" t="inlineStr"/>
+      <c r="AD139" s="3" t="inlineStr"/>
+      <c r="AE139" s="3" t="inlineStr"/>
+      <c r="AF139" s="3" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -17888,7 +17888,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P143" s="3" t="inlineStr"/>
+      <c r="P143" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q143" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -17940,7 +17944,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AF143" s="3" t="inlineStr"/>
+      <c r="AF143" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -19319,14 +19327,10 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>AWS Serverless Application Repository</t>
-        </is>
-      </c>
-      <c r="B157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Managed Blockchain</t>
+        </is>
+      </c>
+      <c r="B157" s="3" t="inlineStr"/>
       <c r="C157" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19337,56 +19341,28 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E157" s="3" t="inlineStr"/>
+      <c r="F157" s="3" t="inlineStr"/>
+      <c r="G157" s="3" t="inlineStr"/>
       <c r="H157" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I157" s="3" t="inlineStr"/>
       <c r="J157" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K157" s="3" t="inlineStr"/>
       <c r="L157" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="M157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="M157" s="3" t="inlineStr"/>
+      <c r="N157" s="3" t="inlineStr"/>
       <c r="O157" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19397,27 +19373,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q157" s="3" t="inlineStr"/>
+      <c r="R157" s="3" t="inlineStr"/>
+      <c r="S157" s="3" t="inlineStr"/>
       <c r="T157" s="3" t="inlineStr"/>
-      <c r="U157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U157" s="3" t="inlineStr"/>
       <c r="V157" s="3" t="inlineStr"/>
       <c r="W157" s="3" t="inlineStr"/>
       <c r="X157" s="3" t="inlineStr"/>
@@ -19425,30 +19385,22 @@
       <c r="Z157" s="3" t="inlineStr"/>
       <c r="AA157" s="3" t="inlineStr"/>
       <c r="AB157" s="3" t="inlineStr"/>
-      <c r="AC157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC157" s="3" t="inlineStr"/>
       <c r="AD157" s="3" t="inlineStr"/>
-      <c r="AE157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE157" s="3" t="inlineStr"/>
+      <c r="AF157" s="3" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Amazon Managed Blockchain</t>
-        </is>
-      </c>
-      <c r="B158" s="3" t="inlineStr"/>
+          <t>AWS Snowball</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19459,28 +19411,56 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E158" s="3" t="inlineStr"/>
-      <c r="F158" s="3" t="inlineStr"/>
-      <c r="G158" s="3" t="inlineStr"/>
+      <c r="E158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H158" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I158" s="3" t="inlineStr"/>
+      <c r="I158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J158" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K158" s="3" t="inlineStr"/>
+      <c r="K158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L158" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="M158" s="3" t="inlineStr"/>
-      <c r="N158" s="3" t="inlineStr"/>
+      <c r="M158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O158" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19491,27 +19471,71 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q158" s="3" t="inlineStr"/>
-      <c r="R158" s="3" t="inlineStr"/>
-      <c r="S158" s="3" t="inlineStr"/>
-      <c r="T158" s="3" t="inlineStr"/>
-      <c r="U158" s="3" t="inlineStr"/>
+      <c r="Q158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V158" s="3" t="inlineStr"/>
-      <c r="W158" s="3" t="inlineStr"/>
+      <c r="W158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X158" s="3" t="inlineStr"/>
-      <c r="Y158" s="3" t="inlineStr"/>
+      <c r="Y158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z158" s="3" t="inlineStr"/>
-      <c r="AA158" s="3" t="inlineStr"/>
+      <c r="AA158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB158" s="3" t="inlineStr"/>
-      <c r="AC158" s="3" t="inlineStr"/>
-      <c r="AD158" s="3" t="inlineStr"/>
+      <c r="AC158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE158" s="3" t="inlineStr"/>
-      <c r="AF158" s="3" t="inlineStr"/>
+      <c r="AF158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>AWS Snowball</t>
+          <t>AWS Organizations</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
@@ -19614,25 +19638,41 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="V159" s="3" t="inlineStr"/>
+      <c r="V159" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W159" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X159" s="3" t="inlineStr"/>
+      <c r="X159" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Y159" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Z159" s="3" t="inlineStr"/>
+      <c r="Z159" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA159" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB159" s="3" t="inlineStr"/>
+      <c r="AB159" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC159" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19643,7 +19683,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AE159" s="3" t="inlineStr"/>
+      <c r="AE159" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF159" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19653,7 +19697,7 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>AWS Organizations</t>
+          <t>AWS Database Migration Service</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
@@ -19815,7 +19859,7 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>AWS Database Migration Service</t>
+          <t>AWS Serverless Application Repository</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
@@ -19908,61 +19952,25 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T161" s="3" t="inlineStr"/>
       <c r="U161" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V161" s="3" t="inlineStr"/>
+      <c r="W161" s="3" t="inlineStr"/>
+      <c r="X161" s="3" t="inlineStr"/>
+      <c r="Y161" s="3" t="inlineStr"/>
+      <c r="Z161" s="3" t="inlineStr"/>
+      <c r="AA161" s="3" t="inlineStr"/>
+      <c r="AB161" s="3" t="inlineStr"/>
       <c r="AC161" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD161" s="3" t="inlineStr"/>
       <c r="AE161" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20949,7 +20957,7 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Amazon Connect</t>
+          <t>AWS Clean Rooms</t>
         </is>
       </c>
       <c r="B170" s="3" t="inlineStr"/>
@@ -20969,11 +20977,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G170" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G170" s="3" t="inlineStr"/>
       <c r="H170" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20985,7 +20989,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="K170" s="3" t="inlineStr"/>
+      <c r="K170" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L170" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20996,13 +21004,17 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N170" s="3" t="inlineStr"/>
-      <c r="O170" s="3" t="inlineStr"/>
-      <c r="P170" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N170" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O170" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P170" s="3" t="inlineStr"/>
       <c r="Q170" s="3" t="inlineStr"/>
       <c r="R170" s="2" t="inlineStr">
         <is>
@@ -21013,11 +21025,7 @@
       <c r="T170" s="3" t="inlineStr"/>
       <c r="U170" s="3" t="inlineStr"/>
       <c r="V170" s="3" t="inlineStr"/>
-      <c r="W170" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W170" s="3" t="inlineStr"/>
       <c r="X170" s="3" t="inlineStr"/>
       <c r="Y170" s="3" t="inlineStr"/>
       <c r="Z170" s="3" t="inlineStr"/>
@@ -21031,10 +21039,14 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>AWS Clean Rooms</t>
-        </is>
-      </c>
-      <c r="B171" s="3" t="inlineStr"/>
+          <t>AWS Key Management Service</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21045,19 +21057,31 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E171" s="3" t="inlineStr"/>
+      <c r="E171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F171" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G171" s="3" t="inlineStr"/>
+      <c r="G171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H171" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I171" s="3" t="inlineStr"/>
+      <c r="I171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J171" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21088,39 +21112,99 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P171" s="3" t="inlineStr"/>
-      <c r="Q171" s="3" t="inlineStr"/>
+      <c r="P171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R171" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S171" s="3" t="inlineStr"/>
-      <c r="T171" s="3" t="inlineStr"/>
-      <c r="U171" s="3" t="inlineStr"/>
-      <c r="V171" s="3" t="inlineStr"/>
-      <c r="W171" s="3" t="inlineStr"/>
-      <c r="X171" s="3" t="inlineStr"/>
-      <c r="Y171" s="3" t="inlineStr"/>
-      <c r="Z171" s="3" t="inlineStr"/>
-      <c r="AA171" s="3" t="inlineStr"/>
-      <c r="AB171" s="3" t="inlineStr"/>
-      <c r="AC171" s="3" t="inlineStr"/>
-      <c r="AD171" s="3" t="inlineStr"/>
-      <c r="AE171" s="3" t="inlineStr"/>
-      <c r="AF171" s="3" t="inlineStr"/>
+      <c r="S171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>AWS Key Management Service</t>
-        </is>
-      </c>
-      <c r="B172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Forecast</t>
+        </is>
+      </c>
+      <c r="B172" s="3" t="inlineStr"/>
       <c r="C172" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21141,21 +21225,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G172" s="3" t="inlineStr"/>
+      <c r="H172" s="3" t="inlineStr"/>
+      <c r="I172" s="3" t="inlineStr"/>
       <c r="J172" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21176,131 +21248,59 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N172" s="3" t="inlineStr"/>
       <c r="O172" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P172" s="3" t="inlineStr"/>
+      <c r="Q172" s="3" t="inlineStr"/>
       <c r="R172" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S172" s="3" t="inlineStr"/>
+      <c r="T172" s="3" t="inlineStr"/>
+      <c r="U172" s="3" t="inlineStr"/>
+      <c r="V172" s="3" t="inlineStr"/>
+      <c r="W172" s="3" t="inlineStr"/>
+      <c r="X172" s="3" t="inlineStr"/>
+      <c r="Y172" s="3" t="inlineStr"/>
+      <c r="Z172" s="3" t="inlineStr"/>
+      <c r="AA172" s="3" t="inlineStr"/>
+      <c r="AB172" s="3" t="inlineStr"/>
+      <c r="AC172" s="3" t="inlineStr"/>
+      <c r="AD172" s="3" t="inlineStr"/>
+      <c r="AE172" s="3" t="inlineStr"/>
+      <c r="AF172" s="3" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Amazon Forecast</t>
+          <t>AWS Verified Access</t>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr"/>
-      <c r="C173" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D173" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E173" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C173" s="3" t="inlineStr"/>
+      <c r="D173" s="3" t="inlineStr"/>
+      <c r="E173" s="3" t="inlineStr"/>
       <c r="F173" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G173" s="3" t="inlineStr"/>
-      <c r="H173" s="3" t="inlineStr"/>
+      <c r="G173" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H173" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="I173" s="3" t="inlineStr"/>
       <c r="J173" s="2" t="inlineStr">
         <is>
@@ -21312,11 +21312,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L173" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L173" s="3" t="inlineStr"/>
       <c r="M173" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21329,13 +21325,21 @@
         </is>
       </c>
       <c r="P173" s="3" t="inlineStr"/>
-      <c r="Q173" s="3" t="inlineStr"/>
+      <c r="Q173" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R173" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S173" s="3" t="inlineStr"/>
+      <c r="S173" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T173" s="3" t="inlineStr"/>
       <c r="U173" s="3" t="inlineStr"/>
       <c r="V173" s="3" t="inlineStr"/>
@@ -21353,13 +21357,29 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>AWS Verified Access</t>
-        </is>
-      </c>
-      <c r="B174" s="3" t="inlineStr"/>
-      <c r="C174" s="3" t="inlineStr"/>
-      <c r="D174" s="3" t="inlineStr"/>
-      <c r="E174" s="3" t="inlineStr"/>
+          <t>AWS Support</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F174" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21375,7 +21395,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I174" s="3" t="inlineStr"/>
+      <c r="I174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J174" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21386,19 +21410,31 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L174" s="3" t="inlineStr"/>
+      <c r="L174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M174" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N174" s="3" t="inlineStr"/>
+      <c r="N174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O174" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P174" s="3" t="inlineStr"/>
+      <c r="P174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q174" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21414,24 +21450,76 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T174" s="3" t="inlineStr"/>
-      <c r="U174" s="3" t="inlineStr"/>
-      <c r="V174" s="3" t="inlineStr"/>
-      <c r="W174" s="3" t="inlineStr"/>
-      <c r="X174" s="3" t="inlineStr"/>
-      <c r="Y174" s="3" t="inlineStr"/>
-      <c r="Z174" s="3" t="inlineStr"/>
-      <c r="AA174" s="3" t="inlineStr"/>
-      <c r="AB174" s="3" t="inlineStr"/>
-      <c r="AC174" s="3" t="inlineStr"/>
-      <c r="AD174" s="3" t="inlineStr"/>
-      <c r="AE174" s="3" t="inlineStr"/>
-      <c r="AF174" s="3" t="inlineStr"/>
+      <c r="T174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>AWS Support</t>
+          <t>Amazon Simple Notification Service (SNS)</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
@@ -21593,14 +21681,10 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Amazon Simple Notification Service (SNS)</t>
-        </is>
-      </c>
-      <c r="B176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Managed Service for Prometheus</t>
+        </is>
+      </c>
+      <c r="B176" s="3" t="inlineStr"/>
       <c r="C176" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21621,11 +21705,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G176" s="3" t="inlineStr"/>
       <c r="H176" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21666,16 +21746,8 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P176" s="3" t="inlineStr"/>
+      <c r="Q176" s="3" t="inlineStr"/>
       <c r="R176" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21686,76 +21758,24 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T176" s="3" t="inlineStr"/>
+      <c r="U176" s="3" t="inlineStr"/>
+      <c r="V176" s="3" t="inlineStr"/>
+      <c r="W176" s="3" t="inlineStr"/>
+      <c r="X176" s="3" t="inlineStr"/>
+      <c r="Y176" s="3" t="inlineStr"/>
+      <c r="Z176" s="3" t="inlineStr"/>
+      <c r="AA176" s="3" t="inlineStr"/>
+      <c r="AB176" s="3" t="inlineStr"/>
+      <c r="AC176" s="3" t="inlineStr"/>
+      <c r="AD176" s="3" t="inlineStr"/>
+      <c r="AE176" s="3" t="inlineStr"/>
+      <c r="AF176" s="3" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Amazon Managed Service for Prometheus</t>
+          <t>AWS Mainframe Modernization</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr"/>
@@ -21779,7 +21799,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G177" s="3" t="inlineStr"/>
+      <c r="G177" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H177" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21810,18 +21834,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N177" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N177" s="3" t="inlineStr"/>
       <c r="O177" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="P177" s="3" t="inlineStr"/>
-      <c r="Q177" s="3" t="inlineStr"/>
+      <c r="Q177" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R177" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21849,7 +21873,7 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>AWS Mainframe Modernization</t>
+          <t>Amazon Connect</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr"/>
@@ -21863,11 +21887,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E178" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E178" s="3" t="inlineStr"/>
       <c r="F178" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21883,21 +21903,13 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I178" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I178" s="3" t="inlineStr"/>
       <c r="J178" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K178" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K178" s="3" t="inlineStr"/>
       <c r="L178" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21909,31 +21921,27 @@
         </is>
       </c>
       <c r="N178" s="3" t="inlineStr"/>
-      <c r="O178" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P178" s="3" t="inlineStr"/>
-      <c r="Q178" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="O178" s="3" t="inlineStr"/>
+      <c r="P178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q178" s="3" t="inlineStr"/>
       <c r="R178" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S178" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S178" s="3" t="inlineStr"/>
       <c r="T178" s="3" t="inlineStr"/>
       <c r="U178" s="3" t="inlineStr"/>
       <c r="V178" s="3" t="inlineStr"/>
-      <c r="W178" s="3" t="inlineStr"/>
+      <c r="W178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X178" s="3" t="inlineStr"/>
       <c r="Y178" s="3" t="inlineStr"/>
       <c r="Z178" s="3" t="inlineStr"/>
@@ -22945,49 +22953,17 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>AWS AppSync</t>
-        </is>
-      </c>
-      <c r="B186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Snowmobile</t>
+        </is>
+      </c>
+      <c r="B186" s="3" t="inlineStr"/>
+      <c r="C186" s="3" t="inlineStr"/>
+      <c r="D186" s="3" t="inlineStr"/>
+      <c r="E186" s="3" t="inlineStr"/>
+      <c r="F186" s="3" t="inlineStr"/>
+      <c r="G186" s="3" t="inlineStr"/>
+      <c r="H186" s="3" t="inlineStr"/>
+      <c r="I186" s="3" t="inlineStr"/>
       <c r="J186" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22998,27 +22974,15 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P186" s="3" t="inlineStr"/>
+      <c r="L186" s="3" t="inlineStr"/>
+      <c r="M186" s="3" t="inlineStr"/>
+      <c r="N186" s="3" t="inlineStr"/>
+      <c r="O186" s="3" t="inlineStr"/>
+      <c r="P186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q186" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23029,73 +22993,29 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S186" s="3" t="inlineStr"/>
+      <c r="T186" s="3" t="inlineStr"/>
+      <c r="U186" s="3" t="inlineStr"/>
+      <c r="V186" s="3" t="inlineStr"/>
+      <c r="W186" s="3" t="inlineStr"/>
+      <c r="X186" s="3" t="inlineStr"/>
+      <c r="Y186" s="3" t="inlineStr"/>
       <c r="Z186" s="3" t="inlineStr"/>
-      <c r="AA186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF186" s="3" t="inlineStr"/>
+      <c r="AA186" s="3" t="inlineStr"/>
+      <c r="AB186" s="3" t="inlineStr"/>
+      <c r="AC186" s="3" t="inlineStr"/>
+      <c r="AD186" s="3" t="inlineStr"/>
+      <c r="AE186" s="3" t="inlineStr"/>
+      <c r="AF186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>AWS Snowmobile</t>
+          <t>AWS Wickr</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr"/>
@@ -23111,11 +23031,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="K187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K187" s="3" t="inlineStr"/>
       <c r="L187" s="3" t="inlineStr"/>
       <c r="M187" s="3" t="inlineStr"/>
       <c r="N187" s="3" t="inlineStr"/>
@@ -23125,16 +23041,8 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q187" s="3" t="inlineStr"/>
+      <c r="R187" s="3" t="inlineStr"/>
       <c r="S187" s="3" t="inlineStr"/>
       <c r="T187" s="3" t="inlineStr"/>
       <c r="U187" s="3" t="inlineStr"/>
@@ -23148,114 +23056,194 @@
       <c r="AC187" s="3" t="inlineStr"/>
       <c r="AD187" s="3" t="inlineStr"/>
       <c r="AE187" s="3" t="inlineStr"/>
-      <c r="AF187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF187" s="3" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>AWS Wickr</t>
-        </is>
-      </c>
-      <c r="B188" s="3" t="inlineStr"/>
-      <c r="C188" s="3" t="inlineStr"/>
-      <c r="D188" s="3" t="inlineStr"/>
-      <c r="E188" s="3" t="inlineStr"/>
-      <c r="F188" s="3" t="inlineStr"/>
-      <c r="G188" s="3" t="inlineStr"/>
-      <c r="H188" s="3" t="inlineStr"/>
-      <c r="I188" s="3" t="inlineStr"/>
+          <t>Amazon Elastic Container Registry (ECR)</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J188" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K188" s="3" t="inlineStr"/>
-      <c r="L188" s="3" t="inlineStr"/>
-      <c r="M188" s="3" t="inlineStr"/>
-      <c r="N188" s="3" t="inlineStr"/>
-      <c r="O188" s="3" t="inlineStr"/>
+      <c r="K188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="P188" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Q188" s="3" t="inlineStr"/>
-      <c r="R188" s="3" t="inlineStr"/>
-      <c r="S188" s="3" t="inlineStr"/>
-      <c r="T188" s="3" t="inlineStr"/>
-      <c r="U188" s="3" t="inlineStr"/>
-      <c r="V188" s="3" t="inlineStr"/>
-      <c r="W188" s="3" t="inlineStr"/>
-      <c r="X188" s="3" t="inlineStr"/>
-      <c r="Y188" s="3" t="inlineStr"/>
-      <c r="Z188" s="3" t="inlineStr"/>
-      <c r="AA188" s="3" t="inlineStr"/>
-      <c r="AB188" s="3" t="inlineStr"/>
-      <c r="AC188" s="3" t="inlineStr"/>
-      <c r="AD188" s="3" t="inlineStr"/>
-      <c r="AE188" s="3" t="inlineStr"/>
-      <c r="AF188" s="3" t="inlineStr"/>
+      <c r="Q188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Amazon Elastic Container Registry (ECR)</t>
-        </is>
-      </c>
-      <c r="B189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS IoT TwinMaker</t>
+        </is>
+      </c>
+      <c r="B189" s="3" t="inlineStr"/>
+      <c r="C189" s="3" t="inlineStr"/>
+      <c r="D189" s="3" t="inlineStr"/>
+      <c r="E189" s="3" t="inlineStr"/>
       <c r="F189" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G189" s="3" t="inlineStr"/>
+      <c r="H189" s="3" t="inlineStr"/>
+      <c r="I189" s="3" t="inlineStr"/>
       <c r="J189" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K189" s="3" t="inlineStr"/>
       <c r="L189" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23266,11 +23254,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N189" s="3" t="inlineStr"/>
       <c r="O189" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23281,111 +23265,83 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q189" s="3" t="inlineStr"/>
       <c r="R189" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S189" s="3" t="inlineStr"/>
+      <c r="T189" s="3" t="inlineStr"/>
+      <c r="U189" s="3" t="inlineStr"/>
+      <c r="V189" s="3" t="inlineStr"/>
+      <c r="W189" s="3" t="inlineStr"/>
+      <c r="X189" s="3" t="inlineStr"/>
+      <c r="Y189" s="3" t="inlineStr"/>
+      <c r="Z189" s="3" t="inlineStr"/>
+      <c r="AA189" s="3" t="inlineStr"/>
+      <c r="AB189" s="3" t="inlineStr"/>
+      <c r="AC189" s="3" t="inlineStr"/>
+      <c r="AD189" s="3" t="inlineStr"/>
+      <c r="AE189" s="3" t="inlineStr"/>
+      <c r="AF189" s="3" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>AWS IoT TwinMaker</t>
-        </is>
-      </c>
-      <c r="B190" s="3" t="inlineStr"/>
-      <c r="C190" s="3" t="inlineStr"/>
-      <c r="D190" s="3" t="inlineStr"/>
-      <c r="E190" s="3" t="inlineStr"/>
+          <t>AWS CodeCommit</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G190" s="3" t="inlineStr"/>
-      <c r="H190" s="3" t="inlineStr"/>
-      <c r="I190" s="3" t="inlineStr"/>
+      <c r="G190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K190" s="3" t="inlineStr"/>
+      <c r="K190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23396,7 +23352,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N190" s="3" t="inlineStr"/>
+      <c r="N190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23407,38 +23367,82 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q190" s="3" t="inlineStr"/>
+      <c r="Q190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S190" s="3" t="inlineStr"/>
-      <c r="T190" s="3" t="inlineStr"/>
-      <c r="U190" s="3" t="inlineStr"/>
+      <c r="S190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V190" s="3" t="inlineStr"/>
-      <c r="W190" s="3" t="inlineStr"/>
-      <c r="X190" s="3" t="inlineStr"/>
-      <c r="Y190" s="3" t="inlineStr"/>
+      <c r="W190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z190" s="3" t="inlineStr"/>
-      <c r="AA190" s="3" t="inlineStr"/>
+      <c r="AA190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB190" s="3" t="inlineStr"/>
-      <c r="AC190" s="3" t="inlineStr"/>
-      <c r="AD190" s="3" t="inlineStr"/>
-      <c r="AE190" s="3" t="inlineStr"/>
-      <c r="AF190" s="3" t="inlineStr"/>
+      <c r="AC190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Elastic Load Balancing</t>
-        </is>
-      </c>
-      <c r="B191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Lookout for Vision</t>
+        </is>
+      </c>
+      <c r="B191" s="3" t="inlineStr"/>
       <c r="C191" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23449,31 +23453,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E191" s="3" t="inlineStr"/>
+      <c r="F191" s="3" t="inlineStr"/>
+      <c r="G191" s="3" t="inlineStr"/>
+      <c r="H191" s="3" t="inlineStr"/>
+      <c r="I191" s="3" t="inlineStr"/>
       <c r="J191" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23484,116 +23468,44 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L191" s="3" t="inlineStr"/>
       <c r="M191" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N191" s="3" t="inlineStr"/>
       <c r="O191" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P191" s="3" t="inlineStr"/>
+      <c r="Q191" s="3" t="inlineStr"/>
       <c r="R191" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S191" s="3" t="inlineStr"/>
+      <c r="T191" s="3" t="inlineStr"/>
+      <c r="U191" s="3" t="inlineStr"/>
+      <c r="V191" s="3" t="inlineStr"/>
+      <c r="W191" s="3" t="inlineStr"/>
+      <c r="X191" s="3" t="inlineStr"/>
+      <c r="Y191" s="3" t="inlineStr"/>
+      <c r="Z191" s="3" t="inlineStr"/>
+      <c r="AA191" s="3" t="inlineStr"/>
+      <c r="AB191" s="3" t="inlineStr"/>
+      <c r="AC191" s="3" t="inlineStr"/>
+      <c r="AD191" s="3" t="inlineStr"/>
+      <c r="AE191" s="3" t="inlineStr"/>
+      <c r="AF191" s="3" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>AWS CodeCommit</t>
+          <t>AWS AppSync</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
@@ -23666,11 +23578,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P192" s="3" t="inlineStr"/>
       <c r="Q192" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23696,7 +23604,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="V192" s="3" t="inlineStr"/>
+      <c r="V192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W192" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23718,7 +23630,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AB192" s="3" t="inlineStr"/>
+      <c r="AB192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC192" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23734,19 +23650,19 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AF192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF192" s="3" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>Amazon Lookout for Vision</t>
-        </is>
-      </c>
-      <c r="B193" s="3" t="inlineStr"/>
+          <t>AWS Server Migration Service (SMS)</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23757,11 +23673,31 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E193" s="3" t="inlineStr"/>
-      <c r="F193" s="3" t="inlineStr"/>
-      <c r="G193" s="3" t="inlineStr"/>
-      <c r="H193" s="3" t="inlineStr"/>
-      <c r="I193" s="3" t="inlineStr"/>
+      <c r="E193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J193" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23772,61 +23708,97 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L193" s="3" t="inlineStr"/>
+      <c r="L193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M193" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N193" s="3" t="inlineStr"/>
+      <c r="N193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O193" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P193" s="3" t="inlineStr"/>
-      <c r="Q193" s="3" t="inlineStr"/>
+      <c r="P193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R193" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S193" s="3" t="inlineStr"/>
+      <c r="S193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T193" s="3" t="inlineStr"/>
-      <c r="U193" s="3" t="inlineStr"/>
+      <c r="U193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V193" s="3" t="inlineStr"/>
-      <c r="W193" s="3" t="inlineStr"/>
+      <c r="W193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X193" s="3" t="inlineStr"/>
       <c r="Y193" s="3" t="inlineStr"/>
       <c r="Z193" s="3" t="inlineStr"/>
-      <c r="AA193" s="3" t="inlineStr"/>
+      <c r="AA193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB193" s="3" t="inlineStr"/>
-      <c r="AC193" s="3" t="inlineStr"/>
+      <c r="AC193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD193" s="3" t="inlineStr"/>
-      <c r="AE193" s="3" t="inlineStr"/>
-      <c r="AF193" s="3" t="inlineStr"/>
+      <c r="AE193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>AWS Server Migration Service (SMS)</t>
-        </is>
-      </c>
-      <c r="B194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Elemental MediaTailor</t>
+        </is>
+      </c>
+      <c r="B194" s="3" t="inlineStr"/>
       <c r="C194" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D194" s="3" t="inlineStr"/>
       <c r="E194" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23837,21 +23809,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G194" s="3" t="inlineStr"/>
+      <c r="H194" s="3" t="inlineStr"/>
+      <c r="I194" s="3" t="inlineStr"/>
       <c r="J194" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23872,42 +23832,22 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N194" s="3" t="inlineStr"/>
       <c r="O194" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P194" s="3" t="inlineStr"/>
+      <c r="Q194" s="3" t="inlineStr"/>
       <c r="R194" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S194" s="3" t="inlineStr"/>
       <c r="T194" s="3" t="inlineStr"/>
-      <c r="U194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U194" s="3" t="inlineStr"/>
       <c r="V194" s="3" t="inlineStr"/>
       <c r="W194" s="2" t="inlineStr">
         <is>
@@ -23917,42 +23857,34 @@
       <c r="X194" s="3" t="inlineStr"/>
       <c r="Y194" s="3" t="inlineStr"/>
       <c r="Z194" s="3" t="inlineStr"/>
-      <c r="AA194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA194" s="3" t="inlineStr"/>
       <c r="AB194" s="3" t="inlineStr"/>
-      <c r="AC194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC194" s="3" t="inlineStr"/>
       <c r="AD194" s="3" t="inlineStr"/>
-      <c r="AE194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE194" s="3" t="inlineStr"/>
+      <c r="AF194" s="3" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaTailor</t>
-        </is>
-      </c>
-      <c r="B195" s="3" t="inlineStr"/>
+          <t>Elastic Load Balancing</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D195" s="3" t="inlineStr"/>
+      <c r="D195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="E195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23963,9 +23895,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G195" s="3" t="inlineStr"/>
-      <c r="H195" s="3" t="inlineStr"/>
-      <c r="I195" s="3" t="inlineStr"/>
+      <c r="G195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23986,37 +23930,101 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N195" s="3" t="inlineStr"/>
+      <c r="N195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P195" s="3" t="inlineStr"/>
-      <c r="Q195" s="3" t="inlineStr"/>
+      <c r="P195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S195" s="3" t="inlineStr"/>
-      <c r="T195" s="3" t="inlineStr"/>
-      <c r="U195" s="3" t="inlineStr"/>
-      <c r="V195" s="3" t="inlineStr"/>
+      <c r="S195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X195" s="3" t="inlineStr"/>
-      <c r="Y195" s="3" t="inlineStr"/>
-      <c r="Z195" s="3" t="inlineStr"/>
-      <c r="AA195" s="3" t="inlineStr"/>
-      <c r="AB195" s="3" t="inlineStr"/>
-      <c r="AC195" s="3" t="inlineStr"/>
-      <c r="AD195" s="3" t="inlineStr"/>
-      <c r="AE195" s="3" t="inlineStr"/>
-      <c r="AF195" s="3" t="inlineStr"/>
+      <c r="X195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -25073,169 +25081,49 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Amazon DynamoDB</t>
-        </is>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Alexa for Business</t>
+        </is>
+      </c>
+      <c r="B206" s="3" t="inlineStr"/>
+      <c r="C206" s="3" t="inlineStr"/>
+      <c r="D206" s="3" t="inlineStr"/>
+      <c r="E206" s="3" t="inlineStr"/>
+      <c r="F206" s="3" t="inlineStr"/>
+      <c r="G206" s="3" t="inlineStr"/>
+      <c r="H206" s="3" t="inlineStr"/>
+      <c r="I206" s="3" t="inlineStr"/>
       <c r="J206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K206" s="3" t="inlineStr"/>
+      <c r="L206" s="3" t="inlineStr"/>
+      <c r="M206" s="3" t="inlineStr"/>
+      <c r="N206" s="3" t="inlineStr"/>
+      <c r="O206" s="3" t="inlineStr"/>
+      <c r="P206" s="3" t="inlineStr"/>
+      <c r="Q206" s="3" t="inlineStr"/>
+      <c r="R206" s="3" t="inlineStr"/>
+      <c r="S206" s="3" t="inlineStr"/>
+      <c r="T206" s="3" t="inlineStr"/>
+      <c r="U206" s="3" t="inlineStr"/>
+      <c r="V206" s="3" t="inlineStr"/>
+      <c r="W206" s="3" t="inlineStr"/>
+      <c r="X206" s="3" t="inlineStr"/>
+      <c r="Y206" s="3" t="inlineStr"/>
+      <c r="Z206" s="3" t="inlineStr"/>
+      <c r="AA206" s="3" t="inlineStr"/>
+      <c r="AB206" s="3" t="inlineStr"/>
+      <c r="AC206" s="3" t="inlineStr"/>
+      <c r="AD206" s="3" t="inlineStr"/>
+      <c r="AE206" s="3" t="inlineStr"/>
+      <c r="AF206" s="3" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Alexa for Business</t>
+          <t>Amazon WorkMail</t>
         </is>
       </c>
       <c r="B207" s="3" t="inlineStr"/>
@@ -25255,10 +25143,18 @@
       <c r="L207" s="3" t="inlineStr"/>
       <c r="M207" s="3" t="inlineStr"/>
       <c r="N207" s="3" t="inlineStr"/>
-      <c r="O207" s="3" t="inlineStr"/>
+      <c r="O207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="P207" s="3" t="inlineStr"/>
       <c r="Q207" s="3" t="inlineStr"/>
-      <c r="R207" s="3" t="inlineStr"/>
+      <c r="R207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="S207" s="3" t="inlineStr"/>
       <c r="T207" s="3" t="inlineStr"/>
       <c r="U207" s="3" t="inlineStr"/>
@@ -25277,57 +25173,169 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>Amazon WorkMail</t>
-        </is>
-      </c>
-      <c r="B208" s="3" t="inlineStr"/>
-      <c r="C208" s="3" t="inlineStr"/>
-      <c r="D208" s="3" t="inlineStr"/>
-      <c r="E208" s="3" t="inlineStr"/>
-      <c r="F208" s="3" t="inlineStr"/>
-      <c r="G208" s="3" t="inlineStr"/>
-      <c r="H208" s="3" t="inlineStr"/>
-      <c r="I208" s="3" t="inlineStr"/>
+          <t>AWS Security Hub</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J208" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K208" s="3" t="inlineStr"/>
-      <c r="L208" s="3" t="inlineStr"/>
-      <c r="M208" s="3" t="inlineStr"/>
-      <c r="N208" s="3" t="inlineStr"/>
+      <c r="K208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O208" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P208" s="3" t="inlineStr"/>
-      <c r="Q208" s="3" t="inlineStr"/>
+      <c r="P208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R208" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S208" s="3" t="inlineStr"/>
-      <c r="T208" s="3" t="inlineStr"/>
-      <c r="U208" s="3" t="inlineStr"/>
-      <c r="V208" s="3" t="inlineStr"/>
-      <c r="W208" s="3" t="inlineStr"/>
-      <c r="X208" s="3" t="inlineStr"/>
-      <c r="Y208" s="3" t="inlineStr"/>
-      <c r="Z208" s="3" t="inlineStr"/>
-      <c r="AA208" s="3" t="inlineStr"/>
-      <c r="AB208" s="3" t="inlineStr"/>
-      <c r="AC208" s="3" t="inlineStr"/>
-      <c r="AD208" s="3" t="inlineStr"/>
-      <c r="AE208" s="3" t="inlineStr"/>
-      <c r="AF208" s="3" t="inlineStr"/>
+      <c r="S208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>AWS Security Hub</t>
+          <t>Amazon FSx for OpenZFS</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
@@ -25365,11 +25373,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I209" s="3" t="inlineStr"/>
       <c r="J209" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25400,96 +25404,32 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P209" s="3" t="inlineStr"/>
+      <c r="Q209" s="3" t="inlineStr"/>
       <c r="R209" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S209" s="3" t="inlineStr"/>
+      <c r="T209" s="3" t="inlineStr"/>
+      <c r="U209" s="3" t="inlineStr"/>
+      <c r="V209" s="3" t="inlineStr"/>
+      <c r="W209" s="3" t="inlineStr"/>
+      <c r="X209" s="3" t="inlineStr"/>
+      <c r="Y209" s="3" t="inlineStr"/>
+      <c r="Z209" s="3" t="inlineStr"/>
+      <c r="AA209" s="3" t="inlineStr"/>
+      <c r="AB209" s="3" t="inlineStr"/>
+      <c r="AC209" s="3" t="inlineStr"/>
+      <c r="AD209" s="3" t="inlineStr"/>
+      <c r="AE209" s="3" t="inlineStr"/>
+      <c r="AF209" s="3" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for OpenZFS</t>
+          <t>Amazon DynamoDB</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
@@ -25527,7 +25467,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I210" s="3" t="inlineStr"/>
+      <c r="I210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25558,27 +25502,91 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P210" s="3" t="inlineStr"/>
-      <c r="Q210" s="3" t="inlineStr"/>
+      <c r="P210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S210" s="3" t="inlineStr"/>
-      <c r="T210" s="3" t="inlineStr"/>
-      <c r="U210" s="3" t="inlineStr"/>
-      <c r="V210" s="3" t="inlineStr"/>
-      <c r="W210" s="3" t="inlineStr"/>
-      <c r="X210" s="3" t="inlineStr"/>
-      <c r="Y210" s="3" t="inlineStr"/>
-      <c r="Z210" s="3" t="inlineStr"/>
-      <c r="AA210" s="3" t="inlineStr"/>
-      <c r="AB210" s="3" t="inlineStr"/>
-      <c r="AC210" s="3" t="inlineStr"/>
-      <c r="AD210" s="3" t="inlineStr"/>
-      <c r="AE210" s="3" t="inlineStr"/>
-      <c r="AF210" s="3" t="inlineStr"/>
+      <c r="S210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -26207,10 +26215,14 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>Amazon Rekognition</t>
-        </is>
-      </c>
-      <c r="B217" s="3" t="inlineStr"/>
+          <t>AWS Lambda</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26241,7 +26253,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I217" s="3" t="inlineStr"/>
+      <c r="I217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26262,7 +26278,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N217" s="3" t="inlineStr"/>
+      <c r="N217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O217" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26283,25 +26303,81 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S217" s="3" t="inlineStr"/>
-      <c r="T217" s="3" t="inlineStr"/>
-      <c r="U217" s="3" t="inlineStr"/>
-      <c r="V217" s="3" t="inlineStr"/>
-      <c r="W217" s="3" t="inlineStr"/>
-      <c r="X217" s="3" t="inlineStr"/>
-      <c r="Y217" s="3" t="inlineStr"/>
-      <c r="Z217" s="3" t="inlineStr"/>
-      <c r="AA217" s="3" t="inlineStr"/>
-      <c r="AB217" s="3" t="inlineStr"/>
-      <c r="AC217" s="3" t="inlineStr"/>
-      <c r="AD217" s="3" t="inlineStr"/>
-      <c r="AE217" s="3" t="inlineStr"/>
-      <c r="AF217" s="3" t="inlineStr"/>
+      <c r="S217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>AWS Lambda</t>
+          <t>FreeRTOS</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
@@ -26374,11 +26450,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P218" s="3" t="inlineStr"/>
       <c r="Q218" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26394,76 +26466,36 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T218" s="3" t="inlineStr"/>
       <c r="U218" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V218" s="3" t="inlineStr"/>
+      <c r="W218" s="3" t="inlineStr"/>
+      <c r="X218" s="3" t="inlineStr"/>
+      <c r="Y218" s="3" t="inlineStr"/>
+      <c r="Z218" s="3" t="inlineStr"/>
+      <c r="AA218" s="3" t="inlineStr"/>
+      <c r="AB218" s="3" t="inlineStr"/>
       <c r="AC218" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD218" s="3" t="inlineStr"/>
       <c r="AE218" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AF218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF218" s="3" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>FreeRTOS</t>
+          <t>AWS App Mesh</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
@@ -26552,18 +26584,34 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T219" s="3" t="inlineStr"/>
+      <c r="T219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U219" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="V219" s="3" t="inlineStr"/>
-      <c r="W219" s="3" t="inlineStr"/>
+      <c r="W219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X219" s="3" t="inlineStr"/>
-      <c r="Y219" s="3" t="inlineStr"/>
+      <c r="Y219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z219" s="3" t="inlineStr"/>
-      <c r="AA219" s="3" t="inlineStr"/>
+      <c r="AA219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB219" s="3" t="inlineStr"/>
       <c r="AC219" s="2" t="inlineStr">
         <is>
@@ -26581,14 +26629,10 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>AWS App Mesh</t>
-        </is>
-      </c>
-      <c r="B220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Rekognition</t>
+        </is>
+      </c>
+      <c r="B220" s="3" t="inlineStr"/>
       <c r="C220" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26619,11 +26663,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I220" s="3" t="inlineStr"/>
       <c r="J220" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26644,17 +26684,17 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N220" s="3" t="inlineStr"/>
       <c r="O220" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P220" s="3" t="inlineStr"/>
+      <c r="P220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q220" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26665,51 +26705,19 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S220" s="3" t="inlineStr"/>
+      <c r="T220" s="3" t="inlineStr"/>
+      <c r="U220" s="3" t="inlineStr"/>
       <c r="V220" s="3" t="inlineStr"/>
-      <c r="W220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W220" s="3" t="inlineStr"/>
       <c r="X220" s="3" t="inlineStr"/>
-      <c r="Y220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Y220" s="3" t="inlineStr"/>
       <c r="Z220" s="3" t="inlineStr"/>
-      <c r="AA220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA220" s="3" t="inlineStr"/>
       <c r="AB220" s="3" t="inlineStr"/>
-      <c r="AC220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC220" s="3" t="inlineStr"/>
       <c r="AD220" s="3" t="inlineStr"/>
-      <c r="AE220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE220" s="3" t="inlineStr"/>
       <c r="AF220" s="3" t="inlineStr"/>
     </row>
     <row r="221">

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -2592,7 +2592,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z18" s="3" t="inlineStr"/>
+      <c r="Z18" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA18" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF229"/>
+  <dimension ref="A1:AF228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2349,15 +2349,31 @@
       </c>
       <c r="U16" s="3" t="inlineStr"/>
       <c r="V16" s="3" t="inlineStr"/>
-      <c r="W16" s="3" t="inlineStr"/>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X16" s="3" t="inlineStr"/>
       <c r="Y16" s="3" t="inlineStr"/>
       <c r="Z16" s="3" t="inlineStr"/>
-      <c r="AA16" s="3" t="inlineStr"/>
+      <c r="AA16" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB16" s="3" t="inlineStr"/>
       <c r="AC16" s="3" t="inlineStr"/>
-      <c r="AD16" s="3" t="inlineStr"/>
-      <c r="AE16" s="3" t="inlineStr"/>
+      <c r="AD16" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE16" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF16" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14722,7 +14738,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="H118" s="3" t="inlineStr"/>
+      <c r="H118" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="I118" s="3" t="inlineStr"/>
       <c r="J118" s="2" t="inlineStr">
         <is>
@@ -25085,44 +25105,164 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Alexa for Business</t>
-        </is>
-      </c>
-      <c r="B206" s="3" t="inlineStr"/>
-      <c r="C206" s="3" t="inlineStr"/>
-      <c r="D206" s="3" t="inlineStr"/>
-      <c r="E206" s="3" t="inlineStr"/>
-      <c r="F206" s="3" t="inlineStr"/>
-      <c r="G206" s="3" t="inlineStr"/>
-      <c r="H206" s="3" t="inlineStr"/>
-      <c r="I206" s="3" t="inlineStr"/>
+          <t>Amazon DynamoDB</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K206" s="3" t="inlineStr"/>
-      <c r="L206" s="3" t="inlineStr"/>
-      <c r="M206" s="3" t="inlineStr"/>
-      <c r="N206" s="3" t="inlineStr"/>
-      <c r="O206" s="3" t="inlineStr"/>
-      <c r="P206" s="3" t="inlineStr"/>
-      <c r="Q206" s="3" t="inlineStr"/>
-      <c r="R206" s="3" t="inlineStr"/>
-      <c r="S206" s="3" t="inlineStr"/>
-      <c r="T206" s="3" t="inlineStr"/>
-      <c r="U206" s="3" t="inlineStr"/>
-      <c r="V206" s="3" t="inlineStr"/>
-      <c r="W206" s="3" t="inlineStr"/>
-      <c r="X206" s="3" t="inlineStr"/>
-      <c r="Y206" s="3" t="inlineStr"/>
-      <c r="Z206" s="3" t="inlineStr"/>
-      <c r="AA206" s="3" t="inlineStr"/>
-      <c r="AB206" s="3" t="inlineStr"/>
-      <c r="AC206" s="3" t="inlineStr"/>
-      <c r="AD206" s="3" t="inlineStr"/>
-      <c r="AE206" s="3" t="inlineStr"/>
-      <c r="AF206" s="3" t="inlineStr"/>
+      <c r="K206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -25433,14 +25573,10 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Amazon DynamoDB</t>
-        </is>
-      </c>
-      <c r="B210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon DocumentDB (with MongoDB compatibility)</t>
+        </is>
+      </c>
+      <c r="B210" s="3" t="inlineStr"/>
       <c r="C210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25496,11 +25632,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N210" s="3" t="inlineStr"/>
       <c r="O210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25511,11 +25643,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q210" s="3" t="inlineStr"/>
       <c r="R210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25526,79 +25654,43 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T210" s="3" t="inlineStr"/>
       <c r="U210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V210" s="3" t="inlineStr"/>
+      <c r="W210" s="3" t="inlineStr"/>
+      <c r="X210" s="3" t="inlineStr"/>
+      <c r="Y210" s="3" t="inlineStr"/>
+      <c r="Z210" s="3" t="inlineStr"/>
       <c r="AA210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB210" s="3" t="inlineStr"/>
       <c r="AC210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD210" s="3" t="inlineStr"/>
+      <c r="AE210" s="3" t="inlineStr"/>
+      <c r="AF210" s="3" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Amazon DocumentDB (with MongoDB compatibility)</t>
-        </is>
-      </c>
-      <c r="B211" s="3" t="inlineStr"/>
+          <t>AWS Elemental MediaConnect</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25619,11 +25711,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G211" s="3" t="inlineStr"/>
       <c r="H211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25654,18 +25742,22 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N211" s="3" t="inlineStr"/>
+      <c r="N211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q211" s="3" t="inlineStr"/>
+      <c r="P211" s="3" t="inlineStr"/>
+      <c r="Q211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25677,27 +25769,15 @@
         </is>
       </c>
       <c r="T211" s="3" t="inlineStr"/>
-      <c r="U211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U211" s="3" t="inlineStr"/>
       <c r="V211" s="3" t="inlineStr"/>
       <c r="W211" s="3" t="inlineStr"/>
       <c r="X211" s="3" t="inlineStr"/>
       <c r="Y211" s="3" t="inlineStr"/>
       <c r="Z211" s="3" t="inlineStr"/>
-      <c r="AA211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA211" s="3" t="inlineStr"/>
       <c r="AB211" s="3" t="inlineStr"/>
-      <c r="AC211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC211" s="3" t="inlineStr"/>
       <c r="AD211" s="3" t="inlineStr"/>
       <c r="AE211" s="3" t="inlineStr"/>
       <c r="AF211" s="3" t="inlineStr"/>
@@ -25705,91 +25785,39 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaConnect</t>
-        </is>
-      </c>
-      <c r="B212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS DeepLens</t>
+        </is>
+      </c>
+      <c r="B212" s="3" t="inlineStr"/>
       <c r="C212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D212" s="3" t="inlineStr"/>
+      <c r="E212" s="3" t="inlineStr"/>
+      <c r="F212" s="3" t="inlineStr"/>
       <c r="G212" s="3" t="inlineStr"/>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="H212" s="3" t="inlineStr"/>
+      <c r="I212" s="3" t="inlineStr"/>
       <c r="J212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K212" s="3" t="inlineStr"/>
+      <c r="L212" s="3" t="inlineStr"/>
       <c r="M212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N212" s="3" t="inlineStr"/>
+      <c r="O212" s="3" t="inlineStr"/>
       <c r="P212" s="3" t="inlineStr"/>
-      <c r="Q212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q212" s="3" t="inlineStr"/>
+      <c r="R212" s="3" t="inlineStr"/>
+      <c r="S212" s="3" t="inlineStr"/>
       <c r="T212" s="3" t="inlineStr"/>
       <c r="U212" s="3" t="inlineStr"/>
       <c r="V212" s="3" t="inlineStr"/>
@@ -25807,15 +25835,11 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>AWS DeepLens</t>
+          <t>AWS Cost and Usage Report</t>
         </is>
       </c>
       <c r="B213" s="3" t="inlineStr"/>
-      <c r="C213" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C213" s="3" t="inlineStr"/>
       <c r="D213" s="3" t="inlineStr"/>
       <c r="E213" s="3" t="inlineStr"/>
       <c r="F213" s="3" t="inlineStr"/>
@@ -25829,11 +25853,7 @@
       </c>
       <c r="K213" s="3" t="inlineStr"/>
       <c r="L213" s="3" t="inlineStr"/>
-      <c r="M213" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="M213" s="3" t="inlineStr"/>
       <c r="N213" s="3" t="inlineStr"/>
       <c r="O213" s="3" t="inlineStr"/>
       <c r="P213" s="3" t="inlineStr"/>
@@ -25849,7 +25869,11 @@
       <c r="Z213" s="3" t="inlineStr"/>
       <c r="AA213" s="3" t="inlineStr"/>
       <c r="AB213" s="3" t="inlineStr"/>
-      <c r="AC213" s="3" t="inlineStr"/>
+      <c r="AC213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD213" s="3" t="inlineStr"/>
       <c r="AE213" s="3" t="inlineStr"/>
       <c r="AF213" s="3" t="inlineStr"/>
@@ -25857,53 +25881,169 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>AWS Cost and Usage Report</t>
-        </is>
-      </c>
-      <c r="B214" s="3" t="inlineStr"/>
-      <c r="C214" s="3" t="inlineStr"/>
-      <c r="D214" s="3" t="inlineStr"/>
-      <c r="E214" s="3" t="inlineStr"/>
-      <c r="F214" s="3" t="inlineStr"/>
-      <c r="G214" s="3" t="inlineStr"/>
-      <c r="H214" s="3" t="inlineStr"/>
-      <c r="I214" s="3" t="inlineStr"/>
+          <t>AWS Config</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K214" s="3" t="inlineStr"/>
-      <c r="L214" s="3" t="inlineStr"/>
-      <c r="M214" s="3" t="inlineStr"/>
-      <c r="N214" s="3" t="inlineStr"/>
-      <c r="O214" s="3" t="inlineStr"/>
-      <c r="P214" s="3" t="inlineStr"/>
-      <c r="Q214" s="3" t="inlineStr"/>
-      <c r="R214" s="3" t="inlineStr"/>
-      <c r="S214" s="3" t="inlineStr"/>
-      <c r="T214" s="3" t="inlineStr"/>
-      <c r="U214" s="3" t="inlineStr"/>
-      <c r="V214" s="3" t="inlineStr"/>
-      <c r="W214" s="3" t="inlineStr"/>
-      <c r="X214" s="3" t="inlineStr"/>
-      <c r="Y214" s="3" t="inlineStr"/>
-      <c r="Z214" s="3" t="inlineStr"/>
-      <c r="AA214" s="3" t="inlineStr"/>
-      <c r="AB214" s="3" t="inlineStr"/>
+      <c r="K214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC214" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD214" s="3" t="inlineStr"/>
-      <c r="AE214" s="3" t="inlineStr"/>
-      <c r="AF214" s="3" t="inlineStr"/>
+      <c r="AD214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>AWS Config</t>
+          <t>Amazon CloudFront</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
@@ -25976,11 +26116,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P215" s="3" t="inlineStr"/>
       <c r="Q215" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26056,23 +26192,15 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AF215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF215" s="3" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>Amazon CloudFront</t>
-        </is>
-      </c>
-      <c r="B216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Rekognition</t>
+        </is>
+      </c>
+      <c r="B216" s="3" t="inlineStr"/>
       <c r="C216" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26103,11 +26231,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I216" s="3" t="inlineStr"/>
       <c r="J216" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26128,17 +26252,17 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N216" s="3" t="inlineStr"/>
       <c r="O216" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P216" s="3" t="inlineStr"/>
+      <c r="P216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q216" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26149,71 +26273,19 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S216" s="3" t="inlineStr"/>
+      <c r="T216" s="3" t="inlineStr"/>
+      <c r="U216" s="3" t="inlineStr"/>
+      <c r="V216" s="3" t="inlineStr"/>
+      <c r="W216" s="3" t="inlineStr"/>
+      <c r="X216" s="3" t="inlineStr"/>
+      <c r="Y216" s="3" t="inlineStr"/>
+      <c r="Z216" s="3" t="inlineStr"/>
+      <c r="AA216" s="3" t="inlineStr"/>
+      <c r="AB216" s="3" t="inlineStr"/>
+      <c r="AC216" s="3" t="inlineStr"/>
+      <c r="AD216" s="3" t="inlineStr"/>
+      <c r="AE216" s="3" t="inlineStr"/>
       <c r="AF216" s="3" t="inlineStr"/>
     </row>
     <row r="217">
@@ -26633,7 +26705,7 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>Amazon Rekognition</t>
+          <t>AWS Elemental MediaStore</t>
         </is>
       </c>
       <c r="B220" s="3" t="inlineStr"/>
@@ -26647,21 +26719,13 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E220" s="3" t="inlineStr"/>
       <c r="F220" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G220" s="3" t="inlineStr"/>
       <c r="H220" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26673,37 +26737,25 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="K220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K220" s="3" t="inlineStr"/>
+      <c r="L220" s="3" t="inlineStr"/>
       <c r="M220" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N220" s="3" t="inlineStr"/>
+      <c r="N220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O220" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P220" s="3" t="inlineStr"/>
+      <c r="Q220" s="3" t="inlineStr"/>
       <c r="R220" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26727,10 +26779,14 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaStore</t>
-        </is>
-      </c>
-      <c r="B221" s="3" t="inlineStr"/>
+          <t>AWS Cloud Control API</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C221" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26741,26 +26797,46 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E221" s="3" t="inlineStr"/>
+      <c r="E221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G221" s="3" t="inlineStr"/>
+      <c r="G221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H221" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I221" s="3" t="inlineStr"/>
+      <c r="I221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K221" s="3" t="inlineStr"/>
-      <c r="L221" s="3" t="inlineStr"/>
+      <c r="K221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M221" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26776,32 +26852,96 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P221" s="3" t="inlineStr"/>
-      <c r="Q221" s="3" t="inlineStr"/>
+      <c r="P221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R221" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S221" s="3" t="inlineStr"/>
-      <c r="T221" s="3" t="inlineStr"/>
-      <c r="U221" s="3" t="inlineStr"/>
-      <c r="V221" s="3" t="inlineStr"/>
-      <c r="W221" s="3" t="inlineStr"/>
-      <c r="X221" s="3" t="inlineStr"/>
-      <c r="Y221" s="3" t="inlineStr"/>
-      <c r="Z221" s="3" t="inlineStr"/>
-      <c r="AA221" s="3" t="inlineStr"/>
-      <c r="AB221" s="3" t="inlineStr"/>
-      <c r="AC221" s="3" t="inlineStr"/>
-      <c r="AD221" s="3" t="inlineStr"/>
-      <c r="AE221" s="3" t="inlineStr"/>
-      <c r="AF221" s="3" t="inlineStr"/>
+      <c r="S221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>AWS Cloud Control API</t>
+          <t>Amazon FSx for Windows File Server</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
@@ -26963,190 +27103,82 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for Windows File Server</t>
-        </is>
-      </c>
-      <c r="B223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Application Discovery Service</t>
+        </is>
+      </c>
+      <c r="B223" s="3" t="inlineStr"/>
       <c r="C223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D223" s="3" t="inlineStr"/>
+      <c r="E223" s="3" t="inlineStr"/>
       <c r="F223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G223" s="3" t="inlineStr"/>
       <c r="H223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I223" s="3" t="inlineStr"/>
       <c r="J223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K223" s="3" t="inlineStr"/>
+      <c r="L223" s="3" t="inlineStr"/>
       <c r="M223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N223" s="3" t="inlineStr"/>
       <c r="O223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P223" s="3" t="inlineStr"/>
+      <c r="Q223" s="3" t="inlineStr"/>
       <c r="R223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S223" s="3" t="inlineStr"/>
+      <c r="T223" s="3" t="inlineStr"/>
+      <c r="U223" s="3" t="inlineStr"/>
+      <c r="V223" s="3" t="inlineStr"/>
+      <c r="W223" s="3" t="inlineStr"/>
+      <c r="X223" s="3" t="inlineStr"/>
+      <c r="Y223" s="3" t="inlineStr"/>
+      <c r="Z223" s="3" t="inlineStr"/>
+      <c r="AA223" s="3" t="inlineStr"/>
+      <c r="AB223" s="3" t="inlineStr"/>
+      <c r="AC223" s="3" t="inlineStr"/>
+      <c r="AD223" s="3" t="inlineStr"/>
+      <c r="AE223" s="3" t="inlineStr"/>
+      <c r="AF223" s="3" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>AWS Application Discovery Service</t>
+          <t>AWS Cost Explorer</t>
         </is>
       </c>
       <c r="B224" s="3" t="inlineStr"/>
-      <c r="C224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C224" s="3" t="inlineStr"/>
       <c r="D224" s="3" t="inlineStr"/>
       <c r="E224" s="3" t="inlineStr"/>
-      <c r="F224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="F224" s="3" t="inlineStr"/>
       <c r="G224" s="3" t="inlineStr"/>
-      <c r="H224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="H224" s="3" t="inlineStr"/>
       <c r="I224" s="3" t="inlineStr"/>
       <c r="J224" s="2" t="inlineStr">
         <is>
@@ -27155,24 +27187,12 @@
       </c>
       <c r="K224" s="3" t="inlineStr"/>
       <c r="L224" s="3" t="inlineStr"/>
-      <c r="M224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="M224" s="3" t="inlineStr"/>
       <c r="N224" s="3" t="inlineStr"/>
-      <c r="O224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="O224" s="3" t="inlineStr"/>
       <c r="P224" s="3" t="inlineStr"/>
       <c r="Q224" s="3" t="inlineStr"/>
-      <c r="R224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="R224" s="3" t="inlineStr"/>
       <c r="S224" s="3" t="inlineStr"/>
       <c r="T224" s="3" t="inlineStr"/>
       <c r="U224" s="3" t="inlineStr"/>
@@ -27183,7 +27203,11 @@
       <c r="Z224" s="3" t="inlineStr"/>
       <c r="AA224" s="3" t="inlineStr"/>
       <c r="AB224" s="3" t="inlineStr"/>
-      <c r="AC224" s="3" t="inlineStr"/>
+      <c r="AC224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD224" s="3" t="inlineStr"/>
       <c r="AE224" s="3" t="inlineStr"/>
       <c r="AF224" s="3" t="inlineStr"/>
@@ -27191,14 +27215,22 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>AWS Cost Explorer</t>
+          <t>AWS App Runner</t>
         </is>
       </c>
       <c r="B225" s="3" t="inlineStr"/>
-      <c r="C225" s="3" t="inlineStr"/>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="D225" s="3" t="inlineStr"/>
       <c r="E225" s="3" t="inlineStr"/>
-      <c r="F225" s="3" t="inlineStr"/>
+      <c r="F225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="G225" s="3" t="inlineStr"/>
       <c r="H225" s="3" t="inlineStr"/>
       <c r="I225" s="3" t="inlineStr"/>
@@ -27207,14 +27239,34 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="K225" s="3" t="inlineStr"/>
-      <c r="L225" s="3" t="inlineStr"/>
-      <c r="M225" s="3" t="inlineStr"/>
+      <c r="K225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N225" s="3" t="inlineStr"/>
-      <c r="O225" s="3" t="inlineStr"/>
+      <c r="O225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="P225" s="3" t="inlineStr"/>
       <c r="Q225" s="3" t="inlineStr"/>
-      <c r="R225" s="3" t="inlineStr"/>
+      <c r="R225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="S225" s="3" t="inlineStr"/>
       <c r="T225" s="3" t="inlineStr"/>
       <c r="U225" s="3" t="inlineStr"/>
@@ -27225,11 +27277,7 @@
       <c r="Z225" s="3" t="inlineStr"/>
       <c r="AA225" s="3" t="inlineStr"/>
       <c r="AB225" s="3" t="inlineStr"/>
-      <c r="AC225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC225" s="3" t="inlineStr"/>
       <c r="AD225" s="3" t="inlineStr"/>
       <c r="AE225" s="3" t="inlineStr"/>
       <c r="AF225" s="3" t="inlineStr"/>
@@ -27237,25 +27285,49 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>AWS App Runner</t>
-        </is>
-      </c>
-      <c r="B226" s="3" t="inlineStr"/>
+          <t>Amazon Elastic Container Service (ECS)</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D226" s="3" t="inlineStr"/>
-      <c r="E226" s="3" t="inlineStr"/>
+      <c r="D226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G226" s="3" t="inlineStr"/>
-      <c r="H226" s="3" t="inlineStr"/>
-      <c r="I226" s="3" t="inlineStr"/>
+      <c r="G226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27276,38 +27348,106 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N226" s="3" t="inlineStr"/>
+      <c r="N226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P226" s="3" t="inlineStr"/>
-      <c r="Q226" s="3" t="inlineStr"/>
+      <c r="P226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S226" s="3" t="inlineStr"/>
-      <c r="T226" s="3" t="inlineStr"/>
-      <c r="U226" s="3" t="inlineStr"/>
-      <c r="V226" s="3" t="inlineStr"/>
-      <c r="W226" s="3" t="inlineStr"/>
-      <c r="X226" s="3" t="inlineStr"/>
-      <c r="Y226" s="3" t="inlineStr"/>
-      <c r="Z226" s="3" t="inlineStr"/>
-      <c r="AA226" s="3" t="inlineStr"/>
-      <c r="AB226" s="3" t="inlineStr"/>
-      <c r="AC226" s="3" t="inlineStr"/>
-      <c r="AD226" s="3" t="inlineStr"/>
-      <c r="AE226" s="3" t="inlineStr"/>
-      <c r="AF226" s="3" t="inlineStr"/>
+      <c r="S226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>Amazon Elastic Container Service (ECS)</t>
+          <t>AWS CodeBuild</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
@@ -27469,14 +27609,10 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>AWS CodeBuild</t>
-        </is>
-      </c>
-      <c r="B228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Chime SDK</t>
+        </is>
+      </c>
+      <c r="B228" s="3" t="inlineStr"/>
       <c r="C228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27562,185 +27698,27 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T228" s="3" t="inlineStr"/>
+      <c r="U228" s="3" t="inlineStr"/>
+      <c r="V228" s="3" t="inlineStr"/>
       <c r="W228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X228" s="3" t="inlineStr"/>
+      <c r="Y228" s="3" t="inlineStr"/>
+      <c r="Z228" s="3" t="inlineStr"/>
       <c r="AA228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB228" s="3" t="inlineStr"/>
+      <c r="AC228" s="3" t="inlineStr"/>
+      <c r="AD228" s="3" t="inlineStr"/>
+      <c r="AE228" s="3" t="inlineStr"/>
       <c r="AF228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="inlineStr">
-        <is>
-          <t>Amazon Chime SDK</t>
-        </is>
-      </c>
-      <c r="B229" s="3" t="inlineStr"/>
-      <c r="C229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T229" s="3" t="inlineStr"/>
-      <c r="U229" s="3" t="inlineStr"/>
-      <c r="V229" s="3" t="inlineStr"/>
-      <c r="W229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X229" s="3" t="inlineStr"/>
-      <c r="Y229" s="3" t="inlineStr"/>
-      <c r="Z229" s="3" t="inlineStr"/>
-      <c r="AA229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB229" s="3" t="inlineStr"/>
-      <c r="AC229" s="3" t="inlineStr"/>
-      <c r="AD229" s="3" t="inlineStr"/>
-      <c r="AE229" s="3" t="inlineStr"/>
-      <c r="AF229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -4888,7 +4888,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P39" s="3" t="inlineStr"/>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q39" s="3" t="inlineStr"/>
       <c r="R39" s="2" t="inlineStr">
         <is>
@@ -4908,7 +4912,11 @@
       <c r="AC39" s="3" t="inlineStr"/>
       <c r="AD39" s="3" t="inlineStr"/>
       <c r="AE39" s="3" t="inlineStr"/>
-      <c r="AF39" s="3" t="inlineStr"/>
+      <c r="AF39" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -17946,25 +17946,41 @@
         </is>
       </c>
       <c r="U143" s="3" t="inlineStr"/>
-      <c r="V143" s="3" t="inlineStr"/>
+      <c r="V143" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W143" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X143" s="3" t="inlineStr"/>
+      <c r="X143" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Y143" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Z143" s="3" t="inlineStr"/>
+      <c r="Z143" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA143" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB143" s="3" t="inlineStr"/>
+      <c r="AB143" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC143" s="3" t="inlineStr"/>
       <c r="AD143" s="2" t="inlineStr">
         <is>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF228"/>
+  <dimension ref="A1:AF229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2299,7 +2299,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I16" s="3" t="inlineStr"/>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -2310,13 +2314,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L16" s="3" t="inlineStr"/>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N16" s="3" t="inlineStr"/>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -2355,7 +2367,11 @@
         </is>
       </c>
       <c r="X16" s="3" t="inlineStr"/>
-      <c r="Y16" s="3" t="inlineStr"/>
+      <c r="Y16" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z16" s="3" t="inlineStr"/>
       <c r="AA16" s="2" t="inlineStr">
         <is>
@@ -24863,10 +24879,14 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Amazon Inspector Classic</t>
-        </is>
-      </c>
-      <c r="B203" s="3" t="inlineStr"/>
+          <t>AWS User Notifications</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24887,13 +24907,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G203" s="3" t="inlineStr"/>
+      <c r="G203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H203" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I203" s="3" t="inlineStr"/>
+      <c r="I203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J203" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24904,7 +24932,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L203" s="3" t="inlineStr"/>
+      <c r="L203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M203" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24920,11 +24952,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P203" s="3" t="inlineStr"/>
       <c r="Q203" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24935,52 +24963,140 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S203" s="3" t="inlineStr"/>
-      <c r="T203" s="3" t="inlineStr"/>
+      <c r="S203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U203" s="3" t="inlineStr"/>
-      <c r="V203" s="3" t="inlineStr"/>
-      <c r="W203" s="3" t="inlineStr"/>
-      <c r="X203" s="3" t="inlineStr"/>
-      <c r="Y203" s="3" t="inlineStr"/>
-      <c r="Z203" s="3" t="inlineStr"/>
-      <c r="AA203" s="3" t="inlineStr"/>
-      <c r="AB203" s="3" t="inlineStr"/>
+      <c r="V203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC203" s="3" t="inlineStr"/>
-      <c r="AD203" s="3" t="inlineStr"/>
-      <c r="AE203" s="3" t="inlineStr"/>
-      <c r="AF203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF203" s="3" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>AWS DeepRacer</t>
+          <t>Amazon Inspector Classic</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr"/>
-      <c r="C204" s="3" t="inlineStr"/>
-      <c r="D204" s="3" t="inlineStr"/>
-      <c r="E204" s="3" t="inlineStr"/>
-      <c r="F204" s="3" t="inlineStr"/>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="G204" s="3" t="inlineStr"/>
-      <c r="H204" s="3" t="inlineStr"/>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="I204" s="3" t="inlineStr"/>
       <c r="J204" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K204" s="3" t="inlineStr"/>
+      <c r="K204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L204" s="3" t="inlineStr"/>
-      <c r="M204" s="3" t="inlineStr"/>
-      <c r="N204" s="3" t="inlineStr"/>
-      <c r="O204" s="3" t="inlineStr"/>
-      <c r="P204" s="3" t="inlineStr"/>
-      <c r="Q204" s="3" t="inlineStr"/>
-      <c r="R204" s="3" t="inlineStr"/>
+      <c r="M204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="S204" s="3" t="inlineStr"/>
       <c r="T204" s="3" t="inlineStr"/>
       <c r="U204" s="3" t="inlineStr"/>
@@ -24994,142 +25110,58 @@
       <c r="AC204" s="3" t="inlineStr"/>
       <c r="AD204" s="3" t="inlineStr"/>
       <c r="AE204" s="3" t="inlineStr"/>
-      <c r="AF204" s="3" t="inlineStr"/>
+      <c r="AF204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Amazon GameLift</t>
-        </is>
-      </c>
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS DeepRacer</t>
+        </is>
+      </c>
+      <c r="B205" s="3" t="inlineStr"/>
+      <c r="C205" s="3" t="inlineStr"/>
+      <c r="D205" s="3" t="inlineStr"/>
+      <c r="E205" s="3" t="inlineStr"/>
+      <c r="F205" s="3" t="inlineStr"/>
+      <c r="G205" s="3" t="inlineStr"/>
+      <c r="H205" s="3" t="inlineStr"/>
+      <c r="I205" s="3" t="inlineStr"/>
       <c r="J205" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K205" s="3" t="inlineStr"/>
+      <c r="L205" s="3" t="inlineStr"/>
+      <c r="M205" s="3" t="inlineStr"/>
+      <c r="N205" s="3" t="inlineStr"/>
+      <c r="O205" s="3" t="inlineStr"/>
       <c r="P205" s="3" t="inlineStr"/>
-      <c r="Q205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q205" s="3" t="inlineStr"/>
+      <c r="R205" s="3" t="inlineStr"/>
+      <c r="S205" s="3" t="inlineStr"/>
+      <c r="T205" s="3" t="inlineStr"/>
+      <c r="U205" s="3" t="inlineStr"/>
       <c r="V205" s="3" t="inlineStr"/>
-      <c r="W205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W205" s="3" t="inlineStr"/>
       <c r="X205" s="3" t="inlineStr"/>
       <c r="Y205" s="3" t="inlineStr"/>
       <c r="Z205" s="3" t="inlineStr"/>
-      <c r="AA205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA205" s="3" t="inlineStr"/>
       <c r="AB205" s="3" t="inlineStr"/>
-      <c r="AC205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC205" s="3" t="inlineStr"/>
       <c r="AD205" s="3" t="inlineStr"/>
-      <c r="AE205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE205" s="3" t="inlineStr"/>
       <c r="AF205" s="3" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Amazon DynamoDB</t>
+          <t>Amazon GameLift</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
@@ -25202,11 +25234,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P206" s="3" t="inlineStr"/>
       <c r="Q206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25232,61 +25260,33 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="V206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V206" s="3" t="inlineStr"/>
       <c r="W206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X206" s="3" t="inlineStr"/>
+      <c r="Y206" s="3" t="inlineStr"/>
+      <c r="Z206" s="3" t="inlineStr"/>
       <c r="AA206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB206" s="3" t="inlineStr"/>
       <c r="AC206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD206" s="3" t="inlineStr"/>
       <c r="AE206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AF206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF206" s="3" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -25597,10 +25597,14 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Amazon DocumentDB (with MongoDB compatibility)</t>
-        </is>
-      </c>
-      <c r="B210" s="3" t="inlineStr"/>
+          <t>Amazon DynamoDB</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25656,7 +25660,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N210" s="3" t="inlineStr"/>
+      <c r="N210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25667,7 +25675,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q210" s="3" t="inlineStr"/>
+      <c r="Q210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25678,43 +25690,79 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T210" s="3" t="inlineStr"/>
+      <c r="T210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V210" s="3" t="inlineStr"/>
-      <c r="W210" s="3" t="inlineStr"/>
-      <c r="X210" s="3" t="inlineStr"/>
-      <c r="Y210" s="3" t="inlineStr"/>
-      <c r="Z210" s="3" t="inlineStr"/>
+      <c r="V210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB210" s="3" t="inlineStr"/>
+      <c r="AB210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD210" s="3" t="inlineStr"/>
-      <c r="AE210" s="3" t="inlineStr"/>
-      <c r="AF210" s="3" t="inlineStr"/>
+      <c r="AD210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaConnect</t>
-        </is>
-      </c>
-      <c r="B211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon DocumentDB (with MongoDB compatibility)</t>
+        </is>
+      </c>
+      <c r="B211" s="3" t="inlineStr"/>
       <c r="C211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25735,7 +25783,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G211" s="3" t="inlineStr"/>
+      <c r="G211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25766,22 +25818,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N211" s="3" t="inlineStr"/>
       <c r="O211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P211" s="3" t="inlineStr"/>
-      <c r="Q211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q211" s="3" t="inlineStr"/>
       <c r="R211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25793,15 +25841,27 @@
         </is>
       </c>
       <c r="T211" s="3" t="inlineStr"/>
-      <c r="U211" s="3" t="inlineStr"/>
+      <c r="U211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V211" s="3" t="inlineStr"/>
       <c r="W211" s="3" t="inlineStr"/>
       <c r="X211" s="3" t="inlineStr"/>
       <c r="Y211" s="3" t="inlineStr"/>
       <c r="Z211" s="3" t="inlineStr"/>
-      <c r="AA211" s="3" t="inlineStr"/>
+      <c r="AA211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB211" s="3" t="inlineStr"/>
-      <c r="AC211" s="3" t="inlineStr"/>
+      <c r="AC211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD211" s="3" t="inlineStr"/>
       <c r="AE211" s="3" t="inlineStr"/>
       <c r="AF211" s="3" t="inlineStr"/>
@@ -25809,39 +25869,91 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>AWS DeepLens</t>
-        </is>
-      </c>
-      <c r="B212" s="3" t="inlineStr"/>
+          <t>AWS Elemental MediaConnect</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D212" s="3" t="inlineStr"/>
-      <c r="E212" s="3" t="inlineStr"/>
-      <c r="F212" s="3" t="inlineStr"/>
+      <c r="D212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="G212" s="3" t="inlineStr"/>
-      <c r="H212" s="3" t="inlineStr"/>
-      <c r="I212" s="3" t="inlineStr"/>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K212" s="3" t="inlineStr"/>
-      <c r="L212" s="3" t="inlineStr"/>
+      <c r="K212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N212" s="3" t="inlineStr"/>
-      <c r="O212" s="3" t="inlineStr"/>
+      <c r="N212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="P212" s="3" t="inlineStr"/>
-      <c r="Q212" s="3" t="inlineStr"/>
-      <c r="R212" s="3" t="inlineStr"/>
-      <c r="S212" s="3" t="inlineStr"/>
+      <c r="Q212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T212" s="3" t="inlineStr"/>
       <c r="U212" s="3" t="inlineStr"/>
       <c r="V212" s="3" t="inlineStr"/>
@@ -25859,11 +25971,15 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>AWS Cost and Usage Report</t>
+          <t>AWS DeepLens</t>
         </is>
       </c>
       <c r="B213" s="3" t="inlineStr"/>
-      <c r="C213" s="3" t="inlineStr"/>
+      <c r="C213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="D213" s="3" t="inlineStr"/>
       <c r="E213" s="3" t="inlineStr"/>
       <c r="F213" s="3" t="inlineStr"/>
@@ -25877,7 +25993,11 @@
       </c>
       <c r="K213" s="3" t="inlineStr"/>
       <c r="L213" s="3" t="inlineStr"/>
-      <c r="M213" s="3" t="inlineStr"/>
+      <c r="M213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N213" s="3" t="inlineStr"/>
       <c r="O213" s="3" t="inlineStr"/>
       <c r="P213" s="3" t="inlineStr"/>
@@ -25893,11 +26013,7 @@
       <c r="Z213" s="3" t="inlineStr"/>
       <c r="AA213" s="3" t="inlineStr"/>
       <c r="AB213" s="3" t="inlineStr"/>
-      <c r="AC213" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC213" s="3" t="inlineStr"/>
       <c r="AD213" s="3" t="inlineStr"/>
       <c r="AE213" s="3" t="inlineStr"/>
       <c r="AF213" s="3" t="inlineStr"/>
@@ -25905,169 +26021,53 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>AWS Config</t>
-        </is>
-      </c>
-      <c r="B214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Cost and Usage Report</t>
+        </is>
+      </c>
+      <c r="B214" s="3" t="inlineStr"/>
+      <c r="C214" s="3" t="inlineStr"/>
+      <c r="D214" s="3" t="inlineStr"/>
+      <c r="E214" s="3" t="inlineStr"/>
+      <c r="F214" s="3" t="inlineStr"/>
+      <c r="G214" s="3" t="inlineStr"/>
+      <c r="H214" s="3" t="inlineStr"/>
+      <c r="I214" s="3" t="inlineStr"/>
       <c r="J214" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K214" s="3" t="inlineStr"/>
+      <c r="L214" s="3" t="inlineStr"/>
+      <c r="M214" s="3" t="inlineStr"/>
+      <c r="N214" s="3" t="inlineStr"/>
+      <c r="O214" s="3" t="inlineStr"/>
+      <c r="P214" s="3" t="inlineStr"/>
+      <c r="Q214" s="3" t="inlineStr"/>
+      <c r="R214" s="3" t="inlineStr"/>
+      <c r="S214" s="3" t="inlineStr"/>
+      <c r="T214" s="3" t="inlineStr"/>
+      <c r="U214" s="3" t="inlineStr"/>
+      <c r="V214" s="3" t="inlineStr"/>
+      <c r="W214" s="3" t="inlineStr"/>
+      <c r="X214" s="3" t="inlineStr"/>
+      <c r="Y214" s="3" t="inlineStr"/>
+      <c r="Z214" s="3" t="inlineStr"/>
+      <c r="AA214" s="3" t="inlineStr"/>
+      <c r="AB214" s="3" t="inlineStr"/>
       <c r="AC214" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD214" s="3" t="inlineStr"/>
+      <c r="AE214" s="3" t="inlineStr"/>
+      <c r="AF214" s="3" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>Amazon CloudFront</t>
+          <t>AWS Config</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
@@ -26140,7 +26140,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P215" s="3" t="inlineStr"/>
+      <c r="P215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q215" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26216,15 +26220,23 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AF215" s="3" t="inlineStr"/>
+      <c r="AF215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>Amazon Rekognition</t>
-        </is>
-      </c>
-      <c r="B216" s="3" t="inlineStr"/>
+          <t>Amazon CloudFront</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26255,7 +26267,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I216" s="3" t="inlineStr"/>
+      <c r="I216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26276,17 +26292,17 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N216" s="3" t="inlineStr"/>
+      <c r="N216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O216" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P216" s="3" t="inlineStr"/>
       <c r="Q216" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26297,19 +26313,71 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S216" s="3" t="inlineStr"/>
-      <c r="T216" s="3" t="inlineStr"/>
-      <c r="U216" s="3" t="inlineStr"/>
-      <c r="V216" s="3" t="inlineStr"/>
-      <c r="W216" s="3" t="inlineStr"/>
-      <c r="X216" s="3" t="inlineStr"/>
-      <c r="Y216" s="3" t="inlineStr"/>
-      <c r="Z216" s="3" t="inlineStr"/>
-      <c r="AA216" s="3" t="inlineStr"/>
-      <c r="AB216" s="3" t="inlineStr"/>
-      <c r="AC216" s="3" t="inlineStr"/>
-      <c r="AD216" s="3" t="inlineStr"/>
-      <c r="AE216" s="3" t="inlineStr"/>
+      <c r="S216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF216" s="3" t="inlineStr"/>
     </row>
     <row r="217">
@@ -26729,7 +26797,7 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaStore</t>
+          <t>Amazon Rekognition</t>
         </is>
       </c>
       <c r="B220" s="3" t="inlineStr"/>
@@ -26743,13 +26811,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E220" s="3" t="inlineStr"/>
+      <c r="E220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G220" s="3" t="inlineStr"/>
+      <c r="G220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H220" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26761,25 +26837,37 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="K220" s="3" t="inlineStr"/>
-      <c r="L220" s="3" t="inlineStr"/>
+      <c r="K220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M220" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N220" s="3" t="inlineStr"/>
       <c r="O220" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P220" s="3" t="inlineStr"/>
-      <c r="Q220" s="3" t="inlineStr"/>
+      <c r="P220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R220" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26803,14 +26891,10 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>AWS Cloud Control API</t>
-        </is>
-      </c>
-      <c r="B221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Elemental MediaStore</t>
+        </is>
+      </c>
+      <c r="B221" s="3" t="inlineStr"/>
       <c r="C221" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26821,46 +26905,26 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E221" s="3" t="inlineStr"/>
       <c r="F221" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G221" s="3" t="inlineStr"/>
       <c r="H221" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I221" s="3" t="inlineStr"/>
       <c r="J221" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K221" s="3" t="inlineStr"/>
+      <c r="L221" s="3" t="inlineStr"/>
       <c r="M221" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26876,96 +26940,32 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P221" s="3" t="inlineStr"/>
+      <c r="Q221" s="3" t="inlineStr"/>
       <c r="R221" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S221" s="3" t="inlineStr"/>
+      <c r="T221" s="3" t="inlineStr"/>
+      <c r="U221" s="3" t="inlineStr"/>
+      <c r="V221" s="3" t="inlineStr"/>
+      <c r="W221" s="3" t="inlineStr"/>
+      <c r="X221" s="3" t="inlineStr"/>
+      <c r="Y221" s="3" t="inlineStr"/>
+      <c r="Z221" s="3" t="inlineStr"/>
+      <c r="AA221" s="3" t="inlineStr"/>
+      <c r="AB221" s="3" t="inlineStr"/>
+      <c r="AC221" s="3" t="inlineStr"/>
+      <c r="AD221" s="3" t="inlineStr"/>
+      <c r="AE221" s="3" t="inlineStr"/>
+      <c r="AF221" s="3" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for Windows File Server</t>
+          <t>AWS Cloud Control API</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
@@ -27127,82 +27127,190 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>AWS Application Discovery Service</t>
-        </is>
-      </c>
-      <c r="B223" s="3" t="inlineStr"/>
+          <t>Amazon FSx for Windows File Server</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D223" s="3" t="inlineStr"/>
-      <c r="E223" s="3" t="inlineStr"/>
+      <c r="D223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G223" s="3" t="inlineStr"/>
+      <c r="G223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I223" s="3" t="inlineStr"/>
+      <c r="I223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K223" s="3" t="inlineStr"/>
-      <c r="L223" s="3" t="inlineStr"/>
+      <c r="K223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N223" s="3" t="inlineStr"/>
+      <c r="N223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P223" s="3" t="inlineStr"/>
-      <c r="Q223" s="3" t="inlineStr"/>
+      <c r="P223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S223" s="3" t="inlineStr"/>
-      <c r="T223" s="3" t="inlineStr"/>
-      <c r="U223" s="3" t="inlineStr"/>
-      <c r="V223" s="3" t="inlineStr"/>
-      <c r="W223" s="3" t="inlineStr"/>
-      <c r="X223" s="3" t="inlineStr"/>
-      <c r="Y223" s="3" t="inlineStr"/>
-      <c r="Z223" s="3" t="inlineStr"/>
-      <c r="AA223" s="3" t="inlineStr"/>
-      <c r="AB223" s="3" t="inlineStr"/>
-      <c r="AC223" s="3" t="inlineStr"/>
-      <c r="AD223" s="3" t="inlineStr"/>
-      <c r="AE223" s="3" t="inlineStr"/>
-      <c r="AF223" s="3" t="inlineStr"/>
+      <c r="S223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>AWS Cost Explorer</t>
+          <t>AWS Application Discovery Service</t>
         </is>
       </c>
       <c r="B224" s="3" t="inlineStr"/>
-      <c r="C224" s="3" t="inlineStr"/>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="D224" s="3" t="inlineStr"/>
       <c r="E224" s="3" t="inlineStr"/>
-      <c r="F224" s="3" t="inlineStr"/>
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="G224" s="3" t="inlineStr"/>
-      <c r="H224" s="3" t="inlineStr"/>
+      <c r="H224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="I224" s="3" t="inlineStr"/>
       <c r="J224" s="2" t="inlineStr">
         <is>
@@ -27211,12 +27319,24 @@
       </c>
       <c r="K224" s="3" t="inlineStr"/>
       <c r="L224" s="3" t="inlineStr"/>
-      <c r="M224" s="3" t="inlineStr"/>
+      <c r="M224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N224" s="3" t="inlineStr"/>
-      <c r="O224" s="3" t="inlineStr"/>
+      <c r="O224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="P224" s="3" t="inlineStr"/>
       <c r="Q224" s="3" t="inlineStr"/>
-      <c r="R224" s="3" t="inlineStr"/>
+      <c r="R224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="S224" s="3" t="inlineStr"/>
       <c r="T224" s="3" t="inlineStr"/>
       <c r="U224" s="3" t="inlineStr"/>
@@ -27227,11 +27347,7 @@
       <c r="Z224" s="3" t="inlineStr"/>
       <c r="AA224" s="3" t="inlineStr"/>
       <c r="AB224" s="3" t="inlineStr"/>
-      <c r="AC224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC224" s="3" t="inlineStr"/>
       <c r="AD224" s="3" t="inlineStr"/>
       <c r="AE224" s="3" t="inlineStr"/>
       <c r="AF224" s="3" t="inlineStr"/>
@@ -27239,22 +27355,14 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>AWS App Runner</t>
+          <t>AWS Cost Explorer</t>
         </is>
       </c>
       <c r="B225" s="3" t="inlineStr"/>
-      <c r="C225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C225" s="3" t="inlineStr"/>
       <c r="D225" s="3" t="inlineStr"/>
       <c r="E225" s="3" t="inlineStr"/>
-      <c r="F225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="F225" s="3" t="inlineStr"/>
       <c r="G225" s="3" t="inlineStr"/>
       <c r="H225" s="3" t="inlineStr"/>
       <c r="I225" s="3" t="inlineStr"/>
@@ -27263,34 +27371,14 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="K225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K225" s="3" t="inlineStr"/>
+      <c r="L225" s="3" t="inlineStr"/>
+      <c r="M225" s="3" t="inlineStr"/>
       <c r="N225" s="3" t="inlineStr"/>
-      <c r="O225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="O225" s="3" t="inlineStr"/>
       <c r="P225" s="3" t="inlineStr"/>
       <c r="Q225" s="3" t="inlineStr"/>
-      <c r="R225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="R225" s="3" t="inlineStr"/>
       <c r="S225" s="3" t="inlineStr"/>
       <c r="T225" s="3" t="inlineStr"/>
       <c r="U225" s="3" t="inlineStr"/>
@@ -27301,7 +27389,11 @@
       <c r="Z225" s="3" t="inlineStr"/>
       <c r="AA225" s="3" t="inlineStr"/>
       <c r="AB225" s="3" t="inlineStr"/>
-      <c r="AC225" s="3" t="inlineStr"/>
+      <c r="AC225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD225" s="3" t="inlineStr"/>
       <c r="AE225" s="3" t="inlineStr"/>
       <c r="AF225" s="3" t="inlineStr"/>
@@ -27309,49 +27401,25 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>Amazon Elastic Container Service (ECS)</t>
-        </is>
-      </c>
-      <c r="B226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS App Runner</t>
+        </is>
+      </c>
+      <c r="B226" s="3" t="inlineStr"/>
       <c r="C226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D226" s="3" t="inlineStr"/>
+      <c r="E226" s="3" t="inlineStr"/>
       <c r="F226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G226" s="3" t="inlineStr"/>
+      <c r="H226" s="3" t="inlineStr"/>
+      <c r="I226" s="3" t="inlineStr"/>
       <c r="J226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27372,106 +27440,38 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N226" s="3" t="inlineStr"/>
       <c r="O226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P226" s="3" t="inlineStr"/>
+      <c r="Q226" s="3" t="inlineStr"/>
       <c r="R226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S226" s="3" t="inlineStr"/>
+      <c r="T226" s="3" t="inlineStr"/>
+      <c r="U226" s="3" t="inlineStr"/>
+      <c r="V226" s="3" t="inlineStr"/>
+      <c r="W226" s="3" t="inlineStr"/>
+      <c r="X226" s="3" t="inlineStr"/>
+      <c r="Y226" s="3" t="inlineStr"/>
+      <c r="Z226" s="3" t="inlineStr"/>
+      <c r="AA226" s="3" t="inlineStr"/>
+      <c r="AB226" s="3" t="inlineStr"/>
+      <c r="AC226" s="3" t="inlineStr"/>
+      <c r="AD226" s="3" t="inlineStr"/>
+      <c r="AE226" s="3" t="inlineStr"/>
+      <c r="AF226" s="3" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>AWS CodeBuild</t>
+          <t>Amazon Elastic Container Service (ECS)</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
@@ -27633,116 +27633,278 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
+          <t>AWS CodeBuild</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="J228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
           <t>Amazon Chime SDK</t>
         </is>
       </c>
-      <c r="B228" s="3" t="inlineStr"/>
-      <c r="C228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T228" s="3" t="inlineStr"/>
-      <c r="U228" s="3" t="inlineStr"/>
-      <c r="V228" s="3" t="inlineStr"/>
-      <c r="W228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X228" s="3" t="inlineStr"/>
-      <c r="Y228" s="3" t="inlineStr"/>
-      <c r="Z228" s="3" t="inlineStr"/>
-      <c r="AA228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB228" s="3" t="inlineStr"/>
-      <c r="AC228" s="3" t="inlineStr"/>
-      <c r="AD228" s="3" t="inlineStr"/>
-      <c r="AE228" s="3" t="inlineStr"/>
-      <c r="AF228" s="2" t="inlineStr">
+      <c r="B229" s="3" t="inlineStr"/>
+      <c r="C229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="J229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T229" s="3" t="inlineStr"/>
+      <c r="U229" s="3" t="inlineStr"/>
+      <c r="V229" s="3" t="inlineStr"/>
+      <c r="W229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X229" s="3" t="inlineStr"/>
+      <c r="Y229" s="3" t="inlineStr"/>
+      <c r="Z229" s="3" t="inlineStr"/>
+      <c r="AA229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB229" s="3" t="inlineStr"/>
+      <c r="AC229" s="3" t="inlineStr"/>
+      <c r="AD229" s="3" t="inlineStr"/>
+      <c r="AE229" s="3" t="inlineStr"/>
+      <c r="AF229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF229"/>
+  <dimension ref="A1:AF230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16121,10 +16121,14 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Amazon AppFlow</t>
-        </is>
-      </c>
-      <c r="B130" s="3" t="inlineStr"/>
+          <t>Amazon Verified Permissions</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16180,7 +16184,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N130" s="3" t="inlineStr"/>
+      <c r="N130" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O130" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16202,35 +16210,67 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T130" s="3" t="inlineStr"/>
+      <c r="T130" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U130" s="3" t="inlineStr"/>
-      <c r="V130" s="3" t="inlineStr"/>
+      <c r="V130" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W130" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X130" s="3" t="inlineStr"/>
-      <c r="Y130" s="3" t="inlineStr"/>
-      <c r="Z130" s="3" t="inlineStr"/>
-      <c r="AA130" s="3" t="inlineStr"/>
-      <c r="AB130" s="3" t="inlineStr"/>
+      <c r="X130" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y130" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z130" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA130" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB130" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC130" s="3" t="inlineStr"/>
-      <c r="AD130" s="3" t="inlineStr"/>
-      <c r="AE130" s="3" t="inlineStr"/>
+      <c r="AD130" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE130" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF130" s="3" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>AWS CloudHSM</t>
-        </is>
-      </c>
-      <c r="B131" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon AppFlow</t>
+        </is>
+      </c>
+      <c r="B131" s="3" t="inlineStr"/>
       <c r="C131" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16286,21 +16326,13 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N131" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N131" s="3" t="inlineStr"/>
       <c r="O131" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P131" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P131" s="3" t="inlineStr"/>
       <c r="Q131" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16316,56 +16348,28 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T131" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T131" s="3" t="inlineStr"/>
       <c r="U131" s="3" t="inlineStr"/>
-      <c r="V131" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V131" s="3" t="inlineStr"/>
       <c r="W131" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="X131" s="3" t="inlineStr"/>
-      <c r="Y131" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Y131" s="3" t="inlineStr"/>
       <c r="Z131" s="3" t="inlineStr"/>
-      <c r="AA131" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA131" s="3" t="inlineStr"/>
       <c r="AB131" s="3" t="inlineStr"/>
       <c r="AC131" s="3" t="inlineStr"/>
-      <c r="AD131" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE131" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF131" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD131" s="3" t="inlineStr"/>
+      <c r="AE131" s="3" t="inlineStr"/>
+      <c r="AF131" s="3" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>AWS Secrets Manager</t>
+          <t>AWS CloudHSM</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
@@ -16463,11 +16467,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U132" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U132" s="3" t="inlineStr"/>
       <c r="V132" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16478,36 +16478,20 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="X132" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X132" s="3" t="inlineStr"/>
       <c r="Y132" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Z132" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Z132" s="3" t="inlineStr"/>
       <c r="AA132" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB132" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC132" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB132" s="3" t="inlineStr"/>
+      <c r="AC132" s="3" t="inlineStr"/>
       <c r="AD132" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16527,7 +16511,7 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Amazon Simple Workflow Service (SWF)</t>
+          <t>AWS Secrets Manager</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
@@ -17559,7 +17543,7 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>AWS Marketplace</t>
+          <t>Amazon Simple Workflow Service (SWF)</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
@@ -17721,7 +17705,7 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>AWS Auto Scaling</t>
+          <t>AWS Marketplace</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
@@ -17824,31 +17808,51 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="V142" s="3" t="inlineStr"/>
+      <c r="V142" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W142" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X142" s="3" t="inlineStr"/>
+      <c r="X142" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Y142" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Z142" s="3" t="inlineStr"/>
+      <c r="Z142" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA142" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB142" s="3" t="inlineStr"/>
+      <c r="AB142" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC142" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD142" s="3" t="inlineStr"/>
+      <c r="AD142" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE142" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18437,16 +18441,24 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Amazon Location Service</t>
-        </is>
-      </c>
-      <c r="B148" s="3" t="inlineStr"/>
+          <t>AWS Auto Scaling</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D148" s="3" t="inlineStr"/>
+      <c r="D148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18467,7 +18479,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I148" s="3" t="inlineStr"/>
+      <c r="I148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J148" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18498,8 +18514,16 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P148" s="3" t="inlineStr"/>
-      <c r="Q148" s="3" t="inlineStr"/>
+      <c r="P148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R148" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18510,19 +18534,51 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T148" s="3" t="inlineStr"/>
-      <c r="U148" s="3" t="inlineStr"/>
+      <c r="T148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V148" s="3" t="inlineStr"/>
-      <c r="W148" s="3" t="inlineStr"/>
+      <c r="W148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X148" s="3" t="inlineStr"/>
-      <c r="Y148" s="3" t="inlineStr"/>
+      <c r="Y148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z148" s="3" t="inlineStr"/>
-      <c r="AA148" s="3" t="inlineStr"/>
+      <c r="AA148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB148" s="3" t="inlineStr"/>
-      <c r="AC148" s="3" t="inlineStr"/>
+      <c r="AC148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD148" s="3" t="inlineStr"/>
-      <c r="AE148" s="3" t="inlineStr"/>
-      <c r="AF148" s="3" t="inlineStr"/>
+      <c r="AE148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -19167,24 +19223,16 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>AWS Cloud9</t>
-        </is>
-      </c>
-      <c r="B155" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Location Service</t>
+        </is>
+      </c>
+      <c r="B155" s="3" t="inlineStr"/>
       <c r="C155" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D155" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D155" s="3" t="inlineStr"/>
       <c r="E155" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19205,11 +19253,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I155" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I155" s="3" t="inlineStr"/>
       <c r="J155" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19241,11 +19285,7 @@
         </is>
       </c>
       <c r="P155" s="3" t="inlineStr"/>
-      <c r="Q155" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q155" s="3" t="inlineStr"/>
       <c r="R155" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19256,43 +19296,31 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T155" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T155" s="3" t="inlineStr"/>
       <c r="U155" s="3" t="inlineStr"/>
       <c r="V155" s="3" t="inlineStr"/>
-      <c r="W155" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W155" s="3" t="inlineStr"/>
       <c r="X155" s="3" t="inlineStr"/>
       <c r="Y155" s="3" t="inlineStr"/>
       <c r="Z155" s="3" t="inlineStr"/>
-      <c r="AA155" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA155" s="3" t="inlineStr"/>
       <c r="AB155" s="3" t="inlineStr"/>
       <c r="AC155" s="3" t="inlineStr"/>
       <c r="AD155" s="3" t="inlineStr"/>
-      <c r="AE155" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE155" s="3" t="inlineStr"/>
       <c r="AF155" s="3" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Amazon WorkSpaces</t>
-        </is>
-      </c>
-      <c r="B156" s="3" t="inlineStr"/>
+          <t>AWS Cloud9</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19323,13 +19351,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I156" s="3" t="inlineStr"/>
+      <c r="I156" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J156" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K156" s="3" t="inlineStr"/>
+      <c r="K156" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L156" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19340,18 +19376,22 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N156" s="3" t="inlineStr"/>
+      <c r="N156" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O156" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P156" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q156" s="3" t="inlineStr"/>
+      <c r="P156" s="3" t="inlineStr"/>
+      <c r="Q156" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R156" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19362,7 +19402,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T156" s="3" t="inlineStr"/>
+      <c r="T156" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U156" s="3" t="inlineStr"/>
       <c r="V156" s="3" t="inlineStr"/>
       <c r="W156" s="2" t="inlineStr">
@@ -19373,25 +19417,25 @@
       <c r="X156" s="3" t="inlineStr"/>
       <c r="Y156" s="3" t="inlineStr"/>
       <c r="Z156" s="3" t="inlineStr"/>
-      <c r="AA156" s="3" t="inlineStr"/>
+      <c r="AA156" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB156" s="3" t="inlineStr"/>
-      <c r="AC156" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC156" s="3" t="inlineStr"/>
       <c r="AD156" s="3" t="inlineStr"/>
-      <c r="AE156" s="3" t="inlineStr"/>
-      <c r="AF156" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE156" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF156" s="3" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Amazon Managed Blockchain</t>
+          <t>Amazon WorkSpaces</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr"/>
@@ -19405,9 +19449,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E157" s="3" t="inlineStr"/>
-      <c r="F157" s="3" t="inlineStr"/>
-      <c r="G157" s="3" t="inlineStr"/>
+      <c r="E157" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F157" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G157" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H157" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19425,7 +19481,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M157" s="3" t="inlineStr"/>
+      <c r="M157" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N157" s="3" t="inlineStr"/>
       <c r="O157" s="2" t="inlineStr">
         <is>
@@ -19438,33 +19498,49 @@
         </is>
       </c>
       <c r="Q157" s="3" t="inlineStr"/>
-      <c r="R157" s="3" t="inlineStr"/>
-      <c r="S157" s="3" t="inlineStr"/>
+      <c r="R157" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S157" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T157" s="3" t="inlineStr"/>
       <c r="U157" s="3" t="inlineStr"/>
       <c r="V157" s="3" t="inlineStr"/>
-      <c r="W157" s="3" t="inlineStr"/>
+      <c r="W157" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X157" s="3" t="inlineStr"/>
       <c r="Y157" s="3" t="inlineStr"/>
       <c r="Z157" s="3" t="inlineStr"/>
       <c r="AA157" s="3" t="inlineStr"/>
       <c r="AB157" s="3" t="inlineStr"/>
-      <c r="AC157" s="3" t="inlineStr"/>
+      <c r="AC157" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD157" s="3" t="inlineStr"/>
       <c r="AE157" s="3" t="inlineStr"/>
-      <c r="AF157" s="3" t="inlineStr"/>
+      <c r="AF157" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>AWS Snowball</t>
-        </is>
-      </c>
-      <c r="B158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Managed Blockchain</t>
+        </is>
+      </c>
+      <c r="B158" s="3" t="inlineStr"/>
       <c r="C158" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19475,56 +19551,28 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E158" s="3" t="inlineStr"/>
+      <c r="F158" s="3" t="inlineStr"/>
+      <c r="G158" s="3" t="inlineStr"/>
       <c r="H158" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I158" s="3" t="inlineStr"/>
       <c r="J158" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K158" s="3" t="inlineStr"/>
       <c r="L158" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="M158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="M158" s="3" t="inlineStr"/>
+      <c r="N158" s="3" t="inlineStr"/>
       <c r="O158" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19535,71 +19583,27 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q158" s="3" t="inlineStr"/>
+      <c r="R158" s="3" t="inlineStr"/>
+      <c r="S158" s="3" t="inlineStr"/>
+      <c r="T158" s="3" t="inlineStr"/>
+      <c r="U158" s="3" t="inlineStr"/>
       <c r="V158" s="3" t="inlineStr"/>
-      <c r="W158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W158" s="3" t="inlineStr"/>
       <c r="X158" s="3" t="inlineStr"/>
-      <c r="Y158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Y158" s="3" t="inlineStr"/>
       <c r="Z158" s="3" t="inlineStr"/>
-      <c r="AA158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA158" s="3" t="inlineStr"/>
       <c r="AB158" s="3" t="inlineStr"/>
-      <c r="AC158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC158" s="3" t="inlineStr"/>
+      <c r="AD158" s="3" t="inlineStr"/>
       <c r="AE158" s="3" t="inlineStr"/>
-      <c r="AF158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF158" s="3" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>AWS Organizations</t>
+          <t>AWS Snowball</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
@@ -19702,41 +19706,25 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="V159" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V159" s="3" t="inlineStr"/>
       <c r="W159" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X159" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X159" s="3" t="inlineStr"/>
       <c r="Y159" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Z159" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Z159" s="3" t="inlineStr"/>
       <c r="AA159" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB159" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB159" s="3" t="inlineStr"/>
       <c r="AC159" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19747,11 +19735,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AE159" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE159" s="3" t="inlineStr"/>
       <c r="AF159" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20049,7 +20033,7 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>AWS RoboMaker</t>
+          <t>Amazon Pinpoint</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr"/>
@@ -20058,11 +20042,31 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="D162" s="3" t="inlineStr"/>
-      <c r="E162" s="3" t="inlineStr"/>
-      <c r="F162" s="3" t="inlineStr"/>
-      <c r="G162" s="3" t="inlineStr"/>
-      <c r="H162" s="3" t="inlineStr"/>
+      <c r="D162" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F162" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G162" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H162" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="I162" s="3" t="inlineStr"/>
       <c r="J162" s="2" t="inlineStr">
         <is>
@@ -20119,10 +20123,14 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Amazon Pinpoint</t>
-        </is>
-      </c>
-      <c r="B163" s="3" t="inlineStr"/>
+          <t>AWS Elastic Beanstalk</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20153,7 +20161,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I163" s="3" t="inlineStr"/>
+      <c r="I163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J163" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20174,7 +20186,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N163" s="3" t="inlineStr"/>
+      <c r="N163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O163" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20185,31 +20201,71 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q163" s="3" t="inlineStr"/>
+      <c r="Q163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R163" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S163" s="3" t="inlineStr"/>
-      <c r="T163" s="3" t="inlineStr"/>
-      <c r="U163" s="3" t="inlineStr"/>
+      <c r="S163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V163" s="3" t="inlineStr"/>
-      <c r="W163" s="3" t="inlineStr"/>
+      <c r="W163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X163" s="3" t="inlineStr"/>
-      <c r="Y163" s="3" t="inlineStr"/>
+      <c r="Y163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z163" s="3" t="inlineStr"/>
-      <c r="AA163" s="3" t="inlineStr"/>
+      <c r="AA163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB163" s="3" t="inlineStr"/>
-      <c r="AC163" s="3" t="inlineStr"/>
+      <c r="AC163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD163" s="3" t="inlineStr"/>
-      <c r="AE163" s="3" t="inlineStr"/>
-      <c r="AF163" s="3" t="inlineStr"/>
+      <c r="AE163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>AWS Elastic Beanstalk</t>
+          <t>Amazon Transcribe</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
@@ -20302,11 +20358,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T164" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T164" s="3" t="inlineStr"/>
       <c r="U164" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20319,17 +20371,9 @@
         </is>
       </c>
       <c r="X164" s="3" t="inlineStr"/>
-      <c r="Y164" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Y164" s="3" t="inlineStr"/>
       <c r="Z164" s="3" t="inlineStr"/>
-      <c r="AA164" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA164" s="3" t="inlineStr"/>
       <c r="AB164" s="3" t="inlineStr"/>
       <c r="AC164" s="2" t="inlineStr">
         <is>
@@ -20351,7 +20395,7 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Amazon Transcribe</t>
+          <t>AWS Organizations</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
@@ -20444,29 +20488,61 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T165" s="3" t="inlineStr"/>
+      <c r="T165" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U165" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V165" s="3" t="inlineStr"/>
+      <c r="V165" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W165" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X165" s="3" t="inlineStr"/>
-      <c r="Y165" s="3" t="inlineStr"/>
-      <c r="Z165" s="3" t="inlineStr"/>
-      <c r="AA165" s="3" t="inlineStr"/>
-      <c r="AB165" s="3" t="inlineStr"/>
+      <c r="X165" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y165" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z165" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA165" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB165" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC165" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD165" s="3" t="inlineStr"/>
+      <c r="AD165" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE165" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20481,7 +20557,7 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>AWS IoT Device Management</t>
+          <t>Amazon Macie</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
@@ -20554,11 +20630,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P166" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P166" s="3" t="inlineStr"/>
       <c r="Q166" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20574,86 +20646,54 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T166" s="3" t="inlineStr"/>
-      <c r="U166" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T166" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U166" s="3" t="inlineStr"/>
       <c r="V166" s="3" t="inlineStr"/>
-      <c r="W166" s="3" t="inlineStr"/>
+      <c r="W166" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X166" s="3" t="inlineStr"/>
       <c r="Y166" s="3" t="inlineStr"/>
       <c r="Z166" s="3" t="inlineStr"/>
-      <c r="AA166" s="3" t="inlineStr"/>
+      <c r="AA166" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB166" s="3" t="inlineStr"/>
-      <c r="AC166" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD166" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC166" s="3" t="inlineStr"/>
+      <c r="AD166" s="3" t="inlineStr"/>
       <c r="AE166" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AF166" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF166" s="3" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Amazon Macie</t>
-        </is>
-      </c>
-      <c r="B167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS RoboMaker</t>
+        </is>
+      </c>
+      <c r="B167" s="3" t="inlineStr"/>
       <c r="C167" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D167" s="3" t="inlineStr"/>
+      <c r="E167" s="3" t="inlineStr"/>
+      <c r="F167" s="3" t="inlineStr"/>
+      <c r="G167" s="3" t="inlineStr"/>
+      <c r="H167" s="3" t="inlineStr"/>
+      <c r="I167" s="3" t="inlineStr"/>
       <c r="J167" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20674,60 +20714,36 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N167" s="3" t="inlineStr"/>
       <c r="O167" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P167" s="3" t="inlineStr"/>
-      <c r="Q167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q167" s="3" t="inlineStr"/>
       <c r="R167" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S167" s="3" t="inlineStr"/>
+      <c r="T167" s="3" t="inlineStr"/>
       <c r="U167" s="3" t="inlineStr"/>
       <c r="V167" s="3" t="inlineStr"/>
-      <c r="W167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W167" s="3" t="inlineStr"/>
       <c r="X167" s="3" t="inlineStr"/>
       <c r="Y167" s="3" t="inlineStr"/>
       <c r="Z167" s="3" t="inlineStr"/>
-      <c r="AA167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA167" s="3" t="inlineStr"/>
       <c r="AB167" s="3" t="inlineStr"/>
       <c r="AC167" s="3" t="inlineStr"/>
       <c r="AD167" s="3" t="inlineStr"/>
-      <c r="AE167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE167" s="3" t="inlineStr"/>
       <c r="AF167" s="3" t="inlineStr"/>
     </row>
     <row r="168">
@@ -21745,10 +21761,14 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Amazon Managed Service for Prometheus</t>
-        </is>
-      </c>
-      <c r="B176" s="3" t="inlineStr"/>
+          <t>AWS IoT Device Management</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21769,7 +21789,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G176" s="3" t="inlineStr"/>
+      <c r="G176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H176" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21810,8 +21834,16 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P176" s="3" t="inlineStr"/>
-      <c r="Q176" s="3" t="inlineStr"/>
+      <c r="P176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R176" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21823,7 +21855,11 @@
         </is>
       </c>
       <c r="T176" s="3" t="inlineStr"/>
-      <c r="U176" s="3" t="inlineStr"/>
+      <c r="U176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V176" s="3" t="inlineStr"/>
       <c r="W176" s="3" t="inlineStr"/>
       <c r="X176" s="3" t="inlineStr"/>
@@ -21831,15 +21867,31 @@
       <c r="Z176" s="3" t="inlineStr"/>
       <c r="AA176" s="3" t="inlineStr"/>
       <c r="AB176" s="3" t="inlineStr"/>
-      <c r="AC176" s="3" t="inlineStr"/>
-      <c r="AD176" s="3" t="inlineStr"/>
-      <c r="AE176" s="3" t="inlineStr"/>
-      <c r="AF176" s="3" t="inlineStr"/>
+      <c r="AC176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>AWS Mainframe Modernization</t>
+          <t>Amazon Managed Service for Prometheus</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr"/>
@@ -21863,11 +21915,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G177" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G177" s="3" t="inlineStr"/>
       <c r="H177" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21898,18 +21946,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N177" s="3" t="inlineStr"/>
+      <c r="N177" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O177" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="P177" s="3" t="inlineStr"/>
-      <c r="Q177" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q177" s="3" t="inlineStr"/>
       <c r="R177" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22531,14 +22579,10 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>Amazon EC2 Auto Scaling</t>
-        </is>
-      </c>
-      <c r="B183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Mainframe Modernization</t>
+        </is>
+      </c>
+      <c r="B183" s="3" t="inlineStr"/>
       <c r="C183" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22594,21 +22638,13 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N183" s="3" t="inlineStr"/>
       <c r="O183" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P183" s="3" t="inlineStr"/>
       <c r="Q183" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22624,76 +22660,24 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T183" s="3" t="inlineStr"/>
+      <c r="U183" s="3" t="inlineStr"/>
+      <c r="V183" s="3" t="inlineStr"/>
+      <c r="W183" s="3" t="inlineStr"/>
+      <c r="X183" s="3" t="inlineStr"/>
+      <c r="Y183" s="3" t="inlineStr"/>
+      <c r="Z183" s="3" t="inlineStr"/>
+      <c r="AA183" s="3" t="inlineStr"/>
+      <c r="AB183" s="3" t="inlineStr"/>
+      <c r="AC183" s="3" t="inlineStr"/>
+      <c r="AD183" s="3" t="inlineStr"/>
+      <c r="AE183" s="3" t="inlineStr"/>
+      <c r="AF183" s="3" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>AWS Service Catalog</t>
+          <t>Amazon EC2 Auto Scaling</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
@@ -22855,7 +22839,7 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for Lustre</t>
+          <t>AWS Service Catalog</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
@@ -23079,105 +23063,189 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>AWS Wickr</t>
-        </is>
-      </c>
-      <c r="B187" s="3" t="inlineStr"/>
-      <c r="C187" s="3" t="inlineStr"/>
-      <c r="D187" s="3" t="inlineStr"/>
-      <c r="E187" s="3" t="inlineStr"/>
-      <c r="F187" s="3" t="inlineStr"/>
-      <c r="G187" s="3" t="inlineStr"/>
-      <c r="H187" s="3" t="inlineStr"/>
-      <c r="I187" s="3" t="inlineStr"/>
+          <t>Amazon Elastic Container Registry (ECR)</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J187" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K187" s="3" t="inlineStr"/>
-      <c r="L187" s="3" t="inlineStr"/>
-      <c r="M187" s="3" t="inlineStr"/>
-      <c r="N187" s="3" t="inlineStr"/>
-      <c r="O187" s="3" t="inlineStr"/>
+      <c r="K187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="P187" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Q187" s="3" t="inlineStr"/>
-      <c r="R187" s="3" t="inlineStr"/>
-      <c r="S187" s="3" t="inlineStr"/>
-      <c r="T187" s="3" t="inlineStr"/>
-      <c r="U187" s="3" t="inlineStr"/>
-      <c r="V187" s="3" t="inlineStr"/>
-      <c r="W187" s="3" t="inlineStr"/>
-      <c r="X187" s="3" t="inlineStr"/>
-      <c r="Y187" s="3" t="inlineStr"/>
-      <c r="Z187" s="3" t="inlineStr"/>
-      <c r="AA187" s="3" t="inlineStr"/>
-      <c r="AB187" s="3" t="inlineStr"/>
-      <c r="AC187" s="3" t="inlineStr"/>
-      <c r="AD187" s="3" t="inlineStr"/>
-      <c r="AE187" s="3" t="inlineStr"/>
-      <c r="AF187" s="3" t="inlineStr"/>
+      <c r="Q187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Amazon Elastic Container Registry (ECR)</t>
-        </is>
-      </c>
-      <c r="B188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS IoT TwinMaker</t>
+        </is>
+      </c>
+      <c r="B188" s="3" t="inlineStr"/>
+      <c r="C188" s="3" t="inlineStr"/>
+      <c r="D188" s="3" t="inlineStr"/>
+      <c r="E188" s="3" t="inlineStr"/>
       <c r="F188" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G188" s="3" t="inlineStr"/>
+      <c r="H188" s="3" t="inlineStr"/>
+      <c r="I188" s="3" t="inlineStr"/>
       <c r="J188" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K188" s="3" t="inlineStr"/>
       <c r="L188" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23188,11 +23256,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N188" s="3" t="inlineStr"/>
       <c r="O188" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23203,111 +23267,83 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q188" s="3" t="inlineStr"/>
       <c r="R188" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S188" s="3" t="inlineStr"/>
+      <c r="T188" s="3" t="inlineStr"/>
+      <c r="U188" s="3" t="inlineStr"/>
+      <c r="V188" s="3" t="inlineStr"/>
+      <c r="W188" s="3" t="inlineStr"/>
+      <c r="X188" s="3" t="inlineStr"/>
+      <c r="Y188" s="3" t="inlineStr"/>
+      <c r="Z188" s="3" t="inlineStr"/>
+      <c r="AA188" s="3" t="inlineStr"/>
+      <c r="AB188" s="3" t="inlineStr"/>
+      <c r="AC188" s="3" t="inlineStr"/>
+      <c r="AD188" s="3" t="inlineStr"/>
+      <c r="AE188" s="3" t="inlineStr"/>
+      <c r="AF188" s="3" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>AWS IoT TwinMaker</t>
-        </is>
-      </c>
-      <c r="B189" s="3" t="inlineStr"/>
-      <c r="C189" s="3" t="inlineStr"/>
-      <c r="D189" s="3" t="inlineStr"/>
-      <c r="E189" s="3" t="inlineStr"/>
+          <t>AWS CodeCommit</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F189" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G189" s="3" t="inlineStr"/>
-      <c r="H189" s="3" t="inlineStr"/>
-      <c r="I189" s="3" t="inlineStr"/>
+      <c r="G189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J189" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K189" s="3" t="inlineStr"/>
+      <c r="K189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L189" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23318,7 +23354,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N189" s="3" t="inlineStr"/>
+      <c r="N189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O189" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23329,38 +23369,82 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q189" s="3" t="inlineStr"/>
+      <c r="Q189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R189" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S189" s="3" t="inlineStr"/>
-      <c r="T189" s="3" t="inlineStr"/>
-      <c r="U189" s="3" t="inlineStr"/>
+      <c r="S189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V189" s="3" t="inlineStr"/>
-      <c r="W189" s="3" t="inlineStr"/>
-      <c r="X189" s="3" t="inlineStr"/>
-      <c r="Y189" s="3" t="inlineStr"/>
+      <c r="W189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z189" s="3" t="inlineStr"/>
-      <c r="AA189" s="3" t="inlineStr"/>
+      <c r="AA189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB189" s="3" t="inlineStr"/>
-      <c r="AC189" s="3" t="inlineStr"/>
-      <c r="AD189" s="3" t="inlineStr"/>
-      <c r="AE189" s="3" t="inlineStr"/>
-      <c r="AF189" s="3" t="inlineStr"/>
+      <c r="AC189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>AWS CodeCommit</t>
-        </is>
-      </c>
-      <c r="B190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Lookout for Vision</t>
+        </is>
+      </c>
+      <c r="B190" s="3" t="inlineStr"/>
       <c r="C190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23371,31 +23455,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E190" s="3" t="inlineStr"/>
+      <c r="F190" s="3" t="inlineStr"/>
+      <c r="G190" s="3" t="inlineStr"/>
+      <c r="H190" s="3" t="inlineStr"/>
+      <c r="I190" s="3" t="inlineStr"/>
       <c r="J190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23406,107 +23470,51 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L190" s="3" t="inlineStr"/>
       <c r="M190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N190" s="3" t="inlineStr"/>
       <c r="O190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P190" s="3" t="inlineStr"/>
+      <c r="Q190" s="3" t="inlineStr"/>
       <c r="R190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S190" s="3" t="inlineStr"/>
+      <c r="T190" s="3" t="inlineStr"/>
+      <c r="U190" s="3" t="inlineStr"/>
       <c r="V190" s="3" t="inlineStr"/>
-      <c r="W190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W190" s="3" t="inlineStr"/>
+      <c r="X190" s="3" t="inlineStr"/>
+      <c r="Y190" s="3" t="inlineStr"/>
       <c r="Z190" s="3" t="inlineStr"/>
-      <c r="AA190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA190" s="3" t="inlineStr"/>
       <c r="AB190" s="3" t="inlineStr"/>
-      <c r="AC190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC190" s="3" t="inlineStr"/>
+      <c r="AD190" s="3" t="inlineStr"/>
+      <c r="AE190" s="3" t="inlineStr"/>
+      <c r="AF190" s="3" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Amazon Lookout for Vision</t>
-        </is>
-      </c>
-      <c r="B191" s="3" t="inlineStr"/>
+          <t>Amazon FSx for Lustre</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23517,11 +23525,31 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E191" s="3" t="inlineStr"/>
-      <c r="F191" s="3" t="inlineStr"/>
-      <c r="G191" s="3" t="inlineStr"/>
-      <c r="H191" s="3" t="inlineStr"/>
-      <c r="I191" s="3" t="inlineStr"/>
+      <c r="E191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J191" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23532,39 +23560,111 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L191" s="3" t="inlineStr"/>
+      <c r="L191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M191" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N191" s="3" t="inlineStr"/>
+      <c r="N191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O191" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P191" s="3" t="inlineStr"/>
-      <c r="Q191" s="3" t="inlineStr"/>
+      <c r="P191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R191" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S191" s="3" t="inlineStr"/>
-      <c r="T191" s="3" t="inlineStr"/>
-      <c r="U191" s="3" t="inlineStr"/>
-      <c r="V191" s="3" t="inlineStr"/>
-      <c r="W191" s="3" t="inlineStr"/>
-      <c r="X191" s="3" t="inlineStr"/>
-      <c r="Y191" s="3" t="inlineStr"/>
-      <c r="Z191" s="3" t="inlineStr"/>
-      <c r="AA191" s="3" t="inlineStr"/>
-      <c r="AB191" s="3" t="inlineStr"/>
-      <c r="AC191" s="3" t="inlineStr"/>
-      <c r="AD191" s="3" t="inlineStr"/>
-      <c r="AE191" s="3" t="inlineStr"/>
-      <c r="AF191" s="3" t="inlineStr"/>
+      <c r="S191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -23719,150 +23819,70 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>AWS Server Migration Service (SMS)</t>
-        </is>
-      </c>
-      <c r="B193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Wickr</t>
+        </is>
+      </c>
+      <c r="B193" s="3" t="inlineStr"/>
+      <c r="C193" s="3" t="inlineStr"/>
+      <c r="D193" s="3" t="inlineStr"/>
+      <c r="E193" s="3" t="inlineStr"/>
+      <c r="F193" s="3" t="inlineStr"/>
+      <c r="G193" s="3" t="inlineStr"/>
+      <c r="H193" s="3" t="inlineStr"/>
+      <c r="I193" s="3" t="inlineStr"/>
       <c r="J193" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K193" s="3" t="inlineStr"/>
+      <c r="L193" s="3" t="inlineStr"/>
+      <c r="M193" s="3" t="inlineStr"/>
+      <c r="N193" s="3" t="inlineStr"/>
+      <c r="O193" s="3" t="inlineStr"/>
       <c r="P193" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Q193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q193" s="3" t="inlineStr"/>
+      <c r="R193" s="3" t="inlineStr"/>
+      <c r="S193" s="3" t="inlineStr"/>
       <c r="T193" s="3" t="inlineStr"/>
-      <c r="U193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U193" s="3" t="inlineStr"/>
       <c r="V193" s="3" t="inlineStr"/>
-      <c r="W193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W193" s="3" t="inlineStr"/>
       <c r="X193" s="3" t="inlineStr"/>
       <c r="Y193" s="3" t="inlineStr"/>
       <c r="Z193" s="3" t="inlineStr"/>
-      <c r="AA193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA193" s="3" t="inlineStr"/>
       <c r="AB193" s="3" t="inlineStr"/>
-      <c r="AC193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC193" s="3" t="inlineStr"/>
       <c r="AD193" s="3" t="inlineStr"/>
-      <c r="AE193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE193" s="3" t="inlineStr"/>
+      <c r="AF193" s="3" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaTailor</t>
-        </is>
-      </c>
-      <c r="B194" s="3" t="inlineStr"/>
+          <t>AWS Server Migration Service (SMS)</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D194" s="3" t="inlineStr"/>
+      <c r="D194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="E194" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23873,9 +23893,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G194" s="3" t="inlineStr"/>
-      <c r="H194" s="3" t="inlineStr"/>
-      <c r="I194" s="3" t="inlineStr"/>
+      <c r="G194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J194" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23896,22 +23928,42 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N194" s="3" t="inlineStr"/>
+      <c r="N194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O194" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P194" s="3" t="inlineStr"/>
-      <c r="Q194" s="3" t="inlineStr"/>
+      <c r="P194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R194" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S194" s="3" t="inlineStr"/>
+      <c r="S194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T194" s="3" t="inlineStr"/>
-      <c r="U194" s="3" t="inlineStr"/>
+      <c r="U194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V194" s="3" t="inlineStr"/>
       <c r="W194" s="2" t="inlineStr">
         <is>
@@ -23921,34 +23973,42 @@
       <c r="X194" s="3" t="inlineStr"/>
       <c r="Y194" s="3" t="inlineStr"/>
       <c r="Z194" s="3" t="inlineStr"/>
-      <c r="AA194" s="3" t="inlineStr"/>
+      <c r="AA194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB194" s="3" t="inlineStr"/>
-      <c r="AC194" s="3" t="inlineStr"/>
+      <c r="AC194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD194" s="3" t="inlineStr"/>
-      <c r="AE194" s="3" t="inlineStr"/>
-      <c r="AF194" s="3" t="inlineStr"/>
+      <c r="AE194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>Elastic Load Balancing</t>
-        </is>
-      </c>
-      <c r="B195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Elemental MediaTailor</t>
+        </is>
+      </c>
+      <c r="B195" s="3" t="inlineStr"/>
       <c r="C195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D195" s="3" t="inlineStr"/>
       <c r="E195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23959,21 +24019,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G195" s="3" t="inlineStr"/>
+      <c r="H195" s="3" t="inlineStr"/>
+      <c r="I195" s="3" t="inlineStr"/>
       <c r="J195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23994,106 +24042,42 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N195" s="3" t="inlineStr"/>
       <c r="O195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P195" s="3" t="inlineStr"/>
+      <c r="Q195" s="3" t="inlineStr"/>
       <c r="R195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S195" s="3" t="inlineStr"/>
+      <c r="T195" s="3" t="inlineStr"/>
+      <c r="U195" s="3" t="inlineStr"/>
+      <c r="V195" s="3" t="inlineStr"/>
       <c r="W195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X195" s="3" t="inlineStr"/>
+      <c r="Y195" s="3" t="inlineStr"/>
+      <c r="Z195" s="3" t="inlineStr"/>
+      <c r="AA195" s="3" t="inlineStr"/>
+      <c r="AB195" s="3" t="inlineStr"/>
+      <c r="AC195" s="3" t="inlineStr"/>
+      <c r="AD195" s="3" t="inlineStr"/>
+      <c r="AE195" s="3" t="inlineStr"/>
+      <c r="AF195" s="3" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Amazon MemoryDB for Redis</t>
+          <t>Elastic Load Balancing</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
@@ -24166,7 +24150,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P196" s="3" t="inlineStr"/>
+      <c r="P196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24182,36 +24170,76 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T196" s="3" t="inlineStr"/>
+      <c r="T196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V196" s="3" t="inlineStr"/>
-      <c r="W196" s="3" t="inlineStr"/>
-      <c r="X196" s="3" t="inlineStr"/>
-      <c r="Y196" s="3" t="inlineStr"/>
-      <c r="Z196" s="3" t="inlineStr"/>
+      <c r="V196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB196" s="3" t="inlineStr"/>
+      <c r="AB196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD196" s="3" t="inlineStr"/>
-      <c r="AE196" s="3" t="inlineStr"/>
-      <c r="AF196" s="3" t="inlineStr"/>
+      <c r="AD196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>Amazon Simple Storage Service (S3)</t>
+          <t>Amazon MemoryDB for Redis</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
@@ -24284,11 +24312,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P197" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P197" s="3" t="inlineStr"/>
       <c r="Q197" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24304,98 +24328,78 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T197" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T197" s="3" t="inlineStr"/>
       <c r="U197" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V197" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W197" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X197" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y197" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z197" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V197" s="3" t="inlineStr"/>
+      <c r="W197" s="3" t="inlineStr"/>
+      <c r="X197" s="3" t="inlineStr"/>
+      <c r="Y197" s="3" t="inlineStr"/>
+      <c r="Z197" s="3" t="inlineStr"/>
       <c r="AA197" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB197" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB197" s="3" t="inlineStr"/>
       <c r="AC197" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD197" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE197" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF197" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD197" s="3" t="inlineStr"/>
+      <c r="AE197" s="3" t="inlineStr"/>
+      <c r="AF197" s="3" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>Amazon CodeGuru</t>
-        </is>
-      </c>
-      <c r="B198" s="3" t="inlineStr"/>
+          <t>Amazon Simple Storage Service (S3)</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D198" s="3" t="inlineStr"/>
-      <c r="E198" s="3" t="inlineStr"/>
+      <c r="D198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F198" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G198" s="3" t="inlineStr"/>
+      <c r="G198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H198" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I198" s="3" t="inlineStr"/>
+      <c r="I198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J198" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24426,27 +24430,91 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P198" s="3" t="inlineStr"/>
-      <c r="Q198" s="3" t="inlineStr"/>
+      <c r="P198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R198" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S198" s="3" t="inlineStr"/>
-      <c r="T198" s="3" t="inlineStr"/>
-      <c r="U198" s="3" t="inlineStr"/>
-      <c r="V198" s="3" t="inlineStr"/>
-      <c r="W198" s="3" t="inlineStr"/>
-      <c r="X198" s="3" t="inlineStr"/>
-      <c r="Y198" s="3" t="inlineStr"/>
-      <c r="Z198" s="3" t="inlineStr"/>
-      <c r="AA198" s="3" t="inlineStr"/>
-      <c r="AB198" s="3" t="inlineStr"/>
-      <c r="AC198" s="3" t="inlineStr"/>
-      <c r="AD198" s="3" t="inlineStr"/>
-      <c r="AE198" s="3" t="inlineStr"/>
-      <c r="AF198" s="3" t="inlineStr"/>
+      <c r="S198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -24695,25 +24763,13 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaConvert</t>
+          <t>Amazon Comprehend Medical</t>
         </is>
       </c>
       <c r="B201" s="3" t="inlineStr"/>
-      <c r="C201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C201" s="3" t="inlineStr"/>
+      <c r="D201" s="3" t="inlineStr"/>
+      <c r="E201" s="3" t="inlineStr"/>
       <c r="F201" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24729,11 +24785,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I201" s="3" t="inlineStr"/>
       <c r="J201" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24744,21 +24796,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L201" s="3" t="inlineStr"/>
+      <c r="M201" s="3" t="inlineStr"/>
+      <c r="N201" s="3" t="inlineStr"/>
       <c r="O201" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24769,39 +24809,23 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q201" s="3" t="inlineStr"/>
       <c r="R201" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S201" s="3" t="inlineStr"/>
       <c r="T201" s="3" t="inlineStr"/>
       <c r="U201" s="3" t="inlineStr"/>
       <c r="V201" s="3" t="inlineStr"/>
-      <c r="W201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W201" s="3" t="inlineStr"/>
       <c r="X201" s="3" t="inlineStr"/>
       <c r="Y201" s="3" t="inlineStr"/>
       <c r="Z201" s="3" t="inlineStr"/>
       <c r="AA201" s="3" t="inlineStr"/>
       <c r="AB201" s="3" t="inlineStr"/>
-      <c r="AC201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC201" s="3" t="inlineStr"/>
       <c r="AD201" s="3" t="inlineStr"/>
       <c r="AE201" s="3" t="inlineStr"/>
       <c r="AF201" s="3" t="inlineStr"/>
@@ -24809,13 +24833,29 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>Amazon Comprehend Medical</t>
-        </is>
-      </c>
-      <c r="B202" s="3" t="inlineStr"/>
-      <c r="C202" s="3" t="inlineStr"/>
-      <c r="D202" s="3" t="inlineStr"/>
-      <c r="E202" s="3" t="inlineStr"/>
+          <t>AWS User Notifications</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F202" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24831,7 +24871,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I202" s="3" t="inlineStr"/>
+      <c r="I202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J202" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24842,51 +24886,103 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L202" s="3" t="inlineStr"/>
-      <c r="M202" s="3" t="inlineStr"/>
-      <c r="N202" s="3" t="inlineStr"/>
+      <c r="L202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O202" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q202" s="3" t="inlineStr"/>
+      <c r="P202" s="3" t="inlineStr"/>
+      <c r="Q202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R202" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S202" s="3" t="inlineStr"/>
-      <c r="T202" s="3" t="inlineStr"/>
+      <c r="S202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U202" s="3" t="inlineStr"/>
-      <c r="V202" s="3" t="inlineStr"/>
-      <c r="W202" s="3" t="inlineStr"/>
-      <c r="X202" s="3" t="inlineStr"/>
-      <c r="Y202" s="3" t="inlineStr"/>
-      <c r="Z202" s="3" t="inlineStr"/>
-      <c r="AA202" s="3" t="inlineStr"/>
-      <c r="AB202" s="3" t="inlineStr"/>
+      <c r="V202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC202" s="3" t="inlineStr"/>
-      <c r="AD202" s="3" t="inlineStr"/>
-      <c r="AE202" s="3" t="inlineStr"/>
+      <c r="AD202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF202" s="3" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>AWS User Notifications</t>
-        </is>
-      </c>
-      <c r="B203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Inspector Classic</t>
+        </is>
+      </c>
+      <c r="B203" s="3" t="inlineStr"/>
       <c r="C203" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24907,21 +25003,13 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G203" s="3" t="inlineStr"/>
       <c r="H203" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I203" s="3" t="inlineStr"/>
       <c r="J203" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24932,11 +25020,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L203" s="3" t="inlineStr"/>
       <c r="M203" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24952,7 +25036,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P203" s="3" t="inlineStr"/>
+      <c r="P203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q203" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24963,140 +25051,52 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S203" s="3" t="inlineStr"/>
+      <c r="T203" s="3" t="inlineStr"/>
       <c r="U203" s="3" t="inlineStr"/>
-      <c r="V203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V203" s="3" t="inlineStr"/>
+      <c r="W203" s="3" t="inlineStr"/>
+      <c r="X203" s="3" t="inlineStr"/>
+      <c r="Y203" s="3" t="inlineStr"/>
+      <c r="Z203" s="3" t="inlineStr"/>
+      <c r="AA203" s="3" t="inlineStr"/>
+      <c r="AB203" s="3" t="inlineStr"/>
       <c r="AC203" s="3" t="inlineStr"/>
-      <c r="AD203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF203" s="3" t="inlineStr"/>
+      <c r="AD203" s="3" t="inlineStr"/>
+      <c r="AE203" s="3" t="inlineStr"/>
+      <c r="AF203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>Amazon Inspector Classic</t>
+          <t>AWS DeepRacer</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr"/>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C204" s="3" t="inlineStr"/>
+      <c r="D204" s="3" t="inlineStr"/>
+      <c r="E204" s="3" t="inlineStr"/>
+      <c r="F204" s="3" t="inlineStr"/>
       <c r="G204" s="3" t="inlineStr"/>
-      <c r="H204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="H204" s="3" t="inlineStr"/>
       <c r="I204" s="3" t="inlineStr"/>
       <c r="J204" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K204" s="3" t="inlineStr"/>
       <c r="L204" s="3" t="inlineStr"/>
-      <c r="M204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="M204" s="3" t="inlineStr"/>
+      <c r="N204" s="3" t="inlineStr"/>
+      <c r="O204" s="3" t="inlineStr"/>
+      <c r="P204" s="3" t="inlineStr"/>
+      <c r="Q204" s="3" t="inlineStr"/>
+      <c r="R204" s="3" t="inlineStr"/>
       <c r="S204" s="3" t="inlineStr"/>
       <c r="T204" s="3" t="inlineStr"/>
       <c r="U204" s="3" t="inlineStr"/>
@@ -25110,100 +25110,164 @@
       <c r="AC204" s="3" t="inlineStr"/>
       <c r="AD204" s="3" t="inlineStr"/>
       <c r="AE204" s="3" t="inlineStr"/>
-      <c r="AF204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF204" s="3" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>AWS DeepRacer</t>
-        </is>
-      </c>
-      <c r="B205" s="3" t="inlineStr"/>
-      <c r="C205" s="3" t="inlineStr"/>
-      <c r="D205" s="3" t="inlineStr"/>
-      <c r="E205" s="3" t="inlineStr"/>
-      <c r="F205" s="3" t="inlineStr"/>
-      <c r="G205" s="3" t="inlineStr"/>
-      <c r="H205" s="3" t="inlineStr"/>
-      <c r="I205" s="3" t="inlineStr"/>
+          <t>Amazon GameLift</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J205" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K205" s="3" t="inlineStr"/>
-      <c r="L205" s="3" t="inlineStr"/>
-      <c r="M205" s="3" t="inlineStr"/>
-      <c r="N205" s="3" t="inlineStr"/>
-      <c r="O205" s="3" t="inlineStr"/>
+      <c r="K205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="P205" s="3" t="inlineStr"/>
-      <c r="Q205" s="3" t="inlineStr"/>
-      <c r="R205" s="3" t="inlineStr"/>
-      <c r="S205" s="3" t="inlineStr"/>
-      <c r="T205" s="3" t="inlineStr"/>
-      <c r="U205" s="3" t="inlineStr"/>
+      <c r="Q205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V205" s="3" t="inlineStr"/>
-      <c r="W205" s="3" t="inlineStr"/>
+      <c r="W205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X205" s="3" t="inlineStr"/>
       <c r="Y205" s="3" t="inlineStr"/>
       <c r="Z205" s="3" t="inlineStr"/>
-      <c r="AA205" s="3" t="inlineStr"/>
+      <c r="AA205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB205" s="3" t="inlineStr"/>
-      <c r="AC205" s="3" t="inlineStr"/>
+      <c r="AC205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD205" s="3" t="inlineStr"/>
-      <c r="AE205" s="3" t="inlineStr"/>
+      <c r="AE205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF205" s="3" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Amazon GameLift</t>
-        </is>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon CodeGuru</t>
+        </is>
+      </c>
+      <c r="B206" s="3" t="inlineStr"/>
       <c r="C206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D206" s="3" t="inlineStr"/>
+      <c r="E206" s="3" t="inlineStr"/>
       <c r="F206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G206" s="3" t="inlineStr"/>
       <c r="H206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I206" s="3" t="inlineStr"/>
       <c r="J206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25235,105 +25299,137 @@
         </is>
       </c>
       <c r="P206" s="3" t="inlineStr"/>
-      <c r="Q206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q206" s="3" t="inlineStr"/>
       <c r="R206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S206" s="3" t="inlineStr"/>
+      <c r="T206" s="3" t="inlineStr"/>
+      <c r="U206" s="3" t="inlineStr"/>
       <c r="V206" s="3" t="inlineStr"/>
-      <c r="W206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W206" s="3" t="inlineStr"/>
       <c r="X206" s="3" t="inlineStr"/>
       <c r="Y206" s="3" t="inlineStr"/>
       <c r="Z206" s="3" t="inlineStr"/>
-      <c r="AA206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA206" s="3" t="inlineStr"/>
       <c r="AB206" s="3" t="inlineStr"/>
-      <c r="AC206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC206" s="3" t="inlineStr"/>
       <c r="AD206" s="3" t="inlineStr"/>
-      <c r="AE206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE206" s="3" t="inlineStr"/>
       <c r="AF206" s="3" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Amazon WorkMail</t>
+          <t>AWS Elemental MediaConvert</t>
         </is>
       </c>
       <c r="B207" s="3" t="inlineStr"/>
-      <c r="C207" s="3" t="inlineStr"/>
-      <c r="D207" s="3" t="inlineStr"/>
-      <c r="E207" s="3" t="inlineStr"/>
-      <c r="F207" s="3" t="inlineStr"/>
-      <c r="G207" s="3" t="inlineStr"/>
-      <c r="H207" s="3" t="inlineStr"/>
-      <c r="I207" s="3" t="inlineStr"/>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J207" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K207" s="3" t="inlineStr"/>
-      <c r="L207" s="3" t="inlineStr"/>
-      <c r="M207" s="3" t="inlineStr"/>
-      <c r="N207" s="3" t="inlineStr"/>
+      <c r="K207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O207" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P207" s="3" t="inlineStr"/>
-      <c r="Q207" s="3" t="inlineStr"/>
+      <c r="P207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R207" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S207" s="3" t="inlineStr"/>
+      <c r="S207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T207" s="3" t="inlineStr"/>
       <c r="U207" s="3" t="inlineStr"/>
       <c r="V207" s="3" t="inlineStr"/>
-      <c r="W207" s="3" t="inlineStr"/>
+      <c r="W207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X207" s="3" t="inlineStr"/>
       <c r="Y207" s="3" t="inlineStr"/>
       <c r="Z207" s="3" t="inlineStr"/>
       <c r="AA207" s="3" t="inlineStr"/>
       <c r="AB207" s="3" t="inlineStr"/>
-      <c r="AC207" s="3" t="inlineStr"/>
+      <c r="AC207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD207" s="3" t="inlineStr"/>
       <c r="AE207" s="3" t="inlineStr"/>
       <c r="AF207" s="3" t="inlineStr"/>
@@ -25341,169 +25437,57 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>AWS Security Hub</t>
-        </is>
-      </c>
-      <c r="B208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon WorkMail</t>
+        </is>
+      </c>
+      <c r="B208" s="3" t="inlineStr"/>
+      <c r="C208" s="3" t="inlineStr"/>
+      <c r="D208" s="3" t="inlineStr"/>
+      <c r="E208" s="3" t="inlineStr"/>
+      <c r="F208" s="3" t="inlineStr"/>
+      <c r="G208" s="3" t="inlineStr"/>
+      <c r="H208" s="3" t="inlineStr"/>
+      <c r="I208" s="3" t="inlineStr"/>
       <c r="J208" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K208" s="3" t="inlineStr"/>
+      <c r="L208" s="3" t="inlineStr"/>
+      <c r="M208" s="3" t="inlineStr"/>
+      <c r="N208" s="3" t="inlineStr"/>
       <c r="O208" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P208" s="3" t="inlineStr"/>
+      <c r="Q208" s="3" t="inlineStr"/>
       <c r="R208" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S208" s="3" t="inlineStr"/>
+      <c r="T208" s="3" t="inlineStr"/>
+      <c r="U208" s="3" t="inlineStr"/>
+      <c r="V208" s="3" t="inlineStr"/>
+      <c r="W208" s="3" t="inlineStr"/>
+      <c r="X208" s="3" t="inlineStr"/>
+      <c r="Y208" s="3" t="inlineStr"/>
+      <c r="Z208" s="3" t="inlineStr"/>
+      <c r="AA208" s="3" t="inlineStr"/>
+      <c r="AB208" s="3" t="inlineStr"/>
+      <c r="AC208" s="3" t="inlineStr"/>
+      <c r="AD208" s="3" t="inlineStr"/>
+      <c r="AE208" s="3" t="inlineStr"/>
+      <c r="AF208" s="3" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for OpenZFS</t>
+          <t>AWS Security Hub</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
@@ -25541,7 +25525,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I209" s="3" t="inlineStr"/>
+      <c r="I209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25572,32 +25560,96 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P209" s="3" t="inlineStr"/>
-      <c r="Q209" s="3" t="inlineStr"/>
+      <c r="P209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R209" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S209" s="3" t="inlineStr"/>
-      <c r="T209" s="3" t="inlineStr"/>
-      <c r="U209" s="3" t="inlineStr"/>
-      <c r="V209" s="3" t="inlineStr"/>
-      <c r="W209" s="3" t="inlineStr"/>
-      <c r="X209" s="3" t="inlineStr"/>
-      <c r="Y209" s="3" t="inlineStr"/>
-      <c r="Z209" s="3" t="inlineStr"/>
-      <c r="AA209" s="3" t="inlineStr"/>
-      <c r="AB209" s="3" t="inlineStr"/>
-      <c r="AC209" s="3" t="inlineStr"/>
-      <c r="AD209" s="3" t="inlineStr"/>
-      <c r="AE209" s="3" t="inlineStr"/>
-      <c r="AF209" s="3" t="inlineStr"/>
+      <c r="S209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Amazon DynamoDB</t>
+          <t>Amazon FSx for OpenZFS</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
@@ -25635,11 +25687,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I210" s="3" t="inlineStr"/>
       <c r="J210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25670,99 +25718,39 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P210" s="3" t="inlineStr"/>
+      <c r="Q210" s="3" t="inlineStr"/>
       <c r="R210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S210" s="3" t="inlineStr"/>
+      <c r="T210" s="3" t="inlineStr"/>
+      <c r="U210" s="3" t="inlineStr"/>
+      <c r="V210" s="3" t="inlineStr"/>
+      <c r="W210" s="3" t="inlineStr"/>
+      <c r="X210" s="3" t="inlineStr"/>
+      <c r="Y210" s="3" t="inlineStr"/>
+      <c r="Z210" s="3" t="inlineStr"/>
+      <c r="AA210" s="3" t="inlineStr"/>
+      <c r="AB210" s="3" t="inlineStr"/>
+      <c r="AC210" s="3" t="inlineStr"/>
+      <c r="AD210" s="3" t="inlineStr"/>
+      <c r="AE210" s="3" t="inlineStr"/>
+      <c r="AF210" s="3" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Amazon DocumentDB (with MongoDB compatibility)</t>
-        </is>
-      </c>
-      <c r="B211" s="3" t="inlineStr"/>
+          <t>Amazon DynamoDB</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25818,7 +25806,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N211" s="3" t="inlineStr"/>
+      <c r="N211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25829,7 +25821,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q211" s="3" t="inlineStr"/>
+      <c r="Q211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25840,43 +25836,79 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T211" s="3" t="inlineStr"/>
+      <c r="T211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V211" s="3" t="inlineStr"/>
-      <c r="W211" s="3" t="inlineStr"/>
-      <c r="X211" s="3" t="inlineStr"/>
-      <c r="Y211" s="3" t="inlineStr"/>
-      <c r="Z211" s="3" t="inlineStr"/>
+      <c r="V211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB211" s="3" t="inlineStr"/>
+      <c r="AB211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD211" s="3" t="inlineStr"/>
-      <c r="AE211" s="3" t="inlineStr"/>
-      <c r="AF211" s="3" t="inlineStr"/>
+      <c r="AD211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaConnect</t>
-        </is>
-      </c>
-      <c r="B212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon DocumentDB (with MongoDB compatibility)</t>
+        </is>
+      </c>
+      <c r="B212" s="3" t="inlineStr"/>
       <c r="C212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25897,7 +25929,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G212" s="3" t="inlineStr"/>
+      <c r="G212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25928,22 +25964,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N212" s="3" t="inlineStr"/>
       <c r="O212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P212" s="3" t="inlineStr"/>
-      <c r="Q212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q212" s="3" t="inlineStr"/>
       <c r="R212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25955,15 +25987,27 @@
         </is>
       </c>
       <c r="T212" s="3" t="inlineStr"/>
-      <c r="U212" s="3" t="inlineStr"/>
+      <c r="U212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V212" s="3" t="inlineStr"/>
       <c r="W212" s="3" t="inlineStr"/>
       <c r="X212" s="3" t="inlineStr"/>
       <c r="Y212" s="3" t="inlineStr"/>
       <c r="Z212" s="3" t="inlineStr"/>
-      <c r="AA212" s="3" t="inlineStr"/>
+      <c r="AA212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB212" s="3" t="inlineStr"/>
-      <c r="AC212" s="3" t="inlineStr"/>
+      <c r="AC212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD212" s="3" t="inlineStr"/>
       <c r="AE212" s="3" t="inlineStr"/>
       <c r="AF212" s="3" t="inlineStr"/>
@@ -25971,39 +26015,91 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>AWS DeepLens</t>
-        </is>
-      </c>
-      <c r="B213" s="3" t="inlineStr"/>
+          <t>AWS Elemental MediaConnect</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D213" s="3" t="inlineStr"/>
-      <c r="E213" s="3" t="inlineStr"/>
-      <c r="F213" s="3" t="inlineStr"/>
+      <c r="D213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="G213" s="3" t="inlineStr"/>
-      <c r="H213" s="3" t="inlineStr"/>
-      <c r="I213" s="3" t="inlineStr"/>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K213" s="3" t="inlineStr"/>
-      <c r="L213" s="3" t="inlineStr"/>
+      <c r="K213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M213" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N213" s="3" t="inlineStr"/>
-      <c r="O213" s="3" t="inlineStr"/>
+      <c r="N213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="P213" s="3" t="inlineStr"/>
-      <c r="Q213" s="3" t="inlineStr"/>
-      <c r="R213" s="3" t="inlineStr"/>
-      <c r="S213" s="3" t="inlineStr"/>
+      <c r="Q213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T213" s="3" t="inlineStr"/>
       <c r="U213" s="3" t="inlineStr"/>
       <c r="V213" s="3" t="inlineStr"/>
@@ -26021,11 +26117,15 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>AWS Cost and Usage Report</t>
+          <t>AWS DeepLens</t>
         </is>
       </c>
       <c r="B214" s="3" t="inlineStr"/>
-      <c r="C214" s="3" t="inlineStr"/>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="D214" s="3" t="inlineStr"/>
       <c r="E214" s="3" t="inlineStr"/>
       <c r="F214" s="3" t="inlineStr"/>
@@ -26039,7 +26139,11 @@
       </c>
       <c r="K214" s="3" t="inlineStr"/>
       <c r="L214" s="3" t="inlineStr"/>
-      <c r="M214" s="3" t="inlineStr"/>
+      <c r="M214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N214" s="3" t="inlineStr"/>
       <c r="O214" s="3" t="inlineStr"/>
       <c r="P214" s="3" t="inlineStr"/>
@@ -26055,11 +26159,7 @@
       <c r="Z214" s="3" t="inlineStr"/>
       <c r="AA214" s="3" t="inlineStr"/>
       <c r="AB214" s="3" t="inlineStr"/>
-      <c r="AC214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC214" s="3" t="inlineStr"/>
       <c r="AD214" s="3" t="inlineStr"/>
       <c r="AE214" s="3" t="inlineStr"/>
       <c r="AF214" s="3" t="inlineStr"/>
@@ -26797,82 +26897,30 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>Amazon Rekognition</t>
+          <t>AWS Cost and Usage Report</t>
         </is>
       </c>
       <c r="B220" s="3" t="inlineStr"/>
-      <c r="C220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C220" s="3" t="inlineStr"/>
+      <c r="D220" s="3" t="inlineStr"/>
+      <c r="E220" s="3" t="inlineStr"/>
+      <c r="F220" s="3" t="inlineStr"/>
+      <c r="G220" s="3" t="inlineStr"/>
+      <c r="H220" s="3" t="inlineStr"/>
       <c r="I220" s="3" t="inlineStr"/>
       <c r="J220" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K220" s="3" t="inlineStr"/>
+      <c r="L220" s="3" t="inlineStr"/>
+      <c r="M220" s="3" t="inlineStr"/>
       <c r="N220" s="3" t="inlineStr"/>
-      <c r="O220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="O220" s="3" t="inlineStr"/>
+      <c r="P220" s="3" t="inlineStr"/>
+      <c r="Q220" s="3" t="inlineStr"/>
+      <c r="R220" s="3" t="inlineStr"/>
       <c r="S220" s="3" t="inlineStr"/>
       <c r="T220" s="3" t="inlineStr"/>
       <c r="U220" s="3" t="inlineStr"/>
@@ -26883,7 +26931,11 @@
       <c r="Z220" s="3" t="inlineStr"/>
       <c r="AA220" s="3" t="inlineStr"/>
       <c r="AB220" s="3" t="inlineStr"/>
-      <c r="AC220" s="3" t="inlineStr"/>
+      <c r="AC220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD220" s="3" t="inlineStr"/>
       <c r="AE220" s="3" t="inlineStr"/>
       <c r="AF220" s="3" t="inlineStr"/>
@@ -26891,7 +26943,7 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaStore</t>
+          <t>Amazon Rekognition</t>
         </is>
       </c>
       <c r="B221" s="3" t="inlineStr"/>
@@ -26905,13 +26957,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E221" s="3" t="inlineStr"/>
+      <c r="E221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G221" s="3" t="inlineStr"/>
+      <c r="G221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H221" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26923,25 +26983,37 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="K221" s="3" t="inlineStr"/>
-      <c r="L221" s="3" t="inlineStr"/>
+      <c r="K221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M221" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N221" s="3" t="inlineStr"/>
       <c r="O221" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P221" s="3" t="inlineStr"/>
-      <c r="Q221" s="3" t="inlineStr"/>
+      <c r="P221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R221" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26965,14 +27037,10 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>AWS Cloud Control API</t>
-        </is>
-      </c>
-      <c r="B222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Elemental MediaStore</t>
+        </is>
+      </c>
+      <c r="B222" s="3" t="inlineStr"/>
       <c r="C222" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26983,46 +27051,26 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E222" s="3" t="inlineStr"/>
       <c r="F222" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G222" s="3" t="inlineStr"/>
       <c r="H222" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I222" s="3" t="inlineStr"/>
       <c r="J222" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K222" s="3" t="inlineStr"/>
+      <c r="L222" s="3" t="inlineStr"/>
       <c r="M222" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27038,96 +27086,32 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P222" s="3" t="inlineStr"/>
+      <c r="Q222" s="3" t="inlineStr"/>
       <c r="R222" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S222" s="3" t="inlineStr"/>
+      <c r="T222" s="3" t="inlineStr"/>
+      <c r="U222" s="3" t="inlineStr"/>
+      <c r="V222" s="3" t="inlineStr"/>
+      <c r="W222" s="3" t="inlineStr"/>
+      <c r="X222" s="3" t="inlineStr"/>
+      <c r="Y222" s="3" t="inlineStr"/>
+      <c r="Z222" s="3" t="inlineStr"/>
+      <c r="AA222" s="3" t="inlineStr"/>
+      <c r="AB222" s="3" t="inlineStr"/>
+      <c r="AC222" s="3" t="inlineStr"/>
+      <c r="AD222" s="3" t="inlineStr"/>
+      <c r="AE222" s="3" t="inlineStr"/>
+      <c r="AF222" s="3" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for Windows File Server</t>
+          <t>AWS Cloud Control API</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
@@ -27289,82 +27273,190 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>AWS Application Discovery Service</t>
-        </is>
-      </c>
-      <c r="B224" s="3" t="inlineStr"/>
+          <t>Amazon FSx for Windows File Server</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D224" s="3" t="inlineStr"/>
-      <c r="E224" s="3" t="inlineStr"/>
+      <c r="D224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G224" s="3" t="inlineStr"/>
+      <c r="G224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I224" s="3" t="inlineStr"/>
+      <c r="I224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K224" s="3" t="inlineStr"/>
-      <c r="L224" s="3" t="inlineStr"/>
+      <c r="K224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N224" s="3" t="inlineStr"/>
+      <c r="N224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P224" s="3" t="inlineStr"/>
-      <c r="Q224" s="3" t="inlineStr"/>
+      <c r="P224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S224" s="3" t="inlineStr"/>
-      <c r="T224" s="3" t="inlineStr"/>
-      <c r="U224" s="3" t="inlineStr"/>
-      <c r="V224" s="3" t="inlineStr"/>
-      <c r="W224" s="3" t="inlineStr"/>
-      <c r="X224" s="3" t="inlineStr"/>
-      <c r="Y224" s="3" t="inlineStr"/>
-      <c r="Z224" s="3" t="inlineStr"/>
-      <c r="AA224" s="3" t="inlineStr"/>
-      <c r="AB224" s="3" t="inlineStr"/>
-      <c r="AC224" s="3" t="inlineStr"/>
-      <c r="AD224" s="3" t="inlineStr"/>
-      <c r="AE224" s="3" t="inlineStr"/>
-      <c r="AF224" s="3" t="inlineStr"/>
+      <c r="S224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>AWS Cost Explorer</t>
+          <t>AWS Application Discovery Service</t>
         </is>
       </c>
       <c r="B225" s="3" t="inlineStr"/>
-      <c r="C225" s="3" t="inlineStr"/>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="D225" s="3" t="inlineStr"/>
       <c r="E225" s="3" t="inlineStr"/>
-      <c r="F225" s="3" t="inlineStr"/>
+      <c r="F225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="G225" s="3" t="inlineStr"/>
-      <c r="H225" s="3" t="inlineStr"/>
+      <c r="H225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="I225" s="3" t="inlineStr"/>
       <c r="J225" s="2" t="inlineStr">
         <is>
@@ -27373,12 +27465,24 @@
       </c>
       <c r="K225" s="3" t="inlineStr"/>
       <c r="L225" s="3" t="inlineStr"/>
-      <c r="M225" s="3" t="inlineStr"/>
+      <c r="M225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N225" s="3" t="inlineStr"/>
-      <c r="O225" s="3" t="inlineStr"/>
+      <c r="O225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="P225" s="3" t="inlineStr"/>
       <c r="Q225" s="3" t="inlineStr"/>
-      <c r="R225" s="3" t="inlineStr"/>
+      <c r="R225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="S225" s="3" t="inlineStr"/>
       <c r="T225" s="3" t="inlineStr"/>
       <c r="U225" s="3" t="inlineStr"/>
@@ -27389,11 +27493,7 @@
       <c r="Z225" s="3" t="inlineStr"/>
       <c r="AA225" s="3" t="inlineStr"/>
       <c r="AB225" s="3" t="inlineStr"/>
-      <c r="AC225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC225" s="3" t="inlineStr"/>
       <c r="AD225" s="3" t="inlineStr"/>
       <c r="AE225" s="3" t="inlineStr"/>
       <c r="AF225" s="3" t="inlineStr"/>
@@ -27910,6 +28010,52 @@
         </is>
       </c>
     </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>AWS Cost Explorer</t>
+        </is>
+      </c>
+      <c r="B230" s="3" t="inlineStr"/>
+      <c r="C230" s="3" t="inlineStr"/>
+      <c r="D230" s="3" t="inlineStr"/>
+      <c r="E230" s="3" t="inlineStr"/>
+      <c r="F230" s="3" t="inlineStr"/>
+      <c r="G230" s="3" t="inlineStr"/>
+      <c r="H230" s="3" t="inlineStr"/>
+      <c r="I230" s="3" t="inlineStr"/>
+      <c r="J230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K230" s="3" t="inlineStr"/>
+      <c r="L230" s="3" t="inlineStr"/>
+      <c r="M230" s="3" t="inlineStr"/>
+      <c r="N230" s="3" t="inlineStr"/>
+      <c r="O230" s="3" t="inlineStr"/>
+      <c r="P230" s="3" t="inlineStr"/>
+      <c r="Q230" s="3" t="inlineStr"/>
+      <c r="R230" s="3" t="inlineStr"/>
+      <c r="S230" s="3" t="inlineStr"/>
+      <c r="T230" s="3" t="inlineStr"/>
+      <c r="U230" s="3" t="inlineStr"/>
+      <c r="V230" s="3" t="inlineStr"/>
+      <c r="W230" s="3" t="inlineStr"/>
+      <c r="X230" s="3" t="inlineStr"/>
+      <c r="Y230" s="3" t="inlineStr"/>
+      <c r="Z230" s="3" t="inlineStr"/>
+      <c r="AA230" s="3" t="inlineStr"/>
+      <c r="AB230" s="3" t="inlineStr"/>
+      <c r="AC230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD230" s="3" t="inlineStr"/>
+      <c r="AE230" s="3" t="inlineStr"/>
+      <c r="AF230" s="3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -14209,7 +14209,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Y113" s="3" t="inlineStr"/>
+      <c r="Y113" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z113" s="3" t="inlineStr"/>
       <c r="AA113" s="2" t="inlineStr">
         <is>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -6103,11 +6103,31 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="K49" s="3" t="inlineStr"/>
-      <c r="L49" s="3" t="inlineStr"/>
-      <c r="M49" s="3" t="inlineStr"/>
-      <c r="N49" s="3" t="inlineStr"/>
-      <c r="O49" s="3" t="inlineStr"/>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O49" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="P49" s="3" t="inlineStr"/>
       <c r="Q49" s="3" t="inlineStr"/>
       <c r="R49" s="2" t="inlineStr">

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -4536,7 +4536,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD36" s="3" t="inlineStr"/>
+      <c r="AD36" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE36" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -8353,7 +8353,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G68" s="3" t="inlineStr"/>
+      <c r="G68" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -8406,7 +8410,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T68" s="3" t="inlineStr"/>
+      <c r="T68" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U68" s="3" t="inlineStr"/>
       <c r="V68" s="3" t="inlineStr"/>
       <c r="W68" s="3" t="inlineStr"/>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -2250,7 +2250,11 @@
       </c>
       <c r="AB15" s="3" t="inlineStr"/>
       <c r="AC15" s="3" t="inlineStr"/>
-      <c r="AD15" s="3" t="inlineStr"/>
+      <c r="AD15" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE15" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23863,7 +23867,11 @@
       <c r="D193" s="3" t="inlineStr"/>
       <c r="E193" s="3" t="inlineStr"/>
       <c r="F193" s="3" t="inlineStr"/>
-      <c r="G193" s="3" t="inlineStr"/>
+      <c r="G193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H193" s="3" t="inlineStr"/>
       <c r="I193" s="3" t="inlineStr"/>
       <c r="J193" s="2" t="inlineStr">
@@ -26079,7 +26087,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G213" s="3" t="inlineStr"/>
+      <c r="G213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H213" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26139,7 +26151,11 @@
       <c r="T213" s="3" t="inlineStr"/>
       <c r="U213" s="3" t="inlineStr"/>
       <c r="V213" s="3" t="inlineStr"/>
-      <c r="W213" s="3" t="inlineStr"/>
+      <c r="W213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X213" s="3" t="inlineStr"/>
       <c r="Y213" s="3" t="inlineStr"/>
       <c r="Z213" s="3" t="inlineStr"/>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -22264,25 +22264,41 @@
         </is>
       </c>
       <c r="U180" s="3" t="inlineStr"/>
-      <c r="V180" s="3" t="inlineStr"/>
+      <c r="V180" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W180" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X180" s="3" t="inlineStr"/>
+      <c r="X180" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Y180" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Z180" s="3" t="inlineStr"/>
+      <c r="Z180" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA180" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB180" s="3" t="inlineStr"/>
+      <c r="AB180" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC180" s="3" t="inlineStr"/>
       <c r="AD180" s="2" t="inlineStr">
         <is>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -17360,7 +17360,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z138" s="3" t="inlineStr"/>
+      <c r="Z138" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA138" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -19597,7 +19597,11 @@
       </c>
       <c r="E158" s="3" t="inlineStr"/>
       <c r="F158" s="3" t="inlineStr"/>
-      <c r="G158" s="3" t="inlineStr"/>
+      <c r="G158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H158" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -19597,11 +19597,7 @@
       </c>
       <c r="E158" s="3" t="inlineStr"/>
       <c r="F158" s="3" t="inlineStr"/>
-      <c r="G158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G158" s="3" t="inlineStr"/>
       <c r="H158" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -26168,7 +26168,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T213" s="3" t="inlineStr"/>
+      <c r="T213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U213" s="3" t="inlineStr"/>
       <c r="V213" s="3" t="inlineStr"/>
       <c r="W213" s="2" t="inlineStr">

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -14883,7 +14883,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G119" s="3" t="inlineStr"/>
+      <c r="G119" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H119" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -19601,11 +19601,7 @@
       </c>
       <c r="E158" s="3" t="inlineStr"/>
       <c r="F158" s="3" t="inlineStr"/>
-      <c r="G158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G158" s="3" t="inlineStr"/>
       <c r="H158" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF230"/>
+  <dimension ref="A1:AF231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6733,83 +6733,43 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Amazon AppStream 2.0</t>
+          <t>AWS HealthImaging</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr"/>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C54" s="3" t="inlineStr"/>
+      <c r="D54" s="3" t="inlineStr"/>
+      <c r="E54" s="3" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G54" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G54" s="3" t="inlineStr"/>
+      <c r="H54" s="3" t="inlineStr"/>
       <c r="I54" s="3" t="inlineStr"/>
       <c r="J54" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K54" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M54" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K54" s="3" t="inlineStr"/>
+      <c r="L54" s="3" t="inlineStr"/>
+      <c r="M54" s="3" t="inlineStr"/>
       <c r="N54" s="3" t="inlineStr"/>
       <c r="O54" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P54" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P54" s="3" t="inlineStr"/>
       <c r="Q54" s="3" t="inlineStr"/>
       <c r="R54" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S54" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S54" s="3" t="inlineStr"/>
       <c r="T54" s="3" t="inlineStr"/>
       <c r="U54" s="3" t="inlineStr"/>
       <c r="V54" s="3" t="inlineStr"/>
@@ -6822,40 +6782,88 @@
       <c r="AC54" s="3" t="inlineStr"/>
       <c r="AD54" s="3" t="inlineStr"/>
       <c r="AE54" s="3" t="inlineStr"/>
-      <c r="AF54" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF54" s="3" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>AWS DeepComposer</t>
+          <t>Amazon AppStream 2.0</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr"/>
-      <c r="C55" s="3" t="inlineStr"/>
-      <c r="D55" s="3" t="inlineStr"/>
-      <c r="E55" s="3" t="inlineStr"/>
-      <c r="F55" s="3" t="inlineStr"/>
-      <c r="G55" s="3" t="inlineStr"/>
-      <c r="H55" s="3" t="inlineStr"/>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="I55" s="3" t="inlineStr"/>
       <c r="J55" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K55" s="3" t="inlineStr"/>
-      <c r="L55" s="3" t="inlineStr"/>
-      <c r="M55" s="3" t="inlineStr"/>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N55" s="3" t="inlineStr"/>
-      <c r="O55" s="3" t="inlineStr"/>
-      <c r="P55" s="3" t="inlineStr"/>
+      <c r="O55" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P55" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q55" s="3" t="inlineStr"/>
-      <c r="R55" s="3" t="inlineStr"/>
-      <c r="S55" s="3" t="inlineStr"/>
+      <c r="R55" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S55" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T55" s="3" t="inlineStr"/>
       <c r="U55" s="3" t="inlineStr"/>
       <c r="V55" s="3" t="inlineStr"/>
@@ -6868,174 +6876,58 @@
       <c r="AC55" s="3" t="inlineStr"/>
       <c r="AD55" s="3" t="inlineStr"/>
       <c r="AE55" s="3" t="inlineStr"/>
-      <c r="AF55" s="3" t="inlineStr"/>
+      <c r="AF55" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Amazon MQ</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS DeepComposer</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="inlineStr"/>
+      <c r="C56" s="3" t="inlineStr"/>
+      <c r="D56" s="3" t="inlineStr"/>
+      <c r="E56" s="3" t="inlineStr"/>
+      <c r="F56" s="3" t="inlineStr"/>
+      <c r="G56" s="3" t="inlineStr"/>
+      <c r="H56" s="3" t="inlineStr"/>
+      <c r="I56" s="3" t="inlineStr"/>
       <c r="J56" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF56" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K56" s="3" t="inlineStr"/>
+      <c r="L56" s="3" t="inlineStr"/>
+      <c r="M56" s="3" t="inlineStr"/>
+      <c r="N56" s="3" t="inlineStr"/>
+      <c r="O56" s="3" t="inlineStr"/>
+      <c r="P56" s="3" t="inlineStr"/>
+      <c r="Q56" s="3" t="inlineStr"/>
+      <c r="R56" s="3" t="inlineStr"/>
+      <c r="S56" s="3" t="inlineStr"/>
+      <c r="T56" s="3" t="inlineStr"/>
+      <c r="U56" s="3" t="inlineStr"/>
+      <c r="V56" s="3" t="inlineStr"/>
+      <c r="W56" s="3" t="inlineStr"/>
+      <c r="X56" s="3" t="inlineStr"/>
+      <c r="Y56" s="3" t="inlineStr"/>
+      <c r="Z56" s="3" t="inlineStr"/>
+      <c r="AA56" s="3" t="inlineStr"/>
+      <c r="AB56" s="3" t="inlineStr"/>
+      <c r="AC56" s="3" t="inlineStr"/>
+      <c r="AD56" s="3" t="inlineStr"/>
+      <c r="AE56" s="3" t="inlineStr"/>
+      <c r="AF56" s="3" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>AWS Resource Access Manager (RAM)</t>
+          <t>Amazon MQ</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
@@ -7197,10 +7089,14 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Amazon CloudSearch</t>
-        </is>
-      </c>
-      <c r="B58" s="3" t="inlineStr"/>
+          <t>AWS Resource Access Manager (RAM)</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -7211,21 +7107,41 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E58" s="3" t="inlineStr"/>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G58" s="3" t="inlineStr"/>
-      <c r="H58" s="3" t="inlineStr"/>
-      <c r="I58" s="3" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J58" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K58" s="3" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L58" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -7236,13 +7152,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N58" s="3" t="inlineStr"/>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O58" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P58" s="3" t="inlineStr"/>
+      <c r="P58" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q58" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -7258,31 +7182,79 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T58" s="3" t="inlineStr"/>
-      <c r="U58" s="3" t="inlineStr"/>
-      <c r="V58" s="3" t="inlineStr"/>
-      <c r="W58" s="3" t="inlineStr"/>
-      <c r="X58" s="3" t="inlineStr"/>
-      <c r="Y58" s="3" t="inlineStr"/>
-      <c r="Z58" s="3" t="inlineStr"/>
-      <c r="AA58" s="3" t="inlineStr"/>
-      <c r="AB58" s="3" t="inlineStr"/>
-      <c r="AC58" s="3" t="inlineStr"/>
-      <c r="AD58" s="3" t="inlineStr"/>
-      <c r="AE58" s="3" t="inlineStr"/>
-      <c r="AF58" s="3" t="inlineStr"/>
+      <c r="T58" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U58" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V58" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W58" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X58" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y58" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z58" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA58" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB58" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC58" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD58" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE58" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF58" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>AWS Managed Services</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon CloudSearch</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr"/>
       <c r="C59" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -7293,41 +7265,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E59" s="3" t="inlineStr"/>
       <c r="F59" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G59" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I59" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G59" s="3" t="inlineStr"/>
+      <c r="H59" s="3" t="inlineStr"/>
+      <c r="I59" s="3" t="inlineStr"/>
       <c r="J59" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K59" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K59" s="3" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -7338,21 +7290,13 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N59" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N59" s="3" t="inlineStr"/>
       <c r="O59" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P59" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P59" s="3" t="inlineStr"/>
       <c r="Q59" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -7371,11 +7315,7 @@
       <c r="T59" s="3" t="inlineStr"/>
       <c r="U59" s="3" t="inlineStr"/>
       <c r="V59" s="3" t="inlineStr"/>
-      <c r="W59" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W59" s="3" t="inlineStr"/>
       <c r="X59" s="3" t="inlineStr"/>
       <c r="Y59" s="3" t="inlineStr"/>
       <c r="Z59" s="3" t="inlineStr"/>
@@ -7383,30 +7323,30 @@
       <c r="AB59" s="3" t="inlineStr"/>
       <c r="AC59" s="3" t="inlineStr"/>
       <c r="AD59" s="3" t="inlineStr"/>
-      <c r="AE59" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF59" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE59" s="3" t="inlineStr"/>
+      <c r="AF59" s="3" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>AWS IoT Analytics</t>
-        </is>
-      </c>
-      <c r="B60" s="3" t="inlineStr"/>
+          <t>AWS Managed Services</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D60" s="3" t="inlineStr"/>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -7417,9 +7357,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G60" s="3" t="inlineStr"/>
-      <c r="H60" s="3" t="inlineStr"/>
-      <c r="I60" s="3" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J60" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -7430,34 +7382,54 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L60" s="3" t="inlineStr"/>
+      <c r="L60" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M60" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N60" s="3" t="inlineStr"/>
+      <c r="N60" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O60" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P60" s="3" t="inlineStr"/>
-      <c r="Q60" s="3" t="inlineStr"/>
+      <c r="P60" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q60" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R60" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S60" s="3" t="inlineStr"/>
+      <c r="S60" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T60" s="3" t="inlineStr"/>
-      <c r="U60" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U60" s="3" t="inlineStr"/>
       <c r="V60" s="3" t="inlineStr"/>
-      <c r="W60" s="3" t="inlineStr"/>
+      <c r="W60" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X60" s="3" t="inlineStr"/>
       <c r="Y60" s="3" t="inlineStr"/>
       <c r="Z60" s="3" t="inlineStr"/>
@@ -7465,30 +7437,30 @@
       <c r="AB60" s="3" t="inlineStr"/>
       <c r="AC60" s="3" t="inlineStr"/>
       <c r="AD60" s="3" t="inlineStr"/>
-      <c r="AE60" s="3" t="inlineStr"/>
-      <c r="AF60" s="3" t="inlineStr"/>
+      <c r="AE60" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF60" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>AWS Well-Architected Tool</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS IoT Analytics</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr"/>
       <c r="C61" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D61" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D61" s="3" t="inlineStr"/>
       <c r="E61" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -7499,21 +7471,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G61" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G61" s="3" t="inlineStr"/>
+      <c r="H61" s="3" t="inlineStr"/>
+      <c r="I61" s="3" t="inlineStr"/>
       <c r="J61" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -7524,48 +7484,32 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L61" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L61" s="3" t="inlineStr"/>
       <c r="M61" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N61" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N61" s="3" t="inlineStr"/>
       <c r="O61" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P61" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q61" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P61" s="3" t="inlineStr"/>
+      <c r="Q61" s="3" t="inlineStr"/>
       <c r="R61" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S61" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S61" s="3" t="inlineStr"/>
       <c r="T61" s="3" t="inlineStr"/>
-      <c r="U61" s="3" t="inlineStr"/>
+      <c r="U61" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V61" s="3" t="inlineStr"/>
       <c r="W61" s="3" t="inlineStr"/>
       <c r="X61" s="3" t="inlineStr"/>
@@ -7575,21 +7519,13 @@
       <c r="AB61" s="3" t="inlineStr"/>
       <c r="AC61" s="3" t="inlineStr"/>
       <c r="AD61" s="3" t="inlineStr"/>
-      <c r="AE61" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF61" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE61" s="3" t="inlineStr"/>
+      <c r="AF61" s="3" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Amazon Simple Queue Service (SQS)</t>
+          <t>AWS Well-Architected Tool</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -7682,61 +7618,17 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T62" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U62" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V62" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W62" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X62" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y62" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z62" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA62" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB62" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC62" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD62" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T62" s="3" t="inlineStr"/>
+      <c r="U62" s="3" t="inlineStr"/>
+      <c r="V62" s="3" t="inlineStr"/>
+      <c r="W62" s="3" t="inlineStr"/>
+      <c r="X62" s="3" t="inlineStr"/>
+      <c r="Y62" s="3" t="inlineStr"/>
+      <c r="Z62" s="3" t="inlineStr"/>
+      <c r="AA62" s="3" t="inlineStr"/>
+      <c r="AB62" s="3" t="inlineStr"/>
+      <c r="AC62" s="3" t="inlineStr"/>
+      <c r="AD62" s="3" t="inlineStr"/>
       <c r="AE62" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -7751,10 +7643,14 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>AWS Proton</t>
-        </is>
-      </c>
-      <c r="B63" s="3" t="inlineStr"/>
+          <t>Amazon Simple Queue Service (SQS)</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -7765,7 +7661,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E63" s="3" t="inlineStr"/>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -7781,7 +7681,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I63" s="3" t="inlineStr"/>
+      <c r="I63" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -7802,33 +7706,101 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N63" s="3" t="inlineStr"/>
+      <c r="N63" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O63" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P63" s="3" t="inlineStr"/>
-      <c r="Q63" s="3" t="inlineStr"/>
+      <c r="P63" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q63" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R63" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S63" s="3" t="inlineStr"/>
-      <c r="T63" s="3" t="inlineStr"/>
-      <c r="U63" s="3" t="inlineStr"/>
-      <c r="V63" s="3" t="inlineStr"/>
-      <c r="W63" s="3" t="inlineStr"/>
-      <c r="X63" s="3" t="inlineStr"/>
-      <c r="Y63" s="3" t="inlineStr"/>
-      <c r="Z63" s="3" t="inlineStr"/>
-      <c r="AA63" s="3" t="inlineStr"/>
-      <c r="AB63" s="3" t="inlineStr"/>
-      <c r="AC63" s="3" t="inlineStr"/>
-      <c r="AD63" s="3" t="inlineStr"/>
-      <c r="AE63" s="3" t="inlineStr"/>
-      <c r="AF63" s="3" t="inlineStr"/>
+      <c r="S63" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T63" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U63" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V63" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W63" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X63" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y63" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z63" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA63" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB63" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC63" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD63" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE63" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF63" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -8597,14 +8569,10 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>AWS Step Functions</t>
-        </is>
-      </c>
-      <c r="B70" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Proton</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="inlineStr"/>
       <c r="C70" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -8615,11 +8583,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E70" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E70" s="3" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -8635,11 +8599,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I70" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I70" s="3" t="inlineStr"/>
       <c r="J70" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -8660,109 +8620,45 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N70" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N70" s="3" t="inlineStr"/>
       <c r="O70" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P70" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q70" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P70" s="3" t="inlineStr"/>
+      <c r="Q70" s="3" t="inlineStr"/>
       <c r="R70" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S70" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T70" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U70" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V70" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W70" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X70" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y70" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z70" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA70" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB70" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC70" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD70" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE70" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF70" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S70" s="3" t="inlineStr"/>
+      <c r="T70" s="3" t="inlineStr"/>
+      <c r="U70" s="3" t="inlineStr"/>
+      <c r="V70" s="3" t="inlineStr"/>
+      <c r="W70" s="3" t="inlineStr"/>
+      <c r="X70" s="3" t="inlineStr"/>
+      <c r="Y70" s="3" t="inlineStr"/>
+      <c r="Z70" s="3" t="inlineStr"/>
+      <c r="AA70" s="3" t="inlineStr"/>
+      <c r="AB70" s="3" t="inlineStr"/>
+      <c r="AC70" s="3" t="inlineStr"/>
+      <c r="AD70" s="3" t="inlineStr"/>
+      <c r="AE70" s="3" t="inlineStr"/>
+      <c r="AF70" s="3" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>AWS Budgets</t>
-        </is>
-      </c>
-      <c r="B71" s="3" t="inlineStr"/>
+          <t>AWS Step Functions</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -8818,13 +8714,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N71" s="3" t="inlineStr"/>
+      <c r="N71" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O71" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P71" s="3" t="inlineStr"/>
+      <c r="P71" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q71" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -8840,39 +8744,79 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T71" s="3" t="inlineStr"/>
+      <c r="T71" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U71" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V71" s="3" t="inlineStr"/>
-      <c r="W71" s="3" t="inlineStr"/>
-      <c r="X71" s="3" t="inlineStr"/>
-      <c r="Y71" s="3" t="inlineStr"/>
-      <c r="Z71" s="3" t="inlineStr"/>
-      <c r="AA71" s="3" t="inlineStr"/>
-      <c r="AB71" s="3" t="inlineStr"/>
+      <c r="V71" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W71" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X71" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y71" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z71" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA71" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB71" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC71" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD71" s="3" t="inlineStr"/>
-      <c r="AE71" s="3" t="inlineStr"/>
-      <c r="AF71" s="3" t="inlineStr"/>
+      <c r="AD71" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE71" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF71" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>AWS License Manager</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Budgets</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="inlineStr"/>
       <c r="C72" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -8928,21 +8872,13 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N72" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N72" s="3" t="inlineStr"/>
       <c r="O72" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P72" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P72" s="3" t="inlineStr"/>
       <c r="Q72" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -8958,34 +8894,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T72" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T72" s="3" t="inlineStr"/>
       <c r="U72" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="V72" s="3" t="inlineStr"/>
-      <c r="W72" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W72" s="3" t="inlineStr"/>
       <c r="X72" s="3" t="inlineStr"/>
-      <c r="Y72" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Y72" s="3" t="inlineStr"/>
       <c r="Z72" s="3" t="inlineStr"/>
-      <c r="AA72" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA72" s="3" t="inlineStr"/>
       <c r="AB72" s="3" t="inlineStr"/>
       <c r="AC72" s="2" t="inlineStr">
         <is>
@@ -8993,21 +8913,13 @@
         </is>
       </c>
       <c r="AD72" s="3" t="inlineStr"/>
-      <c r="AE72" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF72" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE72" s="3" t="inlineStr"/>
+      <c r="AF72" s="3" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>AWS Directory Service</t>
+          <t>AWS License Manager</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -9110,51 +9022,31 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="V73" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V73" s="3" t="inlineStr"/>
       <c r="W73" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X73" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X73" s="3" t="inlineStr"/>
       <c r="Y73" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Z73" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Z73" s="3" t="inlineStr"/>
       <c r="AA73" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB73" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB73" s="3" t="inlineStr"/>
       <c r="AC73" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD73" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD73" s="3" t="inlineStr"/>
       <c r="AE73" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -9169,7 +9061,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>AWS PrivateLink</t>
+          <t>AWS Directory Service</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -9331,7 +9223,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>AWS Certificate Manager</t>
+          <t>AWS PrivateLink</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -9493,10 +9385,14 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Amazon Personalize</t>
-        </is>
-      </c>
-      <c r="B76" s="3" t="inlineStr"/>
+          <t>AWS Certificate Manager</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -9522,8 +9418,16 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="H76" s="3" t="inlineStr"/>
-      <c r="I76" s="3" t="inlineStr"/>
+      <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -9544,49 +9448,109 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N76" s="3" t="inlineStr"/>
+      <c r="N76" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O76" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P76" s="3" t="inlineStr"/>
-      <c r="Q76" s="3" t="inlineStr"/>
+      <c r="P76" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q76" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R76" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S76" s="3" t="inlineStr"/>
-      <c r="T76" s="3" t="inlineStr"/>
+      <c r="S76" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T76" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U76" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V76" s="3" t="inlineStr"/>
-      <c r="W76" s="3" t="inlineStr"/>
-      <c r="X76" s="3" t="inlineStr"/>
-      <c r="Y76" s="3" t="inlineStr"/>
-      <c r="Z76" s="3" t="inlineStr"/>
-      <c r="AA76" s="3" t="inlineStr"/>
-      <c r="AB76" s="3" t="inlineStr"/>
-      <c r="AC76" s="3" t="inlineStr"/>
-      <c r="AD76" s="3" t="inlineStr"/>
-      <c r="AE76" s="3" t="inlineStr"/>
-      <c r="AF76" s="3" t="inlineStr"/>
+      <c r="V76" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W76" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X76" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y76" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z76" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA76" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB76" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC76" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD76" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE76" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF76" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>AWS Artifact</t>
-        </is>
-      </c>
-      <c r="B77" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Personalize</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="inlineStr"/>
       <c r="C77" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -9612,16 +9576,8 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="H77" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I77" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="H77" s="3" t="inlineStr"/>
+      <c r="I77" s="3" t="inlineStr"/>
       <c r="J77" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -9642,98 +9598,42 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N77" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N77" s="3" t="inlineStr"/>
       <c r="O77" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P77" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q77" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P77" s="3" t="inlineStr"/>
+      <c r="Q77" s="3" t="inlineStr"/>
       <c r="R77" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S77" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T77" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U77" s="3" t="inlineStr"/>
-      <c r="V77" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W77" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X77" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y77" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z77" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA77" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB77" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S77" s="3" t="inlineStr"/>
+      <c r="T77" s="3" t="inlineStr"/>
+      <c r="U77" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V77" s="3" t="inlineStr"/>
+      <c r="W77" s="3" t="inlineStr"/>
+      <c r="X77" s="3" t="inlineStr"/>
+      <c r="Y77" s="3" t="inlineStr"/>
+      <c r="Z77" s="3" t="inlineStr"/>
+      <c r="AA77" s="3" t="inlineStr"/>
+      <c r="AB77" s="3" t="inlineStr"/>
       <c r="AC77" s="3" t="inlineStr"/>
-      <c r="AD77" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE77" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF77" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD77" s="3" t="inlineStr"/>
+      <c r="AE77" s="3" t="inlineStr"/>
+      <c r="AF77" s="3" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Amazon Elastic Kubernetes Service (EKS)</t>
+          <t>AWS Artifact</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -9831,11 +9731,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U78" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U78" s="3" t="inlineStr"/>
       <c r="V78" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -9871,11 +9767,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AC78" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC78" s="3" t="inlineStr"/>
       <c r="AD78" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -9973,7 +9865,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>AWS CloudFormation</t>
+          <t>Amazon Kinesis Data Streams</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -10135,7 +10027,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Amazon Kinesis Data Streams</t>
+          <t>Amazon Elastic Kubernetes Service (EKS)</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -10835,7 +10727,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>AWS Control Tower</t>
+          <t>AWS CloudFormation</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
@@ -10933,28 +10825,56 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U87" s="3" t="inlineStr"/>
-      <c r="V87" s="3" t="inlineStr"/>
+      <c r="U87" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V87" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W87" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X87" s="3" t="inlineStr"/>
+      <c r="X87" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Y87" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Z87" s="3" t="inlineStr"/>
+      <c r="Z87" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA87" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB87" s="3" t="inlineStr"/>
-      <c r="AC87" s="3" t="inlineStr"/>
-      <c r="AD87" s="3" t="inlineStr"/>
+      <c r="AB87" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC87" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD87" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE87" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -10969,7 +10889,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Amazon Lumberyard</t>
+          <t>AWS Control Tower</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -11042,7 +10962,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P88" s="3" t="inlineStr"/>
+      <c r="P88" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q88" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -11058,14 +10982,30 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T88" s="3" t="inlineStr"/>
+      <c r="T88" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U88" s="3" t="inlineStr"/>
       <c r="V88" s="3" t="inlineStr"/>
-      <c r="W88" s="3" t="inlineStr"/>
+      <c r="W88" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X88" s="3" t="inlineStr"/>
-      <c r="Y88" s="3" t="inlineStr"/>
+      <c r="Y88" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z88" s="3" t="inlineStr"/>
-      <c r="AA88" s="3" t="inlineStr"/>
+      <c r="AA88" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB88" s="3" t="inlineStr"/>
       <c r="AC88" s="3" t="inlineStr"/>
       <c r="AD88" s="3" t="inlineStr"/>
@@ -11074,12 +11014,16 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AF88" s="3" t="inlineStr"/>
+      <c r="AF88" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Amazon Relational Database Service (RDS)</t>
+          <t>Amazon Lumberyard</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -11152,11 +11096,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P89" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P89" s="3" t="inlineStr"/>
       <c r="Q89" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -11172,189 +11112,217 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T89" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U89" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V89" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W89" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X89" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y89" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z89" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA89" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB89" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC89" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD89" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T89" s="3" t="inlineStr"/>
+      <c r="U89" s="3" t="inlineStr"/>
+      <c r="V89" s="3" t="inlineStr"/>
+      <c r="W89" s="3" t="inlineStr"/>
+      <c r="X89" s="3" t="inlineStr"/>
+      <c r="Y89" s="3" t="inlineStr"/>
+      <c r="Z89" s="3" t="inlineStr"/>
+      <c r="AA89" s="3" t="inlineStr"/>
+      <c r="AB89" s="3" t="inlineStr"/>
+      <c r="AC89" s="3" t="inlineStr"/>
+      <c r="AD89" s="3" t="inlineStr"/>
       <c r="AE89" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AF89" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF89" s="3" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Amazon WorkSpaces Application Manager</t>
-        </is>
-      </c>
-      <c r="B90" s="3" t="inlineStr"/>
-      <c r="C90" s="3" t="inlineStr"/>
-      <c r="D90" s="3" t="inlineStr"/>
-      <c r="E90" s="3" t="inlineStr"/>
+          <t>Amazon Relational Database Service (RDS)</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G90" s="3" t="inlineStr"/>
-      <c r="H90" s="3" t="inlineStr"/>
-      <c r="I90" s="3" t="inlineStr"/>
+      <c r="G90" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J90" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K90" s="3" t="inlineStr"/>
+      <c r="K90" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L90" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="M90" s="3" t="inlineStr"/>
-      <c r="N90" s="3" t="inlineStr"/>
+      <c r="M90" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N90" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O90" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P90" s="3" t="inlineStr"/>
-      <c r="Q90" s="3" t="inlineStr"/>
+      <c r="P90" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q90" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R90" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S90" s="3" t="inlineStr"/>
-      <c r="T90" s="3" t="inlineStr"/>
-      <c r="U90" s="3" t="inlineStr"/>
-      <c r="V90" s="3" t="inlineStr"/>
-      <c r="W90" s="3" t="inlineStr"/>
-      <c r="X90" s="3" t="inlineStr"/>
-      <c r="Y90" s="3" t="inlineStr"/>
-      <c r="Z90" s="3" t="inlineStr"/>
-      <c r="AA90" s="3" t="inlineStr"/>
-      <c r="AB90" s="3" t="inlineStr"/>
-      <c r="AC90" s="3" t="inlineStr"/>
-      <c r="AD90" s="3" t="inlineStr"/>
-      <c r="AE90" s="3" t="inlineStr"/>
-      <c r="AF90" s="3" t="inlineStr"/>
+      <c r="S90" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T90" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U90" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V90" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W90" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X90" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y90" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z90" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA90" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB90" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC90" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD90" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE90" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF90" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>AWS CodeArtifact</t>
+          <t>Amazon WorkSpaces Application Manager</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr"/>
-      <c r="C91" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C91" s="3" t="inlineStr"/>
       <c r="D91" s="3" t="inlineStr"/>
-      <c r="E91" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E91" s="3" t="inlineStr"/>
       <c r="F91" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="G91" s="3" t="inlineStr"/>
-      <c r="H91" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I91" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="H91" s="3" t="inlineStr"/>
+      <c r="I91" s="3" t="inlineStr"/>
       <c r="J91" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K91" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K91" s="3" t="inlineStr"/>
       <c r="L91" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="M91" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N91" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="M91" s="3" t="inlineStr"/>
+      <c r="N91" s="3" t="inlineStr"/>
       <c r="O91" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -11375,11 +11343,7 @@
       <c r="X91" s="3" t="inlineStr"/>
       <c r="Y91" s="3" t="inlineStr"/>
       <c r="Z91" s="3" t="inlineStr"/>
-      <c r="AA91" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA91" s="3" t="inlineStr"/>
       <c r="AB91" s="3" t="inlineStr"/>
       <c r="AC91" s="3" t="inlineStr"/>
       <c r="AD91" s="3" t="inlineStr"/>
@@ -11389,27 +11353,47 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Amazon Omics</t>
+          <t>AWS CodeArtifact</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr"/>
-      <c r="C92" s="3" t="inlineStr"/>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="D92" s="3" t="inlineStr"/>
-      <c r="E92" s="3" t="inlineStr"/>
-      <c r="F92" s="3" t="inlineStr"/>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="G92" s="3" t="inlineStr"/>
       <c r="H92" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I92" s="3" t="inlineStr"/>
+      <c r="I92" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J92" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K92" s="3" t="inlineStr"/>
+      <c r="K92" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L92" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -11420,7 +11404,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N92" s="3" t="inlineStr"/>
+      <c r="N92" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O92" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -11441,7 +11429,11 @@
       <c r="X92" s="3" t="inlineStr"/>
       <c r="Y92" s="3" t="inlineStr"/>
       <c r="Z92" s="3" t="inlineStr"/>
-      <c r="AA92" s="3" t="inlineStr"/>
+      <c r="AA92" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB92" s="3" t="inlineStr"/>
       <c r="AC92" s="3" t="inlineStr"/>
       <c r="AD92" s="3" t="inlineStr"/>
@@ -11451,59 +11443,27 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for NetApp ONTAP</t>
-        </is>
-      </c>
-      <c r="B93" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C93" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D93" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E93" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F93" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G93" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Omics</t>
+        </is>
+      </c>
+      <c r="B93" s="3" t="inlineStr"/>
+      <c r="C93" s="3" t="inlineStr"/>
+      <c r="D93" s="3" t="inlineStr"/>
+      <c r="E93" s="3" t="inlineStr"/>
+      <c r="F93" s="3" t="inlineStr"/>
+      <c r="G93" s="3" t="inlineStr"/>
       <c r="H93" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I93" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I93" s="3" t="inlineStr"/>
       <c r="J93" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K93" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K93" s="3" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -11514,94 +11474,38 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N93" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N93" s="3" t="inlineStr"/>
       <c r="O93" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P93" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q93" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P93" s="3" t="inlineStr"/>
+      <c r="Q93" s="3" t="inlineStr"/>
       <c r="R93" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S93" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S93" s="3" t="inlineStr"/>
       <c r="T93" s="3" t="inlineStr"/>
       <c r="U93" s="3" t="inlineStr"/>
-      <c r="V93" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W93" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X93" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y93" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z93" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA93" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB93" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V93" s="3" t="inlineStr"/>
+      <c r="W93" s="3" t="inlineStr"/>
+      <c r="X93" s="3" t="inlineStr"/>
+      <c r="Y93" s="3" t="inlineStr"/>
+      <c r="Z93" s="3" t="inlineStr"/>
+      <c r="AA93" s="3" t="inlineStr"/>
+      <c r="AB93" s="3" t="inlineStr"/>
       <c r="AC93" s="3" t="inlineStr"/>
-      <c r="AD93" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE93" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF93" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD93" s="3" t="inlineStr"/>
+      <c r="AE93" s="3" t="inlineStr"/>
+      <c r="AF93" s="3" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Amazon Detective</t>
+          <t>Amazon FSx for NetApp ONTAP</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
@@ -11696,23 +11600,47 @@
       </c>
       <c r="T94" s="3" t="inlineStr"/>
       <c r="U94" s="3" t="inlineStr"/>
-      <c r="V94" s="3" t="inlineStr"/>
+      <c r="V94" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W94" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X94" s="3" t="inlineStr"/>
-      <c r="Y94" s="3" t="inlineStr"/>
-      <c r="Z94" s="3" t="inlineStr"/>
+      <c r="X94" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y94" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z94" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA94" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB94" s="3" t="inlineStr"/>
+      <c r="AB94" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC94" s="3" t="inlineStr"/>
-      <c r="AD94" s="3" t="inlineStr"/>
+      <c r="AD94" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE94" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -11727,7 +11655,7 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Amazon Managed Streaming for Apache Kafka</t>
+          <t>Amazon Detective</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -11820,61 +11748,25 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T95" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U95" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V95" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T95" s="3" t="inlineStr"/>
+      <c r="U95" s="3" t="inlineStr"/>
+      <c r="V95" s="3" t="inlineStr"/>
       <c r="W95" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X95" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y95" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z95" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X95" s="3" t="inlineStr"/>
+      <c r="Y95" s="3" t="inlineStr"/>
+      <c r="Z95" s="3" t="inlineStr"/>
       <c r="AA95" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB95" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC95" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD95" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB95" s="3" t="inlineStr"/>
+      <c r="AC95" s="3" t="inlineStr"/>
+      <c r="AD95" s="3" t="inlineStr"/>
       <c r="AE95" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -11889,10 +11781,14 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Amazon Managed Grafana</t>
-        </is>
-      </c>
-      <c r="B96" s="3" t="inlineStr"/>
+          <t>Amazon Managed Streaming for Apache Kafka</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -11903,19 +11799,31 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E96" s="3" t="inlineStr"/>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G96" s="3" t="inlineStr"/>
+      <c r="G96" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I96" s="3" t="inlineStr"/>
+      <c r="I96" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J96" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -11936,45 +11844,109 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N96" s="3" t="inlineStr"/>
+      <c r="N96" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O96" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P96" s="3" t="inlineStr"/>
-      <c r="Q96" s="3" t="inlineStr"/>
+      <c r="P96" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q96" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R96" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S96" s="3" t="inlineStr"/>
-      <c r="T96" s="3" t="inlineStr"/>
-      <c r="U96" s="3" t="inlineStr"/>
-      <c r="V96" s="3" t="inlineStr"/>
-      <c r="W96" s="3" t="inlineStr"/>
-      <c r="X96" s="3" t="inlineStr"/>
-      <c r="Y96" s="3" t="inlineStr"/>
-      <c r="Z96" s="3" t="inlineStr"/>
-      <c r="AA96" s="3" t="inlineStr"/>
-      <c r="AB96" s="3" t="inlineStr"/>
-      <c r="AC96" s="3" t="inlineStr"/>
-      <c r="AD96" s="3" t="inlineStr"/>
-      <c r="AE96" s="3" t="inlineStr"/>
-      <c r="AF96" s="3" t="inlineStr"/>
+      <c r="S96" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T96" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U96" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V96" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W96" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X96" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y96" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z96" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA96" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB96" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC96" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD96" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE96" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF96" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Amazon Virtual Private Cloud (VPC)</t>
-        </is>
-      </c>
-      <c r="B97" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Managed Grafana</t>
+        </is>
+      </c>
+      <c r="B97" s="3" t="inlineStr"/>
       <c r="C97" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -11985,31 +11957,19 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E97" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E97" s="3" t="inlineStr"/>
       <c r="F97" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G97" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G97" s="3" t="inlineStr"/>
       <c r="H97" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I97" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I97" s="3" t="inlineStr"/>
       <c r="J97" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -12030,106 +11990,38 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N97" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N97" s="3" t="inlineStr"/>
       <c r="O97" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P97" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q97" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P97" s="3" t="inlineStr"/>
+      <c r="Q97" s="3" t="inlineStr"/>
       <c r="R97" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S97" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T97" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U97" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V97" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W97" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X97" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y97" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z97" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA97" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB97" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC97" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD97" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE97" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF97" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S97" s="3" t="inlineStr"/>
+      <c r="T97" s="3" t="inlineStr"/>
+      <c r="U97" s="3" t="inlineStr"/>
+      <c r="V97" s="3" t="inlineStr"/>
+      <c r="W97" s="3" t="inlineStr"/>
+      <c r="X97" s="3" t="inlineStr"/>
+      <c r="Y97" s="3" t="inlineStr"/>
+      <c r="Z97" s="3" t="inlineStr"/>
+      <c r="AA97" s="3" t="inlineStr"/>
+      <c r="AB97" s="3" t="inlineStr"/>
+      <c r="AC97" s="3" t="inlineStr"/>
+      <c r="AD97" s="3" t="inlineStr"/>
+      <c r="AE97" s="3" t="inlineStr"/>
+      <c r="AF97" s="3" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>AWS Resource Groups</t>
+          <t>Amazon Virtual Private Cloud (VPC)</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -12291,10 +12183,14 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Amazon Lightsail</t>
-        </is>
-      </c>
-      <c r="B99" s="3" t="inlineStr"/>
+          <t>AWS Resource Groups</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -12360,32 +12256,96 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P99" s="3" t="inlineStr"/>
-      <c r="Q99" s="3" t="inlineStr"/>
+      <c r="P99" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q99" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R99" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S99" s="3" t="inlineStr"/>
-      <c r="T99" s="3" t="inlineStr"/>
-      <c r="U99" s="3" t="inlineStr"/>
-      <c r="V99" s="3" t="inlineStr"/>
-      <c r="W99" s="3" t="inlineStr"/>
-      <c r="X99" s="3" t="inlineStr"/>
-      <c r="Y99" s="3" t="inlineStr"/>
-      <c r="Z99" s="3" t="inlineStr"/>
-      <c r="AA99" s="3" t="inlineStr"/>
-      <c r="AB99" s="3" t="inlineStr"/>
-      <c r="AC99" s="3" t="inlineStr"/>
-      <c r="AD99" s="3" t="inlineStr"/>
-      <c r="AE99" s="3" t="inlineStr"/>
-      <c r="AF99" s="3" t="inlineStr"/>
+      <c r="S99" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T99" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U99" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V99" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W99" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X99" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y99" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z99" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA99" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB99" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC99" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD99" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE99" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF99" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>AWS IoT SiteWise</t>
+          <t>Amazon Lightsail</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr"/>
@@ -12414,8 +12374,16 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="H100" s="3" t="inlineStr"/>
-      <c r="I100" s="3" t="inlineStr"/>
+      <c r="H100" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I100" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J100" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -12436,17 +12404,17 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N100" s="3" t="inlineStr"/>
+      <c r="N100" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O100" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P100" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P100" s="3" t="inlineStr"/>
       <c r="Q100" s="3" t="inlineStr"/>
       <c r="R100" s="2" t="inlineStr">
         <is>
@@ -12455,11 +12423,7 @@
       </c>
       <c r="S100" s="3" t="inlineStr"/>
       <c r="T100" s="3" t="inlineStr"/>
-      <c r="U100" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U100" s="3" t="inlineStr"/>
       <c r="V100" s="3" t="inlineStr"/>
       <c r="W100" s="3" t="inlineStr"/>
       <c r="X100" s="3" t="inlineStr"/>
@@ -12475,14 +12439,10 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>AWS Direct Connect</t>
-        </is>
-      </c>
-      <c r="B101" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS IoT SiteWise</t>
+        </is>
+      </c>
+      <c r="B101" s="3" t="inlineStr"/>
       <c r="C101" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -12508,16 +12468,8 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="H101" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I101" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="H101" s="3" t="inlineStr"/>
+      <c r="I101" s="3" t="inlineStr"/>
       <c r="J101" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -12538,11 +12490,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N101" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N101" s="3" t="inlineStr"/>
       <c r="O101" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -12553,91 +12501,35 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q101" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q101" s="3" t="inlineStr"/>
       <c r="R101" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S101" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T101" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S101" s="3" t="inlineStr"/>
+      <c r="T101" s="3" t="inlineStr"/>
       <c r="U101" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V101" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W101" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X101" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y101" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z101" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA101" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB101" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC101" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD101" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE101" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF101" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V101" s="3" t="inlineStr"/>
+      <c r="W101" s="3" t="inlineStr"/>
+      <c r="X101" s="3" t="inlineStr"/>
+      <c r="Y101" s="3" t="inlineStr"/>
+      <c r="Z101" s="3" t="inlineStr"/>
+      <c r="AA101" s="3" t="inlineStr"/>
+      <c r="AB101" s="3" t="inlineStr"/>
+      <c r="AC101" s="3" t="inlineStr"/>
+      <c r="AD101" s="3" t="inlineStr"/>
+      <c r="AE101" s="3" t="inlineStr"/>
+      <c r="AF101" s="3" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>AWS IoT Core</t>
+          <t>AWS Direct Connect</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -12730,19 +12622,51 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T102" s="3" t="inlineStr"/>
+      <c r="T102" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U102" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V102" s="3" t="inlineStr"/>
-      <c r="W102" s="3" t="inlineStr"/>
-      <c r="X102" s="3" t="inlineStr"/>
-      <c r="Y102" s="3" t="inlineStr"/>
-      <c r="Z102" s="3" t="inlineStr"/>
-      <c r="AA102" s="3" t="inlineStr"/>
-      <c r="AB102" s="3" t="inlineStr"/>
+      <c r="V102" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W102" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X102" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y102" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z102" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA102" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB102" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC102" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -13351,7 +13275,7 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>CloudEndure Migration</t>
+          <t>AWS IoT Core</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -13444,37 +13368,29 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T107" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T107" s="3" t="inlineStr"/>
       <c r="U107" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="V107" s="3" t="inlineStr"/>
-      <c r="W107" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W107" s="3" t="inlineStr"/>
       <c r="X107" s="3" t="inlineStr"/>
       <c r="Y107" s="3" t="inlineStr"/>
       <c r="Z107" s="3" t="inlineStr"/>
-      <c r="AA107" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA107" s="3" t="inlineStr"/>
       <c r="AB107" s="3" t="inlineStr"/>
       <c r="AC107" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD107" s="3" t="inlineStr"/>
+      <c r="AD107" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE107" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -13489,7 +13405,7 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>AWS Resilience Hub</t>
+          <t>CloudEndure Migration</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -13562,7 +13478,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P108" s="3" t="inlineStr"/>
+      <c r="P108" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q108" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -13578,8 +13498,16 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T108" s="3" t="inlineStr"/>
-      <c r="U108" s="3" t="inlineStr"/>
+      <c r="T108" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U108" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V108" s="3" t="inlineStr"/>
       <c r="W108" s="2" t="inlineStr">
         <is>
@@ -13595,14 +13523,22 @@
         </is>
       </c>
       <c r="AB108" s="3" t="inlineStr"/>
-      <c r="AC108" s="3" t="inlineStr"/>
+      <c r="AC108" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD108" s="3" t="inlineStr"/>
       <c r="AE108" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AF108" s="3" t="inlineStr"/>
+      <c r="AF108" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -14395,7 +14331,7 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>AWS Fargate</t>
+          <t>AWS Resilience Hub</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -14468,11 +14404,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P115" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P115" s="3" t="inlineStr"/>
       <c r="Q115" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14488,85 +14420,53 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T115" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U115" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V115" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T115" s="3" t="inlineStr"/>
+      <c r="U115" s="3" t="inlineStr"/>
+      <c r="V115" s="3" t="inlineStr"/>
       <c r="W115" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X115" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y115" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z115" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X115" s="3" t="inlineStr"/>
+      <c r="Y115" s="3" t="inlineStr"/>
+      <c r="Z115" s="3" t="inlineStr"/>
       <c r="AA115" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB115" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC115" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD115" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB115" s="3" t="inlineStr"/>
+      <c r="AC115" s="3" t="inlineStr"/>
+      <c r="AD115" s="3" t="inlineStr"/>
       <c r="AE115" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AF115" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF115" s="3" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>AWS Snowcone</t>
-        </is>
-      </c>
-      <c r="B116" s="3" t="inlineStr"/>
+          <t>AWS Fargate</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D116" s="3" t="inlineStr"/>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14612,13 +14512,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N116" s="3" t="inlineStr"/>
+      <c r="N116" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O116" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P116" s="3" t="inlineStr"/>
+      <c r="P116" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q116" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14634,41 +14542,85 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T116" s="3" t="inlineStr"/>
-      <c r="U116" s="3" t="inlineStr"/>
-      <c r="V116" s="3" t="inlineStr"/>
-      <c r="W116" s="3" t="inlineStr"/>
-      <c r="X116" s="3" t="inlineStr"/>
-      <c r="Y116" s="3" t="inlineStr"/>
-      <c r="Z116" s="3" t="inlineStr"/>
-      <c r="AA116" s="3" t="inlineStr"/>
-      <c r="AB116" s="3" t="inlineStr"/>
-      <c r="AC116" s="3" t="inlineStr"/>
-      <c r="AD116" s="3" t="inlineStr"/>
-      <c r="AE116" s="3" t="inlineStr"/>
-      <c r="AF116" s="3" t="inlineStr"/>
+      <c r="T116" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U116" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V116" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W116" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X116" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y116" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z116" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA116" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB116" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC116" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD116" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE116" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF116" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>AWS Elastic Disaster Recovery (DRS)</t>
-        </is>
-      </c>
-      <c r="B117" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Snowcone</t>
+        </is>
+      </c>
+      <c r="B117" s="3" t="inlineStr"/>
       <c r="C117" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D117" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D117" s="3" t="inlineStr"/>
       <c r="E117" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14714,11 +14666,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N117" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N117" s="3" t="inlineStr"/>
       <c r="O117" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14740,53 +14688,41 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T117" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T117" s="3" t="inlineStr"/>
       <c r="U117" s="3" t="inlineStr"/>
       <c r="V117" s="3" t="inlineStr"/>
-      <c r="W117" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W117" s="3" t="inlineStr"/>
       <c r="X117" s="3" t="inlineStr"/>
-      <c r="Y117" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Y117" s="3" t="inlineStr"/>
       <c r="Z117" s="3" t="inlineStr"/>
-      <c r="AA117" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA117" s="3" t="inlineStr"/>
       <c r="AB117" s="3" t="inlineStr"/>
       <c r="AC117" s="3" t="inlineStr"/>
       <c r="AD117" s="3" t="inlineStr"/>
-      <c r="AE117" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE117" s="3" t="inlineStr"/>
       <c r="AF117" s="3" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Amazon Kendra</t>
-        </is>
-      </c>
-      <c r="B118" s="3" t="inlineStr"/>
+          <t>AWS Elastic Disaster Recovery (DRS)</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D118" s="3" t="inlineStr"/>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="E118" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14807,7 +14743,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I118" s="3" t="inlineStr"/>
+      <c r="I118" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J118" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14823,43 +14763,95 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M118" s="3" t="inlineStr"/>
-      <c r="N118" s="3" t="inlineStr"/>
+      <c r="M118" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N118" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O118" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q118" s="3" t="inlineStr"/>
+      <c r="P118" s="3" t="inlineStr"/>
+      <c r="Q118" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R118" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S118" s="3" t="inlineStr"/>
-      <c r="T118" s="3" t="inlineStr"/>
+      <c r="S118" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T118" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U118" s="3" t="inlineStr"/>
-      <c r="V118" s="3" t="inlineStr"/>
-      <c r="W118" s="3" t="inlineStr"/>
-      <c r="X118" s="3" t="inlineStr"/>
-      <c r="Y118" s="3" t="inlineStr"/>
-      <c r="Z118" s="3" t="inlineStr"/>
-      <c r="AA118" s="3" t="inlineStr"/>
-      <c r="AB118" s="3" t="inlineStr"/>
+      <c r="V118" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W118" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X118" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y118" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z118" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA118" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB118" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC118" s="3" t="inlineStr"/>
-      <c r="AD118" s="3" t="inlineStr"/>
-      <c r="AE118" s="3" t="inlineStr"/>
+      <c r="AD118" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE118" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF118" s="3" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaPackage</t>
+          <t>Amazon Kendra</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr"/>
@@ -14868,11 +14860,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="D119" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D119" s="3" t="inlineStr"/>
       <c r="E119" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14893,11 +14881,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I119" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I119" s="3" t="inlineStr"/>
       <c r="J119" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14913,37 +14897,25 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M119" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N119" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="M119" s="3" t="inlineStr"/>
+      <c r="N119" s="3" t="inlineStr"/>
       <c r="O119" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P119" s="3" t="inlineStr"/>
-      <c r="Q119" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P119" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q119" s="3" t="inlineStr"/>
       <c r="R119" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S119" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S119" s="3" t="inlineStr"/>
       <c r="T119" s="3" t="inlineStr"/>
       <c r="U119" s="3" t="inlineStr"/>
       <c r="V119" s="3" t="inlineStr"/>
@@ -14961,31 +14933,91 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>AWS Device Farm</t>
+          <t>AWS Elemental MediaPackage</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr"/>
-      <c r="C120" s="3" t="inlineStr"/>
-      <c r="D120" s="3" t="inlineStr"/>
-      <c r="E120" s="3" t="inlineStr"/>
-      <c r="F120" s="3" t="inlineStr"/>
-      <c r="G120" s="3" t="inlineStr"/>
-      <c r="H120" s="3" t="inlineStr"/>
-      <c r="I120" s="3" t="inlineStr"/>
-      <c r="J120" s="3" t="inlineStr"/>
-      <c r="K120" s="3" t="inlineStr"/>
-      <c r="L120" s="3" t="inlineStr"/>
-      <c r="M120" s="3" t="inlineStr"/>
-      <c r="N120" s="3" t="inlineStr"/>
-      <c r="O120" s="3" t="inlineStr"/>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L120" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M120" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N120" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O120" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="P120" s="3" t="inlineStr"/>
-      <c r="Q120" s="3" t="inlineStr"/>
+      <c r="Q120" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R120" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S120" s="3" t="inlineStr"/>
+      <c r="S120" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T120" s="3" t="inlineStr"/>
       <c r="U120" s="3" t="inlineStr"/>
       <c r="V120" s="3" t="inlineStr"/>
@@ -15003,164 +15035,44 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx</t>
-        </is>
-      </c>
-      <c r="B121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Device Farm</t>
+        </is>
+      </c>
+      <c r="B121" s="3" t="inlineStr"/>
+      <c r="C121" s="3" t="inlineStr"/>
+      <c r="D121" s="3" t="inlineStr"/>
+      <c r="E121" s="3" t="inlineStr"/>
+      <c r="F121" s="3" t="inlineStr"/>
+      <c r="G121" s="3" t="inlineStr"/>
+      <c r="H121" s="3" t="inlineStr"/>
+      <c r="I121" s="3" t="inlineStr"/>
+      <c r="J121" s="3" t="inlineStr"/>
+      <c r="K121" s="3" t="inlineStr"/>
+      <c r="L121" s="3" t="inlineStr"/>
+      <c r="M121" s="3" t="inlineStr"/>
+      <c r="N121" s="3" t="inlineStr"/>
+      <c r="O121" s="3" t="inlineStr"/>
+      <c r="P121" s="3" t="inlineStr"/>
+      <c r="Q121" s="3" t="inlineStr"/>
       <c r="R121" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF121" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S121" s="3" t="inlineStr"/>
+      <c r="T121" s="3" t="inlineStr"/>
+      <c r="U121" s="3" t="inlineStr"/>
+      <c r="V121" s="3" t="inlineStr"/>
+      <c r="W121" s="3" t="inlineStr"/>
+      <c r="X121" s="3" t="inlineStr"/>
+      <c r="Y121" s="3" t="inlineStr"/>
+      <c r="Z121" s="3" t="inlineStr"/>
+      <c r="AA121" s="3" t="inlineStr"/>
+      <c r="AB121" s="3" t="inlineStr"/>
+      <c r="AC121" s="3" t="inlineStr"/>
+      <c r="AD121" s="3" t="inlineStr"/>
+      <c r="AE121" s="3" t="inlineStr"/>
+      <c r="AF121" s="3" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -16079,16 +15991,24 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>AWS Audit Manager</t>
-        </is>
-      </c>
-      <c r="B129" s="3" t="inlineStr"/>
+          <t>Amazon FSx</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D129" s="3" t="inlineStr"/>
+      <c r="D129" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="E129" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16109,7 +16029,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I129" s="3" t="inlineStr"/>
+      <c r="I129" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J129" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16130,13 +16054,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N129" s="3" t="inlineStr"/>
+      <c r="N129" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O129" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P129" s="3" t="inlineStr"/>
+      <c r="P129" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q129" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16147,20 +16079,76 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S129" s="3" t="inlineStr"/>
-      <c r="T129" s="3" t="inlineStr"/>
-      <c r="U129" s="3" t="inlineStr"/>
-      <c r="V129" s="3" t="inlineStr"/>
-      <c r="W129" s="3" t="inlineStr"/>
-      <c r="X129" s="3" t="inlineStr"/>
-      <c r="Y129" s="3" t="inlineStr"/>
-      <c r="Z129" s="3" t="inlineStr"/>
-      <c r="AA129" s="3" t="inlineStr"/>
-      <c r="AB129" s="3" t="inlineStr"/>
-      <c r="AC129" s="3" t="inlineStr"/>
-      <c r="AD129" s="3" t="inlineStr"/>
-      <c r="AE129" s="3" t="inlineStr"/>
-      <c r="AF129" s="3" t="inlineStr"/>
+      <c r="S129" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T129" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U129" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V129" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W129" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X129" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y129" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z129" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA129" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB129" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC129" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD129" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE129" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF129" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -17079,24 +17067,16 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Amazon Elastic MapReduce (EMR)</t>
-        </is>
-      </c>
-      <c r="B137" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Audit Manager</t>
+        </is>
+      </c>
+      <c r="B137" s="3" t="inlineStr"/>
       <c r="C137" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D137" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D137" s="3" t="inlineStr"/>
       <c r="E137" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -17117,11 +17097,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I137" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I137" s="3" t="inlineStr"/>
       <c r="J137" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -17142,21 +17118,13 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N137" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N137" s="3" t="inlineStr"/>
       <c r="O137" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P137" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P137" s="3" t="inlineStr"/>
       <c r="Q137" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -17167,81 +17135,25 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S137" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T137" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U137" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V137" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W137" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X137" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y137" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z137" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA137" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB137" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC137" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD137" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE137" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF137" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S137" s="3" t="inlineStr"/>
+      <c r="T137" s="3" t="inlineStr"/>
+      <c r="U137" s="3" t="inlineStr"/>
+      <c r="V137" s="3" t="inlineStr"/>
+      <c r="W137" s="3" t="inlineStr"/>
+      <c r="X137" s="3" t="inlineStr"/>
+      <c r="Y137" s="3" t="inlineStr"/>
+      <c r="Z137" s="3" t="inlineStr"/>
+      <c r="AA137" s="3" t="inlineStr"/>
+      <c r="AB137" s="3" t="inlineStr"/>
+      <c r="AC137" s="3" t="inlineStr"/>
+      <c r="AD137" s="3" t="inlineStr"/>
+      <c r="AE137" s="3" t="inlineStr"/>
+      <c r="AF137" s="3" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>AWS Transfer Family</t>
+          <t>Amazon Elastic MapReduce (EMR)</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
@@ -18069,7 +17981,7 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>EC2 Image Builder</t>
+          <t>AWS Transfer Family</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
@@ -18231,7 +18143,7 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>AWS CodePipeline</t>
+          <t>EC2 Image Builder</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
@@ -18324,7 +18236,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T145" s="3" t="inlineStr"/>
+      <c r="T145" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U145" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18340,21 +18256,41 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="X145" s="3" t="inlineStr"/>
-      <c r="Y145" s="3" t="inlineStr"/>
-      <c r="Z145" s="3" t="inlineStr"/>
+      <c r="X145" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y145" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z145" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA145" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB145" s="3" t="inlineStr"/>
+      <c r="AB145" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC145" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD145" s="3" t="inlineStr"/>
+      <c r="AD145" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE145" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18369,48 +18305,140 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Amazon Monitron</t>
-        </is>
-      </c>
-      <c r="B146" s="3" t="inlineStr"/>
-      <c r="C146" s="3" t="inlineStr"/>
-      <c r="D146" s="3" t="inlineStr"/>
-      <c r="E146" s="3" t="inlineStr"/>
-      <c r="F146" s="3" t="inlineStr"/>
-      <c r="G146" s="3" t="inlineStr"/>
-      <c r="H146" s="3" t="inlineStr"/>
-      <c r="I146" s="3" t="inlineStr"/>
+          <t>AWS CodePipeline</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J146" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K146" s="3" t="inlineStr"/>
-      <c r="L146" s="3" t="inlineStr"/>
-      <c r="M146" s="3" t="inlineStr"/>
-      <c r="N146" s="3" t="inlineStr"/>
+      <c r="K146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O146" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P146" s="3" t="inlineStr"/>
-      <c r="Q146" s="3" t="inlineStr"/>
-      <c r="R146" s="3" t="inlineStr"/>
-      <c r="S146" s="3" t="inlineStr"/>
+      <c r="P146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T146" s="3" t="inlineStr"/>
-      <c r="U146" s="3" t="inlineStr"/>
-      <c r="V146" s="3" t="inlineStr"/>
-      <c r="W146" s="3" t="inlineStr"/>
+      <c r="U146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X146" s="3" t="inlineStr"/>
       <c r="Y146" s="3" t="inlineStr"/>
       <c r="Z146" s="3" t="inlineStr"/>
-      <c r="AA146" s="3" t="inlineStr"/>
+      <c r="AA146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB146" s="3" t="inlineStr"/>
-      <c r="AC146" s="3" t="inlineStr"/>
+      <c r="AC146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD146" s="3" t="inlineStr"/>
-      <c r="AE146" s="3" t="inlineStr"/>
-      <c r="AF146" s="3" t="inlineStr"/>
+      <c r="AE146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -18701,10 +18729,14 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>AWS CodeStar</t>
-        </is>
-      </c>
-      <c r="B150" s="3" t="inlineStr"/>
+          <t>AWS Lake Formation</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18715,7 +18747,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E150" s="3" t="inlineStr"/>
+      <c r="E150" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F150" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18731,7 +18767,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I150" s="3" t="inlineStr"/>
+      <c r="I150" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J150" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18762,7 +18802,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P150" s="3" t="inlineStr"/>
+      <c r="P150" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q150" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18773,200 +18817,148 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S150" s="3" t="inlineStr"/>
-      <c r="T150" s="3" t="inlineStr"/>
-      <c r="U150" s="3" t="inlineStr"/>
-      <c r="V150" s="3" t="inlineStr"/>
-      <c r="W150" s="3" t="inlineStr"/>
+      <c r="S150" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T150" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U150" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V150" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W150" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X150" s="3" t="inlineStr"/>
-      <c r="Y150" s="3" t="inlineStr"/>
+      <c r="Y150" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z150" s="3" t="inlineStr"/>
-      <c r="AA150" s="3" t="inlineStr"/>
-      <c r="AB150" s="3" t="inlineStr"/>
-      <c r="AC150" s="3" t="inlineStr"/>
-      <c r="AD150" s="3" t="inlineStr"/>
-      <c r="AE150" s="3" t="inlineStr"/>
-      <c r="AF150" s="3" t="inlineStr"/>
+      <c r="AA150" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB150" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC150" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD150" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE150" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF150" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>AWS Lake Formation</t>
-        </is>
-      </c>
-      <c r="B151" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Migration Hub</t>
+        </is>
+      </c>
+      <c r="B151" s="3" t="inlineStr"/>
       <c r="C151" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D151" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E151" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D151" s="3" t="inlineStr"/>
+      <c r="E151" s="3" t="inlineStr"/>
       <c r="F151" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G151" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G151" s="3" t="inlineStr"/>
       <c r="H151" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I151" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I151" s="3" t="inlineStr"/>
       <c r="J151" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K151" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L151" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K151" s="3" t="inlineStr"/>
+      <c r="L151" s="3" t="inlineStr"/>
       <c r="M151" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N151" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N151" s="3" t="inlineStr"/>
       <c r="O151" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P151" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q151" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P151" s="3" t="inlineStr"/>
+      <c r="Q151" s="3" t="inlineStr"/>
       <c r="R151" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S151" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T151" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U151" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V151" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W151" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S151" s="3" t="inlineStr"/>
+      <c r="T151" s="3" t="inlineStr"/>
+      <c r="U151" s="3" t="inlineStr"/>
+      <c r="V151" s="3" t="inlineStr"/>
+      <c r="W151" s="3" t="inlineStr"/>
       <c r="X151" s="3" t="inlineStr"/>
-      <c r="Y151" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Y151" s="3" t="inlineStr"/>
       <c r="Z151" s="3" t="inlineStr"/>
-      <c r="AA151" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB151" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC151" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD151" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE151" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF151" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA151" s="3" t="inlineStr"/>
+      <c r="AB151" s="3" t="inlineStr"/>
+      <c r="AC151" s="3" t="inlineStr"/>
+      <c r="AD151" s="3" t="inlineStr"/>
+      <c r="AE151" s="3" t="inlineStr"/>
+      <c r="AF151" s="3" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>AWS Migration Hub</t>
+          <t>Amazon Monitron</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr"/>
-      <c r="C152" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C152" s="3" t="inlineStr"/>
       <c r="D152" s="3" t="inlineStr"/>
       <c r="E152" s="3" t="inlineStr"/>
-      <c r="F152" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="F152" s="3" t="inlineStr"/>
       <c r="G152" s="3" t="inlineStr"/>
-      <c r="H152" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="H152" s="3" t="inlineStr"/>
       <c r="I152" s="3" t="inlineStr"/>
       <c r="J152" s="2" t="inlineStr">
         <is>
@@ -18975,11 +18967,7 @@
       </c>
       <c r="K152" s="3" t="inlineStr"/>
       <c r="L152" s="3" t="inlineStr"/>
-      <c r="M152" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="M152" s="3" t="inlineStr"/>
       <c r="N152" s="3" t="inlineStr"/>
       <c r="O152" s="2" t="inlineStr">
         <is>
@@ -18988,11 +18976,7 @@
       </c>
       <c r="P152" s="3" t="inlineStr"/>
       <c r="Q152" s="3" t="inlineStr"/>
-      <c r="R152" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="R152" s="3" t="inlineStr"/>
       <c r="S152" s="3" t="inlineStr"/>
       <c r="T152" s="3" t="inlineStr"/>
       <c r="U152" s="3" t="inlineStr"/>
@@ -19361,14 +19345,10 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>AWS Cloud9</t>
-        </is>
-      </c>
-      <c r="B156" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS CodeStar</t>
+        </is>
+      </c>
+      <c r="B156" s="3" t="inlineStr"/>
       <c r="C156" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19379,11 +19359,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E156" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E156" s="3" t="inlineStr"/>
       <c r="F156" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19399,11 +19375,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I156" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I156" s="3" t="inlineStr"/>
       <c r="J156" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19445,48 +19417,32 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S156" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T156" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S156" s="3" t="inlineStr"/>
+      <c r="T156" s="3" t="inlineStr"/>
       <c r="U156" s="3" t="inlineStr"/>
       <c r="V156" s="3" t="inlineStr"/>
-      <c r="W156" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W156" s="3" t="inlineStr"/>
       <c r="X156" s="3" t="inlineStr"/>
       <c r="Y156" s="3" t="inlineStr"/>
       <c r="Z156" s="3" t="inlineStr"/>
-      <c r="AA156" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA156" s="3" t="inlineStr"/>
       <c r="AB156" s="3" t="inlineStr"/>
       <c r="AC156" s="3" t="inlineStr"/>
       <c r="AD156" s="3" t="inlineStr"/>
-      <c r="AE156" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE156" s="3" t="inlineStr"/>
       <c r="AF156" s="3" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Amazon WorkSpaces</t>
-        </is>
-      </c>
-      <c r="B157" s="3" t="inlineStr"/>
+          <t>AWS Cloud9</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19517,13 +19473,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I157" s="3" t="inlineStr"/>
+      <c r="I157" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J157" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K157" s="3" t="inlineStr"/>
+      <c r="K157" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L157" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19534,18 +19498,22 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N157" s="3" t="inlineStr"/>
+      <c r="N157" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O157" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q157" s="3" t="inlineStr"/>
+      <c r="P157" s="3" t="inlineStr"/>
+      <c r="Q157" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R157" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19556,7 +19524,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T157" s="3" t="inlineStr"/>
+      <c r="T157" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U157" s="3" t="inlineStr"/>
       <c r="V157" s="3" t="inlineStr"/>
       <c r="W157" s="2" t="inlineStr">
@@ -19567,25 +19539,25 @@
       <c r="X157" s="3" t="inlineStr"/>
       <c r="Y157" s="3" t="inlineStr"/>
       <c r="Z157" s="3" t="inlineStr"/>
-      <c r="AA157" s="3" t="inlineStr"/>
+      <c r="AA157" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB157" s="3" t="inlineStr"/>
-      <c r="AC157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC157" s="3" t="inlineStr"/>
       <c r="AD157" s="3" t="inlineStr"/>
-      <c r="AE157" s="3" t="inlineStr"/>
-      <c r="AF157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE157" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF157" s="3" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Amazon Managed Blockchain</t>
+          <t>Amazon WorkSpaces</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr"/>
@@ -19599,9 +19571,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E158" s="3" t="inlineStr"/>
-      <c r="F158" s="3" t="inlineStr"/>
-      <c r="G158" s="3" t="inlineStr"/>
+      <c r="E158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H158" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19619,7 +19603,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M158" s="3" t="inlineStr"/>
+      <c r="M158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N158" s="3" t="inlineStr"/>
       <c r="O158" s="2" t="inlineStr">
         <is>
@@ -19632,33 +19620,49 @@
         </is>
       </c>
       <c r="Q158" s="3" t="inlineStr"/>
-      <c r="R158" s="3" t="inlineStr"/>
-      <c r="S158" s="3" t="inlineStr"/>
+      <c r="R158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T158" s="3" t="inlineStr"/>
       <c r="U158" s="3" t="inlineStr"/>
       <c r="V158" s="3" t="inlineStr"/>
-      <c r="W158" s="3" t="inlineStr"/>
+      <c r="W158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X158" s="3" t="inlineStr"/>
       <c r="Y158" s="3" t="inlineStr"/>
       <c r="Z158" s="3" t="inlineStr"/>
       <c r="AA158" s="3" t="inlineStr"/>
       <c r="AB158" s="3" t="inlineStr"/>
-      <c r="AC158" s="3" t="inlineStr"/>
+      <c r="AC158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD158" s="3" t="inlineStr"/>
       <c r="AE158" s="3" t="inlineStr"/>
-      <c r="AF158" s="3" t="inlineStr"/>
+      <c r="AF158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>AWS Snowball</t>
-        </is>
-      </c>
-      <c r="B159" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Managed Blockchain</t>
+        </is>
+      </c>
+      <c r="B159" s="3" t="inlineStr"/>
       <c r="C159" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19669,56 +19673,28 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E159" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F159" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G159" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E159" s="3" t="inlineStr"/>
+      <c r="F159" s="3" t="inlineStr"/>
+      <c r="G159" s="3" t="inlineStr"/>
       <c r="H159" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I159" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I159" s="3" t="inlineStr"/>
       <c r="J159" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K159" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K159" s="3" t="inlineStr"/>
       <c r="L159" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="M159" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N159" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="M159" s="3" t="inlineStr"/>
+      <c r="N159" s="3" t="inlineStr"/>
       <c r="O159" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19729,71 +19705,27 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q159" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R159" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S159" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T159" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U159" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q159" s="3" t="inlineStr"/>
+      <c r="R159" s="3" t="inlineStr"/>
+      <c r="S159" s="3" t="inlineStr"/>
+      <c r="T159" s="3" t="inlineStr"/>
+      <c r="U159" s="3" t="inlineStr"/>
       <c r="V159" s="3" t="inlineStr"/>
-      <c r="W159" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W159" s="3" t="inlineStr"/>
       <c r="X159" s="3" t="inlineStr"/>
-      <c r="Y159" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Y159" s="3" t="inlineStr"/>
       <c r="Z159" s="3" t="inlineStr"/>
-      <c r="AA159" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA159" s="3" t="inlineStr"/>
       <c r="AB159" s="3" t="inlineStr"/>
-      <c r="AC159" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD159" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC159" s="3" t="inlineStr"/>
+      <c r="AD159" s="3" t="inlineStr"/>
       <c r="AE159" s="3" t="inlineStr"/>
-      <c r="AF159" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF159" s="3" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>AWS Database Migration Service</t>
+          <t>AWS Snowball</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
@@ -19896,41 +19828,25 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="V160" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V160" s="3" t="inlineStr"/>
       <c r="W160" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X160" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X160" s="3" t="inlineStr"/>
       <c r="Y160" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Z160" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Z160" s="3" t="inlineStr"/>
       <c r="AA160" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB160" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB160" s="3" t="inlineStr"/>
       <c r="AC160" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19941,11 +19857,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AE160" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE160" s="3" t="inlineStr"/>
       <c r="AF160" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19955,7 +19867,7 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>AWS Serverless Application Repository</t>
+          <t>AWS Database Migration Service</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
@@ -20048,25 +19960,61 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T161" s="3" t="inlineStr"/>
+      <c r="T161" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U161" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V161" s="3" t="inlineStr"/>
-      <c r="W161" s="3" t="inlineStr"/>
-      <c r="X161" s="3" t="inlineStr"/>
-      <c r="Y161" s="3" t="inlineStr"/>
-      <c r="Z161" s="3" t="inlineStr"/>
-      <c r="AA161" s="3" t="inlineStr"/>
-      <c r="AB161" s="3" t="inlineStr"/>
+      <c r="V161" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W161" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X161" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y161" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z161" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA161" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB161" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC161" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD161" s="3" t="inlineStr"/>
+      <c r="AD161" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE161" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20081,10 +20029,14 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Amazon Pinpoint</t>
-        </is>
-      </c>
-      <c r="B162" s="3" t="inlineStr"/>
+          <t>AWS Serverless Application Repository</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20115,7 +20067,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I162" s="3" t="inlineStr"/>
+      <c r="I162" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J162" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20136,7 +20092,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N162" s="3" t="inlineStr"/>
+      <c r="N162" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O162" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20147,15 +20107,27 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q162" s="3" t="inlineStr"/>
+      <c r="Q162" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R162" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S162" s="3" t="inlineStr"/>
+      <c r="S162" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T162" s="3" t="inlineStr"/>
-      <c r="U162" s="3" t="inlineStr"/>
+      <c r="U162" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V162" s="3" t="inlineStr"/>
       <c r="W162" s="3" t="inlineStr"/>
       <c r="X162" s="3" t="inlineStr"/>
@@ -20163,22 +20135,30 @@
       <c r="Z162" s="3" t="inlineStr"/>
       <c r="AA162" s="3" t="inlineStr"/>
       <c r="AB162" s="3" t="inlineStr"/>
-      <c r="AC162" s="3" t="inlineStr"/>
+      <c r="AC162" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD162" s="3" t="inlineStr"/>
-      <c r="AE162" s="3" t="inlineStr"/>
-      <c r="AF162" s="3" t="inlineStr"/>
+      <c r="AE162" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF162" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>AWS Elastic Beanstalk</t>
-        </is>
-      </c>
-      <c r="B163" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Pinpoint</t>
+        </is>
+      </c>
+      <c r="B163" s="3" t="inlineStr"/>
       <c r="C163" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20209,11 +20189,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I163" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I163" s="3" t="inlineStr"/>
       <c r="J163" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20234,11 +20210,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N163" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N163" s="3" t="inlineStr"/>
       <c r="O163" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20249,71 +20221,31 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q163" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q163" s="3" t="inlineStr"/>
       <c r="R163" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S163" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T163" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U163" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S163" s="3" t="inlineStr"/>
+      <c r="T163" s="3" t="inlineStr"/>
+      <c r="U163" s="3" t="inlineStr"/>
       <c r="V163" s="3" t="inlineStr"/>
-      <c r="W163" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W163" s="3" t="inlineStr"/>
       <c r="X163" s="3" t="inlineStr"/>
-      <c r="Y163" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Y163" s="3" t="inlineStr"/>
       <c r="Z163" s="3" t="inlineStr"/>
-      <c r="AA163" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA163" s="3" t="inlineStr"/>
       <c r="AB163" s="3" t="inlineStr"/>
-      <c r="AC163" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC163" s="3" t="inlineStr"/>
       <c r="AD163" s="3" t="inlineStr"/>
-      <c r="AE163" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF163" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE163" s="3" t="inlineStr"/>
+      <c r="AF163" s="3" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Amazon Transcribe</t>
+          <t>AWS Elastic Beanstalk</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
@@ -20406,7 +20338,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T164" s="3" t="inlineStr"/>
+      <c r="T164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U164" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20419,9 +20355,17 @@
         </is>
       </c>
       <c r="X164" s="3" t="inlineStr"/>
-      <c r="Y164" s="3" t="inlineStr"/>
+      <c r="Y164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z164" s="3" t="inlineStr"/>
-      <c r="AA164" s="3" t="inlineStr"/>
+      <c r="AA164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB164" s="3" t="inlineStr"/>
       <c r="AC164" s="2" t="inlineStr">
         <is>
@@ -20443,7 +20387,7 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>AWS Organizations</t>
+          <t>Amazon Transcribe</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
@@ -20536,61 +20480,29 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T165" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T165" s="3" t="inlineStr"/>
       <c r="U165" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V165" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V165" s="3" t="inlineStr"/>
       <c r="W165" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X165" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y165" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z165" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA165" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB165" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X165" s="3" t="inlineStr"/>
+      <c r="Y165" s="3" t="inlineStr"/>
+      <c r="Z165" s="3" t="inlineStr"/>
+      <c r="AA165" s="3" t="inlineStr"/>
+      <c r="AB165" s="3" t="inlineStr"/>
       <c r="AC165" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD165" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD165" s="3" t="inlineStr"/>
       <c r="AE165" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20605,7 +20517,7 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Amazon Macie</t>
+          <t>AWS Organizations</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
@@ -20678,7 +20590,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P166" s="3" t="inlineStr"/>
+      <c r="P166" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q166" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20699,30 +20615,66 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U166" s="3" t="inlineStr"/>
-      <c r="V166" s="3" t="inlineStr"/>
+      <c r="U166" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V166" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W166" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X166" s="3" t="inlineStr"/>
-      <c r="Y166" s="3" t="inlineStr"/>
-      <c r="Z166" s="3" t="inlineStr"/>
+      <c r="X166" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y166" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z166" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA166" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB166" s="3" t="inlineStr"/>
-      <c r="AC166" s="3" t="inlineStr"/>
-      <c r="AD166" s="3" t="inlineStr"/>
+      <c r="AB166" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC166" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD166" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE166" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AF166" s="3" t="inlineStr"/>
+      <c r="AF166" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -21407,13 +21359,29 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>AWS Verified Access</t>
-        </is>
-      </c>
-      <c r="B173" s="3" t="inlineStr"/>
-      <c r="C173" s="3" t="inlineStr"/>
-      <c r="D173" s="3" t="inlineStr"/>
-      <c r="E173" s="3" t="inlineStr"/>
+          <t>AWS Support</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F173" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21429,7 +21397,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I173" s="3" t="inlineStr"/>
+      <c r="I173" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J173" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21440,19 +21412,31 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L173" s="3" t="inlineStr"/>
+      <c r="L173" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M173" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N173" s="3" t="inlineStr"/>
+      <c r="N173" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O173" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P173" s="3" t="inlineStr"/>
+      <c r="P173" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q173" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21468,24 +21452,76 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T173" s="3" t="inlineStr"/>
-      <c r="U173" s="3" t="inlineStr"/>
-      <c r="V173" s="3" t="inlineStr"/>
-      <c r="W173" s="3" t="inlineStr"/>
-      <c r="X173" s="3" t="inlineStr"/>
-      <c r="Y173" s="3" t="inlineStr"/>
-      <c r="Z173" s="3" t="inlineStr"/>
-      <c r="AA173" s="3" t="inlineStr"/>
-      <c r="AB173" s="3" t="inlineStr"/>
-      <c r="AC173" s="3" t="inlineStr"/>
-      <c r="AD173" s="3" t="inlineStr"/>
-      <c r="AE173" s="3" t="inlineStr"/>
-      <c r="AF173" s="3" t="inlineStr"/>
+      <c r="T173" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U173" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V173" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W173" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X173" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y173" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z173" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA173" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB173" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC173" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD173" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE173" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF173" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>AWS Support</t>
+          <t>Amazon Simple Notification Service (SNS)</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
@@ -21647,7 +21683,7 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Amazon Simple Notification Service (SNS)</t>
+          <t>AWS IoT Device Management</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
@@ -21740,51 +21776,19 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T175" s="3" t="inlineStr"/>
       <c r="U175" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V175" s="3" t="inlineStr"/>
+      <c r="W175" s="3" t="inlineStr"/>
+      <c r="X175" s="3" t="inlineStr"/>
+      <c r="Y175" s="3" t="inlineStr"/>
+      <c r="Z175" s="3" t="inlineStr"/>
+      <c r="AA175" s="3" t="inlineStr"/>
+      <c r="AB175" s="3" t="inlineStr"/>
       <c r="AC175" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21809,7 +21813,7 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>AWS IoT Device Management</t>
+          <t>Amazon Macie</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
@@ -21882,11 +21886,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P176" s="3" t="inlineStr"/>
       <c r="Q176" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21902,39 +21902,35 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T176" s="3" t="inlineStr"/>
-      <c r="U176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U176" s="3" t="inlineStr"/>
       <c r="V176" s="3" t="inlineStr"/>
-      <c r="W176" s="3" t="inlineStr"/>
+      <c r="W176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X176" s="3" t="inlineStr"/>
       <c r="Y176" s="3" t="inlineStr"/>
       <c r="Z176" s="3" t="inlineStr"/>
-      <c r="AA176" s="3" t="inlineStr"/>
+      <c r="AA176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB176" s="3" t="inlineStr"/>
-      <c r="AC176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC176" s="3" t="inlineStr"/>
+      <c r="AD176" s="3" t="inlineStr"/>
       <c r="AE176" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AF176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF176" s="3" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -22327,29 +22323,13 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>AWS VPN</t>
-        </is>
-      </c>
-      <c r="B181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Verified Access</t>
+        </is>
+      </c>
+      <c r="B181" s="3" t="inlineStr"/>
+      <c r="C181" s="3" t="inlineStr"/>
+      <c r="D181" s="3" t="inlineStr"/>
+      <c r="E181" s="3" t="inlineStr"/>
       <c r="F181" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22365,11 +22345,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I181" s="3" t="inlineStr"/>
       <c r="J181" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22380,31 +22356,19 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L181" s="3" t="inlineStr"/>
       <c r="M181" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N181" s="3" t="inlineStr"/>
       <c r="O181" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P181" s="3" t="inlineStr"/>
       <c r="Q181" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22420,68 +22384,24 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T181" s="3" t="inlineStr"/>
       <c r="U181" s="3" t="inlineStr"/>
-      <c r="V181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V181" s="3" t="inlineStr"/>
+      <c r="W181" s="3" t="inlineStr"/>
+      <c r="X181" s="3" t="inlineStr"/>
+      <c r="Y181" s="3" t="inlineStr"/>
+      <c r="Z181" s="3" t="inlineStr"/>
+      <c r="AA181" s="3" t="inlineStr"/>
+      <c r="AB181" s="3" t="inlineStr"/>
       <c r="AC181" s="3" t="inlineStr"/>
-      <c r="AD181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD181" s="3" t="inlineStr"/>
+      <c r="AE181" s="3" t="inlineStr"/>
+      <c r="AF181" s="3" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>AWS Storage Gateway</t>
+          <t>AWS VPN</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
@@ -22579,11 +22499,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U182" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U182" s="3" t="inlineStr"/>
       <c r="V182" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22619,11 +22535,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AC182" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC182" s="3" t="inlineStr"/>
       <c r="AD182" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22643,10 +22555,14 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>AWS Mainframe Modernization</t>
-        </is>
-      </c>
-      <c r="B183" s="3" t="inlineStr"/>
+          <t>AWS Storage Gateway</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22702,13 +22618,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N183" s="3" t="inlineStr"/>
+      <c r="N183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O183" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P183" s="3" t="inlineStr"/>
+      <c r="P183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q183" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22724,31 +22648,79 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T183" s="3" t="inlineStr"/>
-      <c r="U183" s="3" t="inlineStr"/>
-      <c r="V183" s="3" t="inlineStr"/>
-      <c r="W183" s="3" t="inlineStr"/>
-      <c r="X183" s="3" t="inlineStr"/>
-      <c r="Y183" s="3" t="inlineStr"/>
-      <c r="Z183" s="3" t="inlineStr"/>
-      <c r="AA183" s="3" t="inlineStr"/>
-      <c r="AB183" s="3" t="inlineStr"/>
-      <c r="AC183" s="3" t="inlineStr"/>
-      <c r="AD183" s="3" t="inlineStr"/>
-      <c r="AE183" s="3" t="inlineStr"/>
-      <c r="AF183" s="3" t="inlineStr"/>
+      <c r="T183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>Amazon EC2 Auto Scaling</t>
-        </is>
-      </c>
-      <c r="B184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Mainframe Modernization</t>
+        </is>
+      </c>
+      <c r="B184" s="3" t="inlineStr"/>
       <c r="C184" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22804,21 +22776,13 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N184" s="3" t="inlineStr"/>
       <c r="O184" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P184" s="3" t="inlineStr"/>
       <c r="Q184" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22834,71 +22798,19 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T184" s="3" t="inlineStr"/>
+      <c r="U184" s="3" t="inlineStr"/>
+      <c r="V184" s="3" t="inlineStr"/>
+      <c r="W184" s="3" t="inlineStr"/>
+      <c r="X184" s="3" t="inlineStr"/>
+      <c r="Y184" s="3" t="inlineStr"/>
+      <c r="Z184" s="3" t="inlineStr"/>
+      <c r="AA184" s="3" t="inlineStr"/>
+      <c r="AB184" s="3" t="inlineStr"/>
+      <c r="AC184" s="3" t="inlineStr"/>
+      <c r="AD184" s="3" t="inlineStr"/>
+      <c r="AE184" s="3" t="inlineStr"/>
+      <c r="AF184" s="3" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -23571,7 +23483,7 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for Lustre</t>
+          <t>Amazon EC2 Auto Scaling</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
@@ -23733,7 +23645,7 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>AWS AppSync</t>
+          <t>Amazon FSx for Lustre</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
@@ -23806,7 +23718,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P192" s="3" t="inlineStr"/>
+      <c r="P192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q192" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23852,7 +23768,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z192" s="3" t="inlineStr"/>
+      <c r="Z192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA192" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23878,191 +23798,211 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AF192" s="3" t="inlineStr"/>
+      <c r="AF192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>AWS Wickr</t>
-        </is>
-      </c>
-      <c r="B193" s="3" t="inlineStr"/>
-      <c r="C193" s="3" t="inlineStr"/>
-      <c r="D193" s="3" t="inlineStr"/>
-      <c r="E193" s="3" t="inlineStr"/>
-      <c r="F193" s="3" t="inlineStr"/>
+          <t>AWS AppSync</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="G193" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="H193" s="3" t="inlineStr"/>
-      <c r="I193" s="3" t="inlineStr"/>
+      <c r="H193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J193" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K193" s="3" t="inlineStr"/>
-      <c r="L193" s="3" t="inlineStr"/>
-      <c r="M193" s="3" t="inlineStr"/>
-      <c r="N193" s="3" t="inlineStr"/>
-      <c r="O193" s="3" t="inlineStr"/>
-      <c r="P193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q193" s="3" t="inlineStr"/>
-      <c r="R193" s="3" t="inlineStr"/>
-      <c r="S193" s="3" t="inlineStr"/>
-      <c r="T193" s="3" t="inlineStr"/>
-      <c r="U193" s="3" t="inlineStr"/>
-      <c r="V193" s="3" t="inlineStr"/>
-      <c r="W193" s="3" t="inlineStr"/>
-      <c r="X193" s="3" t="inlineStr"/>
-      <c r="Y193" s="3" t="inlineStr"/>
+      <c r="K193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P193" s="3" t="inlineStr"/>
+      <c r="Q193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z193" s="3" t="inlineStr"/>
-      <c r="AA193" s="3" t="inlineStr"/>
-      <c r="AB193" s="3" t="inlineStr"/>
-      <c r="AC193" s="3" t="inlineStr"/>
-      <c r="AD193" s="3" t="inlineStr"/>
-      <c r="AE193" s="3" t="inlineStr"/>
+      <c r="AA193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF193" s="3" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>AWS Server Migration Service (SMS)</t>
-        </is>
-      </c>
-      <c r="B194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Wickr</t>
+        </is>
+      </c>
+      <c r="B194" s="3" t="inlineStr"/>
+      <c r="C194" s="3" t="inlineStr"/>
+      <c r="D194" s="3" t="inlineStr"/>
+      <c r="E194" s="3" t="inlineStr"/>
+      <c r="F194" s="3" t="inlineStr"/>
       <c r="G194" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="H194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="H194" s="3" t="inlineStr"/>
+      <c r="I194" s="3" t="inlineStr"/>
       <c r="J194" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K194" s="3" t="inlineStr"/>
+      <c r="L194" s="3" t="inlineStr"/>
+      <c r="M194" s="3" t="inlineStr"/>
+      <c r="N194" s="3" t="inlineStr"/>
+      <c r="O194" s="3" t="inlineStr"/>
       <c r="P194" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Q194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q194" s="3" t="inlineStr"/>
+      <c r="R194" s="3" t="inlineStr"/>
+      <c r="S194" s="3" t="inlineStr"/>
       <c r="T194" s="3" t="inlineStr"/>
-      <c r="U194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U194" s="3" t="inlineStr"/>
       <c r="V194" s="3" t="inlineStr"/>
-      <c r="W194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W194" s="3" t="inlineStr"/>
       <c r="X194" s="3" t="inlineStr"/>
       <c r="Y194" s="3" t="inlineStr"/>
       <c r="Z194" s="3" t="inlineStr"/>
-      <c r="AA194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA194" s="3" t="inlineStr"/>
       <c r="AB194" s="3" t="inlineStr"/>
-      <c r="AC194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC194" s="3" t="inlineStr"/>
       <c r="AD194" s="3" t="inlineStr"/>
-      <c r="AE194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE194" s="3" t="inlineStr"/>
+      <c r="AF194" s="3" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -24831,13 +24771,29 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>Amazon Comprehend Medical</t>
-        </is>
-      </c>
-      <c r="B201" s="3" t="inlineStr"/>
-      <c r="C201" s="3" t="inlineStr"/>
-      <c r="D201" s="3" t="inlineStr"/>
-      <c r="E201" s="3" t="inlineStr"/>
+          <t>AWS Server Migration Service (SMS)</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F201" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24853,7 +24809,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I201" s="3" t="inlineStr"/>
+      <c r="I201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J201" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24864,9 +24824,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L201" s="3" t="inlineStr"/>
-      <c r="M201" s="3" t="inlineStr"/>
-      <c r="N201" s="3" t="inlineStr"/>
+      <c r="L201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O201" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24877,26 +24849,58 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q201" s="3" t="inlineStr"/>
+      <c r="Q201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R201" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S201" s="3" t="inlineStr"/>
+      <c r="S201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T201" s="3" t="inlineStr"/>
-      <c r="U201" s="3" t="inlineStr"/>
+      <c r="U201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V201" s="3" t="inlineStr"/>
-      <c r="W201" s="3" t="inlineStr"/>
+      <c r="W201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X201" s="3" t="inlineStr"/>
       <c r="Y201" s="3" t="inlineStr"/>
       <c r="Z201" s="3" t="inlineStr"/>
-      <c r="AA201" s="3" t="inlineStr"/>
+      <c r="AA201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB201" s="3" t="inlineStr"/>
-      <c r="AC201" s="3" t="inlineStr"/>
+      <c r="AC201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD201" s="3" t="inlineStr"/>
-      <c r="AE201" s="3" t="inlineStr"/>
-      <c r="AF201" s="3" t="inlineStr"/>
+      <c r="AE201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -25505,57 +25509,169 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>Amazon WorkMail</t>
-        </is>
-      </c>
-      <c r="B208" s="3" t="inlineStr"/>
-      <c r="C208" s="3" t="inlineStr"/>
-      <c r="D208" s="3" t="inlineStr"/>
-      <c r="E208" s="3" t="inlineStr"/>
-      <c r="F208" s="3" t="inlineStr"/>
-      <c r="G208" s="3" t="inlineStr"/>
-      <c r="H208" s="3" t="inlineStr"/>
-      <c r="I208" s="3" t="inlineStr"/>
+          <t>AWS Security Hub</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J208" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K208" s="3" t="inlineStr"/>
-      <c r="L208" s="3" t="inlineStr"/>
-      <c r="M208" s="3" t="inlineStr"/>
-      <c r="N208" s="3" t="inlineStr"/>
+      <c r="K208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O208" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P208" s="3" t="inlineStr"/>
-      <c r="Q208" s="3" t="inlineStr"/>
+      <c r="P208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R208" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S208" s="3" t="inlineStr"/>
-      <c r="T208" s="3" t="inlineStr"/>
-      <c r="U208" s="3" t="inlineStr"/>
-      <c r="V208" s="3" t="inlineStr"/>
-      <c r="W208" s="3" t="inlineStr"/>
-      <c r="X208" s="3" t="inlineStr"/>
-      <c r="Y208" s="3" t="inlineStr"/>
-      <c r="Z208" s="3" t="inlineStr"/>
-      <c r="AA208" s="3" t="inlineStr"/>
-      <c r="AB208" s="3" t="inlineStr"/>
-      <c r="AC208" s="3" t="inlineStr"/>
-      <c r="AD208" s="3" t="inlineStr"/>
-      <c r="AE208" s="3" t="inlineStr"/>
-      <c r="AF208" s="3" t="inlineStr"/>
+      <c r="S208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>AWS Security Hub</t>
+          <t>Amazon FSx for OpenZFS</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
@@ -25593,11 +25709,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I209" s="3" t="inlineStr"/>
       <c r="J209" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25628,118 +25740,38 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P209" s="3" t="inlineStr"/>
+      <c r="Q209" s="3" t="inlineStr"/>
       <c r="R209" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S209" s="3" t="inlineStr"/>
+      <c r="T209" s="3" t="inlineStr"/>
+      <c r="U209" s="3" t="inlineStr"/>
+      <c r="V209" s="3" t="inlineStr"/>
+      <c r="W209" s="3" t="inlineStr"/>
+      <c r="X209" s="3" t="inlineStr"/>
+      <c r="Y209" s="3" t="inlineStr"/>
+      <c r="Z209" s="3" t="inlineStr"/>
+      <c r="AA209" s="3" t="inlineStr"/>
+      <c r="AB209" s="3" t="inlineStr"/>
+      <c r="AC209" s="3" t="inlineStr"/>
+      <c r="AD209" s="3" t="inlineStr"/>
+      <c r="AE209" s="3" t="inlineStr"/>
+      <c r="AF209" s="3" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for OpenZFS</t>
-        </is>
-      </c>
-      <c r="B210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Comprehend Medical</t>
+        </is>
+      </c>
+      <c r="B210" s="3" t="inlineStr"/>
+      <c r="C210" s="3" t="inlineStr"/>
+      <c r="D210" s="3" t="inlineStr"/>
+      <c r="E210" s="3" t="inlineStr"/>
       <c r="F210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25766,27 +25798,19 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L210" s="3" t="inlineStr"/>
+      <c r="M210" s="3" t="inlineStr"/>
+      <c r="N210" s="3" t="inlineStr"/>
       <c r="O210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P210" s="3" t="inlineStr"/>
+      <c r="P210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q210" s="3" t="inlineStr"/>
       <c r="R210" s="2" t="inlineStr">
         <is>
@@ -26563,164 +26587,52 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>AWS Lambda</t>
-        </is>
-      </c>
-      <c r="B217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon WorkMail</t>
+        </is>
+      </c>
+      <c r="B217" s="3" t="inlineStr"/>
+      <c r="C217" s="3" t="inlineStr"/>
+      <c r="D217" s="3" t="inlineStr"/>
+      <c r="E217" s="3" t="inlineStr"/>
+      <c r="F217" s="3" t="inlineStr"/>
+      <c r="G217" s="3" t="inlineStr"/>
+      <c r="H217" s="3" t="inlineStr"/>
+      <c r="I217" s="3" t="inlineStr"/>
       <c r="J217" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K217" s="3" t="inlineStr"/>
+      <c r="L217" s="3" t="inlineStr"/>
+      <c r="M217" s="3" t="inlineStr"/>
+      <c r="N217" s="3" t="inlineStr"/>
       <c r="O217" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P217" s="3" t="inlineStr"/>
+      <c r="Q217" s="3" t="inlineStr"/>
       <c r="R217" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S217" s="3" t="inlineStr"/>
+      <c r="T217" s="3" t="inlineStr"/>
+      <c r="U217" s="3" t="inlineStr"/>
+      <c r="V217" s="3" t="inlineStr"/>
+      <c r="W217" s="3" t="inlineStr"/>
+      <c r="X217" s="3" t="inlineStr"/>
+      <c r="Y217" s="3" t="inlineStr"/>
+      <c r="Z217" s="3" t="inlineStr"/>
+      <c r="AA217" s="3" t="inlineStr"/>
+      <c r="AB217" s="3" t="inlineStr"/>
+      <c r="AC217" s="3" t="inlineStr"/>
+      <c r="AD217" s="3" t="inlineStr"/>
+      <c r="AE217" s="3" t="inlineStr"/>
+      <c r="AF217" s="3" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -27117,10 +27029,14 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaStore</t>
-        </is>
-      </c>
-      <c r="B222" s="3" t="inlineStr"/>
+          <t>AWS Lambda</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27131,26 +27047,46 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E222" s="3" t="inlineStr"/>
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G222" s="3" t="inlineStr"/>
+      <c r="G222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H222" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I222" s="3" t="inlineStr"/>
+      <c r="I222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K222" s="3" t="inlineStr"/>
-      <c r="L222" s="3" t="inlineStr"/>
+      <c r="K222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M222" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27166,39 +27102,99 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P222" s="3" t="inlineStr"/>
-      <c r="Q222" s="3" t="inlineStr"/>
+      <c r="P222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R222" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S222" s="3" t="inlineStr"/>
-      <c r="T222" s="3" t="inlineStr"/>
-      <c r="U222" s="3" t="inlineStr"/>
-      <c r="V222" s="3" t="inlineStr"/>
-      <c r="W222" s="3" t="inlineStr"/>
-      <c r="X222" s="3" t="inlineStr"/>
-      <c r="Y222" s="3" t="inlineStr"/>
-      <c r="Z222" s="3" t="inlineStr"/>
-      <c r="AA222" s="3" t="inlineStr"/>
-      <c r="AB222" s="3" t="inlineStr"/>
-      <c r="AC222" s="3" t="inlineStr"/>
-      <c r="AD222" s="3" t="inlineStr"/>
-      <c r="AE222" s="3" t="inlineStr"/>
-      <c r="AF222" s="3" t="inlineStr"/>
+      <c r="S222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>AWS Cloud Control API</t>
-        </is>
-      </c>
-      <c r="B223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Elemental MediaStore</t>
+        </is>
+      </c>
+      <c r="B223" s="3" t="inlineStr"/>
       <c r="C223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27209,46 +27205,26 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E223" s="3" t="inlineStr"/>
       <c r="F223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G223" s="3" t="inlineStr"/>
       <c r="H223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I223" s="3" t="inlineStr"/>
       <c r="J223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K223" s="3" t="inlineStr"/>
+      <c r="L223" s="3" t="inlineStr"/>
       <c r="M223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27264,96 +27240,32 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P223" s="3" t="inlineStr"/>
+      <c r="Q223" s="3" t="inlineStr"/>
       <c r="R223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S223" s="3" t="inlineStr"/>
+      <c r="T223" s="3" t="inlineStr"/>
+      <c r="U223" s="3" t="inlineStr"/>
+      <c r="V223" s="3" t="inlineStr"/>
+      <c r="W223" s="3" t="inlineStr"/>
+      <c r="X223" s="3" t="inlineStr"/>
+      <c r="Y223" s="3" t="inlineStr"/>
+      <c r="Z223" s="3" t="inlineStr"/>
+      <c r="AA223" s="3" t="inlineStr"/>
+      <c r="AB223" s="3" t="inlineStr"/>
+      <c r="AC223" s="3" t="inlineStr"/>
+      <c r="AD223" s="3" t="inlineStr"/>
+      <c r="AE223" s="3" t="inlineStr"/>
+      <c r="AF223" s="3" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for Windows File Server</t>
+          <t>AWS Cloud Control API</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
@@ -27515,73 +27427,169 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>AWS Application Discovery Service</t>
-        </is>
-      </c>
-      <c r="B225" s="3" t="inlineStr"/>
+          <t>Amazon FSx for Windows File Server</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D225" s="3" t="inlineStr"/>
-      <c r="E225" s="3" t="inlineStr"/>
+      <c r="D225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G225" s="3" t="inlineStr"/>
+      <c r="G225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I225" s="3" t="inlineStr"/>
+      <c r="I225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K225" s="3" t="inlineStr"/>
-      <c r="L225" s="3" t="inlineStr"/>
+      <c r="K225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N225" s="3" t="inlineStr"/>
+      <c r="N225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P225" s="3" t="inlineStr"/>
-      <c r="Q225" s="3" t="inlineStr"/>
+      <c r="P225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S225" s="3" t="inlineStr"/>
-      <c r="T225" s="3" t="inlineStr"/>
-      <c r="U225" s="3" t="inlineStr"/>
-      <c r="V225" s="3" t="inlineStr"/>
-      <c r="W225" s="3" t="inlineStr"/>
-      <c r="X225" s="3" t="inlineStr"/>
-      <c r="Y225" s="3" t="inlineStr"/>
-      <c r="Z225" s="3" t="inlineStr"/>
-      <c r="AA225" s="3" t="inlineStr"/>
-      <c r="AB225" s="3" t="inlineStr"/>
-      <c r="AC225" s="3" t="inlineStr"/>
-      <c r="AD225" s="3" t="inlineStr"/>
-      <c r="AE225" s="3" t="inlineStr"/>
-      <c r="AF225" s="3" t="inlineStr"/>
+      <c r="S225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>AWS App Runner</t>
+          <t>AWS Application Discovery Service</t>
         </is>
       </c>
       <c r="B226" s="3" t="inlineStr"/>
@@ -27598,23 +27606,19 @@
         </is>
       </c>
       <c r="G226" s="3" t="inlineStr"/>
-      <c r="H226" s="3" t="inlineStr"/>
+      <c r="H226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="I226" s="3" t="inlineStr"/>
       <c r="J226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K226" s="3" t="inlineStr"/>
+      <c r="L226" s="3" t="inlineStr"/>
       <c r="M226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27651,49 +27655,25 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>Amazon Elastic Container Service (ECS)</t>
-        </is>
-      </c>
-      <c r="B227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS App Runner</t>
+        </is>
+      </c>
+      <c r="B227" s="3" t="inlineStr"/>
       <c r="C227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D227" s="3" t="inlineStr"/>
+      <c r="E227" s="3" t="inlineStr"/>
       <c r="F227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G227" s="3" t="inlineStr"/>
+      <c r="H227" s="3" t="inlineStr"/>
+      <c r="I227" s="3" t="inlineStr"/>
       <c r="J227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27714,106 +27694,38 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N227" s="3" t="inlineStr"/>
       <c r="O227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P227" s="3" t="inlineStr"/>
+      <c r="Q227" s="3" t="inlineStr"/>
       <c r="R227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S227" s="3" t="inlineStr"/>
+      <c r="T227" s="3" t="inlineStr"/>
+      <c r="U227" s="3" t="inlineStr"/>
+      <c r="V227" s="3" t="inlineStr"/>
+      <c r="W227" s="3" t="inlineStr"/>
+      <c r="X227" s="3" t="inlineStr"/>
+      <c r="Y227" s="3" t="inlineStr"/>
+      <c r="Z227" s="3" t="inlineStr"/>
+      <c r="AA227" s="3" t="inlineStr"/>
+      <c r="AB227" s="3" t="inlineStr"/>
+      <c r="AC227" s="3" t="inlineStr"/>
+      <c r="AD227" s="3" t="inlineStr"/>
+      <c r="AE227" s="3" t="inlineStr"/>
+      <c r="AF227" s="3" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>AWS CodeBuild</t>
+          <t>Amazon Elastic Container Service (ECS)</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
@@ -27975,10 +27887,14 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>Amazon Chime SDK</t>
-        </is>
-      </c>
-      <c r="B229" s="3" t="inlineStr"/>
+          <t>AWS CodeBuild</t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28064,26 +27980,66 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T229" s="3" t="inlineStr"/>
-      <c r="U229" s="3" t="inlineStr"/>
-      <c r="V229" s="3" t="inlineStr"/>
+      <c r="T229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X229" s="3" t="inlineStr"/>
-      <c r="Y229" s="3" t="inlineStr"/>
-      <c r="Z229" s="3" t="inlineStr"/>
+      <c r="X229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB229" s="3" t="inlineStr"/>
-      <c r="AC229" s="3" t="inlineStr"/>
-      <c r="AD229" s="3" t="inlineStr"/>
-      <c r="AE229" s="3" t="inlineStr"/>
+      <c r="AB229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28093,48 +28049,166 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>AWS Cost Explorer</t>
+          <t>Amazon Chime SDK</t>
         </is>
       </c>
       <c r="B230" s="3" t="inlineStr"/>
-      <c r="C230" s="3" t="inlineStr"/>
-      <c r="D230" s="3" t="inlineStr"/>
-      <c r="E230" s="3" t="inlineStr"/>
-      <c r="F230" s="3" t="inlineStr"/>
-      <c r="G230" s="3" t="inlineStr"/>
-      <c r="H230" s="3" t="inlineStr"/>
-      <c r="I230" s="3" t="inlineStr"/>
+      <c r="C230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J230" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K230" s="3" t="inlineStr"/>
-      <c r="L230" s="3" t="inlineStr"/>
-      <c r="M230" s="3" t="inlineStr"/>
-      <c r="N230" s="3" t="inlineStr"/>
-      <c r="O230" s="3" t="inlineStr"/>
-      <c r="P230" s="3" t="inlineStr"/>
-      <c r="Q230" s="3" t="inlineStr"/>
-      <c r="R230" s="3" t="inlineStr"/>
-      <c r="S230" s="3" t="inlineStr"/>
+      <c r="K230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T230" s="3" t="inlineStr"/>
       <c r="U230" s="3" t="inlineStr"/>
       <c r="V230" s="3" t="inlineStr"/>
-      <c r="W230" s="3" t="inlineStr"/>
+      <c r="W230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X230" s="3" t="inlineStr"/>
       <c r="Y230" s="3" t="inlineStr"/>
       <c r="Z230" s="3" t="inlineStr"/>
-      <c r="AA230" s="3" t="inlineStr"/>
+      <c r="AA230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB230" s="3" t="inlineStr"/>
-      <c r="AC230" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC230" s="3" t="inlineStr"/>
       <c r="AD230" s="3" t="inlineStr"/>
       <c r="AE230" s="3" t="inlineStr"/>
-      <c r="AF230" s="3" t="inlineStr"/>
+      <c r="AF230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>AWS Cost Explorer</t>
+        </is>
+      </c>
+      <c r="B231" s="3" t="inlineStr"/>
+      <c r="C231" s="3" t="inlineStr"/>
+      <c r="D231" s="3" t="inlineStr"/>
+      <c r="E231" s="3" t="inlineStr"/>
+      <c r="F231" s="3" t="inlineStr"/>
+      <c r="G231" s="3" t="inlineStr"/>
+      <c r="H231" s="3" t="inlineStr"/>
+      <c r="I231" s="3" t="inlineStr"/>
+      <c r="J231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K231" s="3" t="inlineStr"/>
+      <c r="L231" s="3" t="inlineStr"/>
+      <c r="M231" s="3" t="inlineStr"/>
+      <c r="N231" s="3" t="inlineStr"/>
+      <c r="O231" s="3" t="inlineStr"/>
+      <c r="P231" s="3" t="inlineStr"/>
+      <c r="Q231" s="3" t="inlineStr"/>
+      <c r="R231" s="3" t="inlineStr"/>
+      <c r="S231" s="3" t="inlineStr"/>
+      <c r="T231" s="3" t="inlineStr"/>
+      <c r="U231" s="3" t="inlineStr"/>
+      <c r="V231" s="3" t="inlineStr"/>
+      <c r="W231" s="3" t="inlineStr"/>
+      <c r="X231" s="3" t="inlineStr"/>
+      <c r="Y231" s="3" t="inlineStr"/>
+      <c r="Z231" s="3" t="inlineStr"/>
+      <c r="AA231" s="3" t="inlineStr"/>
+      <c r="AB231" s="3" t="inlineStr"/>
+      <c r="AC231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD231" s="3" t="inlineStr"/>
+      <c r="AE231" s="3" t="inlineStr"/>
+      <c r="AF231" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -2236,7 +2236,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="X15" s="3" t="inlineStr"/>
+      <c r="X15" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Y15" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -8130,13 +8134,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="X66" s="3" t="inlineStr"/>
+      <c r="X66" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Y66" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Z66" s="3" t="inlineStr"/>
+      <c r="Z66" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA66" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -6274,7 +6274,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="X50" s="3" t="inlineStr"/>
+      <c r="X50" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Y50" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -6292,7 +6296,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD50" s="3" t="inlineStr"/>
+      <c r="AD50" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE50" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -6406,7 +6414,11 @@
         </is>
       </c>
       <c r="U51" s="3" t="inlineStr"/>
-      <c r="V51" s="3" t="inlineStr"/>
+      <c r="V51" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W51" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -6414,7 +6426,11 @@
       </c>
       <c r="X51" s="3" t="inlineStr"/>
       <c r="Y51" s="3" t="inlineStr"/>
-      <c r="Z51" s="3" t="inlineStr"/>
+      <c r="Z51" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA51" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -7451,7 +7451,11 @@
         </is>
       </c>
       <c r="X60" s="3" t="inlineStr"/>
-      <c r="Y60" s="3" t="inlineStr"/>
+      <c r="Y60" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z60" s="3" t="inlineStr"/>
       <c r="AA60" s="3" t="inlineStr"/>
       <c r="AB60" s="3" t="inlineStr"/>
@@ -21147,14 +21151,10 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>AWS Key Management Service</t>
-        </is>
-      </c>
-      <c r="B171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Forecast</t>
+        </is>
+      </c>
+      <c r="B171" s="3" t="inlineStr"/>
       <c r="C171" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21175,21 +21175,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G171" s="3" t="inlineStr"/>
+      <c r="H171" s="3" t="inlineStr"/>
+      <c r="I171" s="3" t="inlineStr"/>
       <c r="J171" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21210,109 +21198,45 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N171" s="3" t="inlineStr"/>
       <c r="O171" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P171" s="3" t="inlineStr"/>
+      <c r="Q171" s="3" t="inlineStr"/>
       <c r="R171" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S171" s="3" t="inlineStr"/>
+      <c r="T171" s="3" t="inlineStr"/>
+      <c r="U171" s="3" t="inlineStr"/>
+      <c r="V171" s="3" t="inlineStr"/>
+      <c r="W171" s="3" t="inlineStr"/>
+      <c r="X171" s="3" t="inlineStr"/>
+      <c r="Y171" s="3" t="inlineStr"/>
+      <c r="Z171" s="3" t="inlineStr"/>
+      <c r="AA171" s="3" t="inlineStr"/>
+      <c r="AB171" s="3" t="inlineStr"/>
+      <c r="AC171" s="3" t="inlineStr"/>
+      <c r="AD171" s="3" t="inlineStr"/>
+      <c r="AE171" s="3" t="inlineStr"/>
+      <c r="AF171" s="3" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Amazon Forecast</t>
-        </is>
-      </c>
-      <c r="B172" s="3" t="inlineStr"/>
+          <t>AWS Support</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21333,9 +21257,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G172" s="3" t="inlineStr"/>
-      <c r="H172" s="3" t="inlineStr"/>
-      <c r="I172" s="3" t="inlineStr"/>
+      <c r="G172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J172" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21356,38 +21292,106 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N172" s="3" t="inlineStr"/>
+      <c r="N172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O172" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P172" s="3" t="inlineStr"/>
-      <c r="Q172" s="3" t="inlineStr"/>
+      <c r="P172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R172" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S172" s="3" t="inlineStr"/>
-      <c r="T172" s="3" t="inlineStr"/>
-      <c r="U172" s="3" t="inlineStr"/>
-      <c r="V172" s="3" t="inlineStr"/>
-      <c r="W172" s="3" t="inlineStr"/>
-      <c r="X172" s="3" t="inlineStr"/>
-      <c r="Y172" s="3" t="inlineStr"/>
-      <c r="Z172" s="3" t="inlineStr"/>
-      <c r="AA172" s="3" t="inlineStr"/>
-      <c r="AB172" s="3" t="inlineStr"/>
-      <c r="AC172" s="3" t="inlineStr"/>
-      <c r="AD172" s="3" t="inlineStr"/>
-      <c r="AE172" s="3" t="inlineStr"/>
-      <c r="AF172" s="3" t="inlineStr"/>
+      <c r="S172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>AWS Support</t>
+          <t>Amazon Simple Notification Service (SNS)</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
@@ -21549,7 +21553,7 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Amazon Simple Notification Service (SNS)</t>
+          <t>AWS IoT Device Management</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
@@ -21642,51 +21646,19 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T174" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T174" s="3" t="inlineStr"/>
       <c r="U174" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V174" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W174" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X174" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y174" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z174" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA174" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB174" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V174" s="3" t="inlineStr"/>
+      <c r="W174" s="3" t="inlineStr"/>
+      <c r="X174" s="3" t="inlineStr"/>
+      <c r="Y174" s="3" t="inlineStr"/>
+      <c r="Z174" s="3" t="inlineStr"/>
+      <c r="AA174" s="3" t="inlineStr"/>
+      <c r="AB174" s="3" t="inlineStr"/>
       <c r="AC174" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21711,7 +21683,7 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>AWS IoT Device Management</t>
+          <t>Amazon Macie</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
@@ -21784,11 +21756,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P175" s="3" t="inlineStr"/>
       <c r="Q175" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21804,51 +21772,43 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T175" s="3" t="inlineStr"/>
-      <c r="U175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T175" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U175" s="3" t="inlineStr"/>
       <c r="V175" s="3" t="inlineStr"/>
-      <c r="W175" s="3" t="inlineStr"/>
+      <c r="W175" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X175" s="3" t="inlineStr"/>
       <c r="Y175" s="3" t="inlineStr"/>
       <c r="Z175" s="3" t="inlineStr"/>
-      <c r="AA175" s="3" t="inlineStr"/>
+      <c r="AA175" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB175" s="3" t="inlineStr"/>
-      <c r="AC175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC175" s="3" t="inlineStr"/>
+      <c r="AD175" s="3" t="inlineStr"/>
       <c r="AE175" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AF175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF175" s="3" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Amazon Macie</t>
-        </is>
-      </c>
-      <c r="B176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Managed Service for Prometheus</t>
+        </is>
+      </c>
+      <c r="B176" s="3" t="inlineStr"/>
       <c r="C176" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21869,11 +21829,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G176" s="3" t="inlineStr"/>
       <c r="H176" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21915,11 +21871,7 @@
         </is>
       </c>
       <c r="P176" s="3" t="inlineStr"/>
-      <c r="Q176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q176" s="3" t="inlineStr"/>
       <c r="R176" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21930,40 +21882,24 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T176" s="3" t="inlineStr"/>
       <c r="U176" s="3" t="inlineStr"/>
       <c r="V176" s="3" t="inlineStr"/>
-      <c r="W176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W176" s="3" t="inlineStr"/>
       <c r="X176" s="3" t="inlineStr"/>
       <c r="Y176" s="3" t="inlineStr"/>
       <c r="Z176" s="3" t="inlineStr"/>
-      <c r="AA176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA176" s="3" t="inlineStr"/>
       <c r="AB176" s="3" t="inlineStr"/>
       <c r="AC176" s="3" t="inlineStr"/>
       <c r="AD176" s="3" t="inlineStr"/>
-      <c r="AE176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE176" s="3" t="inlineStr"/>
       <c r="AF176" s="3" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Amazon Managed Service for Prometheus</t>
+          <t>Amazon Connect</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr"/>
@@ -21977,37 +21913,29 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E177" s="3" t="inlineStr"/>
       <c r="F177" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G177" s="3" t="inlineStr"/>
+      <c r="G177" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H177" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I177" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I177" s="3" t="inlineStr"/>
       <c r="J177" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K177" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K177" s="3" t="inlineStr"/>
       <c r="L177" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22018,32 +21946,28 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N177" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O177" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P177" s="3" t="inlineStr"/>
+      <c r="N177" s="3" t="inlineStr"/>
+      <c r="O177" s="3" t="inlineStr"/>
+      <c r="P177" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q177" s="3" t="inlineStr"/>
       <c r="R177" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S177" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S177" s="3" t="inlineStr"/>
       <c r="T177" s="3" t="inlineStr"/>
       <c r="U177" s="3" t="inlineStr"/>
       <c r="V177" s="3" t="inlineStr"/>
-      <c r="W177" s="3" t="inlineStr"/>
+      <c r="W177" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X177" s="3" t="inlineStr"/>
       <c r="Y177" s="3" t="inlineStr"/>
       <c r="Z177" s="3" t="inlineStr"/>
@@ -22057,60 +21981,40 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Amazon Connect</t>
+          <t>Amazon FinSpace</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr"/>
-      <c r="C178" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D178" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C178" s="3" t="inlineStr"/>
+      <c r="D178" s="3" t="inlineStr"/>
       <c r="E178" s="3" t="inlineStr"/>
-      <c r="F178" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="F178" s="3" t="inlineStr"/>
       <c r="G178" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="H178" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="H178" s="3" t="inlineStr"/>
       <c r="I178" s="3" t="inlineStr"/>
       <c r="J178" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K178" s="3" t="inlineStr"/>
-      <c r="L178" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M178" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L178" s="3" t="inlineStr"/>
+      <c r="M178" s="3" t="inlineStr"/>
       <c r="N178" s="3" t="inlineStr"/>
-      <c r="O178" s="3" t="inlineStr"/>
-      <c r="P178" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="O178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P178" s="3" t="inlineStr"/>
       <c r="Q178" s="3" t="inlineStr"/>
       <c r="R178" s="2" t="inlineStr">
         <is>
@@ -22121,11 +22025,7 @@
       <c r="T178" s="3" t="inlineStr"/>
       <c r="U178" s="3" t="inlineStr"/>
       <c r="V178" s="3" t="inlineStr"/>
-      <c r="W178" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W178" s="3" t="inlineStr"/>
       <c r="X178" s="3" t="inlineStr"/>
       <c r="Y178" s="3" t="inlineStr"/>
       <c r="Z178" s="3" t="inlineStr"/>
@@ -22139,21 +22039,49 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Amazon FinSpace</t>
-        </is>
-      </c>
-      <c r="B179" s="3" t="inlineStr"/>
-      <c r="C179" s="3" t="inlineStr"/>
-      <c r="D179" s="3" t="inlineStr"/>
-      <c r="E179" s="3" t="inlineStr"/>
-      <c r="F179" s="3" t="inlineStr"/>
+          <t>AWS Network Firewall</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="G179" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="H179" s="3" t="inlineStr"/>
-      <c r="I179" s="3" t="inlineStr"/>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J179" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22164,40 +22092,108 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L179" s="3" t="inlineStr"/>
-      <c r="M179" s="3" t="inlineStr"/>
-      <c r="N179" s="3" t="inlineStr"/>
+      <c r="L179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O179" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P179" s="3" t="inlineStr"/>
-      <c r="Q179" s="3" t="inlineStr"/>
+      <c r="P179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R179" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S179" s="3" t="inlineStr"/>
-      <c r="T179" s="3" t="inlineStr"/>
+      <c r="S179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U179" s="3" t="inlineStr"/>
-      <c r="V179" s="3" t="inlineStr"/>
-      <c r="W179" s="3" t="inlineStr"/>
-      <c r="X179" s="3" t="inlineStr"/>
-      <c r="Y179" s="3" t="inlineStr"/>
-      <c r="Z179" s="3" t="inlineStr"/>
-      <c r="AA179" s="3" t="inlineStr"/>
-      <c r="AB179" s="3" t="inlineStr"/>
+      <c r="V179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC179" s="3" t="inlineStr"/>
-      <c r="AD179" s="3" t="inlineStr"/>
-      <c r="AE179" s="3" t="inlineStr"/>
-      <c r="AF179" s="3" t="inlineStr"/>
+      <c r="AD179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>AWS Network Firewall</t>
+          <t>AWS Key Management Service</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
@@ -22295,7 +22291,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U180" s="3" t="inlineStr"/>
+      <c r="U180" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V180" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22331,7 +22331,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AC180" s="3" t="inlineStr"/>
+      <c r="AC180" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD180" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22843,49 +22847,17 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>AWS Service Catalog</t>
-        </is>
-      </c>
-      <c r="B185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Snowmobile</t>
+        </is>
+      </c>
+      <c r="B185" s="3" t="inlineStr"/>
+      <c r="C185" s="3" t="inlineStr"/>
+      <c r="D185" s="3" t="inlineStr"/>
+      <c r="E185" s="3" t="inlineStr"/>
+      <c r="F185" s="3" t="inlineStr"/>
+      <c r="G185" s="3" t="inlineStr"/>
+      <c r="H185" s="3" t="inlineStr"/>
+      <c r="I185" s="3" t="inlineStr"/>
       <c r="J185" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22896,26 +22868,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L185" s="3" t="inlineStr"/>
+      <c r="M185" s="3" t="inlineStr"/>
+      <c r="N185" s="3" t="inlineStr"/>
+      <c r="O185" s="3" t="inlineStr"/>
       <c r="P185" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22931,71 +22887,19 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S185" s="3" t="inlineStr"/>
+      <c r="T185" s="3" t="inlineStr"/>
+      <c r="U185" s="3" t="inlineStr"/>
+      <c r="V185" s="3" t="inlineStr"/>
+      <c r="W185" s="3" t="inlineStr"/>
+      <c r="X185" s="3" t="inlineStr"/>
+      <c r="Y185" s="3" t="inlineStr"/>
+      <c r="Z185" s="3" t="inlineStr"/>
+      <c r="AA185" s="3" t="inlineStr"/>
+      <c r="AB185" s="3" t="inlineStr"/>
+      <c r="AC185" s="3" t="inlineStr"/>
+      <c r="AD185" s="3" t="inlineStr"/>
+      <c r="AE185" s="3" t="inlineStr"/>
       <c r="AF185" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23005,17 +22909,49 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>AWS Snowmobile</t>
-        </is>
-      </c>
-      <c r="B186" s="3" t="inlineStr"/>
-      <c r="C186" s="3" t="inlineStr"/>
-      <c r="D186" s="3" t="inlineStr"/>
-      <c r="E186" s="3" t="inlineStr"/>
-      <c r="F186" s="3" t="inlineStr"/>
-      <c r="G186" s="3" t="inlineStr"/>
-      <c r="H186" s="3" t="inlineStr"/>
-      <c r="I186" s="3" t="inlineStr"/>
+          <t>Amazon Elastic Container Registry (ECR)</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J186" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23026,10 +22962,26 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L186" s="3" t="inlineStr"/>
-      <c r="M186" s="3" t="inlineStr"/>
-      <c r="N186" s="3" t="inlineStr"/>
-      <c r="O186" s="3" t="inlineStr"/>
+      <c r="L186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="P186" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23045,19 +22997,71 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S186" s="3" t="inlineStr"/>
-      <c r="T186" s="3" t="inlineStr"/>
-      <c r="U186" s="3" t="inlineStr"/>
-      <c r="V186" s="3" t="inlineStr"/>
-      <c r="W186" s="3" t="inlineStr"/>
-      <c r="X186" s="3" t="inlineStr"/>
-      <c r="Y186" s="3" t="inlineStr"/>
-      <c r="Z186" s="3" t="inlineStr"/>
-      <c r="AA186" s="3" t="inlineStr"/>
-      <c r="AB186" s="3" t="inlineStr"/>
-      <c r="AC186" s="3" t="inlineStr"/>
-      <c r="AD186" s="3" t="inlineStr"/>
-      <c r="AE186" s="3" t="inlineStr"/>
+      <c r="S186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF186" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23067,59 +23071,27 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>Amazon Elastic Container Registry (ECR)</t>
-        </is>
-      </c>
-      <c r="B187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS IoT TwinMaker</t>
+        </is>
+      </c>
+      <c r="B187" s="3" t="inlineStr"/>
+      <c r="C187" s="3" t="inlineStr"/>
+      <c r="D187" s="3" t="inlineStr"/>
+      <c r="E187" s="3" t="inlineStr"/>
       <c r="F187" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G187" s="3" t="inlineStr"/>
+      <c r="H187" s="3" t="inlineStr"/>
+      <c r="I187" s="3" t="inlineStr"/>
       <c r="J187" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K187" s="3" t="inlineStr"/>
       <c r="L187" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23130,11 +23102,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N187" s="3" t="inlineStr"/>
       <c r="O187" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23145,102 +23113,46 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q187" s="3" t="inlineStr"/>
       <c r="R187" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S187" s="3" t="inlineStr"/>
+      <c r="T187" s="3" t="inlineStr"/>
+      <c r="U187" s="3" t="inlineStr"/>
+      <c r="V187" s="3" t="inlineStr"/>
+      <c r="W187" s="3" t="inlineStr"/>
+      <c r="X187" s="3" t="inlineStr"/>
+      <c r="Y187" s="3" t="inlineStr"/>
+      <c r="Z187" s="3" t="inlineStr"/>
+      <c r="AA187" s="3" t="inlineStr"/>
+      <c r="AB187" s="3" t="inlineStr"/>
+      <c r="AC187" s="3" t="inlineStr"/>
+      <c r="AD187" s="3" t="inlineStr"/>
+      <c r="AE187" s="3" t="inlineStr"/>
+      <c r="AF187" s="3" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>AWS IoT TwinMaker</t>
+          <t>Amazon Lookout for Vision</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr"/>
-      <c r="C188" s="3" t="inlineStr"/>
-      <c r="D188" s="3" t="inlineStr"/>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="E188" s="3" t="inlineStr"/>
-      <c r="F188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="F188" s="3" t="inlineStr"/>
       <c r="G188" s="3" t="inlineStr"/>
       <c r="H188" s="3" t="inlineStr"/>
       <c r="I188" s="3" t="inlineStr"/>
@@ -23249,12 +23161,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="K188" s="3" t="inlineStr"/>
-      <c r="L188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L188" s="3" t="inlineStr"/>
       <c r="M188" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23266,11 +23178,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P188" s="3" t="inlineStr"/>
       <c r="Q188" s="3" t="inlineStr"/>
       <c r="R188" s="2" t="inlineStr">
         <is>
@@ -23295,7 +23203,7 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>AWS CodeCommit</t>
+          <t>Amazon EC2 Auto Scaling</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
@@ -23398,7 +23306,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="V189" s="3" t="inlineStr"/>
+      <c r="V189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W189" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23414,13 +23326,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z189" s="3" t="inlineStr"/>
+      <c r="Z189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA189" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB189" s="3" t="inlineStr"/>
+      <c r="AB189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC189" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23445,10 +23365,14 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Amazon Lookout for Vision</t>
-        </is>
-      </c>
-      <c r="B190" s="3" t="inlineStr"/>
+          <t>AWS Service Catalog</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23459,11 +23383,31 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E190" s="3" t="inlineStr"/>
-      <c r="F190" s="3" t="inlineStr"/>
-      <c r="G190" s="3" t="inlineStr"/>
-      <c r="H190" s="3" t="inlineStr"/>
-      <c r="I190" s="3" t="inlineStr"/>
+      <c r="E190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23474,44 +23418,116 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L190" s="3" t="inlineStr"/>
+      <c r="L190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N190" s="3" t="inlineStr"/>
+      <c r="N190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P190" s="3" t="inlineStr"/>
-      <c r="Q190" s="3" t="inlineStr"/>
+      <c r="P190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S190" s="3" t="inlineStr"/>
-      <c r="T190" s="3" t="inlineStr"/>
-      <c r="U190" s="3" t="inlineStr"/>
-      <c r="V190" s="3" t="inlineStr"/>
-      <c r="W190" s="3" t="inlineStr"/>
-      <c r="X190" s="3" t="inlineStr"/>
-      <c r="Y190" s="3" t="inlineStr"/>
-      <c r="Z190" s="3" t="inlineStr"/>
-      <c r="AA190" s="3" t="inlineStr"/>
-      <c r="AB190" s="3" t="inlineStr"/>
-      <c r="AC190" s="3" t="inlineStr"/>
-      <c r="AD190" s="3" t="inlineStr"/>
-      <c r="AE190" s="3" t="inlineStr"/>
-      <c r="AF190" s="3" t="inlineStr"/>
+      <c r="S190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Amazon EC2 Auto Scaling</t>
+          <t>Amazon FSx for Lustre</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
@@ -23673,7 +23689,7 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for Lustre</t>
+          <t>AWS AppSync</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
@@ -23746,11 +23762,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P192" s="3" t="inlineStr"/>
       <c r="Q192" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23796,11 +23808,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Z192" s="3" t="inlineStr"/>
       <c r="AA192" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23826,178 +23834,82 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AF192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF192" s="3" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>AWS AppSync</t>
-        </is>
-      </c>
-      <c r="B193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Wickr</t>
+        </is>
+      </c>
+      <c r="B193" s="3" t="inlineStr"/>
+      <c r="C193" s="3" t="inlineStr"/>
+      <c r="D193" s="3" t="inlineStr"/>
+      <c r="E193" s="3" t="inlineStr"/>
+      <c r="F193" s="3" t="inlineStr"/>
       <c r="G193" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="H193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="H193" s="3" t="inlineStr"/>
+      <c r="I193" s="3" t="inlineStr"/>
       <c r="J193" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P193" s="3" t="inlineStr"/>
-      <c r="Q193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K193" s="3" t="inlineStr"/>
+      <c r="L193" s="3" t="inlineStr"/>
+      <c r="M193" s="3" t="inlineStr"/>
+      <c r="N193" s="3" t="inlineStr"/>
+      <c r="O193" s="3" t="inlineStr"/>
+      <c r="P193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q193" s="3" t="inlineStr"/>
+      <c r="R193" s="3" t="inlineStr"/>
+      <c r="S193" s="3" t="inlineStr"/>
+      <c r="T193" s="3" t="inlineStr"/>
+      <c r="U193" s="3" t="inlineStr"/>
+      <c r="V193" s="3" t="inlineStr"/>
+      <c r="W193" s="3" t="inlineStr"/>
+      <c r="X193" s="3" t="inlineStr"/>
+      <c r="Y193" s="3" t="inlineStr"/>
       <c r="Z193" s="3" t="inlineStr"/>
-      <c r="AA193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA193" s="3" t="inlineStr"/>
+      <c r="AB193" s="3" t="inlineStr"/>
+      <c r="AC193" s="3" t="inlineStr"/>
+      <c r="AD193" s="3" t="inlineStr"/>
+      <c r="AE193" s="3" t="inlineStr"/>
       <c r="AF193" s="3" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>AWS Wickr</t>
+          <t>AWS Elemental MediaTailor</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr"/>
-      <c r="C194" s="3" t="inlineStr"/>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="D194" s="3" t="inlineStr"/>
-      <c r="E194" s="3" t="inlineStr"/>
-      <c r="F194" s="3" t="inlineStr"/>
-      <c r="G194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G194" s="3" t="inlineStr"/>
       <c r="H194" s="3" t="inlineStr"/>
       <c r="I194" s="3" t="inlineStr"/>
       <c r="J194" s="2" t="inlineStr">
@@ -24005,23 +23917,43 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="K194" s="3" t="inlineStr"/>
-      <c r="L194" s="3" t="inlineStr"/>
-      <c r="M194" s="3" t="inlineStr"/>
+      <c r="K194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N194" s="3" t="inlineStr"/>
-      <c r="O194" s="3" t="inlineStr"/>
-      <c r="P194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="O194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P194" s="3" t="inlineStr"/>
       <c r="Q194" s="3" t="inlineStr"/>
-      <c r="R194" s="3" t="inlineStr"/>
+      <c r="R194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="S194" s="3" t="inlineStr"/>
       <c r="T194" s="3" t="inlineStr"/>
       <c r="U194" s="3" t="inlineStr"/>
       <c r="V194" s="3" t="inlineStr"/>
-      <c r="W194" s="3" t="inlineStr"/>
+      <c r="W194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X194" s="3" t="inlineStr"/>
       <c r="Y194" s="3" t="inlineStr"/>
       <c r="Z194" s="3" t="inlineStr"/>
@@ -24035,16 +23967,24 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaTailor</t>
-        </is>
-      </c>
-      <c r="B195" s="3" t="inlineStr"/>
+          <t>Elastic Load Balancing</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D195" s="3" t="inlineStr"/>
+      <c r="D195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="E195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24055,9 +23995,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G195" s="3" t="inlineStr"/>
-      <c r="H195" s="3" t="inlineStr"/>
-      <c r="I195" s="3" t="inlineStr"/>
+      <c r="G195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24078,42 +24030,106 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N195" s="3" t="inlineStr"/>
+      <c r="N195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P195" s="3" t="inlineStr"/>
-      <c r="Q195" s="3" t="inlineStr"/>
+      <c r="P195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S195" s="3" t="inlineStr"/>
-      <c r="T195" s="3" t="inlineStr"/>
-      <c r="U195" s="3" t="inlineStr"/>
-      <c r="V195" s="3" t="inlineStr"/>
+      <c r="S195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X195" s="3" t="inlineStr"/>
-      <c r="Y195" s="3" t="inlineStr"/>
-      <c r="Z195" s="3" t="inlineStr"/>
-      <c r="AA195" s="3" t="inlineStr"/>
-      <c r="AB195" s="3" t="inlineStr"/>
-      <c r="AC195" s="3" t="inlineStr"/>
-      <c r="AD195" s="3" t="inlineStr"/>
-      <c r="AE195" s="3" t="inlineStr"/>
-      <c r="AF195" s="3" t="inlineStr"/>
+      <c r="X195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Elastic Load Balancing</t>
+          <t>AWS CodeCommit</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
@@ -24216,11 +24232,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="V196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V196" s="3" t="inlineStr"/>
       <c r="W196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24236,21 +24248,13 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Z196" s="3" t="inlineStr"/>
       <c r="AA196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB196" s="3" t="inlineStr"/>
       <c r="AC196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24717,64 +24721,28 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>Amazon Quantum Ledger Database (QLDB)</t>
+          <t>AWS Server Migration Service (SMS)</t>
         </is>
       </c>
       <c r="B200" s="3" t="inlineStr"/>
-      <c r="C200" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D200" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C200" s="3" t="inlineStr"/>
+      <c r="D200" s="3" t="inlineStr"/>
       <c r="E200" s="3" t="inlineStr"/>
-      <c r="F200" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G200" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H200" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="F200" s="3" t="inlineStr"/>
+      <c r="G200" s="3" t="inlineStr"/>
+      <c r="H200" s="3" t="inlineStr"/>
       <c r="I200" s="3" t="inlineStr"/>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K200" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L200" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M200" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="J200" s="3" t="inlineStr"/>
+      <c r="K200" s="3" t="inlineStr"/>
+      <c r="L200" s="3" t="inlineStr"/>
+      <c r="M200" s="3" t="inlineStr"/>
       <c r="N200" s="3" t="inlineStr"/>
-      <c r="O200" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P200" s="3" t="inlineStr"/>
+      <c r="O200" s="3" t="inlineStr"/>
+      <c r="P200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q200" s="3" t="inlineStr"/>
       <c r="R200" s="2" t="inlineStr">
         <is>
@@ -24783,7 +24751,11 @@
       </c>
       <c r="S200" s="3" t="inlineStr"/>
       <c r="T200" s="3" t="inlineStr"/>
-      <c r="U200" s="3" t="inlineStr"/>
+      <c r="U200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V200" s="3" t="inlineStr"/>
       <c r="W200" s="3" t="inlineStr"/>
       <c r="X200" s="3" t="inlineStr"/>
@@ -24799,7 +24771,7 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>AWS Server Migration Service (SMS)</t>
+          <t>AWS User Notifications</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
@@ -24872,11 +24844,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P201" s="3" t="inlineStr"/>
       <c r="Q201" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24892,55 +24860,67 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T201" s="3" t="inlineStr"/>
-      <c r="U201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V201" s="3" t="inlineStr"/>
+      <c r="T201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U201" s="3" t="inlineStr"/>
+      <c r="V201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W201" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X201" s="3" t="inlineStr"/>
-      <c r="Y201" s="3" t="inlineStr"/>
-      <c r="Z201" s="3" t="inlineStr"/>
+      <c r="X201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA201" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB201" s="3" t="inlineStr"/>
-      <c r="AC201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD201" s="3" t="inlineStr"/>
+      <c r="AB201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC201" s="3" t="inlineStr"/>
+      <c r="AD201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE201" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AF201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF201" s="3" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>AWS User Notifications</t>
-        </is>
-      </c>
-      <c r="B202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Inspector Classic</t>
+        </is>
+      </c>
+      <c r="B202" s="3" t="inlineStr"/>
       <c r="C202" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24961,21 +24941,13 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G202" s="3" t="inlineStr"/>
       <c r="H202" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I202" s="3" t="inlineStr"/>
       <c r="J202" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24986,11 +24958,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L202" s="3" t="inlineStr"/>
       <c r="M202" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25006,7 +24974,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P202" s="3" t="inlineStr"/>
+      <c r="P202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q202" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25017,140 +24989,52 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S202" s="3" t="inlineStr"/>
+      <c r="T202" s="3" t="inlineStr"/>
       <c r="U202" s="3" t="inlineStr"/>
-      <c r="V202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V202" s="3" t="inlineStr"/>
+      <c r="W202" s="3" t="inlineStr"/>
+      <c r="X202" s="3" t="inlineStr"/>
+      <c r="Y202" s="3" t="inlineStr"/>
+      <c r="Z202" s="3" t="inlineStr"/>
+      <c r="AA202" s="3" t="inlineStr"/>
+      <c r="AB202" s="3" t="inlineStr"/>
       <c r="AC202" s="3" t="inlineStr"/>
-      <c r="AD202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF202" s="3" t="inlineStr"/>
+      <c r="AD202" s="3" t="inlineStr"/>
+      <c r="AE202" s="3" t="inlineStr"/>
+      <c r="AF202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Amazon Inspector Classic</t>
+          <t>AWS DeepRacer</t>
         </is>
       </c>
       <c r="B203" s="3" t="inlineStr"/>
-      <c r="C203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C203" s="3" t="inlineStr"/>
+      <c r="D203" s="3" t="inlineStr"/>
+      <c r="E203" s="3" t="inlineStr"/>
+      <c r="F203" s="3" t="inlineStr"/>
       <c r="G203" s="3" t="inlineStr"/>
-      <c r="H203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="H203" s="3" t="inlineStr"/>
       <c r="I203" s="3" t="inlineStr"/>
       <c r="J203" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K203" s="3" t="inlineStr"/>
       <c r="L203" s="3" t="inlineStr"/>
-      <c r="M203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="M203" s="3" t="inlineStr"/>
+      <c r="N203" s="3" t="inlineStr"/>
+      <c r="O203" s="3" t="inlineStr"/>
+      <c r="P203" s="3" t="inlineStr"/>
+      <c r="Q203" s="3" t="inlineStr"/>
+      <c r="R203" s="3" t="inlineStr"/>
       <c r="S203" s="3" t="inlineStr"/>
       <c r="T203" s="3" t="inlineStr"/>
       <c r="U203" s="3" t="inlineStr"/>
@@ -25164,100 +25048,164 @@
       <c r="AC203" s="3" t="inlineStr"/>
       <c r="AD203" s="3" t="inlineStr"/>
       <c r="AE203" s="3" t="inlineStr"/>
-      <c r="AF203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF203" s="3" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>AWS DeepRacer</t>
-        </is>
-      </c>
-      <c r="B204" s="3" t="inlineStr"/>
-      <c r="C204" s="3" t="inlineStr"/>
-      <c r="D204" s="3" t="inlineStr"/>
-      <c r="E204" s="3" t="inlineStr"/>
-      <c r="F204" s="3" t="inlineStr"/>
-      <c r="G204" s="3" t="inlineStr"/>
-      <c r="H204" s="3" t="inlineStr"/>
-      <c r="I204" s="3" t="inlineStr"/>
+          <t>Amazon GameLift</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J204" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K204" s="3" t="inlineStr"/>
-      <c r="L204" s="3" t="inlineStr"/>
-      <c r="M204" s="3" t="inlineStr"/>
-      <c r="N204" s="3" t="inlineStr"/>
-      <c r="O204" s="3" t="inlineStr"/>
+      <c r="K204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="P204" s="3" t="inlineStr"/>
-      <c r="Q204" s="3" t="inlineStr"/>
-      <c r="R204" s="3" t="inlineStr"/>
-      <c r="S204" s="3" t="inlineStr"/>
-      <c r="T204" s="3" t="inlineStr"/>
-      <c r="U204" s="3" t="inlineStr"/>
+      <c r="Q204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V204" s="3" t="inlineStr"/>
-      <c r="W204" s="3" t="inlineStr"/>
+      <c r="W204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X204" s="3" t="inlineStr"/>
       <c r="Y204" s="3" t="inlineStr"/>
       <c r="Z204" s="3" t="inlineStr"/>
-      <c r="AA204" s="3" t="inlineStr"/>
+      <c r="AA204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB204" s="3" t="inlineStr"/>
-      <c r="AC204" s="3" t="inlineStr"/>
+      <c r="AC204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD204" s="3" t="inlineStr"/>
-      <c r="AE204" s="3" t="inlineStr"/>
+      <c r="AE204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF204" s="3" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Amazon GameLift</t>
-        </is>
-      </c>
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon CodeGuru</t>
+        </is>
+      </c>
+      <c r="B205" s="3" t="inlineStr"/>
       <c r="C205" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D205" s="3" t="inlineStr"/>
+      <c r="E205" s="3" t="inlineStr"/>
       <c r="F205" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G205" s="3" t="inlineStr"/>
       <c r="H205" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I205" s="3" t="inlineStr"/>
       <c r="J205" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25289,63 +25237,31 @@
         </is>
       </c>
       <c r="P205" s="3" t="inlineStr"/>
-      <c r="Q205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q205" s="3" t="inlineStr"/>
       <c r="R205" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S205" s="3" t="inlineStr"/>
+      <c r="T205" s="3" t="inlineStr"/>
+      <c r="U205" s="3" t="inlineStr"/>
       <c r="V205" s="3" t="inlineStr"/>
-      <c r="W205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W205" s="3" t="inlineStr"/>
       <c r="X205" s="3" t="inlineStr"/>
       <c r="Y205" s="3" t="inlineStr"/>
       <c r="Z205" s="3" t="inlineStr"/>
-      <c r="AA205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA205" s="3" t="inlineStr"/>
       <c r="AB205" s="3" t="inlineStr"/>
-      <c r="AC205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC205" s="3" t="inlineStr"/>
       <c r="AD205" s="3" t="inlineStr"/>
-      <c r="AE205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE205" s="3" t="inlineStr"/>
       <c r="AF205" s="3" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Amazon CodeGuru</t>
+          <t>Amazon Quantum Ledger Database (QLDB)</t>
         </is>
       </c>
       <c r="B206" s="3" t="inlineStr"/>
@@ -25354,14 +25270,22 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="D206" s="3" t="inlineStr"/>
+      <c r="D206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="E206" s="3" t="inlineStr"/>
       <c r="F206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G206" s="3" t="inlineStr"/>
+      <c r="G206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25388,11 +25312,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N206" s="3" t="inlineStr"/>
       <c r="O206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26249,57 +26169,169 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>AWS DeepLens</t>
-        </is>
-      </c>
-      <c r="B214" s="3" t="inlineStr"/>
+          <t>AWS Config</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D214" s="3" t="inlineStr"/>
-      <c r="E214" s="3" t="inlineStr"/>
-      <c r="F214" s="3" t="inlineStr"/>
-      <c r="G214" s="3" t="inlineStr"/>
-      <c r="H214" s="3" t="inlineStr"/>
-      <c r="I214" s="3" t="inlineStr"/>
+      <c r="D214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K214" s="3" t="inlineStr"/>
-      <c r="L214" s="3" t="inlineStr"/>
+      <c r="K214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M214" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N214" s="3" t="inlineStr"/>
-      <c r="O214" s="3" t="inlineStr"/>
-      <c r="P214" s="3" t="inlineStr"/>
-      <c r="Q214" s="3" t="inlineStr"/>
-      <c r="R214" s="3" t="inlineStr"/>
-      <c r="S214" s="3" t="inlineStr"/>
-      <c r="T214" s="3" t="inlineStr"/>
-      <c r="U214" s="3" t="inlineStr"/>
-      <c r="V214" s="3" t="inlineStr"/>
-      <c r="W214" s="3" t="inlineStr"/>
-      <c r="X214" s="3" t="inlineStr"/>
-      <c r="Y214" s="3" t="inlineStr"/>
-      <c r="Z214" s="3" t="inlineStr"/>
-      <c r="AA214" s="3" t="inlineStr"/>
-      <c r="AB214" s="3" t="inlineStr"/>
-      <c r="AC214" s="3" t="inlineStr"/>
-      <c r="AD214" s="3" t="inlineStr"/>
-      <c r="AE214" s="3" t="inlineStr"/>
-      <c r="AF214" s="3" t="inlineStr"/>
+      <c r="N214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>AWS Config</t>
+          <t>Amazon CloudFront</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
@@ -26372,11 +26404,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P215" s="3" t="inlineStr"/>
       <c r="Q215" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26452,204 +26480,156 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AF215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF215" s="3" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>Amazon CloudFront</t>
-        </is>
-      </c>
-      <c r="B216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon WorkMail</t>
+        </is>
+      </c>
+      <c r="B216" s="3" t="inlineStr"/>
+      <c r="C216" s="3" t="inlineStr"/>
+      <c r="D216" s="3" t="inlineStr"/>
+      <c r="E216" s="3" t="inlineStr"/>
+      <c r="F216" s="3" t="inlineStr"/>
+      <c r="G216" s="3" t="inlineStr"/>
+      <c r="H216" s="3" t="inlineStr"/>
+      <c r="I216" s="3" t="inlineStr"/>
       <c r="J216" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K216" s="3" t="inlineStr"/>
+      <c r="L216" s="3" t="inlineStr"/>
+      <c r="M216" s="3" t="inlineStr"/>
+      <c r="N216" s="3" t="inlineStr"/>
       <c r="O216" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="P216" s="3" t="inlineStr"/>
-      <c r="Q216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q216" s="3" t="inlineStr"/>
       <c r="R216" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S216" s="3" t="inlineStr"/>
+      <c r="T216" s="3" t="inlineStr"/>
+      <c r="U216" s="3" t="inlineStr"/>
+      <c r="V216" s="3" t="inlineStr"/>
+      <c r="W216" s="3" t="inlineStr"/>
+      <c r="X216" s="3" t="inlineStr"/>
+      <c r="Y216" s="3" t="inlineStr"/>
+      <c r="Z216" s="3" t="inlineStr"/>
+      <c r="AA216" s="3" t="inlineStr"/>
+      <c r="AB216" s="3" t="inlineStr"/>
+      <c r="AC216" s="3" t="inlineStr"/>
+      <c r="AD216" s="3" t="inlineStr"/>
+      <c r="AE216" s="3" t="inlineStr"/>
       <c r="AF216" s="3" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>Amazon WorkMail</t>
-        </is>
-      </c>
-      <c r="B217" s="3" t="inlineStr"/>
-      <c r="C217" s="3" t="inlineStr"/>
-      <c r="D217" s="3" t="inlineStr"/>
-      <c r="E217" s="3" t="inlineStr"/>
-      <c r="F217" s="3" t="inlineStr"/>
-      <c r="G217" s="3" t="inlineStr"/>
-      <c r="H217" s="3" t="inlineStr"/>
-      <c r="I217" s="3" t="inlineStr"/>
+          <t>FreeRTOS</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K217" s="3" t="inlineStr"/>
-      <c r="L217" s="3" t="inlineStr"/>
-      <c r="M217" s="3" t="inlineStr"/>
-      <c r="N217" s="3" t="inlineStr"/>
+      <c r="K217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O217" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="P217" s="3" t="inlineStr"/>
-      <c r="Q217" s="3" t="inlineStr"/>
+      <c r="Q217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R217" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S217" s="3" t="inlineStr"/>
+      <c r="S217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T217" s="3" t="inlineStr"/>
-      <c r="U217" s="3" t="inlineStr"/>
+      <c r="U217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V217" s="3" t="inlineStr"/>
       <c r="W217" s="3" t="inlineStr"/>
       <c r="X217" s="3" t="inlineStr"/>
@@ -26657,15 +26637,23 @@
       <c r="Z217" s="3" t="inlineStr"/>
       <c r="AA217" s="3" t="inlineStr"/>
       <c r="AB217" s="3" t="inlineStr"/>
-      <c r="AC217" s="3" t="inlineStr"/>
+      <c r="AC217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD217" s="3" t="inlineStr"/>
-      <c r="AE217" s="3" t="inlineStr"/>
+      <c r="AE217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF217" s="3" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>FreeRTOS</t>
+          <t>AWS App Mesh</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
@@ -26754,18 +26742,34 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T218" s="3" t="inlineStr"/>
+      <c r="T218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U218" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="V218" s="3" t="inlineStr"/>
-      <c r="W218" s="3" t="inlineStr"/>
+      <c r="W218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X218" s="3" t="inlineStr"/>
-      <c r="Y218" s="3" t="inlineStr"/>
+      <c r="Y218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z218" s="3" t="inlineStr"/>
-      <c r="AA218" s="3" t="inlineStr"/>
+      <c r="AA218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB218" s="3" t="inlineStr"/>
       <c r="AC218" s="2" t="inlineStr">
         <is>
@@ -26783,135 +26787,51 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>AWS App Mesh</t>
-        </is>
-      </c>
-      <c r="B219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS DeepLens</t>
+        </is>
+      </c>
+      <c r="B219" s="3" t="inlineStr"/>
       <c r="C219" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D219" s="3" t="inlineStr"/>
+      <c r="E219" s="3" t="inlineStr"/>
+      <c r="F219" s="3" t="inlineStr"/>
+      <c r="G219" s="3" t="inlineStr"/>
+      <c r="H219" s="3" t="inlineStr"/>
+      <c r="I219" s="3" t="inlineStr"/>
       <c r="J219" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K219" s="3" t="inlineStr"/>
+      <c r="L219" s="3" t="inlineStr"/>
       <c r="M219" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N219" s="3" t="inlineStr"/>
+      <c r="O219" s="3" t="inlineStr"/>
       <c r="P219" s="3" t="inlineStr"/>
-      <c r="Q219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q219" s="3" t="inlineStr"/>
+      <c r="R219" s="3" t="inlineStr"/>
+      <c r="S219" s="3" t="inlineStr"/>
+      <c r="T219" s="3" t="inlineStr"/>
+      <c r="U219" s="3" t="inlineStr"/>
       <c r="V219" s="3" t="inlineStr"/>
-      <c r="W219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W219" s="3" t="inlineStr"/>
       <c r="X219" s="3" t="inlineStr"/>
-      <c r="Y219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Y219" s="3" t="inlineStr"/>
       <c r="Z219" s="3" t="inlineStr"/>
-      <c r="AA219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA219" s="3" t="inlineStr"/>
       <c r="AB219" s="3" t="inlineStr"/>
-      <c r="AC219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC219" s="3" t="inlineStr"/>
       <c r="AD219" s="3" t="inlineStr"/>
-      <c r="AE219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE219" s="3" t="inlineStr"/>
       <c r="AF219" s="3" t="inlineStr"/>
     </row>
     <row r="220">

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF231"/>
+  <dimension ref="A1:AG231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,15 +588,20 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
+          <t>il-central-1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>me-central-1</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>me-south-1</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>us-gov-east-1</t>
         </is>
@@ -707,6 +712,7 @@
       <c r="AD2" s="3" t="inlineStr"/>
       <c r="AE2" s="3" t="inlineStr"/>
       <c r="AF2" s="3" t="inlineStr"/>
+      <c r="AG2" s="3" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -797,6 +803,7 @@
       <c r="AD3" s="3" t="inlineStr"/>
       <c r="AE3" s="3" t="inlineStr"/>
       <c r="AF3" s="3" t="inlineStr"/>
+      <c r="AG3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -950,7 +957,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AF4" s="3" t="inlineStr"/>
+      <c r="AF4" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG4" s="3" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1025,6 +1037,7 @@
       <c r="AD5" s="3" t="inlineStr"/>
       <c r="AE5" s="3" t="inlineStr"/>
       <c r="AF5" s="3" t="inlineStr"/>
+      <c r="AG5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1172,17 +1185,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD6" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD6" s="3" t="inlineStr"/>
       <c r="AE6" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AF6" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG6" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -1249,6 +1263,7 @@
       <c r="AD7" s="3" t="inlineStr"/>
       <c r="AE7" s="3" t="inlineStr"/>
       <c r="AF7" s="3" t="inlineStr"/>
+      <c r="AG7" s="3" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1394,7 +1409,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AF8" s="3" t="inlineStr"/>
+      <c r="AF8" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG8" s="3" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1469,6 +1489,7 @@
       <c r="AD9" s="3" t="inlineStr"/>
       <c r="AE9" s="3" t="inlineStr"/>
       <c r="AF9" s="3" t="inlineStr"/>
+      <c r="AG9" s="3" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1575,6 +1596,7 @@
       <c r="AD10" s="3" t="inlineStr"/>
       <c r="AE10" s="3" t="inlineStr"/>
       <c r="AF10" s="3" t="inlineStr"/>
+      <c r="AG10" s="3" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1737,6 +1759,11 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="AG11" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1895,6 +1922,11 @@
         </is>
       </c>
       <c r="AF12" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG12" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -1969,6 +2001,7 @@
       <c r="AD13" s="3" t="inlineStr"/>
       <c r="AE13" s="3" t="inlineStr"/>
       <c r="AF13" s="3" t="inlineStr"/>
+      <c r="AG13" s="3" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2131,6 +2164,11 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="AG14" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2254,17 +2292,18 @@
       </c>
       <c r="AB15" s="3" t="inlineStr"/>
       <c r="AC15" s="3" t="inlineStr"/>
-      <c r="AD15" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD15" s="3" t="inlineStr"/>
       <c r="AE15" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AF15" s="3" t="inlineStr"/>
+      <c r="AF15" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG15" s="3" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2388,17 +2427,18 @@
       </c>
       <c r="AB16" s="3" t="inlineStr"/>
       <c r="AC16" s="3" t="inlineStr"/>
-      <c r="AD16" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD16" s="3" t="inlineStr"/>
       <c r="AE16" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AF16" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG16" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -2505,6 +2545,7 @@
       <c r="AD17" s="3" t="inlineStr"/>
       <c r="AE17" s="3" t="inlineStr"/>
       <c r="AF17" s="3" t="inlineStr"/>
+      <c r="AG17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -2667,6 +2708,11 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="AG18" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -2825,6 +2871,11 @@
         </is>
       </c>
       <c r="AF19" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG19" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -2895,6 +2946,7 @@
       <c r="AD20" s="3" t="inlineStr"/>
       <c r="AE20" s="3" t="inlineStr"/>
       <c r="AF20" s="3" t="inlineStr"/>
+      <c r="AG20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -3006,17 +3058,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD21" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD21" s="3" t="inlineStr"/>
       <c r="AE21" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AF21" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG21" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -3075,6 +3128,7 @@
       <c r="AD22" s="3" t="inlineStr"/>
       <c r="AE22" s="3" t="inlineStr"/>
       <c r="AF22" s="3" t="inlineStr"/>
+      <c r="AG22" s="3" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -3187,12 +3241,13 @@
       <c r="AB23" s="3" t="inlineStr"/>
       <c r="AC23" s="3" t="inlineStr"/>
       <c r="AD23" s="3" t="inlineStr"/>
-      <c r="AE23" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE23" s="3" t="inlineStr"/>
       <c r="AF23" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG23" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -3299,6 +3354,7 @@
       <c r="AD24" s="3" t="inlineStr"/>
       <c r="AE24" s="3" t="inlineStr"/>
       <c r="AF24" s="3" t="inlineStr"/>
+      <c r="AG24" s="3" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -3361,6 +3417,7 @@
       <c r="AD25" s="3" t="inlineStr"/>
       <c r="AE25" s="3" t="inlineStr"/>
       <c r="AF25" s="3" t="inlineStr"/>
+      <c r="AG25" s="3" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -3523,6 +3580,11 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="AG26" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -3681,6 +3743,11 @@
         </is>
       </c>
       <c r="AF27" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG27" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -3778,7 +3845,8 @@
       <c r="AC28" s="3" t="inlineStr"/>
       <c r="AD28" s="3" t="inlineStr"/>
       <c r="AE28" s="3" t="inlineStr"/>
-      <c r="AF28" s="2" t="inlineStr">
+      <c r="AF28" s="3" t="inlineStr"/>
+      <c r="AG28" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -3941,6 +4009,11 @@
         </is>
       </c>
       <c r="AF29" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG29" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -3987,6 +4060,7 @@
       <c r="AD30" s="3" t="inlineStr"/>
       <c r="AE30" s="3" t="inlineStr"/>
       <c r="AF30" s="3" t="inlineStr"/>
+      <c r="AG30" s="3" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -4057,6 +4131,7 @@
       <c r="AD31" s="3" t="inlineStr"/>
       <c r="AE31" s="3" t="inlineStr"/>
       <c r="AF31" s="3" t="inlineStr"/>
+      <c r="AG31" s="3" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -4137,12 +4212,13 @@
       <c r="AB32" s="3" t="inlineStr"/>
       <c r="AC32" s="3" t="inlineStr"/>
       <c r="AD32" s="3" t="inlineStr"/>
-      <c r="AE32" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF32" s="3" t="inlineStr"/>
+      <c r="AE32" s="3" t="inlineStr"/>
+      <c r="AF32" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG32" s="3" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -4263,12 +4339,13 @@
         </is>
       </c>
       <c r="AD33" s="3" t="inlineStr"/>
-      <c r="AE33" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF33" s="3" t="inlineStr"/>
+      <c r="AE33" s="3" t="inlineStr"/>
+      <c r="AF33" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG33" s="3" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -4335,6 +4412,7 @@
       <c r="AD34" s="3" t="inlineStr"/>
       <c r="AE34" s="3" t="inlineStr"/>
       <c r="AF34" s="3" t="inlineStr"/>
+      <c r="AG34" s="3" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -4413,6 +4491,7 @@
       <c r="AD35" s="3" t="inlineStr"/>
       <c r="AE35" s="3" t="inlineStr"/>
       <c r="AF35" s="3" t="inlineStr"/>
+      <c r="AG35" s="3" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -4520,41 +4599,58 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="V36" s="3" t="inlineStr"/>
+      <c r="V36" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X36" s="3" t="inlineStr"/>
+      <c r="X36" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Y36" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Z36" s="3" t="inlineStr"/>
+      <c r="Z36" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA36" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB36" s="3" t="inlineStr"/>
+      <c r="AB36" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC36" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD36" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD36" s="3" t="inlineStr"/>
       <c r="AE36" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AF36" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG36" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -4706,17 +4802,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD37" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD37" s="3" t="inlineStr"/>
       <c r="AE37" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AF37" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG37" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -4856,17 +4953,18 @@
         </is>
       </c>
       <c r="AC38" s="3" t="inlineStr"/>
-      <c r="AD38" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD38" s="3" t="inlineStr"/>
       <c r="AE38" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AF38" s="3" t="inlineStr"/>
+      <c r="AF38" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG38" s="3" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -4940,7 +5038,8 @@
       <c r="AC39" s="3" t="inlineStr"/>
       <c r="AD39" s="3" t="inlineStr"/>
       <c r="AE39" s="3" t="inlineStr"/>
-      <c r="AF39" s="2" t="inlineStr">
+      <c r="AF39" s="3" t="inlineStr"/>
+      <c r="AG39" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -5107,6 +5206,11 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="AG40" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -5269,6 +5373,11 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="AG41" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -5427,6 +5536,11 @@
         </is>
       </c>
       <c r="AF42" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG42" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -5513,6 +5627,7 @@
       <c r="AD43" s="3" t="inlineStr"/>
       <c r="AE43" s="3" t="inlineStr"/>
       <c r="AF43" s="3" t="inlineStr"/>
+      <c r="AG43" s="3" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -5607,6 +5722,7 @@
       <c r="AD44" s="3" t="inlineStr"/>
       <c r="AE44" s="3" t="inlineStr"/>
       <c r="AF44" s="3" t="inlineStr"/>
+      <c r="AG44" s="3" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -5649,6 +5765,7 @@
       <c r="AD45" s="3" t="inlineStr"/>
       <c r="AE45" s="3" t="inlineStr"/>
       <c r="AF45" s="3" t="inlineStr"/>
+      <c r="AG45" s="3" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -5807,6 +5924,11 @@
         </is>
       </c>
       <c r="AF46" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG46" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -5917,6 +6039,7 @@
       <c r="AD47" s="3" t="inlineStr"/>
       <c r="AE47" s="3" t="inlineStr"/>
       <c r="AF47" s="3" t="inlineStr"/>
+      <c r="AG47" s="3" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -6064,17 +6187,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD48" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD48" s="3" t="inlineStr"/>
       <c r="AE48" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AF48" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG48" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -6161,6 +6285,7 @@
       <c r="AD49" s="3" t="inlineStr"/>
       <c r="AE49" s="3" t="inlineStr"/>
       <c r="AF49" s="3" t="inlineStr"/>
+      <c r="AG49" s="3" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -6296,17 +6421,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD50" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD50" s="3" t="inlineStr"/>
       <c r="AE50" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AF50" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG50" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -6439,12 +6565,13 @@
       <c r="AB51" s="3" t="inlineStr"/>
       <c r="AC51" s="3" t="inlineStr"/>
       <c r="AD51" s="3" t="inlineStr"/>
-      <c r="AE51" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE51" s="3" t="inlineStr"/>
       <c r="AF51" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG51" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -6607,6 +6734,11 @@
         </is>
       </c>
       <c r="AF52" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG52" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -6739,12 +6871,13 @@
         </is>
       </c>
       <c r="AD53" s="3" t="inlineStr"/>
-      <c r="AE53" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE53" s="3" t="inlineStr"/>
       <c r="AF53" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG53" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -6803,6 +6936,7 @@
       <c r="AD54" s="3" t="inlineStr"/>
       <c r="AE54" s="3" t="inlineStr"/>
       <c r="AF54" s="3" t="inlineStr"/>
+      <c r="AG54" s="3" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -6896,7 +7030,8 @@
       <c r="AC55" s="3" t="inlineStr"/>
       <c r="AD55" s="3" t="inlineStr"/>
       <c r="AE55" s="3" t="inlineStr"/>
-      <c r="AF55" s="2" t="inlineStr">
+      <c r="AF55" s="3" t="inlineStr"/>
+      <c r="AG55" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -6943,6 +7078,7 @@
       <c r="AD56" s="3" t="inlineStr"/>
       <c r="AE56" s="3" t="inlineStr"/>
       <c r="AF56" s="3" t="inlineStr"/>
+      <c r="AG56" s="3" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -7090,17 +7226,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD57" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD57" s="3" t="inlineStr"/>
       <c r="AE57" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AF57" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG57" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -7263,6 +7400,11 @@
         </is>
       </c>
       <c r="AF58" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG58" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -7345,6 +7487,7 @@
       <c r="AD59" s="3" t="inlineStr"/>
       <c r="AE59" s="3" t="inlineStr"/>
       <c r="AF59" s="3" t="inlineStr"/>
+      <c r="AG59" s="3" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -7461,12 +7604,13 @@
       <c r="AB60" s="3" t="inlineStr"/>
       <c r="AC60" s="3" t="inlineStr"/>
       <c r="AD60" s="3" t="inlineStr"/>
-      <c r="AE60" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE60" s="3" t="inlineStr"/>
       <c r="AF60" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG60" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -7545,6 +7689,7 @@
       <c r="AD61" s="3" t="inlineStr"/>
       <c r="AE61" s="3" t="inlineStr"/>
       <c r="AF61" s="3" t="inlineStr"/>
+      <c r="AG61" s="3" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -7653,12 +7798,13 @@
       <c r="AB62" s="3" t="inlineStr"/>
       <c r="AC62" s="3" t="inlineStr"/>
       <c r="AD62" s="3" t="inlineStr"/>
-      <c r="AE62" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE62" s="3" t="inlineStr"/>
       <c r="AF62" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG62" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -7821,6 +7967,11 @@
         </is>
       </c>
       <c r="AF63" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG63" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -7875,6 +8026,7 @@
       <c r="AD64" s="3" t="inlineStr"/>
       <c r="AE64" s="3" t="inlineStr"/>
       <c r="AF64" s="3" t="inlineStr"/>
+      <c r="AG64" s="3" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -8037,6 +8189,11 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="AG65" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -8199,6 +8356,11 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="AG66" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -8323,12 +8485,13 @@
       <c r="AB67" s="3" t="inlineStr"/>
       <c r="AC67" s="3" t="inlineStr"/>
       <c r="AD67" s="3" t="inlineStr"/>
-      <c r="AE67" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE67" s="3" t="inlineStr"/>
       <c r="AF67" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG67" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -8435,6 +8598,7 @@
       <c r="AD68" s="3" t="inlineStr"/>
       <c r="AE68" s="3" t="inlineStr"/>
       <c r="AF68" s="3" t="inlineStr"/>
+      <c r="AG68" s="3" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -8593,6 +8757,11 @@
         </is>
       </c>
       <c r="AF69" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG69" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -8679,6 +8848,7 @@
       <c r="AD70" s="3" t="inlineStr"/>
       <c r="AE70" s="3" t="inlineStr"/>
       <c r="AF70" s="3" t="inlineStr"/>
+      <c r="AG70" s="3" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -8837,6 +9007,11 @@
         </is>
       </c>
       <c r="AF71" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG71" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -8947,6 +9122,7 @@
       <c r="AD72" s="3" t="inlineStr"/>
       <c r="AE72" s="3" t="inlineStr"/>
       <c r="AF72" s="3" t="inlineStr"/>
+      <c r="AG72" s="3" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -9079,12 +9255,13 @@
         </is>
       </c>
       <c r="AD73" s="3" t="inlineStr"/>
-      <c r="AE73" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE73" s="3" t="inlineStr"/>
       <c r="AF73" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG73" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -9251,6 +9428,11 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="AG74" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -9413,6 +9595,11 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="AG75" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -9571,6 +9758,11 @@
         </is>
       </c>
       <c r="AF76" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG76" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -9661,6 +9853,7 @@
       <c r="AD77" s="3" t="inlineStr"/>
       <c r="AE77" s="3" t="inlineStr"/>
       <c r="AF77" s="3" t="inlineStr"/>
+      <c r="AG77" s="3" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -9811,6 +10004,11 @@
         </is>
       </c>
       <c r="AF78" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG78" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -9893,6 +10091,7 @@
       <c r="AD79" s="3" t="inlineStr"/>
       <c r="AE79" s="3" t="inlineStr"/>
       <c r="AF79" s="3" t="inlineStr"/>
+      <c r="AG79" s="3" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -10055,6 +10254,11 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="AG80" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -10213,6 +10417,11 @@
         </is>
       </c>
       <c r="AF81" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG81" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -10333,12 +10542,13 @@
       <c r="AB82" s="3" t="inlineStr"/>
       <c r="AC82" s="3" t="inlineStr"/>
       <c r="AD82" s="3" t="inlineStr"/>
-      <c r="AE82" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF82" s="3" t="inlineStr"/>
+      <c r="AE82" s="3" t="inlineStr"/>
+      <c r="AF82" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG82" s="3" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -10417,6 +10627,7 @@
       <c r="AD83" s="3" t="inlineStr"/>
       <c r="AE83" s="3" t="inlineStr"/>
       <c r="AF83" s="3" t="inlineStr"/>
+      <c r="AG83" s="3" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -10564,17 +10775,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD84" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD84" s="3" t="inlineStr"/>
       <c r="AE84" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AF84" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG84" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -10691,12 +10903,13 @@
       <c r="AB85" s="3" t="inlineStr"/>
       <c r="AC85" s="3" t="inlineStr"/>
       <c r="AD85" s="3" t="inlineStr"/>
-      <c r="AE85" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF85" s="3" t="inlineStr"/>
+      <c r="AE85" s="3" t="inlineStr"/>
+      <c r="AF85" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG85" s="3" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -10755,6 +10968,7 @@
       <c r="AD86" s="3" t="inlineStr"/>
       <c r="AE86" s="3" t="inlineStr"/>
       <c r="AF86" s="3" t="inlineStr"/>
+      <c r="AG86" s="3" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -10917,6 +11131,11 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="AG87" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -11041,12 +11260,13 @@
       <c r="AB88" s="3" t="inlineStr"/>
       <c r="AC88" s="3" t="inlineStr"/>
       <c r="AD88" s="3" t="inlineStr"/>
-      <c r="AE88" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE88" s="3" t="inlineStr"/>
       <c r="AF88" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG88" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -11155,12 +11375,13 @@
       <c r="AB89" s="3" t="inlineStr"/>
       <c r="AC89" s="3" t="inlineStr"/>
       <c r="AD89" s="3" t="inlineStr"/>
-      <c r="AE89" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF89" s="3" t="inlineStr"/>
+      <c r="AE89" s="3" t="inlineStr"/>
+      <c r="AF89" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG89" s="3" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -11319,6 +11540,11 @@
         </is>
       </c>
       <c r="AF90" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG90" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -11381,6 +11607,7 @@
       <c r="AD91" s="3" t="inlineStr"/>
       <c r="AE91" s="3" t="inlineStr"/>
       <c r="AF91" s="3" t="inlineStr"/>
+      <c r="AG91" s="3" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -11471,6 +11698,7 @@
       <c r="AD92" s="3" t="inlineStr"/>
       <c r="AE92" s="3" t="inlineStr"/>
       <c r="AF92" s="3" t="inlineStr"/>
+      <c r="AG92" s="3" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -11533,6 +11761,7 @@
       <c r="AD93" s="3" t="inlineStr"/>
       <c r="AE93" s="3" t="inlineStr"/>
       <c r="AF93" s="3" t="inlineStr"/>
+      <c r="AG93" s="3" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -11668,17 +11897,18 @@
         </is>
       </c>
       <c r="AC94" s="3" t="inlineStr"/>
-      <c r="AD94" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD94" s="3" t="inlineStr"/>
       <c r="AE94" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AF94" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG94" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -11799,12 +12029,13 @@
       <c r="AB95" s="3" t="inlineStr"/>
       <c r="AC95" s="3" t="inlineStr"/>
       <c r="AD95" s="3" t="inlineStr"/>
-      <c r="AE95" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE95" s="3" t="inlineStr"/>
       <c r="AF95" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG95" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -11956,17 +12187,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD96" s="3" t="inlineStr"/>
       <c r="AE96" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AF96" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG96" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -12049,6 +12281,7 @@
       <c r="AD97" s="3" t="inlineStr"/>
       <c r="AE97" s="3" t="inlineStr"/>
       <c r="AF97" s="3" t="inlineStr"/>
+      <c r="AG97" s="3" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -12211,6 +12444,11 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="AG98" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -12369,6 +12607,11 @@
         </is>
       </c>
       <c r="AF99" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG99" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -12467,6 +12710,7 @@
       <c r="AD100" s="3" t="inlineStr"/>
       <c r="AE100" s="3" t="inlineStr"/>
       <c r="AF100" s="3" t="inlineStr"/>
+      <c r="AG100" s="3" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -12557,6 +12801,7 @@
       <c r="AD101" s="3" t="inlineStr"/>
       <c r="AE101" s="3" t="inlineStr"/>
       <c r="AF101" s="3" t="inlineStr"/>
+      <c r="AG101" s="3" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -12719,6 +12964,11 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="AG102" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -12843,12 +13093,13 @@
       <c r="AB103" s="3" t="inlineStr"/>
       <c r="AC103" s="3" t="inlineStr"/>
       <c r="AD103" s="3" t="inlineStr"/>
-      <c r="AE103" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE103" s="3" t="inlineStr"/>
       <c r="AF103" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG103" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -13011,6 +13262,11 @@
         </is>
       </c>
       <c r="AF104" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG104" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -13135,12 +13391,13 @@
         </is>
       </c>
       <c r="AD105" s="3" t="inlineStr"/>
-      <c r="AE105" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF105" s="3" t="inlineStr"/>
+      <c r="AE105" s="3" t="inlineStr"/>
+      <c r="AF105" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG105" s="3" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -13299,6 +13556,11 @@
         </is>
       </c>
       <c r="AF106" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG106" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -13418,17 +13680,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD107" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD107" s="3" t="inlineStr"/>
       <c r="AE107" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AF107" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG107" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -13561,12 +13824,13 @@
         </is>
       </c>
       <c r="AD108" s="3" t="inlineStr"/>
-      <c r="AE108" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE108" s="3" t="inlineStr"/>
       <c r="AF108" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG108" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -13661,6 +13925,7 @@
       <c r="AD109" s="3" t="inlineStr"/>
       <c r="AE109" s="3" t="inlineStr"/>
       <c r="AF109" s="3" t="inlineStr"/>
+      <c r="AG109" s="3" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -13823,6 +14088,11 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="AG110" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -13970,17 +14240,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD111" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD111" s="3" t="inlineStr"/>
       <c r="AE111" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AF111" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG111" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -14098,7 +14369,8 @@
       <c r="AC112" s="3" t="inlineStr"/>
       <c r="AD112" s="3" t="inlineStr"/>
       <c r="AE112" s="3" t="inlineStr"/>
-      <c r="AF112" s="2" t="inlineStr">
+      <c r="AF112" s="3" t="inlineStr"/>
+      <c r="AG112" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -14226,17 +14498,18 @@
       </c>
       <c r="AB113" s="3" t="inlineStr"/>
       <c r="AC113" s="3" t="inlineStr"/>
-      <c r="AD113" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD113" s="3" t="inlineStr"/>
       <c r="AE113" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AF113" s="3" t="inlineStr"/>
+      <c r="AF113" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG113" s="3" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -14353,12 +14626,13 @@
       <c r="AB114" s="3" t="inlineStr"/>
       <c r="AC114" s="3" t="inlineStr"/>
       <c r="AD114" s="3" t="inlineStr"/>
-      <c r="AE114" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF114" s="3" t="inlineStr"/>
+      <c r="AE114" s="3" t="inlineStr"/>
+      <c r="AF114" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG114" s="3" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -14471,12 +14745,13 @@
       <c r="AB115" s="3" t="inlineStr"/>
       <c r="AC115" s="3" t="inlineStr"/>
       <c r="AD115" s="3" t="inlineStr"/>
-      <c r="AE115" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF115" s="3" t="inlineStr"/>
+      <c r="AE115" s="3" t="inlineStr"/>
+      <c r="AF115" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG115" s="3" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -14635,6 +14910,11 @@
         </is>
       </c>
       <c r="AF116" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG116" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -14733,6 +15013,7 @@
       <c r="AD117" s="3" t="inlineStr"/>
       <c r="AE117" s="3" t="inlineStr"/>
       <c r="AF117" s="3" t="inlineStr"/>
+      <c r="AG117" s="3" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -14868,17 +15149,18 @@
         </is>
       </c>
       <c r="AC118" s="3" t="inlineStr"/>
-      <c r="AD118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD118" s="3" t="inlineStr"/>
       <c r="AE118" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AF118" s="3" t="inlineStr"/>
+      <c r="AF118" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG118" s="3" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -14961,6 +15243,7 @@
       <c r="AD119" s="3" t="inlineStr"/>
       <c r="AE119" s="3" t="inlineStr"/>
       <c r="AF119" s="3" t="inlineStr"/>
+      <c r="AG119" s="3" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -15063,6 +15346,7 @@
       <c r="AD120" s="3" t="inlineStr"/>
       <c r="AE120" s="3" t="inlineStr"/>
       <c r="AF120" s="3" t="inlineStr"/>
+      <c r="AG120" s="3" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -15105,6 +15389,7 @@
       <c r="AD121" s="3" t="inlineStr"/>
       <c r="AE121" s="3" t="inlineStr"/>
       <c r="AF121" s="3" t="inlineStr"/>
+      <c r="AG121" s="3" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -15263,6 +15548,11 @@
         </is>
       </c>
       <c r="AF122" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG122" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -15360,7 +15650,8 @@
       <c r="AC123" s="3" t="inlineStr"/>
       <c r="AD123" s="3" t="inlineStr"/>
       <c r="AE123" s="3" t="inlineStr"/>
-      <c r="AF123" s="2" t="inlineStr">
+      <c r="AF123" s="3" t="inlineStr"/>
+      <c r="AG123" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -15523,6 +15814,11 @@
         </is>
       </c>
       <c r="AF124" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG124" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -15609,6 +15905,7 @@
       <c r="AD125" s="3" t="inlineStr"/>
       <c r="AE125" s="3" t="inlineStr"/>
       <c r="AF125" s="3" t="inlineStr"/>
+      <c r="AG125" s="3" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -15729,12 +16026,13 @@
         </is>
       </c>
       <c r="AD126" s="3" t="inlineStr"/>
-      <c r="AE126" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE126" s="3" t="inlineStr"/>
       <c r="AF126" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG126" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -15855,12 +16153,13 @@
       <c r="AB127" s="3" t="inlineStr"/>
       <c r="AC127" s="3" t="inlineStr"/>
       <c r="AD127" s="3" t="inlineStr"/>
-      <c r="AE127" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE127" s="3" t="inlineStr"/>
       <c r="AF127" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG127" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -16004,17 +16303,18 @@
         </is>
       </c>
       <c r="AC128" s="3" t="inlineStr"/>
-      <c r="AD128" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD128" s="3" t="inlineStr"/>
       <c r="AE128" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AF128" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG128" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -16166,17 +16466,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD129" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD129" s="3" t="inlineStr"/>
       <c r="AE129" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AF129" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG129" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -16316,17 +16617,18 @@
         </is>
       </c>
       <c r="AC130" s="3" t="inlineStr"/>
-      <c r="AD130" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD130" s="3" t="inlineStr"/>
       <c r="AE130" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AF130" s="3" t="inlineStr"/>
+      <c r="AF130" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG130" s="3" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -16429,6 +16731,7 @@
       <c r="AD131" s="3" t="inlineStr"/>
       <c r="AE131" s="3" t="inlineStr"/>
       <c r="AF131" s="3" t="inlineStr"/>
+      <c r="AG131" s="3" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -16571,6 +16874,11 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="AG132" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -16729,6 +17037,11 @@
         </is>
       </c>
       <c r="AF133" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG133" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -16819,6 +17132,7 @@
       <c r="AD134" s="3" t="inlineStr"/>
       <c r="AE134" s="3" t="inlineStr"/>
       <c r="AF134" s="3" t="inlineStr"/>
+      <c r="AG134" s="3" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -16966,17 +17280,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD135" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD135" s="3" t="inlineStr"/>
       <c r="AE135" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AF135" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG135" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -17089,12 +17404,13 @@
       <c r="AB136" s="3" t="inlineStr"/>
       <c r="AC136" s="3" t="inlineStr"/>
       <c r="AD136" s="3" t="inlineStr"/>
-      <c r="AE136" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF136" s="3" t="inlineStr"/>
+      <c r="AE136" s="3" t="inlineStr"/>
+      <c r="AF136" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG136" s="3" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -17181,6 +17497,7 @@
       <c r="AD137" s="3" t="inlineStr"/>
       <c r="AE137" s="3" t="inlineStr"/>
       <c r="AF137" s="3" t="inlineStr"/>
+      <c r="AG137" s="3" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -17339,6 +17656,11 @@
         </is>
       </c>
       <c r="AF138" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG138" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -17405,6 +17727,7 @@
       <c r="AD139" s="3" t="inlineStr"/>
       <c r="AE139" s="3" t="inlineStr"/>
       <c r="AF139" s="3" t="inlineStr"/>
+      <c r="AG139" s="3" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -17525,12 +17848,13 @@
       <c r="AB140" s="3" t="inlineStr"/>
       <c r="AC140" s="3" t="inlineStr"/>
       <c r="AD140" s="3" t="inlineStr"/>
-      <c r="AE140" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF140" s="3" t="inlineStr"/>
+      <c r="AE140" s="3" t="inlineStr"/>
+      <c r="AF140" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG140" s="3" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -17693,6 +18017,11 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="AG141" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -17855,6 +18184,11 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="AG142" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -17994,17 +18328,18 @@
         </is>
       </c>
       <c r="AC143" s="3" t="inlineStr"/>
-      <c r="AD143" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD143" s="3" t="inlineStr"/>
       <c r="AE143" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AF143" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG143" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -18156,17 +18491,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD144" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD144" s="3" t="inlineStr"/>
       <c r="AE144" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AF144" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG144" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -18329,6 +18665,11 @@
         </is>
       </c>
       <c r="AF145" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG145" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -18461,12 +18802,13 @@
         </is>
       </c>
       <c r="AD146" s="3" t="inlineStr"/>
-      <c r="AE146" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE146" s="3" t="inlineStr"/>
       <c r="AF146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG146" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -18545,6 +18887,7 @@
       <c r="AD147" s="3" t="inlineStr"/>
       <c r="AE147" s="3" t="inlineStr"/>
       <c r="AF147" s="3" t="inlineStr"/>
+      <c r="AG147" s="3" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -18677,12 +19020,13 @@
         </is>
       </c>
       <c r="AD148" s="3" t="inlineStr"/>
-      <c r="AE148" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE148" s="3" t="inlineStr"/>
       <c r="AF148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG148" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -18757,6 +19101,7 @@
       <c r="AD149" s="3" t="inlineStr"/>
       <c r="AE149" s="3" t="inlineStr"/>
       <c r="AF149" s="3" t="inlineStr"/>
+      <c r="AG149" s="3" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -18874,13 +19219,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="X150" s="3" t="inlineStr"/>
+      <c r="X150" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Y150" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Z150" s="3" t="inlineStr"/>
+      <c r="Z150" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA150" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18907,6 +19260,11 @@
         </is>
       </c>
       <c r="AF150" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG150" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -18977,6 +19335,7 @@
       <c r="AD151" s="3" t="inlineStr"/>
       <c r="AE151" s="3" t="inlineStr"/>
       <c r="AF151" s="3" t="inlineStr"/>
+      <c r="AG151" s="3" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -19023,6 +19382,7 @@
       <c r="AD152" s="3" t="inlineStr"/>
       <c r="AE152" s="3" t="inlineStr"/>
       <c r="AF152" s="3" t="inlineStr"/>
+      <c r="AG152" s="3" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -19121,6 +19481,7 @@
       <c r="AD153" s="3" t="inlineStr"/>
       <c r="AE153" s="3" t="inlineStr"/>
       <c r="AF153" s="3" t="inlineStr"/>
+      <c r="AG153" s="3" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -19279,6 +19640,11 @@
         </is>
       </c>
       <c r="AF154" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG154" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -19373,6 +19739,7 @@
       <c r="AD155" s="3" t="inlineStr"/>
       <c r="AE155" s="3" t="inlineStr"/>
       <c r="AF155" s="3" t="inlineStr"/>
+      <c r="AG155" s="3" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -19463,6 +19830,7 @@
       <c r="AD156" s="3" t="inlineStr"/>
       <c r="AE156" s="3" t="inlineStr"/>
       <c r="AF156" s="3" t="inlineStr"/>
+      <c r="AG156" s="3" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -19579,12 +19947,13 @@
       <c r="AB157" s="3" t="inlineStr"/>
       <c r="AC157" s="3" t="inlineStr"/>
       <c r="AD157" s="3" t="inlineStr"/>
-      <c r="AE157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF157" s="3" t="inlineStr"/>
+      <c r="AE157" s="3" t="inlineStr"/>
+      <c r="AF157" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG157" s="3" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -19682,7 +20051,8 @@
       </c>
       <c r="AD158" s="3" t="inlineStr"/>
       <c r="AE158" s="3" t="inlineStr"/>
-      <c r="AF158" s="2" t="inlineStr">
+      <c r="AF158" s="3" t="inlineStr"/>
+      <c r="AG158" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -19753,6 +20123,7 @@
       <c r="AD159" s="3" t="inlineStr"/>
       <c r="AE159" s="3" t="inlineStr"/>
       <c r="AF159" s="3" t="inlineStr"/>
+      <c r="AG159" s="3" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -19884,13 +20255,14 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD160" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE160" s="3" t="inlineStr"/>
-      <c r="AF160" s="2" t="inlineStr">
+      <c r="AD160" s="3" t="inlineStr"/>
+      <c r="AE160" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF160" s="3" t="inlineStr"/>
+      <c r="AG160" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -20053,6 +20425,11 @@
         </is>
       </c>
       <c r="AF161" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG161" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -20173,12 +20550,13 @@
         </is>
       </c>
       <c r="AD162" s="3" t="inlineStr"/>
-      <c r="AE162" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE162" s="3" t="inlineStr"/>
       <c r="AF162" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG162" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -20273,6 +20651,7 @@
       <c r="AD163" s="3" t="inlineStr"/>
       <c r="AE163" s="3" t="inlineStr"/>
       <c r="AF163" s="3" t="inlineStr"/>
+      <c r="AG163" s="3" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -20404,13 +20783,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD164" s="3" t="inlineStr"/>
-      <c r="AE164" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE164" s="3" t="inlineStr"/>
       <c r="AF164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG164" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -20535,12 +20919,13 @@
         </is>
       </c>
       <c r="AD165" s="3" t="inlineStr"/>
-      <c r="AE165" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE165" s="3" t="inlineStr"/>
       <c r="AF165" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG165" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -20703,6 +21088,11 @@
         </is>
       </c>
       <c r="AF166" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG166" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -20777,6 +21167,7 @@
       <c r="AD167" s="3" t="inlineStr"/>
       <c r="AE167" s="3" t="inlineStr"/>
       <c r="AF167" s="3" t="inlineStr"/>
+      <c r="AG167" s="3" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -20935,6 +21326,11 @@
         </is>
       </c>
       <c r="AF168" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG168" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -21055,12 +21451,13 @@
         </is>
       </c>
       <c r="AD169" s="3" t="inlineStr"/>
-      <c r="AE169" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE169" s="3" t="inlineStr"/>
       <c r="AF169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG169" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -21147,6 +21544,7 @@
       <c r="AD170" s="3" t="inlineStr"/>
       <c r="AE170" s="3" t="inlineStr"/>
       <c r="AF170" s="3" t="inlineStr"/>
+      <c r="AG170" s="3" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -21225,6 +21623,7 @@
       <c r="AD171" s="3" t="inlineStr"/>
       <c r="AE171" s="3" t="inlineStr"/>
       <c r="AF171" s="3" t="inlineStr"/>
+      <c r="AG171" s="3" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -21387,6 +21786,11 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="AG172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -21545,6 +21949,11 @@
         </is>
       </c>
       <c r="AF173" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG173" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -21664,17 +22073,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD174" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD174" s="3" t="inlineStr"/>
       <c r="AE174" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AF174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG174" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -21795,12 +22205,13 @@
       <c r="AB175" s="3" t="inlineStr"/>
       <c r="AC175" s="3" t="inlineStr"/>
       <c r="AD175" s="3" t="inlineStr"/>
-      <c r="AE175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF175" s="3" t="inlineStr"/>
+      <c r="AE175" s="3" t="inlineStr"/>
+      <c r="AF175" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG175" s="3" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -21895,6 +22306,7 @@
       <c r="AD176" s="3" t="inlineStr"/>
       <c r="AE176" s="3" t="inlineStr"/>
       <c r="AF176" s="3" t="inlineStr"/>
+      <c r="AG176" s="3" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -21977,6 +22389,7 @@
       <c r="AD177" s="3" t="inlineStr"/>
       <c r="AE177" s="3" t="inlineStr"/>
       <c r="AF177" s="3" t="inlineStr"/>
+      <c r="AG177" s="3" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -22035,6 +22448,7 @@
       <c r="AD178" s="3" t="inlineStr"/>
       <c r="AE178" s="3" t="inlineStr"/>
       <c r="AF178" s="3" t="inlineStr"/>
+      <c r="AG178" s="3" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -22174,17 +22588,18 @@
         </is>
       </c>
       <c r="AC179" s="3" t="inlineStr"/>
-      <c r="AD179" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD179" s="3" t="inlineStr"/>
       <c r="AE179" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AF179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG179" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -22347,6 +22762,11 @@
         </is>
       </c>
       <c r="AF180" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG180" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -22429,6 +22849,7 @@
       <c r="AD181" s="3" t="inlineStr"/>
       <c r="AE181" s="3" t="inlineStr"/>
       <c r="AF181" s="3" t="inlineStr"/>
+      <c r="AG181" s="3" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -22583,6 +23004,11 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="AG182" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -22730,17 +23156,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD183" s="3" t="inlineStr"/>
       <c r="AE183" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AF183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG183" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -22843,6 +23270,7 @@
       <c r="AD184" s="3" t="inlineStr"/>
       <c r="AE184" s="3" t="inlineStr"/>
       <c r="AF184" s="3" t="inlineStr"/>
+      <c r="AG184" s="3" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -22900,7 +23328,8 @@
       <c r="AC185" s="3" t="inlineStr"/>
       <c r="AD185" s="3" t="inlineStr"/>
       <c r="AE185" s="3" t="inlineStr"/>
-      <c r="AF185" s="2" t="inlineStr">
+      <c r="AF185" s="3" t="inlineStr"/>
+      <c r="AG185" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -23063,6 +23492,11 @@
         </is>
       </c>
       <c r="AF186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG186" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -23133,6 +23567,7 @@
       <c r="AD187" s="3" t="inlineStr"/>
       <c r="AE187" s="3" t="inlineStr"/>
       <c r="AF187" s="3" t="inlineStr"/>
+      <c r="AG187" s="3" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -23199,6 +23634,7 @@
       <c r="AD188" s="3" t="inlineStr"/>
       <c r="AE188" s="3" t="inlineStr"/>
       <c r="AF188" s="3" t="inlineStr"/>
+      <c r="AG188" s="3" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -23361,6 +23797,11 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="AG189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -23508,17 +23949,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD190" s="3" t="inlineStr"/>
       <c r="AE190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AF190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -23670,17 +24112,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD191" s="3" t="inlineStr"/>
       <c r="AE191" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AF191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG191" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -23824,17 +24267,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD192" s="3" t="inlineStr"/>
       <c r="AE192" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AF192" s="3" t="inlineStr"/>
+      <c r="AF192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG192" s="3" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -23885,6 +24329,7 @@
       <c r="AD193" s="3" t="inlineStr"/>
       <c r="AE193" s="3" t="inlineStr"/>
       <c r="AF193" s="3" t="inlineStr"/>
+      <c r="AG193" s="3" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -23963,6 +24408,7 @@
       <c r="AD194" s="3" t="inlineStr"/>
       <c r="AE194" s="3" t="inlineStr"/>
       <c r="AF194" s="3" t="inlineStr"/>
+      <c r="AG194" s="3" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -24125,6 +24571,11 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="AG195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -24260,17 +24711,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD196" s="3" t="inlineStr"/>
       <c r="AE196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AF196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -24393,6 +24845,7 @@
       <c r="AD197" s="3" t="inlineStr"/>
       <c r="AE197" s="3" t="inlineStr"/>
       <c r="AF197" s="3" t="inlineStr"/>
+      <c r="AG197" s="3" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -24555,6 +25008,11 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="AG198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -24702,17 +25160,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD199" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD199" s="3" t="inlineStr"/>
       <c r="AE199" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AF199" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG199" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -24767,6 +25226,7 @@
       <c r="AD200" s="3" t="inlineStr"/>
       <c r="AE200" s="3" t="inlineStr"/>
       <c r="AF200" s="3" t="inlineStr"/>
+      <c r="AG200" s="3" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -24902,17 +25362,18 @@
         </is>
       </c>
       <c r="AC201" s="3" t="inlineStr"/>
-      <c r="AD201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD201" s="3" t="inlineStr"/>
       <c r="AE201" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AF201" s="3" t="inlineStr"/>
+      <c r="AF201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG201" s="3" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -25002,7 +25463,8 @@
       <c r="AC202" s="3" t="inlineStr"/>
       <c r="AD202" s="3" t="inlineStr"/>
       <c r="AE202" s="3" t="inlineStr"/>
-      <c r="AF202" s="2" t="inlineStr">
+      <c r="AF202" s="3" t="inlineStr"/>
+      <c r="AG202" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -25049,6 +25511,7 @@
       <c r="AD203" s="3" t="inlineStr"/>
       <c r="AE203" s="3" t="inlineStr"/>
       <c r="AF203" s="3" t="inlineStr"/>
+      <c r="AG203" s="3" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -25173,12 +25636,13 @@
         </is>
       </c>
       <c r="AD204" s="3" t="inlineStr"/>
-      <c r="AE204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF204" s="3" t="inlineStr"/>
+      <c r="AE204" s="3" t="inlineStr"/>
+      <c r="AF204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG204" s="3" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -25257,6 +25721,7 @@
       <c r="AD205" s="3" t="inlineStr"/>
       <c r="AE205" s="3" t="inlineStr"/>
       <c r="AF205" s="3" t="inlineStr"/>
+      <c r="AG205" s="3" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
@@ -25339,6 +25804,7 @@
       <c r="AD206" s="3" t="inlineStr"/>
       <c r="AE206" s="3" t="inlineStr"/>
       <c r="AF206" s="3" t="inlineStr"/>
+      <c r="AG206" s="3" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -25453,6 +25919,7 @@
       <c r="AD207" s="3" t="inlineStr"/>
       <c r="AE207" s="3" t="inlineStr"/>
       <c r="AF207" s="3" t="inlineStr"/>
+      <c r="AG207" s="3" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -25600,17 +26067,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD208" s="3" t="inlineStr"/>
       <c r="AE208" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AF208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG208" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -25709,6 +26177,7 @@
       <c r="AD209" s="3" t="inlineStr"/>
       <c r="AE209" s="3" t="inlineStr"/>
       <c r="AF209" s="3" t="inlineStr"/>
+      <c r="AG209" s="3" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -25779,6 +26248,7 @@
       <c r="AD210" s="3" t="inlineStr"/>
       <c r="AE210" s="3" t="inlineStr"/>
       <c r="AF210" s="3" t="inlineStr"/>
+      <c r="AG210" s="3" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -25937,6 +26407,11 @@
         </is>
       </c>
       <c r="AF211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -26051,6 +26526,7 @@
       <c r="AD212" s="3" t="inlineStr"/>
       <c r="AE212" s="3" t="inlineStr"/>
       <c r="AF212" s="3" t="inlineStr"/>
+      <c r="AG212" s="3" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -26165,6 +26641,7 @@
       <c r="AD213" s="3" t="inlineStr"/>
       <c r="AE213" s="3" t="inlineStr"/>
       <c r="AF213" s="3" t="inlineStr"/>
+      <c r="AG213" s="3" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -26327,6 +26804,11 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="AG214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -26480,7 +26962,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AF215" s="3" t="inlineStr"/>
+      <c r="AF215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG215" s="3" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -26531,6 +27018,7 @@
       <c r="AD216" s="3" t="inlineStr"/>
       <c r="AE216" s="3" t="inlineStr"/>
       <c r="AF216" s="3" t="inlineStr"/>
+      <c r="AG216" s="3" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -26643,12 +27131,13 @@
         </is>
       </c>
       <c r="AD217" s="3" t="inlineStr"/>
-      <c r="AE217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF217" s="3" t="inlineStr"/>
+      <c r="AE217" s="3" t="inlineStr"/>
+      <c r="AF217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG217" s="3" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -26777,12 +27266,13 @@
         </is>
       </c>
       <c r="AD218" s="3" t="inlineStr"/>
-      <c r="AE218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF218" s="3" t="inlineStr"/>
+      <c r="AE218" s="3" t="inlineStr"/>
+      <c r="AF218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG218" s="3" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -26833,6 +27323,7 @@
       <c r="AD219" s="3" t="inlineStr"/>
       <c r="AE219" s="3" t="inlineStr"/>
       <c r="AF219" s="3" t="inlineStr"/>
+      <c r="AG219" s="3" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -26879,6 +27370,7 @@
       <c r="AD220" s="3" t="inlineStr"/>
       <c r="AE220" s="3" t="inlineStr"/>
       <c r="AF220" s="3" t="inlineStr"/>
+      <c r="AG220" s="3" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -26973,6 +27465,7 @@
       <c r="AD221" s="3" t="inlineStr"/>
       <c r="AE221" s="3" t="inlineStr"/>
       <c r="AF221" s="3" t="inlineStr"/>
+      <c r="AG221" s="3" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -27131,6 +27624,11 @@
         </is>
       </c>
       <c r="AF222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG222" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -27209,6 +27707,7 @@
       <c r="AD223" s="3" t="inlineStr"/>
       <c r="AE223" s="3" t="inlineStr"/>
       <c r="AF223" s="3" t="inlineStr"/>
+      <c r="AG223" s="3" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -27371,6 +27870,11 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="AG224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -27518,17 +28022,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD225" s="3" t="inlineStr"/>
       <c r="AE225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AF225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -27599,6 +28104,7 @@
       <c r="AD226" s="3" t="inlineStr"/>
       <c r="AE226" s="3" t="inlineStr"/>
       <c r="AF226" s="3" t="inlineStr"/>
+      <c r="AG226" s="3" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -27669,6 +28175,7 @@
       <c r="AD227" s="3" t="inlineStr"/>
       <c r="AE227" s="3" t="inlineStr"/>
       <c r="AF227" s="3" t="inlineStr"/>
+      <c r="AG227" s="3" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -27831,6 +28338,11 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="AG228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -27989,6 +28501,11 @@
         </is>
       </c>
       <c r="AF229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -28106,7 +28623,8 @@
       <c r="AC230" s="3" t="inlineStr"/>
       <c r="AD230" s="3" t="inlineStr"/>
       <c r="AE230" s="3" t="inlineStr"/>
-      <c r="AF230" s="2" t="inlineStr">
+      <c r="AF230" s="3" t="inlineStr"/>
+      <c r="AG230" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -28157,6 +28675,7 @@
       <c r="AD231" s="3" t="inlineStr"/>
       <c r="AE231" s="3" t="inlineStr"/>
       <c r="AF231" s="3" t="inlineStr"/>
+      <c r="AG231" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG231"/>
+  <dimension ref="A1:AG232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18026,49 +18026,25 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>AWS Marketplace</t>
-        </is>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon VPC Lattice</t>
+        </is>
+      </c>
+      <c r="B142" s="3" t="inlineStr"/>
       <c r="C142" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D142" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E142" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D142" s="3" t="inlineStr"/>
+      <c r="E142" s="3" t="inlineStr"/>
       <c r="F142" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G142" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H142" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I142" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G142" s="3" t="inlineStr"/>
+      <c r="H142" s="3" t="inlineStr"/>
+      <c r="I142" s="3" t="inlineStr"/>
       <c r="J142" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18084,116 +18060,40 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M142" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N142" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="M142" s="3" t="inlineStr"/>
+      <c r="N142" s="3" t="inlineStr"/>
       <c r="O142" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P142" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q142" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P142" s="3" t="inlineStr"/>
+      <c r="Q142" s="3" t="inlineStr"/>
       <c r="R142" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S142" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T142" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U142" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V142" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W142" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X142" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y142" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z142" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA142" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB142" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC142" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD142" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE142" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF142" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG142" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S142" s="3" t="inlineStr"/>
+      <c r="T142" s="3" t="inlineStr"/>
+      <c r="U142" s="3" t="inlineStr"/>
+      <c r="V142" s="3" t="inlineStr"/>
+      <c r="W142" s="3" t="inlineStr"/>
+      <c r="X142" s="3" t="inlineStr"/>
+      <c r="Y142" s="3" t="inlineStr"/>
+      <c r="Z142" s="3" t="inlineStr"/>
+      <c r="AA142" s="3" t="inlineStr"/>
+      <c r="AB142" s="3" t="inlineStr"/>
+      <c r="AC142" s="3" t="inlineStr"/>
+      <c r="AD142" s="3" t="inlineStr"/>
+      <c r="AE142" s="3" t="inlineStr"/>
+      <c r="AF142" s="3" t="inlineStr"/>
+      <c r="AG142" s="3" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>AWS Application Migration Service (MGN)</t>
+          <t>AWS Marketplace</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
@@ -18291,7 +18191,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U143" s="3" t="inlineStr"/>
+      <c r="U143" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V143" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18327,8 +18231,16 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AC143" s="3" t="inlineStr"/>
-      <c r="AD143" s="3" t="inlineStr"/>
+      <c r="AC143" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD143" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE143" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18348,7 +18260,7 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>AWS Transfer Family</t>
+          <t>AWS Application Migration Service (MGN)</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
@@ -18446,11 +18358,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U144" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U144" s="3" t="inlineStr"/>
       <c r="V144" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18486,11 +18394,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AC144" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC144" s="3" t="inlineStr"/>
       <c r="AD144" s="3" t="inlineStr"/>
       <c r="AE144" s="2" t="inlineStr">
         <is>
@@ -18511,7 +18415,7 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>EC2 Image Builder</t>
+          <t>AWS Transfer Family</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
@@ -18654,11 +18558,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD145" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD145" s="3" t="inlineStr"/>
       <c r="AE145" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18678,7 +18578,7 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>AWS CodePipeline</t>
+          <t>EC2 Image Builder</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
@@ -18771,7 +18671,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T146" s="3" t="inlineStr"/>
+      <c r="T146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U146" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18787,22 +18691,46 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="X146" s="3" t="inlineStr"/>
-      <c r="Y146" s="3" t="inlineStr"/>
-      <c r="Z146" s="3" t="inlineStr"/>
+      <c r="X146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA146" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB146" s="3" t="inlineStr"/>
+      <c r="AB146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC146" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD146" s="3" t="inlineStr"/>
-      <c r="AE146" s="3" t="inlineStr"/>
+      <c r="AD146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE146" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF146" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18817,25 +18745,49 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>AWS OpsWorks for Chef Automate</t>
-        </is>
-      </c>
-      <c r="B147" s="3" t="inlineStr"/>
+          <t>AWS CodePipeline</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D147" s="3" t="inlineStr"/>
-      <c r="E147" s="3" t="inlineStr"/>
+      <c r="D147" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F147" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G147" s="3" t="inlineStr"/>
-      <c r="H147" s="3" t="inlineStr"/>
-      <c r="I147" s="3" t="inlineStr"/>
+      <c r="G147" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H147" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I147" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J147" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18856,13 +18808,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N147" s="3" t="inlineStr"/>
+      <c r="N147" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O147" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P147" s="3" t="inlineStr"/>
+      <c r="P147" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q147" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18873,68 +18833,76 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S147" s="3" t="inlineStr"/>
+      <c r="S147" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T147" s="3" t="inlineStr"/>
-      <c r="U147" s="3" t="inlineStr"/>
-      <c r="V147" s="3" t="inlineStr"/>
-      <c r="W147" s="3" t="inlineStr"/>
+      <c r="U147" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V147" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W147" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X147" s="3" t="inlineStr"/>
       <c r="Y147" s="3" t="inlineStr"/>
       <c r="Z147" s="3" t="inlineStr"/>
-      <c r="AA147" s="3" t="inlineStr"/>
+      <c r="AA147" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB147" s="3" t="inlineStr"/>
-      <c r="AC147" s="3" t="inlineStr"/>
+      <c r="AC147" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD147" s="3" t="inlineStr"/>
       <c r="AE147" s="3" t="inlineStr"/>
-      <c r="AF147" s="3" t="inlineStr"/>
-      <c r="AG147" s="3" t="inlineStr"/>
+      <c r="AF147" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG147" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>AWS Auto Scaling</t>
-        </is>
-      </c>
-      <c r="B148" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS OpsWorks for Chef Automate</t>
+        </is>
+      </c>
+      <c r="B148" s="3" t="inlineStr"/>
       <c r="C148" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D148" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E148" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D148" s="3" t="inlineStr"/>
+      <c r="E148" s="3" t="inlineStr"/>
       <c r="F148" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G148" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H148" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I148" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G148" s="3" t="inlineStr"/>
+      <c r="H148" s="3" t="inlineStr"/>
+      <c r="I148" s="3" t="inlineStr"/>
       <c r="J148" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18955,21 +18923,13 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N148" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N148" s="3" t="inlineStr"/>
       <c r="O148" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P148" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P148" s="3" t="inlineStr"/>
       <c r="Q148" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18980,80 +18940,68 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S148" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T148" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U148" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S148" s="3" t="inlineStr"/>
+      <c r="T148" s="3" t="inlineStr"/>
+      <c r="U148" s="3" t="inlineStr"/>
       <c r="V148" s="3" t="inlineStr"/>
-      <c r="W148" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W148" s="3" t="inlineStr"/>
       <c r="X148" s="3" t="inlineStr"/>
-      <c r="Y148" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Y148" s="3" t="inlineStr"/>
       <c r="Z148" s="3" t="inlineStr"/>
-      <c r="AA148" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA148" s="3" t="inlineStr"/>
       <c r="AB148" s="3" t="inlineStr"/>
-      <c r="AC148" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC148" s="3" t="inlineStr"/>
       <c r="AD148" s="3" t="inlineStr"/>
       <c r="AE148" s="3" t="inlineStr"/>
-      <c r="AF148" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG148" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF148" s="3" t="inlineStr"/>
+      <c r="AG148" s="3" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Amazon Timestream</t>
-        </is>
-      </c>
-      <c r="B149" s="3" t="inlineStr"/>
+          <t>AWS Auto Scaling</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D149" s="3" t="inlineStr"/>
-      <c r="E149" s="3" t="inlineStr"/>
+      <c r="D149" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F149" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G149" s="3" t="inlineStr"/>
-      <c r="H149" s="3" t="inlineStr"/>
-      <c r="I149" s="3" t="inlineStr"/>
+      <c r="G149" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H149" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I149" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J149" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19064,13 +19012,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L149" s="3" t="inlineStr"/>
+      <c r="L149" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M149" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N149" s="3" t="inlineStr"/>
+      <c r="N149" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O149" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19081,74 +19037,90 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q149" s="3" t="inlineStr"/>
+      <c r="Q149" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R149" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S149" s="3" t="inlineStr"/>
-      <c r="T149" s="3" t="inlineStr"/>
-      <c r="U149" s="3" t="inlineStr"/>
+      <c r="S149" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T149" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U149" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V149" s="3" t="inlineStr"/>
-      <c r="W149" s="3" t="inlineStr"/>
+      <c r="W149" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X149" s="3" t="inlineStr"/>
-      <c r="Y149" s="3" t="inlineStr"/>
+      <c r="Y149" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z149" s="3" t="inlineStr"/>
-      <c r="AA149" s="3" t="inlineStr"/>
+      <c r="AA149" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB149" s="3" t="inlineStr"/>
-      <c r="AC149" s="3" t="inlineStr"/>
+      <c r="AC149" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD149" s="3" t="inlineStr"/>
       <c r="AE149" s="3" t="inlineStr"/>
-      <c r="AF149" s="3" t="inlineStr"/>
-      <c r="AG149" s="3" t="inlineStr"/>
+      <c r="AF149" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG149" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>AWS Lake Formation</t>
-        </is>
-      </c>
-      <c r="B150" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Timestream</t>
+        </is>
+      </c>
+      <c r="B150" s="3" t="inlineStr"/>
       <c r="C150" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D150" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E150" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D150" s="3" t="inlineStr"/>
+      <c r="E150" s="3" t="inlineStr"/>
       <c r="F150" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G150" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H150" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I150" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G150" s="3" t="inlineStr"/>
+      <c r="H150" s="3" t="inlineStr"/>
+      <c r="I150" s="3" t="inlineStr"/>
       <c r="J150" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19159,21 +19131,13 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L150" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L150" s="3" t="inlineStr"/>
       <c r="M150" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N150" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N150" s="3" t="inlineStr"/>
       <c r="O150" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19184,172 +19148,220 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q150" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q150" s="3" t="inlineStr"/>
       <c r="R150" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S150" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T150" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U150" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V150" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W150" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X150" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y150" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z150" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA150" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB150" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC150" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD150" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE150" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF150" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG150" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S150" s="3" t="inlineStr"/>
+      <c r="T150" s="3" t="inlineStr"/>
+      <c r="U150" s="3" t="inlineStr"/>
+      <c r="V150" s="3" t="inlineStr"/>
+      <c r="W150" s="3" t="inlineStr"/>
+      <c r="X150" s="3" t="inlineStr"/>
+      <c r="Y150" s="3" t="inlineStr"/>
+      <c r="Z150" s="3" t="inlineStr"/>
+      <c r="AA150" s="3" t="inlineStr"/>
+      <c r="AB150" s="3" t="inlineStr"/>
+      <c r="AC150" s="3" t="inlineStr"/>
+      <c r="AD150" s="3" t="inlineStr"/>
+      <c r="AE150" s="3" t="inlineStr"/>
+      <c r="AF150" s="3" t="inlineStr"/>
+      <c r="AG150" s="3" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>AWS Migration Hub</t>
-        </is>
-      </c>
-      <c r="B151" s="3" t="inlineStr"/>
+          <t>AWS Lake Formation</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D151" s="3" t="inlineStr"/>
-      <c r="E151" s="3" t="inlineStr"/>
+      <c r="D151" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F151" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G151" s="3" t="inlineStr"/>
+      <c r="G151" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H151" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I151" s="3" t="inlineStr"/>
+      <c r="I151" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J151" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K151" s="3" t="inlineStr"/>
-      <c r="L151" s="3" t="inlineStr"/>
+      <c r="K151" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L151" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M151" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N151" s="3" t="inlineStr"/>
+      <c r="N151" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O151" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P151" s="3" t="inlineStr"/>
-      <c r="Q151" s="3" t="inlineStr"/>
+      <c r="P151" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q151" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R151" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S151" s="3" t="inlineStr"/>
-      <c r="T151" s="3" t="inlineStr"/>
-      <c r="U151" s="3" t="inlineStr"/>
-      <c r="V151" s="3" t="inlineStr"/>
-      <c r="W151" s="3" t="inlineStr"/>
-      <c r="X151" s="3" t="inlineStr"/>
-      <c r="Y151" s="3" t="inlineStr"/>
-      <c r="Z151" s="3" t="inlineStr"/>
-      <c r="AA151" s="3" t="inlineStr"/>
-      <c r="AB151" s="3" t="inlineStr"/>
-      <c r="AC151" s="3" t="inlineStr"/>
-      <c r="AD151" s="3" t="inlineStr"/>
-      <c r="AE151" s="3" t="inlineStr"/>
-      <c r="AF151" s="3" t="inlineStr"/>
-      <c r="AG151" s="3" t="inlineStr"/>
+      <c r="S151" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T151" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U151" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V151" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W151" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X151" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y151" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z151" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA151" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB151" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC151" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD151" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE151" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF151" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG151" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Amazon Monitron</t>
+          <t>AWS Migration Hub</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr"/>
-      <c r="C152" s="3" t="inlineStr"/>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="D152" s="3" t="inlineStr"/>
       <c r="E152" s="3" t="inlineStr"/>
-      <c r="F152" s="3" t="inlineStr"/>
+      <c r="F152" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="G152" s="3" t="inlineStr"/>
-      <c r="H152" s="3" t="inlineStr"/>
+      <c r="H152" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="I152" s="3" t="inlineStr"/>
       <c r="J152" s="2" t="inlineStr">
         <is>
@@ -19358,7 +19370,11 @@
       </c>
       <c r="K152" s="3" t="inlineStr"/>
       <c r="L152" s="3" t="inlineStr"/>
-      <c r="M152" s="3" t="inlineStr"/>
+      <c r="M152" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N152" s="3" t="inlineStr"/>
       <c r="O152" s="2" t="inlineStr">
         <is>
@@ -19367,7 +19383,11 @@
       </c>
       <c r="P152" s="3" t="inlineStr"/>
       <c r="Q152" s="3" t="inlineStr"/>
-      <c r="R152" s="3" t="inlineStr"/>
+      <c r="R152" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="S152" s="3" t="inlineStr"/>
       <c r="T152" s="3" t="inlineStr"/>
       <c r="U152" s="3" t="inlineStr"/>
@@ -19387,65 +19407,25 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>AWS OpsWorks Stacks</t>
+          <t>Amazon Monitron</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr"/>
-      <c r="C153" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D153" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E153" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F153" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G153" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H153" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I153" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C153" s="3" t="inlineStr"/>
+      <c r="D153" s="3" t="inlineStr"/>
+      <c r="E153" s="3" t="inlineStr"/>
+      <c r="F153" s="3" t="inlineStr"/>
+      <c r="G153" s="3" t="inlineStr"/>
+      <c r="H153" s="3" t="inlineStr"/>
+      <c r="I153" s="3" t="inlineStr"/>
       <c r="J153" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K153" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L153" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M153" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K153" s="3" t="inlineStr"/>
+      <c r="L153" s="3" t="inlineStr"/>
+      <c r="M153" s="3" t="inlineStr"/>
       <c r="N153" s="3" t="inlineStr"/>
       <c r="O153" s="2" t="inlineStr">
         <is>
@@ -19453,21 +19433,9 @@
         </is>
       </c>
       <c r="P153" s="3" t="inlineStr"/>
-      <c r="Q153" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R153" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S153" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q153" s="3" t="inlineStr"/>
+      <c r="R153" s="3" t="inlineStr"/>
+      <c r="S153" s="3" t="inlineStr"/>
       <c r="T153" s="3" t="inlineStr"/>
       <c r="U153" s="3" t="inlineStr"/>
       <c r="V153" s="3" t="inlineStr"/>
@@ -19486,14 +19454,10 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Amazon CloudWatch</t>
-        </is>
-      </c>
-      <c r="B154" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS OpsWorks Stacks</t>
+        </is>
+      </c>
+      <c r="B154" s="3" t="inlineStr"/>
       <c r="C154" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19549,21 +19513,13 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N154" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N154" s="3" t="inlineStr"/>
       <c r="O154" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P154" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P154" s="3" t="inlineStr"/>
       <c r="Q154" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19579,90 +19535,42 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T154" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U154" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V154" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W154" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X154" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y154" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z154" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA154" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB154" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC154" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD154" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE154" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF154" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG154" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T154" s="3" t="inlineStr"/>
+      <c r="U154" s="3" t="inlineStr"/>
+      <c r="V154" s="3" t="inlineStr"/>
+      <c r="W154" s="3" t="inlineStr"/>
+      <c r="X154" s="3" t="inlineStr"/>
+      <c r="Y154" s="3" t="inlineStr"/>
+      <c r="Z154" s="3" t="inlineStr"/>
+      <c r="AA154" s="3" t="inlineStr"/>
+      <c r="AB154" s="3" t="inlineStr"/>
+      <c r="AC154" s="3" t="inlineStr"/>
+      <c r="AD154" s="3" t="inlineStr"/>
+      <c r="AE154" s="3" t="inlineStr"/>
+      <c r="AF154" s="3" t="inlineStr"/>
+      <c r="AG154" s="3" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Amazon Location Service</t>
-        </is>
-      </c>
-      <c r="B155" s="3" t="inlineStr"/>
+          <t>Amazon CloudWatch</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D155" s="3" t="inlineStr"/>
+      <c r="D155" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="E155" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19683,7 +19591,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I155" s="3" t="inlineStr"/>
+      <c r="I155" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J155" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19714,8 +19626,16 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P155" s="3" t="inlineStr"/>
-      <c r="Q155" s="3" t="inlineStr"/>
+      <c r="P155" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q155" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R155" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19726,25 +19646,81 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T155" s="3" t="inlineStr"/>
-      <c r="U155" s="3" t="inlineStr"/>
-      <c r="V155" s="3" t="inlineStr"/>
-      <c r="W155" s="3" t="inlineStr"/>
-      <c r="X155" s="3" t="inlineStr"/>
-      <c r="Y155" s="3" t="inlineStr"/>
-      <c r="Z155" s="3" t="inlineStr"/>
-      <c r="AA155" s="3" t="inlineStr"/>
-      <c r="AB155" s="3" t="inlineStr"/>
-      <c r="AC155" s="3" t="inlineStr"/>
-      <c r="AD155" s="3" t="inlineStr"/>
-      <c r="AE155" s="3" t="inlineStr"/>
-      <c r="AF155" s="3" t="inlineStr"/>
-      <c r="AG155" s="3" t="inlineStr"/>
+      <c r="T155" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U155" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V155" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W155" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X155" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y155" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z155" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA155" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB155" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC155" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD155" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE155" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF155" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG155" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>AWS CodeStar</t>
+          <t>Amazon Location Service</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr"/>
@@ -19753,12 +19729,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="D156" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E156" s="3" t="inlineStr"/>
+      <c r="D156" s="3" t="inlineStr"/>
+      <c r="E156" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F156" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19806,17 +19782,17 @@
         </is>
       </c>
       <c r="P156" s="3" t="inlineStr"/>
-      <c r="Q156" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q156" s="3" t="inlineStr"/>
       <c r="R156" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S156" s="3" t="inlineStr"/>
+      <c r="S156" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T156" s="3" t="inlineStr"/>
       <c r="U156" s="3" t="inlineStr"/>
       <c r="V156" s="3" t="inlineStr"/>
@@ -19835,14 +19811,10 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>AWS Cloud9</t>
-        </is>
-      </c>
-      <c r="B157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS CodeStar</t>
+        </is>
+      </c>
+      <c r="B157" s="3" t="inlineStr"/>
       <c r="C157" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19853,11 +19825,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E157" s="3" t="inlineStr"/>
       <c r="F157" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19873,11 +19841,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I157" s="3" t="inlineStr"/>
       <c r="J157" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19919,49 +19883,33 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S157" s="3" t="inlineStr"/>
+      <c r="T157" s="3" t="inlineStr"/>
       <c r="U157" s="3" t="inlineStr"/>
       <c r="V157" s="3" t="inlineStr"/>
-      <c r="W157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W157" s="3" t="inlineStr"/>
       <c r="X157" s="3" t="inlineStr"/>
       <c r="Y157" s="3" t="inlineStr"/>
       <c r="Z157" s="3" t="inlineStr"/>
-      <c r="AA157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA157" s="3" t="inlineStr"/>
       <c r="AB157" s="3" t="inlineStr"/>
       <c r="AC157" s="3" t="inlineStr"/>
       <c r="AD157" s="3" t="inlineStr"/>
       <c r="AE157" s="3" t="inlineStr"/>
-      <c r="AF157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF157" s="3" t="inlineStr"/>
       <c r="AG157" s="3" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Amazon WorkSpaces</t>
-        </is>
-      </c>
-      <c r="B158" s="3" t="inlineStr"/>
+          <t>AWS Cloud9</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19992,13 +19940,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I158" s="3" t="inlineStr"/>
+      <c r="I158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J158" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K158" s="3" t="inlineStr"/>
+      <c r="K158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L158" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20009,18 +19965,22 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N158" s="3" t="inlineStr"/>
+      <c r="N158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O158" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q158" s="3" t="inlineStr"/>
+      <c r="P158" s="3" t="inlineStr"/>
+      <c r="Q158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R158" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20031,7 +19991,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T158" s="3" t="inlineStr"/>
+      <c r="T158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U158" s="3" t="inlineStr"/>
       <c r="V158" s="3" t="inlineStr"/>
       <c r="W158" s="2" t="inlineStr">
@@ -20042,26 +20006,26 @@
       <c r="X158" s="3" t="inlineStr"/>
       <c r="Y158" s="3" t="inlineStr"/>
       <c r="Z158" s="3" t="inlineStr"/>
-      <c r="AA158" s="3" t="inlineStr"/>
+      <c r="AA158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB158" s="3" t="inlineStr"/>
-      <c r="AC158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC158" s="3" t="inlineStr"/>
       <c r="AD158" s="3" t="inlineStr"/>
       <c r="AE158" s="3" t="inlineStr"/>
-      <c r="AF158" s="3" t="inlineStr"/>
-      <c r="AG158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF158" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG158" s="3" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Amazon Managed Blockchain</t>
+          <t>Amazon WorkSpaces</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr"/>
@@ -20075,9 +20039,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E159" s="3" t="inlineStr"/>
-      <c r="F159" s="3" t="inlineStr"/>
-      <c r="G159" s="3" t="inlineStr"/>
+      <c r="E159" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G159" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H159" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20095,7 +20071,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M159" s="3" t="inlineStr"/>
+      <c r="M159" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N159" s="3" t="inlineStr"/>
       <c r="O159" s="2" t="inlineStr">
         <is>
@@ -20108,34 +20088,50 @@
         </is>
       </c>
       <c r="Q159" s="3" t="inlineStr"/>
-      <c r="R159" s="3" t="inlineStr"/>
-      <c r="S159" s="3" t="inlineStr"/>
+      <c r="R159" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S159" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T159" s="3" t="inlineStr"/>
       <c r="U159" s="3" t="inlineStr"/>
       <c r="V159" s="3" t="inlineStr"/>
-      <c r="W159" s="3" t="inlineStr"/>
+      <c r="W159" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X159" s="3" t="inlineStr"/>
       <c r="Y159" s="3" t="inlineStr"/>
       <c r="Z159" s="3" t="inlineStr"/>
       <c r="AA159" s="3" t="inlineStr"/>
       <c r="AB159" s="3" t="inlineStr"/>
-      <c r="AC159" s="3" t="inlineStr"/>
+      <c r="AC159" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD159" s="3" t="inlineStr"/>
       <c r="AE159" s="3" t="inlineStr"/>
       <c r="AF159" s="3" t="inlineStr"/>
-      <c r="AG159" s="3" t="inlineStr"/>
+      <c r="AG159" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>AWS Snowball</t>
-        </is>
-      </c>
-      <c r="B160" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Managed Blockchain</t>
+        </is>
+      </c>
+      <c r="B160" s="3" t="inlineStr"/>
       <c r="C160" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20146,56 +20142,28 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E160" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F160" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G160" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E160" s="3" t="inlineStr"/>
+      <c r="F160" s="3" t="inlineStr"/>
+      <c r="G160" s="3" t="inlineStr"/>
       <c r="H160" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I160" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I160" s="3" t="inlineStr"/>
       <c r="J160" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K160" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K160" s="3" t="inlineStr"/>
       <c r="L160" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="M160" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N160" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="M160" s="3" t="inlineStr"/>
+      <c r="N160" s="3" t="inlineStr"/>
       <c r="O160" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20206,72 +20174,28 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q160" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R160" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S160" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T160" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U160" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q160" s="3" t="inlineStr"/>
+      <c r="R160" s="3" t="inlineStr"/>
+      <c r="S160" s="3" t="inlineStr"/>
+      <c r="T160" s="3" t="inlineStr"/>
+      <c r="U160" s="3" t="inlineStr"/>
       <c r="V160" s="3" t="inlineStr"/>
-      <c r="W160" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W160" s="3" t="inlineStr"/>
       <c r="X160" s="3" t="inlineStr"/>
-      <c r="Y160" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Y160" s="3" t="inlineStr"/>
       <c r="Z160" s="3" t="inlineStr"/>
-      <c r="AA160" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA160" s="3" t="inlineStr"/>
       <c r="AB160" s="3" t="inlineStr"/>
-      <c r="AC160" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC160" s="3" t="inlineStr"/>
       <c r="AD160" s="3" t="inlineStr"/>
-      <c r="AE160" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE160" s="3" t="inlineStr"/>
       <c r="AF160" s="3" t="inlineStr"/>
-      <c r="AG160" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AG160" s="3" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>AWS Database Migration Service</t>
+          <t>AWS Snowball</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
@@ -20374,61 +20298,37 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="V161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V161" s="3" t="inlineStr"/>
       <c r="W161" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X161" s="3" t="inlineStr"/>
       <c r="Y161" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Z161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Z161" s="3" t="inlineStr"/>
       <c r="AA161" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB161" s="3" t="inlineStr"/>
       <c r="AC161" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD161" s="3" t="inlineStr"/>
       <c r="AE161" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AF161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF161" s="3" t="inlineStr"/>
       <c r="AG161" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20438,7 +20338,7 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>AWS Serverless Application Repository</t>
+          <t>AWS Database Migration Service</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
@@ -20531,26 +20431,66 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T162" s="3" t="inlineStr"/>
+      <c r="T162" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U162" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V162" s="3" t="inlineStr"/>
-      <c r="W162" s="3" t="inlineStr"/>
-      <c r="X162" s="3" t="inlineStr"/>
-      <c r="Y162" s="3" t="inlineStr"/>
-      <c r="Z162" s="3" t="inlineStr"/>
-      <c r="AA162" s="3" t="inlineStr"/>
-      <c r="AB162" s="3" t="inlineStr"/>
+      <c r="V162" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W162" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X162" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y162" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z162" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA162" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB162" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC162" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD162" s="3" t="inlineStr"/>
-      <c r="AE162" s="3" t="inlineStr"/>
+      <c r="AD162" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE162" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF162" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20565,10 +20505,14 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Amazon Pinpoint</t>
-        </is>
-      </c>
-      <c r="B163" s="3" t="inlineStr"/>
+          <t>AWS Serverless Application Repository</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20599,7 +20543,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I163" s="3" t="inlineStr"/>
+      <c r="I163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J163" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20620,7 +20568,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N163" s="3" t="inlineStr"/>
+      <c r="N163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O163" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20631,15 +20583,27 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q163" s="3" t="inlineStr"/>
+      <c r="Q163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R163" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S163" s="3" t="inlineStr"/>
+      <c r="S163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T163" s="3" t="inlineStr"/>
-      <c r="U163" s="3" t="inlineStr"/>
+      <c r="U163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V163" s="3" t="inlineStr"/>
       <c r="W163" s="3" t="inlineStr"/>
       <c r="X163" s="3" t="inlineStr"/>
@@ -20647,23 +20611,31 @@
       <c r="Z163" s="3" t="inlineStr"/>
       <c r="AA163" s="3" t="inlineStr"/>
       <c r="AB163" s="3" t="inlineStr"/>
-      <c r="AC163" s="3" t="inlineStr"/>
+      <c r="AC163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD163" s="3" t="inlineStr"/>
       <c r="AE163" s="3" t="inlineStr"/>
-      <c r="AF163" s="3" t="inlineStr"/>
-      <c r="AG163" s="3" t="inlineStr"/>
+      <c r="AF163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>AWS Elastic Beanstalk</t>
-        </is>
-      </c>
-      <c r="B164" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Pinpoint</t>
+        </is>
+      </c>
+      <c r="B164" s="3" t="inlineStr"/>
       <c r="C164" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20694,11 +20666,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I164" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I164" s="3" t="inlineStr"/>
       <c r="J164" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20719,11 +20687,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N164" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N164" s="3" t="inlineStr"/>
       <c r="O164" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20734,76 +20698,32 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q164" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q164" s="3" t="inlineStr"/>
       <c r="R164" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S164" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T164" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U164" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S164" s="3" t="inlineStr"/>
+      <c r="T164" s="3" t="inlineStr"/>
+      <c r="U164" s="3" t="inlineStr"/>
       <c r="V164" s="3" t="inlineStr"/>
-      <c r="W164" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W164" s="3" t="inlineStr"/>
       <c r="X164" s="3" t="inlineStr"/>
-      <c r="Y164" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Y164" s="3" t="inlineStr"/>
       <c r="Z164" s="3" t="inlineStr"/>
-      <c r="AA164" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA164" s="3" t="inlineStr"/>
       <c r="AB164" s="3" t="inlineStr"/>
-      <c r="AC164" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD164" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC164" s="3" t="inlineStr"/>
+      <c r="AD164" s="3" t="inlineStr"/>
       <c r="AE164" s="3" t="inlineStr"/>
-      <c r="AF164" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG164" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF164" s="3" t="inlineStr"/>
+      <c r="AG164" s="3" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Amazon Transcribe</t>
+          <t>AWS Elastic Beanstalk</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
@@ -20896,7 +20816,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T165" s="3" t="inlineStr"/>
+      <c r="T165" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U165" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20909,16 +20833,28 @@
         </is>
       </c>
       <c r="X165" s="3" t="inlineStr"/>
-      <c r="Y165" s="3" t="inlineStr"/>
+      <c r="Y165" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z165" s="3" t="inlineStr"/>
-      <c r="AA165" s="3" t="inlineStr"/>
+      <c r="AA165" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB165" s="3" t="inlineStr"/>
       <c r="AC165" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD165" s="3" t="inlineStr"/>
+      <c r="AD165" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE165" s="3" t="inlineStr"/>
       <c r="AF165" s="2" t="inlineStr">
         <is>
@@ -20934,7 +20870,7 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>AWS Organizations</t>
+          <t>Amazon Transcribe</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
@@ -21027,66 +20963,30 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T166" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T166" s="3" t="inlineStr"/>
       <c r="U166" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V166" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V166" s="3" t="inlineStr"/>
       <c r="W166" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X166" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y166" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z166" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA166" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB166" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X166" s="3" t="inlineStr"/>
+      <c r="Y166" s="3" t="inlineStr"/>
+      <c r="Z166" s="3" t="inlineStr"/>
+      <c r="AA166" s="3" t="inlineStr"/>
+      <c r="AB166" s="3" t="inlineStr"/>
       <c r="AC166" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD166" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE166" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD166" s="3" t="inlineStr"/>
+      <c r="AE166" s="3" t="inlineStr"/>
       <c r="AF166" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21101,21 +21001,49 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>AWS RoboMaker</t>
-        </is>
-      </c>
-      <c r="B167" s="3" t="inlineStr"/>
+          <t>AWS Organizations</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D167" s="3" t="inlineStr"/>
-      <c r="E167" s="3" t="inlineStr"/>
-      <c r="F167" s="3" t="inlineStr"/>
-      <c r="G167" s="3" t="inlineStr"/>
-      <c r="H167" s="3" t="inlineStr"/>
-      <c r="I167" s="3" t="inlineStr"/>
+      <c r="D167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J167" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21136,7 +21064,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N167" s="3" t="inlineStr"/>
+      <c r="N167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O167" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21147,74 +21079,110 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q167" s="3" t="inlineStr"/>
+      <c r="Q167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R167" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S167" s="3" t="inlineStr"/>
-      <c r="T167" s="3" t="inlineStr"/>
-      <c r="U167" s="3" t="inlineStr"/>
-      <c r="V167" s="3" t="inlineStr"/>
-      <c r="W167" s="3" t="inlineStr"/>
-      <c r="X167" s="3" t="inlineStr"/>
-      <c r="Y167" s="3" t="inlineStr"/>
-      <c r="Z167" s="3" t="inlineStr"/>
-      <c r="AA167" s="3" t="inlineStr"/>
-      <c r="AB167" s="3" t="inlineStr"/>
-      <c r="AC167" s="3" t="inlineStr"/>
-      <c r="AD167" s="3" t="inlineStr"/>
-      <c r="AE167" s="3" t="inlineStr"/>
-      <c r="AF167" s="3" t="inlineStr"/>
-      <c r="AG167" s="3" t="inlineStr"/>
+      <c r="S167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Amazon ElastiCache</t>
-        </is>
-      </c>
-      <c r="B168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS RoboMaker</t>
+        </is>
+      </c>
+      <c r="B168" s="3" t="inlineStr"/>
       <c r="C168" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D168" s="3" t="inlineStr"/>
+      <c r="E168" s="3" t="inlineStr"/>
+      <c r="F168" s="3" t="inlineStr"/>
+      <c r="G168" s="3" t="inlineStr"/>
+      <c r="H168" s="3" t="inlineStr"/>
+      <c r="I168" s="3" t="inlineStr"/>
       <c r="J168" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21235,11 +21203,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N168" s="3" t="inlineStr"/>
       <c r="O168" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21250,96 +21214,32 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q168" s="3" t="inlineStr"/>
       <c r="R168" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S168" s="3" t="inlineStr"/>
+      <c r="T168" s="3" t="inlineStr"/>
+      <c r="U168" s="3" t="inlineStr"/>
+      <c r="V168" s="3" t="inlineStr"/>
+      <c r="W168" s="3" t="inlineStr"/>
+      <c r="X168" s="3" t="inlineStr"/>
+      <c r="Y168" s="3" t="inlineStr"/>
+      <c r="Z168" s="3" t="inlineStr"/>
+      <c r="AA168" s="3" t="inlineStr"/>
+      <c r="AB168" s="3" t="inlineStr"/>
+      <c r="AC168" s="3" t="inlineStr"/>
+      <c r="AD168" s="3" t="inlineStr"/>
+      <c r="AE168" s="3" t="inlineStr"/>
+      <c r="AF168" s="3" t="inlineStr"/>
+      <c r="AG168" s="3" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Amazon Keyspaces (for Apache Cassandra)</t>
+          <t>Amazon ElastiCache</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
@@ -21432,26 +21332,66 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T169" s="3" t="inlineStr"/>
+      <c r="T169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U169" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V169" s="3" t="inlineStr"/>
-      <c r="W169" s="3" t="inlineStr"/>
-      <c r="X169" s="3" t="inlineStr"/>
-      <c r="Y169" s="3" t="inlineStr"/>
-      <c r="Z169" s="3" t="inlineStr"/>
-      <c r="AA169" s="3" t="inlineStr"/>
-      <c r="AB169" s="3" t="inlineStr"/>
+      <c r="V169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC169" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD169" s="3" t="inlineStr"/>
-      <c r="AE169" s="3" t="inlineStr"/>
+      <c r="AD169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF169" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21466,10 +21406,14 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>AWS Clean Rooms</t>
-        </is>
-      </c>
-      <c r="B170" s="3" t="inlineStr"/>
+          <t>Amazon Keyspaces (for Apache Cassandra)</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21480,19 +21424,31 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E170" s="3" t="inlineStr"/>
+      <c r="E170" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F170" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G170" s="3" t="inlineStr"/>
+      <c r="G170" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H170" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I170" s="3" t="inlineStr"/>
+      <c r="I170" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J170" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21523,16 +21479,32 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P170" s="3" t="inlineStr"/>
-      <c r="Q170" s="3" t="inlineStr"/>
+      <c r="P170" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q170" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R170" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S170" s="3" t="inlineStr"/>
+      <c r="S170" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T170" s="3" t="inlineStr"/>
-      <c r="U170" s="3" t="inlineStr"/>
+      <c r="U170" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V170" s="3" t="inlineStr"/>
       <c r="W170" s="3" t="inlineStr"/>
       <c r="X170" s="3" t="inlineStr"/>
@@ -21540,16 +21512,28 @@
       <c r="Z170" s="3" t="inlineStr"/>
       <c r="AA170" s="3" t="inlineStr"/>
       <c r="AB170" s="3" t="inlineStr"/>
-      <c r="AC170" s="3" t="inlineStr"/>
+      <c r="AC170" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD170" s="3" t="inlineStr"/>
       <c r="AE170" s="3" t="inlineStr"/>
-      <c r="AF170" s="3" t="inlineStr"/>
-      <c r="AG170" s="3" t="inlineStr"/>
+      <c r="AF170" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG170" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Amazon Forecast</t>
+          <t>AWS Clean Rooms</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr"/>
@@ -21563,18 +21547,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E171" s="3" t="inlineStr"/>
       <c r="F171" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="G171" s="3" t="inlineStr"/>
-      <c r="H171" s="3" t="inlineStr"/>
+      <c r="H171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="I171" s="3" t="inlineStr"/>
       <c r="J171" s="2" t="inlineStr">
         <is>
@@ -21596,7 +21580,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N171" s="3" t="inlineStr"/>
+      <c r="N171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O171" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21628,14 +21616,10 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>AWS Support</t>
-        </is>
-      </c>
-      <c r="B172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Forecast</t>
+        </is>
+      </c>
+      <c r="B172" s="3" t="inlineStr"/>
       <c r="C172" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21656,21 +21640,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G172" s="3" t="inlineStr"/>
+      <c r="H172" s="3" t="inlineStr"/>
+      <c r="I172" s="3" t="inlineStr"/>
       <c r="J172" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21691,111 +21663,39 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N172" s="3" t="inlineStr"/>
       <c r="O172" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P172" s="3" t="inlineStr"/>
+      <c r="Q172" s="3" t="inlineStr"/>
       <c r="R172" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG172" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S172" s="3" t="inlineStr"/>
+      <c r="T172" s="3" t="inlineStr"/>
+      <c r="U172" s="3" t="inlineStr"/>
+      <c r="V172" s="3" t="inlineStr"/>
+      <c r="W172" s="3" t="inlineStr"/>
+      <c r="X172" s="3" t="inlineStr"/>
+      <c r="Y172" s="3" t="inlineStr"/>
+      <c r="Z172" s="3" t="inlineStr"/>
+      <c r="AA172" s="3" t="inlineStr"/>
+      <c r="AB172" s="3" t="inlineStr"/>
+      <c r="AC172" s="3" t="inlineStr"/>
+      <c r="AD172" s="3" t="inlineStr"/>
+      <c r="AE172" s="3" t="inlineStr"/>
+      <c r="AF172" s="3" t="inlineStr"/>
+      <c r="AG172" s="3" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Amazon Simple Notification Service (SNS)</t>
+          <t>AWS Support</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
@@ -21962,7 +21862,7 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>AWS IoT Device Management</t>
+          <t>Amazon Simple Notification Service (SNS)</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
@@ -22055,25 +21955,61 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T174" s="3" t="inlineStr"/>
+      <c r="T174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U174" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V174" s="3" t="inlineStr"/>
-      <c r="W174" s="3" t="inlineStr"/>
-      <c r="X174" s="3" t="inlineStr"/>
-      <c r="Y174" s="3" t="inlineStr"/>
-      <c r="Z174" s="3" t="inlineStr"/>
-      <c r="AA174" s="3" t="inlineStr"/>
-      <c r="AB174" s="3" t="inlineStr"/>
+      <c r="V174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC174" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD174" s="3" t="inlineStr"/>
+      <c r="AD174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE174" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22093,7 +22029,7 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Amazon Macie</t>
+          <t>AWS IoT Device Management</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
@@ -22166,7 +22102,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P175" s="3" t="inlineStr"/>
+      <c r="P175" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q175" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22182,44 +22122,52 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U175" s="3" t="inlineStr"/>
+      <c r="T175" s="3" t="inlineStr"/>
+      <c r="U175" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V175" s="3" t="inlineStr"/>
-      <c r="W175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W175" s="3" t="inlineStr"/>
       <c r="X175" s="3" t="inlineStr"/>
       <c r="Y175" s="3" t="inlineStr"/>
       <c r="Z175" s="3" t="inlineStr"/>
-      <c r="AA175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA175" s="3" t="inlineStr"/>
       <c r="AB175" s="3" t="inlineStr"/>
-      <c r="AC175" s="3" t="inlineStr"/>
+      <c r="AC175" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD175" s="3" t="inlineStr"/>
-      <c r="AE175" s="3" t="inlineStr"/>
+      <c r="AE175" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF175" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AG175" s="3" t="inlineStr"/>
+      <c r="AG175" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Amazon Managed Service for Prometheus</t>
-        </is>
-      </c>
-      <c r="B176" s="3" t="inlineStr"/>
+          <t>Amazon Macie</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22240,7 +22188,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G176" s="3" t="inlineStr"/>
+      <c r="G176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H176" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22282,7 +22234,11 @@
         </is>
       </c>
       <c r="P176" s="3" t="inlineStr"/>
-      <c r="Q176" s="3" t="inlineStr"/>
+      <c r="Q176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R176" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22293,25 +22249,41 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T176" s="3" t="inlineStr"/>
+      <c r="T176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U176" s="3" t="inlineStr"/>
       <c r="V176" s="3" t="inlineStr"/>
-      <c r="W176" s="3" t="inlineStr"/>
+      <c r="W176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X176" s="3" t="inlineStr"/>
       <c r="Y176" s="3" t="inlineStr"/>
       <c r="Z176" s="3" t="inlineStr"/>
-      <c r="AA176" s="3" t="inlineStr"/>
+      <c r="AA176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB176" s="3" t="inlineStr"/>
       <c r="AC176" s="3" t="inlineStr"/>
       <c r="AD176" s="3" t="inlineStr"/>
       <c r="AE176" s="3" t="inlineStr"/>
-      <c r="AF176" s="3" t="inlineStr"/>
+      <c r="AF176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AG176" s="3" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Amazon Connect</t>
+          <t>Amazon Managed Service for Prometheus</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr"/>
@@ -22325,29 +22297,37 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E177" s="3" t="inlineStr"/>
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F177" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G177" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G177" s="3" t="inlineStr"/>
       <c r="H177" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I177" s="3" t="inlineStr"/>
+      <c r="I177" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J177" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K177" s="3" t="inlineStr"/>
+      <c r="K177" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L177" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22358,28 +22338,32 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N177" s="3" t="inlineStr"/>
-      <c r="O177" s="3" t="inlineStr"/>
-      <c r="P177" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N177" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O177" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P177" s="3" t="inlineStr"/>
       <c r="Q177" s="3" t="inlineStr"/>
       <c r="R177" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S177" s="3" t="inlineStr"/>
+      <c r="S177" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T177" s="3" t="inlineStr"/>
       <c r="U177" s="3" t="inlineStr"/>
       <c r="V177" s="3" t="inlineStr"/>
-      <c r="W177" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W177" s="3" t="inlineStr"/>
       <c r="X177" s="3" t="inlineStr"/>
       <c r="Y177" s="3" t="inlineStr"/>
       <c r="Z177" s="3" t="inlineStr"/>
@@ -22394,40 +22378,60 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Amazon FinSpace</t>
+          <t>Amazon Connect</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr"/>
-      <c r="C178" s="3" t="inlineStr"/>
-      <c r="D178" s="3" t="inlineStr"/>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="E178" s="3" t="inlineStr"/>
-      <c r="F178" s="3" t="inlineStr"/>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="G178" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="H178" s="3" t="inlineStr"/>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="I178" s="3" t="inlineStr"/>
       <c r="J178" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K178" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L178" s="3" t="inlineStr"/>
-      <c r="M178" s="3" t="inlineStr"/>
+      <c r="K178" s="3" t="inlineStr"/>
+      <c r="L178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N178" s="3" t="inlineStr"/>
-      <c r="O178" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P178" s="3" t="inlineStr"/>
+      <c r="O178" s="3" t="inlineStr"/>
+      <c r="P178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q178" s="3" t="inlineStr"/>
       <c r="R178" s="2" t="inlineStr">
         <is>
@@ -22438,7 +22442,11 @@
       <c r="T178" s="3" t="inlineStr"/>
       <c r="U178" s="3" t="inlineStr"/>
       <c r="V178" s="3" t="inlineStr"/>
-      <c r="W178" s="3" t="inlineStr"/>
+      <c r="W178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X178" s="3" t="inlineStr"/>
       <c r="Y178" s="3" t="inlineStr"/>
       <c r="Z178" s="3" t="inlineStr"/>
@@ -22453,49 +22461,21 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>AWS Network Firewall</t>
-        </is>
-      </c>
-      <c r="B179" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C179" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D179" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E179" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon FinSpace</t>
+        </is>
+      </c>
+      <c r="B179" s="3" t="inlineStr"/>
+      <c r="C179" s="3" t="inlineStr"/>
+      <c r="D179" s="3" t="inlineStr"/>
+      <c r="E179" s="3" t="inlineStr"/>
+      <c r="F179" s="3" t="inlineStr"/>
       <c r="G179" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I179" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="H179" s="3" t="inlineStr"/>
+      <c r="I179" s="3" t="inlineStr"/>
       <c r="J179" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22506,109 +22486,41 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L179" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M179" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N179" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L179" s="3" t="inlineStr"/>
+      <c r="M179" s="3" t="inlineStr"/>
+      <c r="N179" s="3" t="inlineStr"/>
       <c r="O179" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P179" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q179" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P179" s="3" t="inlineStr"/>
+      <c r="Q179" s="3" t="inlineStr"/>
       <c r="R179" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S179" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T179" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S179" s="3" t="inlineStr"/>
+      <c r="T179" s="3" t="inlineStr"/>
       <c r="U179" s="3" t="inlineStr"/>
-      <c r="V179" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W179" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X179" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y179" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z179" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA179" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB179" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V179" s="3" t="inlineStr"/>
+      <c r="W179" s="3" t="inlineStr"/>
+      <c r="X179" s="3" t="inlineStr"/>
+      <c r="Y179" s="3" t="inlineStr"/>
+      <c r="Z179" s="3" t="inlineStr"/>
+      <c r="AA179" s="3" t="inlineStr"/>
+      <c r="AB179" s="3" t="inlineStr"/>
       <c r="AC179" s="3" t="inlineStr"/>
       <c r="AD179" s="3" t="inlineStr"/>
-      <c r="AE179" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF179" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG179" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE179" s="3" t="inlineStr"/>
+      <c r="AF179" s="3" t="inlineStr"/>
+      <c r="AG179" s="3" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>AWS Key Management Service</t>
+          <t>AWS Network Firewall</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
@@ -22706,11 +22618,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U180" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U180" s="3" t="inlineStr"/>
       <c r="V180" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22746,16 +22654,8 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AC180" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD180" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC180" s="3" t="inlineStr"/>
+      <c r="AD180" s="3" t="inlineStr"/>
       <c r="AE180" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22775,13 +22675,29 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>AWS Verified Access</t>
-        </is>
-      </c>
-      <c r="B181" s="3" t="inlineStr"/>
-      <c r="C181" s="3" t="inlineStr"/>
-      <c r="D181" s="3" t="inlineStr"/>
-      <c r="E181" s="3" t="inlineStr"/>
+          <t>AWS Key Management Service</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F181" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22797,7 +22713,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I181" s="3" t="inlineStr"/>
+      <c r="I181" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J181" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22808,19 +22728,31 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L181" s="3" t="inlineStr"/>
+      <c r="L181" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M181" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N181" s="3" t="inlineStr"/>
+      <c r="N181" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O181" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P181" s="3" t="inlineStr"/>
+      <c r="P181" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q181" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22836,47 +22768,87 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T181" s="3" t="inlineStr"/>
-      <c r="U181" s="3" t="inlineStr"/>
-      <c r="V181" s="3" t="inlineStr"/>
-      <c r="W181" s="3" t="inlineStr"/>
-      <c r="X181" s="3" t="inlineStr"/>
-      <c r="Y181" s="3" t="inlineStr"/>
-      <c r="Z181" s="3" t="inlineStr"/>
-      <c r="AA181" s="3" t="inlineStr"/>
-      <c r="AB181" s="3" t="inlineStr"/>
-      <c r="AC181" s="3" t="inlineStr"/>
-      <c r="AD181" s="3" t="inlineStr"/>
-      <c r="AE181" s="3" t="inlineStr"/>
-      <c r="AF181" s="3" t="inlineStr"/>
-      <c r="AG181" s="3" t="inlineStr"/>
+      <c r="T181" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U181" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V181" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W181" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X181" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y181" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z181" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA181" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB181" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC181" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD181" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE181" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF181" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG181" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>AWS VPN</t>
-        </is>
-      </c>
-      <c r="B182" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C182" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D182" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Verified Access</t>
+        </is>
+      </c>
+      <c r="B182" s="3" t="inlineStr"/>
+      <c r="C182" s="3" t="inlineStr"/>
+      <c r="D182" s="3" t="inlineStr"/>
+      <c r="E182" s="3" t="inlineStr"/>
       <c r="F182" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22892,11 +22864,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I182" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I182" s="3" t="inlineStr"/>
       <c r="J182" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22907,31 +22875,19 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L182" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L182" s="3" t="inlineStr"/>
       <c r="M182" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N182" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N182" s="3" t="inlineStr"/>
       <c r="O182" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P182" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P182" s="3" t="inlineStr"/>
       <c r="Q182" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22947,73 +22903,25 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T182" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T182" s="3" t="inlineStr"/>
       <c r="U182" s="3" t="inlineStr"/>
-      <c r="V182" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W182" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X182" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y182" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z182" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA182" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB182" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V182" s="3" t="inlineStr"/>
+      <c r="W182" s="3" t="inlineStr"/>
+      <c r="X182" s="3" t="inlineStr"/>
+      <c r="Y182" s="3" t="inlineStr"/>
+      <c r="Z182" s="3" t="inlineStr"/>
+      <c r="AA182" s="3" t="inlineStr"/>
+      <c r="AB182" s="3" t="inlineStr"/>
       <c r="AC182" s="3" t="inlineStr"/>
-      <c r="AD182" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE182" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF182" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG182" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD182" s="3" t="inlineStr"/>
+      <c r="AE182" s="3" t="inlineStr"/>
+      <c r="AF182" s="3" t="inlineStr"/>
+      <c r="AG182" s="3" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>AWS Storage Gateway</t>
+          <t>AWS VPN</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
@@ -23111,11 +23019,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U183" s="3" t="inlineStr"/>
       <c r="V183" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23151,12 +23055,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AC183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD183" s="3" t="inlineStr"/>
+      <c r="AC183" s="3" t="inlineStr"/>
+      <c r="AD183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE183" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23176,10 +23080,14 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>AWS Mainframe Modernization</t>
-        </is>
-      </c>
-      <c r="B184" s="3" t="inlineStr"/>
+          <t>AWS Storage Gateway</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23235,13 +23143,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N184" s="3" t="inlineStr"/>
+      <c r="N184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O184" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P184" s="3" t="inlineStr"/>
+      <c r="P184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q184" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23257,35 +23173,115 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T184" s="3" t="inlineStr"/>
-      <c r="U184" s="3" t="inlineStr"/>
-      <c r="V184" s="3" t="inlineStr"/>
-      <c r="W184" s="3" t="inlineStr"/>
-      <c r="X184" s="3" t="inlineStr"/>
-      <c r="Y184" s="3" t="inlineStr"/>
-      <c r="Z184" s="3" t="inlineStr"/>
-      <c r="AA184" s="3" t="inlineStr"/>
-      <c r="AB184" s="3" t="inlineStr"/>
-      <c r="AC184" s="3" t="inlineStr"/>
+      <c r="T184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD184" s="3" t="inlineStr"/>
-      <c r="AE184" s="3" t="inlineStr"/>
-      <c r="AF184" s="3" t="inlineStr"/>
-      <c r="AG184" s="3" t="inlineStr"/>
+      <c r="AE184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>AWS Snowmobile</t>
+          <t>AWS Mainframe Modernization</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr"/>
-      <c r="C185" s="3" t="inlineStr"/>
-      <c r="D185" s="3" t="inlineStr"/>
-      <c r="E185" s="3" t="inlineStr"/>
-      <c r="F185" s="3" t="inlineStr"/>
-      <c r="G185" s="3" t="inlineStr"/>
-      <c r="H185" s="3" t="inlineStr"/>
-      <c r="I185" s="3" t="inlineStr"/>
+      <c r="C185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J185" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23296,15 +23292,23 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L185" s="3" t="inlineStr"/>
-      <c r="M185" s="3" t="inlineStr"/>
+      <c r="L185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N185" s="3" t="inlineStr"/>
-      <c r="O185" s="3" t="inlineStr"/>
-      <c r="P185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="O185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P185" s="3" t="inlineStr"/>
       <c r="Q185" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23315,7 +23319,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S185" s="3" t="inlineStr"/>
+      <c r="S185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T185" s="3" t="inlineStr"/>
       <c r="U185" s="3" t="inlineStr"/>
       <c r="V185" s="3" t="inlineStr"/>
@@ -23329,58 +23337,22 @@
       <c r="AD185" s="3" t="inlineStr"/>
       <c r="AE185" s="3" t="inlineStr"/>
       <c r="AF185" s="3" t="inlineStr"/>
-      <c r="AG185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AG185" s="3" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>Amazon Elastic Container Registry (ECR)</t>
-        </is>
-      </c>
-      <c r="B186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Snowmobile</t>
+        </is>
+      </c>
+      <c r="B186" s="3" t="inlineStr"/>
+      <c r="C186" s="3" t="inlineStr"/>
+      <c r="D186" s="3" t="inlineStr"/>
+      <c r="E186" s="3" t="inlineStr"/>
+      <c r="F186" s="3" t="inlineStr"/>
+      <c r="G186" s="3" t="inlineStr"/>
+      <c r="H186" s="3" t="inlineStr"/>
+      <c r="I186" s="3" t="inlineStr"/>
       <c r="J186" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23391,26 +23363,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L186" s="3" t="inlineStr"/>
+      <c r="M186" s="3" t="inlineStr"/>
+      <c r="N186" s="3" t="inlineStr"/>
+      <c r="O186" s="3" t="inlineStr"/>
       <c r="P186" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23426,76 +23382,20 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S186" s="3" t="inlineStr"/>
+      <c r="T186" s="3" t="inlineStr"/>
+      <c r="U186" s="3" t="inlineStr"/>
+      <c r="V186" s="3" t="inlineStr"/>
+      <c r="W186" s="3" t="inlineStr"/>
+      <c r="X186" s="3" t="inlineStr"/>
+      <c r="Y186" s="3" t="inlineStr"/>
+      <c r="Z186" s="3" t="inlineStr"/>
+      <c r="AA186" s="3" t="inlineStr"/>
+      <c r="AB186" s="3" t="inlineStr"/>
+      <c r="AC186" s="3" t="inlineStr"/>
+      <c r="AD186" s="3" t="inlineStr"/>
+      <c r="AE186" s="3" t="inlineStr"/>
+      <c r="AF186" s="3" t="inlineStr"/>
       <c r="AG186" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23505,27 +23405,59 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>AWS IoT TwinMaker</t>
-        </is>
-      </c>
-      <c r="B187" s="3" t="inlineStr"/>
-      <c r="C187" s="3" t="inlineStr"/>
-      <c r="D187" s="3" t="inlineStr"/>
-      <c r="E187" s="3" t="inlineStr"/>
+          <t>Amazon Elastic Container Registry (ECR)</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F187" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G187" s="3" t="inlineStr"/>
-      <c r="H187" s="3" t="inlineStr"/>
-      <c r="I187" s="3" t="inlineStr"/>
+      <c r="G187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J187" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K187" s="3" t="inlineStr"/>
+      <c r="K187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L187" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23536,7 +23468,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N187" s="3" t="inlineStr"/>
+      <c r="N187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O187" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23547,47 +23483,107 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q187" s="3" t="inlineStr"/>
+      <c r="Q187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R187" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S187" s="3" t="inlineStr"/>
-      <c r="T187" s="3" t="inlineStr"/>
-      <c r="U187" s="3" t="inlineStr"/>
-      <c r="V187" s="3" t="inlineStr"/>
-      <c r="W187" s="3" t="inlineStr"/>
-      <c r="X187" s="3" t="inlineStr"/>
-      <c r="Y187" s="3" t="inlineStr"/>
-      <c r="Z187" s="3" t="inlineStr"/>
-      <c r="AA187" s="3" t="inlineStr"/>
-      <c r="AB187" s="3" t="inlineStr"/>
-      <c r="AC187" s="3" t="inlineStr"/>
-      <c r="AD187" s="3" t="inlineStr"/>
-      <c r="AE187" s="3" t="inlineStr"/>
-      <c r="AF187" s="3" t="inlineStr"/>
-      <c r="AG187" s="3" t="inlineStr"/>
+      <c r="S187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Amazon Lookout for Vision</t>
+          <t>AWS IoT TwinMaker</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr"/>
-      <c r="C188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C188" s="3" t="inlineStr"/>
+      <c r="D188" s="3" t="inlineStr"/>
       <c r="E188" s="3" t="inlineStr"/>
-      <c r="F188" s="3" t="inlineStr"/>
+      <c r="F188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="G188" s="3" t="inlineStr"/>
       <c r="H188" s="3" t="inlineStr"/>
       <c r="I188" s="3" t="inlineStr"/>
@@ -23596,12 +23592,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="K188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L188" s="3" t="inlineStr"/>
+      <c r="K188" s="3" t="inlineStr"/>
+      <c r="L188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M188" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23613,7 +23609,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P188" s="3" t="inlineStr"/>
+      <c r="P188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q188" s="3" t="inlineStr"/>
       <c r="R188" s="2" t="inlineStr">
         <is>
@@ -23639,14 +23639,10 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Amazon EC2 Auto Scaling</t>
-        </is>
-      </c>
-      <c r="B189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Lookout for Vision</t>
+        </is>
+      </c>
+      <c r="B189" s="3" t="inlineStr"/>
       <c r="C189" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23657,31 +23653,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E189" s="3" t="inlineStr"/>
+      <c r="F189" s="3" t="inlineStr"/>
+      <c r="G189" s="3" t="inlineStr"/>
+      <c r="H189" s="3" t="inlineStr"/>
+      <c r="I189" s="3" t="inlineStr"/>
       <c r="J189" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23692,121 +23668,45 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L189" s="3" t="inlineStr"/>
       <c r="M189" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N189" s="3" t="inlineStr"/>
       <c r="O189" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P189" s="3" t="inlineStr"/>
+      <c r="Q189" s="3" t="inlineStr"/>
       <c r="R189" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S189" s="3" t="inlineStr"/>
+      <c r="T189" s="3" t="inlineStr"/>
+      <c r="U189" s="3" t="inlineStr"/>
+      <c r="V189" s="3" t="inlineStr"/>
+      <c r="W189" s="3" t="inlineStr"/>
+      <c r="X189" s="3" t="inlineStr"/>
+      <c r="Y189" s="3" t="inlineStr"/>
+      <c r="Z189" s="3" t="inlineStr"/>
+      <c r="AA189" s="3" t="inlineStr"/>
+      <c r="AB189" s="3" t="inlineStr"/>
+      <c r="AC189" s="3" t="inlineStr"/>
+      <c r="AD189" s="3" t="inlineStr"/>
+      <c r="AE189" s="3" t="inlineStr"/>
+      <c r="AF189" s="3" t="inlineStr"/>
+      <c r="AG189" s="3" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>AWS Service Catalog</t>
+          <t>Amazon EC2 Auto Scaling</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
@@ -23949,7 +23849,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD190" s="3" t="inlineStr"/>
+      <c r="AD190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23969,7 +23873,7 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for Lustre</t>
+          <t>AWS Service Catalog</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
@@ -24132,7 +24036,7 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>AWS AppSync</t>
+          <t>Amazon FSx for Lustre</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
@@ -24205,7 +24109,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P192" s="3" t="inlineStr"/>
+      <c r="P192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q192" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24251,7 +24159,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z192" s="3" t="inlineStr"/>
+      <c r="Z192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA192" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24278,83 +24190,179 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AG192" s="3" t="inlineStr"/>
+      <c r="AG192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>AWS Wickr</t>
-        </is>
-      </c>
-      <c r="B193" s="3" t="inlineStr"/>
-      <c r="C193" s="3" t="inlineStr"/>
-      <c r="D193" s="3" t="inlineStr"/>
-      <c r="E193" s="3" t="inlineStr"/>
-      <c r="F193" s="3" t="inlineStr"/>
+          <t>AWS AppSync</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="G193" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="H193" s="3" t="inlineStr"/>
-      <c r="I193" s="3" t="inlineStr"/>
+      <c r="H193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J193" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K193" s="3" t="inlineStr"/>
-      <c r="L193" s="3" t="inlineStr"/>
-      <c r="M193" s="3" t="inlineStr"/>
-      <c r="N193" s="3" t="inlineStr"/>
-      <c r="O193" s="3" t="inlineStr"/>
-      <c r="P193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q193" s="3" t="inlineStr"/>
-      <c r="R193" s="3" t="inlineStr"/>
-      <c r="S193" s="3" t="inlineStr"/>
-      <c r="T193" s="3" t="inlineStr"/>
-      <c r="U193" s="3" t="inlineStr"/>
-      <c r="V193" s="3" t="inlineStr"/>
-      <c r="W193" s="3" t="inlineStr"/>
-      <c r="X193" s="3" t="inlineStr"/>
-      <c r="Y193" s="3" t="inlineStr"/>
+      <c r="K193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P193" s="3" t="inlineStr"/>
+      <c r="Q193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z193" s="3" t="inlineStr"/>
-      <c r="AA193" s="3" t="inlineStr"/>
-      <c r="AB193" s="3" t="inlineStr"/>
-      <c r="AC193" s="3" t="inlineStr"/>
+      <c r="AA193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD193" s="3" t="inlineStr"/>
-      <c r="AE193" s="3" t="inlineStr"/>
-      <c r="AF193" s="3" t="inlineStr"/>
+      <c r="AE193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AG193" s="3" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaTailor</t>
+          <t>AWS Wickr</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr"/>
-      <c r="C194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C194" s="3" t="inlineStr"/>
       <c r="D194" s="3" t="inlineStr"/>
-      <c r="E194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G194" s="3" t="inlineStr"/>
+      <c r="E194" s="3" t="inlineStr"/>
+      <c r="F194" s="3" t="inlineStr"/>
+      <c r="G194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H194" s="3" t="inlineStr"/>
       <c r="I194" s="3" t="inlineStr"/>
       <c r="J194" s="2" t="inlineStr">
@@ -24362,43 +24370,23 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="K194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K194" s="3" t="inlineStr"/>
+      <c r="L194" s="3" t="inlineStr"/>
+      <c r="M194" s="3" t="inlineStr"/>
       <c r="N194" s="3" t="inlineStr"/>
-      <c r="O194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P194" s="3" t="inlineStr"/>
+      <c r="O194" s="3" t="inlineStr"/>
+      <c r="P194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q194" s="3" t="inlineStr"/>
-      <c r="R194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="R194" s="3" t="inlineStr"/>
       <c r="S194" s="3" t="inlineStr"/>
       <c r="T194" s="3" t="inlineStr"/>
       <c r="U194" s="3" t="inlineStr"/>
       <c r="V194" s="3" t="inlineStr"/>
-      <c r="W194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W194" s="3" t="inlineStr"/>
       <c r="X194" s="3" t="inlineStr"/>
       <c r="Y194" s="3" t="inlineStr"/>
       <c r="Z194" s="3" t="inlineStr"/>
@@ -24413,24 +24401,16 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>Elastic Load Balancing</t>
-        </is>
-      </c>
-      <c r="B195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Elemental MediaTailor</t>
+        </is>
+      </c>
+      <c r="B195" s="3" t="inlineStr"/>
       <c r="C195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D195" s="3" t="inlineStr"/>
       <c r="E195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24441,21 +24421,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G195" s="3" t="inlineStr"/>
+      <c r="H195" s="3" t="inlineStr"/>
+      <c r="I195" s="3" t="inlineStr"/>
       <c r="J195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24476,111 +24444,43 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N195" s="3" t="inlineStr"/>
       <c r="O195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P195" s="3" t="inlineStr"/>
+      <c r="Q195" s="3" t="inlineStr"/>
       <c r="R195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S195" s="3" t="inlineStr"/>
+      <c r="T195" s="3" t="inlineStr"/>
+      <c r="U195" s="3" t="inlineStr"/>
+      <c r="V195" s="3" t="inlineStr"/>
       <c r="W195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X195" s="3" t="inlineStr"/>
+      <c r="Y195" s="3" t="inlineStr"/>
+      <c r="Z195" s="3" t="inlineStr"/>
+      <c r="AA195" s="3" t="inlineStr"/>
+      <c r="AB195" s="3" t="inlineStr"/>
+      <c r="AC195" s="3" t="inlineStr"/>
+      <c r="AD195" s="3" t="inlineStr"/>
+      <c r="AE195" s="3" t="inlineStr"/>
+      <c r="AF195" s="3" t="inlineStr"/>
+      <c r="AG195" s="3" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>AWS CodeCommit</t>
+          <t>Elastic Load Balancing</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
@@ -24683,7 +24583,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="V196" s="3" t="inlineStr"/>
+      <c r="V196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24699,19 +24603,31 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z196" s="3" t="inlineStr"/>
+      <c r="Z196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB196" s="3" t="inlineStr"/>
+      <c r="AB196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD196" s="3" t="inlineStr"/>
+      <c r="AD196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24731,7 +24647,7 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>Amazon MemoryDB for Redis</t>
+          <t>AWS CodeCommit</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
@@ -24804,7 +24720,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P197" s="3" t="inlineStr"/>
+      <c r="P197" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q197" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24820,16 +24740,32 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T197" s="3" t="inlineStr"/>
+      <c r="T197" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U197" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="V197" s="3" t="inlineStr"/>
-      <c r="W197" s="3" t="inlineStr"/>
-      <c r="X197" s="3" t="inlineStr"/>
-      <c r="Y197" s="3" t="inlineStr"/>
+      <c r="W197" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X197" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y197" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z197" s="3" t="inlineStr"/>
       <c r="AA197" s="2" t="inlineStr">
         <is>
@@ -24843,14 +24779,26 @@
         </is>
       </c>
       <c r="AD197" s="3" t="inlineStr"/>
-      <c r="AE197" s="3" t="inlineStr"/>
-      <c r="AF197" s="3" t="inlineStr"/>
-      <c r="AG197" s="3" t="inlineStr"/>
+      <c r="AE197" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF197" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG197" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>Amazon Simple Storage Service (S3)</t>
+          <t>Amazon MemoryDB for Redis</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
@@ -24923,11 +24871,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P198" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P198" s="3" t="inlineStr"/>
       <c r="Q198" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24943,81 +24887,37 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T198" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T198" s="3" t="inlineStr"/>
       <c r="U198" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V198" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W198" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X198" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y198" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z198" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V198" s="3" t="inlineStr"/>
+      <c r="W198" s="3" t="inlineStr"/>
+      <c r="X198" s="3" t="inlineStr"/>
+      <c r="Y198" s="3" t="inlineStr"/>
+      <c r="Z198" s="3" t="inlineStr"/>
       <c r="AA198" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB198" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB198" s="3" t="inlineStr"/>
       <c r="AC198" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD198" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE198" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF198" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG198" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD198" s="3" t="inlineStr"/>
+      <c r="AE198" s="3" t="inlineStr"/>
+      <c r="AF198" s="3" t="inlineStr"/>
+      <c r="AG198" s="3" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>Amazon Elastic File System (EFS)</t>
+          <t>Amazon Simple Storage Service (S3)</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
@@ -25160,7 +25060,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD199" s="3" t="inlineStr"/>
+      <c r="AD199" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE199" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25180,208 +25084,228 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>AWS Server Migration Service (SMS)</t>
-        </is>
-      </c>
-      <c r="B200" s="3" t="inlineStr"/>
-      <c r="C200" s="3" t="inlineStr"/>
-      <c r="D200" s="3" t="inlineStr"/>
-      <c r="E200" s="3" t="inlineStr"/>
-      <c r="F200" s="3" t="inlineStr"/>
-      <c r="G200" s="3" t="inlineStr"/>
-      <c r="H200" s="3" t="inlineStr"/>
-      <c r="I200" s="3" t="inlineStr"/>
-      <c r="J200" s="3" t="inlineStr"/>
-      <c r="K200" s="3" t="inlineStr"/>
-      <c r="L200" s="3" t="inlineStr"/>
-      <c r="M200" s="3" t="inlineStr"/>
-      <c r="N200" s="3" t="inlineStr"/>
-      <c r="O200" s="3" t="inlineStr"/>
+          <t>Amazon Elastic File System (EFS)</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="J200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="P200" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Q200" s="3" t="inlineStr"/>
+      <c r="Q200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R200" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S200" s="3" t="inlineStr"/>
-      <c r="T200" s="3" t="inlineStr"/>
+      <c r="S200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U200" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V200" s="3" t="inlineStr"/>
-      <c r="W200" s="3" t="inlineStr"/>
-      <c r="X200" s="3" t="inlineStr"/>
-      <c r="Y200" s="3" t="inlineStr"/>
-      <c r="Z200" s="3" t="inlineStr"/>
-      <c r="AA200" s="3" t="inlineStr"/>
-      <c r="AB200" s="3" t="inlineStr"/>
-      <c r="AC200" s="3" t="inlineStr"/>
+      <c r="V200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD200" s="3" t="inlineStr"/>
-      <c r="AE200" s="3" t="inlineStr"/>
-      <c r="AF200" s="3" t="inlineStr"/>
-      <c r="AG200" s="3" t="inlineStr"/>
+      <c r="AE200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>AWS User Notifications</t>
-        </is>
-      </c>
-      <c r="B201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P201" s="3" t="inlineStr"/>
-      <c r="Q201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Server Migration Service (SMS)</t>
+        </is>
+      </c>
+      <c r="B201" s="3" t="inlineStr"/>
+      <c r="C201" s="3" t="inlineStr"/>
+      <c r="D201" s="3" t="inlineStr"/>
+      <c r="E201" s="3" t="inlineStr"/>
+      <c r="F201" s="3" t="inlineStr"/>
+      <c r="G201" s="3" t="inlineStr"/>
+      <c r="H201" s="3" t="inlineStr"/>
+      <c r="I201" s="3" t="inlineStr"/>
+      <c r="J201" s="3" t="inlineStr"/>
+      <c r="K201" s="3" t="inlineStr"/>
+      <c r="L201" s="3" t="inlineStr"/>
+      <c r="M201" s="3" t="inlineStr"/>
+      <c r="N201" s="3" t="inlineStr"/>
+      <c r="O201" s="3" t="inlineStr"/>
+      <c r="P201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q201" s="3" t="inlineStr"/>
       <c r="R201" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U201" s="3" t="inlineStr"/>
-      <c r="V201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S201" s="3" t="inlineStr"/>
+      <c r="T201" s="3" t="inlineStr"/>
+      <c r="U201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V201" s="3" t="inlineStr"/>
+      <c r="W201" s="3" t="inlineStr"/>
+      <c r="X201" s="3" t="inlineStr"/>
+      <c r="Y201" s="3" t="inlineStr"/>
+      <c r="Z201" s="3" t="inlineStr"/>
+      <c r="AA201" s="3" t="inlineStr"/>
+      <c r="AB201" s="3" t="inlineStr"/>
       <c r="AC201" s="3" t="inlineStr"/>
       <c r="AD201" s="3" t="inlineStr"/>
-      <c r="AE201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE201" s="3" t="inlineStr"/>
+      <c r="AF201" s="3" t="inlineStr"/>
       <c r="AG201" s="3" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>Amazon Inspector Classic</t>
-        </is>
-      </c>
-      <c r="B202" s="3" t="inlineStr"/>
+          <t>AWS User Notifications</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25402,13 +25326,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G202" s="3" t="inlineStr"/>
+      <c r="G202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H202" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I202" s="3" t="inlineStr"/>
+      <c r="I202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J202" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25419,7 +25351,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L202" s="3" t="inlineStr"/>
+      <c r="L202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M202" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25435,11 +25371,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P202" s="3" t="inlineStr"/>
       <c r="Q202" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25450,53 +25382,141 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S202" s="3" t="inlineStr"/>
-      <c r="T202" s="3" t="inlineStr"/>
+      <c r="S202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U202" s="3" t="inlineStr"/>
-      <c r="V202" s="3" t="inlineStr"/>
-      <c r="W202" s="3" t="inlineStr"/>
-      <c r="X202" s="3" t="inlineStr"/>
-      <c r="Y202" s="3" t="inlineStr"/>
-      <c r="Z202" s="3" t="inlineStr"/>
-      <c r="AA202" s="3" t="inlineStr"/>
-      <c r="AB202" s="3" t="inlineStr"/>
+      <c r="V202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC202" s="3" t="inlineStr"/>
       <c r="AD202" s="3" t="inlineStr"/>
-      <c r="AE202" s="3" t="inlineStr"/>
-      <c r="AF202" s="3" t="inlineStr"/>
-      <c r="AG202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG202" s="3" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>AWS DeepRacer</t>
+          <t>Amazon Inspector Classic</t>
         </is>
       </c>
       <c r="B203" s="3" t="inlineStr"/>
-      <c r="C203" s="3" t="inlineStr"/>
-      <c r="D203" s="3" t="inlineStr"/>
-      <c r="E203" s="3" t="inlineStr"/>
-      <c r="F203" s="3" t="inlineStr"/>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="G203" s="3" t="inlineStr"/>
-      <c r="H203" s="3" t="inlineStr"/>
+      <c r="H203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="I203" s="3" t="inlineStr"/>
       <c r="J203" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K203" s="3" t="inlineStr"/>
+      <c r="K203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L203" s="3" t="inlineStr"/>
-      <c r="M203" s="3" t="inlineStr"/>
-      <c r="N203" s="3" t="inlineStr"/>
-      <c r="O203" s="3" t="inlineStr"/>
-      <c r="P203" s="3" t="inlineStr"/>
-      <c r="Q203" s="3" t="inlineStr"/>
-      <c r="R203" s="3" t="inlineStr"/>
+      <c r="M203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="S203" s="3" t="inlineStr"/>
       <c r="T203" s="3" t="inlineStr"/>
       <c r="U203" s="3" t="inlineStr"/>
@@ -25511,165 +25531,101 @@
       <c r="AD203" s="3" t="inlineStr"/>
       <c r="AE203" s="3" t="inlineStr"/>
       <c r="AF203" s="3" t="inlineStr"/>
-      <c r="AG203" s="3" t="inlineStr"/>
+      <c r="AG203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>Amazon GameLift</t>
-        </is>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS DeepRacer</t>
+        </is>
+      </c>
+      <c r="B204" s="3" t="inlineStr"/>
+      <c r="C204" s="3" t="inlineStr"/>
+      <c r="D204" s="3" t="inlineStr"/>
+      <c r="E204" s="3" t="inlineStr"/>
+      <c r="F204" s="3" t="inlineStr"/>
+      <c r="G204" s="3" t="inlineStr"/>
+      <c r="H204" s="3" t="inlineStr"/>
+      <c r="I204" s="3" t="inlineStr"/>
       <c r="J204" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K204" s="3" t="inlineStr"/>
+      <c r="L204" s="3" t="inlineStr"/>
+      <c r="M204" s="3" t="inlineStr"/>
+      <c r="N204" s="3" t="inlineStr"/>
+      <c r="O204" s="3" t="inlineStr"/>
       <c r="P204" s="3" t="inlineStr"/>
-      <c r="Q204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q204" s="3" t="inlineStr"/>
+      <c r="R204" s="3" t="inlineStr"/>
+      <c r="S204" s="3" t="inlineStr"/>
+      <c r="T204" s="3" t="inlineStr"/>
+      <c r="U204" s="3" t="inlineStr"/>
       <c r="V204" s="3" t="inlineStr"/>
-      <c r="W204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W204" s="3" t="inlineStr"/>
       <c r="X204" s="3" t="inlineStr"/>
       <c r="Y204" s="3" t="inlineStr"/>
       <c r="Z204" s="3" t="inlineStr"/>
-      <c r="AA204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA204" s="3" t="inlineStr"/>
       <c r="AB204" s="3" t="inlineStr"/>
-      <c r="AC204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC204" s="3" t="inlineStr"/>
       <c r="AD204" s="3" t="inlineStr"/>
       <c r="AE204" s="3" t="inlineStr"/>
-      <c r="AF204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF204" s="3" t="inlineStr"/>
       <c r="AG204" s="3" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Amazon CodeGuru</t>
-        </is>
-      </c>
-      <c r="B205" s="3" t="inlineStr"/>
+          <t>Amazon GameLift</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D205" s="3" t="inlineStr"/>
-      <c r="E205" s="3" t="inlineStr"/>
+      <c r="D205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F205" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G205" s="3" t="inlineStr"/>
+      <c r="G205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H205" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I205" s="3" t="inlineStr"/>
+      <c r="I205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J205" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25701,32 +25657,64 @@
         </is>
       </c>
       <c r="P205" s="3" t="inlineStr"/>
-      <c r="Q205" s="3" t="inlineStr"/>
+      <c r="Q205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R205" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S205" s="3" t="inlineStr"/>
-      <c r="T205" s="3" t="inlineStr"/>
-      <c r="U205" s="3" t="inlineStr"/>
+      <c r="S205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V205" s="3" t="inlineStr"/>
-      <c r="W205" s="3" t="inlineStr"/>
+      <c r="W205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X205" s="3" t="inlineStr"/>
       <c r="Y205" s="3" t="inlineStr"/>
       <c r="Z205" s="3" t="inlineStr"/>
-      <c r="AA205" s="3" t="inlineStr"/>
+      <c r="AA205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB205" s="3" t="inlineStr"/>
-      <c r="AC205" s="3" t="inlineStr"/>
+      <c r="AC205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD205" s="3" t="inlineStr"/>
       <c r="AE205" s="3" t="inlineStr"/>
-      <c r="AF205" s="3" t="inlineStr"/>
+      <c r="AF205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AG205" s="3" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Amazon Quantum Ledger Database (QLDB)</t>
+          <t>Amazon CodeGuru</t>
         </is>
       </c>
       <c r="B206" s="3" t="inlineStr"/>
@@ -25735,22 +25723,14 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="D206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D206" s="3" t="inlineStr"/>
       <c r="E206" s="3" t="inlineStr"/>
       <c r="F206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G206" s="3" t="inlineStr"/>
       <c r="H206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25777,7 +25757,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N206" s="3" t="inlineStr"/>
+      <c r="N206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25809,7 +25793,7 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaConvert</t>
+          <t>Amazon Quantum Ledger Database (QLDB)</t>
         </is>
       </c>
       <c r="B207" s="3" t="inlineStr"/>
@@ -25823,11 +25807,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E207" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E207" s="3" t="inlineStr"/>
       <c r="F207" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25843,11 +25823,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I207" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I207" s="3" t="inlineStr"/>
       <c r="J207" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25868,54 +25844,30 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N207" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N207" s="3" t="inlineStr"/>
       <c r="O207" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P207" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q207" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P207" s="3" t="inlineStr"/>
+      <c r="Q207" s="3" t="inlineStr"/>
       <c r="R207" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S207" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S207" s="3" t="inlineStr"/>
       <c r="T207" s="3" t="inlineStr"/>
       <c r="U207" s="3" t="inlineStr"/>
       <c r="V207" s="3" t="inlineStr"/>
-      <c r="W207" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W207" s="3" t="inlineStr"/>
       <c r="X207" s="3" t="inlineStr"/>
       <c r="Y207" s="3" t="inlineStr"/>
       <c r="Z207" s="3" t="inlineStr"/>
       <c r="AA207" s="3" t="inlineStr"/>
       <c r="AB207" s="3" t="inlineStr"/>
-      <c r="AC207" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC207" s="3" t="inlineStr"/>
       <c r="AD207" s="3" t="inlineStr"/>
       <c r="AE207" s="3" t="inlineStr"/>
       <c r="AF207" s="3" t="inlineStr"/>
@@ -25924,14 +25876,10 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>AWS Security Hub</t>
-        </is>
-      </c>
-      <c r="B208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Elemental MediaConvert</t>
+        </is>
+      </c>
+      <c r="B208" s="3" t="inlineStr"/>
       <c r="C208" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26017,77 +25965,33 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T208" s="3" t="inlineStr"/>
+      <c r="U208" s="3" t="inlineStr"/>
+      <c r="V208" s="3" t="inlineStr"/>
       <c r="W208" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X208" s="3" t="inlineStr"/>
+      <c r="Y208" s="3" t="inlineStr"/>
+      <c r="Z208" s="3" t="inlineStr"/>
+      <c r="AA208" s="3" t="inlineStr"/>
+      <c r="AB208" s="3" t="inlineStr"/>
       <c r="AC208" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AD208" s="3" t="inlineStr"/>
-      <c r="AE208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE208" s="3" t="inlineStr"/>
+      <c r="AF208" s="3" t="inlineStr"/>
+      <c r="AG208" s="3" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for OpenZFS</t>
+          <t>AWS Security Hub</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
@@ -26125,7 +26029,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I209" s="3" t="inlineStr"/>
+      <c r="I209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26156,39 +26064,119 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P209" s="3" t="inlineStr"/>
-      <c r="Q209" s="3" t="inlineStr"/>
+      <c r="P209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R209" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S209" s="3" t="inlineStr"/>
-      <c r="T209" s="3" t="inlineStr"/>
-      <c r="U209" s="3" t="inlineStr"/>
-      <c r="V209" s="3" t="inlineStr"/>
-      <c r="W209" s="3" t="inlineStr"/>
-      <c r="X209" s="3" t="inlineStr"/>
-      <c r="Y209" s="3" t="inlineStr"/>
-      <c r="Z209" s="3" t="inlineStr"/>
-      <c r="AA209" s="3" t="inlineStr"/>
-      <c r="AB209" s="3" t="inlineStr"/>
-      <c r="AC209" s="3" t="inlineStr"/>
+      <c r="S209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD209" s="3" t="inlineStr"/>
-      <c r="AE209" s="3" t="inlineStr"/>
-      <c r="AF209" s="3" t="inlineStr"/>
-      <c r="AG209" s="3" t="inlineStr"/>
+      <c r="AE209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Amazon Comprehend Medical</t>
-        </is>
-      </c>
-      <c r="B210" s="3" t="inlineStr"/>
-      <c r="C210" s="3" t="inlineStr"/>
-      <c r="D210" s="3" t="inlineStr"/>
-      <c r="E210" s="3" t="inlineStr"/>
+          <t>Amazon FSx for OpenZFS</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26215,19 +26203,27 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L210" s="3" t="inlineStr"/>
-      <c r="M210" s="3" t="inlineStr"/>
-      <c r="N210" s="3" t="inlineStr"/>
+      <c r="L210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P210" s="3" t="inlineStr"/>
       <c r="Q210" s="3" t="inlineStr"/>
       <c r="R210" s="2" t="inlineStr">
         <is>
@@ -26253,29 +26249,13 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Amazon DynamoDB</t>
-        </is>
-      </c>
-      <c r="B211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Comprehend Medical</t>
+        </is>
+      </c>
+      <c r="B211" s="3" t="inlineStr"/>
+      <c r="C211" s="3" t="inlineStr"/>
+      <c r="D211" s="3" t="inlineStr"/>
+      <c r="E211" s="3" t="inlineStr"/>
       <c r="F211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26291,11 +26271,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I211" s="3" t="inlineStr"/>
       <c r="J211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26306,21 +26282,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L211" s="3" t="inlineStr"/>
+      <c r="M211" s="3" t="inlineStr"/>
+      <c r="N211" s="3" t="inlineStr"/>
       <c r="O211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26331,99 +26295,39 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q211" s="3" t="inlineStr"/>
       <c r="R211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S211" s="3" t="inlineStr"/>
+      <c r="T211" s="3" t="inlineStr"/>
+      <c r="U211" s="3" t="inlineStr"/>
+      <c r="V211" s="3" t="inlineStr"/>
+      <c r="W211" s="3" t="inlineStr"/>
+      <c r="X211" s="3" t="inlineStr"/>
+      <c r="Y211" s="3" t="inlineStr"/>
+      <c r="Z211" s="3" t="inlineStr"/>
+      <c r="AA211" s="3" t="inlineStr"/>
+      <c r="AB211" s="3" t="inlineStr"/>
+      <c r="AC211" s="3" t="inlineStr"/>
+      <c r="AD211" s="3" t="inlineStr"/>
+      <c r="AE211" s="3" t="inlineStr"/>
+      <c r="AF211" s="3" t="inlineStr"/>
+      <c r="AG211" s="3" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>Amazon DocumentDB (with MongoDB compatibility)</t>
-        </is>
-      </c>
-      <c r="B212" s="3" t="inlineStr"/>
+          <t>Amazon DynamoDB</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26479,7 +26383,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N212" s="3" t="inlineStr"/>
+      <c r="N212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26490,7 +26398,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q212" s="3" t="inlineStr"/>
+      <c r="Q212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26501,44 +26413,84 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T212" s="3" t="inlineStr"/>
+      <c r="T212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V212" s="3" t="inlineStr"/>
-      <c r="W212" s="3" t="inlineStr"/>
-      <c r="X212" s="3" t="inlineStr"/>
-      <c r="Y212" s="3" t="inlineStr"/>
-      <c r="Z212" s="3" t="inlineStr"/>
+      <c r="V212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB212" s="3" t="inlineStr"/>
+      <c r="AB212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD212" s="3" t="inlineStr"/>
-      <c r="AE212" s="3" t="inlineStr"/>
-      <c r="AF212" s="3" t="inlineStr"/>
-      <c r="AG212" s="3" t="inlineStr"/>
+      <c r="AD212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaConnect</t>
-        </is>
-      </c>
-      <c r="B213" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon DocumentDB (with MongoDB compatibility)</t>
+        </is>
+      </c>
+      <c r="B213" s="3" t="inlineStr"/>
       <c r="C213" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26594,22 +26546,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N213" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N213" s="3" t="inlineStr"/>
       <c r="O213" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P213" s="3" t="inlineStr"/>
-      <c r="Q213" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q213" s="3" t="inlineStr"/>
       <c r="R213" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26620,24 +26568,28 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T213" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U213" s="3" t="inlineStr"/>
+      <c r="T213" s="3" t="inlineStr"/>
+      <c r="U213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V213" s="3" t="inlineStr"/>
-      <c r="W213" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W213" s="3" t="inlineStr"/>
       <c r="X213" s="3" t="inlineStr"/>
       <c r="Y213" s="3" t="inlineStr"/>
       <c r="Z213" s="3" t="inlineStr"/>
-      <c r="AA213" s="3" t="inlineStr"/>
+      <c r="AA213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB213" s="3" t="inlineStr"/>
-      <c r="AC213" s="3" t="inlineStr"/>
+      <c r="AC213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD213" s="3" t="inlineStr"/>
       <c r="AE213" s="3" t="inlineStr"/>
       <c r="AF213" s="3" t="inlineStr"/>
@@ -26646,7 +26598,7 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>AWS Config</t>
+          <t>AWS Elemental MediaConnect</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
@@ -26719,11 +26671,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P214" s="3" t="inlineStr"/>
       <c r="Q214" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26744,76 +26692,28 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U214" s="3" t="inlineStr"/>
+      <c r="V214" s="3" t="inlineStr"/>
       <c r="W214" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X214" s="3" t="inlineStr"/>
+      <c r="Y214" s="3" t="inlineStr"/>
+      <c r="Z214" s="3" t="inlineStr"/>
+      <c r="AA214" s="3" t="inlineStr"/>
+      <c r="AB214" s="3" t="inlineStr"/>
+      <c r="AC214" s="3" t="inlineStr"/>
+      <c r="AD214" s="3" t="inlineStr"/>
+      <c r="AE214" s="3" t="inlineStr"/>
+      <c r="AF214" s="3" t="inlineStr"/>
+      <c r="AG214" s="3" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>Amazon CloudFront</t>
+          <t>AWS Config</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
@@ -26886,7 +26786,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P215" s="3" t="inlineStr"/>
+      <c r="P215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q215" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26967,157 +26871,209 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AG215" s="3" t="inlineStr"/>
+      <c r="AG215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>Amazon WorkMail</t>
-        </is>
-      </c>
-      <c r="B216" s="3" t="inlineStr"/>
-      <c r="C216" s="3" t="inlineStr"/>
-      <c r="D216" s="3" t="inlineStr"/>
-      <c r="E216" s="3" t="inlineStr"/>
-      <c r="F216" s="3" t="inlineStr"/>
-      <c r="G216" s="3" t="inlineStr"/>
-      <c r="H216" s="3" t="inlineStr"/>
-      <c r="I216" s="3" t="inlineStr"/>
+          <t>Amazon CloudFront</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K216" s="3" t="inlineStr"/>
-      <c r="L216" s="3" t="inlineStr"/>
-      <c r="M216" s="3" t="inlineStr"/>
-      <c r="N216" s="3" t="inlineStr"/>
+      <c r="K216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O216" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="P216" s="3" t="inlineStr"/>
-      <c r="Q216" s="3" t="inlineStr"/>
+      <c r="Q216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R216" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S216" s="3" t="inlineStr"/>
-      <c r="T216" s="3" t="inlineStr"/>
-      <c r="U216" s="3" t="inlineStr"/>
-      <c r="V216" s="3" t="inlineStr"/>
-      <c r="W216" s="3" t="inlineStr"/>
-      <c r="X216" s="3" t="inlineStr"/>
-      <c r="Y216" s="3" t="inlineStr"/>
-      <c r="Z216" s="3" t="inlineStr"/>
-      <c r="AA216" s="3" t="inlineStr"/>
-      <c r="AB216" s="3" t="inlineStr"/>
-      <c r="AC216" s="3" t="inlineStr"/>
-      <c r="AD216" s="3" t="inlineStr"/>
-      <c r="AE216" s="3" t="inlineStr"/>
-      <c r="AF216" s="3" t="inlineStr"/>
+      <c r="S216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AG216" s="3" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>FreeRTOS</t>
-        </is>
-      </c>
-      <c r="B217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon WorkMail</t>
+        </is>
+      </c>
+      <c r="B217" s="3" t="inlineStr"/>
+      <c r="C217" s="3" t="inlineStr"/>
+      <c r="D217" s="3" t="inlineStr"/>
+      <c r="E217" s="3" t="inlineStr"/>
+      <c r="F217" s="3" t="inlineStr"/>
+      <c r="G217" s="3" t="inlineStr"/>
+      <c r="H217" s="3" t="inlineStr"/>
+      <c r="I217" s="3" t="inlineStr"/>
       <c r="J217" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K217" s="3" t="inlineStr"/>
+      <c r="L217" s="3" t="inlineStr"/>
+      <c r="M217" s="3" t="inlineStr"/>
+      <c r="N217" s="3" t="inlineStr"/>
       <c r="O217" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="P217" s="3" t="inlineStr"/>
-      <c r="Q217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q217" s="3" t="inlineStr"/>
       <c r="R217" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S217" s="3" t="inlineStr"/>
       <c r="T217" s="3" t="inlineStr"/>
-      <c r="U217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U217" s="3" t="inlineStr"/>
       <c r="V217" s="3" t="inlineStr"/>
       <c r="W217" s="3" t="inlineStr"/>
       <c r="X217" s="3" t="inlineStr"/>
@@ -27125,24 +27081,16 @@
       <c r="Z217" s="3" t="inlineStr"/>
       <c r="AA217" s="3" t="inlineStr"/>
       <c r="AB217" s="3" t="inlineStr"/>
-      <c r="AC217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC217" s="3" t="inlineStr"/>
       <c r="AD217" s="3" t="inlineStr"/>
       <c r="AE217" s="3" t="inlineStr"/>
-      <c r="AF217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF217" s="3" t="inlineStr"/>
       <c r="AG217" s="3" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>AWS App Mesh</t>
+          <t>FreeRTOS</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
@@ -27231,34 +27179,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T218" s="3" t="inlineStr"/>
       <c r="U218" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="V218" s="3" t="inlineStr"/>
-      <c r="W218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W218" s="3" t="inlineStr"/>
       <c r="X218" s="3" t="inlineStr"/>
-      <c r="Y218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Y218" s="3" t="inlineStr"/>
       <c r="Z218" s="3" t="inlineStr"/>
-      <c r="AA218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA218" s="3" t="inlineStr"/>
       <c r="AB218" s="3" t="inlineStr"/>
       <c r="AC218" s="2" t="inlineStr">
         <is>
@@ -27277,62 +27209,150 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>AWS DeepLens</t>
-        </is>
-      </c>
-      <c r="B219" s="3" t="inlineStr"/>
+          <t>AWS App Mesh</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D219" s="3" t="inlineStr"/>
-      <c r="E219" s="3" t="inlineStr"/>
-      <c r="F219" s="3" t="inlineStr"/>
-      <c r="G219" s="3" t="inlineStr"/>
-      <c r="H219" s="3" t="inlineStr"/>
-      <c r="I219" s="3" t="inlineStr"/>
+      <c r="D219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K219" s="3" t="inlineStr"/>
-      <c r="L219" s="3" t="inlineStr"/>
+      <c r="K219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M219" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N219" s="3" t="inlineStr"/>
-      <c r="O219" s="3" t="inlineStr"/>
+      <c r="N219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="P219" s="3" t="inlineStr"/>
-      <c r="Q219" s="3" t="inlineStr"/>
-      <c r="R219" s="3" t="inlineStr"/>
-      <c r="S219" s="3" t="inlineStr"/>
-      <c r="T219" s="3" t="inlineStr"/>
-      <c r="U219" s="3" t="inlineStr"/>
+      <c r="Q219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V219" s="3" t="inlineStr"/>
-      <c r="W219" s="3" t="inlineStr"/>
+      <c r="W219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X219" s="3" t="inlineStr"/>
-      <c r="Y219" s="3" t="inlineStr"/>
+      <c r="Y219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z219" s="3" t="inlineStr"/>
-      <c r="AA219" s="3" t="inlineStr"/>
+      <c r="AA219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB219" s="3" t="inlineStr"/>
-      <c r="AC219" s="3" t="inlineStr"/>
+      <c r="AC219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD219" s="3" t="inlineStr"/>
       <c r="AE219" s="3" t="inlineStr"/>
-      <c r="AF219" s="3" t="inlineStr"/>
+      <c r="AF219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AG219" s="3" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>AWS Cost and Usage Report</t>
+          <t>AWS DeepLens</t>
         </is>
       </c>
       <c r="B220" s="3" t="inlineStr"/>
-      <c r="C220" s="3" t="inlineStr"/>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="D220" s="3" t="inlineStr"/>
       <c r="E220" s="3" t="inlineStr"/>
       <c r="F220" s="3" t="inlineStr"/>
@@ -27346,7 +27366,11 @@
       </c>
       <c r="K220" s="3" t="inlineStr"/>
       <c r="L220" s="3" t="inlineStr"/>
-      <c r="M220" s="3" t="inlineStr"/>
+      <c r="M220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N220" s="3" t="inlineStr"/>
       <c r="O220" s="3" t="inlineStr"/>
       <c r="P220" s="3" t="inlineStr"/>
@@ -27362,11 +27386,7 @@
       <c r="Z220" s="3" t="inlineStr"/>
       <c r="AA220" s="3" t="inlineStr"/>
       <c r="AB220" s="3" t="inlineStr"/>
-      <c r="AC220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC220" s="3" t="inlineStr"/>
       <c r="AD220" s="3" t="inlineStr"/>
       <c r="AE220" s="3" t="inlineStr"/>
       <c r="AF220" s="3" t="inlineStr"/>
@@ -27375,82 +27395,30 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>Amazon Rekognition</t>
+          <t>AWS Cost and Usage Report</t>
         </is>
       </c>
       <c r="B221" s="3" t="inlineStr"/>
-      <c r="C221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C221" s="3" t="inlineStr"/>
+      <c r="D221" s="3" t="inlineStr"/>
+      <c r="E221" s="3" t="inlineStr"/>
+      <c r="F221" s="3" t="inlineStr"/>
+      <c r="G221" s="3" t="inlineStr"/>
+      <c r="H221" s="3" t="inlineStr"/>
       <c r="I221" s="3" t="inlineStr"/>
       <c r="J221" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K221" s="3" t="inlineStr"/>
+      <c r="L221" s="3" t="inlineStr"/>
+      <c r="M221" s="3" t="inlineStr"/>
       <c r="N221" s="3" t="inlineStr"/>
-      <c r="O221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="O221" s="3" t="inlineStr"/>
+      <c r="P221" s="3" t="inlineStr"/>
+      <c r="Q221" s="3" t="inlineStr"/>
+      <c r="R221" s="3" t="inlineStr"/>
       <c r="S221" s="3" t="inlineStr"/>
       <c r="T221" s="3" t="inlineStr"/>
       <c r="U221" s="3" t="inlineStr"/>
@@ -27461,7 +27429,11 @@
       <c r="Z221" s="3" t="inlineStr"/>
       <c r="AA221" s="3" t="inlineStr"/>
       <c r="AB221" s="3" t="inlineStr"/>
-      <c r="AC221" s="3" t="inlineStr"/>
+      <c r="AC221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD221" s="3" t="inlineStr"/>
       <c r="AE221" s="3" t="inlineStr"/>
       <c r="AF221" s="3" t="inlineStr"/>
@@ -27470,14 +27442,10 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>AWS Lambda</t>
-        </is>
-      </c>
-      <c r="B222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Rekognition</t>
+        </is>
+      </c>
+      <c r="B222" s="3" t="inlineStr"/>
       <c r="C222" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27508,11 +27476,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I222" s="3" t="inlineStr"/>
       <c r="J222" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27533,11 +27497,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N222" s="3" t="inlineStr"/>
       <c r="O222" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27558,89 +27518,33 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S222" s="3" t="inlineStr"/>
+      <c r="T222" s="3" t="inlineStr"/>
+      <c r="U222" s="3" t="inlineStr"/>
+      <c r="V222" s="3" t="inlineStr"/>
+      <c r="W222" s="3" t="inlineStr"/>
+      <c r="X222" s="3" t="inlineStr"/>
+      <c r="Y222" s="3" t="inlineStr"/>
+      <c r="Z222" s="3" t="inlineStr"/>
+      <c r="AA222" s="3" t="inlineStr"/>
+      <c r="AB222" s="3" t="inlineStr"/>
+      <c r="AC222" s="3" t="inlineStr"/>
+      <c r="AD222" s="3" t="inlineStr"/>
+      <c r="AE222" s="3" t="inlineStr"/>
+      <c r="AF222" s="3" t="inlineStr"/>
+      <c r="AG222" s="3" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaStore</t>
-        </is>
-      </c>
-      <c r="B223" s="3" t="inlineStr"/>
+          <t>AWS Lambda</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27651,26 +27555,46 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E223" s="3" t="inlineStr"/>
+      <c r="E223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G223" s="3" t="inlineStr"/>
+      <c r="G223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I223" s="3" t="inlineStr"/>
+      <c r="I223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K223" s="3" t="inlineStr"/>
-      <c r="L223" s="3" t="inlineStr"/>
+      <c r="K223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27686,40 +27610,104 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P223" s="3" t="inlineStr"/>
-      <c r="Q223" s="3" t="inlineStr"/>
+      <c r="P223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S223" s="3" t="inlineStr"/>
-      <c r="T223" s="3" t="inlineStr"/>
-      <c r="U223" s="3" t="inlineStr"/>
-      <c r="V223" s="3" t="inlineStr"/>
-      <c r="W223" s="3" t="inlineStr"/>
-      <c r="X223" s="3" t="inlineStr"/>
-      <c r="Y223" s="3" t="inlineStr"/>
-      <c r="Z223" s="3" t="inlineStr"/>
-      <c r="AA223" s="3" t="inlineStr"/>
-      <c r="AB223" s="3" t="inlineStr"/>
-      <c r="AC223" s="3" t="inlineStr"/>
-      <c r="AD223" s="3" t="inlineStr"/>
-      <c r="AE223" s="3" t="inlineStr"/>
-      <c r="AF223" s="3" t="inlineStr"/>
-      <c r="AG223" s="3" t="inlineStr"/>
+      <c r="S223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>AWS Cloud Control API</t>
-        </is>
-      </c>
-      <c r="B224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Elemental MediaStore</t>
+        </is>
+      </c>
+      <c r="B224" s="3" t="inlineStr"/>
       <c r="C224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27730,46 +27718,26 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E224" s="3" t="inlineStr"/>
       <c r="F224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G224" s="3" t="inlineStr"/>
       <c r="H224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I224" s="3" t="inlineStr"/>
       <c r="J224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K224" s="3" t="inlineStr"/>
+      <c r="L224" s="3" t="inlineStr"/>
       <c r="M224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27785,101 +27753,33 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P224" s="3" t="inlineStr"/>
+      <c r="Q224" s="3" t="inlineStr"/>
       <c r="R224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S224" s="3" t="inlineStr"/>
+      <c r="T224" s="3" t="inlineStr"/>
+      <c r="U224" s="3" t="inlineStr"/>
+      <c r="V224" s="3" t="inlineStr"/>
+      <c r="W224" s="3" t="inlineStr"/>
+      <c r="X224" s="3" t="inlineStr"/>
+      <c r="Y224" s="3" t="inlineStr"/>
+      <c r="Z224" s="3" t="inlineStr"/>
+      <c r="AA224" s="3" t="inlineStr"/>
+      <c r="AB224" s="3" t="inlineStr"/>
+      <c r="AC224" s="3" t="inlineStr"/>
+      <c r="AD224" s="3" t="inlineStr"/>
+      <c r="AE224" s="3" t="inlineStr"/>
+      <c r="AF224" s="3" t="inlineStr"/>
+      <c r="AG224" s="3" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for Windows File Server</t>
+          <t>AWS Cloud Control API</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
@@ -28022,7 +27922,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD225" s="3" t="inlineStr"/>
+      <c r="AD225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28042,74 +27946,170 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>AWS Application Discovery Service</t>
-        </is>
-      </c>
-      <c r="B226" s="3" t="inlineStr"/>
+          <t>Amazon FSx for Windows File Server</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D226" s="3" t="inlineStr"/>
-      <c r="E226" s="3" t="inlineStr"/>
+      <c r="D226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G226" s="3" t="inlineStr"/>
+      <c r="G226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I226" s="3" t="inlineStr"/>
+      <c r="I226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K226" s="3" t="inlineStr"/>
-      <c r="L226" s="3" t="inlineStr"/>
+      <c r="K226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N226" s="3" t="inlineStr"/>
+      <c r="N226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P226" s="3" t="inlineStr"/>
-      <c r="Q226" s="3" t="inlineStr"/>
+      <c r="P226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S226" s="3" t="inlineStr"/>
-      <c r="T226" s="3" t="inlineStr"/>
-      <c r="U226" s="3" t="inlineStr"/>
-      <c r="V226" s="3" t="inlineStr"/>
-      <c r="W226" s="3" t="inlineStr"/>
-      <c r="X226" s="3" t="inlineStr"/>
-      <c r="Y226" s="3" t="inlineStr"/>
-      <c r="Z226" s="3" t="inlineStr"/>
-      <c r="AA226" s="3" t="inlineStr"/>
-      <c r="AB226" s="3" t="inlineStr"/>
-      <c r="AC226" s="3" t="inlineStr"/>
+      <c r="S226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD226" s="3" t="inlineStr"/>
-      <c r="AE226" s="3" t="inlineStr"/>
-      <c r="AF226" s="3" t="inlineStr"/>
-      <c r="AG226" s="3" t="inlineStr"/>
+      <c r="AE226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>AWS App Runner</t>
+          <t>AWS Application Discovery Service</t>
         </is>
       </c>
       <c r="B227" s="3" t="inlineStr"/>
@@ -28126,23 +28126,19 @@
         </is>
       </c>
       <c r="G227" s="3" t="inlineStr"/>
-      <c r="H227" s="3" t="inlineStr"/>
+      <c r="H227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="I227" s="3" t="inlineStr"/>
       <c r="J227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K227" s="3" t="inlineStr"/>
+      <c r="L227" s="3" t="inlineStr"/>
       <c r="M227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28180,49 +28176,25 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>Amazon Elastic Container Service (ECS)</t>
-        </is>
-      </c>
-      <c r="B228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS App Runner</t>
+        </is>
+      </c>
+      <c r="B228" s="3" t="inlineStr"/>
       <c r="C228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D228" s="3" t="inlineStr"/>
+      <c r="E228" s="3" t="inlineStr"/>
       <c r="F228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G228" s="3" t="inlineStr"/>
+      <c r="H228" s="3" t="inlineStr"/>
+      <c r="I228" s="3" t="inlineStr"/>
       <c r="J228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28243,111 +28215,39 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N228" s="3" t="inlineStr"/>
       <c r="O228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P228" s="3" t="inlineStr"/>
+      <c r="Q228" s="3" t="inlineStr"/>
       <c r="R228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S228" s="3" t="inlineStr"/>
+      <c r="T228" s="3" t="inlineStr"/>
+      <c r="U228" s="3" t="inlineStr"/>
+      <c r="V228" s="3" t="inlineStr"/>
+      <c r="W228" s="3" t="inlineStr"/>
+      <c r="X228" s="3" t="inlineStr"/>
+      <c r="Y228" s="3" t="inlineStr"/>
+      <c r="Z228" s="3" t="inlineStr"/>
+      <c r="AA228" s="3" t="inlineStr"/>
+      <c r="AB228" s="3" t="inlineStr"/>
+      <c r="AC228" s="3" t="inlineStr"/>
+      <c r="AD228" s="3" t="inlineStr"/>
+      <c r="AE228" s="3" t="inlineStr"/>
+      <c r="AF228" s="3" t="inlineStr"/>
+      <c r="AG228" s="3" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>AWS CodeBuild</t>
+          <t>Amazon Elastic Container Service (ECS)</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
@@ -28514,10 +28414,14 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>Amazon Chime SDK</t>
-        </is>
-      </c>
-      <c r="B230" s="3" t="inlineStr"/>
+          <t>AWS CodeBuild</t>
+        </is>
+      </c>
+      <c r="B230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28603,27 +28507,71 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T230" s="3" t="inlineStr"/>
-      <c r="U230" s="3" t="inlineStr"/>
-      <c r="V230" s="3" t="inlineStr"/>
+      <c r="T230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W230" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X230" s="3" t="inlineStr"/>
-      <c r="Y230" s="3" t="inlineStr"/>
-      <c r="Z230" s="3" t="inlineStr"/>
+      <c r="X230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA230" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB230" s="3" t="inlineStr"/>
-      <c r="AC230" s="3" t="inlineStr"/>
-      <c r="AD230" s="3" t="inlineStr"/>
-      <c r="AE230" s="3" t="inlineStr"/>
-      <c r="AF230" s="3" t="inlineStr"/>
+      <c r="AB230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AG230" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28633,49 +28581,168 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>AWS Cost Explorer</t>
+          <t>Amazon Chime SDK</t>
         </is>
       </c>
       <c r="B231" s="3" t="inlineStr"/>
-      <c r="C231" s="3" t="inlineStr"/>
-      <c r="D231" s="3" t="inlineStr"/>
-      <c r="E231" s="3" t="inlineStr"/>
-      <c r="F231" s="3" t="inlineStr"/>
-      <c r="G231" s="3" t="inlineStr"/>
-      <c r="H231" s="3" t="inlineStr"/>
-      <c r="I231" s="3" t="inlineStr"/>
+      <c r="C231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J231" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K231" s="3" t="inlineStr"/>
-      <c r="L231" s="3" t="inlineStr"/>
-      <c r="M231" s="3" t="inlineStr"/>
-      <c r="N231" s="3" t="inlineStr"/>
-      <c r="O231" s="3" t="inlineStr"/>
-      <c r="P231" s="3" t="inlineStr"/>
-      <c r="Q231" s="3" t="inlineStr"/>
-      <c r="R231" s="3" t="inlineStr"/>
-      <c r="S231" s="3" t="inlineStr"/>
+      <c r="K231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T231" s="3" t="inlineStr"/>
       <c r="U231" s="3" t="inlineStr"/>
       <c r="V231" s="3" t="inlineStr"/>
-      <c r="W231" s="3" t="inlineStr"/>
+      <c r="W231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X231" s="3" t="inlineStr"/>
       <c r="Y231" s="3" t="inlineStr"/>
       <c r="Z231" s="3" t="inlineStr"/>
-      <c r="AA231" s="3" t="inlineStr"/>
+      <c r="AA231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB231" s="3" t="inlineStr"/>
-      <c r="AC231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC231" s="3" t="inlineStr"/>
       <c r="AD231" s="3" t="inlineStr"/>
       <c r="AE231" s="3" t="inlineStr"/>
       <c r="AF231" s="3" t="inlineStr"/>
-      <c r="AG231" s="3" t="inlineStr"/>
+      <c r="AG231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>AWS Cost Explorer</t>
+        </is>
+      </c>
+      <c r="B232" s="3" t="inlineStr"/>
+      <c r="C232" s="3" t="inlineStr"/>
+      <c r="D232" s="3" t="inlineStr"/>
+      <c r="E232" s="3" t="inlineStr"/>
+      <c r="F232" s="3" t="inlineStr"/>
+      <c r="G232" s="3" t="inlineStr"/>
+      <c r="H232" s="3" t="inlineStr"/>
+      <c r="I232" s="3" t="inlineStr"/>
+      <c r="J232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K232" s="3" t="inlineStr"/>
+      <c r="L232" s="3" t="inlineStr"/>
+      <c r="M232" s="3" t="inlineStr"/>
+      <c r="N232" s="3" t="inlineStr"/>
+      <c r="O232" s="3" t="inlineStr"/>
+      <c r="P232" s="3" t="inlineStr"/>
+      <c r="Q232" s="3" t="inlineStr"/>
+      <c r="R232" s="3" t="inlineStr"/>
+      <c r="S232" s="3" t="inlineStr"/>
+      <c r="T232" s="3" t="inlineStr"/>
+      <c r="U232" s="3" t="inlineStr"/>
+      <c r="V232" s="3" t="inlineStr"/>
+      <c r="W232" s="3" t="inlineStr"/>
+      <c r="X232" s="3" t="inlineStr"/>
+      <c r="Y232" s="3" t="inlineStr"/>
+      <c r="Z232" s="3" t="inlineStr"/>
+      <c r="AA232" s="3" t="inlineStr"/>
+      <c r="AB232" s="3" t="inlineStr"/>
+      <c r="AC232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD232" s="3" t="inlineStr"/>
+      <c r="AE232" s="3" t="inlineStr"/>
+      <c r="AF232" s="3" t="inlineStr"/>
+      <c r="AG232" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -24016,7 +24016,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD191" s="3" t="inlineStr"/>
+      <c r="AD191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE191" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25227,7 +25231,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD200" s="3" t="inlineStr"/>
+      <c r="AD200" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE200" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG232"/>
+  <dimension ref="A1:AG233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4802,7 +4802,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD37" s="3" t="inlineStr"/>
+      <c r="AD37" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE37" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19414,7 +19418,11 @@
       <c r="C153" s="3" t="inlineStr"/>
       <c r="D153" s="3" t="inlineStr"/>
       <c r="E153" s="3" t="inlineStr"/>
-      <c r="F153" s="3" t="inlineStr"/>
+      <c r="F153" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="G153" s="3" t="inlineStr"/>
       <c r="H153" s="3" t="inlineStr"/>
       <c r="I153" s="3" t="inlineStr"/>
@@ -23080,49 +23088,17 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>AWS Storage Gateway</t>
-        </is>
-      </c>
-      <c r="B184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Private 5G</t>
+        </is>
+      </c>
+      <c r="B184" s="3" t="inlineStr"/>
+      <c r="C184" s="3" t="inlineStr"/>
+      <c r="D184" s="3" t="inlineStr"/>
+      <c r="E184" s="3" t="inlineStr"/>
+      <c r="F184" s="3" t="inlineStr"/>
+      <c r="G184" s="3" t="inlineStr"/>
+      <c r="H184" s="3" t="inlineStr"/>
+      <c r="I184" s="3" t="inlineStr"/>
       <c r="J184" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23133,120 +23109,44 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L184" s="3" t="inlineStr"/>
+      <c r="M184" s="3" t="inlineStr"/>
+      <c r="N184" s="3" t="inlineStr"/>
+      <c r="O184" s="3" t="inlineStr"/>
+      <c r="P184" s="3" t="inlineStr"/>
+      <c r="Q184" s="3" t="inlineStr"/>
       <c r="R184" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S184" s="3" t="inlineStr"/>
+      <c r="T184" s="3" t="inlineStr"/>
+      <c r="U184" s="3" t="inlineStr"/>
+      <c r="V184" s="3" t="inlineStr"/>
+      <c r="W184" s="3" t="inlineStr"/>
+      <c r="X184" s="3" t="inlineStr"/>
+      <c r="Y184" s="3" t="inlineStr"/>
+      <c r="Z184" s="3" t="inlineStr"/>
+      <c r="AA184" s="3" t="inlineStr"/>
+      <c r="AB184" s="3" t="inlineStr"/>
+      <c r="AC184" s="3" t="inlineStr"/>
       <c r="AD184" s="3" t="inlineStr"/>
-      <c r="AE184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE184" s="3" t="inlineStr"/>
+      <c r="AF184" s="3" t="inlineStr"/>
+      <c r="AG184" s="3" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>AWS Mainframe Modernization</t>
-        </is>
-      </c>
-      <c r="B185" s="3" t="inlineStr"/>
+          <t>AWS Storage Gateway</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23302,13 +23202,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N185" s="3" t="inlineStr"/>
+      <c r="N185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O185" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P185" s="3" t="inlineStr"/>
+      <c r="P185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q185" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23324,35 +23232,115 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T185" s="3" t="inlineStr"/>
-      <c r="U185" s="3" t="inlineStr"/>
-      <c r="V185" s="3" t="inlineStr"/>
-      <c r="W185" s="3" t="inlineStr"/>
-      <c r="X185" s="3" t="inlineStr"/>
-      <c r="Y185" s="3" t="inlineStr"/>
-      <c r="Z185" s="3" t="inlineStr"/>
-      <c r="AA185" s="3" t="inlineStr"/>
-      <c r="AB185" s="3" t="inlineStr"/>
-      <c r="AC185" s="3" t="inlineStr"/>
+      <c r="T185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD185" s="3" t="inlineStr"/>
-      <c r="AE185" s="3" t="inlineStr"/>
-      <c r="AF185" s="3" t="inlineStr"/>
-      <c r="AG185" s="3" t="inlineStr"/>
+      <c r="AE185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>AWS Snowmobile</t>
+          <t>AWS Mainframe Modernization</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr"/>
-      <c r="C186" s="3" t="inlineStr"/>
-      <c r="D186" s="3" t="inlineStr"/>
-      <c r="E186" s="3" t="inlineStr"/>
-      <c r="F186" s="3" t="inlineStr"/>
-      <c r="G186" s="3" t="inlineStr"/>
-      <c r="H186" s="3" t="inlineStr"/>
-      <c r="I186" s="3" t="inlineStr"/>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J186" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23363,15 +23351,23 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L186" s="3" t="inlineStr"/>
-      <c r="M186" s="3" t="inlineStr"/>
+      <c r="L186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N186" s="3" t="inlineStr"/>
-      <c r="O186" s="3" t="inlineStr"/>
-      <c r="P186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="O186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P186" s="3" t="inlineStr"/>
       <c r="Q186" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23382,7 +23378,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S186" s="3" t="inlineStr"/>
+      <c r="S186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T186" s="3" t="inlineStr"/>
       <c r="U186" s="3" t="inlineStr"/>
       <c r="V186" s="3" t="inlineStr"/>
@@ -23396,58 +23396,22 @@
       <c r="AD186" s="3" t="inlineStr"/>
       <c r="AE186" s="3" t="inlineStr"/>
       <c r="AF186" s="3" t="inlineStr"/>
-      <c r="AG186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AG186" s="3" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>Amazon Elastic Container Registry (ECR)</t>
-        </is>
-      </c>
-      <c r="B187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Snowmobile</t>
+        </is>
+      </c>
+      <c r="B187" s="3" t="inlineStr"/>
+      <c r="C187" s="3" t="inlineStr"/>
+      <c r="D187" s="3" t="inlineStr"/>
+      <c r="E187" s="3" t="inlineStr"/>
+      <c r="F187" s="3" t="inlineStr"/>
+      <c r="G187" s="3" t="inlineStr"/>
+      <c r="H187" s="3" t="inlineStr"/>
+      <c r="I187" s="3" t="inlineStr"/>
       <c r="J187" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23458,26 +23422,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L187" s="3" t="inlineStr"/>
+      <c r="M187" s="3" t="inlineStr"/>
+      <c r="N187" s="3" t="inlineStr"/>
+      <c r="O187" s="3" t="inlineStr"/>
       <c r="P187" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23493,76 +23441,20 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S187" s="3" t="inlineStr"/>
+      <c r="T187" s="3" t="inlineStr"/>
+      <c r="U187" s="3" t="inlineStr"/>
+      <c r="V187" s="3" t="inlineStr"/>
+      <c r="W187" s="3" t="inlineStr"/>
+      <c r="X187" s="3" t="inlineStr"/>
+      <c r="Y187" s="3" t="inlineStr"/>
+      <c r="Z187" s="3" t="inlineStr"/>
+      <c r="AA187" s="3" t="inlineStr"/>
+      <c r="AB187" s="3" t="inlineStr"/>
+      <c r="AC187" s="3" t="inlineStr"/>
+      <c r="AD187" s="3" t="inlineStr"/>
+      <c r="AE187" s="3" t="inlineStr"/>
+      <c r="AF187" s="3" t="inlineStr"/>
       <c r="AG187" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23572,27 +23464,59 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>AWS IoT TwinMaker</t>
-        </is>
-      </c>
-      <c r="B188" s="3" t="inlineStr"/>
-      <c r="C188" s="3" t="inlineStr"/>
-      <c r="D188" s="3" t="inlineStr"/>
-      <c r="E188" s="3" t="inlineStr"/>
+          <t>Amazon Elastic Container Registry (ECR)</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F188" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G188" s="3" t="inlineStr"/>
-      <c r="H188" s="3" t="inlineStr"/>
-      <c r="I188" s="3" t="inlineStr"/>
+      <c r="G188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J188" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K188" s="3" t="inlineStr"/>
+      <c r="K188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L188" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23603,7 +23527,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N188" s="3" t="inlineStr"/>
+      <c r="N188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O188" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23614,47 +23542,107 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q188" s="3" t="inlineStr"/>
+      <c r="Q188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R188" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S188" s="3" t="inlineStr"/>
-      <c r="T188" s="3" t="inlineStr"/>
-      <c r="U188" s="3" t="inlineStr"/>
-      <c r="V188" s="3" t="inlineStr"/>
-      <c r="W188" s="3" t="inlineStr"/>
-      <c r="X188" s="3" t="inlineStr"/>
-      <c r="Y188" s="3" t="inlineStr"/>
-      <c r="Z188" s="3" t="inlineStr"/>
-      <c r="AA188" s="3" t="inlineStr"/>
-      <c r="AB188" s="3" t="inlineStr"/>
-      <c r="AC188" s="3" t="inlineStr"/>
-      <c r="AD188" s="3" t="inlineStr"/>
-      <c r="AE188" s="3" t="inlineStr"/>
-      <c r="AF188" s="3" t="inlineStr"/>
-      <c r="AG188" s="3" t="inlineStr"/>
+      <c r="S188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Amazon Lookout for Vision</t>
+          <t>AWS IoT TwinMaker</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr"/>
-      <c r="C189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C189" s="3" t="inlineStr"/>
+      <c r="D189" s="3" t="inlineStr"/>
       <c r="E189" s="3" t="inlineStr"/>
-      <c r="F189" s="3" t="inlineStr"/>
+      <c r="F189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="G189" s="3" t="inlineStr"/>
       <c r="H189" s="3" t="inlineStr"/>
       <c r="I189" s="3" t="inlineStr"/>
@@ -23663,12 +23651,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="K189" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L189" s="3" t="inlineStr"/>
+      <c r="K189" s="3" t="inlineStr"/>
+      <c r="L189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M189" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23680,7 +23668,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P189" s="3" t="inlineStr"/>
+      <c r="P189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q189" s="3" t="inlineStr"/>
       <c r="R189" s="2" t="inlineStr">
         <is>
@@ -23706,14 +23698,10 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Amazon EC2 Auto Scaling</t>
-        </is>
-      </c>
-      <c r="B190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Lookout for Vision</t>
+        </is>
+      </c>
+      <c r="B190" s="3" t="inlineStr"/>
       <c r="C190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23724,31 +23712,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E190" s="3" t="inlineStr"/>
+      <c r="F190" s="3" t="inlineStr"/>
+      <c r="G190" s="3" t="inlineStr"/>
+      <c r="H190" s="3" t="inlineStr"/>
+      <c r="I190" s="3" t="inlineStr"/>
       <c r="J190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23759,121 +23727,45 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L190" s="3" t="inlineStr"/>
       <c r="M190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N190" s="3" t="inlineStr"/>
       <c r="O190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P190" s="3" t="inlineStr"/>
+      <c r="Q190" s="3" t="inlineStr"/>
       <c r="R190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG190" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S190" s="3" t="inlineStr"/>
+      <c r="T190" s="3" t="inlineStr"/>
+      <c r="U190" s="3" t="inlineStr"/>
+      <c r="V190" s="3" t="inlineStr"/>
+      <c r="W190" s="3" t="inlineStr"/>
+      <c r="X190" s="3" t="inlineStr"/>
+      <c r="Y190" s="3" t="inlineStr"/>
+      <c r="Z190" s="3" t="inlineStr"/>
+      <c r="AA190" s="3" t="inlineStr"/>
+      <c r="AB190" s="3" t="inlineStr"/>
+      <c r="AC190" s="3" t="inlineStr"/>
+      <c r="AD190" s="3" t="inlineStr"/>
+      <c r="AE190" s="3" t="inlineStr"/>
+      <c r="AF190" s="3" t="inlineStr"/>
+      <c r="AG190" s="3" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>AWS Service Catalog</t>
+          <t>Amazon EC2 Auto Scaling</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
@@ -24040,7 +23932,7 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for Lustre</t>
+          <t>AWS Service Catalog</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
@@ -24183,7 +24075,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD192" s="3" t="inlineStr"/>
+      <c r="AD192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE192" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24203,7 +24099,7 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>AWS AppSync</t>
+          <t>Amazon FSx for Lustre</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
@@ -24276,7 +24172,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P193" s="3" t="inlineStr"/>
+      <c r="P193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q193" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24322,7 +24222,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z193" s="3" t="inlineStr"/>
+      <c r="Z193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA193" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24349,83 +24253,179 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AG193" s="3" t="inlineStr"/>
+      <c r="AG193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>AWS Wickr</t>
-        </is>
-      </c>
-      <c r="B194" s="3" t="inlineStr"/>
-      <c r="C194" s="3" t="inlineStr"/>
-      <c r="D194" s="3" t="inlineStr"/>
-      <c r="E194" s="3" t="inlineStr"/>
-      <c r="F194" s="3" t="inlineStr"/>
+          <t>AWS AppSync</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="G194" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="H194" s="3" t="inlineStr"/>
-      <c r="I194" s="3" t="inlineStr"/>
+      <c r="H194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J194" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K194" s="3" t="inlineStr"/>
-      <c r="L194" s="3" t="inlineStr"/>
-      <c r="M194" s="3" t="inlineStr"/>
-      <c r="N194" s="3" t="inlineStr"/>
-      <c r="O194" s="3" t="inlineStr"/>
-      <c r="P194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q194" s="3" t="inlineStr"/>
-      <c r="R194" s="3" t="inlineStr"/>
-      <c r="S194" s="3" t="inlineStr"/>
-      <c r="T194" s="3" t="inlineStr"/>
-      <c r="U194" s="3" t="inlineStr"/>
-      <c r="V194" s="3" t="inlineStr"/>
-      <c r="W194" s="3" t="inlineStr"/>
-      <c r="X194" s="3" t="inlineStr"/>
-      <c r="Y194" s="3" t="inlineStr"/>
+      <c r="K194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P194" s="3" t="inlineStr"/>
+      <c r="Q194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z194" s="3" t="inlineStr"/>
-      <c r="AA194" s="3" t="inlineStr"/>
-      <c r="AB194" s="3" t="inlineStr"/>
-      <c r="AC194" s="3" t="inlineStr"/>
+      <c r="AA194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD194" s="3" t="inlineStr"/>
-      <c r="AE194" s="3" t="inlineStr"/>
-      <c r="AF194" s="3" t="inlineStr"/>
+      <c r="AE194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AG194" s="3" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaTailor</t>
+          <t>AWS Wickr</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr"/>
-      <c r="C195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C195" s="3" t="inlineStr"/>
       <c r="D195" s="3" t="inlineStr"/>
-      <c r="E195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G195" s="3" t="inlineStr"/>
+      <c r="E195" s="3" t="inlineStr"/>
+      <c r="F195" s="3" t="inlineStr"/>
+      <c r="G195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H195" s="3" t="inlineStr"/>
       <c r="I195" s="3" t="inlineStr"/>
       <c r="J195" s="2" t="inlineStr">
@@ -24433,43 +24433,23 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="K195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K195" s="3" t="inlineStr"/>
+      <c r="L195" s="3" t="inlineStr"/>
+      <c r="M195" s="3" t="inlineStr"/>
       <c r="N195" s="3" t="inlineStr"/>
-      <c r="O195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P195" s="3" t="inlineStr"/>
+      <c r="O195" s="3" t="inlineStr"/>
+      <c r="P195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q195" s="3" t="inlineStr"/>
-      <c r="R195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="R195" s="3" t="inlineStr"/>
       <c r="S195" s="3" t="inlineStr"/>
       <c r="T195" s="3" t="inlineStr"/>
       <c r="U195" s="3" t="inlineStr"/>
       <c r="V195" s="3" t="inlineStr"/>
-      <c r="W195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W195" s="3" t="inlineStr"/>
       <c r="X195" s="3" t="inlineStr"/>
       <c r="Y195" s="3" t="inlineStr"/>
       <c r="Z195" s="3" t="inlineStr"/>
@@ -24484,24 +24464,16 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Elastic Load Balancing</t>
-        </is>
-      </c>
-      <c r="B196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Elemental MediaTailor</t>
+        </is>
+      </c>
+      <c r="B196" s="3" t="inlineStr"/>
       <c r="C196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D196" s="3" t="inlineStr"/>
       <c r="E196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24512,21 +24484,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G196" s="3" t="inlineStr"/>
+      <c r="H196" s="3" t="inlineStr"/>
+      <c r="I196" s="3" t="inlineStr"/>
       <c r="J196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24547,111 +24507,43 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N196" s="3" t="inlineStr"/>
       <c r="O196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P196" s="3" t="inlineStr"/>
+      <c r="Q196" s="3" t="inlineStr"/>
       <c r="R196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S196" s="3" t="inlineStr"/>
+      <c r="T196" s="3" t="inlineStr"/>
+      <c r="U196" s="3" t="inlineStr"/>
+      <c r="V196" s="3" t="inlineStr"/>
       <c r="W196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X196" s="3" t="inlineStr"/>
+      <c r="Y196" s="3" t="inlineStr"/>
+      <c r="Z196" s="3" t="inlineStr"/>
+      <c r="AA196" s="3" t="inlineStr"/>
+      <c r="AB196" s="3" t="inlineStr"/>
+      <c r="AC196" s="3" t="inlineStr"/>
+      <c r="AD196" s="3" t="inlineStr"/>
+      <c r="AE196" s="3" t="inlineStr"/>
+      <c r="AF196" s="3" t="inlineStr"/>
+      <c r="AG196" s="3" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>AWS CodeCommit</t>
+          <t>Elastic Load Balancing</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
@@ -24754,7 +24646,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="V197" s="3" t="inlineStr"/>
+      <c r="V197" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W197" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24770,19 +24666,31 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z197" s="3" t="inlineStr"/>
+      <c r="Z197" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA197" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB197" s="3" t="inlineStr"/>
+      <c r="AB197" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC197" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD197" s="3" t="inlineStr"/>
+      <c r="AD197" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE197" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24802,7 +24710,7 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>Amazon MemoryDB for Redis</t>
+          <t>AWS CodeCommit</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
@@ -24875,7 +24783,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P198" s="3" t="inlineStr"/>
+      <c r="P198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q198" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24891,16 +24803,32 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T198" s="3" t="inlineStr"/>
+      <c r="T198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U198" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="V198" s="3" t="inlineStr"/>
-      <c r="W198" s="3" t="inlineStr"/>
-      <c r="X198" s="3" t="inlineStr"/>
-      <c r="Y198" s="3" t="inlineStr"/>
+      <c r="W198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z198" s="3" t="inlineStr"/>
       <c r="AA198" s="2" t="inlineStr">
         <is>
@@ -24914,14 +24842,26 @@
         </is>
       </c>
       <c r="AD198" s="3" t="inlineStr"/>
-      <c r="AE198" s="3" t="inlineStr"/>
-      <c r="AF198" s="3" t="inlineStr"/>
-      <c r="AG198" s="3" t="inlineStr"/>
+      <c r="AE198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>Amazon Simple Storage Service (S3)</t>
+          <t>Amazon MemoryDB for Redis</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
@@ -24994,11 +24934,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P199" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P199" s="3" t="inlineStr"/>
       <c r="Q199" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25014,81 +24950,37 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T199" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T199" s="3" t="inlineStr"/>
       <c r="U199" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V199" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W199" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X199" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y199" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z199" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V199" s="3" t="inlineStr"/>
+      <c r="W199" s="3" t="inlineStr"/>
+      <c r="X199" s="3" t="inlineStr"/>
+      <c r="Y199" s="3" t="inlineStr"/>
+      <c r="Z199" s="3" t="inlineStr"/>
       <c r="AA199" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB199" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB199" s="3" t="inlineStr"/>
       <c r="AC199" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD199" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE199" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF199" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG199" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD199" s="3" t="inlineStr"/>
+      <c r="AE199" s="3" t="inlineStr"/>
+      <c r="AF199" s="3" t="inlineStr"/>
+      <c r="AG199" s="3" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>Amazon Elastic File System (EFS)</t>
+          <t>Amazon Simple Storage Service (S3)</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
@@ -25255,208 +25147,232 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>AWS Server Migration Service (SMS)</t>
-        </is>
-      </c>
-      <c r="B201" s="3" t="inlineStr"/>
-      <c r="C201" s="3" t="inlineStr"/>
-      <c r="D201" s="3" t="inlineStr"/>
-      <c r="E201" s="3" t="inlineStr"/>
-      <c r="F201" s="3" t="inlineStr"/>
-      <c r="G201" s="3" t="inlineStr"/>
-      <c r="H201" s="3" t="inlineStr"/>
-      <c r="I201" s="3" t="inlineStr"/>
-      <c r="J201" s="3" t="inlineStr"/>
-      <c r="K201" s="3" t="inlineStr"/>
-      <c r="L201" s="3" t="inlineStr"/>
-      <c r="M201" s="3" t="inlineStr"/>
-      <c r="N201" s="3" t="inlineStr"/>
-      <c r="O201" s="3" t="inlineStr"/>
+          <t>Amazon Elastic File System (EFS)</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="J201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="P201" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Q201" s="3" t="inlineStr"/>
+      <c r="Q201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R201" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S201" s="3" t="inlineStr"/>
-      <c r="T201" s="3" t="inlineStr"/>
+      <c r="S201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U201" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V201" s="3" t="inlineStr"/>
-      <c r="W201" s="3" t="inlineStr"/>
-      <c r="X201" s="3" t="inlineStr"/>
-      <c r="Y201" s="3" t="inlineStr"/>
-      <c r="Z201" s="3" t="inlineStr"/>
-      <c r="AA201" s="3" t="inlineStr"/>
-      <c r="AB201" s="3" t="inlineStr"/>
-      <c r="AC201" s="3" t="inlineStr"/>
-      <c r="AD201" s="3" t="inlineStr"/>
-      <c r="AE201" s="3" t="inlineStr"/>
-      <c r="AF201" s="3" t="inlineStr"/>
-      <c r="AG201" s="3" t="inlineStr"/>
+      <c r="V201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG201" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>AWS User Notifications</t>
-        </is>
-      </c>
-      <c r="B202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P202" s="3" t="inlineStr"/>
-      <c r="Q202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Server Migration Service (SMS)</t>
+        </is>
+      </c>
+      <c r="B202" s="3" t="inlineStr"/>
+      <c r="C202" s="3" t="inlineStr"/>
+      <c r="D202" s="3" t="inlineStr"/>
+      <c r="E202" s="3" t="inlineStr"/>
+      <c r="F202" s="3" t="inlineStr"/>
+      <c r="G202" s="3" t="inlineStr"/>
+      <c r="H202" s="3" t="inlineStr"/>
+      <c r="I202" s="3" t="inlineStr"/>
+      <c r="J202" s="3" t="inlineStr"/>
+      <c r="K202" s="3" t="inlineStr"/>
+      <c r="L202" s="3" t="inlineStr"/>
+      <c r="M202" s="3" t="inlineStr"/>
+      <c r="N202" s="3" t="inlineStr"/>
+      <c r="O202" s="3" t="inlineStr"/>
+      <c r="P202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q202" s="3" t="inlineStr"/>
       <c r="R202" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U202" s="3" t="inlineStr"/>
-      <c r="V202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S202" s="3" t="inlineStr"/>
+      <c r="T202" s="3" t="inlineStr"/>
+      <c r="U202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V202" s="3" t="inlineStr"/>
+      <c r="W202" s="3" t="inlineStr"/>
+      <c r="X202" s="3" t="inlineStr"/>
+      <c r="Y202" s="3" t="inlineStr"/>
+      <c r="Z202" s="3" t="inlineStr"/>
+      <c r="AA202" s="3" t="inlineStr"/>
+      <c r="AB202" s="3" t="inlineStr"/>
       <c r="AC202" s="3" t="inlineStr"/>
       <c r="AD202" s="3" t="inlineStr"/>
-      <c r="AE202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE202" s="3" t="inlineStr"/>
+      <c r="AF202" s="3" t="inlineStr"/>
       <c r="AG202" s="3" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Amazon Inspector Classic</t>
-        </is>
-      </c>
-      <c r="B203" s="3" t="inlineStr"/>
+          <t>AWS User Notifications</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25477,13 +25393,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G203" s="3" t="inlineStr"/>
+      <c r="G203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H203" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I203" s="3" t="inlineStr"/>
+      <c r="I203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J203" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25494,7 +25418,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L203" s="3" t="inlineStr"/>
+      <c r="L203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M203" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25510,11 +25438,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P203" s="3" t="inlineStr"/>
       <c r="Q203" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25525,53 +25449,141 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S203" s="3" t="inlineStr"/>
-      <c r="T203" s="3" t="inlineStr"/>
+      <c r="S203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U203" s="3" t="inlineStr"/>
-      <c r="V203" s="3" t="inlineStr"/>
-      <c r="W203" s="3" t="inlineStr"/>
-      <c r="X203" s="3" t="inlineStr"/>
-      <c r="Y203" s="3" t="inlineStr"/>
-      <c r="Z203" s="3" t="inlineStr"/>
-      <c r="AA203" s="3" t="inlineStr"/>
-      <c r="AB203" s="3" t="inlineStr"/>
+      <c r="V203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC203" s="3" t="inlineStr"/>
       <c r="AD203" s="3" t="inlineStr"/>
-      <c r="AE203" s="3" t="inlineStr"/>
-      <c r="AF203" s="3" t="inlineStr"/>
-      <c r="AG203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG203" s="3" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>AWS DeepRacer</t>
+          <t>Amazon Inspector Classic</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr"/>
-      <c r="C204" s="3" t="inlineStr"/>
-      <c r="D204" s="3" t="inlineStr"/>
-      <c r="E204" s="3" t="inlineStr"/>
-      <c r="F204" s="3" t="inlineStr"/>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="G204" s="3" t="inlineStr"/>
-      <c r="H204" s="3" t="inlineStr"/>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="I204" s="3" t="inlineStr"/>
       <c r="J204" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K204" s="3" t="inlineStr"/>
+      <c r="K204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L204" s="3" t="inlineStr"/>
-      <c r="M204" s="3" t="inlineStr"/>
-      <c r="N204" s="3" t="inlineStr"/>
-      <c r="O204" s="3" t="inlineStr"/>
-      <c r="P204" s="3" t="inlineStr"/>
-      <c r="Q204" s="3" t="inlineStr"/>
-      <c r="R204" s="3" t="inlineStr"/>
+      <c r="M204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="S204" s="3" t="inlineStr"/>
       <c r="T204" s="3" t="inlineStr"/>
       <c r="U204" s="3" t="inlineStr"/>
@@ -25586,165 +25598,101 @@
       <c r="AD204" s="3" t="inlineStr"/>
       <c r="AE204" s="3" t="inlineStr"/>
       <c r="AF204" s="3" t="inlineStr"/>
-      <c r="AG204" s="3" t="inlineStr"/>
+      <c r="AG204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Amazon GameLift</t>
-        </is>
-      </c>
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS DeepRacer</t>
+        </is>
+      </c>
+      <c r="B205" s="3" t="inlineStr"/>
+      <c r="C205" s="3" t="inlineStr"/>
+      <c r="D205" s="3" t="inlineStr"/>
+      <c r="E205" s="3" t="inlineStr"/>
+      <c r="F205" s="3" t="inlineStr"/>
+      <c r="G205" s="3" t="inlineStr"/>
+      <c r="H205" s="3" t="inlineStr"/>
+      <c r="I205" s="3" t="inlineStr"/>
       <c r="J205" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K205" s="3" t="inlineStr"/>
+      <c r="L205" s="3" t="inlineStr"/>
+      <c r="M205" s="3" t="inlineStr"/>
+      <c r="N205" s="3" t="inlineStr"/>
+      <c r="O205" s="3" t="inlineStr"/>
       <c r="P205" s="3" t="inlineStr"/>
-      <c r="Q205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q205" s="3" t="inlineStr"/>
+      <c r="R205" s="3" t="inlineStr"/>
+      <c r="S205" s="3" t="inlineStr"/>
+      <c r="T205" s="3" t="inlineStr"/>
+      <c r="U205" s="3" t="inlineStr"/>
       <c r="V205" s="3" t="inlineStr"/>
-      <c r="W205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W205" s="3" t="inlineStr"/>
       <c r="X205" s="3" t="inlineStr"/>
       <c r="Y205" s="3" t="inlineStr"/>
       <c r="Z205" s="3" t="inlineStr"/>
-      <c r="AA205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA205" s="3" t="inlineStr"/>
       <c r="AB205" s="3" t="inlineStr"/>
-      <c r="AC205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC205" s="3" t="inlineStr"/>
       <c r="AD205" s="3" t="inlineStr"/>
       <c r="AE205" s="3" t="inlineStr"/>
-      <c r="AF205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF205" s="3" t="inlineStr"/>
       <c r="AG205" s="3" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Amazon CodeGuru</t>
-        </is>
-      </c>
-      <c r="B206" s="3" t="inlineStr"/>
+          <t>Amazon GameLift</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D206" s="3" t="inlineStr"/>
-      <c r="E206" s="3" t="inlineStr"/>
+      <c r="D206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G206" s="3" t="inlineStr"/>
+      <c r="G206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I206" s="3" t="inlineStr"/>
+      <c r="I206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25776,32 +25724,64 @@
         </is>
       </c>
       <c r="P206" s="3" t="inlineStr"/>
-      <c r="Q206" s="3" t="inlineStr"/>
+      <c r="Q206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S206" s="3" t="inlineStr"/>
-      <c r="T206" s="3" t="inlineStr"/>
-      <c r="U206" s="3" t="inlineStr"/>
+      <c r="S206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V206" s="3" t="inlineStr"/>
-      <c r="W206" s="3" t="inlineStr"/>
+      <c r="W206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X206" s="3" t="inlineStr"/>
       <c r="Y206" s="3" t="inlineStr"/>
       <c r="Z206" s="3" t="inlineStr"/>
-      <c r="AA206" s="3" t="inlineStr"/>
+      <c r="AA206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB206" s="3" t="inlineStr"/>
-      <c r="AC206" s="3" t="inlineStr"/>
+      <c r="AC206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD206" s="3" t="inlineStr"/>
       <c r="AE206" s="3" t="inlineStr"/>
-      <c r="AF206" s="3" t="inlineStr"/>
+      <c r="AF206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AG206" s="3" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Amazon Quantum Ledger Database (QLDB)</t>
+          <t>Amazon CodeGuru</t>
         </is>
       </c>
       <c r="B207" s="3" t="inlineStr"/>
@@ -25810,22 +25790,14 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="D207" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D207" s="3" t="inlineStr"/>
       <c r="E207" s="3" t="inlineStr"/>
       <c r="F207" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G207" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G207" s="3" t="inlineStr"/>
       <c r="H207" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25852,7 +25824,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N207" s="3" t="inlineStr"/>
+      <c r="N207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O207" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25884,7 +25860,7 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaConvert</t>
+          <t>Amazon Quantum Ledger Database (QLDB)</t>
         </is>
       </c>
       <c r="B208" s="3" t="inlineStr"/>
@@ -25898,11 +25874,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E208" s="3" t="inlineStr"/>
       <c r="F208" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25918,11 +25890,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I208" s="3" t="inlineStr"/>
       <c r="J208" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25943,54 +25911,30 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N208" s="3" t="inlineStr"/>
       <c r="O208" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P208" s="3" t="inlineStr"/>
+      <c r="Q208" s="3" t="inlineStr"/>
       <c r="R208" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S208" s="3" t="inlineStr"/>
       <c r="T208" s="3" t="inlineStr"/>
       <c r="U208" s="3" t="inlineStr"/>
       <c r="V208" s="3" t="inlineStr"/>
-      <c r="W208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W208" s="3" t="inlineStr"/>
       <c r="X208" s="3" t="inlineStr"/>
       <c r="Y208" s="3" t="inlineStr"/>
       <c r="Z208" s="3" t="inlineStr"/>
       <c r="AA208" s="3" t="inlineStr"/>
       <c r="AB208" s="3" t="inlineStr"/>
-      <c r="AC208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC208" s="3" t="inlineStr"/>
       <c r="AD208" s="3" t="inlineStr"/>
       <c r="AE208" s="3" t="inlineStr"/>
       <c r="AF208" s="3" t="inlineStr"/>
@@ -25999,14 +25943,10 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>AWS Security Hub</t>
-        </is>
-      </c>
-      <c r="B209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Elemental MediaConvert</t>
+        </is>
+      </c>
+      <c r="B209" s="3" t="inlineStr"/>
       <c r="C209" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26092,77 +26032,33 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T209" s="3" t="inlineStr"/>
+      <c r="U209" s="3" t="inlineStr"/>
+      <c r="V209" s="3" t="inlineStr"/>
       <c r="W209" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X209" s="3" t="inlineStr"/>
+      <c r="Y209" s="3" t="inlineStr"/>
+      <c r="Z209" s="3" t="inlineStr"/>
+      <c r="AA209" s="3" t="inlineStr"/>
+      <c r="AB209" s="3" t="inlineStr"/>
       <c r="AC209" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="AD209" s="3" t="inlineStr"/>
-      <c r="AE209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE209" s="3" t="inlineStr"/>
+      <c r="AF209" s="3" t="inlineStr"/>
+      <c r="AG209" s="3" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for OpenZFS</t>
+          <t>AWS Security Hub</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
@@ -26200,7 +26096,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I210" s="3" t="inlineStr"/>
+      <c r="I210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26231,39 +26131,119 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P210" s="3" t="inlineStr"/>
-      <c r="Q210" s="3" t="inlineStr"/>
+      <c r="P210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S210" s="3" t="inlineStr"/>
-      <c r="T210" s="3" t="inlineStr"/>
-      <c r="U210" s="3" t="inlineStr"/>
-      <c r="V210" s="3" t="inlineStr"/>
-      <c r="W210" s="3" t="inlineStr"/>
-      <c r="X210" s="3" t="inlineStr"/>
-      <c r="Y210" s="3" t="inlineStr"/>
-      <c r="Z210" s="3" t="inlineStr"/>
-      <c r="AA210" s="3" t="inlineStr"/>
-      <c r="AB210" s="3" t="inlineStr"/>
-      <c r="AC210" s="3" t="inlineStr"/>
+      <c r="S210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD210" s="3" t="inlineStr"/>
-      <c r="AE210" s="3" t="inlineStr"/>
-      <c r="AF210" s="3" t="inlineStr"/>
-      <c r="AG210" s="3" t="inlineStr"/>
+      <c r="AE210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Amazon Comprehend Medical</t>
-        </is>
-      </c>
-      <c r="B211" s="3" t="inlineStr"/>
-      <c r="C211" s="3" t="inlineStr"/>
-      <c r="D211" s="3" t="inlineStr"/>
-      <c r="E211" s="3" t="inlineStr"/>
+          <t>Amazon FSx for OpenZFS</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26290,19 +26270,27 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L211" s="3" t="inlineStr"/>
-      <c r="M211" s="3" t="inlineStr"/>
-      <c r="N211" s="3" t="inlineStr"/>
+      <c r="L211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P211" s="3" t="inlineStr"/>
       <c r="Q211" s="3" t="inlineStr"/>
       <c r="R211" s="2" t="inlineStr">
         <is>
@@ -26328,29 +26316,13 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>Amazon DynamoDB</t>
-        </is>
-      </c>
-      <c r="B212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Comprehend Medical</t>
+        </is>
+      </c>
+      <c r="B212" s="3" t="inlineStr"/>
+      <c r="C212" s="3" t="inlineStr"/>
+      <c r="D212" s="3" t="inlineStr"/>
+      <c r="E212" s="3" t="inlineStr"/>
       <c r="F212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26366,11 +26338,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I212" s="3" t="inlineStr"/>
       <c r="J212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26381,21 +26349,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L212" s="3" t="inlineStr"/>
+      <c r="M212" s="3" t="inlineStr"/>
+      <c r="N212" s="3" t="inlineStr"/>
       <c r="O212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26406,99 +26362,39 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q212" s="3" t="inlineStr"/>
       <c r="R212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S212" s="3" t="inlineStr"/>
+      <c r="T212" s="3" t="inlineStr"/>
+      <c r="U212" s="3" t="inlineStr"/>
+      <c r="V212" s="3" t="inlineStr"/>
+      <c r="W212" s="3" t="inlineStr"/>
+      <c r="X212" s="3" t="inlineStr"/>
+      <c r="Y212" s="3" t="inlineStr"/>
+      <c r="Z212" s="3" t="inlineStr"/>
+      <c r="AA212" s="3" t="inlineStr"/>
+      <c r="AB212" s="3" t="inlineStr"/>
+      <c r="AC212" s="3" t="inlineStr"/>
+      <c r="AD212" s="3" t="inlineStr"/>
+      <c r="AE212" s="3" t="inlineStr"/>
+      <c r="AF212" s="3" t="inlineStr"/>
+      <c r="AG212" s="3" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>Amazon DocumentDB (with MongoDB compatibility)</t>
-        </is>
-      </c>
-      <c r="B213" s="3" t="inlineStr"/>
+          <t>Amazon DynamoDB</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26554,7 +26450,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N213" s="3" t="inlineStr"/>
+      <c r="N213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O213" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26565,7 +26465,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q213" s="3" t="inlineStr"/>
+      <c r="Q213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R213" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26576,44 +26480,84 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T213" s="3" t="inlineStr"/>
+      <c r="T213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U213" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V213" s="3" t="inlineStr"/>
-      <c r="W213" s="3" t="inlineStr"/>
-      <c r="X213" s="3" t="inlineStr"/>
-      <c r="Y213" s="3" t="inlineStr"/>
-      <c r="Z213" s="3" t="inlineStr"/>
+      <c r="V213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA213" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB213" s="3" t="inlineStr"/>
+      <c r="AB213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC213" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD213" s="3" t="inlineStr"/>
-      <c r="AE213" s="3" t="inlineStr"/>
-      <c r="AF213" s="3" t="inlineStr"/>
-      <c r="AG213" s="3" t="inlineStr"/>
+      <c r="AD213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaConnect</t>
-        </is>
-      </c>
-      <c r="B214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon DocumentDB (with MongoDB compatibility)</t>
+        </is>
+      </c>
+      <c r="B214" s="3" t="inlineStr"/>
       <c r="C214" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26669,22 +26613,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N214" s="3" t="inlineStr"/>
       <c r="O214" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P214" s="3" t="inlineStr"/>
-      <c r="Q214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q214" s="3" t="inlineStr"/>
       <c r="R214" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26695,24 +26635,28 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U214" s="3" t="inlineStr"/>
+      <c r="T214" s="3" t="inlineStr"/>
+      <c r="U214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V214" s="3" t="inlineStr"/>
-      <c r="W214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W214" s="3" t="inlineStr"/>
       <c r="X214" s="3" t="inlineStr"/>
       <c r="Y214" s="3" t="inlineStr"/>
       <c r="Z214" s="3" t="inlineStr"/>
-      <c r="AA214" s="3" t="inlineStr"/>
+      <c r="AA214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB214" s="3" t="inlineStr"/>
-      <c r="AC214" s="3" t="inlineStr"/>
+      <c r="AC214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD214" s="3" t="inlineStr"/>
       <c r="AE214" s="3" t="inlineStr"/>
       <c r="AF214" s="3" t="inlineStr"/>
@@ -26721,7 +26665,7 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>AWS Config</t>
+          <t>AWS Elemental MediaConnect</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
@@ -26794,11 +26738,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P215" s="3" t="inlineStr"/>
       <c r="Q215" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26819,76 +26759,28 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U215" s="3" t="inlineStr"/>
+      <c r="V215" s="3" t="inlineStr"/>
       <c r="W215" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X215" s="3" t="inlineStr"/>
+      <c r="Y215" s="3" t="inlineStr"/>
+      <c r="Z215" s="3" t="inlineStr"/>
+      <c r="AA215" s="3" t="inlineStr"/>
+      <c r="AB215" s="3" t="inlineStr"/>
+      <c r="AC215" s="3" t="inlineStr"/>
+      <c r="AD215" s="3" t="inlineStr"/>
+      <c r="AE215" s="3" t="inlineStr"/>
+      <c r="AF215" s="3" t="inlineStr"/>
+      <c r="AG215" s="3" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>Amazon CloudFront</t>
+          <t>AWS Config</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
@@ -26961,7 +26853,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P216" s="3" t="inlineStr"/>
+      <c r="P216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q216" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27042,157 +26938,209 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AG216" s="3" t="inlineStr"/>
+      <c r="AG216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>Amazon WorkMail</t>
-        </is>
-      </c>
-      <c r="B217" s="3" t="inlineStr"/>
-      <c r="C217" s="3" t="inlineStr"/>
-      <c r="D217" s="3" t="inlineStr"/>
-      <c r="E217" s="3" t="inlineStr"/>
-      <c r="F217" s="3" t="inlineStr"/>
-      <c r="G217" s="3" t="inlineStr"/>
-      <c r="H217" s="3" t="inlineStr"/>
-      <c r="I217" s="3" t="inlineStr"/>
+          <t>Amazon CloudFront</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K217" s="3" t="inlineStr"/>
-      <c r="L217" s="3" t="inlineStr"/>
-      <c r="M217" s="3" t="inlineStr"/>
-      <c r="N217" s="3" t="inlineStr"/>
+      <c r="K217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O217" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="P217" s="3" t="inlineStr"/>
-      <c r="Q217" s="3" t="inlineStr"/>
+      <c r="Q217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R217" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S217" s="3" t="inlineStr"/>
-      <c r="T217" s="3" t="inlineStr"/>
-      <c r="U217" s="3" t="inlineStr"/>
-      <c r="V217" s="3" t="inlineStr"/>
-      <c r="W217" s="3" t="inlineStr"/>
-      <c r="X217" s="3" t="inlineStr"/>
-      <c r="Y217" s="3" t="inlineStr"/>
-      <c r="Z217" s="3" t="inlineStr"/>
-      <c r="AA217" s="3" t="inlineStr"/>
-      <c r="AB217" s="3" t="inlineStr"/>
-      <c r="AC217" s="3" t="inlineStr"/>
-      <c r="AD217" s="3" t="inlineStr"/>
-      <c r="AE217" s="3" t="inlineStr"/>
-      <c r="AF217" s="3" t="inlineStr"/>
+      <c r="S217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AG217" s="3" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>FreeRTOS</t>
-        </is>
-      </c>
-      <c r="B218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon WorkMail</t>
+        </is>
+      </c>
+      <c r="B218" s="3" t="inlineStr"/>
+      <c r="C218" s="3" t="inlineStr"/>
+      <c r="D218" s="3" t="inlineStr"/>
+      <c r="E218" s="3" t="inlineStr"/>
+      <c r="F218" s="3" t="inlineStr"/>
+      <c r="G218" s="3" t="inlineStr"/>
+      <c r="H218" s="3" t="inlineStr"/>
+      <c r="I218" s="3" t="inlineStr"/>
       <c r="J218" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K218" s="3" t="inlineStr"/>
+      <c r="L218" s="3" t="inlineStr"/>
+      <c r="M218" s="3" t="inlineStr"/>
+      <c r="N218" s="3" t="inlineStr"/>
       <c r="O218" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="P218" s="3" t="inlineStr"/>
-      <c r="Q218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q218" s="3" t="inlineStr"/>
       <c r="R218" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S218" s="3" t="inlineStr"/>
       <c r="T218" s="3" t="inlineStr"/>
-      <c r="U218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U218" s="3" t="inlineStr"/>
       <c r="V218" s="3" t="inlineStr"/>
       <c r="W218" s="3" t="inlineStr"/>
       <c r="X218" s="3" t="inlineStr"/>
@@ -27200,24 +27148,16 @@
       <c r="Z218" s="3" t="inlineStr"/>
       <c r="AA218" s="3" t="inlineStr"/>
       <c r="AB218" s="3" t="inlineStr"/>
-      <c r="AC218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC218" s="3" t="inlineStr"/>
       <c r="AD218" s="3" t="inlineStr"/>
       <c r="AE218" s="3" t="inlineStr"/>
-      <c r="AF218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF218" s="3" t="inlineStr"/>
       <c r="AG218" s="3" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>AWS App Mesh</t>
+          <t>FreeRTOS</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
@@ -27306,34 +27246,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T219" s="3" t="inlineStr"/>
       <c r="U219" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="V219" s="3" t="inlineStr"/>
-      <c r="W219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W219" s="3" t="inlineStr"/>
       <c r="X219" s="3" t="inlineStr"/>
-      <c r="Y219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Y219" s="3" t="inlineStr"/>
       <c r="Z219" s="3" t="inlineStr"/>
-      <c r="AA219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA219" s="3" t="inlineStr"/>
       <c r="AB219" s="3" t="inlineStr"/>
       <c r="AC219" s="2" t="inlineStr">
         <is>
@@ -27352,62 +27276,150 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>AWS DeepLens</t>
-        </is>
-      </c>
-      <c r="B220" s="3" t="inlineStr"/>
+          <t>AWS App Mesh</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D220" s="3" t="inlineStr"/>
-      <c r="E220" s="3" t="inlineStr"/>
-      <c r="F220" s="3" t="inlineStr"/>
-      <c r="G220" s="3" t="inlineStr"/>
-      <c r="H220" s="3" t="inlineStr"/>
-      <c r="I220" s="3" t="inlineStr"/>
+      <c r="D220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K220" s="3" t="inlineStr"/>
-      <c r="L220" s="3" t="inlineStr"/>
+      <c r="K220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M220" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N220" s="3" t="inlineStr"/>
-      <c r="O220" s="3" t="inlineStr"/>
+      <c r="N220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="P220" s="3" t="inlineStr"/>
-      <c r="Q220" s="3" t="inlineStr"/>
-      <c r="R220" s="3" t="inlineStr"/>
-      <c r="S220" s="3" t="inlineStr"/>
-      <c r="T220" s="3" t="inlineStr"/>
-      <c r="U220" s="3" t="inlineStr"/>
+      <c r="Q220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V220" s="3" t="inlineStr"/>
-      <c r="W220" s="3" t="inlineStr"/>
+      <c r="W220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X220" s="3" t="inlineStr"/>
-      <c r="Y220" s="3" t="inlineStr"/>
+      <c r="Y220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z220" s="3" t="inlineStr"/>
-      <c r="AA220" s="3" t="inlineStr"/>
+      <c r="AA220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB220" s="3" t="inlineStr"/>
-      <c r="AC220" s="3" t="inlineStr"/>
+      <c r="AC220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD220" s="3" t="inlineStr"/>
       <c r="AE220" s="3" t="inlineStr"/>
-      <c r="AF220" s="3" t="inlineStr"/>
+      <c r="AF220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AG220" s="3" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>AWS Cost and Usage Report</t>
+          <t>AWS DeepLens</t>
         </is>
       </c>
       <c r="B221" s="3" t="inlineStr"/>
-      <c r="C221" s="3" t="inlineStr"/>
+      <c r="C221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="D221" s="3" t="inlineStr"/>
       <c r="E221" s="3" t="inlineStr"/>
       <c r="F221" s="3" t="inlineStr"/>
@@ -27421,7 +27433,11 @@
       </c>
       <c r="K221" s="3" t="inlineStr"/>
       <c r="L221" s="3" t="inlineStr"/>
-      <c r="M221" s="3" t="inlineStr"/>
+      <c r="M221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N221" s="3" t="inlineStr"/>
       <c r="O221" s="3" t="inlineStr"/>
       <c r="P221" s="3" t="inlineStr"/>
@@ -27437,11 +27453,7 @@
       <c r="Z221" s="3" t="inlineStr"/>
       <c r="AA221" s="3" t="inlineStr"/>
       <c r="AB221" s="3" t="inlineStr"/>
-      <c r="AC221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC221" s="3" t="inlineStr"/>
       <c r="AD221" s="3" t="inlineStr"/>
       <c r="AE221" s="3" t="inlineStr"/>
       <c r="AF221" s="3" t="inlineStr"/>
@@ -27450,82 +27462,30 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>Amazon Rekognition</t>
+          <t>AWS Cost and Usage Report</t>
         </is>
       </c>
       <c r="B222" s="3" t="inlineStr"/>
-      <c r="C222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C222" s="3" t="inlineStr"/>
+      <c r="D222" s="3" t="inlineStr"/>
+      <c r="E222" s="3" t="inlineStr"/>
+      <c r="F222" s="3" t="inlineStr"/>
+      <c r="G222" s="3" t="inlineStr"/>
+      <c r="H222" s="3" t="inlineStr"/>
       <c r="I222" s="3" t="inlineStr"/>
       <c r="J222" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K222" s="3" t="inlineStr"/>
+      <c r="L222" s="3" t="inlineStr"/>
+      <c r="M222" s="3" t="inlineStr"/>
       <c r="N222" s="3" t="inlineStr"/>
-      <c r="O222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="O222" s="3" t="inlineStr"/>
+      <c r="P222" s="3" t="inlineStr"/>
+      <c r="Q222" s="3" t="inlineStr"/>
+      <c r="R222" s="3" t="inlineStr"/>
       <c r="S222" s="3" t="inlineStr"/>
       <c r="T222" s="3" t="inlineStr"/>
       <c r="U222" s="3" t="inlineStr"/>
@@ -27536,7 +27496,11 @@
       <c r="Z222" s="3" t="inlineStr"/>
       <c r="AA222" s="3" t="inlineStr"/>
       <c r="AB222" s="3" t="inlineStr"/>
-      <c r="AC222" s="3" t="inlineStr"/>
+      <c r="AC222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD222" s="3" t="inlineStr"/>
       <c r="AE222" s="3" t="inlineStr"/>
       <c r="AF222" s="3" t="inlineStr"/>
@@ -27545,14 +27509,10 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>AWS Lambda</t>
-        </is>
-      </c>
-      <c r="B223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Rekognition</t>
+        </is>
+      </c>
+      <c r="B223" s="3" t="inlineStr"/>
       <c r="C223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27583,11 +27543,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I223" s="3" t="inlineStr"/>
       <c r="J223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27608,11 +27564,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N223" s="3" t="inlineStr"/>
       <c r="O223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27633,89 +27585,33 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S223" s="3" t="inlineStr"/>
+      <c r="T223" s="3" t="inlineStr"/>
+      <c r="U223" s="3" t="inlineStr"/>
+      <c r="V223" s="3" t="inlineStr"/>
+      <c r="W223" s="3" t="inlineStr"/>
+      <c r="X223" s="3" t="inlineStr"/>
+      <c r="Y223" s="3" t="inlineStr"/>
+      <c r="Z223" s="3" t="inlineStr"/>
+      <c r="AA223" s="3" t="inlineStr"/>
+      <c r="AB223" s="3" t="inlineStr"/>
+      <c r="AC223" s="3" t="inlineStr"/>
+      <c r="AD223" s="3" t="inlineStr"/>
+      <c r="AE223" s="3" t="inlineStr"/>
+      <c r="AF223" s="3" t="inlineStr"/>
+      <c r="AG223" s="3" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaStore</t>
-        </is>
-      </c>
-      <c r="B224" s="3" t="inlineStr"/>
+          <t>AWS Lambda</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27726,26 +27622,46 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E224" s="3" t="inlineStr"/>
+      <c r="E224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G224" s="3" t="inlineStr"/>
+      <c r="G224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I224" s="3" t="inlineStr"/>
+      <c r="I224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K224" s="3" t="inlineStr"/>
-      <c r="L224" s="3" t="inlineStr"/>
+      <c r="K224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27761,40 +27677,104 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P224" s="3" t="inlineStr"/>
-      <c r="Q224" s="3" t="inlineStr"/>
+      <c r="P224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S224" s="3" t="inlineStr"/>
-      <c r="T224" s="3" t="inlineStr"/>
-      <c r="U224" s="3" t="inlineStr"/>
-      <c r="V224" s="3" t="inlineStr"/>
-      <c r="W224" s="3" t="inlineStr"/>
-      <c r="X224" s="3" t="inlineStr"/>
-      <c r="Y224" s="3" t="inlineStr"/>
-      <c r="Z224" s="3" t="inlineStr"/>
-      <c r="AA224" s="3" t="inlineStr"/>
-      <c r="AB224" s="3" t="inlineStr"/>
-      <c r="AC224" s="3" t="inlineStr"/>
-      <c r="AD224" s="3" t="inlineStr"/>
-      <c r="AE224" s="3" t="inlineStr"/>
-      <c r="AF224" s="3" t="inlineStr"/>
-      <c r="AG224" s="3" t="inlineStr"/>
+      <c r="S224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>AWS Cloud Control API</t>
-        </is>
-      </c>
-      <c r="B225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Elemental MediaStore</t>
+        </is>
+      </c>
+      <c r="B225" s="3" t="inlineStr"/>
       <c r="C225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27805,46 +27785,26 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E225" s="3" t="inlineStr"/>
       <c r="F225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G225" s="3" t="inlineStr"/>
       <c r="H225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I225" s="3" t="inlineStr"/>
       <c r="J225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K225" s="3" t="inlineStr"/>
+      <c r="L225" s="3" t="inlineStr"/>
       <c r="M225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27860,101 +27820,33 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P225" s="3" t="inlineStr"/>
+      <c r="Q225" s="3" t="inlineStr"/>
       <c r="R225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S225" s="3" t="inlineStr"/>
+      <c r="T225" s="3" t="inlineStr"/>
+      <c r="U225" s="3" t="inlineStr"/>
+      <c r="V225" s="3" t="inlineStr"/>
+      <c r="W225" s="3" t="inlineStr"/>
+      <c r="X225" s="3" t="inlineStr"/>
+      <c r="Y225" s="3" t="inlineStr"/>
+      <c r="Z225" s="3" t="inlineStr"/>
+      <c r="AA225" s="3" t="inlineStr"/>
+      <c r="AB225" s="3" t="inlineStr"/>
+      <c r="AC225" s="3" t="inlineStr"/>
+      <c r="AD225" s="3" t="inlineStr"/>
+      <c r="AE225" s="3" t="inlineStr"/>
+      <c r="AF225" s="3" t="inlineStr"/>
+      <c r="AG225" s="3" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for Windows File Server</t>
+          <t>AWS Cloud Control API</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
@@ -28097,7 +27989,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD226" s="3" t="inlineStr"/>
+      <c r="AD226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28117,74 +28013,170 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>AWS Application Discovery Service</t>
-        </is>
-      </c>
-      <c r="B227" s="3" t="inlineStr"/>
+          <t>Amazon FSx for Windows File Server</t>
+        </is>
+      </c>
+      <c r="B227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D227" s="3" t="inlineStr"/>
-      <c r="E227" s="3" t="inlineStr"/>
+      <c r="D227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G227" s="3" t="inlineStr"/>
+      <c r="G227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I227" s="3" t="inlineStr"/>
+      <c r="I227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K227" s="3" t="inlineStr"/>
-      <c r="L227" s="3" t="inlineStr"/>
+      <c r="K227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N227" s="3" t="inlineStr"/>
+      <c r="N227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P227" s="3" t="inlineStr"/>
-      <c r="Q227" s="3" t="inlineStr"/>
+      <c r="P227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S227" s="3" t="inlineStr"/>
-      <c r="T227" s="3" t="inlineStr"/>
-      <c r="U227" s="3" t="inlineStr"/>
-      <c r="V227" s="3" t="inlineStr"/>
-      <c r="W227" s="3" t="inlineStr"/>
-      <c r="X227" s="3" t="inlineStr"/>
-      <c r="Y227" s="3" t="inlineStr"/>
-      <c r="Z227" s="3" t="inlineStr"/>
-      <c r="AA227" s="3" t="inlineStr"/>
-      <c r="AB227" s="3" t="inlineStr"/>
-      <c r="AC227" s="3" t="inlineStr"/>
+      <c r="S227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD227" s="3" t="inlineStr"/>
-      <c r="AE227" s="3" t="inlineStr"/>
-      <c r="AF227" s="3" t="inlineStr"/>
-      <c r="AG227" s="3" t="inlineStr"/>
+      <c r="AE227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>AWS App Runner</t>
+          <t>AWS Application Discovery Service</t>
         </is>
       </c>
       <c r="B228" s="3" t="inlineStr"/>
@@ -28201,23 +28193,19 @@
         </is>
       </c>
       <c r="G228" s="3" t="inlineStr"/>
-      <c r="H228" s="3" t="inlineStr"/>
+      <c r="H228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="I228" s="3" t="inlineStr"/>
       <c r="J228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K228" s="3" t="inlineStr"/>
+      <c r="L228" s="3" t="inlineStr"/>
       <c r="M228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28255,49 +28243,25 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>Amazon Elastic Container Service (ECS)</t>
-        </is>
-      </c>
-      <c r="B229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS App Runner</t>
+        </is>
+      </c>
+      <c r="B229" s="3" t="inlineStr"/>
       <c r="C229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D229" s="3" t="inlineStr"/>
+      <c r="E229" s="3" t="inlineStr"/>
       <c r="F229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G229" s="3" t="inlineStr"/>
+      <c r="H229" s="3" t="inlineStr"/>
+      <c r="I229" s="3" t="inlineStr"/>
       <c r="J229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28318,111 +28282,39 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N229" s="3" t="inlineStr"/>
       <c r="O229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P229" s="3" t="inlineStr"/>
+      <c r="Q229" s="3" t="inlineStr"/>
       <c r="R229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S229" s="3" t="inlineStr"/>
+      <c r="T229" s="3" t="inlineStr"/>
+      <c r="U229" s="3" t="inlineStr"/>
+      <c r="V229" s="3" t="inlineStr"/>
+      <c r="W229" s="3" t="inlineStr"/>
+      <c r="X229" s="3" t="inlineStr"/>
+      <c r="Y229" s="3" t="inlineStr"/>
+      <c r="Z229" s="3" t="inlineStr"/>
+      <c r="AA229" s="3" t="inlineStr"/>
+      <c r="AB229" s="3" t="inlineStr"/>
+      <c r="AC229" s="3" t="inlineStr"/>
+      <c r="AD229" s="3" t="inlineStr"/>
+      <c r="AE229" s="3" t="inlineStr"/>
+      <c r="AF229" s="3" t="inlineStr"/>
+      <c r="AG229" s="3" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>AWS CodeBuild</t>
+          <t>Amazon Elastic Container Service (ECS)</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
@@ -28589,10 +28481,14 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>Amazon Chime SDK</t>
-        </is>
-      </c>
-      <c r="B231" s="3" t="inlineStr"/>
+          <t>AWS CodeBuild</t>
+        </is>
+      </c>
+      <c r="B231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28678,27 +28574,71 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T231" s="3" t="inlineStr"/>
-      <c r="U231" s="3" t="inlineStr"/>
-      <c r="V231" s="3" t="inlineStr"/>
+      <c r="T231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W231" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X231" s="3" t="inlineStr"/>
-      <c r="Y231" s="3" t="inlineStr"/>
-      <c r="Z231" s="3" t="inlineStr"/>
+      <c r="X231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA231" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB231" s="3" t="inlineStr"/>
-      <c r="AC231" s="3" t="inlineStr"/>
-      <c r="AD231" s="3" t="inlineStr"/>
-      <c r="AE231" s="3" t="inlineStr"/>
-      <c r="AF231" s="3" t="inlineStr"/>
+      <c r="AB231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AG231" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28708,49 +28648,168 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>AWS Cost Explorer</t>
+          <t>Amazon Chime SDK</t>
         </is>
       </c>
       <c r="B232" s="3" t="inlineStr"/>
-      <c r="C232" s="3" t="inlineStr"/>
-      <c r="D232" s="3" t="inlineStr"/>
-      <c r="E232" s="3" t="inlineStr"/>
-      <c r="F232" s="3" t="inlineStr"/>
-      <c r="G232" s="3" t="inlineStr"/>
-      <c r="H232" s="3" t="inlineStr"/>
-      <c r="I232" s="3" t="inlineStr"/>
+      <c r="C232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J232" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K232" s="3" t="inlineStr"/>
-      <c r="L232" s="3" t="inlineStr"/>
-      <c r="M232" s="3" t="inlineStr"/>
-      <c r="N232" s="3" t="inlineStr"/>
-      <c r="O232" s="3" t="inlineStr"/>
-      <c r="P232" s="3" t="inlineStr"/>
-      <c r="Q232" s="3" t="inlineStr"/>
-      <c r="R232" s="3" t="inlineStr"/>
-      <c r="S232" s="3" t="inlineStr"/>
+      <c r="K232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T232" s="3" t="inlineStr"/>
       <c r="U232" s="3" t="inlineStr"/>
       <c r="V232" s="3" t="inlineStr"/>
-      <c r="W232" s="3" t="inlineStr"/>
+      <c r="W232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X232" s="3" t="inlineStr"/>
       <c r="Y232" s="3" t="inlineStr"/>
       <c r="Z232" s="3" t="inlineStr"/>
-      <c r="AA232" s="3" t="inlineStr"/>
+      <c r="AA232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB232" s="3" t="inlineStr"/>
-      <c r="AC232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC232" s="3" t="inlineStr"/>
       <c r="AD232" s="3" t="inlineStr"/>
       <c r="AE232" s="3" t="inlineStr"/>
       <c r="AF232" s="3" t="inlineStr"/>
-      <c r="AG232" s="3" t="inlineStr"/>
+      <c r="AG232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>AWS Cost Explorer</t>
+        </is>
+      </c>
+      <c r="B233" s="3" t="inlineStr"/>
+      <c r="C233" s="3" t="inlineStr"/>
+      <c r="D233" s="3" t="inlineStr"/>
+      <c r="E233" s="3" t="inlineStr"/>
+      <c r="F233" s="3" t="inlineStr"/>
+      <c r="G233" s="3" t="inlineStr"/>
+      <c r="H233" s="3" t="inlineStr"/>
+      <c r="I233" s="3" t="inlineStr"/>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K233" s="3" t="inlineStr"/>
+      <c r="L233" s="3" t="inlineStr"/>
+      <c r="M233" s="3" t="inlineStr"/>
+      <c r="N233" s="3" t="inlineStr"/>
+      <c r="O233" s="3" t="inlineStr"/>
+      <c r="P233" s="3" t="inlineStr"/>
+      <c r="Q233" s="3" t="inlineStr"/>
+      <c r="R233" s="3" t="inlineStr"/>
+      <c r="S233" s="3" t="inlineStr"/>
+      <c r="T233" s="3" t="inlineStr"/>
+      <c r="U233" s="3" t="inlineStr"/>
+      <c r="V233" s="3" t="inlineStr"/>
+      <c r="W233" s="3" t="inlineStr"/>
+      <c r="X233" s="3" t="inlineStr"/>
+      <c r="Y233" s="3" t="inlineStr"/>
+      <c r="Z233" s="3" t="inlineStr"/>
+      <c r="AA233" s="3" t="inlineStr"/>
+      <c r="AB233" s="3" t="inlineStr"/>
+      <c r="AC233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD233" s="3" t="inlineStr"/>
+      <c r="AE233" s="3" t="inlineStr"/>
+      <c r="AF233" s="3" t="inlineStr"/>
+      <c r="AG233" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -26201,7 +26201,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD210" s="3" t="inlineStr"/>
+      <c r="AD210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE210" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -16030,7 +16030,11 @@
         </is>
       </c>
       <c r="AD126" s="3" t="inlineStr"/>
-      <c r="AE126" s="3" t="inlineStr"/>
+      <c r="AE126" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF126" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18046,7 +18050,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G142" s="3" t="inlineStr"/>
+      <c r="G142" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H142" s="3" t="inlineStr"/>
       <c r="I142" s="3" t="inlineStr"/>
       <c r="J142" s="2" t="inlineStr">

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -18055,7 +18055,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="H142" s="3" t="inlineStr"/>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="I142" s="3" t="inlineStr"/>
       <c r="J142" s="2" t="inlineStr">
         <is>
@@ -18072,8 +18076,16 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M142" s="3" t="inlineStr"/>
-      <c r="N142" s="3" t="inlineStr"/>
+      <c r="M142" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N142" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O142" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -16311,7 +16311,11 @@
         </is>
       </c>
       <c r="AC128" s="3" t="inlineStr"/>
-      <c r="AD128" s="3" t="inlineStr"/>
+      <c r="AD128" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE128" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -2284,7 +2284,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z15" s="3" t="inlineStr"/>
+      <c r="Z15" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA15" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22493,21 +22497,49 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Amazon FinSpace</t>
-        </is>
-      </c>
-      <c r="B179" s="3" t="inlineStr"/>
-      <c r="C179" s="3" t="inlineStr"/>
-      <c r="D179" s="3" t="inlineStr"/>
-      <c r="E179" s="3" t="inlineStr"/>
-      <c r="F179" s="3" t="inlineStr"/>
+          <t>AWS Network Firewall</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="G179" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="H179" s="3" t="inlineStr"/>
-      <c r="I179" s="3" t="inlineStr"/>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J179" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22518,41 +22550,109 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L179" s="3" t="inlineStr"/>
-      <c r="M179" s="3" t="inlineStr"/>
-      <c r="N179" s="3" t="inlineStr"/>
+      <c r="L179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O179" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P179" s="3" t="inlineStr"/>
-      <c r="Q179" s="3" t="inlineStr"/>
+      <c r="P179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R179" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S179" s="3" t="inlineStr"/>
-      <c r="T179" s="3" t="inlineStr"/>
+      <c r="S179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U179" s="3" t="inlineStr"/>
-      <c r="V179" s="3" t="inlineStr"/>
-      <c r="W179" s="3" t="inlineStr"/>
-      <c r="X179" s="3" t="inlineStr"/>
-      <c r="Y179" s="3" t="inlineStr"/>
-      <c r="Z179" s="3" t="inlineStr"/>
-      <c r="AA179" s="3" t="inlineStr"/>
-      <c r="AB179" s="3" t="inlineStr"/>
+      <c r="V179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC179" s="3" t="inlineStr"/>
       <c r="AD179" s="3" t="inlineStr"/>
-      <c r="AE179" s="3" t="inlineStr"/>
-      <c r="AF179" s="3" t="inlineStr"/>
-      <c r="AG179" s="3" t="inlineStr"/>
+      <c r="AE179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>AWS Network Firewall</t>
+          <t>AWS Key Management Service</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
@@ -22650,7 +22750,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U180" s="3" t="inlineStr"/>
+      <c r="U180" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V180" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22686,8 +22790,16 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AC180" s="3" t="inlineStr"/>
-      <c r="AD180" s="3" t="inlineStr"/>
+      <c r="AC180" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD180" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE180" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22707,29 +22819,13 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>AWS Key Management Service</t>
-        </is>
-      </c>
-      <c r="B181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Verified Access</t>
+        </is>
+      </c>
+      <c r="B181" s="3" t="inlineStr"/>
+      <c r="C181" s="3" t="inlineStr"/>
+      <c r="D181" s="3" t="inlineStr"/>
+      <c r="E181" s="3" t="inlineStr"/>
       <c r="F181" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22745,11 +22841,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I181" s="3" t="inlineStr"/>
       <c r="J181" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22760,31 +22852,19 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L181" s="3" t="inlineStr"/>
       <c r="M181" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N181" s="3" t="inlineStr"/>
       <c r="O181" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P181" s="3" t="inlineStr"/>
       <c r="Q181" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22800,87 +22880,47 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG181" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T181" s="3" t="inlineStr"/>
+      <c r="U181" s="3" t="inlineStr"/>
+      <c r="V181" s="3" t="inlineStr"/>
+      <c r="W181" s="3" t="inlineStr"/>
+      <c r="X181" s="3" t="inlineStr"/>
+      <c r="Y181" s="3" t="inlineStr"/>
+      <c r="Z181" s="3" t="inlineStr"/>
+      <c r="AA181" s="3" t="inlineStr"/>
+      <c r="AB181" s="3" t="inlineStr"/>
+      <c r="AC181" s="3" t="inlineStr"/>
+      <c r="AD181" s="3" t="inlineStr"/>
+      <c r="AE181" s="3" t="inlineStr"/>
+      <c r="AF181" s="3" t="inlineStr"/>
+      <c r="AG181" s="3" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>AWS Verified Access</t>
-        </is>
-      </c>
-      <c r="B182" s="3" t="inlineStr"/>
-      <c r="C182" s="3" t="inlineStr"/>
-      <c r="D182" s="3" t="inlineStr"/>
-      <c r="E182" s="3" t="inlineStr"/>
+          <t>AWS VPN</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F182" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22896,7 +22936,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I182" s="3" t="inlineStr"/>
+      <c r="I182" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J182" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22907,19 +22951,31 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L182" s="3" t="inlineStr"/>
+      <c r="L182" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M182" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N182" s="3" t="inlineStr"/>
+      <c r="N182" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O182" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P182" s="3" t="inlineStr"/>
+      <c r="P182" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q182" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22935,67 +22991,83 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T182" s="3" t="inlineStr"/>
+      <c r="T182" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U182" s="3" t="inlineStr"/>
-      <c r="V182" s="3" t="inlineStr"/>
-      <c r="W182" s="3" t="inlineStr"/>
-      <c r="X182" s="3" t="inlineStr"/>
-      <c r="Y182" s="3" t="inlineStr"/>
-      <c r="Z182" s="3" t="inlineStr"/>
-      <c r="AA182" s="3" t="inlineStr"/>
-      <c r="AB182" s="3" t="inlineStr"/>
+      <c r="V182" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W182" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X182" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y182" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z182" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA182" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB182" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC182" s="3" t="inlineStr"/>
-      <c r="AD182" s="3" t="inlineStr"/>
-      <c r="AE182" s="3" t="inlineStr"/>
-      <c r="AF182" s="3" t="inlineStr"/>
-      <c r="AG182" s="3" t="inlineStr"/>
+      <c r="AD182" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE182" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF182" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG182" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>AWS VPN</t>
-        </is>
-      </c>
-      <c r="B183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Private 5G</t>
+        </is>
+      </c>
+      <c r="B183" s="3" t="inlineStr"/>
+      <c r="C183" s="3" t="inlineStr"/>
+      <c r="D183" s="3" t="inlineStr"/>
+      <c r="E183" s="3" t="inlineStr"/>
+      <c r="F183" s="3" t="inlineStr"/>
+      <c r="G183" s="3" t="inlineStr"/>
+      <c r="H183" s="3" t="inlineStr"/>
+      <c r="I183" s="3" t="inlineStr"/>
       <c r="J183" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23006,123 +23078,75 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L183" s="3" t="inlineStr"/>
+      <c r="M183" s="3" t="inlineStr"/>
+      <c r="N183" s="3" t="inlineStr"/>
+      <c r="O183" s="3" t="inlineStr"/>
+      <c r="P183" s="3" t="inlineStr"/>
+      <c r="Q183" s="3" t="inlineStr"/>
       <c r="R183" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S183" s="3" t="inlineStr"/>
+      <c r="T183" s="3" t="inlineStr"/>
       <c r="U183" s="3" t="inlineStr"/>
-      <c r="V183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V183" s="3" t="inlineStr"/>
+      <c r="W183" s="3" t="inlineStr"/>
+      <c r="X183" s="3" t="inlineStr"/>
+      <c r="Y183" s="3" t="inlineStr"/>
+      <c r="Z183" s="3" t="inlineStr"/>
+      <c r="AA183" s="3" t="inlineStr"/>
+      <c r="AB183" s="3" t="inlineStr"/>
       <c r="AC183" s="3" t="inlineStr"/>
-      <c r="AD183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG183" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD183" s="3" t="inlineStr"/>
+      <c r="AE183" s="3" t="inlineStr"/>
+      <c r="AF183" s="3" t="inlineStr"/>
+      <c r="AG183" s="3" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>AWS Private 5G</t>
+          <t>AWS Mainframe Modernization</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr"/>
-      <c r="C184" s="3" t="inlineStr"/>
-      <c r="D184" s="3" t="inlineStr"/>
-      <c r="E184" s="3" t="inlineStr"/>
-      <c r="F184" s="3" t="inlineStr"/>
-      <c r="G184" s="3" t="inlineStr"/>
-      <c r="H184" s="3" t="inlineStr"/>
-      <c r="I184" s="3" t="inlineStr"/>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J184" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23133,18 +23157,38 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L184" s="3" t="inlineStr"/>
-      <c r="M184" s="3" t="inlineStr"/>
+      <c r="L184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N184" s="3" t="inlineStr"/>
-      <c r="O184" s="3" t="inlineStr"/>
+      <c r="O184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="P184" s="3" t="inlineStr"/>
-      <c r="Q184" s="3" t="inlineStr"/>
+      <c r="Q184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R184" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S184" s="3" t="inlineStr"/>
+      <c r="S184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T184" s="3" t="inlineStr"/>
       <c r="U184" s="3" t="inlineStr"/>
       <c r="V184" s="3" t="inlineStr"/>
@@ -23163,49 +23207,21 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>AWS Storage Gateway</t>
-        </is>
-      </c>
-      <c r="B185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon FinSpace</t>
+        </is>
+      </c>
+      <c r="B185" s="3" t="inlineStr"/>
+      <c r="C185" s="3" t="inlineStr"/>
+      <c r="D185" s="3" t="inlineStr"/>
+      <c r="E185" s="3" t="inlineStr"/>
+      <c r="F185" s="3" t="inlineStr"/>
       <c r="G185" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="H185" s="3" t="inlineStr"/>
+      <c r="I185" s="3" t="inlineStr"/>
       <c r="J185" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23216,155 +23232,51 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L185" s="3" t="inlineStr"/>
+      <c r="M185" s="3" t="inlineStr"/>
+      <c r="N185" s="3" t="inlineStr"/>
       <c r="O185" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P185" s="3" t="inlineStr"/>
+      <c r="Q185" s="3" t="inlineStr"/>
       <c r="R185" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S185" s="3" t="inlineStr"/>
+      <c r="T185" s="3" t="inlineStr"/>
+      <c r="U185" s="3" t="inlineStr"/>
+      <c r="V185" s="3" t="inlineStr"/>
+      <c r="W185" s="3" t="inlineStr"/>
+      <c r="X185" s="3" t="inlineStr"/>
+      <c r="Y185" s="3" t="inlineStr"/>
+      <c r="Z185" s="3" t="inlineStr"/>
+      <c r="AA185" s="3" t="inlineStr"/>
+      <c r="AB185" s="3" t="inlineStr"/>
+      <c r="AC185" s="3" t="inlineStr"/>
       <c r="AD185" s="3" t="inlineStr"/>
-      <c r="AE185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG185" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE185" s="3" t="inlineStr"/>
+      <c r="AF185" s="3" t="inlineStr"/>
+      <c r="AG185" s="3" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>AWS Mainframe Modernization</t>
+          <t>AWS Snowmobile</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr"/>
-      <c r="C186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C186" s="3" t="inlineStr"/>
+      <c r="D186" s="3" t="inlineStr"/>
+      <c r="E186" s="3" t="inlineStr"/>
+      <c r="F186" s="3" t="inlineStr"/>
+      <c r="G186" s="3" t="inlineStr"/>
+      <c r="H186" s="3" t="inlineStr"/>
+      <c r="I186" s="3" t="inlineStr"/>
       <c r="J186" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23375,23 +23287,15 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L186" s="3" t="inlineStr"/>
+      <c r="M186" s="3" t="inlineStr"/>
       <c r="N186" s="3" t="inlineStr"/>
-      <c r="O186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P186" s="3" t="inlineStr"/>
+      <c r="O186" s="3" t="inlineStr"/>
+      <c r="P186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q186" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23402,11 +23306,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S186" s="3" t="inlineStr"/>
       <c r="T186" s="3" t="inlineStr"/>
       <c r="U186" s="3" t="inlineStr"/>
       <c r="V186" s="3" t="inlineStr"/>
@@ -23420,19 +23320,27 @@
       <c r="AD186" s="3" t="inlineStr"/>
       <c r="AE186" s="3" t="inlineStr"/>
       <c r="AF186" s="3" t="inlineStr"/>
-      <c r="AG186" s="3" t="inlineStr"/>
+      <c r="AG186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>AWS Snowmobile</t>
+          <t>AWS IoT TwinMaker</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr"/>
       <c r="C187" s="3" t="inlineStr"/>
       <c r="D187" s="3" t="inlineStr"/>
       <c r="E187" s="3" t="inlineStr"/>
-      <c r="F187" s="3" t="inlineStr"/>
+      <c r="F187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="G187" s="3" t="inlineStr"/>
       <c r="H187" s="3" t="inlineStr"/>
       <c r="I187" s="3" t="inlineStr"/>
@@ -23441,25 +23349,29 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="K187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L187" s="3" t="inlineStr"/>
-      <c r="M187" s="3" t="inlineStr"/>
+      <c r="K187" s="3" t="inlineStr"/>
+      <c r="L187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N187" s="3" t="inlineStr"/>
-      <c r="O187" s="3" t="inlineStr"/>
+      <c r="O187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="P187" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Q187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q187" s="3" t="inlineStr"/>
       <c r="R187" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23479,23 +23391,15 @@
       <c r="AD187" s="3" t="inlineStr"/>
       <c r="AE187" s="3" t="inlineStr"/>
       <c r="AF187" s="3" t="inlineStr"/>
-      <c r="AG187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AG187" s="3" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Amazon Elastic Container Registry (ECR)</t>
-        </is>
-      </c>
-      <c r="B188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Lookout for Vision</t>
+        </is>
+      </c>
+      <c r="B188" s="3" t="inlineStr"/>
       <c r="C188" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23506,31 +23410,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E188" s="3" t="inlineStr"/>
+      <c r="F188" s="3" t="inlineStr"/>
+      <c r="G188" s="3" t="inlineStr"/>
+      <c r="H188" s="3" t="inlineStr"/>
+      <c r="I188" s="3" t="inlineStr"/>
       <c r="J188" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23541,141 +23425,97 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L188" s="3" t="inlineStr"/>
       <c r="M188" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N188" s="3" t="inlineStr"/>
       <c r="O188" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P188" s="3" t="inlineStr"/>
+      <c r="Q188" s="3" t="inlineStr"/>
       <c r="R188" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG188" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S188" s="3" t="inlineStr"/>
+      <c r="T188" s="3" t="inlineStr"/>
+      <c r="U188" s="3" t="inlineStr"/>
+      <c r="V188" s="3" t="inlineStr"/>
+      <c r="W188" s="3" t="inlineStr"/>
+      <c r="X188" s="3" t="inlineStr"/>
+      <c r="Y188" s="3" t="inlineStr"/>
+      <c r="Z188" s="3" t="inlineStr"/>
+      <c r="AA188" s="3" t="inlineStr"/>
+      <c r="AB188" s="3" t="inlineStr"/>
+      <c r="AC188" s="3" t="inlineStr"/>
+      <c r="AD188" s="3" t="inlineStr"/>
+      <c r="AE188" s="3" t="inlineStr"/>
+      <c r="AF188" s="3" t="inlineStr"/>
+      <c r="AG188" s="3" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>AWS IoT TwinMaker</t>
-        </is>
-      </c>
-      <c r="B189" s="3" t="inlineStr"/>
-      <c r="C189" s="3" t="inlineStr"/>
-      <c r="D189" s="3" t="inlineStr"/>
-      <c r="E189" s="3" t="inlineStr"/>
+          <t>AWS Storage Gateway</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F189" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G189" s="3" t="inlineStr"/>
-      <c r="H189" s="3" t="inlineStr"/>
-      <c r="I189" s="3" t="inlineStr"/>
+      <c r="G189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J189" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K189" s="3" t="inlineStr"/>
+      <c r="K189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L189" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23686,7 +23526,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N189" s="3" t="inlineStr"/>
+      <c r="N189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O189" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23697,35 +23541,99 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q189" s="3" t="inlineStr"/>
+      <c r="Q189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R189" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S189" s="3" t="inlineStr"/>
-      <c r="T189" s="3" t="inlineStr"/>
-      <c r="U189" s="3" t="inlineStr"/>
-      <c r="V189" s="3" t="inlineStr"/>
-      <c r="W189" s="3" t="inlineStr"/>
-      <c r="X189" s="3" t="inlineStr"/>
-      <c r="Y189" s="3" t="inlineStr"/>
-      <c r="Z189" s="3" t="inlineStr"/>
-      <c r="AA189" s="3" t="inlineStr"/>
-      <c r="AB189" s="3" t="inlineStr"/>
-      <c r="AC189" s="3" t="inlineStr"/>
+      <c r="S189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD189" s="3" t="inlineStr"/>
-      <c r="AE189" s="3" t="inlineStr"/>
-      <c r="AF189" s="3" t="inlineStr"/>
-      <c r="AG189" s="3" t="inlineStr"/>
+      <c r="AE189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Amazon Lookout for Vision</t>
-        </is>
-      </c>
-      <c r="B190" s="3" t="inlineStr"/>
+          <t>Amazon EC2 Auto Scaling</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23736,11 +23644,31 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E190" s="3" t="inlineStr"/>
-      <c r="F190" s="3" t="inlineStr"/>
-      <c r="G190" s="3" t="inlineStr"/>
-      <c r="H190" s="3" t="inlineStr"/>
-      <c r="I190" s="3" t="inlineStr"/>
+      <c r="E190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23751,45 +23679,121 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L190" s="3" t="inlineStr"/>
+      <c r="L190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N190" s="3" t="inlineStr"/>
+      <c r="N190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P190" s="3" t="inlineStr"/>
-      <c r="Q190" s="3" t="inlineStr"/>
+      <c r="P190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R190" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S190" s="3" t="inlineStr"/>
-      <c r="T190" s="3" t="inlineStr"/>
-      <c r="U190" s="3" t="inlineStr"/>
-      <c r="V190" s="3" t="inlineStr"/>
-      <c r="W190" s="3" t="inlineStr"/>
-      <c r="X190" s="3" t="inlineStr"/>
-      <c r="Y190" s="3" t="inlineStr"/>
-      <c r="Z190" s="3" t="inlineStr"/>
-      <c r="AA190" s="3" t="inlineStr"/>
-      <c r="AB190" s="3" t="inlineStr"/>
-      <c r="AC190" s="3" t="inlineStr"/>
-      <c r="AD190" s="3" t="inlineStr"/>
-      <c r="AE190" s="3" t="inlineStr"/>
-      <c r="AF190" s="3" t="inlineStr"/>
-      <c r="AG190" s="3" t="inlineStr"/>
+      <c r="S190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG190" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Amazon EC2 Auto Scaling</t>
+          <t>AWS Service Catalog</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
@@ -23956,7 +23960,7 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>AWS Service Catalog</t>
+          <t>Amazon FSx for Lustre</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
@@ -24099,11 +24103,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD192" s="3" t="inlineStr"/>
       <c r="AE192" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24123,7 +24123,7 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for Lustre</t>
+          <t>AWS AppSync</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
@@ -24196,11 +24196,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P193" s="3" t="inlineStr"/>
       <c r="Q193" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24246,11 +24242,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Z193" s="3" t="inlineStr"/>
       <c r="AA193" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24277,179 +24269,83 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AG193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AG193" s="3" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>AWS AppSync</t>
-        </is>
-      </c>
-      <c r="B194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Wickr</t>
+        </is>
+      </c>
+      <c r="B194" s="3" t="inlineStr"/>
+      <c r="C194" s="3" t="inlineStr"/>
+      <c r="D194" s="3" t="inlineStr"/>
+      <c r="E194" s="3" t="inlineStr"/>
+      <c r="F194" s="3" t="inlineStr"/>
       <c r="G194" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="H194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="H194" s="3" t="inlineStr"/>
+      <c r="I194" s="3" t="inlineStr"/>
       <c r="J194" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P194" s="3" t="inlineStr"/>
-      <c r="Q194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K194" s="3" t="inlineStr"/>
+      <c r="L194" s="3" t="inlineStr"/>
+      <c r="M194" s="3" t="inlineStr"/>
+      <c r="N194" s="3" t="inlineStr"/>
+      <c r="O194" s="3" t="inlineStr"/>
+      <c r="P194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q194" s="3" t="inlineStr"/>
+      <c r="R194" s="3" t="inlineStr"/>
+      <c r="S194" s="3" t="inlineStr"/>
+      <c r="T194" s="3" t="inlineStr"/>
+      <c r="U194" s="3" t="inlineStr"/>
+      <c r="V194" s="3" t="inlineStr"/>
+      <c r="W194" s="3" t="inlineStr"/>
+      <c r="X194" s="3" t="inlineStr"/>
+      <c r="Y194" s="3" t="inlineStr"/>
       <c r="Z194" s="3" t="inlineStr"/>
-      <c r="AA194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA194" s="3" t="inlineStr"/>
+      <c r="AB194" s="3" t="inlineStr"/>
+      <c r="AC194" s="3" t="inlineStr"/>
       <c r="AD194" s="3" t="inlineStr"/>
-      <c r="AE194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE194" s="3" t="inlineStr"/>
+      <c r="AF194" s="3" t="inlineStr"/>
       <c r="AG194" s="3" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>AWS Wickr</t>
+          <t>AWS Elemental MediaTailor</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr"/>
-      <c r="C195" s="3" t="inlineStr"/>
+      <c r="C195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="D195" s="3" t="inlineStr"/>
-      <c r="E195" s="3" t="inlineStr"/>
-      <c r="F195" s="3" t="inlineStr"/>
-      <c r="G195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G195" s="3" t="inlineStr"/>
       <c r="H195" s="3" t="inlineStr"/>
       <c r="I195" s="3" t="inlineStr"/>
       <c r="J195" s="2" t="inlineStr">
@@ -24457,23 +24353,43 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="K195" s="3" t="inlineStr"/>
-      <c r="L195" s="3" t="inlineStr"/>
-      <c r="M195" s="3" t="inlineStr"/>
+      <c r="K195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N195" s="3" t="inlineStr"/>
-      <c r="O195" s="3" t="inlineStr"/>
-      <c r="P195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="O195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P195" s="3" t="inlineStr"/>
       <c r="Q195" s="3" t="inlineStr"/>
-      <c r="R195" s="3" t="inlineStr"/>
+      <c r="R195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="S195" s="3" t="inlineStr"/>
       <c r="T195" s="3" t="inlineStr"/>
       <c r="U195" s="3" t="inlineStr"/>
       <c r="V195" s="3" t="inlineStr"/>
-      <c r="W195" s="3" t="inlineStr"/>
+      <c r="W195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X195" s="3" t="inlineStr"/>
       <c r="Y195" s="3" t="inlineStr"/>
       <c r="Z195" s="3" t="inlineStr"/>
@@ -24488,16 +24404,24 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaTailor</t>
-        </is>
-      </c>
-      <c r="B196" s="3" t="inlineStr"/>
+          <t>Amazon Elastic Container Registry (ECR)</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D196" s="3" t="inlineStr"/>
+      <c r="D196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="E196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24508,9 +24432,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G196" s="3" t="inlineStr"/>
-      <c r="H196" s="3" t="inlineStr"/>
-      <c r="I196" s="3" t="inlineStr"/>
+      <c r="G196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24531,38 +24467,106 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N196" s="3" t="inlineStr"/>
+      <c r="N196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P196" s="3" t="inlineStr"/>
-      <c r="Q196" s="3" t="inlineStr"/>
+      <c r="P196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S196" s="3" t="inlineStr"/>
-      <c r="T196" s="3" t="inlineStr"/>
-      <c r="U196" s="3" t="inlineStr"/>
-      <c r="V196" s="3" t="inlineStr"/>
+      <c r="S196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X196" s="3" t="inlineStr"/>
-      <c r="Y196" s="3" t="inlineStr"/>
-      <c r="Z196" s="3" t="inlineStr"/>
-      <c r="AA196" s="3" t="inlineStr"/>
-      <c r="AB196" s="3" t="inlineStr"/>
-      <c r="AC196" s="3" t="inlineStr"/>
-      <c r="AD196" s="3" t="inlineStr"/>
-      <c r="AE196" s="3" t="inlineStr"/>
-      <c r="AF196" s="3" t="inlineStr"/>
-      <c r="AG196" s="3" t="inlineStr"/>
+      <c r="X196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -25674,49 +25678,29 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Amazon GameLift</t>
-        </is>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon CodeGuru</t>
+        </is>
+      </c>
+      <c r="B206" s="3" t="inlineStr"/>
       <c r="C206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D206" s="3" t="inlineStr"/>
+      <c r="E206" s="3" t="inlineStr"/>
       <c r="F206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G206" s="3" t="inlineStr"/>
       <c r="H206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I206" s="3" t="inlineStr"/>
       <c r="J206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25748,64 +25732,32 @@
         </is>
       </c>
       <c r="P206" s="3" t="inlineStr"/>
-      <c r="Q206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q206" s="3" t="inlineStr"/>
       <c r="R206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S206" s="3" t="inlineStr"/>
+      <c r="T206" s="3" t="inlineStr"/>
+      <c r="U206" s="3" t="inlineStr"/>
       <c r="V206" s="3" t="inlineStr"/>
-      <c r="W206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W206" s="3" t="inlineStr"/>
       <c r="X206" s="3" t="inlineStr"/>
       <c r="Y206" s="3" t="inlineStr"/>
       <c r="Z206" s="3" t="inlineStr"/>
-      <c r="AA206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA206" s="3" t="inlineStr"/>
       <c r="AB206" s="3" t="inlineStr"/>
-      <c r="AC206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC206" s="3" t="inlineStr"/>
       <c r="AD206" s="3" t="inlineStr"/>
       <c r="AE206" s="3" t="inlineStr"/>
-      <c r="AF206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF206" s="3" t="inlineStr"/>
       <c r="AG206" s="3" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Amazon CodeGuru</t>
+          <t>Amazon Quantum Ledger Database (QLDB)</t>
         </is>
       </c>
       <c r="B207" s="3" t="inlineStr"/>
@@ -25814,14 +25766,22 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="D207" s="3" t="inlineStr"/>
+      <c r="D207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="E207" s="3" t="inlineStr"/>
       <c r="F207" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G207" s="3" t="inlineStr"/>
+      <c r="G207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H207" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25848,11 +25808,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N207" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N207" s="3" t="inlineStr"/>
       <c r="O207" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25884,7 +25840,7 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>Amazon Quantum Ledger Database (QLDB)</t>
+          <t>AWS Elemental MediaConvert</t>
         </is>
       </c>
       <c r="B208" s="3" t="inlineStr"/>
@@ -25898,7 +25854,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E208" s="3" t="inlineStr"/>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F208" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25914,7 +25874,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I208" s="3" t="inlineStr"/>
+      <c r="I208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J208" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25935,30 +25899,54 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N208" s="3" t="inlineStr"/>
+      <c r="N208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O208" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P208" s="3" t="inlineStr"/>
-      <c r="Q208" s="3" t="inlineStr"/>
+      <c r="P208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R208" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S208" s="3" t="inlineStr"/>
+      <c r="S208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T208" s="3" t="inlineStr"/>
       <c r="U208" s="3" t="inlineStr"/>
       <c r="V208" s="3" t="inlineStr"/>
-      <c r="W208" s="3" t="inlineStr"/>
+      <c r="W208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X208" s="3" t="inlineStr"/>
       <c r="Y208" s="3" t="inlineStr"/>
       <c r="Z208" s="3" t="inlineStr"/>
       <c r="AA208" s="3" t="inlineStr"/>
       <c r="AB208" s="3" t="inlineStr"/>
-      <c r="AC208" s="3" t="inlineStr"/>
+      <c r="AC208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD208" s="3" t="inlineStr"/>
       <c r="AE208" s="3" t="inlineStr"/>
       <c r="AF208" s="3" t="inlineStr"/>
@@ -25967,10 +25955,14 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaConvert</t>
-        </is>
-      </c>
-      <c r="B209" s="3" t="inlineStr"/>
+          <t>Amazon FSx for OpenZFS</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26001,11 +25993,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I209" s="3" t="inlineStr"/>
       <c r="J209" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26036,44 +26024,24 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P209" s="3" t="inlineStr"/>
+      <c r="Q209" s="3" t="inlineStr"/>
       <c r="R209" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S209" s="3" t="inlineStr"/>
       <c r="T209" s="3" t="inlineStr"/>
       <c r="U209" s="3" t="inlineStr"/>
       <c r="V209" s="3" t="inlineStr"/>
-      <c r="W209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W209" s="3" t="inlineStr"/>
       <c r="X209" s="3" t="inlineStr"/>
       <c r="Y209" s="3" t="inlineStr"/>
       <c r="Z209" s="3" t="inlineStr"/>
       <c r="AA209" s="3" t="inlineStr"/>
       <c r="AB209" s="3" t="inlineStr"/>
-      <c r="AC209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC209" s="3" t="inlineStr"/>
       <c r="AD209" s="3" t="inlineStr"/>
       <c r="AE209" s="3" t="inlineStr"/>
       <c r="AF209" s="3" t="inlineStr"/>
@@ -26082,29 +26050,13 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>AWS Security Hub</t>
-        </is>
-      </c>
-      <c r="B210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Comprehend Medical</t>
+        </is>
+      </c>
+      <c r="B210" s="3" t="inlineStr"/>
+      <c r="C210" s="3" t="inlineStr"/>
+      <c r="D210" s="3" t="inlineStr"/>
+      <c r="E210" s="3" t="inlineStr"/>
       <c r="F210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26120,11 +26072,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I210" s="3" t="inlineStr"/>
       <c r="J210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26135,21 +26083,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L210" s="3" t="inlineStr"/>
+      <c r="M210" s="3" t="inlineStr"/>
+      <c r="N210" s="3" t="inlineStr"/>
       <c r="O210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26160,96 +26096,32 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q210" s="3" t="inlineStr"/>
       <c r="R210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S210" s="3" t="inlineStr"/>
+      <c r="T210" s="3" t="inlineStr"/>
+      <c r="U210" s="3" t="inlineStr"/>
+      <c r="V210" s="3" t="inlineStr"/>
+      <c r="W210" s="3" t="inlineStr"/>
+      <c r="X210" s="3" t="inlineStr"/>
+      <c r="Y210" s="3" t="inlineStr"/>
+      <c r="Z210" s="3" t="inlineStr"/>
+      <c r="AA210" s="3" t="inlineStr"/>
+      <c r="AB210" s="3" t="inlineStr"/>
+      <c r="AC210" s="3" t="inlineStr"/>
+      <c r="AD210" s="3" t="inlineStr"/>
+      <c r="AE210" s="3" t="inlineStr"/>
+      <c r="AF210" s="3" t="inlineStr"/>
+      <c r="AG210" s="3" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for OpenZFS</t>
+          <t>Amazon GameLift</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
@@ -26287,7 +26159,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I211" s="3" t="inlineStr"/>
+      <c r="I211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26319,38 +26195,86 @@
         </is>
       </c>
       <c r="P211" s="3" t="inlineStr"/>
-      <c r="Q211" s="3" t="inlineStr"/>
+      <c r="Q211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S211" s="3" t="inlineStr"/>
-      <c r="T211" s="3" t="inlineStr"/>
-      <c r="U211" s="3" t="inlineStr"/>
+      <c r="S211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V211" s="3" t="inlineStr"/>
-      <c r="W211" s="3" t="inlineStr"/>
+      <c r="W211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X211" s="3" t="inlineStr"/>
       <c r="Y211" s="3" t="inlineStr"/>
       <c r="Z211" s="3" t="inlineStr"/>
-      <c r="AA211" s="3" t="inlineStr"/>
+      <c r="AA211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB211" s="3" t="inlineStr"/>
-      <c r="AC211" s="3" t="inlineStr"/>
+      <c r="AC211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD211" s="3" t="inlineStr"/>
       <c r="AE211" s="3" t="inlineStr"/>
-      <c r="AF211" s="3" t="inlineStr"/>
+      <c r="AF211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AG211" s="3" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>Amazon Comprehend Medical</t>
-        </is>
-      </c>
-      <c r="B212" s="3" t="inlineStr"/>
-      <c r="C212" s="3" t="inlineStr"/>
-      <c r="D212" s="3" t="inlineStr"/>
-      <c r="E212" s="3" t="inlineStr"/>
+          <t>Amazon DynamoDB</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26366,7 +26290,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I212" s="3" t="inlineStr"/>
+      <c r="I212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26377,9 +26305,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L212" s="3" t="inlineStr"/>
-      <c r="M212" s="3" t="inlineStr"/>
-      <c r="N212" s="3" t="inlineStr"/>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26390,39 +26330,99 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q212" s="3" t="inlineStr"/>
+      <c r="Q212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S212" s="3" t="inlineStr"/>
-      <c r="T212" s="3" t="inlineStr"/>
-      <c r="U212" s="3" t="inlineStr"/>
-      <c r="V212" s="3" t="inlineStr"/>
-      <c r="W212" s="3" t="inlineStr"/>
-      <c r="X212" s="3" t="inlineStr"/>
-      <c r="Y212" s="3" t="inlineStr"/>
-      <c r="Z212" s="3" t="inlineStr"/>
-      <c r="AA212" s="3" t="inlineStr"/>
-      <c r="AB212" s="3" t="inlineStr"/>
-      <c r="AC212" s="3" t="inlineStr"/>
-      <c r="AD212" s="3" t="inlineStr"/>
-      <c r="AE212" s="3" t="inlineStr"/>
-      <c r="AF212" s="3" t="inlineStr"/>
-      <c r="AG212" s="3" t="inlineStr"/>
+      <c r="S212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG212" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>Amazon DynamoDB</t>
-        </is>
-      </c>
-      <c r="B213" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon DocumentDB (with MongoDB compatibility)</t>
+        </is>
+      </c>
+      <c r="B213" s="3" t="inlineStr"/>
       <c r="C213" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26478,11 +26478,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N213" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N213" s="3" t="inlineStr"/>
       <c r="O213" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26493,11 +26489,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q213" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q213" s="3" t="inlineStr"/>
       <c r="R213" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26508,84 +26500,44 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T213" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T213" s="3" t="inlineStr"/>
       <c r="U213" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V213" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W213" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X213" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y213" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z213" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V213" s="3" t="inlineStr"/>
+      <c r="W213" s="3" t="inlineStr"/>
+      <c r="X213" s="3" t="inlineStr"/>
+      <c r="Y213" s="3" t="inlineStr"/>
+      <c r="Z213" s="3" t="inlineStr"/>
       <c r="AA213" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB213" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB213" s="3" t="inlineStr"/>
       <c r="AC213" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD213" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE213" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF213" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG213" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD213" s="3" t="inlineStr"/>
+      <c r="AE213" s="3" t="inlineStr"/>
+      <c r="AF213" s="3" t="inlineStr"/>
+      <c r="AG213" s="3" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>Amazon DocumentDB (with MongoDB compatibility)</t>
-        </is>
-      </c>
-      <c r="B214" s="3" t="inlineStr"/>
+          <t>AWS Elemental MediaConnect</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26641,18 +26593,22 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N214" s="3" t="inlineStr"/>
+      <c r="N214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O214" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q214" s="3" t="inlineStr"/>
+      <c r="P214" s="3" t="inlineStr"/>
+      <c r="Q214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R214" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26663,28 +26619,24 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T214" s="3" t="inlineStr"/>
-      <c r="U214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U214" s="3" t="inlineStr"/>
       <c r="V214" s="3" t="inlineStr"/>
-      <c r="W214" s="3" t="inlineStr"/>
+      <c r="W214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X214" s="3" t="inlineStr"/>
       <c r="Y214" s="3" t="inlineStr"/>
       <c r="Z214" s="3" t="inlineStr"/>
-      <c r="AA214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA214" s="3" t="inlineStr"/>
       <c r="AB214" s="3" t="inlineStr"/>
-      <c r="AC214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC214" s="3" t="inlineStr"/>
       <c r="AD214" s="3" t="inlineStr"/>
       <c r="AE214" s="3" t="inlineStr"/>
       <c r="AF214" s="3" t="inlineStr"/>
@@ -26693,7 +26645,7 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaConnect</t>
+          <t>AWS Config</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
@@ -26766,7 +26718,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P215" s="3" t="inlineStr"/>
+      <c r="P215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q215" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26787,28 +26743,76 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U215" s="3" t="inlineStr"/>
-      <c r="V215" s="3" t="inlineStr"/>
+      <c r="U215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W215" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X215" s="3" t="inlineStr"/>
-      <c r="Y215" s="3" t="inlineStr"/>
-      <c r="Z215" s="3" t="inlineStr"/>
-      <c r="AA215" s="3" t="inlineStr"/>
-      <c r="AB215" s="3" t="inlineStr"/>
-      <c r="AC215" s="3" t="inlineStr"/>
-      <c r="AD215" s="3" t="inlineStr"/>
-      <c r="AE215" s="3" t="inlineStr"/>
-      <c r="AF215" s="3" t="inlineStr"/>
-      <c r="AG215" s="3" t="inlineStr"/>
+      <c r="X215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>AWS Config</t>
+          <t>Amazon CloudFront</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
@@ -26881,11 +26885,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P216" s="3" t="inlineStr"/>
       <c r="Q216" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26966,226 +26966,230 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AG216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AG216" s="3" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>Amazon CloudFront</t>
-        </is>
-      </c>
-      <c r="B217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon WorkMail</t>
+        </is>
+      </c>
+      <c r="B217" s="3" t="inlineStr"/>
+      <c r="C217" s="3" t="inlineStr"/>
+      <c r="D217" s="3" t="inlineStr"/>
+      <c r="E217" s="3" t="inlineStr"/>
+      <c r="F217" s="3" t="inlineStr"/>
+      <c r="G217" s="3" t="inlineStr"/>
+      <c r="H217" s="3" t="inlineStr"/>
+      <c r="I217" s="3" t="inlineStr"/>
       <c r="J217" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K217" s="3" t="inlineStr"/>
+      <c r="L217" s="3" t="inlineStr"/>
+      <c r="M217" s="3" t="inlineStr"/>
+      <c r="N217" s="3" t="inlineStr"/>
       <c r="O217" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="P217" s="3" t="inlineStr"/>
-      <c r="Q217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q217" s="3" t="inlineStr"/>
       <c r="R217" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S217" s="3" t="inlineStr"/>
+      <c r="T217" s="3" t="inlineStr"/>
+      <c r="U217" s="3" t="inlineStr"/>
+      <c r="V217" s="3" t="inlineStr"/>
+      <c r="W217" s="3" t="inlineStr"/>
+      <c r="X217" s="3" t="inlineStr"/>
+      <c r="Y217" s="3" t="inlineStr"/>
+      <c r="Z217" s="3" t="inlineStr"/>
+      <c r="AA217" s="3" t="inlineStr"/>
+      <c r="AB217" s="3" t="inlineStr"/>
+      <c r="AC217" s="3" t="inlineStr"/>
+      <c r="AD217" s="3" t="inlineStr"/>
+      <c r="AE217" s="3" t="inlineStr"/>
+      <c r="AF217" s="3" t="inlineStr"/>
       <c r="AG217" s="3" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>Amazon WorkMail</t>
-        </is>
-      </c>
-      <c r="B218" s="3" t="inlineStr"/>
-      <c r="C218" s="3" t="inlineStr"/>
-      <c r="D218" s="3" t="inlineStr"/>
-      <c r="E218" s="3" t="inlineStr"/>
-      <c r="F218" s="3" t="inlineStr"/>
-      <c r="G218" s="3" t="inlineStr"/>
-      <c r="H218" s="3" t="inlineStr"/>
-      <c r="I218" s="3" t="inlineStr"/>
+          <t>AWS Security Hub</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K218" s="3" t="inlineStr"/>
-      <c r="L218" s="3" t="inlineStr"/>
-      <c r="M218" s="3" t="inlineStr"/>
-      <c r="N218" s="3" t="inlineStr"/>
+      <c r="K218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O218" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P218" s="3" t="inlineStr"/>
-      <c r="Q218" s="3" t="inlineStr"/>
+      <c r="P218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R218" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S218" s="3" t="inlineStr"/>
-      <c r="T218" s="3" t="inlineStr"/>
-      <c r="U218" s="3" t="inlineStr"/>
-      <c r="V218" s="3" t="inlineStr"/>
-      <c r="W218" s="3" t="inlineStr"/>
-      <c r="X218" s="3" t="inlineStr"/>
-      <c r="Y218" s="3" t="inlineStr"/>
-      <c r="Z218" s="3" t="inlineStr"/>
-      <c r="AA218" s="3" t="inlineStr"/>
-      <c r="AB218" s="3" t="inlineStr"/>
-      <c r="AC218" s="3" t="inlineStr"/>
-      <c r="AD218" s="3" t="inlineStr"/>
-      <c r="AE218" s="3" t="inlineStr"/>
-      <c r="AF218" s="3" t="inlineStr"/>
-      <c r="AG218" s="3" t="inlineStr"/>
+      <c r="S218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>FreeRTOS</t>
+          <t>AWS App Mesh</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
@@ -27274,18 +27278,34 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T219" s="3" t="inlineStr"/>
+      <c r="T219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U219" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="V219" s="3" t="inlineStr"/>
-      <c r="W219" s="3" t="inlineStr"/>
+      <c r="W219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X219" s="3" t="inlineStr"/>
-      <c r="Y219" s="3" t="inlineStr"/>
+      <c r="Y219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z219" s="3" t="inlineStr"/>
-      <c r="AA219" s="3" t="inlineStr"/>
+      <c r="AA219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB219" s="3" t="inlineStr"/>
       <c r="AC219" s="2" t="inlineStr">
         <is>
@@ -27304,150 +27324,62 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>AWS App Mesh</t>
-        </is>
-      </c>
-      <c r="B220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS DeepLens</t>
+        </is>
+      </c>
+      <c r="B220" s="3" t="inlineStr"/>
       <c r="C220" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D220" s="3" t="inlineStr"/>
+      <c r="E220" s="3" t="inlineStr"/>
+      <c r="F220" s="3" t="inlineStr"/>
+      <c r="G220" s="3" t="inlineStr"/>
+      <c r="H220" s="3" t="inlineStr"/>
+      <c r="I220" s="3" t="inlineStr"/>
       <c r="J220" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K220" s="3" t="inlineStr"/>
+      <c r="L220" s="3" t="inlineStr"/>
       <c r="M220" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N220" s="3" t="inlineStr"/>
+      <c r="O220" s="3" t="inlineStr"/>
       <c r="P220" s="3" t="inlineStr"/>
-      <c r="Q220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q220" s="3" t="inlineStr"/>
+      <c r="R220" s="3" t="inlineStr"/>
+      <c r="S220" s="3" t="inlineStr"/>
+      <c r="T220" s="3" t="inlineStr"/>
+      <c r="U220" s="3" t="inlineStr"/>
       <c r="V220" s="3" t="inlineStr"/>
-      <c r="W220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W220" s="3" t="inlineStr"/>
       <c r="X220" s="3" t="inlineStr"/>
-      <c r="Y220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Y220" s="3" t="inlineStr"/>
       <c r="Z220" s="3" t="inlineStr"/>
-      <c r="AA220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA220" s="3" t="inlineStr"/>
       <c r="AB220" s="3" t="inlineStr"/>
-      <c r="AC220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC220" s="3" t="inlineStr"/>
       <c r="AD220" s="3" t="inlineStr"/>
       <c r="AE220" s="3" t="inlineStr"/>
-      <c r="AF220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF220" s="3" t="inlineStr"/>
       <c r="AG220" s="3" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>AWS DeepLens</t>
+          <t>AWS Cost and Usage Report</t>
         </is>
       </c>
       <c r="B221" s="3" t="inlineStr"/>
-      <c r="C221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C221" s="3" t="inlineStr"/>
       <c r="D221" s="3" t="inlineStr"/>
       <c r="E221" s="3" t="inlineStr"/>
       <c r="F221" s="3" t="inlineStr"/>
@@ -27461,11 +27393,7 @@
       </c>
       <c r="K221" s="3" t="inlineStr"/>
       <c r="L221" s="3" t="inlineStr"/>
-      <c r="M221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="M221" s="3" t="inlineStr"/>
       <c r="N221" s="3" t="inlineStr"/>
       <c r="O221" s="3" t="inlineStr"/>
       <c r="P221" s="3" t="inlineStr"/>
@@ -27481,7 +27409,11 @@
       <c r="Z221" s="3" t="inlineStr"/>
       <c r="AA221" s="3" t="inlineStr"/>
       <c r="AB221" s="3" t="inlineStr"/>
-      <c r="AC221" s="3" t="inlineStr"/>
+      <c r="AC221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD221" s="3" t="inlineStr"/>
       <c r="AE221" s="3" t="inlineStr"/>
       <c r="AF221" s="3" t="inlineStr"/>
@@ -27490,30 +27422,82 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>AWS Cost and Usage Report</t>
+          <t>Amazon Rekognition</t>
         </is>
       </c>
       <c r="B222" s="3" t="inlineStr"/>
-      <c r="C222" s="3" t="inlineStr"/>
-      <c r="D222" s="3" t="inlineStr"/>
-      <c r="E222" s="3" t="inlineStr"/>
-      <c r="F222" s="3" t="inlineStr"/>
-      <c r="G222" s="3" t="inlineStr"/>
-      <c r="H222" s="3" t="inlineStr"/>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="I222" s="3" t="inlineStr"/>
       <c r="J222" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K222" s="3" t="inlineStr"/>
-      <c r="L222" s="3" t="inlineStr"/>
-      <c r="M222" s="3" t="inlineStr"/>
+      <c r="K222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N222" s="3" t="inlineStr"/>
-      <c r="O222" s="3" t="inlineStr"/>
-      <c r="P222" s="3" t="inlineStr"/>
-      <c r="Q222" s="3" t="inlineStr"/>
-      <c r="R222" s="3" t="inlineStr"/>
+      <c r="O222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="S222" s="3" t="inlineStr"/>
       <c r="T222" s="3" t="inlineStr"/>
       <c r="U222" s="3" t="inlineStr"/>
@@ -27524,11 +27508,7 @@
       <c r="Z222" s="3" t="inlineStr"/>
       <c r="AA222" s="3" t="inlineStr"/>
       <c r="AB222" s="3" t="inlineStr"/>
-      <c r="AC222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC222" s="3" t="inlineStr"/>
       <c r="AD222" s="3" t="inlineStr"/>
       <c r="AE222" s="3" t="inlineStr"/>
       <c r="AF222" s="3" t="inlineStr"/>
@@ -27537,10 +27517,14 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>Amazon Rekognition</t>
-        </is>
-      </c>
-      <c r="B223" s="3" t="inlineStr"/>
+          <t>AWS Lambda</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27571,7 +27555,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I223" s="3" t="inlineStr"/>
+      <c r="I223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27592,7 +27580,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N223" s="3" t="inlineStr"/>
+      <c r="N223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27613,26 +27605,86 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S223" s="3" t="inlineStr"/>
-      <c r="T223" s="3" t="inlineStr"/>
-      <c r="U223" s="3" t="inlineStr"/>
-      <c r="V223" s="3" t="inlineStr"/>
-      <c r="W223" s="3" t="inlineStr"/>
-      <c r="X223" s="3" t="inlineStr"/>
-      <c r="Y223" s="3" t="inlineStr"/>
-      <c r="Z223" s="3" t="inlineStr"/>
-      <c r="AA223" s="3" t="inlineStr"/>
-      <c r="AB223" s="3" t="inlineStr"/>
-      <c r="AC223" s="3" t="inlineStr"/>
-      <c r="AD223" s="3" t="inlineStr"/>
-      <c r="AE223" s="3" t="inlineStr"/>
-      <c r="AF223" s="3" t="inlineStr"/>
-      <c r="AG223" s="3" t="inlineStr"/>
+      <c r="S223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>AWS Lambda</t>
+          <t>FreeRTOS</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
@@ -27705,11 +27757,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P224" s="3" t="inlineStr"/>
       <c r="Q224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27725,84 +27773,44 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T224" s="3" t="inlineStr"/>
       <c r="U224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V224" s="3" t="inlineStr"/>
+      <c r="W224" s="3" t="inlineStr"/>
+      <c r="X224" s="3" t="inlineStr"/>
+      <c r="Y224" s="3" t="inlineStr"/>
+      <c r="Z224" s="3" t="inlineStr"/>
+      <c r="AA224" s="3" t="inlineStr"/>
+      <c r="AB224" s="3" t="inlineStr"/>
       <c r="AC224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD224" s="3" t="inlineStr"/>
+      <c r="AE224" s="3" t="inlineStr"/>
       <c r="AF224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AG224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AG224" s="3" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaStore</t>
-        </is>
-      </c>
-      <c r="B225" s="3" t="inlineStr"/>
+          <t>Amazon FSx for Windows File Server</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27813,26 +27821,46 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E225" s="3" t="inlineStr"/>
+      <c r="E225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G225" s="3" t="inlineStr"/>
+      <c r="G225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I225" s="3" t="inlineStr"/>
+      <c r="I225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K225" s="3" t="inlineStr"/>
-      <c r="L225" s="3" t="inlineStr"/>
+      <c r="K225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27848,242 +27876,182 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P225" s="3" t="inlineStr"/>
-      <c r="Q225" s="3" t="inlineStr"/>
+      <c r="P225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S225" s="3" t="inlineStr"/>
-      <c r="T225" s="3" t="inlineStr"/>
-      <c r="U225" s="3" t="inlineStr"/>
-      <c r="V225" s="3" t="inlineStr"/>
-      <c r="W225" s="3" t="inlineStr"/>
-      <c r="X225" s="3" t="inlineStr"/>
-      <c r="Y225" s="3" t="inlineStr"/>
-      <c r="Z225" s="3" t="inlineStr"/>
-      <c r="AA225" s="3" t="inlineStr"/>
-      <c r="AB225" s="3" t="inlineStr"/>
-      <c r="AC225" s="3" t="inlineStr"/>
+      <c r="S225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD225" s="3" t="inlineStr"/>
-      <c r="AE225" s="3" t="inlineStr"/>
-      <c r="AF225" s="3" t="inlineStr"/>
-      <c r="AG225" s="3" t="inlineStr"/>
+      <c r="AE225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>AWS Cloud Control API</t>
-        </is>
-      </c>
-      <c r="B226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Application Discovery Service</t>
+        </is>
+      </c>
+      <c r="B226" s="3" t="inlineStr"/>
       <c r="C226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D226" s="3" t="inlineStr"/>
+      <c r="E226" s="3" t="inlineStr"/>
       <c r="F226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G226" s="3" t="inlineStr"/>
       <c r="H226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I226" s="3" t="inlineStr"/>
       <c r="J226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K226" s="3" t="inlineStr"/>
+      <c r="L226" s="3" t="inlineStr"/>
       <c r="M226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N226" s="3" t="inlineStr"/>
       <c r="O226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P226" s="3" t="inlineStr"/>
+      <c r="Q226" s="3" t="inlineStr"/>
       <c r="R226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S226" s="3" t="inlineStr"/>
+      <c r="T226" s="3" t="inlineStr"/>
+      <c r="U226" s="3" t="inlineStr"/>
+      <c r="V226" s="3" t="inlineStr"/>
+      <c r="W226" s="3" t="inlineStr"/>
+      <c r="X226" s="3" t="inlineStr"/>
+      <c r="Y226" s="3" t="inlineStr"/>
+      <c r="Z226" s="3" t="inlineStr"/>
+      <c r="AA226" s="3" t="inlineStr"/>
+      <c r="AB226" s="3" t="inlineStr"/>
+      <c r="AC226" s="3" t="inlineStr"/>
+      <c r="AD226" s="3" t="inlineStr"/>
+      <c r="AE226" s="3" t="inlineStr"/>
+      <c r="AF226" s="3" t="inlineStr"/>
+      <c r="AG226" s="3" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for Windows File Server</t>
-        </is>
-      </c>
-      <c r="B227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS App Runner</t>
+        </is>
+      </c>
+      <c r="B227" s="3" t="inlineStr"/>
       <c r="C227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D227" s="3" t="inlineStr"/>
+      <c r="E227" s="3" t="inlineStr"/>
       <c r="F227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G227" s="3" t="inlineStr"/>
+      <c r="H227" s="3" t="inlineStr"/>
+      <c r="I227" s="3" t="inlineStr"/>
       <c r="J227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28104,174 +28072,206 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N227" s="3" t="inlineStr"/>
       <c r="O227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P227" s="3" t="inlineStr"/>
+      <c r="Q227" s="3" t="inlineStr"/>
       <c r="R227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S227" s="3" t="inlineStr"/>
+      <c r="T227" s="3" t="inlineStr"/>
+      <c r="U227" s="3" t="inlineStr"/>
+      <c r="V227" s="3" t="inlineStr"/>
+      <c r="W227" s="3" t="inlineStr"/>
+      <c r="X227" s="3" t="inlineStr"/>
+      <c r="Y227" s="3" t="inlineStr"/>
+      <c r="Z227" s="3" t="inlineStr"/>
+      <c r="AA227" s="3" t="inlineStr"/>
+      <c r="AB227" s="3" t="inlineStr"/>
+      <c r="AC227" s="3" t="inlineStr"/>
       <c r="AD227" s="3" t="inlineStr"/>
-      <c r="AE227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE227" s="3" t="inlineStr"/>
+      <c r="AF227" s="3" t="inlineStr"/>
+      <c r="AG227" s="3" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>AWS Application Discovery Service</t>
-        </is>
-      </c>
-      <c r="B228" s="3" t="inlineStr"/>
+          <t>AWS CodeBuild</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D228" s="3" t="inlineStr"/>
-      <c r="E228" s="3" t="inlineStr"/>
+      <c r="D228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G228" s="3" t="inlineStr"/>
+      <c r="G228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I228" s="3" t="inlineStr"/>
+      <c r="I228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K228" s="3" t="inlineStr"/>
-      <c r="L228" s="3" t="inlineStr"/>
+      <c r="K228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N228" s="3" t="inlineStr"/>
+      <c r="N228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P228" s="3" t="inlineStr"/>
-      <c r="Q228" s="3" t="inlineStr"/>
+      <c r="P228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S228" s="3" t="inlineStr"/>
-      <c r="T228" s="3" t="inlineStr"/>
-      <c r="U228" s="3" t="inlineStr"/>
-      <c r="V228" s="3" t="inlineStr"/>
-      <c r="W228" s="3" t="inlineStr"/>
-      <c r="X228" s="3" t="inlineStr"/>
-      <c r="Y228" s="3" t="inlineStr"/>
-      <c r="Z228" s="3" t="inlineStr"/>
-      <c r="AA228" s="3" t="inlineStr"/>
-      <c r="AB228" s="3" t="inlineStr"/>
-      <c r="AC228" s="3" t="inlineStr"/>
-      <c r="AD228" s="3" t="inlineStr"/>
-      <c r="AE228" s="3" t="inlineStr"/>
-      <c r="AF228" s="3" t="inlineStr"/>
-      <c r="AG228" s="3" t="inlineStr"/>
+      <c r="S228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>AWS App Runner</t>
+          <t>AWS Elemental MediaStore</t>
         </is>
       </c>
       <c r="B229" s="3" t="inlineStr"/>
@@ -28280,7 +28280,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="D229" s="3" t="inlineStr"/>
+      <c r="D229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="E229" s="3" t="inlineStr"/>
       <c r="F229" s="2" t="inlineStr">
         <is>
@@ -28288,29 +28292,29 @@
         </is>
       </c>
       <c r="G229" s="3" t="inlineStr"/>
-      <c r="H229" s="3" t="inlineStr"/>
+      <c r="H229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="I229" s="3" t="inlineStr"/>
       <c r="J229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K229" s="3" t="inlineStr"/>
+      <c r="L229" s="3" t="inlineStr"/>
       <c r="M229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N229" s="3" t="inlineStr"/>
+      <c r="N229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28342,7 +28346,7 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>Amazon Elastic Container Service (ECS)</t>
+          <t>AWS Cloud Control API</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
@@ -28509,14 +28513,10 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>AWS CodeBuild</t>
-        </is>
-      </c>
-      <c r="B231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Chime SDK</t>
+        </is>
+      </c>
+      <c r="B231" s="3" t="inlineStr"/>
       <c r="C231" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28602,71 +28602,27 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T231" s="3" t="inlineStr"/>
+      <c r="U231" s="3" t="inlineStr"/>
+      <c r="V231" s="3" t="inlineStr"/>
       <c r="W231" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X231" s="3" t="inlineStr"/>
+      <c r="Y231" s="3" t="inlineStr"/>
+      <c r="Z231" s="3" t="inlineStr"/>
       <c r="AA231" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB231" s="3" t="inlineStr"/>
+      <c r="AC231" s="3" t="inlineStr"/>
+      <c r="AD231" s="3" t="inlineStr"/>
+      <c r="AE231" s="3" t="inlineStr"/>
+      <c r="AF231" s="3" t="inlineStr"/>
       <c r="AG231" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28676,168 +28632,216 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>Amazon Chime SDK</t>
+          <t>AWS Cost Explorer</t>
         </is>
       </c>
       <c r="B232" s="3" t="inlineStr"/>
-      <c r="C232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C232" s="3" t="inlineStr"/>
+      <c r="D232" s="3" t="inlineStr"/>
+      <c r="E232" s="3" t="inlineStr"/>
+      <c r="F232" s="3" t="inlineStr"/>
+      <c r="G232" s="3" t="inlineStr"/>
+      <c r="H232" s="3" t="inlineStr"/>
+      <c r="I232" s="3" t="inlineStr"/>
       <c r="J232" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K232" s="3" t="inlineStr"/>
+      <c r="L232" s="3" t="inlineStr"/>
+      <c r="M232" s="3" t="inlineStr"/>
+      <c r="N232" s="3" t="inlineStr"/>
+      <c r="O232" s="3" t="inlineStr"/>
+      <c r="P232" s="3" t="inlineStr"/>
+      <c r="Q232" s="3" t="inlineStr"/>
+      <c r="R232" s="3" t="inlineStr"/>
+      <c r="S232" s="3" t="inlineStr"/>
       <c r="T232" s="3" t="inlineStr"/>
       <c r="U232" s="3" t="inlineStr"/>
       <c r="V232" s="3" t="inlineStr"/>
-      <c r="W232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W232" s="3" t="inlineStr"/>
       <c r="X232" s="3" t="inlineStr"/>
       <c r="Y232" s="3" t="inlineStr"/>
       <c r="Z232" s="3" t="inlineStr"/>
-      <c r="AA232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA232" s="3" t="inlineStr"/>
       <c r="AB232" s="3" t="inlineStr"/>
-      <c r="AC232" s="3" t="inlineStr"/>
+      <c r="AC232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD232" s="3" t="inlineStr"/>
       <c r="AE232" s="3" t="inlineStr"/>
       <c r="AF232" s="3" t="inlineStr"/>
-      <c r="AG232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AG232" s="3" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>AWS Cost Explorer</t>
-        </is>
-      </c>
-      <c r="B233" s="3" t="inlineStr"/>
-      <c r="C233" s="3" t="inlineStr"/>
-      <c r="D233" s="3" t="inlineStr"/>
-      <c r="E233" s="3" t="inlineStr"/>
-      <c r="F233" s="3" t="inlineStr"/>
-      <c r="G233" s="3" t="inlineStr"/>
-      <c r="H233" s="3" t="inlineStr"/>
-      <c r="I233" s="3" t="inlineStr"/>
+          <t>Amazon Elastic Container Service (ECS)</t>
+        </is>
+      </c>
+      <c r="B233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K233" s="3" t="inlineStr"/>
-      <c r="L233" s="3" t="inlineStr"/>
-      <c r="M233" s="3" t="inlineStr"/>
-      <c r="N233" s="3" t="inlineStr"/>
-      <c r="O233" s="3" t="inlineStr"/>
-      <c r="P233" s="3" t="inlineStr"/>
-      <c r="Q233" s="3" t="inlineStr"/>
-      <c r="R233" s="3" t="inlineStr"/>
-      <c r="S233" s="3" t="inlineStr"/>
-      <c r="T233" s="3" t="inlineStr"/>
-      <c r="U233" s="3" t="inlineStr"/>
-      <c r="V233" s="3" t="inlineStr"/>
-      <c r="W233" s="3" t="inlineStr"/>
-      <c r="X233" s="3" t="inlineStr"/>
-      <c r="Y233" s="3" t="inlineStr"/>
-      <c r="Z233" s="3" t="inlineStr"/>
-      <c r="AA233" s="3" t="inlineStr"/>
-      <c r="AB233" s="3" t="inlineStr"/>
+      <c r="K233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC233" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD233" s="3" t="inlineStr"/>
-      <c r="AE233" s="3" t="inlineStr"/>
-      <c r="AF233" s="3" t="inlineStr"/>
-      <c r="AG233" s="3" t="inlineStr"/>
+      <c r="AD233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -3082,7 +3082,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Amazon HealthLake</t>
+          <t>AWS HealthLake</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr"/>
@@ -11711,7 +11711,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Amazon Omics</t>
+          <t>AWS HealthOmics</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr"/>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG233"/>
+  <dimension ref="A1:AG234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28104,14 +28104,10 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>AWS CodeBuild</t>
-        </is>
-      </c>
-      <c r="B228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Elemental MediaStore</t>
+        </is>
+      </c>
+      <c r="B228" s="3" t="inlineStr"/>
       <c r="C228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28122,46 +28118,26 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E228" s="3" t="inlineStr"/>
       <c r="F228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G228" s="3" t="inlineStr"/>
       <c r="H228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I228" s="3" t="inlineStr"/>
       <c r="J228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K228" s="3" t="inlineStr"/>
+      <c r="L228" s="3" t="inlineStr"/>
       <c r="M228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28177,104 +28153,40 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P228" s="3" t="inlineStr"/>
+      <c r="Q228" s="3" t="inlineStr"/>
       <c r="R228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S228" s="3" t="inlineStr"/>
+      <c r="T228" s="3" t="inlineStr"/>
+      <c r="U228" s="3" t="inlineStr"/>
+      <c r="V228" s="3" t="inlineStr"/>
+      <c r="W228" s="3" t="inlineStr"/>
+      <c r="X228" s="3" t="inlineStr"/>
+      <c r="Y228" s="3" t="inlineStr"/>
+      <c r="Z228" s="3" t="inlineStr"/>
+      <c r="AA228" s="3" t="inlineStr"/>
+      <c r="AB228" s="3" t="inlineStr"/>
+      <c r="AC228" s="3" t="inlineStr"/>
+      <c r="AD228" s="3" t="inlineStr"/>
+      <c r="AE228" s="3" t="inlineStr"/>
+      <c r="AF228" s="3" t="inlineStr"/>
+      <c r="AG228" s="3" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaStore</t>
-        </is>
-      </c>
-      <c r="B229" s="3" t="inlineStr"/>
+          <t>Amazon Route 53 Application Recovery Controller</t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28285,26 +28197,46 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E229" s="3" t="inlineStr"/>
+      <c r="E229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G229" s="3" t="inlineStr"/>
+      <c r="G229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I229" s="3" t="inlineStr"/>
+      <c r="I229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K229" s="3" t="inlineStr"/>
-      <c r="L229" s="3" t="inlineStr"/>
+      <c r="K229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28321,26 +28253,50 @@
         </is>
       </c>
       <c r="P229" s="3" t="inlineStr"/>
-      <c r="Q229" s="3" t="inlineStr"/>
+      <c r="Q229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S229" s="3" t="inlineStr"/>
-      <c r="T229" s="3" t="inlineStr"/>
+      <c r="S229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U229" s="3" t="inlineStr"/>
       <c r="V229" s="3" t="inlineStr"/>
-      <c r="W229" s="3" t="inlineStr"/>
+      <c r="W229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X229" s="3" t="inlineStr"/>
       <c r="Y229" s="3" t="inlineStr"/>
       <c r="Z229" s="3" t="inlineStr"/>
-      <c r="AA229" s="3" t="inlineStr"/>
+      <c r="AA229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB229" s="3" t="inlineStr"/>
       <c r="AC229" s="3" t="inlineStr"/>
       <c r="AD229" s="3" t="inlineStr"/>
       <c r="AE229" s="3" t="inlineStr"/>
-      <c r="AF229" s="3" t="inlineStr"/>
+      <c r="AF229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AG229" s="3" t="inlineStr"/>
     </row>
     <row r="230">
@@ -28843,6 +28799,173 @@
         </is>
       </c>
     </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>AWS CodeBuild</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -10783,7 +10783,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD84" s="3" t="inlineStr"/>
+      <c r="AD84" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE84" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25929,7 +25933,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T208" s="3" t="inlineStr"/>
+      <c r="T208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U208" s="3" t="inlineStr"/>
       <c r="V208" s="3" t="inlineStr"/>
       <c r="W208" s="2" t="inlineStr">
@@ -25939,7 +25947,11 @@
       </c>
       <c r="X208" s="3" t="inlineStr"/>
       <c r="Y208" s="3" t="inlineStr"/>
-      <c r="Z208" s="3" t="inlineStr"/>
+      <c r="Z208" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA208" s="3" t="inlineStr"/>
       <c r="AB208" s="3" t="inlineStr"/>
       <c r="AC208" s="2" t="inlineStr">

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -18431,7 +18431,11 @@
         </is>
       </c>
       <c r="AC144" s="3" t="inlineStr"/>
-      <c r="AD144" s="3" t="inlineStr"/>
+      <c r="AD144" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE144" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23610,7 +23614,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD189" s="3" t="inlineStr"/>
+      <c r="AD189" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE189" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27521,7 +27529,11 @@
       <c r="AA222" s="3" t="inlineStr"/>
       <c r="AB222" s="3" t="inlineStr"/>
       <c r="AC222" s="3" t="inlineStr"/>
-      <c r="AD222" s="3" t="inlineStr"/>
+      <c r="AD222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE222" s="3" t="inlineStr"/>
       <c r="AF222" s="3" t="inlineStr"/>
       <c r="AG222" s="3" t="inlineStr"/>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -8492,8 +8492,16 @@
       </c>
       <c r="AB67" s="3" t="inlineStr"/>
       <c r="AC67" s="3" t="inlineStr"/>
-      <c r="AD67" s="3" t="inlineStr"/>
-      <c r="AE67" s="3" t="inlineStr"/>
+      <c r="AD67" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE67" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF67" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -9262,7 +9270,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD73" s="3" t="inlineStr"/>
+      <c r="AD73" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE73" s="3" t="inlineStr"/>
       <c r="AF73" s="2" t="inlineStr">
         <is>
@@ -17300,7 +17312,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD135" s="3" t="inlineStr"/>
+      <c r="AD135" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE135" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -1185,7 +1185,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD6" s="3" t="inlineStr"/>
+      <c r="AD6" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE6" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -4643,7 +4647,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD36" s="3" t="inlineStr"/>
+      <c r="AD36" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE36" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14264,7 +14272,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD111" s="3" t="inlineStr"/>
+      <c r="AD111" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE111" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -6203,7 +6203,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD48" s="3" t="inlineStr"/>
+      <c r="AD48" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE48" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16510,7 +16514,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD129" s="3" t="inlineStr"/>
+      <c r="AD129" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE129" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20704,10 +20712,14 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Amazon Pinpoint</t>
-        </is>
-      </c>
-      <c r="B164" s="3" t="inlineStr"/>
+          <t>AWS Elastic Beanstalk</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20738,7 +20750,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I164" s="3" t="inlineStr"/>
+      <c r="I164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J164" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20759,7 +20775,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N164" s="3" t="inlineStr"/>
+      <c r="N164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O164" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20770,32 +20790,76 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q164" s="3" t="inlineStr"/>
+      <c r="Q164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R164" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S164" s="3" t="inlineStr"/>
-      <c r="T164" s="3" t="inlineStr"/>
-      <c r="U164" s="3" t="inlineStr"/>
+      <c r="S164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V164" s="3" t="inlineStr"/>
-      <c r="W164" s="3" t="inlineStr"/>
+      <c r="W164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X164" s="3" t="inlineStr"/>
-      <c r="Y164" s="3" t="inlineStr"/>
+      <c r="Y164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z164" s="3" t="inlineStr"/>
-      <c r="AA164" s="3" t="inlineStr"/>
+      <c r="AA164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB164" s="3" t="inlineStr"/>
-      <c r="AC164" s="3" t="inlineStr"/>
-      <c r="AD164" s="3" t="inlineStr"/>
+      <c r="AC164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE164" s="3" t="inlineStr"/>
-      <c r="AF164" s="3" t="inlineStr"/>
-      <c r="AG164" s="3" t="inlineStr"/>
+      <c r="AF164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>AWS Elastic Beanstalk</t>
+          <t>Amazon Transcribe</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
@@ -20888,11 +20952,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T165" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T165" s="3" t="inlineStr"/>
       <c r="U165" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20905,28 +20965,16 @@
         </is>
       </c>
       <c r="X165" s="3" t="inlineStr"/>
-      <c r="Y165" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Y165" s="3" t="inlineStr"/>
       <c r="Z165" s="3" t="inlineStr"/>
-      <c r="AA165" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA165" s="3" t="inlineStr"/>
       <c r="AB165" s="3" t="inlineStr"/>
       <c r="AC165" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD165" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD165" s="3" t="inlineStr"/>
       <c r="AE165" s="3" t="inlineStr"/>
       <c r="AF165" s="2" t="inlineStr">
         <is>
@@ -20942,7 +20990,7 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Amazon Transcribe</t>
+          <t>AWS Organizations</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
@@ -21035,30 +21083,66 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T166" s="3" t="inlineStr"/>
+      <c r="T166" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U166" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V166" s="3" t="inlineStr"/>
+      <c r="V166" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W166" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X166" s="3" t="inlineStr"/>
-      <c r="Y166" s="3" t="inlineStr"/>
-      <c r="Z166" s="3" t="inlineStr"/>
-      <c r="AA166" s="3" t="inlineStr"/>
-      <c r="AB166" s="3" t="inlineStr"/>
+      <c r="X166" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y166" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z166" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA166" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB166" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC166" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD166" s="3" t="inlineStr"/>
-      <c r="AE166" s="3" t="inlineStr"/>
+      <c r="AD166" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE166" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF166" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21073,49 +21157,21 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>AWS Organizations</t>
-        </is>
-      </c>
-      <c r="B167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS RoboMaker</t>
+        </is>
+      </c>
+      <c r="B167" s="3" t="inlineStr"/>
       <c r="C167" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D167" s="3" t="inlineStr"/>
+      <c r="E167" s="3" t="inlineStr"/>
+      <c r="F167" s="3" t="inlineStr"/>
+      <c r="G167" s="3" t="inlineStr"/>
+      <c r="H167" s="3" t="inlineStr"/>
+      <c r="I167" s="3" t="inlineStr"/>
       <c r="J167" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21136,11 +21192,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N167" s="3" t="inlineStr"/>
       <c r="O167" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21151,110 +21203,74 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q167" s="3" t="inlineStr"/>
       <c r="R167" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG167" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S167" s="3" t="inlineStr"/>
+      <c r="T167" s="3" t="inlineStr"/>
+      <c r="U167" s="3" t="inlineStr"/>
+      <c r="V167" s="3" t="inlineStr"/>
+      <c r="W167" s="3" t="inlineStr"/>
+      <c r="X167" s="3" t="inlineStr"/>
+      <c r="Y167" s="3" t="inlineStr"/>
+      <c r="Z167" s="3" t="inlineStr"/>
+      <c r="AA167" s="3" t="inlineStr"/>
+      <c r="AB167" s="3" t="inlineStr"/>
+      <c r="AC167" s="3" t="inlineStr"/>
+      <c r="AD167" s="3" t="inlineStr"/>
+      <c r="AE167" s="3" t="inlineStr"/>
+      <c r="AF167" s="3" t="inlineStr"/>
+      <c r="AG167" s="3" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>AWS RoboMaker</t>
-        </is>
-      </c>
-      <c r="B168" s="3" t="inlineStr"/>
+          <t>Amazon ElastiCache</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D168" s="3" t="inlineStr"/>
-      <c r="E168" s="3" t="inlineStr"/>
-      <c r="F168" s="3" t="inlineStr"/>
-      <c r="G168" s="3" t="inlineStr"/>
-      <c r="H168" s="3" t="inlineStr"/>
-      <c r="I168" s="3" t="inlineStr"/>
+      <c r="D168" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F168" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G168" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H168" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I168" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J168" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21275,7 +21291,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N168" s="3" t="inlineStr"/>
+      <c r="N168" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O168" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21286,32 +21306,96 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q168" s="3" t="inlineStr"/>
+      <c r="Q168" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R168" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S168" s="3" t="inlineStr"/>
-      <c r="T168" s="3" t="inlineStr"/>
-      <c r="U168" s="3" t="inlineStr"/>
-      <c r="V168" s="3" t="inlineStr"/>
-      <c r="W168" s="3" t="inlineStr"/>
-      <c r="X168" s="3" t="inlineStr"/>
-      <c r="Y168" s="3" t="inlineStr"/>
-      <c r="Z168" s="3" t="inlineStr"/>
-      <c r="AA168" s="3" t="inlineStr"/>
-      <c r="AB168" s="3" t="inlineStr"/>
-      <c r="AC168" s="3" t="inlineStr"/>
-      <c r="AD168" s="3" t="inlineStr"/>
-      <c r="AE168" s="3" t="inlineStr"/>
-      <c r="AF168" s="3" t="inlineStr"/>
-      <c r="AG168" s="3" t="inlineStr"/>
+      <c r="S168" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T168" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U168" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V168" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W168" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X168" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y168" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z168" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA168" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB168" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC168" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD168" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE168" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF168" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG168" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Amazon ElastiCache</t>
+          <t>Amazon Keyspaces (for Apache Cassandra)</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
@@ -21404,66 +21488,26 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T169" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T169" s="3" t="inlineStr"/>
       <c r="U169" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V169" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W169" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X169" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y169" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z169" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA169" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB169" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V169" s="3" t="inlineStr"/>
+      <c r="W169" s="3" t="inlineStr"/>
+      <c r="X169" s="3" t="inlineStr"/>
+      <c r="Y169" s="3" t="inlineStr"/>
+      <c r="Z169" s="3" t="inlineStr"/>
+      <c r="AA169" s="3" t="inlineStr"/>
+      <c r="AB169" s="3" t="inlineStr"/>
       <c r="AC169" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD169" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE169" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD169" s="3" t="inlineStr"/>
+      <c r="AE169" s="3" t="inlineStr"/>
       <c r="AF169" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21478,14 +21522,10 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Amazon Keyspaces (for Apache Cassandra)</t>
-        </is>
-      </c>
-      <c r="B170" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Pinpoint</t>
+        </is>
+      </c>
+      <c r="B170" s="3" t="inlineStr"/>
       <c r="C170" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21516,11 +21556,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I170" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I170" s="3" t="inlineStr"/>
       <c r="J170" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21541,11 +21577,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N170" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N170" s="3" t="inlineStr"/>
       <c r="O170" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21556,27 +21588,15 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q170" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q170" s="3" t="inlineStr"/>
       <c r="R170" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S170" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S170" s="3" t="inlineStr"/>
       <c r="T170" s="3" t="inlineStr"/>
-      <c r="U170" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U170" s="3" t="inlineStr"/>
       <c r="V170" s="3" t="inlineStr"/>
       <c r="W170" s="3" t="inlineStr"/>
       <c r="X170" s="3" t="inlineStr"/>
@@ -21584,23 +21604,11 @@
       <c r="Z170" s="3" t="inlineStr"/>
       <c r="AA170" s="3" t="inlineStr"/>
       <c r="AB170" s="3" t="inlineStr"/>
-      <c r="AC170" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC170" s="3" t="inlineStr"/>
       <c r="AD170" s="3" t="inlineStr"/>
       <c r="AE170" s="3" t="inlineStr"/>
-      <c r="AF170" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG170" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF170" s="3" t="inlineStr"/>
+      <c r="AG170" s="3" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -23302,14 +23310,18 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>AWS Snowmobile</t>
+          <t>AWS IoT TwinMaker</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr"/>
       <c r="C186" s="3" t="inlineStr"/>
       <c r="D186" s="3" t="inlineStr"/>
       <c r="E186" s="3" t="inlineStr"/>
-      <c r="F186" s="3" t="inlineStr"/>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="G186" s="3" t="inlineStr"/>
       <c r="H186" s="3" t="inlineStr"/>
       <c r="I186" s="3" t="inlineStr"/>
@@ -23318,25 +23330,29 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="K186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L186" s="3" t="inlineStr"/>
-      <c r="M186" s="3" t="inlineStr"/>
+      <c r="K186" s="3" t="inlineStr"/>
+      <c r="L186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N186" s="3" t="inlineStr"/>
-      <c r="O186" s="3" t="inlineStr"/>
+      <c r="O186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="P186" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Q186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q186" s="3" t="inlineStr"/>
       <c r="R186" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23356,36 +23372,64 @@
       <c r="AD186" s="3" t="inlineStr"/>
       <c r="AE186" s="3" t="inlineStr"/>
       <c r="AF186" s="3" t="inlineStr"/>
-      <c r="AG186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AG186" s="3" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>AWS IoT TwinMaker</t>
-        </is>
-      </c>
-      <c r="B187" s="3" t="inlineStr"/>
-      <c r="C187" s="3" t="inlineStr"/>
-      <c r="D187" s="3" t="inlineStr"/>
-      <c r="E187" s="3" t="inlineStr"/>
+          <t>AWS Storage Gateway</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F187" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G187" s="3" t="inlineStr"/>
-      <c r="H187" s="3" t="inlineStr"/>
-      <c r="I187" s="3" t="inlineStr"/>
+      <c r="G187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J187" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K187" s="3" t="inlineStr"/>
+      <c r="K187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L187" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23396,7 +23440,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N187" s="3" t="inlineStr"/>
+      <c r="N187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O187" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23407,35 +23455,103 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q187" s="3" t="inlineStr"/>
+      <c r="Q187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R187" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S187" s="3" t="inlineStr"/>
-      <c r="T187" s="3" t="inlineStr"/>
-      <c r="U187" s="3" t="inlineStr"/>
-      <c r="V187" s="3" t="inlineStr"/>
-      <c r="W187" s="3" t="inlineStr"/>
-      <c r="X187" s="3" t="inlineStr"/>
-      <c r="Y187" s="3" t="inlineStr"/>
-      <c r="Z187" s="3" t="inlineStr"/>
-      <c r="AA187" s="3" t="inlineStr"/>
-      <c r="AB187" s="3" t="inlineStr"/>
-      <c r="AC187" s="3" t="inlineStr"/>
-      <c r="AD187" s="3" t="inlineStr"/>
-      <c r="AE187" s="3" t="inlineStr"/>
-      <c r="AF187" s="3" t="inlineStr"/>
-      <c r="AG187" s="3" t="inlineStr"/>
+      <c r="S187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG187" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Amazon Lookout for Vision</t>
-        </is>
-      </c>
-      <c r="B188" s="3" t="inlineStr"/>
+          <t>Amazon EC2 Auto Scaling</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23446,11 +23562,31 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E188" s="3" t="inlineStr"/>
-      <c r="F188" s="3" t="inlineStr"/>
-      <c r="G188" s="3" t="inlineStr"/>
-      <c r="H188" s="3" t="inlineStr"/>
-      <c r="I188" s="3" t="inlineStr"/>
+      <c r="E188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J188" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23461,45 +23597,121 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L188" s="3" t="inlineStr"/>
+      <c r="L188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M188" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N188" s="3" t="inlineStr"/>
+      <c r="N188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O188" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P188" s="3" t="inlineStr"/>
-      <c r="Q188" s="3" t="inlineStr"/>
+      <c r="P188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R188" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S188" s="3" t="inlineStr"/>
-      <c r="T188" s="3" t="inlineStr"/>
-      <c r="U188" s="3" t="inlineStr"/>
-      <c r="V188" s="3" t="inlineStr"/>
-      <c r="W188" s="3" t="inlineStr"/>
-      <c r="X188" s="3" t="inlineStr"/>
-      <c r="Y188" s="3" t="inlineStr"/>
-      <c r="Z188" s="3" t="inlineStr"/>
-      <c r="AA188" s="3" t="inlineStr"/>
-      <c r="AB188" s="3" t="inlineStr"/>
-      <c r="AC188" s="3" t="inlineStr"/>
-      <c r="AD188" s="3" t="inlineStr"/>
-      <c r="AE188" s="3" t="inlineStr"/>
-      <c r="AF188" s="3" t="inlineStr"/>
-      <c r="AG188" s="3" t="inlineStr"/>
+      <c r="S188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG188" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>AWS Storage Gateway</t>
+          <t>AWS Service Catalog</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
@@ -23666,7 +23878,7 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Amazon EC2 Auto Scaling</t>
+          <t>Amazon FSx for Lustre</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
@@ -23833,7 +24045,7 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>AWS Service Catalog</t>
+          <t>AWS AppSync</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
@@ -23906,11 +24118,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P191" s="3" t="inlineStr"/>
       <c r="Q191" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23956,11 +24164,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Z191" s="3" t="inlineStr"/>
       <c r="AA191" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23976,11 +24180,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD191" s="3" t="inlineStr"/>
       <c r="AE191" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23991,58 +24191,22 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AG191" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AG191" s="3" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for Lustre</t>
-        </is>
-      </c>
-      <c r="B192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Snowmobile</t>
+        </is>
+      </c>
+      <c r="B192" s="3" t="inlineStr"/>
+      <c r="C192" s="3" t="inlineStr"/>
+      <c r="D192" s="3" t="inlineStr"/>
+      <c r="E192" s="3" t="inlineStr"/>
+      <c r="F192" s="3" t="inlineStr"/>
+      <c r="G192" s="3" t="inlineStr"/>
+      <c r="H192" s="3" t="inlineStr"/>
+      <c r="I192" s="3" t="inlineStr"/>
       <c r="J192" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24053,26 +24217,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L192" s="3" t="inlineStr"/>
+      <c r="M192" s="3" t="inlineStr"/>
+      <c r="N192" s="3" t="inlineStr"/>
+      <c r="O192" s="3" t="inlineStr"/>
       <c r="P192" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24088,72 +24236,20 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S192" s="3" t="inlineStr"/>
+      <c r="T192" s="3" t="inlineStr"/>
+      <c r="U192" s="3" t="inlineStr"/>
+      <c r="V192" s="3" t="inlineStr"/>
+      <c r="W192" s="3" t="inlineStr"/>
+      <c r="X192" s="3" t="inlineStr"/>
+      <c r="Y192" s="3" t="inlineStr"/>
+      <c r="Z192" s="3" t="inlineStr"/>
+      <c r="AA192" s="3" t="inlineStr"/>
+      <c r="AB192" s="3" t="inlineStr"/>
+      <c r="AC192" s="3" t="inlineStr"/>
       <c r="AD192" s="3" t="inlineStr"/>
-      <c r="AE192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE192" s="3" t="inlineStr"/>
+      <c r="AF192" s="3" t="inlineStr"/>
       <c r="AG192" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24163,170 +24259,78 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>AWS AppSync</t>
-        </is>
-      </c>
-      <c r="B193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Wickr</t>
+        </is>
+      </c>
+      <c r="B193" s="3" t="inlineStr"/>
+      <c r="C193" s="3" t="inlineStr"/>
+      <c r="D193" s="3" t="inlineStr"/>
+      <c r="E193" s="3" t="inlineStr"/>
+      <c r="F193" s="3" t="inlineStr"/>
       <c r="G193" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="H193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="H193" s="3" t="inlineStr"/>
+      <c r="I193" s="3" t="inlineStr"/>
       <c r="J193" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P193" s="3" t="inlineStr"/>
-      <c r="Q193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K193" s="3" t="inlineStr"/>
+      <c r="L193" s="3" t="inlineStr"/>
+      <c r="M193" s="3" t="inlineStr"/>
+      <c r="N193" s="3" t="inlineStr"/>
+      <c r="O193" s="3" t="inlineStr"/>
+      <c r="P193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q193" s="3" t="inlineStr"/>
+      <c r="R193" s="3" t="inlineStr"/>
+      <c r="S193" s="3" t="inlineStr"/>
+      <c r="T193" s="3" t="inlineStr"/>
+      <c r="U193" s="3" t="inlineStr"/>
+      <c r="V193" s="3" t="inlineStr"/>
+      <c r="W193" s="3" t="inlineStr"/>
+      <c r="X193" s="3" t="inlineStr"/>
+      <c r="Y193" s="3" t="inlineStr"/>
       <c r="Z193" s="3" t="inlineStr"/>
-      <c r="AA193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA193" s="3" t="inlineStr"/>
+      <c r="AB193" s="3" t="inlineStr"/>
+      <c r="AC193" s="3" t="inlineStr"/>
       <c r="AD193" s="3" t="inlineStr"/>
-      <c r="AE193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE193" s="3" t="inlineStr"/>
+      <c r="AF193" s="3" t="inlineStr"/>
       <c r="AG193" s="3" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>AWS Wickr</t>
+          <t>AWS Elemental MediaTailor</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr"/>
-      <c r="C194" s="3" t="inlineStr"/>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="D194" s="3" t="inlineStr"/>
-      <c r="E194" s="3" t="inlineStr"/>
-      <c r="F194" s="3" t="inlineStr"/>
-      <c r="G194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G194" s="3" t="inlineStr"/>
       <c r="H194" s="3" t="inlineStr"/>
       <c r="I194" s="3" t="inlineStr"/>
       <c r="J194" s="2" t="inlineStr">
@@ -24334,23 +24338,43 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="K194" s="3" t="inlineStr"/>
-      <c r="L194" s="3" t="inlineStr"/>
-      <c r="M194" s="3" t="inlineStr"/>
+      <c r="K194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N194" s="3" t="inlineStr"/>
-      <c r="O194" s="3" t="inlineStr"/>
-      <c r="P194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="O194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P194" s="3" t="inlineStr"/>
       <c r="Q194" s="3" t="inlineStr"/>
-      <c r="R194" s="3" t="inlineStr"/>
+      <c r="R194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="S194" s="3" t="inlineStr"/>
       <c r="T194" s="3" t="inlineStr"/>
       <c r="U194" s="3" t="inlineStr"/>
       <c r="V194" s="3" t="inlineStr"/>
-      <c r="W194" s="3" t="inlineStr"/>
+      <c r="W194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X194" s="3" t="inlineStr"/>
       <c r="Y194" s="3" t="inlineStr"/>
       <c r="Z194" s="3" t="inlineStr"/>
@@ -24365,16 +24389,24 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaTailor</t>
-        </is>
-      </c>
-      <c r="B195" s="3" t="inlineStr"/>
+          <t>Amazon Elastic Container Registry (ECR)</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D195" s="3" t="inlineStr"/>
+      <c r="D195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="E195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24385,9 +24417,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G195" s="3" t="inlineStr"/>
-      <c r="H195" s="3" t="inlineStr"/>
-      <c r="I195" s="3" t="inlineStr"/>
+      <c r="G195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24408,43 +24452,111 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N195" s="3" t="inlineStr"/>
+      <c r="N195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P195" s="3" t="inlineStr"/>
-      <c r="Q195" s="3" t="inlineStr"/>
+      <c r="P195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S195" s="3" t="inlineStr"/>
-      <c r="T195" s="3" t="inlineStr"/>
-      <c r="U195" s="3" t="inlineStr"/>
-      <c r="V195" s="3" t="inlineStr"/>
+      <c r="S195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X195" s="3" t="inlineStr"/>
-      <c r="Y195" s="3" t="inlineStr"/>
-      <c r="Z195" s="3" t="inlineStr"/>
-      <c r="AA195" s="3" t="inlineStr"/>
-      <c r="AB195" s="3" t="inlineStr"/>
-      <c r="AC195" s="3" t="inlineStr"/>
-      <c r="AD195" s="3" t="inlineStr"/>
-      <c r="AE195" s="3" t="inlineStr"/>
-      <c r="AF195" s="3" t="inlineStr"/>
-      <c r="AG195" s="3" t="inlineStr"/>
+      <c r="X195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Amazon Elastic Container Registry (ECR)</t>
+          <t>Elastic Load Balancing</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
@@ -24611,7 +24723,7 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>Elastic Load Balancing</t>
+          <t>AWS CodeCommit</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
@@ -24714,11 +24826,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="V197" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V197" s="3" t="inlineStr"/>
       <c r="W197" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24734,31 +24842,19 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z197" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Z197" s="3" t="inlineStr"/>
       <c r="AA197" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB197" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB197" s="3" t="inlineStr"/>
       <c r="AC197" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD197" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD197" s="3" t="inlineStr"/>
       <c r="AE197" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24778,7 +24874,7 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>AWS CodeCommit</t>
+          <t>Amazon MemoryDB for Redis</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
@@ -24851,11 +24947,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P198" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P198" s="3" t="inlineStr"/>
       <c r="Q198" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24871,32 +24963,16 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T198" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T198" s="3" t="inlineStr"/>
       <c r="U198" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="V198" s="3" t="inlineStr"/>
-      <c r="W198" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X198" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y198" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W198" s="3" t="inlineStr"/>
+      <c r="X198" s="3" t="inlineStr"/>
+      <c r="Y198" s="3" t="inlineStr"/>
       <c r="Z198" s="3" t="inlineStr"/>
       <c r="AA198" s="2" t="inlineStr">
         <is>
@@ -24910,33 +24986,17 @@
         </is>
       </c>
       <c r="AD198" s="3" t="inlineStr"/>
-      <c r="AE198" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF198" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG198" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE198" s="3" t="inlineStr"/>
+      <c r="AF198" s="3" t="inlineStr"/>
+      <c r="AG198" s="3" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>Amazon MemoryDB for Redis</t>
-        </is>
-      </c>
-      <c r="B199" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Lookout for Vision</t>
+        </is>
+      </c>
+      <c r="B199" s="3" t="inlineStr"/>
       <c r="C199" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24947,31 +25007,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E199" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F199" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I199" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E199" s="3" t="inlineStr"/>
+      <c r="F199" s="3" t="inlineStr"/>
+      <c r="G199" s="3" t="inlineStr"/>
+      <c r="H199" s="3" t="inlineStr"/>
+      <c r="I199" s="3" t="inlineStr"/>
       <c r="J199" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24982,64 +25022,36 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L199" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L199" s="3" t="inlineStr"/>
       <c r="M199" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N199" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N199" s="3" t="inlineStr"/>
       <c r="O199" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="P199" s="3" t="inlineStr"/>
-      <c r="Q199" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q199" s="3" t="inlineStr"/>
       <c r="R199" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S199" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S199" s="3" t="inlineStr"/>
       <c r="T199" s="3" t="inlineStr"/>
-      <c r="U199" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U199" s="3" t="inlineStr"/>
       <c r="V199" s="3" t="inlineStr"/>
       <c r="W199" s="3" t="inlineStr"/>
       <c r="X199" s="3" t="inlineStr"/>
       <c r="Y199" s="3" t="inlineStr"/>
       <c r="Z199" s="3" t="inlineStr"/>
-      <c r="AA199" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA199" s="3" t="inlineStr"/>
       <c r="AB199" s="3" t="inlineStr"/>
-      <c r="AC199" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC199" s="3" t="inlineStr"/>
       <c r="AD199" s="3" t="inlineStr"/>
       <c r="AE199" s="3" t="inlineStr"/>
       <c r="AF199" s="3" t="inlineStr"/>
@@ -25215,232 +25227,208 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>Amazon Elastic File System (EFS)</t>
-        </is>
-      </c>
-      <c r="B201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Server Migration Service (SMS)</t>
+        </is>
+      </c>
+      <c r="B201" s="3" t="inlineStr"/>
+      <c r="C201" s="3" t="inlineStr"/>
+      <c r="D201" s="3" t="inlineStr"/>
+      <c r="E201" s="3" t="inlineStr"/>
+      <c r="F201" s="3" t="inlineStr"/>
+      <c r="G201" s="3" t="inlineStr"/>
+      <c r="H201" s="3" t="inlineStr"/>
+      <c r="I201" s="3" t="inlineStr"/>
+      <c r="J201" s="3" t="inlineStr"/>
+      <c r="K201" s="3" t="inlineStr"/>
+      <c r="L201" s="3" t="inlineStr"/>
+      <c r="M201" s="3" t="inlineStr"/>
+      <c r="N201" s="3" t="inlineStr"/>
+      <c r="O201" s="3" t="inlineStr"/>
       <c r="P201" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Q201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q201" s="3" t="inlineStr"/>
       <c r="R201" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S201" s="3" t="inlineStr"/>
+      <c r="T201" s="3" t="inlineStr"/>
       <c r="U201" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG201" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V201" s="3" t="inlineStr"/>
+      <c r="W201" s="3" t="inlineStr"/>
+      <c r="X201" s="3" t="inlineStr"/>
+      <c r="Y201" s="3" t="inlineStr"/>
+      <c r="Z201" s="3" t="inlineStr"/>
+      <c r="AA201" s="3" t="inlineStr"/>
+      <c r="AB201" s="3" t="inlineStr"/>
+      <c r="AC201" s="3" t="inlineStr"/>
+      <c r="AD201" s="3" t="inlineStr"/>
+      <c r="AE201" s="3" t="inlineStr"/>
+      <c r="AF201" s="3" t="inlineStr"/>
+      <c r="AG201" s="3" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>AWS Server Migration Service (SMS)</t>
-        </is>
-      </c>
-      <c r="B202" s="3" t="inlineStr"/>
-      <c r="C202" s="3" t="inlineStr"/>
-      <c r="D202" s="3" t="inlineStr"/>
-      <c r="E202" s="3" t="inlineStr"/>
-      <c r="F202" s="3" t="inlineStr"/>
-      <c r="G202" s="3" t="inlineStr"/>
-      <c r="H202" s="3" t="inlineStr"/>
-      <c r="I202" s="3" t="inlineStr"/>
-      <c r="J202" s="3" t="inlineStr"/>
-      <c r="K202" s="3" t="inlineStr"/>
-      <c r="L202" s="3" t="inlineStr"/>
-      <c r="M202" s="3" t="inlineStr"/>
-      <c r="N202" s="3" t="inlineStr"/>
-      <c r="O202" s="3" t="inlineStr"/>
-      <c r="P202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q202" s="3" t="inlineStr"/>
+          <t>AWS User Notifications</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="J202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P202" s="3" t="inlineStr"/>
+      <c r="Q202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R202" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S202" s="3" t="inlineStr"/>
-      <c r="T202" s="3" t="inlineStr"/>
-      <c r="U202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V202" s="3" t="inlineStr"/>
-      <c r="W202" s="3" t="inlineStr"/>
-      <c r="X202" s="3" t="inlineStr"/>
-      <c r="Y202" s="3" t="inlineStr"/>
-      <c r="Z202" s="3" t="inlineStr"/>
-      <c r="AA202" s="3" t="inlineStr"/>
-      <c r="AB202" s="3" t="inlineStr"/>
+      <c r="S202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U202" s="3" t="inlineStr"/>
+      <c r="V202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC202" s="3" t="inlineStr"/>
       <c r="AD202" s="3" t="inlineStr"/>
-      <c r="AE202" s="3" t="inlineStr"/>
-      <c r="AF202" s="3" t="inlineStr"/>
+      <c r="AE202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF202" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AG202" s="3" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>AWS User Notifications</t>
-        </is>
-      </c>
-      <c r="B203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Inspector Classic</t>
+        </is>
+      </c>
+      <c r="B203" s="3" t="inlineStr"/>
       <c r="C203" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25461,21 +25449,13 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G203" s="3" t="inlineStr"/>
       <c r="H203" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I203" s="3" t="inlineStr"/>
       <c r="J203" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25486,11 +25466,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L203" s="3" t="inlineStr"/>
       <c r="M203" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25506,7 +25482,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P203" s="3" t="inlineStr"/>
+      <c r="P203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q203" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25517,141 +25497,53 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S203" s="3" t="inlineStr"/>
+      <c r="T203" s="3" t="inlineStr"/>
       <c r="U203" s="3" t="inlineStr"/>
-      <c r="V203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V203" s="3" t="inlineStr"/>
+      <c r="W203" s="3" t="inlineStr"/>
+      <c r="X203" s="3" t="inlineStr"/>
+      <c r="Y203" s="3" t="inlineStr"/>
+      <c r="Z203" s="3" t="inlineStr"/>
+      <c r="AA203" s="3" t="inlineStr"/>
+      <c r="AB203" s="3" t="inlineStr"/>
       <c r="AC203" s="3" t="inlineStr"/>
       <c r="AD203" s="3" t="inlineStr"/>
-      <c r="AE203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG203" s="3" t="inlineStr"/>
+      <c r="AE203" s="3" t="inlineStr"/>
+      <c r="AF203" s="3" t="inlineStr"/>
+      <c r="AG203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>Amazon Inspector Classic</t>
+          <t>AWS DeepRacer</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr"/>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C204" s="3" t="inlineStr"/>
+      <c r="D204" s="3" t="inlineStr"/>
+      <c r="E204" s="3" t="inlineStr"/>
+      <c r="F204" s="3" t="inlineStr"/>
       <c r="G204" s="3" t="inlineStr"/>
-      <c r="H204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="H204" s="3" t="inlineStr"/>
       <c r="I204" s="3" t="inlineStr"/>
       <c r="J204" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K204" s="3" t="inlineStr"/>
       <c r="L204" s="3" t="inlineStr"/>
-      <c r="M204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="M204" s="3" t="inlineStr"/>
+      <c r="N204" s="3" t="inlineStr"/>
+      <c r="O204" s="3" t="inlineStr"/>
+      <c r="P204" s="3" t="inlineStr"/>
+      <c r="Q204" s="3" t="inlineStr"/>
+      <c r="R204" s="3" t="inlineStr"/>
       <c r="S204" s="3" t="inlineStr"/>
       <c r="T204" s="3" t="inlineStr"/>
       <c r="U204" s="3" t="inlineStr"/>
@@ -25666,39 +25558,71 @@
       <c r="AD204" s="3" t="inlineStr"/>
       <c r="AE204" s="3" t="inlineStr"/>
       <c r="AF204" s="3" t="inlineStr"/>
-      <c r="AG204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AG204" s="3" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>AWS DeepRacer</t>
+          <t>Amazon CodeGuru</t>
         </is>
       </c>
       <c r="B205" s="3" t="inlineStr"/>
-      <c r="C205" s="3" t="inlineStr"/>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="D205" s="3" t="inlineStr"/>
       <c r="E205" s="3" t="inlineStr"/>
-      <c r="F205" s="3" t="inlineStr"/>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="G205" s="3" t="inlineStr"/>
-      <c r="H205" s="3" t="inlineStr"/>
+      <c r="H205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="I205" s="3" t="inlineStr"/>
       <c r="J205" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K205" s="3" t="inlineStr"/>
-      <c r="L205" s="3" t="inlineStr"/>
-      <c r="M205" s="3" t="inlineStr"/>
-      <c r="N205" s="3" t="inlineStr"/>
-      <c r="O205" s="3" t="inlineStr"/>
+      <c r="K205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="P205" s="3" t="inlineStr"/>
       <c r="Q205" s="3" t="inlineStr"/>
-      <c r="R205" s="3" t="inlineStr"/>
+      <c r="R205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="S205" s="3" t="inlineStr"/>
       <c r="T205" s="3" t="inlineStr"/>
       <c r="U205" s="3" t="inlineStr"/>
@@ -25718,29 +25642,49 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Amazon CodeGuru</t>
-        </is>
-      </c>
-      <c r="B206" s="3" t="inlineStr"/>
+          <t>Amazon Elastic File System (EFS)</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D206" s="3" t="inlineStr"/>
-      <c r="E206" s="3" t="inlineStr"/>
+      <c r="D206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G206" s="3" t="inlineStr"/>
+      <c r="G206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I206" s="3" t="inlineStr"/>
+      <c r="I206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25771,28 +25715,96 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P206" s="3" t="inlineStr"/>
-      <c r="Q206" s="3" t="inlineStr"/>
+      <c r="P206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S206" s="3" t="inlineStr"/>
-      <c r="T206" s="3" t="inlineStr"/>
-      <c r="U206" s="3" t="inlineStr"/>
-      <c r="V206" s="3" t="inlineStr"/>
-      <c r="W206" s="3" t="inlineStr"/>
-      <c r="X206" s="3" t="inlineStr"/>
-      <c r="Y206" s="3" t="inlineStr"/>
-      <c r="Z206" s="3" t="inlineStr"/>
-      <c r="AA206" s="3" t="inlineStr"/>
-      <c r="AB206" s="3" t="inlineStr"/>
-      <c r="AC206" s="3" t="inlineStr"/>
-      <c r="AD206" s="3" t="inlineStr"/>
-      <c r="AE206" s="3" t="inlineStr"/>
-      <c r="AF206" s="3" t="inlineStr"/>
-      <c r="AG206" s="3" t="inlineStr"/>
+      <c r="S206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG206" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -26578,7 +26590,7 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaConnect</t>
+          <t>AWS Config</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
@@ -26651,7 +26663,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P214" s="3" t="inlineStr"/>
+      <c r="P214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q214" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26672,195 +26688,127 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U214" s="3" t="inlineStr"/>
-      <c r="V214" s="3" t="inlineStr"/>
+      <c r="U214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W214" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X214" s="3" t="inlineStr"/>
-      <c r="Y214" s="3" t="inlineStr"/>
-      <c r="Z214" s="3" t="inlineStr"/>
-      <c r="AA214" s="3" t="inlineStr"/>
-      <c r="AB214" s="3" t="inlineStr"/>
-      <c r="AC214" s="3" t="inlineStr"/>
-      <c r="AD214" s="3" t="inlineStr"/>
-      <c r="AE214" s="3" t="inlineStr"/>
-      <c r="AF214" s="3" t="inlineStr"/>
-      <c r="AG214" s="3" t="inlineStr"/>
+      <c r="X214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG214" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>AWS Config</t>
-        </is>
-      </c>
-      <c r="B215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon WorkMail</t>
+        </is>
+      </c>
+      <c r="B215" s="3" t="inlineStr"/>
+      <c r="C215" s="3" t="inlineStr"/>
+      <c r="D215" s="3" t="inlineStr"/>
+      <c r="E215" s="3" t="inlineStr"/>
+      <c r="F215" s="3" t="inlineStr"/>
+      <c r="G215" s="3" t="inlineStr"/>
+      <c r="H215" s="3" t="inlineStr"/>
+      <c r="I215" s="3" t="inlineStr"/>
       <c r="J215" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K215" s="3" t="inlineStr"/>
+      <c r="L215" s="3" t="inlineStr"/>
+      <c r="M215" s="3" t="inlineStr"/>
+      <c r="N215" s="3" t="inlineStr"/>
       <c r="O215" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P215" s="3" t="inlineStr"/>
+      <c r="Q215" s="3" t="inlineStr"/>
       <c r="R215" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S215" s="3" t="inlineStr"/>
+      <c r="T215" s="3" t="inlineStr"/>
+      <c r="U215" s="3" t="inlineStr"/>
+      <c r="V215" s="3" t="inlineStr"/>
+      <c r="W215" s="3" t="inlineStr"/>
+      <c r="X215" s="3" t="inlineStr"/>
+      <c r="Y215" s="3" t="inlineStr"/>
+      <c r="Z215" s="3" t="inlineStr"/>
+      <c r="AA215" s="3" t="inlineStr"/>
+      <c r="AB215" s="3" t="inlineStr"/>
+      <c r="AC215" s="3" t="inlineStr"/>
+      <c r="AD215" s="3" t="inlineStr"/>
+      <c r="AE215" s="3" t="inlineStr"/>
+      <c r="AF215" s="3" t="inlineStr"/>
+      <c r="AG215" s="3" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>Amazon CloudFront</t>
+          <t>AWS Security Hub</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
@@ -26933,7 +26881,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P216" s="3" t="inlineStr"/>
+      <c r="P216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q216" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27014,48 +26966,116 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AG216" s="3" t="inlineStr"/>
+      <c r="AG216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>Amazon WorkMail</t>
-        </is>
-      </c>
-      <c r="B217" s="3" t="inlineStr"/>
-      <c r="C217" s="3" t="inlineStr"/>
-      <c r="D217" s="3" t="inlineStr"/>
-      <c r="E217" s="3" t="inlineStr"/>
-      <c r="F217" s="3" t="inlineStr"/>
-      <c r="G217" s="3" t="inlineStr"/>
-      <c r="H217" s="3" t="inlineStr"/>
-      <c r="I217" s="3" t="inlineStr"/>
+          <t>AWS Elemental MediaConnect</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K217" s="3" t="inlineStr"/>
-      <c r="L217" s="3" t="inlineStr"/>
-      <c r="M217" s="3" t="inlineStr"/>
-      <c r="N217" s="3" t="inlineStr"/>
+      <c r="K217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O217" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="P217" s="3" t="inlineStr"/>
-      <c r="Q217" s="3" t="inlineStr"/>
+      <c r="Q217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R217" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S217" s="3" t="inlineStr"/>
-      <c r="T217" s="3" t="inlineStr"/>
+      <c r="S217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U217" s="3" t="inlineStr"/>
       <c r="V217" s="3" t="inlineStr"/>
-      <c r="W217" s="3" t="inlineStr"/>
+      <c r="W217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X217" s="3" t="inlineStr"/>
       <c r="Y217" s="3" t="inlineStr"/>
       <c r="Z217" s="3" t="inlineStr"/>
@@ -27070,7 +27090,7 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>AWS Security Hub</t>
+          <t>AWS App Mesh</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
@@ -27143,11 +27163,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P218" s="3" t="inlineStr"/>
       <c r="Q218" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27173,214 +27189,98 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="V218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V218" s="3" t="inlineStr"/>
       <c r="W218" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X218" s="3" t="inlineStr"/>
       <c r="Y218" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Z218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Z218" s="3" t="inlineStr"/>
       <c r="AA218" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB218" s="3" t="inlineStr"/>
       <c r="AC218" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD218" s="3" t="inlineStr"/>
+      <c r="AE218" s="3" t="inlineStr"/>
       <c r="AF218" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AG218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AG218" s="3" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>AWS App Mesh</t>
-        </is>
-      </c>
-      <c r="B219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS DeepLens</t>
+        </is>
+      </c>
+      <c r="B219" s="3" t="inlineStr"/>
       <c r="C219" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D219" s="3" t="inlineStr"/>
+      <c r="E219" s="3" t="inlineStr"/>
+      <c r="F219" s="3" t="inlineStr"/>
+      <c r="G219" s="3" t="inlineStr"/>
+      <c r="H219" s="3" t="inlineStr"/>
+      <c r="I219" s="3" t="inlineStr"/>
       <c r="J219" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K219" s="3" t="inlineStr"/>
+      <c r="L219" s="3" t="inlineStr"/>
       <c r="M219" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N219" s="3" t="inlineStr"/>
+      <c r="O219" s="3" t="inlineStr"/>
       <c r="P219" s="3" t="inlineStr"/>
-      <c r="Q219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q219" s="3" t="inlineStr"/>
+      <c r="R219" s="3" t="inlineStr"/>
+      <c r="S219" s="3" t="inlineStr"/>
+      <c r="T219" s="3" t="inlineStr"/>
+      <c r="U219" s="3" t="inlineStr"/>
       <c r="V219" s="3" t="inlineStr"/>
-      <c r="W219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W219" s="3" t="inlineStr"/>
       <c r="X219" s="3" t="inlineStr"/>
-      <c r="Y219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Y219" s="3" t="inlineStr"/>
       <c r="Z219" s="3" t="inlineStr"/>
-      <c r="AA219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA219" s="3" t="inlineStr"/>
       <c r="AB219" s="3" t="inlineStr"/>
-      <c r="AC219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC219" s="3" t="inlineStr"/>
       <c r="AD219" s="3" t="inlineStr"/>
       <c r="AE219" s="3" t="inlineStr"/>
-      <c r="AF219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF219" s="3" t="inlineStr"/>
       <c r="AG219" s="3" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>AWS DeepLens</t>
+          <t>AWS Cost and Usage Report</t>
         </is>
       </c>
       <c r="B220" s="3" t="inlineStr"/>
-      <c r="C220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C220" s="3" t="inlineStr"/>
       <c r="D220" s="3" t="inlineStr"/>
       <c r="E220" s="3" t="inlineStr"/>
       <c r="F220" s="3" t="inlineStr"/>
@@ -27394,11 +27294,7 @@
       </c>
       <c r="K220" s="3" t="inlineStr"/>
       <c r="L220" s="3" t="inlineStr"/>
-      <c r="M220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="M220" s="3" t="inlineStr"/>
       <c r="N220" s="3" t="inlineStr"/>
       <c r="O220" s="3" t="inlineStr"/>
       <c r="P220" s="3" t="inlineStr"/>
@@ -27414,7 +27310,11 @@
       <c r="Z220" s="3" t="inlineStr"/>
       <c r="AA220" s="3" t="inlineStr"/>
       <c r="AB220" s="3" t="inlineStr"/>
-      <c r="AC220" s="3" t="inlineStr"/>
+      <c r="AC220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD220" s="3" t="inlineStr"/>
       <c r="AE220" s="3" t="inlineStr"/>
       <c r="AF220" s="3" t="inlineStr"/>
@@ -27423,48 +27323,160 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>AWS Cost and Usage Report</t>
-        </is>
-      </c>
-      <c r="B221" s="3" t="inlineStr"/>
-      <c r="C221" s="3" t="inlineStr"/>
-      <c r="D221" s="3" t="inlineStr"/>
-      <c r="E221" s="3" t="inlineStr"/>
-      <c r="F221" s="3" t="inlineStr"/>
-      <c r="G221" s="3" t="inlineStr"/>
-      <c r="H221" s="3" t="inlineStr"/>
-      <c r="I221" s="3" t="inlineStr"/>
+          <t>Amazon CloudFront</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K221" s="3" t="inlineStr"/>
-      <c r="L221" s="3" t="inlineStr"/>
-      <c r="M221" s="3" t="inlineStr"/>
-      <c r="N221" s="3" t="inlineStr"/>
-      <c r="O221" s="3" t="inlineStr"/>
+      <c r="K221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="P221" s="3" t="inlineStr"/>
-      <c r="Q221" s="3" t="inlineStr"/>
-      <c r="R221" s="3" t="inlineStr"/>
-      <c r="S221" s="3" t="inlineStr"/>
-      <c r="T221" s="3" t="inlineStr"/>
-      <c r="U221" s="3" t="inlineStr"/>
-      <c r="V221" s="3" t="inlineStr"/>
-      <c r="W221" s="3" t="inlineStr"/>
-      <c r="X221" s="3" t="inlineStr"/>
-      <c r="Y221" s="3" t="inlineStr"/>
-      <c r="Z221" s="3" t="inlineStr"/>
-      <c r="AA221" s="3" t="inlineStr"/>
-      <c r="AB221" s="3" t="inlineStr"/>
+      <c r="Q221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC221" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD221" s="3" t="inlineStr"/>
-      <c r="AE221" s="3" t="inlineStr"/>
-      <c r="AF221" s="3" t="inlineStr"/>
+      <c r="AD221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF221" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AG221" s="3" t="inlineStr"/>
     </row>
     <row r="222">
@@ -27855,170 +27867,74 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for Windows File Server</t>
-        </is>
-      </c>
-      <c r="B225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Application Discovery Service</t>
+        </is>
+      </c>
+      <c r="B225" s="3" t="inlineStr"/>
       <c r="C225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D225" s="3" t="inlineStr"/>
+      <c r="E225" s="3" t="inlineStr"/>
       <c r="F225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G225" s="3" t="inlineStr"/>
       <c r="H225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I225" s="3" t="inlineStr"/>
       <c r="J225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K225" s="3" t="inlineStr"/>
+      <c r="L225" s="3" t="inlineStr"/>
       <c r="M225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N225" s="3" t="inlineStr"/>
       <c r="O225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P225" s="3" t="inlineStr"/>
+      <c r="Q225" s="3" t="inlineStr"/>
       <c r="R225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S225" s="3" t="inlineStr"/>
+      <c r="T225" s="3" t="inlineStr"/>
+      <c r="U225" s="3" t="inlineStr"/>
+      <c r="V225" s="3" t="inlineStr"/>
+      <c r="W225" s="3" t="inlineStr"/>
+      <c r="X225" s="3" t="inlineStr"/>
+      <c r="Y225" s="3" t="inlineStr"/>
+      <c r="Z225" s="3" t="inlineStr"/>
+      <c r="AA225" s="3" t="inlineStr"/>
+      <c r="AB225" s="3" t="inlineStr"/>
+      <c r="AC225" s="3" t="inlineStr"/>
       <c r="AD225" s="3" t="inlineStr"/>
-      <c r="AE225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE225" s="3" t="inlineStr"/>
+      <c r="AF225" s="3" t="inlineStr"/>
+      <c r="AG225" s="3" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>AWS Application Discovery Service</t>
+          <t>AWS App Runner</t>
         </is>
       </c>
       <c r="B226" s="3" t="inlineStr"/>
@@ -28035,19 +27951,23 @@
         </is>
       </c>
       <c r="G226" s="3" t="inlineStr"/>
-      <c r="H226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="H226" s="3" t="inlineStr"/>
       <c r="I226" s="3" t="inlineStr"/>
       <c r="J226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K226" s="3" t="inlineStr"/>
-      <c r="L226" s="3" t="inlineStr"/>
+      <c r="K226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28085,7 +28005,7 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>AWS App Runner</t>
+          <t>AWS Elemental MediaStore</t>
         </is>
       </c>
       <c r="B227" s="3" t="inlineStr"/>
@@ -28094,7 +28014,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="D227" s="3" t="inlineStr"/>
+      <c r="D227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="E227" s="3" t="inlineStr"/>
       <c r="F227" s="2" t="inlineStr">
         <is>
@@ -28102,29 +28026,29 @@
         </is>
       </c>
       <c r="G227" s="3" t="inlineStr"/>
-      <c r="H227" s="3" t="inlineStr"/>
+      <c r="H227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="I227" s="3" t="inlineStr"/>
       <c r="J227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K227" s="3" t="inlineStr"/>
+      <c r="L227" s="3" t="inlineStr"/>
       <c r="M227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N227" s="3" t="inlineStr"/>
+      <c r="N227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28156,10 +28080,14 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaStore</t>
-        </is>
-      </c>
-      <c r="B228" s="3" t="inlineStr"/>
+          <t>Amazon Route 53 Application Recovery Controller</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28170,26 +28098,46 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E228" s="3" t="inlineStr"/>
+      <c r="E228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G228" s="3" t="inlineStr"/>
+      <c r="G228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I228" s="3" t="inlineStr"/>
+      <c r="I228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K228" s="3" t="inlineStr"/>
-      <c r="L228" s="3" t="inlineStr"/>
+      <c r="K228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28206,32 +28154,56 @@
         </is>
       </c>
       <c r="P228" s="3" t="inlineStr"/>
-      <c r="Q228" s="3" t="inlineStr"/>
+      <c r="Q228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S228" s="3" t="inlineStr"/>
-      <c r="T228" s="3" t="inlineStr"/>
+      <c r="S228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U228" s="3" t="inlineStr"/>
       <c r="V228" s="3" t="inlineStr"/>
-      <c r="W228" s="3" t="inlineStr"/>
+      <c r="W228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X228" s="3" t="inlineStr"/>
       <c r="Y228" s="3" t="inlineStr"/>
       <c r="Z228" s="3" t="inlineStr"/>
-      <c r="AA228" s="3" t="inlineStr"/>
+      <c r="AA228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB228" s="3" t="inlineStr"/>
       <c r="AC228" s="3" t="inlineStr"/>
       <c r="AD228" s="3" t="inlineStr"/>
       <c r="AE228" s="3" t="inlineStr"/>
-      <c r="AF228" s="3" t="inlineStr"/>
+      <c r="AF228" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AG228" s="3" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>Amazon Route 53 Application Recovery Controller</t>
+          <t>AWS Cloud Control API</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
@@ -28304,7 +28276,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P229" s="3" t="inlineStr"/>
+      <c r="P229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28325,36 +28301,76 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U229" s="3" t="inlineStr"/>
-      <c r="V229" s="3" t="inlineStr"/>
+      <c r="U229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X229" s="3" t="inlineStr"/>
-      <c r="Y229" s="3" t="inlineStr"/>
-      <c r="Z229" s="3" t="inlineStr"/>
+      <c r="X229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB229" s="3" t="inlineStr"/>
-      <c r="AC229" s="3" t="inlineStr"/>
-      <c r="AD229" s="3" t="inlineStr"/>
-      <c r="AE229" s="3" t="inlineStr"/>
+      <c r="AB229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AG229" s="3" t="inlineStr"/>
+      <c r="AG229" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>AWS Cloud Control API</t>
+          <t>Amazon FSx for Windows File Server</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
@@ -28521,173 +28537,221 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>Amazon Chime SDK</t>
+          <t>AWS Cost Explorer</t>
         </is>
       </c>
       <c r="B231" s="3" t="inlineStr"/>
-      <c r="C231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C231" s="3" t="inlineStr"/>
+      <c r="D231" s="3" t="inlineStr"/>
+      <c r="E231" s="3" t="inlineStr"/>
+      <c r="F231" s="3" t="inlineStr"/>
+      <c r="G231" s="3" t="inlineStr"/>
+      <c r="H231" s="3" t="inlineStr"/>
+      <c r="I231" s="3" t="inlineStr"/>
       <c r="J231" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K231" s="3" t="inlineStr"/>
+      <c r="L231" s="3" t="inlineStr"/>
+      <c r="M231" s="3" t="inlineStr"/>
+      <c r="N231" s="3" t="inlineStr"/>
+      <c r="O231" s="3" t="inlineStr"/>
+      <c r="P231" s="3" t="inlineStr"/>
+      <c r="Q231" s="3" t="inlineStr"/>
+      <c r="R231" s="3" t="inlineStr"/>
+      <c r="S231" s="3" t="inlineStr"/>
       <c r="T231" s="3" t="inlineStr"/>
       <c r="U231" s="3" t="inlineStr"/>
       <c r="V231" s="3" t="inlineStr"/>
-      <c r="W231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W231" s="3" t="inlineStr"/>
       <c r="X231" s="3" t="inlineStr"/>
       <c r="Y231" s="3" t="inlineStr"/>
       <c r="Z231" s="3" t="inlineStr"/>
-      <c r="AA231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA231" s="3" t="inlineStr"/>
       <c r="AB231" s="3" t="inlineStr"/>
-      <c r="AC231" s="3" t="inlineStr"/>
+      <c r="AC231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD231" s="3" t="inlineStr"/>
       <c r="AE231" s="3" t="inlineStr"/>
       <c r="AF231" s="3" t="inlineStr"/>
-      <c r="AG231" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AG231" s="3" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>AWS Cost Explorer</t>
-        </is>
-      </c>
-      <c r="B232" s="3" t="inlineStr"/>
-      <c r="C232" s="3" t="inlineStr"/>
-      <c r="D232" s="3" t="inlineStr"/>
-      <c r="E232" s="3" t="inlineStr"/>
-      <c r="F232" s="3" t="inlineStr"/>
-      <c r="G232" s="3" t="inlineStr"/>
-      <c r="H232" s="3" t="inlineStr"/>
-      <c r="I232" s="3" t="inlineStr"/>
+          <t>Amazon Elastic Container Service (ECS)</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J232" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K232" s="3" t="inlineStr"/>
-      <c r="L232" s="3" t="inlineStr"/>
-      <c r="M232" s="3" t="inlineStr"/>
-      <c r="N232" s="3" t="inlineStr"/>
-      <c r="O232" s="3" t="inlineStr"/>
-      <c r="P232" s="3" t="inlineStr"/>
-      <c r="Q232" s="3" t="inlineStr"/>
-      <c r="R232" s="3" t="inlineStr"/>
-      <c r="S232" s="3" t="inlineStr"/>
-      <c r="T232" s="3" t="inlineStr"/>
-      <c r="U232" s="3" t="inlineStr"/>
-      <c r="V232" s="3" t="inlineStr"/>
-      <c r="W232" s="3" t="inlineStr"/>
-      <c r="X232" s="3" t="inlineStr"/>
-      <c r="Y232" s="3" t="inlineStr"/>
-      <c r="Z232" s="3" t="inlineStr"/>
-      <c r="AA232" s="3" t="inlineStr"/>
-      <c r="AB232" s="3" t="inlineStr"/>
+      <c r="K232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC232" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD232" s="3" t="inlineStr"/>
-      <c r="AE232" s="3" t="inlineStr"/>
-      <c r="AF232" s="3" t="inlineStr"/>
-      <c r="AG232" s="3" t="inlineStr"/>
+      <c r="AD232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>Amazon Elastic Container Service (ECS)</t>
+          <t>AWS CodeBuild</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
@@ -28854,14 +28918,10 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>AWS CodeBuild</t>
-        </is>
-      </c>
-      <c r="B234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Chime SDK</t>
+        </is>
+      </c>
+      <c r="B234" s="3" t="inlineStr"/>
       <c r="C234" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28947,71 +29007,27 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T234" s="3" t="inlineStr"/>
+      <c r="U234" s="3" t="inlineStr"/>
+      <c r="V234" s="3" t="inlineStr"/>
       <c r="W234" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X234" s="3" t="inlineStr"/>
+      <c r="Y234" s="3" t="inlineStr"/>
+      <c r="Z234" s="3" t="inlineStr"/>
       <c r="AA234" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB234" s="3" t="inlineStr"/>
+      <c r="AC234" s="3" t="inlineStr"/>
+      <c r="AD234" s="3" t="inlineStr"/>
+      <c r="AE234" s="3" t="inlineStr"/>
+      <c r="AF234" s="3" t="inlineStr"/>
       <c r="AG234" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -12064,7 +12064,11 @@
       </c>
       <c r="AB95" s="3" t="inlineStr"/>
       <c r="AC95" s="3" t="inlineStr"/>
-      <c r="AD95" s="3" t="inlineStr"/>
+      <c r="AD95" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE95" s="3" t="inlineStr"/>
       <c r="AF95" s="2" t="inlineStr">
         <is>
@@ -15050,7 +15054,11 @@
       <c r="AA117" s="3" t="inlineStr"/>
       <c r="AB117" s="3" t="inlineStr"/>
       <c r="AC117" s="3" t="inlineStr"/>
-      <c r="AD117" s="3" t="inlineStr"/>
+      <c r="AD117" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE117" s="3" t="inlineStr"/>
       <c r="AF117" s="3" t="inlineStr"/>
       <c r="AG117" s="3" t="inlineStr"/>
@@ -17903,7 +17911,11 @@
       </c>
       <c r="AB140" s="3" t="inlineStr"/>
       <c r="AC140" s="3" t="inlineStr"/>
-      <c r="AD140" s="3" t="inlineStr"/>
+      <c r="AD140" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE140" s="3" t="inlineStr"/>
       <c r="AF140" s="2" t="inlineStr">
         <is>
@@ -27213,7 +27225,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD218" s="3" t="inlineStr"/>
+      <c r="AD218" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE218" s="3" t="inlineStr"/>
       <c r="AF218" s="2" t="inlineStr">
         <is>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -22363,7 +22363,11 @@
       </c>
       <c r="AB176" s="3" t="inlineStr"/>
       <c r="AC176" s="3" t="inlineStr"/>
-      <c r="AD176" s="3" t="inlineStr"/>
+      <c r="AD176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE176" s="3" t="inlineStr"/>
       <c r="AF176" s="2" t="inlineStr">
         <is>
@@ -24284,7 +24288,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="H193" s="3" t="inlineStr"/>
+      <c r="H193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="I193" s="3" t="inlineStr"/>
       <c r="J193" s="2" t="inlineStr">
         <is>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -11295,7 +11295,11 @@
       </c>
       <c r="AB88" s="3" t="inlineStr"/>
       <c r="AC88" s="3" t="inlineStr"/>
-      <c r="AD88" s="3" t="inlineStr"/>
+      <c r="AD88" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE88" s="3" t="inlineStr"/>
       <c r="AF88" s="2" t="inlineStr">
         <is>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -10920,7 +10920,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T85" s="3" t="inlineStr"/>
+      <c r="T85" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U85" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -10938,7 +10942,11 @@
       </c>
       <c r="AB85" s="3" t="inlineStr"/>
       <c r="AC85" s="3" t="inlineStr"/>
-      <c r="AD85" s="3" t="inlineStr"/>
+      <c r="AD85" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE85" s="3" t="inlineStr"/>
       <c r="AF85" s="2" t="inlineStr">
         <is>
@@ -13136,7 +13144,11 @@
       </c>
       <c r="AB103" s="3" t="inlineStr"/>
       <c r="AC103" s="3" t="inlineStr"/>
-      <c r="AD103" s="3" t="inlineStr"/>
+      <c r="AD103" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE103" s="3" t="inlineStr"/>
       <c r="AF103" s="2" t="inlineStr">
         <is>
@@ -24878,7 +24890,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD197" s="3" t="inlineStr"/>
+      <c r="AD197" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE197" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -29053,7 +29069,11 @@
       </c>
       <c r="AB234" s="3" t="inlineStr"/>
       <c r="AC234" s="3" t="inlineStr"/>
-      <c r="AD234" s="3" t="inlineStr"/>
+      <c r="AD234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE234" s="3" t="inlineStr"/>
       <c r="AF234" s="3" t="inlineStr"/>
       <c r="AG234" s="2" t="inlineStr">

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -18662,7 +18662,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD145" s="3" t="inlineStr"/>
+      <c r="AD145" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE145" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -12239,7 +12239,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD96" s="3" t="inlineStr"/>
+      <c r="AD96" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE96" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19893,7 +19897,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P156" s="3" t="inlineStr"/>
+      <c r="P156" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q156" s="3" t="inlineStr"/>
       <c r="R156" s="2" t="inlineStr">
         <is>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -2298,7 +2298,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AB15" s="3" t="inlineStr"/>
+      <c r="AB15" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC15" s="3" t="inlineStr"/>
       <c r="AD15" s="3" t="inlineStr"/>
       <c r="AE15" s="2" t="inlineStr">

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -4973,7 +4973,11 @@
         </is>
       </c>
       <c r="AC38" s="3" t="inlineStr"/>
-      <c r="AD38" s="3" t="inlineStr"/>
+      <c r="AD38" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE38" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26624,7 +26628,11 @@
       </c>
       <c r="V213" s="3" t="inlineStr"/>
       <c r="W213" s="3" t="inlineStr"/>
-      <c r="X213" s="3" t="inlineStr"/>
+      <c r="X213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Y213" s="3" t="inlineStr"/>
       <c r="Z213" s="3" t="inlineStr"/>
       <c r="AA213" s="2" t="inlineStr">

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -11953,7 +11953,11 @@
         </is>
       </c>
       <c r="AC94" s="3" t="inlineStr"/>
-      <c r="AD94" s="3" t="inlineStr"/>
+      <c r="AD94" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE94" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -15229,7 +15229,11 @@
         </is>
       </c>
       <c r="AC118" s="3" t="inlineStr"/>
-      <c r="AD118" s="3" t="inlineStr"/>
+      <c r="AD118" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE118" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -11291,13 +11291,21 @@
         </is>
       </c>
       <c r="U88" s="3" t="inlineStr"/>
-      <c r="V88" s="3" t="inlineStr"/>
+      <c r="V88" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W88" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X88" s="3" t="inlineStr"/>
+      <c r="X88" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Y88" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -11309,14 +11317,22 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AB88" s="3" t="inlineStr"/>
+      <c r="AB88" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC88" s="3" t="inlineStr"/>
       <c r="AD88" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AE88" s="3" t="inlineStr"/>
+      <c r="AE88" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF88" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -13156,7 +13156,11 @@
         </is>
       </c>
       <c r="U103" s="3" t="inlineStr"/>
-      <c r="V103" s="3" t="inlineStr"/>
+      <c r="V103" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W103" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -13155,7 +13155,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U103" s="3" t="inlineStr"/>
+      <c r="U103" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V103" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -13179,7 +13183,11 @@
         </is>
       </c>
       <c r="AB103" s="3" t="inlineStr"/>
-      <c r="AC103" s="3" t="inlineStr"/>
+      <c r="AC103" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD103" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG234"/>
+  <dimension ref="A1:AG235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26578,7 +26578,11 @@
           <t>Amazon DocumentDB (with MongoDB compatibility)</t>
         </is>
       </c>
-      <c r="B213" s="3" t="inlineStr"/>
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27075,107 +27079,39 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaConnect</t>
-        </is>
-      </c>
-      <c r="B217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Payment Cryptography</t>
+        </is>
+      </c>
+      <c r="B217" s="3" t="inlineStr"/>
+      <c r="C217" s="3" t="inlineStr"/>
+      <c r="D217" s="3" t="inlineStr"/>
+      <c r="E217" s="3" t="inlineStr"/>
+      <c r="F217" s="3" t="inlineStr"/>
+      <c r="G217" s="3" t="inlineStr"/>
+      <c r="H217" s="3" t="inlineStr"/>
+      <c r="I217" s="3" t="inlineStr"/>
       <c r="J217" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K217" s="3" t="inlineStr"/>
+      <c r="L217" s="3" t="inlineStr"/>
+      <c r="M217" s="3" t="inlineStr"/>
+      <c r="N217" s="3" t="inlineStr"/>
+      <c r="O217" s="3" t="inlineStr"/>
       <c r="P217" s="3" t="inlineStr"/>
-      <c r="Q217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q217" s="3" t="inlineStr"/>
       <c r="R217" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S217" s="3" t="inlineStr"/>
+      <c r="T217" s="3" t="inlineStr"/>
       <c r="U217" s="3" t="inlineStr"/>
       <c r="V217" s="3" t="inlineStr"/>
-      <c r="W217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W217" s="3" t="inlineStr"/>
       <c r="X217" s="3" t="inlineStr"/>
       <c r="Y217" s="3" t="inlineStr"/>
       <c r="Z217" s="3" t="inlineStr"/>
@@ -27190,7 +27126,7 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>AWS App Mesh</t>
+          <t>AWS Elemental MediaConnect</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
@@ -27284,11 +27220,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U218" s="3" t="inlineStr"/>
       <c r="V218" s="3" t="inlineStr"/>
       <c r="W218" s="2" t="inlineStr">
         <is>
@@ -27296,95 +27228,167 @@
         </is>
       </c>
       <c r="X218" s="3" t="inlineStr"/>
-      <c r="Y218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Y218" s="3" t="inlineStr"/>
       <c r="Z218" s="3" t="inlineStr"/>
-      <c r="AA218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA218" s="3" t="inlineStr"/>
       <c r="AB218" s="3" t="inlineStr"/>
-      <c r="AC218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC218" s="3" t="inlineStr"/>
+      <c r="AD218" s="3" t="inlineStr"/>
       <c r="AE218" s="3" t="inlineStr"/>
-      <c r="AF218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF218" s="3" t="inlineStr"/>
       <c r="AG218" s="3" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>AWS DeepLens</t>
-        </is>
-      </c>
-      <c r="B219" s="3" t="inlineStr"/>
+          <t>AWS App Mesh</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D219" s="3" t="inlineStr"/>
-      <c r="E219" s="3" t="inlineStr"/>
-      <c r="F219" s="3" t="inlineStr"/>
-      <c r="G219" s="3" t="inlineStr"/>
-      <c r="H219" s="3" t="inlineStr"/>
-      <c r="I219" s="3" t="inlineStr"/>
+      <c r="D219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K219" s="3" t="inlineStr"/>
-      <c r="L219" s="3" t="inlineStr"/>
+      <c r="K219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M219" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N219" s="3" t="inlineStr"/>
-      <c r="O219" s="3" t="inlineStr"/>
+      <c r="N219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="P219" s="3" t="inlineStr"/>
-      <c r="Q219" s="3" t="inlineStr"/>
-      <c r="R219" s="3" t="inlineStr"/>
-      <c r="S219" s="3" t="inlineStr"/>
-      <c r="T219" s="3" t="inlineStr"/>
-      <c r="U219" s="3" t="inlineStr"/>
+      <c r="Q219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V219" s="3" t="inlineStr"/>
-      <c r="W219" s="3" t="inlineStr"/>
+      <c r="W219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X219" s="3" t="inlineStr"/>
-      <c r="Y219" s="3" t="inlineStr"/>
+      <c r="Y219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z219" s="3" t="inlineStr"/>
-      <c r="AA219" s="3" t="inlineStr"/>
+      <c r="AA219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB219" s="3" t="inlineStr"/>
-      <c r="AC219" s="3" t="inlineStr"/>
-      <c r="AD219" s="3" t="inlineStr"/>
+      <c r="AC219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE219" s="3" t="inlineStr"/>
-      <c r="AF219" s="3" t="inlineStr"/>
+      <c r="AF219" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AG219" s="3" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>AWS Cost and Usage Report</t>
+          <t>AWS DeepLens</t>
         </is>
       </c>
       <c r="B220" s="3" t="inlineStr"/>
-      <c r="C220" s="3" t="inlineStr"/>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="D220" s="3" t="inlineStr"/>
       <c r="E220" s="3" t="inlineStr"/>
       <c r="F220" s="3" t="inlineStr"/>
@@ -27398,7 +27402,11 @@
       </c>
       <c r="K220" s="3" t="inlineStr"/>
       <c r="L220" s="3" t="inlineStr"/>
-      <c r="M220" s="3" t="inlineStr"/>
+      <c r="M220" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N220" s="3" t="inlineStr"/>
       <c r="O220" s="3" t="inlineStr"/>
       <c r="P220" s="3" t="inlineStr"/>
@@ -27414,11 +27422,7 @@
       <c r="Z220" s="3" t="inlineStr"/>
       <c r="AA220" s="3" t="inlineStr"/>
       <c r="AB220" s="3" t="inlineStr"/>
-      <c r="AC220" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC220" s="3" t="inlineStr"/>
       <c r="AD220" s="3" t="inlineStr"/>
       <c r="AE220" s="3" t="inlineStr"/>
       <c r="AF220" s="3" t="inlineStr"/>
@@ -27427,169 +27431,61 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>Amazon CloudFront</t>
-        </is>
-      </c>
-      <c r="B221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Cost and Usage Report</t>
+        </is>
+      </c>
+      <c r="B221" s="3" t="inlineStr"/>
+      <c r="C221" s="3" t="inlineStr"/>
+      <c r="D221" s="3" t="inlineStr"/>
+      <c r="E221" s="3" t="inlineStr"/>
+      <c r="F221" s="3" t="inlineStr"/>
+      <c r="G221" s="3" t="inlineStr"/>
+      <c r="H221" s="3" t="inlineStr"/>
+      <c r="I221" s="3" t="inlineStr"/>
       <c r="J221" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K221" s="3" t="inlineStr"/>
+      <c r="L221" s="3" t="inlineStr"/>
+      <c r="M221" s="3" t="inlineStr"/>
+      <c r="N221" s="3" t="inlineStr"/>
+      <c r="O221" s="3" t="inlineStr"/>
       <c r="P221" s="3" t="inlineStr"/>
-      <c r="Q221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q221" s="3" t="inlineStr"/>
+      <c r="R221" s="3" t="inlineStr"/>
+      <c r="S221" s="3" t="inlineStr"/>
+      <c r="T221" s="3" t="inlineStr"/>
+      <c r="U221" s="3" t="inlineStr"/>
+      <c r="V221" s="3" t="inlineStr"/>
+      <c r="W221" s="3" t="inlineStr"/>
+      <c r="X221" s="3" t="inlineStr"/>
+      <c r="Y221" s="3" t="inlineStr"/>
+      <c r="Z221" s="3" t="inlineStr"/>
+      <c r="AA221" s="3" t="inlineStr"/>
+      <c r="AB221" s="3" t="inlineStr"/>
       <c r="AC221" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF221" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD221" s="3" t="inlineStr"/>
+      <c r="AE221" s="3" t="inlineStr"/>
+      <c r="AF221" s="3" t="inlineStr"/>
       <c r="AG221" s="3" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>Amazon Rekognition</t>
-        </is>
-      </c>
-      <c r="B222" s="3" t="inlineStr"/>
+          <t>Amazon CloudFront</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27620,7 +27516,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I222" s="3" t="inlineStr"/>
+      <c r="I222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27641,17 +27541,17 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N222" s="3" t="inlineStr"/>
+      <c r="N222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O222" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P222" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P222" s="3" t="inlineStr"/>
       <c r="Q222" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27662,37 +27562,85 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S222" s="3" t="inlineStr"/>
-      <c r="T222" s="3" t="inlineStr"/>
-      <c r="U222" s="3" t="inlineStr"/>
-      <c r="V222" s="3" t="inlineStr"/>
-      <c r="W222" s="3" t="inlineStr"/>
-      <c r="X222" s="3" t="inlineStr"/>
-      <c r="Y222" s="3" t="inlineStr"/>
-      <c r="Z222" s="3" t="inlineStr"/>
-      <c r="AA222" s="3" t="inlineStr"/>
-      <c r="AB222" s="3" t="inlineStr"/>
-      <c r="AC222" s="3" t="inlineStr"/>
+      <c r="S222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD222" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AE222" s="3" t="inlineStr"/>
-      <c r="AF222" s="3" t="inlineStr"/>
+      <c r="AE222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AG222" s="3" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>AWS Lambda</t>
-        </is>
-      </c>
-      <c r="B223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Rekognition</t>
+        </is>
+      </c>
+      <c r="B223" s="3" t="inlineStr"/>
       <c r="C223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27723,11 +27671,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I223" s="3" t="inlineStr"/>
       <c r="J223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27748,11 +27692,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N223" s="3" t="inlineStr"/>
       <c r="O223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27773,86 +27713,30 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S223" s="3" t="inlineStr"/>
+      <c r="T223" s="3" t="inlineStr"/>
+      <c r="U223" s="3" t="inlineStr"/>
+      <c r="V223" s="3" t="inlineStr"/>
+      <c r="W223" s="3" t="inlineStr"/>
+      <c r="X223" s="3" t="inlineStr"/>
+      <c r="Y223" s="3" t="inlineStr"/>
+      <c r="Z223" s="3" t="inlineStr"/>
+      <c r="AA223" s="3" t="inlineStr"/>
+      <c r="AB223" s="3" t="inlineStr"/>
+      <c r="AC223" s="3" t="inlineStr"/>
       <c r="AD223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AE223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE223" s="3" t="inlineStr"/>
+      <c r="AF223" s="3" t="inlineStr"/>
+      <c r="AG223" s="3" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>FreeRTOS</t>
+          <t>AWS Lambda</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
@@ -27925,7 +27809,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P224" s="3" t="inlineStr"/>
+      <c r="P224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27941,87 +27829,175 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T224" s="3" t="inlineStr"/>
+      <c r="T224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V224" s="3" t="inlineStr"/>
-      <c r="W224" s="3" t="inlineStr"/>
-      <c r="X224" s="3" t="inlineStr"/>
-      <c r="Y224" s="3" t="inlineStr"/>
-      <c r="Z224" s="3" t="inlineStr"/>
-      <c r="AA224" s="3" t="inlineStr"/>
-      <c r="AB224" s="3" t="inlineStr"/>
+      <c r="V224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD224" s="3" t="inlineStr"/>
-      <c r="AE224" s="3" t="inlineStr"/>
+      <c r="AD224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AG224" s="3" t="inlineStr"/>
+      <c r="AG224" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>AWS Application Discovery Service</t>
-        </is>
-      </c>
-      <c r="B225" s="3" t="inlineStr"/>
+          <t>FreeRTOS</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D225" s="3" t="inlineStr"/>
-      <c r="E225" s="3" t="inlineStr"/>
+      <c r="D225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G225" s="3" t="inlineStr"/>
+      <c r="G225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I225" s="3" t="inlineStr"/>
+      <c r="I225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K225" s="3" t="inlineStr"/>
-      <c r="L225" s="3" t="inlineStr"/>
+      <c r="K225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N225" s="3" t="inlineStr"/>
+      <c r="N225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="P225" s="3" t="inlineStr"/>
-      <c r="Q225" s="3" t="inlineStr"/>
+      <c r="Q225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S225" s="3" t="inlineStr"/>
+      <c r="S225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T225" s="3" t="inlineStr"/>
-      <c r="U225" s="3" t="inlineStr"/>
+      <c r="U225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V225" s="3" t="inlineStr"/>
       <c r="W225" s="3" t="inlineStr"/>
       <c r="X225" s="3" t="inlineStr"/>
@@ -28029,16 +28005,24 @@
       <c r="Z225" s="3" t="inlineStr"/>
       <c r="AA225" s="3" t="inlineStr"/>
       <c r="AB225" s="3" t="inlineStr"/>
-      <c r="AC225" s="3" t="inlineStr"/>
+      <c r="AC225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD225" s="3" t="inlineStr"/>
       <c r="AE225" s="3" t="inlineStr"/>
-      <c r="AF225" s="3" t="inlineStr"/>
+      <c r="AF225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AG225" s="3" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>AWS App Runner</t>
+          <t>AWS Application Discovery Service</t>
         </is>
       </c>
       <c r="B226" s="3" t="inlineStr"/>
@@ -28055,23 +28039,19 @@
         </is>
       </c>
       <c r="G226" s="3" t="inlineStr"/>
-      <c r="H226" s="3" t="inlineStr"/>
+      <c r="H226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="I226" s="3" t="inlineStr"/>
       <c r="J226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K226" s="3" t="inlineStr"/>
+      <c r="L226" s="3" t="inlineStr"/>
       <c r="M226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28109,7 +28089,7 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaStore</t>
+          <t>AWS App Runner</t>
         </is>
       </c>
       <c r="B227" s="3" t="inlineStr"/>
@@ -28118,11 +28098,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="D227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D227" s="3" t="inlineStr"/>
       <c r="E227" s="3" t="inlineStr"/>
       <c r="F227" s="2" t="inlineStr">
         <is>
@@ -28130,29 +28106,29 @@
         </is>
       </c>
       <c r="G227" s="3" t="inlineStr"/>
-      <c r="H227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="H227" s="3" t="inlineStr"/>
       <c r="I227" s="3" t="inlineStr"/>
       <c r="J227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K227" s="3" t="inlineStr"/>
-      <c r="L227" s="3" t="inlineStr"/>
+      <c r="K227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N227" s="3" t="inlineStr"/>
       <c r="O227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28184,14 +28160,10 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>Amazon Route 53 Application Recovery Controller</t>
-        </is>
-      </c>
-      <c r="B228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Elemental MediaStore</t>
+        </is>
+      </c>
+      <c r="B228" s="3" t="inlineStr"/>
       <c r="C228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28202,46 +28174,26 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E228" s="3" t="inlineStr"/>
       <c r="F228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G228" s="3" t="inlineStr"/>
       <c r="H228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I228" s="3" t="inlineStr"/>
       <c r="J228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K228" s="3" t="inlineStr"/>
+      <c r="L228" s="3" t="inlineStr"/>
       <c r="M228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28258,56 +28210,32 @@
         </is>
       </c>
       <c r="P228" s="3" t="inlineStr"/>
-      <c r="Q228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q228" s="3" t="inlineStr"/>
       <c r="R228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S228" s="3" t="inlineStr"/>
+      <c r="T228" s="3" t="inlineStr"/>
       <c r="U228" s="3" t="inlineStr"/>
       <c r="V228" s="3" t="inlineStr"/>
-      <c r="W228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W228" s="3" t="inlineStr"/>
       <c r="X228" s="3" t="inlineStr"/>
       <c r="Y228" s="3" t="inlineStr"/>
       <c r="Z228" s="3" t="inlineStr"/>
-      <c r="AA228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA228" s="3" t="inlineStr"/>
       <c r="AB228" s="3" t="inlineStr"/>
       <c r="AC228" s="3" t="inlineStr"/>
       <c r="AD228" s="3" t="inlineStr"/>
       <c r="AE228" s="3" t="inlineStr"/>
-      <c r="AF228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF228" s="3" t="inlineStr"/>
       <c r="AG228" s="3" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>AWS Cloud Control API</t>
+          <t>Amazon Route 53 Application Recovery Controller</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
@@ -28380,11 +28308,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P229" s="3" t="inlineStr"/>
       <c r="Q229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28405,76 +28329,36 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U229" s="3" t="inlineStr"/>
+      <c r="V229" s="3" t="inlineStr"/>
       <c r="W229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X229" s="3" t="inlineStr"/>
+      <c r="Y229" s="3" t="inlineStr"/>
+      <c r="Z229" s="3" t="inlineStr"/>
       <c r="AA229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB229" s="3" t="inlineStr"/>
+      <c r="AC229" s="3" t="inlineStr"/>
+      <c r="AD229" s="3" t="inlineStr"/>
+      <c r="AE229" s="3" t="inlineStr"/>
       <c r="AF229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AG229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AG229" s="3" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for Windows File Server</t>
+          <t>AWS Cloud Control API</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
@@ -28641,221 +28525,221 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>AWS Cost Explorer</t>
-        </is>
-      </c>
-      <c r="B231" s="3" t="inlineStr"/>
-      <c r="C231" s="3" t="inlineStr"/>
-      <c r="D231" s="3" t="inlineStr"/>
-      <c r="E231" s="3" t="inlineStr"/>
-      <c r="F231" s="3" t="inlineStr"/>
-      <c r="G231" s="3" t="inlineStr"/>
-      <c r="H231" s="3" t="inlineStr"/>
-      <c r="I231" s="3" t="inlineStr"/>
+          <t>Amazon FSx for Windows File Server</t>
+        </is>
+      </c>
+      <c r="B231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J231" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K231" s="3" t="inlineStr"/>
-      <c r="L231" s="3" t="inlineStr"/>
-      <c r="M231" s="3" t="inlineStr"/>
-      <c r="N231" s="3" t="inlineStr"/>
-      <c r="O231" s="3" t="inlineStr"/>
-      <c r="P231" s="3" t="inlineStr"/>
-      <c r="Q231" s="3" t="inlineStr"/>
-      <c r="R231" s="3" t="inlineStr"/>
-      <c r="S231" s="3" t="inlineStr"/>
-      <c r="T231" s="3" t="inlineStr"/>
-      <c r="U231" s="3" t="inlineStr"/>
-      <c r="V231" s="3" t="inlineStr"/>
-      <c r="W231" s="3" t="inlineStr"/>
-      <c r="X231" s="3" t="inlineStr"/>
-      <c r="Y231" s="3" t="inlineStr"/>
-      <c r="Z231" s="3" t="inlineStr"/>
-      <c r="AA231" s="3" t="inlineStr"/>
-      <c r="AB231" s="3" t="inlineStr"/>
+      <c r="K231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC231" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD231" s="3" t="inlineStr"/>
-      <c r="AE231" s="3" t="inlineStr"/>
-      <c r="AF231" s="3" t="inlineStr"/>
-      <c r="AG231" s="3" t="inlineStr"/>
+      <c r="AD231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG231" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>Amazon Elastic Container Service (ECS)</t>
-        </is>
-      </c>
-      <c r="B232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Cost Explorer</t>
+        </is>
+      </c>
+      <c r="B232" s="3" t="inlineStr"/>
+      <c r="C232" s="3" t="inlineStr"/>
+      <c r="D232" s="3" t="inlineStr"/>
+      <c r="E232" s="3" t="inlineStr"/>
+      <c r="F232" s="3" t="inlineStr"/>
+      <c r="G232" s="3" t="inlineStr"/>
+      <c r="H232" s="3" t="inlineStr"/>
+      <c r="I232" s="3" t="inlineStr"/>
       <c r="J232" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K232" s="3" t="inlineStr"/>
+      <c r="L232" s="3" t="inlineStr"/>
+      <c r="M232" s="3" t="inlineStr"/>
+      <c r="N232" s="3" t="inlineStr"/>
+      <c r="O232" s="3" t="inlineStr"/>
+      <c r="P232" s="3" t="inlineStr"/>
+      <c r="Q232" s="3" t="inlineStr"/>
+      <c r="R232" s="3" t="inlineStr"/>
+      <c r="S232" s="3" t="inlineStr"/>
+      <c r="T232" s="3" t="inlineStr"/>
+      <c r="U232" s="3" t="inlineStr"/>
+      <c r="V232" s="3" t="inlineStr"/>
+      <c r="W232" s="3" t="inlineStr"/>
+      <c r="X232" s="3" t="inlineStr"/>
+      <c r="Y232" s="3" t="inlineStr"/>
+      <c r="Z232" s="3" t="inlineStr"/>
+      <c r="AA232" s="3" t="inlineStr"/>
+      <c r="AB232" s="3" t="inlineStr"/>
       <c r="AC232" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG232" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD232" s="3" t="inlineStr"/>
+      <c r="AE232" s="3" t="inlineStr"/>
+      <c r="AF232" s="3" t="inlineStr"/>
+      <c r="AG232" s="3" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>AWS CodeBuild</t>
+          <t>Amazon Elastic Container Service (ECS)</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
@@ -29022,121 +28906,288 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
+          <t>AWS CodeBuild</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG234" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
           <t>Amazon Chime SDK</t>
         </is>
       </c>
-      <c r="B234" s="3" t="inlineStr"/>
-      <c r="C234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T234" s="3" t="inlineStr"/>
-      <c r="U234" s="3" t="inlineStr"/>
-      <c r="V234" s="3" t="inlineStr"/>
-      <c r="W234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X234" s="3" t="inlineStr"/>
-      <c r="Y234" s="3" t="inlineStr"/>
-      <c r="Z234" s="3" t="inlineStr"/>
-      <c r="AA234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB234" s="3" t="inlineStr"/>
-      <c r="AC234" s="3" t="inlineStr"/>
-      <c r="AD234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE234" s="3" t="inlineStr"/>
-      <c r="AF234" s="3" t="inlineStr"/>
-      <c r="AG234" s="2" t="inlineStr">
+      <c r="B235" s="3" t="inlineStr"/>
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T235" s="3" t="inlineStr"/>
+      <c r="U235" s="3" t="inlineStr"/>
+      <c r="V235" s="3" t="inlineStr"/>
+      <c r="W235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X235" s="3" t="inlineStr"/>
+      <c r="Y235" s="3" t="inlineStr"/>
+      <c r="Z235" s="3" t="inlineStr"/>
+      <c r="AA235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB235" s="3" t="inlineStr"/>
+      <c r="AC235" s="3" t="inlineStr"/>
+      <c r="AD235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE235" s="3" t="inlineStr"/>
+      <c r="AF235" s="3" t="inlineStr"/>
+      <c r="AG235" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -11830,7 +11830,11 @@
       <c r="AA93" s="3" t="inlineStr"/>
       <c r="AB93" s="3" t="inlineStr"/>
       <c r="AC93" s="3" t="inlineStr"/>
-      <c r="AD93" s="3" t="inlineStr"/>
+      <c r="AD93" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE93" s="3" t="inlineStr"/>
       <c r="AF93" s="3" t="inlineStr"/>
       <c r="AG93" s="3" t="inlineStr"/>
@@ -14578,7 +14582,11 @@
         </is>
       </c>
       <c r="U113" s="3" t="inlineStr"/>
-      <c r="V113" s="3" t="inlineStr"/>
+      <c r="V113" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W113" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14594,15 +14602,27 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z113" s="3" t="inlineStr"/>
+      <c r="Z113" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA113" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB113" s="3" t="inlineStr"/>
+      <c r="AB113" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC113" s="3" t="inlineStr"/>
-      <c r="AD113" s="3" t="inlineStr"/>
+      <c r="AD113" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE113" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -3238,12 +3238,28 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T23" s="3" t="inlineStr"/>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U23" s="3" t="inlineStr"/>
-      <c r="V23" s="3" t="inlineStr"/>
-      <c r="W23" s="3" t="inlineStr"/>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X23" s="3" t="inlineStr"/>
-      <c r="Y23" s="3" t="inlineStr"/>
+      <c r="Y23" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z23" s="3" t="inlineStr"/>
       <c r="AA23" s="2" t="inlineStr">
         <is>
@@ -4675,7 +4691,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Amazon Kinesis Data Analytics</t>
+          <t>Amazon Managed Service for Apache Flink (MSF)</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -22784,7 +22800,11 @@
         </is>
       </c>
       <c r="AC179" s="3" t="inlineStr"/>
-      <c r="AD179" s="3" t="inlineStr"/>
+      <c r="AD179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE179" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG235"/>
+  <dimension ref="A1:AG236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15499,7 +15499,7 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>AWS Device Farm</t>
+          <t>Amazon Bedrock</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr"/>
@@ -15510,9 +15510,17 @@
       <c r="G121" s="3" t="inlineStr"/>
       <c r="H121" s="3" t="inlineStr"/>
       <c r="I121" s="3" t="inlineStr"/>
-      <c r="J121" s="3" t="inlineStr"/>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="K121" s="3" t="inlineStr"/>
-      <c r="L121" s="3" t="inlineStr"/>
+      <c r="L121" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M121" s="3" t="inlineStr"/>
       <c r="N121" s="3" t="inlineStr"/>
       <c r="O121" s="3" t="inlineStr"/>
@@ -15709,77 +15717,25 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Amazon Textract</t>
+          <t>AWS Device Farm</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr"/>
       <c r="C123" s="3" t="inlineStr"/>
-      <c r="D123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D123" s="3" t="inlineStr"/>
+      <c r="E123" s="3" t="inlineStr"/>
+      <c r="F123" s="3" t="inlineStr"/>
+      <c r="G123" s="3" t="inlineStr"/>
+      <c r="H123" s="3" t="inlineStr"/>
+      <c r="I123" s="3" t="inlineStr"/>
+      <c r="J123" s="3" t="inlineStr"/>
+      <c r="K123" s="3" t="inlineStr"/>
+      <c r="L123" s="3" t="inlineStr"/>
+      <c r="M123" s="3" t="inlineStr"/>
       <c r="N123" s="3" t="inlineStr"/>
-      <c r="O123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="O123" s="3" t="inlineStr"/>
+      <c r="P123" s="3" t="inlineStr"/>
+      <c r="Q123" s="3" t="inlineStr"/>
       <c r="R123" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -15799,28 +15755,16 @@
       <c r="AD123" s="3" t="inlineStr"/>
       <c r="AE123" s="3" t="inlineStr"/>
       <c r="AF123" s="3" t="inlineStr"/>
-      <c r="AG123" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AG123" s="3" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Amazon EventBridge</t>
-        </is>
-      </c>
-      <c r="B124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Textract</t>
+        </is>
+      </c>
+      <c r="B124" s="3" t="inlineStr"/>
+      <c r="C124" s="3" t="inlineStr"/>
       <c r="D124" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -15871,11 +15815,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N124" s="3" t="inlineStr"/>
       <c r="O124" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -15896,76 +15836,20 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S124" s="3" t="inlineStr"/>
+      <c r="T124" s="3" t="inlineStr"/>
+      <c r="U124" s="3" t="inlineStr"/>
+      <c r="V124" s="3" t="inlineStr"/>
+      <c r="W124" s="3" t="inlineStr"/>
+      <c r="X124" s="3" t="inlineStr"/>
+      <c r="Y124" s="3" t="inlineStr"/>
+      <c r="Z124" s="3" t="inlineStr"/>
+      <c r="AA124" s="3" t="inlineStr"/>
+      <c r="AB124" s="3" t="inlineStr"/>
+      <c r="AC124" s="3" t="inlineStr"/>
+      <c r="AD124" s="3" t="inlineStr"/>
+      <c r="AE124" s="3" t="inlineStr"/>
+      <c r="AF124" s="3" t="inlineStr"/>
       <c r="AG124" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -15975,10 +15859,14 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Amazon Lex</t>
-        </is>
-      </c>
-      <c r="B125" s="3" t="inlineStr"/>
+          <t>Amazon EventBridge</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -15989,7 +15877,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E125" s="3" t="inlineStr"/>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F125" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16005,13 +15897,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I125" s="3" t="inlineStr"/>
+      <c r="I125" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J125" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K125" s="3" t="inlineStr"/>
+      <c r="K125" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L125" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16022,50 +15922,114 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N125" s="3" t="inlineStr"/>
+      <c r="N125" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O125" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P125" s="3" t="inlineStr"/>
-      <c r="Q125" s="3" t="inlineStr"/>
+      <c r="P125" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q125" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R125" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S125" s="3" t="inlineStr"/>
-      <c r="T125" s="3" t="inlineStr"/>
-      <c r="U125" s="3" t="inlineStr"/>
-      <c r="V125" s="3" t="inlineStr"/>
+      <c r="S125" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T125" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U125" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V125" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W125" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X125" s="3" t="inlineStr"/>
-      <c r="Y125" s="3" t="inlineStr"/>
-      <c r="Z125" s="3" t="inlineStr"/>
-      <c r="AA125" s="3" t="inlineStr"/>
-      <c r="AB125" s="3" t="inlineStr"/>
-      <c r="AC125" s="3" t="inlineStr"/>
-      <c r="AD125" s="3" t="inlineStr"/>
-      <c r="AE125" s="3" t="inlineStr"/>
-      <c r="AF125" s="3" t="inlineStr"/>
-      <c r="AG125" s="3" t="inlineStr"/>
+      <c r="X125" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y125" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z125" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA125" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB125" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC125" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD125" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE125" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF125" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG125" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Amazon Neptune</t>
-        </is>
-      </c>
-      <c r="B126" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Lex</t>
+        </is>
+      </c>
+      <c r="B126" s="3" t="inlineStr"/>
       <c r="C126" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16076,11 +16040,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E126" s="3" t="inlineStr"/>
       <c r="F126" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16096,21 +16056,13 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I126" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I126" s="3" t="inlineStr"/>
       <c r="J126" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K126" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K126" s="3" t="inlineStr"/>
       <c r="L126" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16121,42 +16073,22 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N126" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N126" s="3" t="inlineStr"/>
       <c r="O126" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P126" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q126" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P126" s="3" t="inlineStr"/>
+      <c r="Q126" s="3" t="inlineStr"/>
       <c r="R126" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S126" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S126" s="3" t="inlineStr"/>
       <c r="T126" s="3" t="inlineStr"/>
-      <c r="U126" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U126" s="3" t="inlineStr"/>
       <c r="V126" s="3" t="inlineStr"/>
       <c r="W126" s="2" t="inlineStr">
         <is>
@@ -16168,27 +16100,11 @@
       <c r="Z126" s="3" t="inlineStr"/>
       <c r="AA126" s="3" t="inlineStr"/>
       <c r="AB126" s="3" t="inlineStr"/>
-      <c r="AC126" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC126" s="3" t="inlineStr"/>
       <c r="AD126" s="3" t="inlineStr"/>
-      <c r="AE126" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF126" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG126" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE126" s="3" t="inlineStr"/>
+      <c r="AF126" s="3" t="inlineStr"/>
+      <c r="AG126" s="3" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -17210,10 +17126,14 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Amazon Augmented AI (A2I)</t>
-        </is>
-      </c>
-      <c r="B134" s="3" t="inlineStr"/>
+          <t>Amazon Neptune</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -17244,7 +17164,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I134" s="3" t="inlineStr"/>
+      <c r="I134" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J134" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -17265,34 +17189,74 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N134" s="3" t="inlineStr"/>
+      <c r="N134" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O134" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P134" s="3" t="inlineStr"/>
-      <c r="Q134" s="3" t="inlineStr"/>
+      <c r="P134" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q134" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R134" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S134" s="3" t="inlineStr"/>
+      <c r="S134" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T134" s="3" t="inlineStr"/>
-      <c r="U134" s="3" t="inlineStr"/>
+      <c r="U134" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V134" s="3" t="inlineStr"/>
-      <c r="W134" s="3" t="inlineStr"/>
+      <c r="W134" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X134" s="3" t="inlineStr"/>
       <c r="Y134" s="3" t="inlineStr"/>
       <c r="Z134" s="3" t="inlineStr"/>
       <c r="AA134" s="3" t="inlineStr"/>
       <c r="AB134" s="3" t="inlineStr"/>
-      <c r="AC134" s="3" t="inlineStr"/>
+      <c r="AC134" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD134" s="3" t="inlineStr"/>
-      <c r="AE134" s="3" t="inlineStr"/>
-      <c r="AF134" s="3" t="inlineStr"/>
-      <c r="AG134" s="3" t="inlineStr"/>
+      <c r="AE134" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF134" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG134" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -18277,14 +18241,10 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>AWS Marketplace</t>
-        </is>
-      </c>
-      <c r="B143" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Augmented AI (A2I)</t>
+        </is>
+      </c>
+      <c r="B143" s="3" t="inlineStr"/>
       <c r="C143" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18315,11 +18275,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I143" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I143" s="3" t="inlineStr"/>
       <c r="J143" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18340,111 +18296,39 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N143" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N143" s="3" t="inlineStr"/>
       <c r="O143" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P143" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q143" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P143" s="3" t="inlineStr"/>
+      <c r="Q143" s="3" t="inlineStr"/>
       <c r="R143" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S143" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T143" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U143" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V143" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W143" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X143" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y143" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z143" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA143" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB143" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC143" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD143" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE143" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF143" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG143" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S143" s="3" t="inlineStr"/>
+      <c r="T143" s="3" t="inlineStr"/>
+      <c r="U143" s="3" t="inlineStr"/>
+      <c r="V143" s="3" t="inlineStr"/>
+      <c r="W143" s="3" t="inlineStr"/>
+      <c r="X143" s="3" t="inlineStr"/>
+      <c r="Y143" s="3" t="inlineStr"/>
+      <c r="Z143" s="3" t="inlineStr"/>
+      <c r="AA143" s="3" t="inlineStr"/>
+      <c r="AB143" s="3" t="inlineStr"/>
+      <c r="AC143" s="3" t="inlineStr"/>
+      <c r="AD143" s="3" t="inlineStr"/>
+      <c r="AE143" s="3" t="inlineStr"/>
+      <c r="AF143" s="3" t="inlineStr"/>
+      <c r="AG143" s="3" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>AWS Application Migration Service (MGN)</t>
+          <t>AWS Marketplace</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
@@ -18542,7 +18426,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U144" s="3" t="inlineStr"/>
+      <c r="U144" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V144" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18578,7 +18466,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AC144" s="3" t="inlineStr"/>
+      <c r="AC144" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD144" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18603,7 +18495,7 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>AWS Transfer Family</t>
+          <t>AWS Application Migration Service (MGN)</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
@@ -18701,11 +18593,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U145" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U145" s="3" t="inlineStr"/>
       <c r="V145" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18741,11 +18629,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AC145" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC145" s="3" t="inlineStr"/>
       <c r="AD145" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18770,7 +18654,7 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>EC2 Image Builder</t>
+          <t>AWS Transfer Family</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
@@ -18937,7 +18821,7 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>AWS CodePipeline</t>
+          <t>EC2 Image Builder</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
@@ -19030,7 +18914,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T147" s="3" t="inlineStr"/>
+      <c r="T147" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U147" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19046,22 +18934,46 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="X147" s="3" t="inlineStr"/>
-      <c r="Y147" s="3" t="inlineStr"/>
-      <c r="Z147" s="3" t="inlineStr"/>
+      <c r="X147" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y147" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z147" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA147" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB147" s="3" t="inlineStr"/>
+      <c r="AB147" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC147" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD147" s="3" t="inlineStr"/>
-      <c r="AE147" s="3" t="inlineStr"/>
+      <c r="AD147" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE147" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF147" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19076,25 +18988,49 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>AWS OpsWorks for Chef Automate</t>
-        </is>
-      </c>
-      <c r="B148" s="3" t="inlineStr"/>
+          <t>AWS CodePipeline</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D148" s="3" t="inlineStr"/>
-      <c r="E148" s="3" t="inlineStr"/>
+      <c r="D148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F148" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G148" s="3" t="inlineStr"/>
-      <c r="H148" s="3" t="inlineStr"/>
-      <c r="I148" s="3" t="inlineStr"/>
+      <c r="G148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J148" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19115,13 +19051,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N148" s="3" t="inlineStr"/>
+      <c r="N148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O148" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P148" s="3" t="inlineStr"/>
+      <c r="P148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q148" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19132,21 +19076,53 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S148" s="3" t="inlineStr"/>
+      <c r="S148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T148" s="3" t="inlineStr"/>
-      <c r="U148" s="3" t="inlineStr"/>
-      <c r="V148" s="3" t="inlineStr"/>
-      <c r="W148" s="3" t="inlineStr"/>
+      <c r="U148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X148" s="3" t="inlineStr"/>
       <c r="Y148" s="3" t="inlineStr"/>
       <c r="Z148" s="3" t="inlineStr"/>
-      <c r="AA148" s="3" t="inlineStr"/>
+      <c r="AA148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB148" s="3" t="inlineStr"/>
-      <c r="AC148" s="3" t="inlineStr"/>
+      <c r="AC148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD148" s="3" t="inlineStr"/>
       <c r="AE148" s="3" t="inlineStr"/>
-      <c r="AF148" s="3" t="inlineStr"/>
-      <c r="AG148" s="3" t="inlineStr"/>
+      <c r="AF148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG148" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -19916,7 +19892,7 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Amazon Location Service</t>
+          <t>AWS OpsWorks for Chef Automate</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr"/>
@@ -19926,26 +19902,14 @@
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr"/>
-      <c r="E156" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E156" s="3" t="inlineStr"/>
       <c r="F156" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G156" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H156" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G156" s="3" t="inlineStr"/>
+      <c r="H156" s="3" t="inlineStr"/>
       <c r="I156" s="3" t="inlineStr"/>
       <c r="J156" s="2" t="inlineStr">
         <is>
@@ -19967,32 +19931,24 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N156" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N156" s="3" t="inlineStr"/>
       <c r="O156" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P156" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q156" s="3" t="inlineStr"/>
+      <c r="P156" s="3" t="inlineStr"/>
+      <c r="Q156" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R156" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S156" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S156" s="3" t="inlineStr"/>
       <c r="T156" s="3" t="inlineStr"/>
       <c r="U156" s="3" t="inlineStr"/>
       <c r="V156" s="3" t="inlineStr"/>
@@ -20011,7 +19967,7 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>AWS CodeStar</t>
+          <t>Amazon Location Service</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr"/>
@@ -20020,12 +19976,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="D157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E157" s="3" t="inlineStr"/>
+      <c r="D157" s="3" t="inlineStr"/>
+      <c r="E157" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F157" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20072,18 +20028,22 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P157" s="3" t="inlineStr"/>
-      <c r="Q157" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P157" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q157" s="3" t="inlineStr"/>
       <c r="R157" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S157" s="3" t="inlineStr"/>
+      <c r="S157" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T157" s="3" t="inlineStr"/>
       <c r="U157" s="3" t="inlineStr"/>
       <c r="V157" s="3" t="inlineStr"/>
@@ -20102,14 +20062,10 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>AWS Cloud9</t>
-        </is>
-      </c>
-      <c r="B158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS CodeStar</t>
+        </is>
+      </c>
+      <c r="B158" s="3" t="inlineStr"/>
       <c r="C158" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20120,11 +20076,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E158" s="3" t="inlineStr"/>
       <c r="F158" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20140,11 +20092,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I158" s="3" t="inlineStr"/>
       <c r="J158" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20186,49 +20134,33 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S158" s="3" t="inlineStr"/>
+      <c r="T158" s="3" t="inlineStr"/>
       <c r="U158" s="3" t="inlineStr"/>
       <c r="V158" s="3" t="inlineStr"/>
-      <c r="W158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W158" s="3" t="inlineStr"/>
       <c r="X158" s="3" t="inlineStr"/>
       <c r="Y158" s="3" t="inlineStr"/>
       <c r="Z158" s="3" t="inlineStr"/>
-      <c r="AA158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA158" s="3" t="inlineStr"/>
       <c r="AB158" s="3" t="inlineStr"/>
       <c r="AC158" s="3" t="inlineStr"/>
       <c r="AD158" s="3" t="inlineStr"/>
       <c r="AE158" s="3" t="inlineStr"/>
-      <c r="AF158" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF158" s="3" t="inlineStr"/>
       <c r="AG158" s="3" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Amazon WorkSpaces</t>
-        </is>
-      </c>
-      <c r="B159" s="3" t="inlineStr"/>
+          <t>AWS Cloud9</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20259,13 +20191,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I159" s="3" t="inlineStr"/>
+      <c r="I159" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J159" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K159" s="3" t="inlineStr"/>
+      <c r="K159" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L159" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20276,18 +20216,22 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N159" s="3" t="inlineStr"/>
+      <c r="N159" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O159" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P159" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q159" s="3" t="inlineStr"/>
+      <c r="P159" s="3" t="inlineStr"/>
+      <c r="Q159" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R159" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20298,7 +20242,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T159" s="3" t="inlineStr"/>
+      <c r="T159" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U159" s="3" t="inlineStr"/>
       <c r="V159" s="3" t="inlineStr"/>
       <c r="W159" s="2" t="inlineStr">
@@ -20309,26 +20257,26 @@
       <c r="X159" s="3" t="inlineStr"/>
       <c r="Y159" s="3" t="inlineStr"/>
       <c r="Z159" s="3" t="inlineStr"/>
-      <c r="AA159" s="3" t="inlineStr"/>
+      <c r="AA159" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB159" s="3" t="inlineStr"/>
-      <c r="AC159" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC159" s="3" t="inlineStr"/>
       <c r="AD159" s="3" t="inlineStr"/>
       <c r="AE159" s="3" t="inlineStr"/>
-      <c r="AF159" s="3" t="inlineStr"/>
-      <c r="AG159" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF159" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG159" s="3" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Amazon Managed Blockchain</t>
+          <t>Amazon WorkSpaces</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr"/>
@@ -20342,9 +20290,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E160" s="3" t="inlineStr"/>
-      <c r="F160" s="3" t="inlineStr"/>
-      <c r="G160" s="3" t="inlineStr"/>
+      <c r="E160" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G160" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H160" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20362,7 +20322,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M160" s="3" t="inlineStr"/>
+      <c r="M160" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N160" s="3" t="inlineStr"/>
       <c r="O160" s="2" t="inlineStr">
         <is>
@@ -20375,34 +20339,50 @@
         </is>
       </c>
       <c r="Q160" s="3" t="inlineStr"/>
-      <c r="R160" s="3" t="inlineStr"/>
-      <c r="S160" s="3" t="inlineStr"/>
+      <c r="R160" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S160" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T160" s="3" t="inlineStr"/>
       <c r="U160" s="3" t="inlineStr"/>
       <c r="V160" s="3" t="inlineStr"/>
-      <c r="W160" s="3" t="inlineStr"/>
+      <c r="W160" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X160" s="3" t="inlineStr"/>
       <c r="Y160" s="3" t="inlineStr"/>
       <c r="Z160" s="3" t="inlineStr"/>
       <c r="AA160" s="3" t="inlineStr"/>
       <c r="AB160" s="3" t="inlineStr"/>
-      <c r="AC160" s="3" t="inlineStr"/>
+      <c r="AC160" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD160" s="3" t="inlineStr"/>
       <c r="AE160" s="3" t="inlineStr"/>
       <c r="AF160" s="3" t="inlineStr"/>
-      <c r="AG160" s="3" t="inlineStr"/>
+      <c r="AG160" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>AWS Snowball</t>
-        </is>
-      </c>
-      <c r="B161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Managed Blockchain</t>
+        </is>
+      </c>
+      <c r="B161" s="3" t="inlineStr"/>
       <c r="C161" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20413,56 +20393,28 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E161" s="3" t="inlineStr"/>
+      <c r="F161" s="3" t="inlineStr"/>
+      <c r="G161" s="3" t="inlineStr"/>
       <c r="H161" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I161" s="3" t="inlineStr"/>
       <c r="J161" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K161" s="3" t="inlineStr"/>
       <c r="L161" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="M161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="M161" s="3" t="inlineStr"/>
+      <c r="N161" s="3" t="inlineStr"/>
       <c r="O161" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20473,72 +20425,28 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q161" s="3" t="inlineStr"/>
+      <c r="R161" s="3" t="inlineStr"/>
+      <c r="S161" s="3" t="inlineStr"/>
+      <c r="T161" s="3" t="inlineStr"/>
+      <c r="U161" s="3" t="inlineStr"/>
       <c r="V161" s="3" t="inlineStr"/>
-      <c r="W161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W161" s="3" t="inlineStr"/>
       <c r="X161" s="3" t="inlineStr"/>
-      <c r="Y161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Y161" s="3" t="inlineStr"/>
       <c r="Z161" s="3" t="inlineStr"/>
-      <c r="AA161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA161" s="3" t="inlineStr"/>
       <c r="AB161" s="3" t="inlineStr"/>
-      <c r="AC161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC161" s="3" t="inlineStr"/>
       <c r="AD161" s="3" t="inlineStr"/>
-      <c r="AE161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE161" s="3" t="inlineStr"/>
       <c r="AF161" s="3" t="inlineStr"/>
-      <c r="AG161" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AG161" s="3" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>AWS Database Migration Service</t>
+          <t>AWS Snowball</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
@@ -20641,61 +20549,37 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="V162" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V162" s="3" t="inlineStr"/>
       <c r="W162" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X162" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X162" s="3" t="inlineStr"/>
       <c r="Y162" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Z162" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Z162" s="3" t="inlineStr"/>
       <c r="AA162" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB162" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB162" s="3" t="inlineStr"/>
       <c r="AC162" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD162" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD162" s="3" t="inlineStr"/>
       <c r="AE162" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AF162" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF162" s="3" t="inlineStr"/>
       <c r="AG162" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20705,7 +20589,7 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>AWS Serverless Application Repository</t>
+          <t>AWS Database Migration Service</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
@@ -20798,26 +20682,66 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T163" s="3" t="inlineStr"/>
+      <c r="T163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U163" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V163" s="3" t="inlineStr"/>
-      <c r="W163" s="3" t="inlineStr"/>
-      <c r="X163" s="3" t="inlineStr"/>
-      <c r="Y163" s="3" t="inlineStr"/>
-      <c r="Z163" s="3" t="inlineStr"/>
-      <c r="AA163" s="3" t="inlineStr"/>
-      <c r="AB163" s="3" t="inlineStr"/>
+      <c r="V163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC163" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD163" s="3" t="inlineStr"/>
-      <c r="AE163" s="3" t="inlineStr"/>
+      <c r="AD163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE163" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF163" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20832,7 +20756,7 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>AWS Elastic Beanstalk</t>
+          <t>AWS Serverless Application Repository</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
@@ -20925,45 +20849,25 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T164" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T164" s="3" t="inlineStr"/>
       <c r="U164" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="V164" s="3" t="inlineStr"/>
-      <c r="W164" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W164" s="3" t="inlineStr"/>
       <c r="X164" s="3" t="inlineStr"/>
-      <c r="Y164" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Y164" s="3" t="inlineStr"/>
       <c r="Z164" s="3" t="inlineStr"/>
-      <c r="AA164" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA164" s="3" t="inlineStr"/>
       <c r="AB164" s="3" t="inlineStr"/>
       <c r="AC164" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD164" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD164" s="3" t="inlineStr"/>
       <c r="AE164" s="3" t="inlineStr"/>
       <c r="AF164" s="2" t="inlineStr">
         <is>
@@ -20979,7 +20883,7 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Amazon Transcribe</t>
+          <t>AWS Elastic Beanstalk</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
@@ -21072,7 +20976,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T165" s="3" t="inlineStr"/>
+      <c r="T165" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U165" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21085,16 +20993,28 @@
         </is>
       </c>
       <c r="X165" s="3" t="inlineStr"/>
-      <c r="Y165" s="3" t="inlineStr"/>
+      <c r="Y165" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z165" s="3" t="inlineStr"/>
-      <c r="AA165" s="3" t="inlineStr"/>
+      <c r="AA165" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB165" s="3" t="inlineStr"/>
       <c r="AC165" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD165" s="3" t="inlineStr"/>
+      <c r="AD165" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE165" s="3" t="inlineStr"/>
       <c r="AF165" s="2" t="inlineStr">
         <is>
@@ -21515,14 +21435,10 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Amazon Keyspaces (for Apache Cassandra)</t>
-        </is>
-      </c>
-      <c r="B169" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Pinpoint</t>
+        </is>
+      </c>
+      <c r="B169" s="3" t="inlineStr"/>
       <c r="C169" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21553,11 +21469,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I169" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I169" s="3" t="inlineStr"/>
       <c r="J169" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21578,11 +21490,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N169" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N169" s="3" t="inlineStr"/>
       <c r="O169" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21593,27 +21501,15 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q169" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q169" s="3" t="inlineStr"/>
       <c r="R169" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S169" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S169" s="3" t="inlineStr"/>
       <c r="T169" s="3" t="inlineStr"/>
-      <c r="U169" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U169" s="3" t="inlineStr"/>
       <c r="V169" s="3" t="inlineStr"/>
       <c r="W169" s="3" t="inlineStr"/>
       <c r="X169" s="3" t="inlineStr"/>
@@ -21621,28 +21517,16 @@
       <c r="Z169" s="3" t="inlineStr"/>
       <c r="AA169" s="3" t="inlineStr"/>
       <c r="AB169" s="3" t="inlineStr"/>
-      <c r="AC169" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC169" s="3" t="inlineStr"/>
       <c r="AD169" s="3" t="inlineStr"/>
       <c r="AE169" s="3" t="inlineStr"/>
-      <c r="AF169" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG169" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF169" s="3" t="inlineStr"/>
+      <c r="AG169" s="3" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Amazon Pinpoint</t>
+          <t>AWS Clean Rooms</t>
         </is>
       </c>
       <c r="B170" s="3" t="inlineStr"/>
@@ -21656,21 +21540,13 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E170" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E170" s="3" t="inlineStr"/>
       <c r="F170" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G170" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G170" s="3" t="inlineStr"/>
       <c r="H170" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21697,17 +21573,17 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N170" s="3" t="inlineStr"/>
+      <c r="N170" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O170" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P170" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P170" s="3" t="inlineStr"/>
       <c r="Q170" s="3" t="inlineStr"/>
       <c r="R170" s="2" t="inlineStr">
         <is>
@@ -21733,10 +21609,14 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>AWS Clean Rooms</t>
-        </is>
-      </c>
-      <c r="B171" s="3" t="inlineStr"/>
+          <t>Amazon Transcribe</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21747,19 +21627,31 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E171" s="3" t="inlineStr"/>
+      <c r="E171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F171" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G171" s="3" t="inlineStr"/>
+      <c r="G171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H171" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I171" s="3" t="inlineStr"/>
+      <c r="I171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J171" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21790,28 +21682,60 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P171" s="3" t="inlineStr"/>
-      <c r="Q171" s="3" t="inlineStr"/>
+      <c r="P171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R171" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S171" s="3" t="inlineStr"/>
+      <c r="S171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T171" s="3" t="inlineStr"/>
-      <c r="U171" s="3" t="inlineStr"/>
+      <c r="U171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V171" s="3" t="inlineStr"/>
-      <c r="W171" s="3" t="inlineStr"/>
+      <c r="W171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X171" s="3" t="inlineStr"/>
       <c r="Y171" s="3" t="inlineStr"/>
       <c r="Z171" s="3" t="inlineStr"/>
       <c r="AA171" s="3" t="inlineStr"/>
       <c r="AB171" s="3" t="inlineStr"/>
-      <c r="AC171" s="3" t="inlineStr"/>
+      <c r="AC171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD171" s="3" t="inlineStr"/>
       <c r="AE171" s="3" t="inlineStr"/>
-      <c r="AF171" s="3" t="inlineStr"/>
-      <c r="AG171" s="3" t="inlineStr"/>
+      <c r="AF171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG171" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -22062,7 +21986,7 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Amazon Simple Notification Service (SNS)</t>
+          <t>AWS IoT Device Management</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
@@ -22155,61 +22079,25 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T174" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T174" s="3" t="inlineStr"/>
       <c r="U174" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V174" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W174" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X174" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y174" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z174" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA174" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB174" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V174" s="3" t="inlineStr"/>
+      <c r="W174" s="3" t="inlineStr"/>
+      <c r="X174" s="3" t="inlineStr"/>
+      <c r="Y174" s="3" t="inlineStr"/>
+      <c r="Z174" s="3" t="inlineStr"/>
+      <c r="AA174" s="3" t="inlineStr"/>
+      <c r="AB174" s="3" t="inlineStr"/>
       <c r="AC174" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD174" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD174" s="3" t="inlineStr"/>
       <c r="AE174" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22229,7 +22117,7 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>AWS IoT Device Management</t>
+          <t>Amazon Macie</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
@@ -22302,11 +22190,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P175" s="3" t="inlineStr"/>
       <c r="Q175" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22322,52 +22206,48 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T175" s="3" t="inlineStr"/>
-      <c r="U175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T175" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U175" s="3" t="inlineStr"/>
       <c r="V175" s="3" t="inlineStr"/>
-      <c r="W175" s="3" t="inlineStr"/>
+      <c r="W175" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X175" s="3" t="inlineStr"/>
       <c r="Y175" s="3" t="inlineStr"/>
       <c r="Z175" s="3" t="inlineStr"/>
-      <c r="AA175" s="3" t="inlineStr"/>
+      <c r="AA175" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB175" s="3" t="inlineStr"/>
-      <c r="AC175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD175" s="3" t="inlineStr"/>
-      <c r="AE175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC175" s="3" t="inlineStr"/>
+      <c r="AD175" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE175" s="3" t="inlineStr"/>
       <c r="AF175" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AG175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AG175" s="3" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Amazon Macie</t>
-        </is>
-      </c>
-      <c r="B176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Managed Service for Prometheus</t>
+        </is>
+      </c>
+      <c r="B176" s="3" t="inlineStr"/>
       <c r="C176" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22388,11 +22268,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G176" s="3" t="inlineStr"/>
       <c r="H176" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22434,11 +22310,7 @@
         </is>
       </c>
       <c r="P176" s="3" t="inlineStr"/>
-      <c r="Q176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q176" s="3" t="inlineStr"/>
       <c r="R176" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22449,48 +22321,32 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T176" s="3" t="inlineStr"/>
       <c r="U176" s="3" t="inlineStr"/>
       <c r="V176" s="3" t="inlineStr"/>
-      <c r="W176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W176" s="3" t="inlineStr"/>
       <c r="X176" s="3" t="inlineStr"/>
       <c r="Y176" s="3" t="inlineStr"/>
       <c r="Z176" s="3" t="inlineStr"/>
-      <c r="AA176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA176" s="3" t="inlineStr"/>
       <c r="AB176" s="3" t="inlineStr"/>
       <c r="AC176" s="3" t="inlineStr"/>
-      <c r="AD176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD176" s="3" t="inlineStr"/>
       <c r="AE176" s="3" t="inlineStr"/>
-      <c r="AF176" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF176" s="3" t="inlineStr"/>
       <c r="AG176" s="3" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Amazon Managed Service for Prometheus</t>
-        </is>
-      </c>
-      <c r="B177" s="3" t="inlineStr"/>
+          <t>Amazon Keyspaces (for Apache Cassandra)</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22511,7 +22367,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G177" s="3" t="inlineStr"/>
+      <c r="G177" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H177" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22552,8 +22412,16 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P177" s="3" t="inlineStr"/>
-      <c r="Q177" s="3" t="inlineStr"/>
+      <c r="P177" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q177" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R177" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22565,7 +22433,11 @@
         </is>
       </c>
       <c r="T177" s="3" t="inlineStr"/>
-      <c r="U177" s="3" t="inlineStr"/>
+      <c r="U177" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V177" s="3" t="inlineStr"/>
       <c r="W177" s="3" t="inlineStr"/>
       <c r="X177" s="3" t="inlineStr"/>
@@ -22573,11 +22445,23 @@
       <c r="Z177" s="3" t="inlineStr"/>
       <c r="AA177" s="3" t="inlineStr"/>
       <c r="AB177" s="3" t="inlineStr"/>
-      <c r="AC177" s="3" t="inlineStr"/>
+      <c r="AC177" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD177" s="3" t="inlineStr"/>
       <c r="AE177" s="3" t="inlineStr"/>
-      <c r="AF177" s="3" t="inlineStr"/>
-      <c r="AG177" s="3" t="inlineStr"/>
+      <c r="AF177" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG177" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -23070,7 +22954,7 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>AWS VPN</t>
+          <t>Amazon Simple Notification Service (SNS)</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
@@ -23168,7 +23052,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U182" s="3" t="inlineStr"/>
+      <c r="U182" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V182" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23204,7 +23092,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AC182" s="3" t="inlineStr"/>
+      <c r="AC182" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD182" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23229,17 +23121,49 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>AWS Private 5G</t>
-        </is>
-      </c>
-      <c r="B183" s="3" t="inlineStr"/>
-      <c r="C183" s="3" t="inlineStr"/>
-      <c r="D183" s="3" t="inlineStr"/>
-      <c r="E183" s="3" t="inlineStr"/>
-      <c r="F183" s="3" t="inlineStr"/>
-      <c r="G183" s="3" t="inlineStr"/>
-      <c r="H183" s="3" t="inlineStr"/>
-      <c r="I183" s="3" t="inlineStr"/>
+          <t>AWS VPN</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J183" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23250,75 +23174,123 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L183" s="3" t="inlineStr"/>
-      <c r="M183" s="3" t="inlineStr"/>
-      <c r="N183" s="3" t="inlineStr"/>
-      <c r="O183" s="3" t="inlineStr"/>
-      <c r="P183" s="3" t="inlineStr"/>
-      <c r="Q183" s="3" t="inlineStr"/>
+      <c r="L183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R183" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S183" s="3" t="inlineStr"/>
-      <c r="T183" s="3" t="inlineStr"/>
+      <c r="S183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U183" s="3" t="inlineStr"/>
-      <c r="V183" s="3" t="inlineStr"/>
-      <c r="W183" s="3" t="inlineStr"/>
-      <c r="X183" s="3" t="inlineStr"/>
-      <c r="Y183" s="3" t="inlineStr"/>
-      <c r="Z183" s="3" t="inlineStr"/>
-      <c r="AA183" s="3" t="inlineStr"/>
-      <c r="AB183" s="3" t="inlineStr"/>
+      <c r="V183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC183" s="3" t="inlineStr"/>
-      <c r="AD183" s="3" t="inlineStr"/>
-      <c r="AE183" s="3" t="inlineStr"/>
-      <c r="AF183" s="3" t="inlineStr"/>
-      <c r="AG183" s="3" t="inlineStr"/>
+      <c r="AD183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>AWS Mainframe Modernization</t>
+          <t>AWS Private 5G</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr"/>
-      <c r="C184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C184" s="3" t="inlineStr"/>
+      <c r="D184" s="3" t="inlineStr"/>
+      <c r="E184" s="3" t="inlineStr"/>
+      <c r="F184" s="3" t="inlineStr"/>
+      <c r="G184" s="3" t="inlineStr"/>
+      <c r="H184" s="3" t="inlineStr"/>
+      <c r="I184" s="3" t="inlineStr"/>
       <c r="J184" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23329,38 +23301,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L184" s="3" t="inlineStr"/>
+      <c r="M184" s="3" t="inlineStr"/>
       <c r="N184" s="3" t="inlineStr"/>
-      <c r="O184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="O184" s="3" t="inlineStr"/>
       <c r="P184" s="3" t="inlineStr"/>
-      <c r="Q184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q184" s="3" t="inlineStr"/>
       <c r="R184" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S184" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S184" s="3" t="inlineStr"/>
       <c r="T184" s="3" t="inlineStr"/>
       <c r="U184" s="3" t="inlineStr"/>
       <c r="V184" s="3" t="inlineStr"/>
@@ -23379,21 +23331,45 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Amazon FinSpace</t>
+          <t>AWS Mainframe Modernization</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr"/>
-      <c r="C185" s="3" t="inlineStr"/>
-      <c r="D185" s="3" t="inlineStr"/>
-      <c r="E185" s="3" t="inlineStr"/>
-      <c r="F185" s="3" t="inlineStr"/>
+      <c r="C185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="G185" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="H185" s="3" t="inlineStr"/>
-      <c r="I185" s="3" t="inlineStr"/>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J185" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23404,8 +23380,16 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L185" s="3" t="inlineStr"/>
-      <c r="M185" s="3" t="inlineStr"/>
+      <c r="L185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N185" s="3" t="inlineStr"/>
       <c r="O185" s="2" t="inlineStr">
         <is>
@@ -23413,13 +23397,21 @@
         </is>
       </c>
       <c r="P185" s="3" t="inlineStr"/>
-      <c r="Q185" s="3" t="inlineStr"/>
+      <c r="Q185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R185" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S185" s="3" t="inlineStr"/>
+      <c r="S185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T185" s="3" t="inlineStr"/>
       <c r="U185" s="3" t="inlineStr"/>
       <c r="V185" s="3" t="inlineStr"/>
@@ -23438,19 +23430,19 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>AWS IoT TwinMaker</t>
+          <t>Amazon FinSpace</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr"/>
       <c r="C186" s="3" t="inlineStr"/>
       <c r="D186" s="3" t="inlineStr"/>
       <c r="E186" s="3" t="inlineStr"/>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G186" s="3" t="inlineStr"/>
+      <c r="F186" s="3" t="inlineStr"/>
+      <c r="G186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H186" s="3" t="inlineStr"/>
       <c r="I186" s="3" t="inlineStr"/>
       <c r="J186" s="2" t="inlineStr">
@@ -23458,28 +23450,20 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="K186" s="3" t="inlineStr"/>
-      <c r="L186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L186" s="3" t="inlineStr"/>
+      <c r="M186" s="3" t="inlineStr"/>
       <c r="N186" s="3" t="inlineStr"/>
       <c r="O186" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P186" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P186" s="3" t="inlineStr"/>
       <c r="Q186" s="3" t="inlineStr"/>
       <c r="R186" s="2" t="inlineStr">
         <is>
@@ -24442,16 +24426,24 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaTailor</t>
-        </is>
-      </c>
-      <c r="B194" s="3" t="inlineStr"/>
+          <t>Amazon Elastic Container Registry (ECR)</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D194" s="3" t="inlineStr"/>
+      <c r="D194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="E194" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24462,9 +24454,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G194" s="3" t="inlineStr"/>
-      <c r="H194" s="3" t="inlineStr"/>
-      <c r="I194" s="3" t="inlineStr"/>
+      <c r="G194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J194" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24485,95 +24489,131 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N194" s="3" t="inlineStr"/>
+      <c r="N194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O194" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P194" s="3" t="inlineStr"/>
-      <c r="Q194" s="3" t="inlineStr"/>
+      <c r="P194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R194" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S194" s="3" t="inlineStr"/>
-      <c r="T194" s="3" t="inlineStr"/>
-      <c r="U194" s="3" t="inlineStr"/>
-      <c r="V194" s="3" t="inlineStr"/>
+      <c r="S194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W194" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X194" s="3" t="inlineStr"/>
-      <c r="Y194" s="3" t="inlineStr"/>
-      <c r="Z194" s="3" t="inlineStr"/>
-      <c r="AA194" s="3" t="inlineStr"/>
-      <c r="AB194" s="3" t="inlineStr"/>
-      <c r="AC194" s="3" t="inlineStr"/>
-      <c r="AD194" s="3" t="inlineStr"/>
-      <c r="AE194" s="3" t="inlineStr"/>
-      <c r="AF194" s="3" t="inlineStr"/>
-      <c r="AG194" s="3" t="inlineStr"/>
+      <c r="X194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>Amazon Elastic Container Registry (ECR)</t>
-        </is>
-      </c>
-      <c r="B195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS IoT TwinMaker</t>
+        </is>
+      </c>
+      <c r="B195" s="3" t="inlineStr"/>
+      <c r="C195" s="3" t="inlineStr"/>
+      <c r="D195" s="3" t="inlineStr"/>
+      <c r="E195" s="3" t="inlineStr"/>
       <c r="F195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G195" s="3" t="inlineStr"/>
+      <c r="H195" s="3" t="inlineStr"/>
+      <c r="I195" s="3" t="inlineStr"/>
       <c r="J195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K195" s="3" t="inlineStr"/>
       <c r="L195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24584,11 +24624,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N195" s="3" t="inlineStr"/>
       <c r="O195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24599,91 +24635,27 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q195" s="3" t="inlineStr"/>
       <c r="R195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG195" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S195" s="3" t="inlineStr"/>
+      <c r="T195" s="3" t="inlineStr"/>
+      <c r="U195" s="3" t="inlineStr"/>
+      <c r="V195" s="3" t="inlineStr"/>
+      <c r="W195" s="3" t="inlineStr"/>
+      <c r="X195" s="3" t="inlineStr"/>
+      <c r="Y195" s="3" t="inlineStr"/>
+      <c r="Z195" s="3" t="inlineStr"/>
+      <c r="AA195" s="3" t="inlineStr"/>
+      <c r="AB195" s="3" t="inlineStr"/>
+      <c r="AC195" s="3" t="inlineStr"/>
+      <c r="AD195" s="3" t="inlineStr"/>
+      <c r="AE195" s="3" t="inlineStr"/>
+      <c r="AF195" s="3" t="inlineStr"/>
+      <c r="AG195" s="3" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -25414,24 +25386,16 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>AWS User Notifications</t>
-        </is>
-      </c>
-      <c r="B202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Elemental MediaTailor</t>
+        </is>
+      </c>
+      <c r="B202" s="3" t="inlineStr"/>
       <c r="C202" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D202" s="3" t="inlineStr"/>
       <c r="E202" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25442,21 +25406,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G202" s="3" t="inlineStr"/>
+      <c r="H202" s="3" t="inlineStr"/>
+      <c r="I202" s="3" t="inlineStr"/>
       <c r="J202" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25477,94 +25429,50 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N202" s="3" t="inlineStr"/>
       <c r="O202" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="P202" s="3" t="inlineStr"/>
-      <c r="Q202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q202" s="3" t="inlineStr"/>
       <c r="R202" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S202" s="3" t="inlineStr"/>
+      <c r="T202" s="3" t="inlineStr"/>
       <c r="U202" s="3" t="inlineStr"/>
-      <c r="V202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V202" s="3" t="inlineStr"/>
       <c r="W202" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X202" s="3" t="inlineStr"/>
+      <c r="Y202" s="3" t="inlineStr"/>
+      <c r="Z202" s="3" t="inlineStr"/>
+      <c r="AA202" s="3" t="inlineStr"/>
+      <c r="AB202" s="3" t="inlineStr"/>
       <c r="AC202" s="3" t="inlineStr"/>
       <c r="AD202" s="3" t="inlineStr"/>
-      <c r="AE202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF202" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE202" s="3" t="inlineStr"/>
+      <c r="AF202" s="3" t="inlineStr"/>
       <c r="AG202" s="3" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Amazon Inspector Classic</t>
-        </is>
-      </c>
-      <c r="B203" s="3" t="inlineStr"/>
+          <t>AWS User Notifications</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25585,13 +25493,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G203" s="3" t="inlineStr"/>
+      <c r="G203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H203" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I203" s="3" t="inlineStr"/>
+      <c r="I203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J203" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25602,7 +25518,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L203" s="3" t="inlineStr"/>
+      <c r="L203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M203" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25618,11 +25538,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P203" s="3" t="inlineStr"/>
       <c r="Q203" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25633,53 +25549,141 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S203" s="3" t="inlineStr"/>
-      <c r="T203" s="3" t="inlineStr"/>
+      <c r="S203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U203" s="3" t="inlineStr"/>
-      <c r="V203" s="3" t="inlineStr"/>
-      <c r="W203" s="3" t="inlineStr"/>
-      <c r="X203" s="3" t="inlineStr"/>
-      <c r="Y203" s="3" t="inlineStr"/>
-      <c r="Z203" s="3" t="inlineStr"/>
-      <c r="AA203" s="3" t="inlineStr"/>
-      <c r="AB203" s="3" t="inlineStr"/>
+      <c r="V203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC203" s="3" t="inlineStr"/>
       <c r="AD203" s="3" t="inlineStr"/>
-      <c r="AE203" s="3" t="inlineStr"/>
-      <c r="AF203" s="3" t="inlineStr"/>
-      <c r="AG203" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG203" s="3" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>AWS DeepRacer</t>
+          <t>Amazon Inspector Classic</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr"/>
-      <c r="C204" s="3" t="inlineStr"/>
-      <c r="D204" s="3" t="inlineStr"/>
-      <c r="E204" s="3" t="inlineStr"/>
-      <c r="F204" s="3" t="inlineStr"/>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="G204" s="3" t="inlineStr"/>
-      <c r="H204" s="3" t="inlineStr"/>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="I204" s="3" t="inlineStr"/>
       <c r="J204" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K204" s="3" t="inlineStr"/>
+      <c r="K204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L204" s="3" t="inlineStr"/>
-      <c r="M204" s="3" t="inlineStr"/>
-      <c r="N204" s="3" t="inlineStr"/>
-      <c r="O204" s="3" t="inlineStr"/>
-      <c r="P204" s="3" t="inlineStr"/>
-      <c r="Q204" s="3" t="inlineStr"/>
-      <c r="R204" s="3" t="inlineStr"/>
+      <c r="M204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="S204" s="3" t="inlineStr"/>
       <c r="T204" s="3" t="inlineStr"/>
       <c r="U204" s="3" t="inlineStr"/>
@@ -25694,71 +25698,39 @@
       <c r="AD204" s="3" t="inlineStr"/>
       <c r="AE204" s="3" t="inlineStr"/>
       <c r="AF204" s="3" t="inlineStr"/>
-      <c r="AG204" s="3" t="inlineStr"/>
+      <c r="AG204" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Amazon CodeGuru</t>
+          <t>AWS DeepRacer</t>
         </is>
       </c>
       <c r="B205" s="3" t="inlineStr"/>
-      <c r="C205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C205" s="3" t="inlineStr"/>
       <c r="D205" s="3" t="inlineStr"/>
       <c r="E205" s="3" t="inlineStr"/>
-      <c r="F205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="F205" s="3" t="inlineStr"/>
       <c r="G205" s="3" t="inlineStr"/>
-      <c r="H205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="H205" s="3" t="inlineStr"/>
       <c r="I205" s="3" t="inlineStr"/>
       <c r="J205" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K205" s="3" t="inlineStr"/>
+      <c r="L205" s="3" t="inlineStr"/>
+      <c r="M205" s="3" t="inlineStr"/>
+      <c r="N205" s="3" t="inlineStr"/>
+      <c r="O205" s="3" t="inlineStr"/>
       <c r="P205" s="3" t="inlineStr"/>
       <c r="Q205" s="3" t="inlineStr"/>
-      <c r="R205" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="R205" s="3" t="inlineStr"/>
       <c r="S205" s="3" t="inlineStr"/>
       <c r="T205" s="3" t="inlineStr"/>
       <c r="U205" s="3" t="inlineStr"/>
@@ -25778,49 +25750,29 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Amazon Elastic File System (EFS)</t>
-        </is>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon CodeGuru</t>
+        </is>
+      </c>
+      <c r="B206" s="3" t="inlineStr"/>
       <c r="C206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D206" s="3" t="inlineStr"/>
+      <c r="E206" s="3" t="inlineStr"/>
       <c r="F206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G206" s="3" t="inlineStr"/>
       <c r="H206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I206" s="3" t="inlineStr"/>
       <c r="J206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25851,104 +25803,40 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P206" s="3" t="inlineStr"/>
+      <c r="Q206" s="3" t="inlineStr"/>
       <c r="R206" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG206" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S206" s="3" t="inlineStr"/>
+      <c r="T206" s="3" t="inlineStr"/>
+      <c r="U206" s="3" t="inlineStr"/>
+      <c r="V206" s="3" t="inlineStr"/>
+      <c r="W206" s="3" t="inlineStr"/>
+      <c r="X206" s="3" t="inlineStr"/>
+      <c r="Y206" s="3" t="inlineStr"/>
+      <c r="Z206" s="3" t="inlineStr"/>
+      <c r="AA206" s="3" t="inlineStr"/>
+      <c r="AB206" s="3" t="inlineStr"/>
+      <c r="AC206" s="3" t="inlineStr"/>
+      <c r="AD206" s="3" t="inlineStr"/>
+      <c r="AE206" s="3" t="inlineStr"/>
+      <c r="AF206" s="3" t="inlineStr"/>
+      <c r="AG206" s="3" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Amazon Quantum Ledger Database (QLDB)</t>
-        </is>
-      </c>
-      <c r="B207" s="3" t="inlineStr"/>
+          <t>Amazon Elastic File System (EFS)</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25959,7 +25847,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E207" s="3" t="inlineStr"/>
+      <c r="E207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F207" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25975,7 +25867,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I207" s="3" t="inlineStr"/>
+      <c r="I207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J207" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25996,39 +25892,111 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N207" s="3" t="inlineStr"/>
+      <c r="N207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O207" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P207" s="3" t="inlineStr"/>
-      <c r="Q207" s="3" t="inlineStr"/>
+      <c r="P207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R207" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S207" s="3" t="inlineStr"/>
-      <c r="T207" s="3" t="inlineStr"/>
-      <c r="U207" s="3" t="inlineStr"/>
-      <c r="V207" s="3" t="inlineStr"/>
-      <c r="W207" s="3" t="inlineStr"/>
-      <c r="X207" s="3" t="inlineStr"/>
-      <c r="Y207" s="3" t="inlineStr"/>
-      <c r="Z207" s="3" t="inlineStr"/>
-      <c r="AA207" s="3" t="inlineStr"/>
-      <c r="AB207" s="3" t="inlineStr"/>
-      <c r="AC207" s="3" t="inlineStr"/>
-      <c r="AD207" s="3" t="inlineStr"/>
-      <c r="AE207" s="3" t="inlineStr"/>
-      <c r="AF207" s="3" t="inlineStr"/>
-      <c r="AG207" s="3" t="inlineStr"/>
+      <c r="S207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG207" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaConvert</t>
+          <t>Amazon Quantum Ledger Database (QLDB)</t>
         </is>
       </c>
       <c r="B208" s="3" t="inlineStr"/>
@@ -26042,11 +26010,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E208" s="3" t="inlineStr"/>
       <c r="F208" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26062,11 +26026,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I208" s="3" t="inlineStr"/>
       <c r="J208" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26087,62 +26047,30 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N208" s="3" t="inlineStr"/>
       <c r="O208" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P208" s="3" t="inlineStr"/>
+      <c r="Q208" s="3" t="inlineStr"/>
       <c r="R208" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S208" s="3" t="inlineStr"/>
+      <c r="T208" s="3" t="inlineStr"/>
       <c r="U208" s="3" t="inlineStr"/>
       <c r="V208" s="3" t="inlineStr"/>
-      <c r="W208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W208" s="3" t="inlineStr"/>
       <c r="X208" s="3" t="inlineStr"/>
       <c r="Y208" s="3" t="inlineStr"/>
-      <c r="Z208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Z208" s="3" t="inlineStr"/>
       <c r="AA208" s="3" t="inlineStr"/>
       <c r="AB208" s="3" t="inlineStr"/>
-      <c r="AC208" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC208" s="3" t="inlineStr"/>
       <c r="AD208" s="3" t="inlineStr"/>
       <c r="AE208" s="3" t="inlineStr"/>
       <c r="AF208" s="3" t="inlineStr"/>
@@ -26151,14 +26079,10 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for OpenZFS</t>
-        </is>
-      </c>
-      <c r="B209" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Elemental MediaConvert</t>
+        </is>
+      </c>
+      <c r="B209" s="3" t="inlineStr"/>
       <c r="C209" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26189,7 +26113,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I209" s="3" t="inlineStr"/>
+      <c r="I209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26220,24 +26148,52 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P209" s="3" t="inlineStr"/>
-      <c r="Q209" s="3" t="inlineStr"/>
+      <c r="P209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R209" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S209" s="3" t="inlineStr"/>
-      <c r="T209" s="3" t="inlineStr"/>
+      <c r="S209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U209" s="3" t="inlineStr"/>
       <c r="V209" s="3" t="inlineStr"/>
-      <c r="W209" s="3" t="inlineStr"/>
+      <c r="W209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X209" s="3" t="inlineStr"/>
       <c r="Y209" s="3" t="inlineStr"/>
-      <c r="Z209" s="3" t="inlineStr"/>
+      <c r="Z209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA209" s="3" t="inlineStr"/>
       <c r="AB209" s="3" t="inlineStr"/>
-      <c r="AC209" s="3" t="inlineStr"/>
+      <c r="AC209" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD209" s="3" t="inlineStr"/>
       <c r="AE209" s="3" t="inlineStr"/>
       <c r="AF209" s="3" t="inlineStr"/>
@@ -26246,13 +26202,29 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Amazon Comprehend Medical</t>
-        </is>
-      </c>
-      <c r="B210" s="3" t="inlineStr"/>
-      <c r="C210" s="3" t="inlineStr"/>
-      <c r="D210" s="3" t="inlineStr"/>
-      <c r="E210" s="3" t="inlineStr"/>
+          <t>Amazon FSx for OpenZFS</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26279,19 +26251,27 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L210" s="3" t="inlineStr"/>
-      <c r="M210" s="3" t="inlineStr"/>
-      <c r="N210" s="3" t="inlineStr"/>
+      <c r="L210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P210" s="3" t="inlineStr"/>
       <c r="Q210" s="3" t="inlineStr"/>
       <c r="R210" s="2" t="inlineStr">
         <is>
@@ -26317,29 +26297,13 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Amazon GameLift</t>
-        </is>
-      </c>
-      <c r="B211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Comprehend Medical</t>
+        </is>
+      </c>
+      <c r="B211" s="3" t="inlineStr"/>
+      <c r="C211" s="3" t="inlineStr"/>
+      <c r="D211" s="3" t="inlineStr"/>
+      <c r="E211" s="3" t="inlineStr"/>
       <c r="F211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26355,11 +26319,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I211" s="3" t="inlineStr"/>
       <c r="J211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26370,85 +26330,45 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L211" s="3" t="inlineStr"/>
+      <c r="M211" s="3" t="inlineStr"/>
+      <c r="N211" s="3" t="inlineStr"/>
       <c r="O211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P211" s="3" t="inlineStr"/>
-      <c r="Q211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q211" s="3" t="inlineStr"/>
       <c r="R211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S211" s="3" t="inlineStr"/>
+      <c r="T211" s="3" t="inlineStr"/>
+      <c r="U211" s="3" t="inlineStr"/>
       <c r="V211" s="3" t="inlineStr"/>
-      <c r="W211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W211" s="3" t="inlineStr"/>
       <c r="X211" s="3" t="inlineStr"/>
       <c r="Y211" s="3" t="inlineStr"/>
       <c r="Z211" s="3" t="inlineStr"/>
-      <c r="AA211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA211" s="3" t="inlineStr"/>
       <c r="AB211" s="3" t="inlineStr"/>
-      <c r="AC211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC211" s="3" t="inlineStr"/>
       <c r="AD211" s="3" t="inlineStr"/>
       <c r="AE211" s="3" t="inlineStr"/>
-      <c r="AF211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF211" s="3" t="inlineStr"/>
       <c r="AG211" s="3" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>Amazon DynamoDB</t>
+          <t>Amazon GameLift</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
@@ -26521,11 +26441,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P212" s="3" t="inlineStr"/>
       <c r="Q212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26551,71 +26467,39 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="V212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V212" s="3" t="inlineStr"/>
       <c r="W212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X212" s="3" t="inlineStr"/>
+      <c r="Y212" s="3" t="inlineStr"/>
+      <c r="Z212" s="3" t="inlineStr"/>
       <c r="AA212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB212" s="3" t="inlineStr"/>
       <c r="AC212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD212" s="3" t="inlineStr"/>
+      <c r="AE212" s="3" t="inlineStr"/>
       <c r="AF212" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AG212" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AG212" s="3" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>Amazon DocumentDB (with MongoDB compatibility)</t>
+          <t>Amazon DynamoDB</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
@@ -26678,7 +26562,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N213" s="3" t="inlineStr"/>
+      <c r="N213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O213" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26689,7 +26577,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q213" s="3" t="inlineStr"/>
+      <c r="Q213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R213" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26700,41 +26592,81 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T213" s="3" t="inlineStr"/>
+      <c r="T213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U213" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V213" s="3" t="inlineStr"/>
-      <c r="W213" s="3" t="inlineStr"/>
+      <c r="V213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X213" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Y213" s="3" t="inlineStr"/>
-      <c r="Z213" s="3" t="inlineStr"/>
+      <c r="Y213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA213" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB213" s="3" t="inlineStr"/>
+      <c r="AB213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC213" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD213" s="3" t="inlineStr"/>
-      <c r="AE213" s="3" t="inlineStr"/>
-      <c r="AF213" s="3" t="inlineStr"/>
-      <c r="AG213" s="3" t="inlineStr"/>
+      <c r="AD213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG213" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>AWS Config</t>
+          <t>Amazon DocumentDB (with MongoDB compatibility)</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
@@ -26797,11 +26729,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N214" s="3" t="inlineStr"/>
       <c r="O214" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26812,11 +26740,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q214" s="3" t="inlineStr"/>
       <c r="R214" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26827,446 +26751,458 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T214" s="3" t="inlineStr"/>
       <c r="U214" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V214" s="3" t="inlineStr"/>
+      <c r="W214" s="3" t="inlineStr"/>
       <c r="X214" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Y214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Y214" s="3" t="inlineStr"/>
+      <c r="Z214" s="3" t="inlineStr"/>
       <c r="AA214" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB214" s="3" t="inlineStr"/>
       <c r="AC214" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG214" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD214" s="3" t="inlineStr"/>
+      <c r="AE214" s="3" t="inlineStr"/>
+      <c r="AF214" s="3" t="inlineStr"/>
+      <c r="AG214" s="3" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>Amazon WorkMail</t>
-        </is>
-      </c>
-      <c r="B215" s="3" t="inlineStr"/>
-      <c r="C215" s="3" t="inlineStr"/>
-      <c r="D215" s="3" t="inlineStr"/>
-      <c r="E215" s="3" t="inlineStr"/>
-      <c r="F215" s="3" t="inlineStr"/>
-      <c r="G215" s="3" t="inlineStr"/>
-      <c r="H215" s="3" t="inlineStr"/>
-      <c r="I215" s="3" t="inlineStr"/>
+          <t>AWS Config</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K215" s="3" t="inlineStr"/>
-      <c r="L215" s="3" t="inlineStr"/>
-      <c r="M215" s="3" t="inlineStr"/>
-      <c r="N215" s="3" t="inlineStr"/>
+      <c r="K215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O215" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P215" s="3" t="inlineStr"/>
-      <c r="Q215" s="3" t="inlineStr"/>
+      <c r="P215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R215" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S215" s="3" t="inlineStr"/>
-      <c r="T215" s="3" t="inlineStr"/>
-      <c r="U215" s="3" t="inlineStr"/>
-      <c r="V215" s="3" t="inlineStr"/>
-      <c r="W215" s="3" t="inlineStr"/>
-      <c r="X215" s="3" t="inlineStr"/>
-      <c r="Y215" s="3" t="inlineStr"/>
-      <c r="Z215" s="3" t="inlineStr"/>
-      <c r="AA215" s="3" t="inlineStr"/>
-      <c r="AB215" s="3" t="inlineStr"/>
-      <c r="AC215" s="3" t="inlineStr"/>
-      <c r="AD215" s="3" t="inlineStr"/>
-      <c r="AE215" s="3" t="inlineStr"/>
-      <c r="AF215" s="3" t="inlineStr"/>
-      <c r="AG215" s="3" t="inlineStr"/>
+      <c r="S215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG215" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>AWS Security Hub</t>
-        </is>
-      </c>
-      <c r="B216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon WorkMail</t>
+        </is>
+      </c>
+      <c r="B216" s="3" t="inlineStr"/>
+      <c r="C216" s="3" t="inlineStr"/>
+      <c r="D216" s="3" t="inlineStr"/>
+      <c r="E216" s="3" t="inlineStr"/>
+      <c r="F216" s="3" t="inlineStr"/>
+      <c r="G216" s="3" t="inlineStr"/>
+      <c r="H216" s="3" t="inlineStr"/>
+      <c r="I216" s="3" t="inlineStr"/>
       <c r="J216" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K216" s="3" t="inlineStr"/>
+      <c r="L216" s="3" t="inlineStr"/>
+      <c r="M216" s="3" t="inlineStr"/>
+      <c r="N216" s="3" t="inlineStr"/>
       <c r="O216" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P216" s="3" t="inlineStr"/>
+      <c r="Q216" s="3" t="inlineStr"/>
       <c r="R216" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG216" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S216" s="3" t="inlineStr"/>
+      <c r="T216" s="3" t="inlineStr"/>
+      <c r="U216" s="3" t="inlineStr"/>
+      <c r="V216" s="3" t="inlineStr"/>
+      <c r="W216" s="3" t="inlineStr"/>
+      <c r="X216" s="3" t="inlineStr"/>
+      <c r="Y216" s="3" t="inlineStr"/>
+      <c r="Z216" s="3" t="inlineStr"/>
+      <c r="AA216" s="3" t="inlineStr"/>
+      <c r="AB216" s="3" t="inlineStr"/>
+      <c r="AC216" s="3" t="inlineStr"/>
+      <c r="AD216" s="3" t="inlineStr"/>
+      <c r="AE216" s="3" t="inlineStr"/>
+      <c r="AF216" s="3" t="inlineStr"/>
+      <c r="AG216" s="3" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>AWS Payment Cryptography</t>
-        </is>
-      </c>
-      <c r="B217" s="3" t="inlineStr"/>
-      <c r="C217" s="3" t="inlineStr"/>
-      <c r="D217" s="3" t="inlineStr"/>
-      <c r="E217" s="3" t="inlineStr"/>
-      <c r="F217" s="3" t="inlineStr"/>
-      <c r="G217" s="3" t="inlineStr"/>
-      <c r="H217" s="3" t="inlineStr"/>
-      <c r="I217" s="3" t="inlineStr"/>
+          <t>AWS Security Hub</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K217" s="3" t="inlineStr"/>
-      <c r="L217" s="3" t="inlineStr"/>
-      <c r="M217" s="3" t="inlineStr"/>
-      <c r="N217" s="3" t="inlineStr"/>
-      <c r="O217" s="3" t="inlineStr"/>
-      <c r="P217" s="3" t="inlineStr"/>
-      <c r="Q217" s="3" t="inlineStr"/>
+      <c r="K217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R217" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S217" s="3" t="inlineStr"/>
-      <c r="T217" s="3" t="inlineStr"/>
-      <c r="U217" s="3" t="inlineStr"/>
-      <c r="V217" s="3" t="inlineStr"/>
-      <c r="W217" s="3" t="inlineStr"/>
-      <c r="X217" s="3" t="inlineStr"/>
-      <c r="Y217" s="3" t="inlineStr"/>
-      <c r="Z217" s="3" t="inlineStr"/>
-      <c r="AA217" s="3" t="inlineStr"/>
-      <c r="AB217" s="3" t="inlineStr"/>
-      <c r="AC217" s="3" t="inlineStr"/>
-      <c r="AD217" s="3" t="inlineStr"/>
-      <c r="AE217" s="3" t="inlineStr"/>
-      <c r="AF217" s="3" t="inlineStr"/>
-      <c r="AG217" s="3" t="inlineStr"/>
+      <c r="S217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG217" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaConnect</t>
-        </is>
-      </c>
-      <c r="B218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Payment Cryptography</t>
+        </is>
+      </c>
+      <c r="B218" s="3" t="inlineStr"/>
+      <c r="C218" s="3" t="inlineStr"/>
+      <c r="D218" s="3" t="inlineStr"/>
+      <c r="E218" s="3" t="inlineStr"/>
+      <c r="F218" s="3" t="inlineStr"/>
+      <c r="G218" s="3" t="inlineStr"/>
+      <c r="H218" s="3" t="inlineStr"/>
+      <c r="I218" s="3" t="inlineStr"/>
       <c r="J218" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K218" s="3" t="inlineStr"/>
+      <c r="L218" s="3" t="inlineStr"/>
+      <c r="M218" s="3" t="inlineStr"/>
+      <c r="N218" s="3" t="inlineStr"/>
+      <c r="O218" s="3" t="inlineStr"/>
       <c r="P218" s="3" t="inlineStr"/>
-      <c r="Q218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q218" s="3" t="inlineStr"/>
       <c r="R218" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S218" s="3" t="inlineStr"/>
+      <c r="T218" s="3" t="inlineStr"/>
       <c r="U218" s="3" t="inlineStr"/>
       <c r="V218" s="3" t="inlineStr"/>
-      <c r="W218" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W218" s="3" t="inlineStr"/>
       <c r="X218" s="3" t="inlineStr"/>
       <c r="Y218" s="3" t="inlineStr"/>
       <c r="Z218" s="3" t="inlineStr"/>
@@ -27281,7 +27217,7 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>AWS App Mesh</t>
+          <t>AWS Elemental MediaConnect</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
@@ -27375,11 +27311,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U219" s="3" t="inlineStr"/>
       <c r="V219" s="3" t="inlineStr"/>
       <c r="W219" s="2" t="inlineStr">
         <is>
@@ -27387,34 +27319,14 @@
         </is>
       </c>
       <c r="X219" s="3" t="inlineStr"/>
-      <c r="Y219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Y219" s="3" t="inlineStr"/>
       <c r="Z219" s="3" t="inlineStr"/>
-      <c r="AA219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA219" s="3" t="inlineStr"/>
       <c r="AB219" s="3" t="inlineStr"/>
-      <c r="AC219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC219" s="3" t="inlineStr"/>
+      <c r="AD219" s="3" t="inlineStr"/>
       <c r="AE219" s="3" t="inlineStr"/>
-      <c r="AF219" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF219" s="3" t="inlineStr"/>
       <c r="AG219" s="3" t="inlineStr"/>
     </row>
     <row r="220">
@@ -28062,74 +27974,146 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>AWS Application Discovery Service</t>
-        </is>
-      </c>
-      <c r="B226" s="3" t="inlineStr"/>
+          <t>AWS App Mesh</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D226" s="3" t="inlineStr"/>
-      <c r="E226" s="3" t="inlineStr"/>
+      <c r="D226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G226" s="3" t="inlineStr"/>
+      <c r="G226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I226" s="3" t="inlineStr"/>
+      <c r="I226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K226" s="3" t="inlineStr"/>
-      <c r="L226" s="3" t="inlineStr"/>
+      <c r="K226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N226" s="3" t="inlineStr"/>
+      <c r="N226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="P226" s="3" t="inlineStr"/>
-      <c r="Q226" s="3" t="inlineStr"/>
+      <c r="Q226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S226" s="3" t="inlineStr"/>
-      <c r="T226" s="3" t="inlineStr"/>
-      <c r="U226" s="3" t="inlineStr"/>
+      <c r="S226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V226" s="3" t="inlineStr"/>
-      <c r="W226" s="3" t="inlineStr"/>
+      <c r="W226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X226" s="3" t="inlineStr"/>
-      <c r="Y226" s="3" t="inlineStr"/>
+      <c r="Y226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z226" s="3" t="inlineStr"/>
-      <c r="AA226" s="3" t="inlineStr"/>
+      <c r="AA226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB226" s="3" t="inlineStr"/>
-      <c r="AC226" s="3" t="inlineStr"/>
-      <c r="AD226" s="3" t="inlineStr"/>
+      <c r="AC226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE226" s="3" t="inlineStr"/>
-      <c r="AF226" s="3" t="inlineStr"/>
+      <c r="AF226" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AG226" s="3" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>AWS App Runner</t>
+          <t>AWS Application Discovery Service</t>
         </is>
       </c>
       <c r="B227" s="3" t="inlineStr"/>
@@ -28146,23 +28130,19 @@
         </is>
       </c>
       <c r="G227" s="3" t="inlineStr"/>
-      <c r="H227" s="3" t="inlineStr"/>
+      <c r="H227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="I227" s="3" t="inlineStr"/>
       <c r="J227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K227" s="3" t="inlineStr"/>
+      <c r="L227" s="3" t="inlineStr"/>
       <c r="M227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28779,49 +28759,25 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>Amazon Elastic Container Service (ECS)</t>
-        </is>
-      </c>
-      <c r="B233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS App Runner</t>
+        </is>
+      </c>
+      <c r="B233" s="3" t="inlineStr"/>
       <c r="C233" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D233" s="3" t="inlineStr"/>
+      <c r="E233" s="3" t="inlineStr"/>
       <c r="F233" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G233" s="3" t="inlineStr"/>
+      <c r="H233" s="3" t="inlineStr"/>
+      <c r="I233" s="3" t="inlineStr"/>
       <c r="J233" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28842,111 +28798,39 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N233" s="3" t="inlineStr"/>
       <c r="O233" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P233" s="3" t="inlineStr"/>
+      <c r="Q233" s="3" t="inlineStr"/>
       <c r="R233" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S233" s="3" t="inlineStr"/>
+      <c r="T233" s="3" t="inlineStr"/>
+      <c r="U233" s="3" t="inlineStr"/>
+      <c r="V233" s="3" t="inlineStr"/>
+      <c r="W233" s="3" t="inlineStr"/>
+      <c r="X233" s="3" t="inlineStr"/>
+      <c r="Y233" s="3" t="inlineStr"/>
+      <c r="Z233" s="3" t="inlineStr"/>
+      <c r="AA233" s="3" t="inlineStr"/>
+      <c r="AB233" s="3" t="inlineStr"/>
+      <c r="AC233" s="3" t="inlineStr"/>
+      <c r="AD233" s="3" t="inlineStr"/>
+      <c r="AE233" s="3" t="inlineStr"/>
+      <c r="AF233" s="3" t="inlineStr"/>
+      <c r="AG233" s="3" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>AWS CodeBuild</t>
+          <t>Amazon Elastic Container Service (ECS)</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
@@ -29113,121 +28997,288 @@
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
+          <t>AWS CodeBuild</t>
+        </is>
+      </c>
+      <c r="B235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG235" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
           <t>Amazon Chime SDK</t>
         </is>
       </c>
-      <c r="B235" s="3" t="inlineStr"/>
-      <c r="C235" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D235" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E235" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I235" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M235" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N235" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O235" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P235" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q235" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R235" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S235" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T235" s="3" t="inlineStr"/>
-      <c r="U235" s="3" t="inlineStr"/>
-      <c r="V235" s="3" t="inlineStr"/>
-      <c r="W235" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X235" s="3" t="inlineStr"/>
-      <c r="Y235" s="3" t="inlineStr"/>
-      <c r="Z235" s="3" t="inlineStr"/>
-      <c r="AA235" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB235" s="3" t="inlineStr"/>
-      <c r="AC235" s="3" t="inlineStr"/>
-      <c r="AD235" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE235" s="3" t="inlineStr"/>
-      <c r="AF235" s="3" t="inlineStr"/>
-      <c r="AG235" s="2" t="inlineStr">
+      <c r="B236" s="3" t="inlineStr"/>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T236" s="3" t="inlineStr"/>
+      <c r="U236" s="3" t="inlineStr"/>
+      <c r="V236" s="3" t="inlineStr"/>
+      <c r="W236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X236" s="3" t="inlineStr"/>
+      <c r="Y236" s="3" t="inlineStr"/>
+      <c r="Z236" s="3" t="inlineStr"/>
+      <c r="AA236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB236" s="3" t="inlineStr"/>
+      <c r="AC236" s="3" t="inlineStr"/>
+      <c r="AD236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE236" s="3" t="inlineStr"/>
+      <c r="AF236" s="3" t="inlineStr"/>
+      <c r="AG236" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -23396,7 +23396,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P185" s="3" t="inlineStr"/>
+      <c r="P185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q185" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23425,7 +23429,11 @@
       <c r="AD185" s="3" t="inlineStr"/>
       <c r="AE185" s="3" t="inlineStr"/>
       <c r="AF185" s="3" t="inlineStr"/>
-      <c r="AG185" s="3" t="inlineStr"/>
+      <c r="AG185" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG236"/>
+  <dimension ref="A1:AG237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9282,19 +9282,31 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="V73" s="3" t="inlineStr"/>
+      <c r="V73" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W73" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X73" s="3" t="inlineStr"/>
+      <c r="X73" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Y73" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Z73" s="3" t="inlineStr"/>
+      <c r="Z73" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA73" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -9311,7 +9323,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AE73" s="3" t="inlineStr"/>
+      <c r="AE73" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF73" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -10073,7 +10089,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Amazon WorkSpaces Web</t>
+          <t>Amazon DataZone</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr"/>
@@ -10083,11 +10099,7 @@
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr"/>
-      <c r="E79" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E79" s="3" t="inlineStr"/>
       <c r="F79" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -10098,18 +10110,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="H79" s="3" t="inlineStr"/>
       <c r="I79" s="3" t="inlineStr"/>
       <c r="J79" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K79" s="3" t="inlineStr"/>
+      <c r="K79" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L79" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -10120,7 +10132,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N79" s="3" t="inlineStr"/>
+      <c r="N79" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O79" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -10133,7 +10149,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S79" s="3" t="inlineStr"/>
+      <c r="S79" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T79" s="3" t="inlineStr"/>
       <c r="U79" s="3" t="inlineStr"/>
       <c r="V79" s="3" t="inlineStr"/>
@@ -10152,24 +10172,16 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Amazon Kinesis Data Streams</t>
-        </is>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon WorkSpaces Web</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="inlineStr"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D80" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D80" s="3" t="inlineStr"/>
       <c r="E80" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -10190,21 +10202,13 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I80" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I80" s="3" t="inlineStr"/>
       <c r="J80" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K80" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K80" s="3" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -10215,106 +10219,34 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N80" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N80" s="3" t="inlineStr"/>
       <c r="O80" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P80" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q80" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P80" s="3" t="inlineStr"/>
+      <c r="Q80" s="3" t="inlineStr"/>
       <c r="R80" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S80" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T80" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U80" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V80" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W80" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X80" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y80" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z80" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA80" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB80" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC80" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD80" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE80" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF80" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG80" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S80" s="3" t="inlineStr"/>
+      <c r="T80" s="3" t="inlineStr"/>
+      <c r="U80" s="3" t="inlineStr"/>
+      <c r="V80" s="3" t="inlineStr"/>
+      <c r="W80" s="3" t="inlineStr"/>
+      <c r="X80" s="3" t="inlineStr"/>
+      <c r="Y80" s="3" t="inlineStr"/>
+      <c r="Z80" s="3" t="inlineStr"/>
+      <c r="AA80" s="3" t="inlineStr"/>
+      <c r="AB80" s="3" t="inlineStr"/>
+      <c r="AC80" s="3" t="inlineStr"/>
+      <c r="AD80" s="3" t="inlineStr"/>
+      <c r="AE80" s="3" t="inlineStr"/>
+      <c r="AF80" s="3" t="inlineStr"/>
+      <c r="AG80" s="3" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -11641,121 +11573,201 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Amazon WorkSpaces Application Manager</t>
-        </is>
-      </c>
-      <c r="B91" s="3" t="inlineStr"/>
-      <c r="C91" s="3" t="inlineStr"/>
-      <c r="D91" s="3" t="inlineStr"/>
-      <c r="E91" s="3" t="inlineStr"/>
+          <t>Amazon Kinesis Data Streams</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F91" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G91" s="3" t="inlineStr"/>
-      <c r="H91" s="3" t="inlineStr"/>
-      <c r="I91" s="3" t="inlineStr"/>
+      <c r="G91" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H91" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I91" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J91" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K91" s="3" t="inlineStr"/>
+      <c r="K91" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L91" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="M91" s="3" t="inlineStr"/>
-      <c r="N91" s="3" t="inlineStr"/>
+      <c r="M91" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N91" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O91" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P91" s="3" t="inlineStr"/>
-      <c r="Q91" s="3" t="inlineStr"/>
+      <c r="P91" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q91" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R91" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S91" s="3" t="inlineStr"/>
-      <c r="T91" s="3" t="inlineStr"/>
-      <c r="U91" s="3" t="inlineStr"/>
-      <c r="V91" s="3" t="inlineStr"/>
-      <c r="W91" s="3" t="inlineStr"/>
-      <c r="X91" s="3" t="inlineStr"/>
-      <c r="Y91" s="3" t="inlineStr"/>
-      <c r="Z91" s="3" t="inlineStr"/>
-      <c r="AA91" s="3" t="inlineStr"/>
-      <c r="AB91" s="3" t="inlineStr"/>
-      <c r="AC91" s="3" t="inlineStr"/>
-      <c r="AD91" s="3" t="inlineStr"/>
-      <c r="AE91" s="3" t="inlineStr"/>
-      <c r="AF91" s="3" t="inlineStr"/>
-      <c r="AG91" s="3" t="inlineStr"/>
+      <c r="S91" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T91" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U91" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V91" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W91" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X91" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y91" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z91" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA91" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB91" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC91" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD91" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE91" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF91" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG91" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>AWS CodeArtifact</t>
+          <t>Amazon WorkSpaces Application Manager</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr"/>
-      <c r="C92" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C92" s="3" t="inlineStr"/>
       <c r="D92" s="3" t="inlineStr"/>
-      <c r="E92" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E92" s="3" t="inlineStr"/>
       <c r="F92" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="G92" s="3" t="inlineStr"/>
-      <c r="H92" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I92" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="H92" s="3" t="inlineStr"/>
+      <c r="I92" s="3" t="inlineStr"/>
       <c r="J92" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K92" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K92" s="3" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="M92" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N92" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="M92" s="3" t="inlineStr"/>
+      <c r="N92" s="3" t="inlineStr"/>
       <c r="O92" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -11776,11 +11788,7 @@
       <c r="X92" s="3" t="inlineStr"/>
       <c r="Y92" s="3" t="inlineStr"/>
       <c r="Z92" s="3" t="inlineStr"/>
-      <c r="AA92" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA92" s="3" t="inlineStr"/>
       <c r="AB92" s="3" t="inlineStr"/>
       <c r="AC92" s="3" t="inlineStr"/>
       <c r="AD92" s="3" t="inlineStr"/>
@@ -11791,27 +11799,47 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>AWS HealthOmics</t>
+          <t>AWS CodeArtifact</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr"/>
-      <c r="C93" s="3" t="inlineStr"/>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="D93" s="3" t="inlineStr"/>
-      <c r="E93" s="3" t="inlineStr"/>
-      <c r="F93" s="3" t="inlineStr"/>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="G93" s="3" t="inlineStr"/>
       <c r="H93" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I93" s="3" t="inlineStr"/>
+      <c r="I93" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J93" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K93" s="3" t="inlineStr"/>
+      <c r="K93" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L93" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -11822,7 +11850,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N93" s="3" t="inlineStr"/>
+      <c r="N93" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O93" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -11843,14 +11875,14 @@
       <c r="X93" s="3" t="inlineStr"/>
       <c r="Y93" s="3" t="inlineStr"/>
       <c r="Z93" s="3" t="inlineStr"/>
-      <c r="AA93" s="3" t="inlineStr"/>
+      <c r="AA93" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB93" s="3" t="inlineStr"/>
       <c r="AC93" s="3" t="inlineStr"/>
-      <c r="AD93" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD93" s="3" t="inlineStr"/>
       <c r="AE93" s="3" t="inlineStr"/>
       <c r="AF93" s="3" t="inlineStr"/>
       <c r="AG93" s="3" t="inlineStr"/>
@@ -11858,59 +11890,27 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for NetApp ONTAP</t>
-        </is>
-      </c>
-      <c r="B94" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C94" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D94" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E94" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS HealthOmics</t>
+        </is>
+      </c>
+      <c r="B94" s="3" t="inlineStr"/>
+      <c r="C94" s="3" t="inlineStr"/>
+      <c r="D94" s="3" t="inlineStr"/>
+      <c r="E94" s="3" t="inlineStr"/>
+      <c r="F94" s="3" t="inlineStr"/>
+      <c r="G94" s="3" t="inlineStr"/>
       <c r="H94" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I94" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I94" s="3" t="inlineStr"/>
       <c r="J94" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K94" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K94" s="3" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -11921,99 +11921,43 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N94" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N94" s="3" t="inlineStr"/>
       <c r="O94" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P94" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q94" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P94" s="3" t="inlineStr"/>
+      <c r="Q94" s="3" t="inlineStr"/>
       <c r="R94" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S94" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S94" s="3" t="inlineStr"/>
       <c r="T94" s="3" t="inlineStr"/>
       <c r="U94" s="3" t="inlineStr"/>
-      <c r="V94" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W94" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X94" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y94" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z94" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA94" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB94" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V94" s="3" t="inlineStr"/>
+      <c r="W94" s="3" t="inlineStr"/>
+      <c r="X94" s="3" t="inlineStr"/>
+      <c r="Y94" s="3" t="inlineStr"/>
+      <c r="Z94" s="3" t="inlineStr"/>
+      <c r="AA94" s="3" t="inlineStr"/>
+      <c r="AB94" s="3" t="inlineStr"/>
       <c r="AC94" s="3" t="inlineStr"/>
       <c r="AD94" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AE94" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF94" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG94" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE94" s="3" t="inlineStr"/>
+      <c r="AF94" s="3" t="inlineStr"/>
+      <c r="AG94" s="3" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Amazon Detective</t>
+          <t>Amazon FSx for NetApp ONTAP</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -12108,28 +12052,52 @@
       </c>
       <c r="T95" s="3" t="inlineStr"/>
       <c r="U95" s="3" t="inlineStr"/>
-      <c r="V95" s="3" t="inlineStr"/>
+      <c r="V95" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W95" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X95" s="3" t="inlineStr"/>
-      <c r="Y95" s="3" t="inlineStr"/>
-      <c r="Z95" s="3" t="inlineStr"/>
+      <c r="X95" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y95" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z95" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA95" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB95" s="3" t="inlineStr"/>
+      <c r="AB95" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC95" s="3" t="inlineStr"/>
       <c r="AD95" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AE95" s="3" t="inlineStr"/>
+      <c r="AE95" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF95" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -12144,7 +12112,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Amazon Managed Streaming for Apache Kafka</t>
+          <t>Amazon Detective</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -12237,66 +12205,30 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T96" s="3" t="inlineStr"/>
+      <c r="U96" s="3" t="inlineStr"/>
+      <c r="V96" s="3" t="inlineStr"/>
       <c r="W96" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X96" s="3" t="inlineStr"/>
+      <c r="Y96" s="3" t="inlineStr"/>
+      <c r="Z96" s="3" t="inlineStr"/>
       <c r="AA96" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB96" s="3" t="inlineStr"/>
+      <c r="AC96" s="3" t="inlineStr"/>
       <c r="AD96" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AE96" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE96" s="3" t="inlineStr"/>
       <c r="AF96" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -12311,10 +12243,14 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Amazon Managed Grafana</t>
-        </is>
-      </c>
-      <c r="B97" s="3" t="inlineStr"/>
+          <t>Amazon Managed Streaming for Apache Kafka</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -12325,19 +12261,31 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E97" s="3" t="inlineStr"/>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G97" s="3" t="inlineStr"/>
+      <c r="G97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I97" s="3" t="inlineStr"/>
+      <c r="I97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J97" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -12358,46 +12306,114 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N97" s="3" t="inlineStr"/>
+      <c r="N97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O97" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P97" s="3" t="inlineStr"/>
-      <c r="Q97" s="3" t="inlineStr"/>
+      <c r="P97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R97" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S97" s="3" t="inlineStr"/>
-      <c r="T97" s="3" t="inlineStr"/>
-      <c r="U97" s="3" t="inlineStr"/>
-      <c r="V97" s="3" t="inlineStr"/>
-      <c r="W97" s="3" t="inlineStr"/>
-      <c r="X97" s="3" t="inlineStr"/>
-      <c r="Y97" s="3" t="inlineStr"/>
-      <c r="Z97" s="3" t="inlineStr"/>
-      <c r="AA97" s="3" t="inlineStr"/>
-      <c r="AB97" s="3" t="inlineStr"/>
-      <c r="AC97" s="3" t="inlineStr"/>
-      <c r="AD97" s="3" t="inlineStr"/>
-      <c r="AE97" s="3" t="inlineStr"/>
-      <c r="AF97" s="3" t="inlineStr"/>
-      <c r="AG97" s="3" t="inlineStr"/>
+      <c r="S97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG97" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Amazon Virtual Private Cloud (VPC)</t>
-        </is>
-      </c>
-      <c r="B98" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Managed Grafana</t>
+        </is>
+      </c>
+      <c r="B98" s="3" t="inlineStr"/>
       <c r="C98" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -12408,31 +12424,19 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E98" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E98" s="3" t="inlineStr"/>
       <c r="F98" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G98" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G98" s="3" t="inlineStr"/>
       <c r="H98" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I98" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I98" s="3" t="inlineStr"/>
       <c r="J98" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -12453,106 +12457,34 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N98" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N98" s="3" t="inlineStr"/>
       <c r="O98" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P98" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q98" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P98" s="3" t="inlineStr"/>
+      <c r="Q98" s="3" t="inlineStr"/>
       <c r="R98" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S98" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T98" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U98" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V98" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W98" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X98" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y98" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z98" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA98" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB98" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC98" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD98" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE98" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF98" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG98" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S98" s="3" t="inlineStr"/>
+      <c r="T98" s="3" t="inlineStr"/>
+      <c r="U98" s="3" t="inlineStr"/>
+      <c r="V98" s="3" t="inlineStr"/>
+      <c r="W98" s="3" t="inlineStr"/>
+      <c r="X98" s="3" t="inlineStr"/>
+      <c r="Y98" s="3" t="inlineStr"/>
+      <c r="Z98" s="3" t="inlineStr"/>
+      <c r="AA98" s="3" t="inlineStr"/>
+      <c r="AB98" s="3" t="inlineStr"/>
+      <c r="AC98" s="3" t="inlineStr"/>
+      <c r="AD98" s="3" t="inlineStr"/>
+      <c r="AE98" s="3" t="inlineStr"/>
+      <c r="AF98" s="3" t="inlineStr"/>
+      <c r="AG98" s="3" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -13395,7 +13327,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>AWS Signer</t>
+          <t>Amazon Virtual Private Cloud (VPC)</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
@@ -13468,7 +13400,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P105" s="3" t="inlineStr"/>
+      <c r="P105" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q105" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -13484,45 +13420,81 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T105" s="3" t="inlineStr"/>
+      <c r="T105" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U105" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V105" s="3" t="inlineStr"/>
+      <c r="V105" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W105" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X105" s="3" t="inlineStr"/>
-      <c r="Y105" s="3" t="inlineStr"/>
-      <c r="Z105" s="3" t="inlineStr"/>
+      <c r="X105" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y105" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z105" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA105" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB105" s="3" t="inlineStr"/>
+      <c r="AB105" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC105" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD105" s="3" t="inlineStr"/>
-      <c r="AE105" s="3" t="inlineStr"/>
+      <c r="AD105" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE105" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF105" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AG105" s="3" t="inlineStr"/>
+      <c r="AG105" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Amazon Aurora</t>
+          <t>AWS Signer</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
@@ -13595,11 +13567,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P106" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P106" s="3" t="inlineStr"/>
       <c r="Q106" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -13615,81 +13583,45 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T106" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T106" s="3" t="inlineStr"/>
       <c r="U106" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V106" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V106" s="3" t="inlineStr"/>
       <c r="W106" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X106" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y106" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z106" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X106" s="3" t="inlineStr"/>
+      <c r="Y106" s="3" t="inlineStr"/>
+      <c r="Z106" s="3" t="inlineStr"/>
       <c r="AA106" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB106" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB106" s="3" t="inlineStr"/>
       <c r="AC106" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD106" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE106" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD106" s="3" t="inlineStr"/>
+      <c r="AE106" s="3" t="inlineStr"/>
       <c r="AF106" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AG106" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AG106" s="3" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>AWS IoT Core</t>
+          <t>Amazon Aurora</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -13782,25 +13714,61 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T107" s="3" t="inlineStr"/>
+      <c r="T107" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U107" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V107" s="3" t="inlineStr"/>
-      <c r="W107" s="3" t="inlineStr"/>
-      <c r="X107" s="3" t="inlineStr"/>
-      <c r="Y107" s="3" t="inlineStr"/>
-      <c r="Z107" s="3" t="inlineStr"/>
-      <c r="AA107" s="3" t="inlineStr"/>
-      <c r="AB107" s="3" t="inlineStr"/>
+      <c r="V107" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W107" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X107" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y107" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z107" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA107" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB107" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC107" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD107" s="3" t="inlineStr"/>
+      <c r="AD107" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE107" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -13820,7 +13788,7 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>CloudEndure Migration</t>
+          <t>AWS IoT Core</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -13913,30 +13881,18 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T108" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T108" s="3" t="inlineStr"/>
       <c r="U108" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="V108" s="3" t="inlineStr"/>
-      <c r="W108" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W108" s="3" t="inlineStr"/>
       <c r="X108" s="3" t="inlineStr"/>
       <c r="Y108" s="3" t="inlineStr"/>
       <c r="Z108" s="3" t="inlineStr"/>
-      <c r="AA108" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA108" s="3" t="inlineStr"/>
       <c r="AB108" s="3" t="inlineStr"/>
       <c r="AC108" s="2" t="inlineStr">
         <is>
@@ -13944,7 +13900,11 @@
         </is>
       </c>
       <c r="AD108" s="3" t="inlineStr"/>
-      <c r="AE108" s="3" t="inlineStr"/>
+      <c r="AE108" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF108" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14777,7 +14737,7 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>AWS Resilience Hub</t>
+          <t>CloudEndure Migration</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -14850,7 +14810,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P115" s="3" t="inlineStr"/>
+      <c r="P115" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q115" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14866,8 +14830,16 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T115" s="3" t="inlineStr"/>
-      <c r="U115" s="3" t="inlineStr"/>
+      <c r="T115" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U115" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V115" s="3" t="inlineStr"/>
       <c r="W115" s="2" t="inlineStr">
         <is>
@@ -14883,7 +14855,11 @@
         </is>
       </c>
       <c r="AB115" s="3" t="inlineStr"/>
-      <c r="AC115" s="3" t="inlineStr"/>
+      <c r="AC115" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD115" s="3" t="inlineStr"/>
       <c r="AE115" s="3" t="inlineStr"/>
       <c r="AF115" s="2" t="inlineStr">
@@ -14891,12 +14867,16 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AG115" s="3" t="inlineStr"/>
+      <c r="AG115" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>AWS Fargate</t>
+          <t>AWS Resilience Hub</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
@@ -14969,11 +14949,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P116" s="3" t="inlineStr"/>
       <c r="Q116" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14989,90 +14965,54 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T116" s="3" t="inlineStr"/>
+      <c r="U116" s="3" t="inlineStr"/>
+      <c r="V116" s="3" t="inlineStr"/>
       <c r="W116" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X116" s="3" t="inlineStr"/>
+      <c r="Y116" s="3" t="inlineStr"/>
+      <c r="Z116" s="3" t="inlineStr"/>
       <c r="AA116" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB116" s="3" t="inlineStr"/>
+      <c r="AC116" s="3" t="inlineStr"/>
+      <c r="AD116" s="3" t="inlineStr"/>
+      <c r="AE116" s="3" t="inlineStr"/>
       <c r="AF116" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AG116" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AG116" s="3" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>AWS Snowcone</t>
-        </is>
-      </c>
-      <c r="B117" s="3" t="inlineStr"/>
+          <t>AWS Fargate</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D117" s="3" t="inlineStr"/>
+      <c r="D117" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -15118,13 +15058,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N117" s="3" t="inlineStr"/>
+      <c r="N117" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O117" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P117" s="3" t="inlineStr"/>
+      <c r="P117" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q117" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -15140,46 +15088,90 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T117" s="3" t="inlineStr"/>
-      <c r="U117" s="3" t="inlineStr"/>
-      <c r="V117" s="3" t="inlineStr"/>
-      <c r="W117" s="3" t="inlineStr"/>
-      <c r="X117" s="3" t="inlineStr"/>
-      <c r="Y117" s="3" t="inlineStr"/>
-      <c r="Z117" s="3" t="inlineStr"/>
-      <c r="AA117" s="3" t="inlineStr"/>
-      <c r="AB117" s="3" t="inlineStr"/>
-      <c r="AC117" s="3" t="inlineStr"/>
+      <c r="T117" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U117" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V117" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W117" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X117" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y117" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z117" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA117" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB117" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC117" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD117" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AE117" s="3" t="inlineStr"/>
-      <c r="AF117" s="3" t="inlineStr"/>
-      <c r="AG117" s="3" t="inlineStr"/>
+      <c r="AE117" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF117" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG117" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>AWS Elastic Disaster Recovery (DRS)</t>
-        </is>
-      </c>
-      <c r="B118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Snowcone</t>
+        </is>
+      </c>
+      <c r="B118" s="3" t="inlineStr"/>
       <c r="C118" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D118" s="3" t="inlineStr"/>
       <c r="E118" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -15225,11 +15217,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N118" s="3" t="inlineStr"/>
       <c r="O118" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -15251,63 +15239,23 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T118" s="3" t="inlineStr"/>
       <c r="U118" s="3" t="inlineStr"/>
-      <c r="V118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V118" s="3" t="inlineStr"/>
+      <c r="W118" s="3" t="inlineStr"/>
+      <c r="X118" s="3" t="inlineStr"/>
+      <c r="Y118" s="3" t="inlineStr"/>
+      <c r="Z118" s="3" t="inlineStr"/>
+      <c r="AA118" s="3" t="inlineStr"/>
+      <c r="AB118" s="3" t="inlineStr"/>
       <c r="AC118" s="3" t="inlineStr"/>
       <c r="AD118" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AE118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF118" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE118" s="3" t="inlineStr"/>
+      <c r="AF118" s="3" t="inlineStr"/>
       <c r="AG118" s="3" t="inlineStr"/>
     </row>
     <row r="119">
@@ -15503,7 +15451,11 @@
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr"/>
-      <c r="C121" s="3" t="inlineStr"/>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="D121" s="3" t="inlineStr"/>
       <c r="E121" s="3" t="inlineStr"/>
       <c r="F121" s="3" t="inlineStr"/>
@@ -15550,7 +15502,7 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>AWS X-Ray</t>
+          <t>AWS Elastic Disaster Recovery (DRS)</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
@@ -15623,11 +15575,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P122" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P122" s="3" t="inlineStr"/>
       <c r="Q122" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -15648,11 +15596,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U122" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U122" s="3" t="inlineStr"/>
       <c r="V122" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -15688,11 +15632,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AC122" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC122" s="3" t="inlineStr"/>
       <c r="AD122" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -15708,129 +15648,197 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AG122" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AG122" s="3" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>AWS Device Farm</t>
-        </is>
-      </c>
-      <c r="B123" s="3" t="inlineStr"/>
-      <c r="C123" s="3" t="inlineStr"/>
-      <c r="D123" s="3" t="inlineStr"/>
-      <c r="E123" s="3" t="inlineStr"/>
-      <c r="F123" s="3" t="inlineStr"/>
-      <c r="G123" s="3" t="inlineStr"/>
-      <c r="H123" s="3" t="inlineStr"/>
-      <c r="I123" s="3" t="inlineStr"/>
-      <c r="J123" s="3" t="inlineStr"/>
-      <c r="K123" s="3" t="inlineStr"/>
-      <c r="L123" s="3" t="inlineStr"/>
-      <c r="M123" s="3" t="inlineStr"/>
-      <c r="N123" s="3" t="inlineStr"/>
-      <c r="O123" s="3" t="inlineStr"/>
-      <c r="P123" s="3" t="inlineStr"/>
-      <c r="Q123" s="3" t="inlineStr"/>
+          <t>AWS X-Ray</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R123" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S123" s="3" t="inlineStr"/>
-      <c r="T123" s="3" t="inlineStr"/>
-      <c r="U123" s="3" t="inlineStr"/>
-      <c r="V123" s="3" t="inlineStr"/>
-      <c r="W123" s="3" t="inlineStr"/>
-      <c r="X123" s="3" t="inlineStr"/>
-      <c r="Y123" s="3" t="inlineStr"/>
-      <c r="Z123" s="3" t="inlineStr"/>
-      <c r="AA123" s="3" t="inlineStr"/>
-      <c r="AB123" s="3" t="inlineStr"/>
-      <c r="AC123" s="3" t="inlineStr"/>
-      <c r="AD123" s="3" t="inlineStr"/>
-      <c r="AE123" s="3" t="inlineStr"/>
-      <c r="AF123" s="3" t="inlineStr"/>
-      <c r="AG123" s="3" t="inlineStr"/>
+      <c r="S123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG123" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Amazon Textract</t>
+          <t>AWS Device Farm</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr"/>
       <c r="C124" s="3" t="inlineStr"/>
-      <c r="D124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D124" s="3" t="inlineStr"/>
+      <c r="E124" s="3" t="inlineStr"/>
+      <c r="F124" s="3" t="inlineStr"/>
+      <c r="G124" s="3" t="inlineStr"/>
+      <c r="H124" s="3" t="inlineStr"/>
+      <c r="I124" s="3" t="inlineStr"/>
+      <c r="J124" s="3" t="inlineStr"/>
+      <c r="K124" s="3" t="inlineStr"/>
+      <c r="L124" s="3" t="inlineStr"/>
+      <c r="M124" s="3" t="inlineStr"/>
       <c r="N124" s="3" t="inlineStr"/>
-      <c r="O124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="O124" s="3" t="inlineStr"/>
+      <c r="P124" s="3" t="inlineStr"/>
+      <c r="Q124" s="3" t="inlineStr"/>
       <c r="R124" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -15850,28 +15858,16 @@
       <c r="AD124" s="3" t="inlineStr"/>
       <c r="AE124" s="3" t="inlineStr"/>
       <c r="AF124" s="3" t="inlineStr"/>
-      <c r="AG124" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AG124" s="3" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Amazon EventBridge</t>
-        </is>
-      </c>
-      <c r="B125" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C125" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Textract</t>
+        </is>
+      </c>
+      <c r="B125" s="3" t="inlineStr"/>
+      <c r="C125" s="3" t="inlineStr"/>
       <c r="D125" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -15922,11 +15918,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N125" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N125" s="3" t="inlineStr"/>
       <c r="O125" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -15947,76 +15939,20 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S125" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T125" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U125" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V125" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W125" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X125" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y125" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z125" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA125" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB125" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC125" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD125" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE125" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF125" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S125" s="3" t="inlineStr"/>
+      <c r="T125" s="3" t="inlineStr"/>
+      <c r="U125" s="3" t="inlineStr"/>
+      <c r="V125" s="3" t="inlineStr"/>
+      <c r="W125" s="3" t="inlineStr"/>
+      <c r="X125" s="3" t="inlineStr"/>
+      <c r="Y125" s="3" t="inlineStr"/>
+      <c r="Z125" s="3" t="inlineStr"/>
+      <c r="AA125" s="3" t="inlineStr"/>
+      <c r="AB125" s="3" t="inlineStr"/>
+      <c r="AC125" s="3" t="inlineStr"/>
+      <c r="AD125" s="3" t="inlineStr"/>
+      <c r="AE125" s="3" t="inlineStr"/>
+      <c r="AF125" s="3" t="inlineStr"/>
       <c r="AG125" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16026,10 +15962,14 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Amazon Lex</t>
-        </is>
-      </c>
-      <c r="B126" s="3" t="inlineStr"/>
+          <t>Amazon EventBridge</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16040,7 +15980,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E126" s="3" t="inlineStr"/>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16056,13 +16000,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I126" s="3" t="inlineStr"/>
+      <c r="I126" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K126" s="3" t="inlineStr"/>
+      <c r="K126" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16073,50 +16025,114 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N126" s="3" t="inlineStr"/>
+      <c r="N126" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O126" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P126" s="3" t="inlineStr"/>
-      <c r="Q126" s="3" t="inlineStr"/>
+      <c r="P126" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q126" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R126" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S126" s="3" t="inlineStr"/>
-      <c r="T126" s="3" t="inlineStr"/>
-      <c r="U126" s="3" t="inlineStr"/>
-      <c r="V126" s="3" t="inlineStr"/>
+      <c r="S126" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T126" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U126" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V126" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W126" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X126" s="3" t="inlineStr"/>
-      <c r="Y126" s="3" t="inlineStr"/>
-      <c r="Z126" s="3" t="inlineStr"/>
-      <c r="AA126" s="3" t="inlineStr"/>
-      <c r="AB126" s="3" t="inlineStr"/>
-      <c r="AC126" s="3" t="inlineStr"/>
-      <c r="AD126" s="3" t="inlineStr"/>
-      <c r="AE126" s="3" t="inlineStr"/>
-      <c r="AF126" s="3" t="inlineStr"/>
-      <c r="AG126" s="3" t="inlineStr"/>
+      <c r="X126" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y126" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z126" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA126" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB126" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC126" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD126" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE126" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF126" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG126" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>AWS Fault Injection Simulator</t>
-        </is>
-      </c>
-      <c r="B127" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Lex</t>
+        </is>
+      </c>
+      <c r="B127" s="3" t="inlineStr"/>
       <c r="C127" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16127,11 +16143,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E127" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E127" s="3" t="inlineStr"/>
       <c r="F127" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16147,21 +16159,13 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I127" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I127" s="3" t="inlineStr"/>
       <c r="J127" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K127" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K127" s="3" t="inlineStr"/>
       <c r="L127" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -16172,36 +16176,20 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N127" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N127" s="3" t="inlineStr"/>
       <c r="O127" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P127" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q127" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P127" s="3" t="inlineStr"/>
+      <c r="Q127" s="3" t="inlineStr"/>
       <c r="R127" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S127" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S127" s="3" t="inlineStr"/>
       <c r="T127" s="3" t="inlineStr"/>
       <c r="U127" s="3" t="inlineStr"/>
       <c r="V127" s="3" t="inlineStr"/>
@@ -16213,25 +16201,13 @@
       <c r="X127" s="3" t="inlineStr"/>
       <c r="Y127" s="3" t="inlineStr"/>
       <c r="Z127" s="3" t="inlineStr"/>
-      <c r="AA127" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA127" s="3" t="inlineStr"/>
       <c r="AB127" s="3" t="inlineStr"/>
       <c r="AC127" s="3" t="inlineStr"/>
       <c r="AD127" s="3" t="inlineStr"/>
       <c r="AE127" s="3" t="inlineStr"/>
-      <c r="AF127" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG127" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF127" s="3" t="inlineStr"/>
+      <c r="AG127" s="3" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -16959,7 +16935,7 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>AWS Secrets Manager</t>
+          <t>Amazon Neptune</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
@@ -17052,61 +17028,29 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T133" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T133" s="3" t="inlineStr"/>
       <c r="U133" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V133" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V133" s="3" t="inlineStr"/>
       <c r="W133" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X133" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y133" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z133" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA133" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB133" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X133" s="3" t="inlineStr"/>
+      <c r="Y133" s="3" t="inlineStr"/>
+      <c r="Z133" s="3" t="inlineStr"/>
+      <c r="AA133" s="3" t="inlineStr"/>
+      <c r="AB133" s="3" t="inlineStr"/>
       <c r="AC133" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD133" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD133" s="3" t="inlineStr"/>
       <c r="AE133" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -17126,7 +17070,7 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Amazon Neptune</t>
+          <t>AWS Fault Injection Simulator</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
@@ -17220,11 +17164,7 @@
         </is>
       </c>
       <c r="T134" s="3" t="inlineStr"/>
-      <c r="U134" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U134" s="3" t="inlineStr"/>
       <c r="V134" s="3" t="inlineStr"/>
       <c r="W134" s="2" t="inlineStr">
         <is>
@@ -17234,19 +17174,15 @@
       <c r="X134" s="3" t="inlineStr"/>
       <c r="Y134" s="3" t="inlineStr"/>
       <c r="Z134" s="3" t="inlineStr"/>
-      <c r="AA134" s="3" t="inlineStr"/>
+      <c r="AA134" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB134" s="3" t="inlineStr"/>
-      <c r="AC134" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC134" s="3" t="inlineStr"/>
       <c r="AD134" s="3" t="inlineStr"/>
-      <c r="AE134" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE134" s="3" t="inlineStr"/>
       <c r="AF134" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -17860,10 +17796,14 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Amazon Simple Email Service (SES)</t>
-        </is>
-      </c>
-      <c r="B140" s="3" t="inlineStr"/>
+          <t>AWS Secrets Manager</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -17954,39 +17894,71 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U140" s="3" t="inlineStr"/>
-      <c r="V140" s="3" t="inlineStr"/>
+      <c r="U140" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V140" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W140" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X140" s="3" t="inlineStr"/>
+      <c r="X140" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Y140" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Z140" s="3" t="inlineStr"/>
+      <c r="Z140" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA140" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB140" s="3" t="inlineStr"/>
-      <c r="AC140" s="3" t="inlineStr"/>
+      <c r="AB140" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC140" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD140" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AE140" s="3" t="inlineStr"/>
+      <c r="AE140" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF140" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AG140" s="3" t="inlineStr"/>
+      <c r="AG140" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -18495,7 +18467,7 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>AWS Application Migration Service (MGN)</t>
+          <t>AWS Transfer Family</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
@@ -18593,7 +18565,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U145" s="3" t="inlineStr"/>
+      <c r="U145" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V145" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18629,7 +18605,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AC145" s="3" t="inlineStr"/>
+      <c r="AC145" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD145" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18654,14 +18634,10 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>AWS Transfer Family</t>
-        </is>
-      </c>
-      <c r="B146" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Simple Email Service (SES)</t>
+        </is>
+      </c>
+      <c r="B146" s="3" t="inlineStr"/>
       <c r="C146" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -18752,71 +18728,39 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U146" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V146" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U146" s="3" t="inlineStr"/>
+      <c r="V146" s="3" t="inlineStr"/>
       <c r="W146" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X146" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X146" s="3" t="inlineStr"/>
       <c r="Y146" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Z146" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Z146" s="3" t="inlineStr"/>
       <c r="AA146" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB146" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC146" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB146" s="3" t="inlineStr"/>
+      <c r="AC146" s="3" t="inlineStr"/>
       <c r="AD146" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AE146" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE146" s="3" t="inlineStr"/>
       <c r="AF146" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AG146" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AG146" s="3" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -19341,7 +19285,7 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>AWS Lake Formation</t>
+          <t>AWS Application Migration Service (MGN)</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
@@ -19439,11 +19383,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U151" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U151" s="3" t="inlineStr"/>
       <c r="V151" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -19479,11 +19419,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AC151" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC151" s="3" t="inlineStr"/>
       <c r="AD151" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20276,10 +20212,14 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Amazon WorkSpaces</t>
-        </is>
-      </c>
-      <c r="B160" s="3" t="inlineStr"/>
+          <t>AWS Lake Formation</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20310,13 +20250,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I160" s="3" t="inlineStr"/>
+      <c r="I160" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J160" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K160" s="3" t="inlineStr"/>
+      <c r="K160" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L160" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20327,7 +20275,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N160" s="3" t="inlineStr"/>
+      <c r="N160" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O160" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20338,7 +20290,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q160" s="3" t="inlineStr"/>
+      <c r="Q160" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R160" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20349,27 +20305,71 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T160" s="3" t="inlineStr"/>
-      <c r="U160" s="3" t="inlineStr"/>
-      <c r="V160" s="3" t="inlineStr"/>
+      <c r="T160" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U160" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V160" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W160" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X160" s="3" t="inlineStr"/>
-      <c r="Y160" s="3" t="inlineStr"/>
-      <c r="Z160" s="3" t="inlineStr"/>
-      <c r="AA160" s="3" t="inlineStr"/>
-      <c r="AB160" s="3" t="inlineStr"/>
+      <c r="X160" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y160" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z160" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA160" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB160" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC160" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD160" s="3" t="inlineStr"/>
-      <c r="AE160" s="3" t="inlineStr"/>
-      <c r="AF160" s="3" t="inlineStr"/>
+      <c r="AD160" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE160" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF160" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AG160" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20379,7 +20379,7 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Amazon Managed Blockchain</t>
+          <t>Amazon WorkSpaces</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr"/>
@@ -20393,9 +20393,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E161" s="3" t="inlineStr"/>
-      <c r="F161" s="3" t="inlineStr"/>
-      <c r="G161" s="3" t="inlineStr"/>
+      <c r="E161" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G161" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H161" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20413,7 +20425,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M161" s="3" t="inlineStr"/>
+      <c r="M161" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N161" s="3" t="inlineStr"/>
       <c r="O161" s="2" t="inlineStr">
         <is>
@@ -20426,34 +20442,50 @@
         </is>
       </c>
       <c r="Q161" s="3" t="inlineStr"/>
-      <c r="R161" s="3" t="inlineStr"/>
-      <c r="S161" s="3" t="inlineStr"/>
+      <c r="R161" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S161" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T161" s="3" t="inlineStr"/>
       <c r="U161" s="3" t="inlineStr"/>
       <c r="V161" s="3" t="inlineStr"/>
-      <c r="W161" s="3" t="inlineStr"/>
+      <c r="W161" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X161" s="3" t="inlineStr"/>
       <c r="Y161" s="3" t="inlineStr"/>
       <c r="Z161" s="3" t="inlineStr"/>
       <c r="AA161" s="3" t="inlineStr"/>
       <c r="AB161" s="3" t="inlineStr"/>
-      <c r="AC161" s="3" t="inlineStr"/>
+      <c r="AC161" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD161" s="3" t="inlineStr"/>
       <c r="AE161" s="3" t="inlineStr"/>
       <c r="AF161" s="3" t="inlineStr"/>
-      <c r="AG161" s="3" t="inlineStr"/>
+      <c r="AG161" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>AWS Snowball</t>
-        </is>
-      </c>
-      <c r="B162" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Managed Blockchain</t>
+        </is>
+      </c>
+      <c r="B162" s="3" t="inlineStr"/>
       <c r="C162" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20464,56 +20496,28 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E162" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F162" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G162" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E162" s="3" t="inlineStr"/>
+      <c r="F162" s="3" t="inlineStr"/>
+      <c r="G162" s="3" t="inlineStr"/>
       <c r="H162" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I162" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I162" s="3" t="inlineStr"/>
       <c r="J162" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K162" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K162" s="3" t="inlineStr"/>
       <c r="L162" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="M162" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N162" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="M162" s="3" t="inlineStr"/>
+      <c r="N162" s="3" t="inlineStr"/>
       <c r="O162" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20524,72 +20528,28 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q162" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R162" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S162" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T162" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U162" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q162" s="3" t="inlineStr"/>
+      <c r="R162" s="3" t="inlineStr"/>
+      <c r="S162" s="3" t="inlineStr"/>
+      <c r="T162" s="3" t="inlineStr"/>
+      <c r="U162" s="3" t="inlineStr"/>
       <c r="V162" s="3" t="inlineStr"/>
-      <c r="W162" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W162" s="3" t="inlineStr"/>
       <c r="X162" s="3" t="inlineStr"/>
-      <c r="Y162" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Y162" s="3" t="inlineStr"/>
       <c r="Z162" s="3" t="inlineStr"/>
-      <c r="AA162" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA162" s="3" t="inlineStr"/>
       <c r="AB162" s="3" t="inlineStr"/>
-      <c r="AC162" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC162" s="3" t="inlineStr"/>
       <c r="AD162" s="3" t="inlineStr"/>
-      <c r="AE162" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE162" s="3" t="inlineStr"/>
       <c r="AF162" s="3" t="inlineStr"/>
-      <c r="AG162" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AG162" s="3" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>AWS Database Migration Service</t>
+          <t>AWS Snowball</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
@@ -20692,61 +20652,37 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="V163" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V163" s="3" t="inlineStr"/>
       <c r="W163" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X163" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X163" s="3" t="inlineStr"/>
       <c r="Y163" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Z163" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Z163" s="3" t="inlineStr"/>
       <c r="AA163" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB163" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB163" s="3" t="inlineStr"/>
       <c r="AC163" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD163" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD163" s="3" t="inlineStr"/>
       <c r="AE163" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AF163" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF163" s="3" t="inlineStr"/>
       <c r="AG163" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20756,7 +20692,7 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>AWS Serverless Application Repository</t>
+          <t>AWS Database Migration Service</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
@@ -20849,26 +20785,66 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T164" s="3" t="inlineStr"/>
+      <c r="T164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U164" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V164" s="3" t="inlineStr"/>
-      <c r="W164" s="3" t="inlineStr"/>
-      <c r="X164" s="3" t="inlineStr"/>
-      <c r="Y164" s="3" t="inlineStr"/>
-      <c r="Z164" s="3" t="inlineStr"/>
-      <c r="AA164" s="3" t="inlineStr"/>
-      <c r="AB164" s="3" t="inlineStr"/>
+      <c r="V164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC164" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD164" s="3" t="inlineStr"/>
-      <c r="AE164" s="3" t="inlineStr"/>
+      <c r="AD164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF164" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -20883,7 +20859,7 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>AWS Elastic Beanstalk</t>
+          <t>AWS Serverless Application Repository</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
@@ -20976,45 +20952,25 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T165" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T165" s="3" t="inlineStr"/>
       <c r="U165" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="V165" s="3" t="inlineStr"/>
-      <c r="W165" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W165" s="3" t="inlineStr"/>
       <c r="X165" s="3" t="inlineStr"/>
-      <c r="Y165" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Y165" s="3" t="inlineStr"/>
       <c r="Z165" s="3" t="inlineStr"/>
-      <c r="AA165" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA165" s="3" t="inlineStr"/>
       <c r="AB165" s="3" t="inlineStr"/>
       <c r="AC165" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD165" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD165" s="3" t="inlineStr"/>
       <c r="AE165" s="3" t="inlineStr"/>
       <c r="AF165" s="2" t="inlineStr">
         <is>
@@ -21030,7 +20986,7 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>AWS Organizations</t>
+          <t>AWS Elastic Beanstalk</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
@@ -21133,41 +21089,25 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="V166" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V166" s="3" t="inlineStr"/>
       <c r="W166" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X166" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X166" s="3" t="inlineStr"/>
       <c r="Y166" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Z166" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Z166" s="3" t="inlineStr"/>
       <c r="AA166" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB166" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB166" s="3" t="inlineStr"/>
       <c r="AC166" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21178,11 +21118,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AE166" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE166" s="3" t="inlineStr"/>
       <c r="AF166" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21197,21 +21133,49 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>AWS RoboMaker</t>
-        </is>
-      </c>
-      <c r="B167" s="3" t="inlineStr"/>
+          <t>AWS Organizations</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D167" s="3" t="inlineStr"/>
-      <c r="E167" s="3" t="inlineStr"/>
-      <c r="F167" s="3" t="inlineStr"/>
-      <c r="G167" s="3" t="inlineStr"/>
-      <c r="H167" s="3" t="inlineStr"/>
-      <c r="I167" s="3" t="inlineStr"/>
+      <c r="D167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J167" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21232,7 +21196,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N167" s="3" t="inlineStr"/>
+      <c r="N167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O167" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21243,74 +21211,110 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q167" s="3" t="inlineStr"/>
+      <c r="Q167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R167" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S167" s="3" t="inlineStr"/>
-      <c r="T167" s="3" t="inlineStr"/>
-      <c r="U167" s="3" t="inlineStr"/>
-      <c r="V167" s="3" t="inlineStr"/>
-      <c r="W167" s="3" t="inlineStr"/>
-      <c r="X167" s="3" t="inlineStr"/>
-      <c r="Y167" s="3" t="inlineStr"/>
-      <c r="Z167" s="3" t="inlineStr"/>
-      <c r="AA167" s="3" t="inlineStr"/>
-      <c r="AB167" s="3" t="inlineStr"/>
-      <c r="AC167" s="3" t="inlineStr"/>
-      <c r="AD167" s="3" t="inlineStr"/>
-      <c r="AE167" s="3" t="inlineStr"/>
-      <c r="AF167" s="3" t="inlineStr"/>
-      <c r="AG167" s="3" t="inlineStr"/>
+      <c r="S167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Amazon ElastiCache</t>
-        </is>
-      </c>
-      <c r="B168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS RoboMaker</t>
+        </is>
+      </c>
+      <c r="B168" s="3" t="inlineStr"/>
       <c r="C168" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D168" s="3" t="inlineStr"/>
+      <c r="E168" s="3" t="inlineStr"/>
+      <c r="F168" s="3" t="inlineStr"/>
+      <c r="G168" s="3" t="inlineStr"/>
+      <c r="H168" s="3" t="inlineStr"/>
+      <c r="I168" s="3" t="inlineStr"/>
       <c r="J168" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21331,11 +21335,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N168" s="3" t="inlineStr"/>
       <c r="O168" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21346,99 +21346,39 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q168" s="3" t="inlineStr"/>
       <c r="R168" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG168" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S168" s="3" t="inlineStr"/>
+      <c r="T168" s="3" t="inlineStr"/>
+      <c r="U168" s="3" t="inlineStr"/>
+      <c r="V168" s="3" t="inlineStr"/>
+      <c r="W168" s="3" t="inlineStr"/>
+      <c r="X168" s="3" t="inlineStr"/>
+      <c r="Y168" s="3" t="inlineStr"/>
+      <c r="Z168" s="3" t="inlineStr"/>
+      <c r="AA168" s="3" t="inlineStr"/>
+      <c r="AB168" s="3" t="inlineStr"/>
+      <c r="AC168" s="3" t="inlineStr"/>
+      <c r="AD168" s="3" t="inlineStr"/>
+      <c r="AE168" s="3" t="inlineStr"/>
+      <c r="AF168" s="3" t="inlineStr"/>
+      <c r="AG168" s="3" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Amazon Pinpoint</t>
-        </is>
-      </c>
-      <c r="B169" s="3" t="inlineStr"/>
+          <t>Amazon ElastiCache</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21469,7 +21409,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I169" s="3" t="inlineStr"/>
+      <c r="I169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J169" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21490,7 +21434,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N169" s="3" t="inlineStr"/>
+      <c r="N169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O169" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21501,32 +21449,96 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q169" s="3" t="inlineStr"/>
+      <c r="Q169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R169" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S169" s="3" t="inlineStr"/>
-      <c r="T169" s="3" t="inlineStr"/>
-      <c r="U169" s="3" t="inlineStr"/>
-      <c r="V169" s="3" t="inlineStr"/>
-      <c r="W169" s="3" t="inlineStr"/>
-      <c r="X169" s="3" t="inlineStr"/>
-      <c r="Y169" s="3" t="inlineStr"/>
-      <c r="Z169" s="3" t="inlineStr"/>
-      <c r="AA169" s="3" t="inlineStr"/>
-      <c r="AB169" s="3" t="inlineStr"/>
-      <c r="AC169" s="3" t="inlineStr"/>
-      <c r="AD169" s="3" t="inlineStr"/>
-      <c r="AE169" s="3" t="inlineStr"/>
-      <c r="AF169" s="3" t="inlineStr"/>
-      <c r="AG169" s="3" t="inlineStr"/>
+      <c r="S169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>AWS Clean Rooms</t>
+          <t>Amazon Pinpoint</t>
         </is>
       </c>
       <c r="B170" s="3" t="inlineStr"/>
@@ -21540,13 +21552,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E170" s="3" t="inlineStr"/>
+      <c r="E170" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F170" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G170" s="3" t="inlineStr"/>
+      <c r="G170" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H170" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21573,17 +21593,17 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N170" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N170" s="3" t="inlineStr"/>
       <c r="O170" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P170" s="3" t="inlineStr"/>
+      <c r="P170" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q170" s="3" t="inlineStr"/>
       <c r="R170" s="2" t="inlineStr">
         <is>
@@ -21609,14 +21629,10 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Amazon Transcribe</t>
-        </is>
-      </c>
-      <c r="B171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Clean Rooms</t>
+        </is>
+      </c>
+      <c r="B171" s="3" t="inlineStr"/>
       <c r="C171" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21627,31 +21643,19 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E171" s="3" t="inlineStr"/>
       <c r="F171" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G171" s="3" t="inlineStr"/>
       <c r="H171" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I171" s="3" t="inlineStr"/>
       <c r="J171" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21682,68 +21686,40 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P171" s="3" t="inlineStr"/>
+      <c r="Q171" s="3" t="inlineStr"/>
       <c r="R171" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S171" s="3" t="inlineStr"/>
       <c r="T171" s="3" t="inlineStr"/>
-      <c r="U171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U171" s="3" t="inlineStr"/>
       <c r="V171" s="3" t="inlineStr"/>
-      <c r="W171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W171" s="3" t="inlineStr"/>
       <c r="X171" s="3" t="inlineStr"/>
       <c r="Y171" s="3" t="inlineStr"/>
       <c r="Z171" s="3" t="inlineStr"/>
       <c r="AA171" s="3" t="inlineStr"/>
       <c r="AB171" s="3" t="inlineStr"/>
-      <c r="AC171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC171" s="3" t="inlineStr"/>
       <c r="AD171" s="3" t="inlineStr"/>
       <c r="AE171" s="3" t="inlineStr"/>
-      <c r="AF171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG171" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF171" s="3" t="inlineStr"/>
+      <c r="AG171" s="3" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Amazon Forecast</t>
-        </is>
-      </c>
-      <c r="B172" s="3" t="inlineStr"/>
+          <t>Amazon Transcribe</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21764,9 +21740,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G172" s="3" t="inlineStr"/>
-      <c r="H172" s="3" t="inlineStr"/>
-      <c r="I172" s="3" t="inlineStr"/>
+      <c r="G172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J172" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21787,39 +21775,75 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N172" s="3" t="inlineStr"/>
+      <c r="N172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O172" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P172" s="3" t="inlineStr"/>
-      <c r="Q172" s="3" t="inlineStr"/>
+      <c r="P172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R172" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S172" s="3" t="inlineStr"/>
+      <c r="S172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T172" s="3" t="inlineStr"/>
-      <c r="U172" s="3" t="inlineStr"/>
+      <c r="U172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V172" s="3" t="inlineStr"/>
-      <c r="W172" s="3" t="inlineStr"/>
+      <c r="W172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X172" s="3" t="inlineStr"/>
       <c r="Y172" s="3" t="inlineStr"/>
       <c r="Z172" s="3" t="inlineStr"/>
       <c r="AA172" s="3" t="inlineStr"/>
       <c r="AB172" s="3" t="inlineStr"/>
-      <c r="AC172" s="3" t="inlineStr"/>
+      <c r="AC172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD172" s="3" t="inlineStr"/>
       <c r="AE172" s="3" t="inlineStr"/>
-      <c r="AF172" s="3" t="inlineStr"/>
-      <c r="AG172" s="3" t="inlineStr"/>
+      <c r="AF172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG172" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>AWS Support</t>
+          <t>AWS IoT Device Management</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
@@ -21912,61 +21936,25 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T173" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T173" s="3" t="inlineStr"/>
       <c r="U173" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V173" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W173" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X173" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y173" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z173" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA173" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB173" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="V173" s="3" t="inlineStr"/>
+      <c r="W173" s="3" t="inlineStr"/>
+      <c r="X173" s="3" t="inlineStr"/>
+      <c r="Y173" s="3" t="inlineStr"/>
+      <c r="Z173" s="3" t="inlineStr"/>
+      <c r="AA173" s="3" t="inlineStr"/>
+      <c r="AB173" s="3" t="inlineStr"/>
       <c r="AC173" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD173" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD173" s="3" t="inlineStr"/>
       <c r="AE173" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -21986,7 +21974,7 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>AWS IoT Device Management</t>
+          <t>Amazon Macie</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
@@ -22059,11 +22047,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P174" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P174" s="3" t="inlineStr"/>
       <c r="Q174" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22079,52 +22063,48 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T174" s="3" t="inlineStr"/>
-      <c r="U174" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U174" s="3" t="inlineStr"/>
       <c r="V174" s="3" t="inlineStr"/>
-      <c r="W174" s="3" t="inlineStr"/>
+      <c r="W174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X174" s="3" t="inlineStr"/>
       <c r="Y174" s="3" t="inlineStr"/>
       <c r="Z174" s="3" t="inlineStr"/>
-      <c r="AA174" s="3" t="inlineStr"/>
+      <c r="AA174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB174" s="3" t="inlineStr"/>
-      <c r="AC174" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD174" s="3" t="inlineStr"/>
-      <c r="AE174" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC174" s="3" t="inlineStr"/>
+      <c r="AD174" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE174" s="3" t="inlineStr"/>
       <c r="AF174" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AG174" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AG174" s="3" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Amazon Macie</t>
-        </is>
-      </c>
-      <c r="B175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Managed Service for Prometheus</t>
+        </is>
+      </c>
+      <c r="B175" s="3" t="inlineStr"/>
       <c r="C175" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22145,11 +22125,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G175" s="3" t="inlineStr"/>
       <c r="H175" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22191,11 +22167,7 @@
         </is>
       </c>
       <c r="P175" s="3" t="inlineStr"/>
-      <c r="Q175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q175" s="3" t="inlineStr"/>
       <c r="R175" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22206,48 +22178,32 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T175" s="3" t="inlineStr"/>
       <c r="U175" s="3" t="inlineStr"/>
       <c r="V175" s="3" t="inlineStr"/>
-      <c r="W175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W175" s="3" t="inlineStr"/>
       <c r="X175" s="3" t="inlineStr"/>
       <c r="Y175" s="3" t="inlineStr"/>
       <c r="Z175" s="3" t="inlineStr"/>
-      <c r="AA175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA175" s="3" t="inlineStr"/>
       <c r="AB175" s="3" t="inlineStr"/>
       <c r="AC175" s="3" t="inlineStr"/>
-      <c r="AD175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD175" s="3" t="inlineStr"/>
       <c r="AE175" s="3" t="inlineStr"/>
-      <c r="AF175" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF175" s="3" t="inlineStr"/>
       <c r="AG175" s="3" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Amazon Managed Service for Prometheus</t>
-        </is>
-      </c>
-      <c r="B176" s="3" t="inlineStr"/>
+          <t>Amazon Keyspaces (for Apache Cassandra)</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22268,7 +22224,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G176" s="3" t="inlineStr"/>
+      <c r="G176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H176" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22309,8 +22269,16 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P176" s="3" t="inlineStr"/>
-      <c r="Q176" s="3" t="inlineStr"/>
+      <c r="P176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R176" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22322,7 +22290,11 @@
         </is>
       </c>
       <c r="T176" s="3" t="inlineStr"/>
-      <c r="U176" s="3" t="inlineStr"/>
+      <c r="U176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V176" s="3" t="inlineStr"/>
       <c r="W176" s="3" t="inlineStr"/>
       <c r="X176" s="3" t="inlineStr"/>
@@ -22330,23 +22302,31 @@
       <c r="Z176" s="3" t="inlineStr"/>
       <c r="AA176" s="3" t="inlineStr"/>
       <c r="AB176" s="3" t="inlineStr"/>
-      <c r="AC176" s="3" t="inlineStr"/>
+      <c r="AC176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD176" s="3" t="inlineStr"/>
       <c r="AE176" s="3" t="inlineStr"/>
-      <c r="AF176" s="3" t="inlineStr"/>
-      <c r="AG176" s="3" t="inlineStr"/>
+      <c r="AF176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG176" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Amazon Keyspaces (for Apache Cassandra)</t>
-        </is>
-      </c>
-      <c r="B177" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Connect</t>
+        </is>
+      </c>
+      <c r="B177" s="3" t="inlineStr"/>
       <c r="C177" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22357,11 +22337,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E177" s="3" t="inlineStr"/>
       <c r="F177" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22377,21 +22353,13 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I177" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I177" s="3" t="inlineStr"/>
       <c r="J177" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K177" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K177" s="3" t="inlineStr"/>
       <c r="L177" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22402,74 +22370,50 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N177" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O177" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N177" s="3" t="inlineStr"/>
+      <c r="O177" s="3" t="inlineStr"/>
       <c r="P177" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Q177" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q177" s="3" t="inlineStr"/>
       <c r="R177" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S177" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S177" s="3" t="inlineStr"/>
       <c r="T177" s="3" t="inlineStr"/>
-      <c r="U177" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U177" s="3" t="inlineStr"/>
       <c r="V177" s="3" t="inlineStr"/>
-      <c r="W177" s="3" t="inlineStr"/>
+      <c r="W177" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X177" s="3" t="inlineStr"/>
       <c r="Y177" s="3" t="inlineStr"/>
       <c r="Z177" s="3" t="inlineStr"/>
       <c r="AA177" s="3" t="inlineStr"/>
       <c r="AB177" s="3" t="inlineStr"/>
-      <c r="AC177" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AC177" s="3" t="inlineStr"/>
       <c r="AD177" s="3" t="inlineStr"/>
       <c r="AE177" s="3" t="inlineStr"/>
-      <c r="AF177" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG177" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF177" s="3" t="inlineStr"/>
+      <c r="AG177" s="3" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Amazon Connect</t>
-        </is>
-      </c>
-      <c r="B178" s="3" t="inlineStr"/>
+          <t>AWS Network Firewall</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22480,7 +22424,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E178" s="3" t="inlineStr"/>
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F178" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22496,13 +22444,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I178" s="3" t="inlineStr"/>
+      <c r="I178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J178" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K178" s="3" t="inlineStr"/>
+      <c r="K178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L178" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22513,43 +22469,103 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N178" s="3" t="inlineStr"/>
-      <c r="O178" s="3" t="inlineStr"/>
+      <c r="N178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="P178" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Q178" s="3" t="inlineStr"/>
+      <c r="Q178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R178" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S178" s="3" t="inlineStr"/>
-      <c r="T178" s="3" t="inlineStr"/>
+      <c r="S178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U178" s="3" t="inlineStr"/>
-      <c r="V178" s="3" t="inlineStr"/>
+      <c r="V178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W178" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X178" s="3" t="inlineStr"/>
-      <c r="Y178" s="3" t="inlineStr"/>
-      <c r="Z178" s="3" t="inlineStr"/>
-      <c r="AA178" s="3" t="inlineStr"/>
-      <c r="AB178" s="3" t="inlineStr"/>
+      <c r="X178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC178" s="3" t="inlineStr"/>
-      <c r="AD178" s="3" t="inlineStr"/>
-      <c r="AE178" s="3" t="inlineStr"/>
-      <c r="AF178" s="3" t="inlineStr"/>
-      <c r="AG178" s="3" t="inlineStr"/>
+      <c r="AD178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG178" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>AWS Network Firewall</t>
+          <t>AWS Key Management Service</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
@@ -22647,7 +22663,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U179" s="3" t="inlineStr"/>
+      <c r="U179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V179" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22683,7 +22703,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AC179" s="3" t="inlineStr"/>
+      <c r="AC179" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD179" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22708,14 +22732,10 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>AWS Key Management Service</t>
-        </is>
-      </c>
-      <c r="B180" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Forecast</t>
+        </is>
+      </c>
+      <c r="B180" s="3" t="inlineStr"/>
       <c r="C180" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22736,21 +22756,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G180" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G180" s="3" t="inlineStr"/>
+      <c r="H180" s="3" t="inlineStr"/>
+      <c r="I180" s="3" t="inlineStr"/>
       <c r="J180" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -22771,106 +22779,34 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N180" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N180" s="3" t="inlineStr"/>
       <c r="O180" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P180" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q180" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P180" s="3" t="inlineStr"/>
+      <c r="Q180" s="3" t="inlineStr"/>
       <c r="R180" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S180" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T180" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U180" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V180" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W180" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X180" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y180" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z180" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA180" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB180" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC180" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD180" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE180" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF180" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG180" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S180" s="3" t="inlineStr"/>
+      <c r="T180" s="3" t="inlineStr"/>
+      <c r="U180" s="3" t="inlineStr"/>
+      <c r="V180" s="3" t="inlineStr"/>
+      <c r="W180" s="3" t="inlineStr"/>
+      <c r="X180" s="3" t="inlineStr"/>
+      <c r="Y180" s="3" t="inlineStr"/>
+      <c r="Z180" s="3" t="inlineStr"/>
+      <c r="AA180" s="3" t="inlineStr"/>
+      <c r="AB180" s="3" t="inlineStr"/>
+      <c r="AC180" s="3" t="inlineStr"/>
+      <c r="AD180" s="3" t="inlineStr"/>
+      <c r="AE180" s="3" t="inlineStr"/>
+      <c r="AF180" s="3" t="inlineStr"/>
+      <c r="AG180" s="3" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -22954,7 +22890,7 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Amazon Simple Notification Service (SNS)</t>
+          <t>AWS Support</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
@@ -23121,7 +23057,7 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>AWS VPN</t>
+          <t>Amazon Simple Notification Service (SNS)</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
@@ -23219,7 +23155,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U183" s="3" t="inlineStr"/>
+      <c r="U183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V183" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23255,7 +23195,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AC183" s="3" t="inlineStr"/>
+      <c r="AC183" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD183" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23280,17 +23224,49 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>AWS Private 5G</t>
-        </is>
-      </c>
-      <c r="B184" s="3" t="inlineStr"/>
-      <c r="C184" s="3" t="inlineStr"/>
-      <c r="D184" s="3" t="inlineStr"/>
-      <c r="E184" s="3" t="inlineStr"/>
-      <c r="F184" s="3" t="inlineStr"/>
-      <c r="G184" s="3" t="inlineStr"/>
-      <c r="H184" s="3" t="inlineStr"/>
-      <c r="I184" s="3" t="inlineStr"/>
+          <t>AWS VPN</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J184" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23301,32 +23277,108 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L184" s="3" t="inlineStr"/>
-      <c r="M184" s="3" t="inlineStr"/>
-      <c r="N184" s="3" t="inlineStr"/>
-      <c r="O184" s="3" t="inlineStr"/>
-      <c r="P184" s="3" t="inlineStr"/>
-      <c r="Q184" s="3" t="inlineStr"/>
+      <c r="L184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R184" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S184" s="3" t="inlineStr"/>
-      <c r="T184" s="3" t="inlineStr"/>
+      <c r="S184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U184" s="3" t="inlineStr"/>
-      <c r="V184" s="3" t="inlineStr"/>
-      <c r="W184" s="3" t="inlineStr"/>
-      <c r="X184" s="3" t="inlineStr"/>
-      <c r="Y184" s="3" t="inlineStr"/>
-      <c r="Z184" s="3" t="inlineStr"/>
-      <c r="AA184" s="3" t="inlineStr"/>
-      <c r="AB184" s="3" t="inlineStr"/>
+      <c r="V184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC184" s="3" t="inlineStr"/>
-      <c r="AD184" s="3" t="inlineStr"/>
-      <c r="AE184" s="3" t="inlineStr"/>
-      <c r="AF184" s="3" t="inlineStr"/>
-      <c r="AG184" s="3" t="inlineStr"/>
+      <c r="AD184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG184" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -23497,49 +23549,17 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>AWS Storage Gateway</t>
-        </is>
-      </c>
-      <c r="B187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Private 5G</t>
+        </is>
+      </c>
+      <c r="B187" s="3" t="inlineStr"/>
+      <c r="C187" s="3" t="inlineStr"/>
+      <c r="D187" s="3" t="inlineStr"/>
+      <c r="E187" s="3" t="inlineStr"/>
+      <c r="F187" s="3" t="inlineStr"/>
+      <c r="G187" s="3" t="inlineStr"/>
+      <c r="H187" s="3" t="inlineStr"/>
+      <c r="I187" s="3" t="inlineStr"/>
       <c r="J187" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -23550,121 +23570,37 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L187" s="3" t="inlineStr"/>
+      <c r="M187" s="3" t="inlineStr"/>
+      <c r="N187" s="3" t="inlineStr"/>
+      <c r="O187" s="3" t="inlineStr"/>
+      <c r="P187" s="3" t="inlineStr"/>
+      <c r="Q187" s="3" t="inlineStr"/>
       <c r="R187" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG187" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S187" s="3" t="inlineStr"/>
+      <c r="T187" s="3" t="inlineStr"/>
+      <c r="U187" s="3" t="inlineStr"/>
+      <c r="V187" s="3" t="inlineStr"/>
+      <c r="W187" s="3" t="inlineStr"/>
+      <c r="X187" s="3" t="inlineStr"/>
+      <c r="Y187" s="3" t="inlineStr"/>
+      <c r="Z187" s="3" t="inlineStr"/>
+      <c r="AA187" s="3" t="inlineStr"/>
+      <c r="AB187" s="3" t="inlineStr"/>
+      <c r="AC187" s="3" t="inlineStr"/>
+      <c r="AD187" s="3" t="inlineStr"/>
+      <c r="AE187" s="3" t="inlineStr"/>
+      <c r="AF187" s="3" t="inlineStr"/>
+      <c r="AG187" s="3" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Amazon EC2 Auto Scaling</t>
+          <t>AWS Storage Gateway</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
@@ -23831,7 +23767,7 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>AWS Service Catalog</t>
+          <t>Amazon EC2 Auto Scaling</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
@@ -23998,7 +23934,7 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for Lustre</t>
+          <t>AWS Service Catalog</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
@@ -24165,7 +24101,7 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>AWS AppSync</t>
+          <t>Amazon FSx for Lustre</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
@@ -24238,7 +24174,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P191" s="3" t="inlineStr"/>
+      <c r="P191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q191" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24284,7 +24224,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z191" s="3" t="inlineStr"/>
+      <c r="Z191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA191" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24300,7 +24244,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD191" s="3" t="inlineStr"/>
+      <c r="AD191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE191" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24311,22 +24259,58 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AG191" s="3" t="inlineStr"/>
+      <c r="AG191" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>AWS Snowmobile</t>
-        </is>
-      </c>
-      <c r="B192" s="3" t="inlineStr"/>
-      <c r="C192" s="3" t="inlineStr"/>
-      <c r="D192" s="3" t="inlineStr"/>
-      <c r="E192" s="3" t="inlineStr"/>
-      <c r="F192" s="3" t="inlineStr"/>
-      <c r="G192" s="3" t="inlineStr"/>
-      <c r="H192" s="3" t="inlineStr"/>
-      <c r="I192" s="3" t="inlineStr"/>
+          <t>AWS AppSync</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J192" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24337,15 +24321,27 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L192" s="3" t="inlineStr"/>
-      <c r="M192" s="3" t="inlineStr"/>
-      <c r="N192" s="3" t="inlineStr"/>
-      <c r="O192" s="3" t="inlineStr"/>
-      <c r="P192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P192" s="3" t="inlineStr"/>
       <c r="Q192" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24356,30 +24352,74 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S192" s="3" t="inlineStr"/>
-      <c r="T192" s="3" t="inlineStr"/>
-      <c r="U192" s="3" t="inlineStr"/>
-      <c r="V192" s="3" t="inlineStr"/>
-      <c r="W192" s="3" t="inlineStr"/>
-      <c r="X192" s="3" t="inlineStr"/>
-      <c r="Y192" s="3" t="inlineStr"/>
+      <c r="S192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z192" s="3" t="inlineStr"/>
-      <c r="AA192" s="3" t="inlineStr"/>
-      <c r="AB192" s="3" t="inlineStr"/>
-      <c r="AC192" s="3" t="inlineStr"/>
+      <c r="AA192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD192" s="3" t="inlineStr"/>
-      <c r="AE192" s="3" t="inlineStr"/>
-      <c r="AF192" s="3" t="inlineStr"/>
-      <c r="AG192" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF192" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG192" s="3" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>AWS Wickr</t>
+          <t>AWS Snowmobile</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr"/>
@@ -24387,23 +24427,19 @@
       <c r="D193" s="3" t="inlineStr"/>
       <c r="E193" s="3" t="inlineStr"/>
       <c r="F193" s="3" t="inlineStr"/>
-      <c r="G193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H193" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G193" s="3" t="inlineStr"/>
+      <c r="H193" s="3" t="inlineStr"/>
       <c r="I193" s="3" t="inlineStr"/>
       <c r="J193" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K193" s="3" t="inlineStr"/>
+      <c r="K193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L193" s="3" t="inlineStr"/>
       <c r="M193" s="3" t="inlineStr"/>
       <c r="N193" s="3" t="inlineStr"/>
@@ -24413,8 +24449,16 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q193" s="3" t="inlineStr"/>
-      <c r="R193" s="3" t="inlineStr"/>
+      <c r="Q193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="S193" s="3" t="inlineStr"/>
       <c r="T193" s="3" t="inlineStr"/>
       <c r="U193" s="3" t="inlineStr"/>
@@ -24429,39 +24473,23 @@
       <c r="AD193" s="3" t="inlineStr"/>
       <c r="AE193" s="3" t="inlineStr"/>
       <c r="AF193" s="3" t="inlineStr"/>
-      <c r="AG193" s="3" t="inlineStr"/>
+      <c r="AG193" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>Amazon Elastic Container Registry (ECR)</t>
-        </is>
-      </c>
-      <c r="B194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Wickr</t>
+        </is>
+      </c>
+      <c r="B194" s="3" t="inlineStr"/>
+      <c r="C194" s="3" t="inlineStr"/>
+      <c r="D194" s="3" t="inlineStr"/>
+      <c r="E194" s="3" t="inlineStr"/>
+      <c r="F194" s="3" t="inlineStr"/>
       <c r="G194" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24472,156 +24500,96 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I194" s="3" t="inlineStr"/>
       <c r="J194" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K194" s="3" t="inlineStr"/>
+      <c r="L194" s="3" t="inlineStr"/>
+      <c r="M194" s="3" t="inlineStr"/>
+      <c r="N194" s="3" t="inlineStr"/>
+      <c r="O194" s="3" t="inlineStr"/>
       <c r="P194" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Q194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG194" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q194" s="3" t="inlineStr"/>
+      <c r="R194" s="3" t="inlineStr"/>
+      <c r="S194" s="3" t="inlineStr"/>
+      <c r="T194" s="3" t="inlineStr"/>
+      <c r="U194" s="3" t="inlineStr"/>
+      <c r="V194" s="3" t="inlineStr"/>
+      <c r="W194" s="3" t="inlineStr"/>
+      <c r="X194" s="3" t="inlineStr"/>
+      <c r="Y194" s="3" t="inlineStr"/>
+      <c r="Z194" s="3" t="inlineStr"/>
+      <c r="AA194" s="3" t="inlineStr"/>
+      <c r="AB194" s="3" t="inlineStr"/>
+      <c r="AC194" s="3" t="inlineStr"/>
+      <c r="AD194" s="3" t="inlineStr"/>
+      <c r="AE194" s="3" t="inlineStr"/>
+      <c r="AF194" s="3" t="inlineStr"/>
+      <c r="AG194" s="3" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>AWS IoT TwinMaker</t>
-        </is>
-      </c>
-      <c r="B195" s="3" t="inlineStr"/>
-      <c r="C195" s="3" t="inlineStr"/>
-      <c r="D195" s="3" t="inlineStr"/>
-      <c r="E195" s="3" t="inlineStr"/>
+          <t>Amazon Elastic Container Registry (ECR)</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G195" s="3" t="inlineStr"/>
-      <c r="H195" s="3" t="inlineStr"/>
-      <c r="I195" s="3" t="inlineStr"/>
+      <c r="G195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K195" s="3" t="inlineStr"/>
+      <c r="K195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="L195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24632,7 +24600,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N195" s="3" t="inlineStr"/>
+      <c r="N195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24643,84 +24615,116 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q195" s="3" t="inlineStr"/>
+      <c r="Q195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R195" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S195" s="3" t="inlineStr"/>
-      <c r="T195" s="3" t="inlineStr"/>
-      <c r="U195" s="3" t="inlineStr"/>
-      <c r="V195" s="3" t="inlineStr"/>
-      <c r="W195" s="3" t="inlineStr"/>
-      <c r="X195" s="3" t="inlineStr"/>
-      <c r="Y195" s="3" t="inlineStr"/>
-      <c r="Z195" s="3" t="inlineStr"/>
-      <c r="AA195" s="3" t="inlineStr"/>
-      <c r="AB195" s="3" t="inlineStr"/>
-      <c r="AC195" s="3" t="inlineStr"/>
-      <c r="AD195" s="3" t="inlineStr"/>
-      <c r="AE195" s="3" t="inlineStr"/>
-      <c r="AF195" s="3" t="inlineStr"/>
-      <c r="AG195" s="3" t="inlineStr"/>
+      <c r="S195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG195" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Elastic Load Balancing</t>
-        </is>
-      </c>
-      <c r="B196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS IoT TwinMaker</t>
+        </is>
+      </c>
+      <c r="B196" s="3" t="inlineStr"/>
+      <c r="C196" s="3" t="inlineStr"/>
+      <c r="D196" s="3" t="inlineStr"/>
+      <c r="E196" s="3" t="inlineStr"/>
       <c r="F196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G196" s="3" t="inlineStr"/>
+      <c r="H196" s="3" t="inlineStr"/>
+      <c r="I196" s="3" t="inlineStr"/>
       <c r="J196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K196" s="3" t="inlineStr"/>
       <c r="L196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24731,11 +24735,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N196" s="3" t="inlineStr"/>
       <c r="O196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24746,96 +24746,32 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q196" s="3" t="inlineStr"/>
       <c r="R196" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG196" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S196" s="3" t="inlineStr"/>
+      <c r="T196" s="3" t="inlineStr"/>
+      <c r="U196" s="3" t="inlineStr"/>
+      <c r="V196" s="3" t="inlineStr"/>
+      <c r="W196" s="3" t="inlineStr"/>
+      <c r="X196" s="3" t="inlineStr"/>
+      <c r="Y196" s="3" t="inlineStr"/>
+      <c r="Z196" s="3" t="inlineStr"/>
+      <c r="AA196" s="3" t="inlineStr"/>
+      <c r="AB196" s="3" t="inlineStr"/>
+      <c r="AC196" s="3" t="inlineStr"/>
+      <c r="AD196" s="3" t="inlineStr"/>
+      <c r="AE196" s="3" t="inlineStr"/>
+      <c r="AF196" s="3" t="inlineStr"/>
+      <c r="AG196" s="3" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>AWS CodeCommit</t>
+          <t>Elastic Load Balancing</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
@@ -24938,7 +24874,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="V197" s="3" t="inlineStr"/>
+      <c r="V197" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W197" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24954,13 +24894,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Z197" s="3" t="inlineStr"/>
+      <c r="Z197" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA197" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB197" s="3" t="inlineStr"/>
+      <c r="AB197" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC197" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -24990,7 +24938,7 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>Amazon MemoryDB for Redis</t>
+          <t>AWS CodeCommit</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
@@ -25063,7 +25011,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P198" s="3" t="inlineStr"/>
+      <c r="P198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q198" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -25079,16 +25031,32 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T198" s="3" t="inlineStr"/>
+      <c r="T198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U198" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="V198" s="3" t="inlineStr"/>
-      <c r="W198" s="3" t="inlineStr"/>
-      <c r="X198" s="3" t="inlineStr"/>
-      <c r="Y198" s="3" t="inlineStr"/>
+      <c r="W198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z198" s="3" t="inlineStr"/>
       <c r="AA198" s="2" t="inlineStr">
         <is>
@@ -25101,10 +25069,26 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AD198" s="3" t="inlineStr"/>
-      <c r="AE198" s="3" t="inlineStr"/>
-      <c r="AF198" s="3" t="inlineStr"/>
-      <c r="AG198" s="3" t="inlineStr"/>
+      <c r="AD198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG198" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -25620,78 +25604,30 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>Amazon Inspector Classic</t>
+          <t>AWS DeepRacer</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr"/>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C204" s="3" t="inlineStr"/>
+      <c r="D204" s="3" t="inlineStr"/>
+      <c r="E204" s="3" t="inlineStr"/>
+      <c r="F204" s="3" t="inlineStr"/>
       <c r="G204" s="3" t="inlineStr"/>
-      <c r="H204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="H204" s="3" t="inlineStr"/>
       <c r="I204" s="3" t="inlineStr"/>
       <c r="J204" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K204" s="3" t="inlineStr"/>
       <c r="L204" s="3" t="inlineStr"/>
-      <c r="M204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="M204" s="3" t="inlineStr"/>
+      <c r="N204" s="3" t="inlineStr"/>
+      <c r="O204" s="3" t="inlineStr"/>
+      <c r="P204" s="3" t="inlineStr"/>
+      <c r="Q204" s="3" t="inlineStr"/>
+      <c r="R204" s="3" t="inlineStr"/>
       <c r="S204" s="3" t="inlineStr"/>
       <c r="T204" s="3" t="inlineStr"/>
       <c r="U204" s="3" t="inlineStr"/>
@@ -25706,50 +25642,122 @@
       <c r="AD204" s="3" t="inlineStr"/>
       <c r="AE204" s="3" t="inlineStr"/>
       <c r="AF204" s="3" t="inlineStr"/>
-      <c r="AG204" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AG204" s="3" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>AWS DeepRacer</t>
-        </is>
-      </c>
-      <c r="B205" s="3" t="inlineStr"/>
-      <c r="C205" s="3" t="inlineStr"/>
-      <c r="D205" s="3" t="inlineStr"/>
-      <c r="E205" s="3" t="inlineStr"/>
-      <c r="F205" s="3" t="inlineStr"/>
-      <c r="G205" s="3" t="inlineStr"/>
-      <c r="H205" s="3" t="inlineStr"/>
-      <c r="I205" s="3" t="inlineStr"/>
+          <t>Amazon MemoryDB for Redis</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J205" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K205" s="3" t="inlineStr"/>
-      <c r="L205" s="3" t="inlineStr"/>
-      <c r="M205" s="3" t="inlineStr"/>
-      <c r="N205" s="3" t="inlineStr"/>
-      <c r="O205" s="3" t="inlineStr"/>
+      <c r="K205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="P205" s="3" t="inlineStr"/>
-      <c r="Q205" s="3" t="inlineStr"/>
-      <c r="R205" s="3" t="inlineStr"/>
-      <c r="S205" s="3" t="inlineStr"/>
+      <c r="Q205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="T205" s="3" t="inlineStr"/>
-      <c r="U205" s="3" t="inlineStr"/>
+      <c r="U205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V205" s="3" t="inlineStr"/>
       <c r="W205" s="3" t="inlineStr"/>
       <c r="X205" s="3" t="inlineStr"/>
       <c r="Y205" s="3" t="inlineStr"/>
       <c r="Z205" s="3" t="inlineStr"/>
-      <c r="AA205" s="3" t="inlineStr"/>
+      <c r="AA205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB205" s="3" t="inlineStr"/>
-      <c r="AC205" s="3" t="inlineStr"/>
+      <c r="AC205" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD205" s="3" t="inlineStr"/>
       <c r="AE205" s="3" t="inlineStr"/>
       <c r="AF205" s="3" t="inlineStr"/>
@@ -26210,29 +26218,13 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for OpenZFS</t>
-        </is>
-      </c>
-      <c r="B210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Comprehend Medical</t>
+        </is>
+      </c>
+      <c r="B210" s="3" t="inlineStr"/>
+      <c r="C210" s="3" t="inlineStr"/>
+      <c r="D210" s="3" t="inlineStr"/>
+      <c r="E210" s="3" t="inlineStr"/>
       <c r="F210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26259,27 +26251,19 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N210" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="L210" s="3" t="inlineStr"/>
+      <c r="M210" s="3" t="inlineStr"/>
+      <c r="N210" s="3" t="inlineStr"/>
       <c r="O210" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P210" s="3" t="inlineStr"/>
+      <c r="P210" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q210" s="3" t="inlineStr"/>
       <c r="R210" s="2" t="inlineStr">
         <is>
@@ -26305,23 +26289,31 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Amazon Comprehend Medical</t>
+          <t>Amazon Inspector Classic</t>
         </is>
       </c>
       <c r="B211" s="3" t="inlineStr"/>
-      <c r="C211" s="3" t="inlineStr"/>
-      <c r="D211" s="3" t="inlineStr"/>
-      <c r="E211" s="3" t="inlineStr"/>
+      <c r="C211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G211" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G211" s="3" t="inlineStr"/>
       <c r="H211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26339,8 +26331,16 @@
         </is>
       </c>
       <c r="L211" s="3" t="inlineStr"/>
-      <c r="M211" s="3" t="inlineStr"/>
-      <c r="N211" s="3" t="inlineStr"/>
+      <c r="M211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26351,7 +26351,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q211" s="3" t="inlineStr"/>
+      <c r="Q211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R211" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -26371,7 +26375,11 @@
       <c r="AD211" s="3" t="inlineStr"/>
       <c r="AE211" s="3" t="inlineStr"/>
       <c r="AF211" s="3" t="inlineStr"/>
-      <c r="AG211" s="3" t="inlineStr"/>
+      <c r="AG211" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -26793,225 +26801,225 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>AWS Config</t>
-        </is>
-      </c>
-      <c r="B215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon WorkMail</t>
+        </is>
+      </c>
+      <c r="B215" s="3" t="inlineStr"/>
+      <c r="C215" s="3" t="inlineStr"/>
+      <c r="D215" s="3" t="inlineStr"/>
+      <c r="E215" s="3" t="inlineStr"/>
+      <c r="F215" s="3" t="inlineStr"/>
+      <c r="G215" s="3" t="inlineStr"/>
+      <c r="H215" s="3" t="inlineStr"/>
+      <c r="I215" s="3" t="inlineStr"/>
       <c r="J215" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K215" s="3" t="inlineStr"/>
+      <c r="L215" s="3" t="inlineStr"/>
+      <c r="M215" s="3" t="inlineStr"/>
+      <c r="N215" s="3" t="inlineStr"/>
       <c r="O215" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P215" s="3" t="inlineStr"/>
+      <c r="Q215" s="3" t="inlineStr"/>
       <c r="R215" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG215" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S215" s="3" t="inlineStr"/>
+      <c r="T215" s="3" t="inlineStr"/>
+      <c r="U215" s="3" t="inlineStr"/>
+      <c r="V215" s="3" t="inlineStr"/>
+      <c r="W215" s="3" t="inlineStr"/>
+      <c r="X215" s="3" t="inlineStr"/>
+      <c r="Y215" s="3" t="inlineStr"/>
+      <c r="Z215" s="3" t="inlineStr"/>
+      <c r="AA215" s="3" t="inlineStr"/>
+      <c r="AB215" s="3" t="inlineStr"/>
+      <c r="AC215" s="3" t="inlineStr"/>
+      <c r="AD215" s="3" t="inlineStr"/>
+      <c r="AE215" s="3" t="inlineStr"/>
+      <c r="AF215" s="3" t="inlineStr"/>
+      <c r="AG215" s="3" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>Amazon WorkMail</t>
-        </is>
-      </c>
-      <c r="B216" s="3" t="inlineStr"/>
-      <c r="C216" s="3" t="inlineStr"/>
-      <c r="D216" s="3" t="inlineStr"/>
-      <c r="E216" s="3" t="inlineStr"/>
-      <c r="F216" s="3" t="inlineStr"/>
-      <c r="G216" s="3" t="inlineStr"/>
-      <c r="H216" s="3" t="inlineStr"/>
-      <c r="I216" s="3" t="inlineStr"/>
+          <t>AWS Security Hub</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K216" s="3" t="inlineStr"/>
-      <c r="L216" s="3" t="inlineStr"/>
-      <c r="M216" s="3" t="inlineStr"/>
-      <c r="N216" s="3" t="inlineStr"/>
+      <c r="K216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O216" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P216" s="3" t="inlineStr"/>
-      <c r="Q216" s="3" t="inlineStr"/>
+      <c r="P216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R216" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S216" s="3" t="inlineStr"/>
-      <c r="T216" s="3" t="inlineStr"/>
-      <c r="U216" s="3" t="inlineStr"/>
-      <c r="V216" s="3" t="inlineStr"/>
-      <c r="W216" s="3" t="inlineStr"/>
-      <c r="X216" s="3" t="inlineStr"/>
-      <c r="Y216" s="3" t="inlineStr"/>
-      <c r="Z216" s="3" t="inlineStr"/>
-      <c r="AA216" s="3" t="inlineStr"/>
-      <c r="AB216" s="3" t="inlineStr"/>
-      <c r="AC216" s="3" t="inlineStr"/>
-      <c r="AD216" s="3" t="inlineStr"/>
-      <c r="AE216" s="3" t="inlineStr"/>
-      <c r="AF216" s="3" t="inlineStr"/>
-      <c r="AG216" s="3" t="inlineStr"/>
+      <c r="S216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG216" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>AWS Security Hub</t>
+          <t>Amazon FSx for OpenZFS</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
@@ -27049,11 +27057,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I217" s="3" t="inlineStr"/>
       <c r="J217" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27084,96 +27088,28 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P217" s="3" t="inlineStr"/>
+      <c r="Q217" s="3" t="inlineStr"/>
       <c r="R217" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG217" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S217" s="3" t="inlineStr"/>
+      <c r="T217" s="3" t="inlineStr"/>
+      <c r="U217" s="3" t="inlineStr"/>
+      <c r="V217" s="3" t="inlineStr"/>
+      <c r="W217" s="3" t="inlineStr"/>
+      <c r="X217" s="3" t="inlineStr"/>
+      <c r="Y217" s="3" t="inlineStr"/>
+      <c r="Z217" s="3" t="inlineStr"/>
+      <c r="AA217" s="3" t="inlineStr"/>
+      <c r="AB217" s="3" t="inlineStr"/>
+      <c r="AC217" s="3" t="inlineStr"/>
+      <c r="AD217" s="3" t="inlineStr"/>
+      <c r="AE217" s="3" t="inlineStr"/>
+      <c r="AF217" s="3" t="inlineStr"/>
+      <c r="AG217" s="3" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -27438,7 +27374,7 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>Amazon CloudFront</t>
+          <t>AWS Config</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
@@ -27511,7 +27447,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P222" s="3" t="inlineStr"/>
+      <c r="P222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q222" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27592,15 +27532,23 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AG222" s="3" t="inlineStr"/>
+      <c r="AG222" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>Amazon Rekognition</t>
-        </is>
-      </c>
-      <c r="B223" s="3" t="inlineStr"/>
+          <t>Amazon CloudFront</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27631,7 +27579,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I223" s="3" t="inlineStr"/>
+      <c r="I223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27652,17 +27604,17 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N223" s="3" t="inlineStr"/>
+      <c r="N223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P223" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P223" s="3" t="inlineStr"/>
       <c r="Q223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27673,37 +27625,85 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S223" s="3" t="inlineStr"/>
-      <c r="T223" s="3" t="inlineStr"/>
-      <c r="U223" s="3" t="inlineStr"/>
-      <c r="V223" s="3" t="inlineStr"/>
-      <c r="W223" s="3" t="inlineStr"/>
-      <c r="X223" s="3" t="inlineStr"/>
-      <c r="Y223" s="3" t="inlineStr"/>
-      <c r="Z223" s="3" t="inlineStr"/>
-      <c r="AA223" s="3" t="inlineStr"/>
-      <c r="AB223" s="3" t="inlineStr"/>
-      <c r="AC223" s="3" t="inlineStr"/>
+      <c r="S223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD223" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AE223" s="3" t="inlineStr"/>
-      <c r="AF223" s="3" t="inlineStr"/>
+      <c r="AE223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF223" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AG223" s="3" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>AWS Lambda</t>
-        </is>
-      </c>
-      <c r="B224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Amazon Rekognition</t>
+        </is>
+      </c>
+      <c r="B224" s="3" t="inlineStr"/>
       <c r="C224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27734,11 +27734,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="I224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I224" s="3" t="inlineStr"/>
       <c r="J224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27759,11 +27755,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N224" s="3" t="inlineStr"/>
       <c r="O224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27784,86 +27776,30 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S224" s="3" t="inlineStr"/>
+      <c r="T224" s="3" t="inlineStr"/>
+      <c r="U224" s="3" t="inlineStr"/>
+      <c r="V224" s="3" t="inlineStr"/>
+      <c r="W224" s="3" t="inlineStr"/>
+      <c r="X224" s="3" t="inlineStr"/>
+      <c r="Y224" s="3" t="inlineStr"/>
+      <c r="Z224" s="3" t="inlineStr"/>
+      <c r="AA224" s="3" t="inlineStr"/>
+      <c r="AB224" s="3" t="inlineStr"/>
+      <c r="AC224" s="3" t="inlineStr"/>
       <c r="AD224" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AE224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AE224" s="3" t="inlineStr"/>
+      <c r="AF224" s="3" t="inlineStr"/>
+      <c r="AG224" s="3" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>FreeRTOS</t>
+          <t>AWS Lambda</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
@@ -27936,7 +27872,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P225" s="3" t="inlineStr"/>
+      <c r="P225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -27952,37 +27892,81 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T225" s="3" t="inlineStr"/>
+      <c r="T225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="V225" s="3" t="inlineStr"/>
-      <c r="W225" s="3" t="inlineStr"/>
-      <c r="X225" s="3" t="inlineStr"/>
-      <c r="Y225" s="3" t="inlineStr"/>
-      <c r="Z225" s="3" t="inlineStr"/>
-      <c r="AA225" s="3" t="inlineStr"/>
-      <c r="AB225" s="3" t="inlineStr"/>
+      <c r="V225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD225" s="3" t="inlineStr"/>
-      <c r="AE225" s="3" t="inlineStr"/>
+      <c r="AD225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF225" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AG225" s="3" t="inlineStr"/>
+      <c r="AG225" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>AWS App Mesh</t>
+          <t>FreeRTOS</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
@@ -28071,45 +28055,25 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="T226" s="3" t="inlineStr"/>
       <c r="U226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="V226" s="3" t="inlineStr"/>
-      <c r="W226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W226" s="3" t="inlineStr"/>
       <c r="X226" s="3" t="inlineStr"/>
-      <c r="Y226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Y226" s="3" t="inlineStr"/>
       <c r="Z226" s="3" t="inlineStr"/>
-      <c r="AA226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA226" s="3" t="inlineStr"/>
       <c r="AB226" s="3" t="inlineStr"/>
       <c r="AC226" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AD226" s="3" t="inlineStr"/>
       <c r="AE226" s="3" t="inlineStr"/>
       <c r="AF226" s="2" t="inlineStr">
         <is>
@@ -28121,74 +28085,146 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>AWS Application Discovery Service</t>
-        </is>
-      </c>
-      <c r="B227" s="3" t="inlineStr"/>
+          <t>AWS App Mesh</t>
+        </is>
+      </c>
+      <c r="B227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D227" s="3" t="inlineStr"/>
-      <c r="E227" s="3" t="inlineStr"/>
+      <c r="D227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G227" s="3" t="inlineStr"/>
+      <c r="G227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I227" s="3" t="inlineStr"/>
+      <c r="I227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K227" s="3" t="inlineStr"/>
-      <c r="L227" s="3" t="inlineStr"/>
+      <c r="K227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N227" s="3" t="inlineStr"/>
+      <c r="N227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
       <c r="P227" s="3" t="inlineStr"/>
-      <c r="Q227" s="3" t="inlineStr"/>
+      <c r="Q227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="R227" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S227" s="3" t="inlineStr"/>
-      <c r="T227" s="3" t="inlineStr"/>
-      <c r="U227" s="3" t="inlineStr"/>
+      <c r="S227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="V227" s="3" t="inlineStr"/>
-      <c r="W227" s="3" t="inlineStr"/>
+      <c r="W227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="X227" s="3" t="inlineStr"/>
-      <c r="Y227" s="3" t="inlineStr"/>
+      <c r="Y227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z227" s="3" t="inlineStr"/>
-      <c r="AA227" s="3" t="inlineStr"/>
+      <c r="AA227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AB227" s="3" t="inlineStr"/>
-      <c r="AC227" s="3" t="inlineStr"/>
-      <c r="AD227" s="3" t="inlineStr"/>
+      <c r="AC227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE227" s="3" t="inlineStr"/>
-      <c r="AF227" s="3" t="inlineStr"/>
+      <c r="AF227" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AG227" s="3" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaStore</t>
+          <t>AWS Application Discovery Service</t>
         </is>
       </c>
       <c r="B228" s="3" t="inlineStr"/>
@@ -28197,11 +28233,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="D228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D228" s="3" t="inlineStr"/>
       <c r="E228" s="3" t="inlineStr"/>
       <c r="F228" s="2" t="inlineStr">
         <is>
@@ -28227,11 +28259,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N228" s="3" t="inlineStr"/>
       <c r="O228" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28263,14 +28291,10 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>Amazon Route 53 Application Recovery Controller</t>
-        </is>
-      </c>
-      <c r="B229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS Elemental MediaStore</t>
+        </is>
+      </c>
+      <c r="B229" s="3" t="inlineStr"/>
       <c r="C229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28281,46 +28305,26 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="E229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E229" s="3" t="inlineStr"/>
       <c r="F229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G229" s="3" t="inlineStr"/>
       <c r="H229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="I229" s="3" t="inlineStr"/>
       <c r="J229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K229" s="3" t="inlineStr"/>
+      <c r="L229" s="3" t="inlineStr"/>
       <c r="M229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28337,56 +28341,32 @@
         </is>
       </c>
       <c r="P229" s="3" t="inlineStr"/>
-      <c r="Q229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="Q229" s="3" t="inlineStr"/>
       <c r="R229" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S229" s="3" t="inlineStr"/>
+      <c r="T229" s="3" t="inlineStr"/>
       <c r="U229" s="3" t="inlineStr"/>
       <c r="V229" s="3" t="inlineStr"/>
-      <c r="W229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="W229" s="3" t="inlineStr"/>
       <c r="X229" s="3" t="inlineStr"/>
       <c r="Y229" s="3" t="inlineStr"/>
       <c r="Z229" s="3" t="inlineStr"/>
-      <c r="AA229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AA229" s="3" t="inlineStr"/>
       <c r="AB229" s="3" t="inlineStr"/>
       <c r="AC229" s="3" t="inlineStr"/>
       <c r="AD229" s="3" t="inlineStr"/>
       <c r="AE229" s="3" t="inlineStr"/>
-      <c r="AF229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AF229" s="3" t="inlineStr"/>
       <c r="AG229" s="3" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>AWS Cloud Control API</t>
+          <t>Amazon Route 53 Application Recovery Controller</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
@@ -28459,11 +28439,7 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P230" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P230" s="3" t="inlineStr"/>
       <c r="Q230" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28484,76 +28460,36 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U230" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V230" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="U230" s="3" t="inlineStr"/>
+      <c r="V230" s="3" t="inlineStr"/>
       <c r="W230" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X230" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y230" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z230" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="X230" s="3" t="inlineStr"/>
+      <c r="Y230" s="3" t="inlineStr"/>
+      <c r="Z230" s="3" t="inlineStr"/>
       <c r="AA230" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB230" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC230" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD230" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE230" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AB230" s="3" t="inlineStr"/>
+      <c r="AC230" s="3" t="inlineStr"/>
+      <c r="AD230" s="3" t="inlineStr"/>
+      <c r="AE230" s="3" t="inlineStr"/>
       <c r="AF230" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AG230" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="AG230" s="3" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>Amazon FSx for Windows File Server</t>
+          <t>AWS Cloud Control API</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
@@ -28720,69 +28656,181 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>AWS Cost Explorer</t>
-        </is>
-      </c>
-      <c r="B232" s="3" t="inlineStr"/>
-      <c r="C232" s="3" t="inlineStr"/>
-      <c r="D232" s="3" t="inlineStr"/>
-      <c r="E232" s="3" t="inlineStr"/>
-      <c r="F232" s="3" t="inlineStr"/>
-      <c r="G232" s="3" t="inlineStr"/>
-      <c r="H232" s="3" t="inlineStr"/>
-      <c r="I232" s="3" t="inlineStr"/>
+          <t>Amazon FSx for Windows File Server</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J232" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K232" s="3" t="inlineStr"/>
-      <c r="L232" s="3" t="inlineStr"/>
-      <c r="M232" s="3" t="inlineStr"/>
-      <c r="N232" s="3" t="inlineStr"/>
-      <c r="O232" s="3" t="inlineStr"/>
-      <c r="P232" s="3" t="inlineStr"/>
-      <c r="Q232" s="3" t="inlineStr"/>
-      <c r="R232" s="3" t="inlineStr"/>
-      <c r="S232" s="3" t="inlineStr"/>
-      <c r="T232" s="3" t="inlineStr"/>
-      <c r="U232" s="3" t="inlineStr"/>
-      <c r="V232" s="3" t="inlineStr"/>
-      <c r="W232" s="3" t="inlineStr"/>
-      <c r="X232" s="3" t="inlineStr"/>
-      <c r="Y232" s="3" t="inlineStr"/>
-      <c r="Z232" s="3" t="inlineStr"/>
-      <c r="AA232" s="3" t="inlineStr"/>
-      <c r="AB232" s="3" t="inlineStr"/>
+      <c r="K232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC232" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AD232" s="3" t="inlineStr"/>
-      <c r="AE232" s="3" t="inlineStr"/>
-      <c r="AF232" s="3" t="inlineStr"/>
-      <c r="AG232" s="3" t="inlineStr"/>
+      <c r="AD232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG232" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>AWS App Runner</t>
+          <t>AWS Cost Explorer</t>
         </is>
       </c>
       <c r="B233" s="3" t="inlineStr"/>
-      <c r="C233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C233" s="3" t="inlineStr"/>
       <c r="D233" s="3" t="inlineStr"/>
       <c r="E233" s="3" t="inlineStr"/>
-      <c r="F233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="F233" s="3" t="inlineStr"/>
       <c r="G233" s="3" t="inlineStr"/>
       <c r="H233" s="3" t="inlineStr"/>
       <c r="I233" s="3" t="inlineStr"/>
@@ -28791,34 +28839,14 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="K233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="K233" s="3" t="inlineStr"/>
+      <c r="L233" s="3" t="inlineStr"/>
+      <c r="M233" s="3" t="inlineStr"/>
       <c r="N233" s="3" t="inlineStr"/>
-      <c r="O233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="O233" s="3" t="inlineStr"/>
       <c r="P233" s="3" t="inlineStr"/>
       <c r="Q233" s="3" t="inlineStr"/>
-      <c r="R233" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="R233" s="3" t="inlineStr"/>
       <c r="S233" s="3" t="inlineStr"/>
       <c r="T233" s="3" t="inlineStr"/>
       <c r="U233" s="3" t="inlineStr"/>
@@ -28829,7 +28857,11 @@
       <c r="Z233" s="3" t="inlineStr"/>
       <c r="AA233" s="3" t="inlineStr"/>
       <c r="AB233" s="3" t="inlineStr"/>
-      <c r="AC233" s="3" t="inlineStr"/>
+      <c r="AC233" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AD233" s="3" t="inlineStr"/>
       <c r="AE233" s="3" t="inlineStr"/>
       <c r="AF233" s="3" t="inlineStr"/>
@@ -28838,49 +28870,25 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>Amazon Elastic Container Service (ECS)</t>
-        </is>
-      </c>
-      <c r="B234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>AWS App Runner</t>
+        </is>
+      </c>
+      <c r="B234" s="3" t="inlineStr"/>
       <c r="C234" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="D234" s="3" t="inlineStr"/>
+      <c r="E234" s="3" t="inlineStr"/>
       <c r="F234" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="G234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="G234" s="3" t="inlineStr"/>
+      <c r="H234" s="3" t="inlineStr"/>
+      <c r="I234" s="3" t="inlineStr"/>
       <c r="J234" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -28901,111 +28909,39 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="N234" s="3" t="inlineStr"/>
       <c r="O234" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="P234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="P234" s="3" t="inlineStr"/>
+      <c r="Q234" s="3" t="inlineStr"/>
       <c r="R234" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="S234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="V234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="W234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Y234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Z234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AA234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AC234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AD234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AF234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AG234" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="S234" s="3" t="inlineStr"/>
+      <c r="T234" s="3" t="inlineStr"/>
+      <c r="U234" s="3" t="inlineStr"/>
+      <c r="V234" s="3" t="inlineStr"/>
+      <c r="W234" s="3" t="inlineStr"/>
+      <c r="X234" s="3" t="inlineStr"/>
+      <c r="Y234" s="3" t="inlineStr"/>
+      <c r="Z234" s="3" t="inlineStr"/>
+      <c r="AA234" s="3" t="inlineStr"/>
+      <c r="AB234" s="3" t="inlineStr"/>
+      <c r="AC234" s="3" t="inlineStr"/>
+      <c r="AD234" s="3" t="inlineStr"/>
+      <c r="AE234" s="3" t="inlineStr"/>
+      <c r="AF234" s="3" t="inlineStr"/>
+      <c r="AG234" s="3" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>AWS CodeBuild</t>
+          <t>Amazon Elastic Container Service (ECS)</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
@@ -29172,121 +29108,288 @@
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
+          <t>AWS CodeBuild</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="V236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="W236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Z236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AA236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AC236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AD236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AF236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AG236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
           <t>Amazon Chime SDK</t>
         </is>
       </c>
-      <c r="B236" s="3" t="inlineStr"/>
-      <c r="C236" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D236" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E236" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I236" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M236" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N236" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O236" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P236" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q236" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R236" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S236" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T236" s="3" t="inlineStr"/>
-      <c r="U236" s="3" t="inlineStr"/>
-      <c r="V236" s="3" t="inlineStr"/>
-      <c r="W236" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="X236" s="3" t="inlineStr"/>
-      <c r="Y236" s="3" t="inlineStr"/>
-      <c r="Z236" s="3" t="inlineStr"/>
-      <c r="AA236" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AB236" s="3" t="inlineStr"/>
-      <c r="AC236" s="3" t="inlineStr"/>
-      <c r="AD236" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="AE236" s="3" t="inlineStr"/>
-      <c r="AF236" s="3" t="inlineStr"/>
-      <c r="AG236" s="2" t="inlineStr">
+      <c r="B237" s="3" t="inlineStr"/>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I237" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M237" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N237" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O237" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P237" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q237" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R237" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S237" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="T237" s="3" t="inlineStr"/>
+      <c r="U237" s="3" t="inlineStr"/>
+      <c r="V237" s="3" t="inlineStr"/>
+      <c r="W237" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="X237" s="3" t="inlineStr"/>
+      <c r="Y237" s="3" t="inlineStr"/>
+      <c r="Z237" s="3" t="inlineStr"/>
+      <c r="AA237" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AB237" s="3" t="inlineStr"/>
+      <c r="AC237" s="3" t="inlineStr"/>
+      <c r="AD237" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE237" s="3" t="inlineStr"/>
+      <c r="AF237" s="3" t="inlineStr"/>
+      <c r="AG237" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -22815,7 +22815,11 @@
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr"/>
-      <c r="C181" s="3" t="inlineStr"/>
+      <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="D181" s="3" t="inlineStr"/>
       <c r="E181" s="3" t="inlineStr"/>
       <c r="F181" s="2" t="inlineStr">
@@ -22844,7 +22848,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L181" s="3" t="inlineStr"/>
+      <c r="L181" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="M181" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -24497,7 +24497,11 @@
       <c r="C194" s="3" t="inlineStr"/>
       <c r="D194" s="3" t="inlineStr"/>
       <c r="E194" s="3" t="inlineStr"/>
-      <c r="F194" s="3" t="inlineStr"/>
+      <c r="F194" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="G194" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -23505,13 +23505,21 @@
       <c r="C186" s="3" t="inlineStr"/>
       <c r="D186" s="3" t="inlineStr"/>
       <c r="E186" s="3" t="inlineStr"/>
-      <c r="F186" s="3" t="inlineStr"/>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="G186" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="H186" s="3" t="inlineStr"/>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="I186" s="3" t="inlineStr"/>
       <c r="J186" s="2" t="inlineStr">
         <is>
@@ -23523,8 +23531,16 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L186" s="3" t="inlineStr"/>
-      <c r="M186" s="3" t="inlineStr"/>
+      <c r="L186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N186" s="3" t="inlineStr"/>
       <c r="O186" s="2" t="inlineStr">
         <is>
@@ -25600,7 +25616,11 @@
         </is>
       </c>
       <c r="AC203" s="3" t="inlineStr"/>
-      <c r="AD203" s="3" t="inlineStr"/>
+      <c r="AD203" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AE203" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -23502,7 +23502,11 @@
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr"/>
-      <c r="C186" s="3" t="inlineStr"/>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="D186" s="3" t="inlineStr"/>
       <c r="E186" s="3" t="inlineStr"/>
       <c r="F186" s="2" t="inlineStr">
@@ -24736,9 +24740,21 @@
         </is>
       </c>
       <c r="B196" s="3" t="inlineStr"/>
-      <c r="C196" s="3" t="inlineStr"/>
-      <c r="D196" s="3" t="inlineStr"/>
-      <c r="E196" s="3" t="inlineStr"/>
+      <c r="C196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="F196" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -14949,7 +14949,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="P116" s="3" t="inlineStr"/>
+      <c r="P116" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Q116" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14990,7 +14994,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="AG116" s="3" t="inlineStr"/>
+      <c r="AG116" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -15481,7 +15481,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M121" s="3" t="inlineStr"/>
+      <c r="M121" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="N121" s="3" t="inlineStr"/>
       <c r="O121" s="3" t="inlineStr"/>
       <c r="P121" s="3" t="inlineStr"/>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -12050,7 +12050,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T95" s="3" t="inlineStr"/>
+      <c r="T95" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U95" s="3" t="inlineStr"/>
       <c r="V95" s="2" t="inlineStr">
         <is>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -28532,7 +28532,11 @@
         </is>
       </c>
       <c r="X230" s="3" t="inlineStr"/>
-      <c r="Y230" s="3" t="inlineStr"/>
+      <c r="Y230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Z230" s="3" t="inlineStr"/>
       <c r="AA230" s="2" t="inlineStr">
         <is>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -28525,28 +28525,52 @@
         </is>
       </c>
       <c r="U230" s="3" t="inlineStr"/>
-      <c r="V230" s="3" t="inlineStr"/>
+      <c r="V230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="W230" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="X230" s="3" t="inlineStr"/>
+      <c r="X230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="Y230" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="Z230" s="3" t="inlineStr"/>
+      <c r="Z230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AA230" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="AB230" s="3" t="inlineStr"/>
+      <c r="AB230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AC230" s="3" t="inlineStr"/>
-      <c r="AD230" s="3" t="inlineStr"/>
-      <c r="AE230" s="3" t="inlineStr"/>
+      <c r="AD230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="AE230" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="AF230" s="2" t="inlineStr">
         <is>
           <t>YES</t>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -15441,7 +15441,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T120" s="3" t="inlineStr"/>
+      <c r="T120" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U120" s="3" t="inlineStr"/>
       <c r="V120" s="3" t="inlineStr"/>
       <c r="W120" s="3" t="inlineStr"/>

--- a/AwsServiceRegions.xlsx
+++ b/AwsServiceRegions.xlsx
@@ -533,12 +533,12 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>ap-northeast-3</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>sa-east-1</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>ap-northeast-3</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
@@ -741,13 +741,21 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="I3" s="3" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -768,7 +776,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="N3" s="3" t="inlineStr"/>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="O3" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -790,7 +802,11 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="T3" s="3" t="inlineStr"/>
+      <c r="T3" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U3" s="3" t="inlineStr"/>
       <c r="V3" s="3" t="inlineStr"/>
       <c r="W3" s="3" t="inlineStr"/>
@@ -1574,12 +1590,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T10" s="3" t="inlineStr"/>
+      <c r="S10" s="3" t="inlineStr"/>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -2539,12 +2555,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S17" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T17" s="3" t="inlineStr"/>
+      <c r="S17" s="3" t="inlineStr"/>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U17" s="3" t="inlineStr"/>
       <c r="V17" s="3" t="inlineStr"/>
       <c r="W17" s="3" t="inlineStr"/>
@@ -3364,12 +3380,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S24" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T24" s="3" t="inlineStr"/>
+      <c r="S24" s="3" t="inlineStr"/>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U24" s="3" t="inlineStr"/>
       <c r="V24" s="3" t="inlineStr"/>
       <c r="W24" s="3" t="inlineStr"/>
@@ -4141,12 +4157,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S31" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T31" s="3" t="inlineStr"/>
+      <c r="S31" s="3" t="inlineStr"/>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U31" s="3" t="inlineStr"/>
       <c r="V31" s="3" t="inlineStr"/>
       <c r="W31" s="3" t="inlineStr"/>
@@ -4220,12 +4236,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S32" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T32" s="3" t="inlineStr"/>
+      <c r="S32" s="3" t="inlineStr"/>
+      <c r="T32" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U32" s="3" t="inlineStr"/>
       <c r="V32" s="3" t="inlineStr"/>
       <c r="W32" s="2" t="inlineStr">
@@ -6053,12 +6069,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S47" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T47" s="3" t="inlineStr"/>
+      <c r="S47" s="3" t="inlineStr"/>
+      <c r="T47" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -7057,12 +7073,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S55" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T55" s="3" t="inlineStr"/>
+      <c r="S55" s="3" t="inlineStr"/>
+      <c r="T55" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U55" s="3" t="inlineStr"/>
       <c r="V55" s="3" t="inlineStr"/>
       <c r="W55" s="3" t="inlineStr"/>
@@ -7513,12 +7529,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S59" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T59" s="3" t="inlineStr"/>
+      <c r="S59" s="3" t="inlineStr"/>
+      <c r="T59" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U59" s="3" t="inlineStr"/>
       <c r="V59" s="3" t="inlineStr"/>
       <c r="W59" s="3" t="inlineStr"/>
@@ -7624,12 +7640,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S60" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T60" s="3" t="inlineStr"/>
+      <c r="S60" s="3" t="inlineStr"/>
+      <c r="T60" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U60" s="3" t="inlineStr"/>
       <c r="V60" s="3" t="inlineStr"/>
       <c r="W60" s="2" t="inlineStr">
@@ -7826,12 +7842,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S62" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T62" s="3" t="inlineStr"/>
+      <c r="S62" s="3" t="inlineStr"/>
+      <c r="T62" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U62" s="3" t="inlineStr"/>
       <c r="V62" s="3" t="inlineStr"/>
       <c r="W62" s="3" t="inlineStr"/>
@@ -9148,12 +9164,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S72" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T72" s="3" t="inlineStr"/>
+      <c r="S72" s="3" t="inlineStr"/>
+      <c r="T72" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U72" s="2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -10149,12 +10165,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S79" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T79" s="3" t="inlineStr"/>
+      <c r="S79" s="3" t="inlineStr"/>
+      <c r="T79" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U79" s="3" t="inlineStr"/>
       <c r="V79" s="3" t="inlineStr"/>
       <c r="W79" s="3" t="inlineStr"/>
@@ -11379,12 +11395,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="S89" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T89" s="3" t="inlineStr"/>
+      <c r="S89" s="3" t="inlineStr"/>
+      <c r="T89" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="U89" s="3" t="inlineStr"/>
       <c r="V89" s="3" t="inlineStr"/>
       <c r="W89" s="3" t="inlineStr"/>
@@ -12204,12 +12220,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r=